--- a/academics/DB2/2025-2/DB2 2025-2.xlsx
+++ b/academics/DB2/2025-2/DB2 2025-2.xlsx
@@ -1,26 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\UAO\oicampo-uao.github.io\academics\DB2\2025-2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oicampo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C908B9A0-1049-4973-8E3A-C36FC8DE42B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F753FBB-3554-4796-A186-6B5D171D680D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$1</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="77">
   <si>
     <t>numero_documento</t>
   </si>
@@ -203,14 +206,75 @@
   </si>
   <si>
     <t>Grupo</t>
+  </si>
+  <si>
+    <t>GitHubUser</t>
+  </si>
+  <si>
+    <t>NayerAvila</t>
+  </si>
+  <si>
+    <t>anamariatoro</t>
+  </si>
+  <si>
+    <t>jsteven12</t>
+  </si>
+  <si>
+    <t>mrturizo</t>
+  </si>
+  <si>
+    <t>felipevernaza</t>
+  </si>
+  <si>
+    <t>orianamonzon</t>
+  </si>
+  <si>
+    <t>jchamo26</t>
+  </si>
+  <si>
+    <t>LaurenCalixto</t>
+  </si>
+  <si>
+    <t>liz394</t>
+  </si>
+  <si>
+    <t>juanjose98gc</t>
+  </si>
+  <si>
+    <t>SJimenez24</t>
+  </si>
+  <si>
+    <t>juanditauao</t>
+  </si>
+  <si>
+    <t>maumottxs</t>
+  </si>
+  <si>
+    <t>Saritakoala</t>
+  </si>
+  <si>
+    <t>JuandAcostac</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Google Sans"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -238,9 +302,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -259,9 +328,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -299,9 +368,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -334,9 +403,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -369,9 +455,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -545,21 +648,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19.42578125" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" customWidth="1"/>
     <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.28515625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="2"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -572,11 +677,14 @@
       <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>1107836732</v>
       </c>
@@ -589,260 +697,362 @@
       <c r="D2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
+        <v>1110364376</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>1126644560</v>
+      </c>
+      <c r="B4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>1005967544</v>
+      </c>
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>1062329024</v>
+      </c>
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
         <v>1005785832</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B7" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>1110364376</v>
-      </c>
-      <c r="B4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E7" s="2">
+        <v>2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>1005832925</v>
+      </c>
+      <c r="B8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>1109662163</v>
+      </c>
+      <c r="B9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>1005783739</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>1062274189</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="2">
+        <v>3</v>
+      </c>
+      <c r="F11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
+        <v>1219713263</v>
+      </c>
+      <c r="B12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="2">
+        <v>3</v>
+      </c>
+      <c r="F12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
+        <v>1110363454</v>
+      </c>
+      <c r="B13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="2">
+        <v>3</v>
+      </c>
+      <c r="F13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
+        <v>1081728000</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="2">
+        <v>3</v>
+      </c>
+      <c r="F14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
+        <v>1007603017</v>
+      </c>
+      <c r="B15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
+        <v>1005894053</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>1005894053</v>
-      </c>
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>1081728000</v>
-      </c>
-      <c r="B6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>1062274189</v>
-      </c>
-      <c r="B7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+    <row r="17" spans="1:6">
+      <c r="A17" s="1">
         <v>1193073115</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B17" t="s">
         <v>33</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C17" t="s">
         <v>34</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D17" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>1005783739</v>
-      </c>
-      <c r="B9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>1007603017</v>
-      </c>
-      <c r="B10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>1062329024</v>
-      </c>
-      <c r="B11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="E17" s="2">
+        <v>4</v>
+      </c>
+      <c r="F17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1">
+        <v>1193578885</v>
+      </c>
+      <c r="B18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="2">
+        <v>4</v>
+      </c>
+      <c r="F18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1">
+        <v>1025642375</v>
+      </c>
+      <c r="B19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="2">
+        <v>4</v>
+      </c>
+      <c r="F19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1">
         <v>1113698193</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B20" t="s">
         <v>41</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C20" t="s">
         <v>42</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>1005967544</v>
-      </c>
-      <c r="B13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>1005832925</v>
-      </c>
-      <c r="B14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>1219713263</v>
-      </c>
-      <c r="B15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>1193578885</v>
-      </c>
-      <c r="B16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>1025642375</v>
-      </c>
-      <c r="B17" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>1110363454</v>
-      </c>
-      <c r="B18" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>1109662163</v>
-      </c>
-      <c r="B19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>1126644560</v>
-      </c>
-      <c r="B20" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" t="s">
-        <v>20</v>
-      </c>
-    </row>
   </sheetData>
+  <autoFilter ref="A1:F1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/academics/DB2/2025-2/DB2 2025-2.xlsx
+++ b/academics/DB2/2025-2/DB2 2025-2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oicampo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\oicampo\Documents\GitHub\oicampo-uao.github.io\academics\DB2\2025-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F753FBB-3554-4796-A186-6B5D171D680D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11FD60C8-CD9D-46AF-8CE9-D7F58A1F91E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,12 +18,47 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$1</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="81">
   <si>
     <t>numero_documento</t>
   </si>
@@ -254,6 +289,18 @@
   </si>
   <si>
     <t>JuandAcostac</t>
+  </si>
+  <si>
+    <t>Hora</t>
+  </si>
+  <si>
+    <t>Turno</t>
+  </si>
+  <si>
+    <t>catalinadevia</t>
+  </si>
+  <si>
+    <t>mariadm3</t>
   </si>
 </sst>
 </file>
@@ -274,23 +321,27 @@
       <name val="Google Sans"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -298,17 +349,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -328,9 +405,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -368,9 +445,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -403,26 +480,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -455,26 +515,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -648,410 +691,565 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" customWidth="1"/>
     <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.28515625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="2"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.140625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="4" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
+      <c r="G1" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2">
         <v>1107836732</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="3">
         <v>1</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
+      <c r="G2" s="3">
+        <v>1</v>
+      </c>
+      <c r="H2" s="3" t="str" cm="1">
+        <f t="array" ref="H2">_xlfn.IFS(G2=1, "2:00 PM", G2=2, "2:30 PM", G2=3, "3:00 PM", G2=4, "3:30 PM")</f>
+        <v>2:00 PM</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3">
         <v>1110364376</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="3">
         <v>1</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
+      <c r="G3" s="3">
+        <v>1</v>
+      </c>
+      <c r="H3" s="3" t="str" cm="1">
+        <f t="array" ref="H3">_xlfn.IFS(G3=1, "2:00 PM", G3=2, "2:30 PM", G3=3, "3:00 PM", G3=4, "3:30 PM")</f>
+        <v>2:00 PM</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
         <v>1126644560</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="3">
         <v>1</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1">
+      <c r="G4" s="3">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3" t="str" cm="1">
+        <f t="array" ref="H4">_xlfn.IFS(G4=1, "2:00 PM", G4=2, "2:30 PM", G4=3, "3:00 PM", G4=4, "3:30 PM")</f>
+        <v>2:00 PM</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
         <v>1005967544</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="3">
         <v>1</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1">
+      <c r="G5" s="3">
+        <v>1</v>
+      </c>
+      <c r="H5" s="3" t="str" cm="1">
+        <f t="array" ref="H5">_xlfn.IFS(G5=1, "2:00 PM", G5=2, "2:30 PM", G5=3, "3:00 PM", G5=4, "3:30 PM")</f>
+        <v>2:00 PM</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
         <v>1062329024</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="3">
         <v>1</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1">
+      <c r="G6" s="3">
+        <v>1</v>
+      </c>
+      <c r="H6" s="3" t="str" cm="1">
+        <f t="array" ref="H6">_xlfn.IFS(G6=1, "2:00 PM", G6=2, "2:30 PM", G6=3, "3:00 PM", G6=4, "3:30 PM")</f>
+        <v>2:00 PM</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
         <v>1005785832</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="3">
         <v>2</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1">
+      <c r="G7" s="3">
+        <v>2</v>
+      </c>
+      <c r="H7" s="3" t="str" cm="1">
+        <f t="array" ref="H7">_xlfn.IFS(G7=1, "2:00 PM", G7=2, "2:30 PM", G7=3, "3:00 PM", G7=4, "3:30 PM")</f>
+        <v>2:30 PM</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
         <v>1005832925</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="3">
         <v>2</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1">
+      <c r="G8" s="3">
+        <v>2</v>
+      </c>
+      <c r="H8" s="3" t="str" cm="1">
+        <f t="array" ref="H8">_xlfn.IFS(G8=1, "2:00 PM", G8=2, "2:30 PM", G8=3, "3:00 PM", G8=4, "3:30 PM")</f>
+        <v>2:30 PM</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
         <v>1109662163</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="7">
         <v>2</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1">
+      <c r="G9" s="7">
+        <v>2</v>
+      </c>
+      <c r="H9" s="7" t="str" cm="1">
+        <f t="array" ref="H9">_xlfn.IFS(G9=1, "2:00 PM", G9=2, "2:30 PM", G9=3, "3:00 PM", G9=4, "3:30 PM")</f>
+        <v>2:30 PM</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10">
         <v>1005783739</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1">
+      <c r="F10" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G10" s="3">
+        <v>2</v>
+      </c>
+      <c r="H10" s="3" t="str" cm="1">
+        <f t="array" ref="H10">_xlfn.IFS(G10=1, "2:00 PM", G10=2, "2:30 PM", G10=3, "3:00 PM", G10=4, "3:30 PM")</f>
+        <v>2:30 PM</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="5">
+        <v>1113698193</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="7">
+        <v>2</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="3">
+        <v>2</v>
+      </c>
+      <c r="H11" s="3" t="str" cm="1">
+        <f t="array" ref="H11">_xlfn.IFS(G11=1, "2:00 PM", G11=2, "2:30 PM", G11=3, "3:00 PM", G11=4, "3:30 PM")</f>
+        <v>2:30 PM</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
         <v>1062274189</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E12" s="3">
         <v>3</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F12" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="1">
+      <c r="G12" s="3">
+        <v>3</v>
+      </c>
+      <c r="H12" s="3" t="str" cm="1">
+        <f t="array" ref="H12">_xlfn.IFS(G12=1, "2:00 PM", G12=2, "2:30 PM", G12=3, "3:00 PM", G12=4, "3:30 PM")</f>
+        <v>3:00 PM</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13">
         <v>1219713263</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E13" s="3">
         <v>3</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F13" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="1">
+      <c r="G13" s="3">
+        <v>3</v>
+      </c>
+      <c r="H13" s="3" t="str" cm="1">
+        <f t="array" ref="H13">_xlfn.IFS(G13=1, "2:00 PM", G13=2, "2:30 PM", G13=3, "3:00 PM", G13=4, "3:30 PM")</f>
+        <v>3:00 PM</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14">
         <v>1110363454</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E14" s="3">
         <v>3</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F14" s="2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="1">
+      <c r="G14" s="3">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3" t="str" cm="1">
+        <f t="array" ref="H14">_xlfn.IFS(G14=1, "2:00 PM", G14=2, "2:30 PM", G14=3, "3:00 PM", G14=4, "3:30 PM")</f>
+        <v>3:00 PM</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15">
         <v>1081728000</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D15" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E15" s="3">
         <v>3</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F15" s="2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="1">
+      <c r="G15" s="3">
+        <v>3</v>
+      </c>
+      <c r="H15" s="3" t="str" cm="1">
+        <f t="array" ref="H15">_xlfn.IFS(G15=1, "2:00 PM", G15=2, "2:30 PM", G15=3, "3:00 PM", G15=4, "3:30 PM")</f>
+        <v>3:00 PM</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.75">
+      <c r="A16">
         <v>1007603017</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E16" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="1">
+      <c r="F16" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="G16" s="3">
+        <v>4</v>
+      </c>
+      <c r="H16" s="3" t="str" cm="1">
+        <f t="array" ref="H16">_xlfn.IFS(G16=1, "2:00 PM", G16=2, "2:30 PM", G16=3, "3:00 PM", G16=4, "3:30 PM")</f>
+        <v>3:30 PM</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17">
         <v>1005894053</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D17" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E17" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="1">
+      <c r="F17" s="2"/>
+      <c r="G17" s="3">
+        <v>4</v>
+      </c>
+      <c r="H17" s="3" t="str" cm="1">
+        <f t="array" ref="H17">_xlfn.IFS(G17=1, "2:00 PM", G17=2, "2:30 PM", G17=3, "3:00 PM", G17=4, "3:30 PM")</f>
+        <v>3:30 PM</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18">
         <v>1193073115</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E18" s="3">
         <v>4</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F18" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="1">
+      <c r="G18" s="3">
+        <v>4</v>
+      </c>
+      <c r="H18" s="3" t="str" cm="1">
+        <f t="array" ref="H18">_xlfn.IFS(G18=1, "2:00 PM", G18=2, "2:30 PM", G18=3, "3:00 PM", G18=4, "3:30 PM")</f>
+        <v>3:30 PM</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19">
         <v>1193578885</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D19" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E19" s="3">
         <v>4</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F19" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="1">
+      <c r="G19" s="3">
+        <v>4</v>
+      </c>
+      <c r="H19" s="3" t="str" cm="1">
+        <f t="array" ref="H19">_xlfn.IFS(G19=1, "2:00 PM", G19=2, "2:30 PM", G19=3, "3:00 PM", G19=4, "3:30 PM")</f>
+        <v>3:30 PM</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="5" customFormat="1">
+      <c r="A20">
         <v>1025642375</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D20" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E20" s="3">
         <v>4</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F20" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="1">
-        <v>1113698193</v>
-      </c>
-      <c r="B20" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" t="s">
-        <v>12</v>
+      <c r="G20" s="7">
+        <v>4</v>
+      </c>
+      <c r="H20" s="3" t="str" cm="1">
+        <f t="array" ref="H20">_xlfn.IFS(G20=1, "2:00 PM", G20=2, "2:30 PM", G20=3, "3:00 PM", G20=4, "3:30 PM")</f>
+        <v>3:30 PM</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:F1" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F20">
+      <sortCondition ref="E1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/academics/DB2/2025-2/DB2 2025-2.xlsx
+++ b/academics/DB2/2025-2/DB2 2025-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\oicampo\Documents\GitHub\oicampo-uao.github.io\academics\DB2\2025-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11FD60C8-CD9D-46AF-8CE9-D7F58A1F91E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FC103B8-27F4-4C8A-81D3-74C591A4365B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -368,7 +368,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -380,13 +380,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -694,18 +690,18 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="D2" sqref="D2:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.140625" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="1"/>
-    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="6.140625" style="1" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -737,22 +733,22 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2">
-        <v>1107836732</v>
+        <v>1005785832</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3">
         <v>2</v>
       </c>
-      <c r="E2" s="3">
-        <v>1</v>
-      </c>
       <c r="F2" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="G2" s="3">
         <v>1</v>
@@ -764,22 +760,22 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3">
-        <v>1110364376</v>
+        <v>1005832925</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E3" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G3" s="3">
         <v>1</v>
@@ -791,22 +787,22 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4">
-        <v>1126644560</v>
+        <v>1109662163</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4" s="3">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>66</v>
+        <v>2</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>70</v>
       </c>
       <c r="G4" s="3">
         <v>1</v>
@@ -818,22 +814,22 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5">
-        <v>1005967544</v>
+        <v>1005783739</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E5" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="G5" s="3">
         <v>1</v>
@@ -845,23 +841,21 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6">
-        <v>1062329024</v>
+        <v>1113698193</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E6" s="3">
-        <v>1</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>71</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F6" s="2"/>
       <c r="G6" s="3">
         <v>1</v>
       </c>
@@ -872,22 +866,22 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7">
-        <v>1005785832</v>
+        <v>1062274189</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="3">
         <v>3</v>
       </c>
-      <c r="E7" s="3">
-        <v>2</v>
-      </c>
       <c r="F7" s="2" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="G7" s="3">
         <v>2</v>
@@ -899,22 +893,22 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8">
-        <v>1005832925</v>
+        <v>1219713263</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E8" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="G8" s="3">
         <v>2</v>
@@ -926,49 +920,49 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9">
-        <v>1109662163</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="7">
+        <v>1110363454</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="3">
+        <v>3</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G9" s="3">
         <v>2</v>
       </c>
-      <c r="F9" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="G9" s="7">
-        <v>2</v>
-      </c>
-      <c r="H9" s="7" t="str" cm="1">
+      <c r="H9" s="3" t="str" cm="1">
         <f t="array" ref="H9">_xlfn.IFS(G9=1, "2:00 PM", G9=2, "2:30 PM", G9=3, "3:00 PM", G9=4, "3:30 PM")</f>
         <v>2:30 PM</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10">
-        <v>1005783739</v>
+        <v>1081728000</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E10" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G10" s="3">
         <v>2</v>
@@ -978,23 +972,25 @@
         <v>2:30 PM</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="5">
-        <v>1113698193</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="7">
-        <v>2</v>
-      </c>
-      <c r="F11" s="6"/>
+    <row r="11" spans="1:8" ht="15.75">
+      <c r="A11">
+        <v>1007603017</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="3">
+        <v>3</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>80</v>
+      </c>
       <c r="G11" s="3">
         <v>2</v>
       </c>
@@ -1005,23 +1001,21 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12">
-        <v>1062274189</v>
+        <v>1005894053</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E12" s="3">
-        <v>3</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>68</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="F12" s="2"/>
       <c r="G12" s="3">
         <v>3</v>
       </c>
@@ -1032,22 +1026,22 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13">
-        <v>1219713263</v>
+        <v>1193073115</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E13" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="G13" s="3">
         <v>3</v>
@@ -1059,22 +1053,22 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14">
-        <v>1110363454</v>
+        <v>1193578885</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E14" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="G14" s="3">
         <v>3</v>
@@ -1086,22 +1080,22 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15">
-        <v>1081728000</v>
+        <v>1025642375</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E15" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="G15" s="3">
         <v>3</v>
@@ -1111,24 +1105,24 @@
         <v>3:00 PM</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15.75">
+    <row r="16" spans="1:8">
       <c r="A16">
-        <v>1007603017</v>
+        <v>1107836732</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E16" s="3">
-        <v>3</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>80</v>
+        <v>1</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>76</v>
       </c>
       <c r="G16" s="3">
         <v>4</v>
@@ -1140,21 +1134,23 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17">
-        <v>1005894053</v>
+        <v>1110364376</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E17" s="3">
-        <v>4</v>
-      </c>
-      <c r="F17" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="G17" s="3">
         <v>4</v>
       </c>
@@ -1165,22 +1161,22 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18">
-        <v>1193073115</v>
+        <v>1126644560</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E18" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G18" s="3">
         <v>4</v>
@@ -1192,22 +1188,22 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19">
-        <v>1193578885</v>
+        <v>1005967544</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E19" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="G19" s="3">
         <v>4</v>
@@ -1217,26 +1213,26 @@
         <v>3:30 PM</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="5" customFormat="1">
+    <row r="20" spans="1:8">
       <c r="A20">
-        <v>1025642375</v>
+        <v>1062329024</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E20" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G20" s="7">
+        <v>71</v>
+      </c>
+      <c r="G20" s="3">
         <v>4</v>
       </c>
       <c r="H20" s="3" t="str" cm="1">
@@ -1245,9 +1241,9 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F1" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F20">
-      <sortCondition ref="E1"/>
+  <autoFilter ref="A1:H1" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H20">
+      <sortCondition ref="G1"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/academics/DB2/2025-2/DB2 2025-2.xlsx
+++ b/academics/DB2/2025-2/DB2 2025-2.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\oicampo\Documents\GitHub\oicampo-uao.github.io\academics\DB2\2025-2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\UAO\oicampo-uao.github.io\academics\DB2\2025-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FC103B8-27F4-4C8A-81D3-74C591A4365B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45CC8096-B424-4CAA-AB69-767992A7B8E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="95">
   <si>
     <t>numero_documento</t>
   </si>
@@ -301,12 +302,57 @@
   </si>
   <si>
     <t>mariadm3</t>
+  </si>
+  <si>
+    <t>TAC</t>
+  </si>
+  <si>
+    <t>TC</t>
+  </si>
+  <si>
+    <t>QT</t>
+  </si>
+  <si>
+    <t>FC</t>
+  </si>
+  <si>
+    <t>Nota 1</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Explicación</t>
+  </si>
+  <si>
+    <t>Número de Tareas asignadas en Cronograma</t>
+  </si>
+  <si>
+    <t>Tareas Cumplidas, verificadas por el commit y las evidencias</t>
+  </si>
+  <si>
+    <t>Calidad de las tareas (promedio de las notas de las tareas cumplidas)</t>
+  </si>
+  <si>
+    <t>Factor de Cumplimiento  (TC/TAC)*QT</t>
+  </si>
+  <si>
+    <t>VIIE</t>
+  </si>
+  <si>
+    <t>Concepto VIIE</t>
+  </si>
+  <si>
+    <t>0.7*FC+0.3*VIIE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -341,7 +387,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -364,11 +410,81 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -381,13 +497,116 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -398,6 +617,16 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7E1D9A77-FA34-49D2-8C1C-73765D0BB16B}" name="Table2" displayName="Table2" ref="A1:B7" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="3" tableBorderDxfId="4" totalsRowBorderDxfId="2">
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{F1BCB088-F16A-44DE-A75B-8FBE9558B2DE}" name="Factor" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{6492F7EB-1333-4A82-A7C9-6BB4CA52A3B2}" name="Explicación" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -687,25 +916,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D20"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="1"/>
-    <col min="6" max="6" width="15.7109375" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="6.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="6.140625" style="1" customWidth="1"/>
     <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -730,523 +960,885 @@
       <c r="H1" s="4" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2">
-        <v>1005785832</v>
+        <v>1107836732</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E2" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="G2" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H2" s="3" t="str" cm="1">
         <f t="array" ref="H2">_xlfn.IFS(G2=1, "2:00 PM", G2=2, "2:30 PM", G2=3, "3:00 PM", G2=4, "3:30 PM")</f>
-        <v>2:00 PM</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>3:30 PM</v>
+      </c>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="7" t="e">
+        <f>(J2/I2)*K2</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M2" s="17">
+        <v>3.59</v>
+      </c>
+      <c r="N2" s="7">
+        <f>0.7*J2+0.3*M2</f>
+        <v>1.077</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3">
-        <v>1005832925</v>
+        <v>1110364376</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E3" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G3" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H3" s="3" t="str" cm="1">
         <f t="array" ref="H3">_xlfn.IFS(G3=1, "2:00 PM", G3=2, "2:30 PM", G3=3, "3:00 PM", G3=4, "3:30 PM")</f>
-        <v>2:00 PM</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>3:30 PM</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="7" t="e">
+        <f>(J3/I3)*K3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M3" s="17">
+        <v>3.59</v>
+      </c>
+      <c r="N3" s="7">
+        <f>0.7*J3+0.3*M3</f>
+        <v>1.077</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4">
-        <v>1109662163</v>
+        <v>1126644560</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4" s="3">
-        <v>2</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>70</v>
+        <v>1</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="G4" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H4" s="3" t="str" cm="1">
         <f t="array" ref="H4">_xlfn.IFS(G4=1, "2:00 PM", G4=2, "2:30 PM", G4=3, "3:00 PM", G4=4, "3:30 PM")</f>
-        <v>2:00 PM</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>3:30 PM</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="7" t="e">
+        <f>(J4/I4)*K4</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M4" s="17">
+        <v>3.59</v>
+      </c>
+      <c r="N4" s="7">
+        <f>0.7*J4+0.3*M4</f>
+        <v>1.077</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5">
-        <v>1005783739</v>
+        <v>1005967544</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E5" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G5" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H5" s="3" t="str" cm="1">
         <f t="array" ref="H5">_xlfn.IFS(G5=1, "2:00 PM", G5=2, "2:30 PM", G5=3, "3:00 PM", G5=4, "3:30 PM")</f>
-        <v>2:00 PM</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>3:30 PM</v>
+      </c>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="7" t="e">
+        <f>(J5/I5)*K5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M5" s="17">
+        <v>3.59</v>
+      </c>
+      <c r="N5" s="7">
+        <f>0.7*J5+0.3*M5</f>
+        <v>1.077</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6">
-        <v>1113698193</v>
+        <v>1062329024</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E6" s="3">
-        <v>2</v>
-      </c>
-      <c r="F6" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="G6" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H6" s="3" t="str" cm="1">
         <f t="array" ref="H6">_xlfn.IFS(G6=1, "2:00 PM", G6=2, "2:30 PM", G6=3, "3:00 PM", G6=4, "3:30 PM")</f>
-        <v>2:00 PM</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>3:30 PM</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="7" t="e">
+        <f>(J6/I6)*K6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M6" s="17">
+        <v>3.59</v>
+      </c>
+      <c r="N6" s="7">
+        <f>0.7*J6+0.3*M6</f>
+        <v>1.077</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7">
-        <v>1062274189</v>
+        <v>1005785832</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E7" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="G7" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H7" s="3" t="str" cm="1">
         <f t="array" ref="H7">_xlfn.IFS(G7=1, "2:00 PM", G7=2, "2:30 PM", G7=3, "3:00 PM", G7=4, "3:30 PM")</f>
-        <v>2:30 PM</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>2:00 PM</v>
+      </c>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7" t="e">
+        <f>(J7/I7)*K7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M7" s="16">
+        <v>3.55</v>
+      </c>
+      <c r="N7" s="7">
+        <f>0.7*J7+0.3*M7</f>
+        <v>1.0649999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8">
-        <v>1219713263</v>
+        <v>1005832925</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E8" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="G8" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H8" s="3" t="str" cm="1">
         <f t="array" ref="H8">_xlfn.IFS(G8=1, "2:00 PM", G8=2, "2:30 PM", G8=3, "3:00 PM", G8=4, "3:30 PM")</f>
-        <v>2:30 PM</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>2:00 PM</v>
+      </c>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7" t="e">
+        <f>(J8/I8)*K8</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M8" s="16">
+        <v>3.55</v>
+      </c>
+      <c r="N8" s="7">
+        <f>0.7*J8+0.3*M8</f>
+        <v>1.0649999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9">
-        <v>1110363454</v>
+        <v>1109662163</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E9" s="3">
-        <v>3</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>73</v>
+        <v>2</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>70</v>
       </c>
       <c r="G9" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H9" s="3" t="str" cm="1">
         <f t="array" ref="H9">_xlfn.IFS(G9=1, "2:00 PM", G9=2, "2:30 PM", G9=3, "3:00 PM", G9=4, "3:30 PM")</f>
-        <v>2:30 PM</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>2:00 PM</v>
+      </c>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7" t="e">
+        <f>(J9/I9)*K9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M9" s="16">
+        <v>3.55</v>
+      </c>
+      <c r="N9" s="7">
+        <f>0.7*J9+0.3*M9</f>
+        <v>1.0649999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10">
-        <v>1081728000</v>
+        <v>1005783739</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E10" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G10" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H10" s="3" t="str" cm="1">
         <f t="array" ref="H10">_xlfn.IFS(G10=1, "2:00 PM", G10=2, "2:30 PM", G10=3, "3:00 PM", G10=4, "3:30 PM")</f>
-        <v>2:30 PM</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="15.75">
+        <v>2:00 PM</v>
+      </c>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7" t="e">
+        <f>(J10/I10)*K10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M10" s="16">
+        <v>3.55</v>
+      </c>
+      <c r="N10" s="7">
+        <f>0.7*J10+0.3*M10</f>
+        <v>1.0649999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11">
-        <v>1007603017</v>
+        <v>1113698193</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E11" s="3">
-        <v>3</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>80</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F11" s="2"/>
       <c r="G11" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H11" s="3" t="str" cm="1">
         <f t="array" ref="H11">_xlfn.IFS(G11=1, "2:00 PM", G11=2, "2:30 PM", G11=3, "3:00 PM", G11=4, "3:30 PM")</f>
-        <v>2:30 PM</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>2:00 PM</v>
+      </c>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7" t="e">
+        <f>(J11/I11)*K11</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M11" s="16">
+        <v>3.55</v>
+      </c>
+      <c r="N11" s="7">
+        <f>0.7*J11+0.3*M11</f>
+        <v>1.0649999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12">
-        <v>1005894053</v>
+        <v>1062274189</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E12" s="3">
-        <v>4</v>
-      </c>
-      <c r="F12" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="G12" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H12" s="3" t="str" cm="1">
         <f t="array" ref="H12">_xlfn.IFS(G12=1, "2:00 PM", G12=2, "2:30 PM", G12=3, "3:00 PM", G12=4, "3:30 PM")</f>
-        <v>3:00 PM</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>2:30 PM</v>
+      </c>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7" t="e">
+        <f>(J12/I12)*K12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M12" s="16">
+        <v>2.76</v>
+      </c>
+      <c r="N12" s="7">
+        <f>0.7*J12+0.3*M12</f>
+        <v>0.82799999999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13">
-        <v>1193073115</v>
+        <v>1219713263</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E13" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="G13" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H13" s="3" t="str" cm="1">
         <f t="array" ref="H13">_xlfn.IFS(G13=1, "2:00 PM", G13=2, "2:30 PM", G13=3, "3:00 PM", G13=4, "3:30 PM")</f>
-        <v>3:00 PM</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>2:30 PM</v>
+      </c>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7" t="e">
+        <f>(J13/I13)*K13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M13" s="16">
+        <v>2.76</v>
+      </c>
+      <c r="N13" s="7">
+        <f>0.7*J13+0.3*M13</f>
+        <v>0.82799999999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14">
-        <v>1193578885</v>
+        <v>1110363454</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E14" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="G14" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H14" s="3" t="str" cm="1">
         <f t="array" ref="H14">_xlfn.IFS(G14=1, "2:00 PM", G14=2, "2:30 PM", G14=3, "3:00 PM", G14=4, "3:30 PM")</f>
-        <v>3:00 PM</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>2:30 PM</v>
+      </c>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7" t="e">
+        <f>(J14/I14)*K14</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M14" s="16">
+        <v>2.76</v>
+      </c>
+      <c r="N14" s="7">
+        <f>0.7*J14+0.3*M14</f>
+        <v>0.82799999999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15">
-        <v>1025642375</v>
+        <v>1081728000</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E15" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="G15" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H15" s="3" t="str" cm="1">
         <f t="array" ref="H15">_xlfn.IFS(G15=1, "2:00 PM", G15=2, "2:30 PM", G15=3, "3:00 PM", G15=4, "3:30 PM")</f>
-        <v>3:00 PM</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>2:30 PM</v>
+      </c>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7" t="e">
+        <f>(J15/I15)*K15</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M15" s="16">
+        <v>2.76</v>
+      </c>
+      <c r="N15" s="7">
+        <f>0.7*J15+0.3*M15</f>
+        <v>0.82799999999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="15.75">
       <c r="A16">
-        <v>1107836732</v>
+        <v>1007603017</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="D16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="3">
+        <v>3</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="G16" s="3">
         <v>2</v>
-      </c>
-      <c r="E16" s="3">
-        <v>1</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G16" s="3">
-        <v>4</v>
       </c>
       <c r="H16" s="3" t="str" cm="1">
         <f t="array" ref="H16">_xlfn.IFS(G16=1, "2:00 PM", G16=2, "2:30 PM", G16=3, "3:00 PM", G16=4, "3:30 PM")</f>
-        <v>3:30 PM</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>2:30 PM</v>
+      </c>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7" t="e">
+        <f>(J16/I16)*K16</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M16" s="16">
+        <v>2.76</v>
+      </c>
+      <c r="N16" s="7">
+        <f>0.7*J16+0.3*M16</f>
+        <v>0.82799999999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17">
-        <v>1110364376</v>
+        <v>1005894053</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="3">
         <v>4</v>
       </c>
-      <c r="E17" s="3">
-        <v>1</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>69</v>
-      </c>
+      <c r="F17" s="2"/>
       <c r="G17" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H17" s="3" t="str" cm="1">
         <f t="array" ref="H17">_xlfn.IFS(G17=1, "2:00 PM", G17=2, "2:30 PM", G17=3, "3:00 PM", G17=4, "3:30 PM")</f>
-        <v>3:30 PM</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>3:00 PM</v>
+      </c>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7" t="e">
+        <f>(J17/I17)*K17</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M17" s="16">
+        <v>2.96</v>
+      </c>
+      <c r="N17" s="7">
+        <f>0.7*J17+0.3*M17</f>
+        <v>0.88800000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18">
-        <v>1126644560</v>
+        <v>1193073115</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E18" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G18" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H18" s="3" t="str" cm="1">
         <f t="array" ref="H18">_xlfn.IFS(G18=1, "2:00 PM", G18=2, "2:30 PM", G18=3, "3:00 PM", G18=4, "3:30 PM")</f>
-        <v>3:30 PM</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>3:00 PM</v>
+      </c>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7" t="e">
+        <f>(J18/I18)*K18</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M18" s="16">
+        <v>2.96</v>
+      </c>
+      <c r="N18" s="7">
+        <f>0.7*J18+0.3*M18</f>
+        <v>0.88800000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19">
-        <v>1005967544</v>
+        <v>1193578885</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E19" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="G19" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H19" s="3" t="str" cm="1">
         <f t="array" ref="H19">_xlfn.IFS(G19=1, "2:00 PM", G19=2, "2:30 PM", G19=3, "3:00 PM", G19=4, "3:30 PM")</f>
-        <v>3:30 PM</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>3:00 PM</v>
+      </c>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7" t="e">
+        <f>(J19/I19)*K19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M19" s="16">
+        <v>2.96</v>
+      </c>
+      <c r="N19" s="7">
+        <f>0.7*J19+0.3*M19</f>
+        <v>0.88800000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20">
-        <v>1062329024</v>
+        <v>1025642375</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E20" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="G20" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H20" s="3" t="str" cm="1">
         <f t="array" ref="H20">_xlfn.IFS(G20=1, "2:00 PM", G20=2, "2:30 PM", G20=3, "3:00 PM", G20=4, "3:30 PM")</f>
-        <v>3:30 PM</v>
+        <v>3:00 PM</v>
+      </c>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="7" t="e">
+        <f>(J20/I20)*K20</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M20" s="16">
+        <v>2.96</v>
+      </c>
+      <c r="N20" s="7">
+        <f>0.7*J20+0.3*M20</f>
+        <v>0.88800000000000001</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H1" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H20">
-      <sortCondition ref="G1"/>
+  <autoFilter ref="A1:N1" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N20">
+      <sortCondition ref="E1"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBF4E5FE-8C1E-42BD-9F29-DCD3824FC0F7}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/academics/DB2/2025-2/DB2 2025-2.xlsx
+++ b/academics/DB2/2025-2/DB2 2025-2.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\UAO\oicampo-uao.github.io\academics\DB2\2025-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45CC8096-B424-4CAA-AB69-767992A7B8E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4200EF0-AEB4-4944-88C1-AE639EDABBF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$1</definedName>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="134">
   <si>
     <t>numero_documento</t>
   </si>
@@ -344,6 +345,123 @@
   </si>
   <si>
     <t>0.7*FC+0.3*VIIE</t>
+  </si>
+  <si>
+    <t>Actividad</t>
+  </si>
+  <si>
+    <t>Responsible</t>
+  </si>
+  <si>
+    <t>Creación del cronograma</t>
+  </si>
+  <si>
+    <t>Oriana Monzón</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creación del documento del proyecto </t>
+  </si>
+  <si>
+    <t>Catalina Devia</t>
+  </si>
+  <si>
+    <t>Revisión Bibliográfica y documental</t>
+  </si>
+  <si>
+    <t>Elizabeth Vasquez y Claudia Paola Holguin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analisis de causas y efectos respaldado por referentes </t>
+  </si>
+  <si>
+    <t>Nayer Isabella Avila</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Elaboración diagrama árbol del problema</t>
+  </si>
+  <si>
+    <t>Oriana Monzón y Nayer Isabella Avila</t>
+  </si>
+  <si>
+    <t>Diseño de instrumento de recolección de información (Entrevista)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oriana Monzón </t>
+  </si>
+  <si>
+    <t>Realización de entrevistas a la población objetivo y a actores clave que mantienen una relación directa con esta.</t>
+  </si>
+  <si>
+    <t>Oriana Monzón, Catalina Devia</t>
+  </si>
+  <si>
+    <t>Delimitación del tema de investigación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elizabeth Vasquez y Oriana Monzón </t>
+  </si>
+  <si>
+    <t>Busqueda Bibliográfica</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Elizabeth Vasquez  y oriana Monzón</t>
+  </si>
+  <si>
+    <t>Selección de fuentes relevantes</t>
+  </si>
+  <si>
+    <t>Nayer Ávila</t>
+  </si>
+  <si>
+    <t>Realización perfil del usuario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Análisis de la información recolectada (Entrevistas y estado del Arte) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formulación de objetivos a partir de los problemas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nayer Ávila Claudia Holguin </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Construcción gráfica del árbol de objetivos (objetivo general y objetivos especificos) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nayer Ávila </t>
+  </si>
+  <si>
+    <t>Revisión de necesidades no satisfechas</t>
+  </si>
+  <si>
+    <t>Elaboración listado de especificaciones técnicas preliminares</t>
+  </si>
+  <si>
+    <t>Elizabeth Vasquez y Oriana Monzón</t>
+  </si>
+  <si>
+    <t>Implementación metodología QFD, relación entre necesidades y criterios tecnicos</t>
+  </si>
+  <si>
+    <t>Elizabeth Vasquez y  Oriana Monzón</t>
+  </si>
+  <si>
+    <t>Validación de requerimientos (con expertos)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Catalina Devia</t>
+  </si>
+  <si>
+    <t>Elaboración caja negra y caja transparente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Claudia Holguin, Nayer Ávila, Oriana Monzón </t>
+  </si>
+  <si>
+    <t>Busqueda de referentes o inspiración</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nayer Ávila</t>
   </si>
 </sst>
 </file>
@@ -353,7 +471,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -372,6 +490,17 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -387,7 +516,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -480,11 +609,67 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -497,10 +682,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -513,11 +695,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -525,6 +704,46 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -572,13 +791,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -588,6 +800,13 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -620,7 +839,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7E1D9A77-FA34-49D2-8C1C-73765D0BB16B}" name="Table2" displayName="Table2" ref="A1:B7" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="3" tableBorderDxfId="4" totalsRowBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7E1D9A77-FA34-49D2-8C1C-73765D0BB16B}" name="Table2" displayName="Table2" ref="A1:B7" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3" totalsRowBorderDxfId="2">
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{F1BCB088-F16A-44DE-A75B-8FBE9558B2DE}" name="Factor" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{6492F7EB-1333-4A82-A7C9-6BB4CA52A3B2}" name="Explicación" dataDxfId="0"/>
@@ -919,7 +1138,7 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -932,7 +1151,8 @@
     <col min="6" max="6" width="15.7109375" customWidth="1"/>
     <col min="7" max="7" width="6.140625" style="1" customWidth="1"/>
     <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="18"/>
+    <col min="9" max="9" width="9.140625" style="19"/>
+    <col min="13" max="13" width="9.140625" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -960,7 +1180,7 @@
       <c r="H1" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="17" t="s">
         <v>81</v>
       </c>
       <c r="J1" s="4" t="s">
@@ -972,7 +1192,7 @@
       <c r="L1" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="M1" s="14" t="s">
         <v>92</v>
       </c>
       <c r="N1" s="4" t="s">
@@ -1005,19 +1225,25 @@
         <f t="array" ref="H2">_xlfn.IFS(G2=1, "2:00 PM", G2=2, "2:30 PM", G2=3, "3:00 PM", G2=4, "3:30 PM")</f>
         <v>3:30 PM</v>
       </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="7" t="e">
-        <f>(J2/I2)*K2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M2" s="17">
+      <c r="I2" s="18">
+        <v>3</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="L2" s="6">
+        <f t="shared" ref="L2:L20" si="0">(J2/I2)*K2</f>
+        <v>1.5</v>
+      </c>
+      <c r="M2" s="15">
         <v>3.59</v>
       </c>
-      <c r="N2" s="7">
-        <f>0.7*J2+0.3*M2</f>
-        <v>1.077</v>
+      <c r="N2" s="6">
+        <f>0.7*L2+0.3*M2</f>
+        <v>2.1269999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -1046,19 +1272,25 @@
         <f t="array" ref="H3">_xlfn.IFS(G3=1, "2:00 PM", G3=2, "2:30 PM", G3=3, "3:00 PM", G3=4, "3:30 PM")</f>
         <v>3:30 PM</v>
       </c>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="7" t="e">
-        <f>(J3/I3)*K3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M3" s="17">
+      <c r="I3" s="18">
+        <v>3</v>
+      </c>
+      <c r="J3" s="2">
+        <v>3</v>
+      </c>
+      <c r="K3" s="2">
+        <v>4.8</v>
+      </c>
+      <c r="L3" s="6">
+        <f t="shared" si="0"/>
+        <v>4.8</v>
+      </c>
+      <c r="M3" s="15">
         <v>3.59</v>
       </c>
-      <c r="N3" s="7">
-        <f>0.7*J3+0.3*M3</f>
-        <v>1.077</v>
+      <c r="N3" s="6">
+        <f t="shared" ref="N3:N20" si="1">0.7*L3+0.3*M3</f>
+        <v>4.4369999999999994</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -1087,19 +1319,25 @@
         <f t="array" ref="H4">_xlfn.IFS(G4=1, "2:00 PM", G4=2, "2:30 PM", G4=3, "3:00 PM", G4=4, "3:30 PM")</f>
         <v>3:30 PM</v>
       </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="7" t="e">
-        <f>(J4/I4)*K4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M4" s="17">
+      <c r="I4" s="18">
+        <v>4</v>
+      </c>
+      <c r="J4" s="2">
+        <v>2</v>
+      </c>
+      <c r="K4" s="2">
+        <v>4.8</v>
+      </c>
+      <c r="L4" s="6">
+        <f t="shared" si="0"/>
+        <v>2.4</v>
+      </c>
+      <c r="M4" s="15">
         <v>3.59</v>
       </c>
-      <c r="N4" s="7">
-        <f>0.7*J4+0.3*M4</f>
-        <v>1.077</v>
+      <c r="N4" s="6">
+        <f t="shared" si="1"/>
+        <v>2.7569999999999997</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -1128,19 +1366,25 @@
         <f t="array" ref="H5">_xlfn.IFS(G5=1, "2:00 PM", G5=2, "2:30 PM", G5=3, "3:00 PM", G5=4, "3:30 PM")</f>
         <v>3:30 PM</v>
       </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="7" t="e">
-        <f>(J5/I5)*K5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M5" s="17">
+      <c r="I5" s="18">
+        <v>1</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1</v>
+      </c>
+      <c r="K5" s="2">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="L5" s="6">
+        <f t="shared" si="0"/>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="M5" s="15">
         <v>3.59</v>
       </c>
-      <c r="N5" s="7">
-        <f>0.7*J5+0.3*M5</f>
-        <v>1.077</v>
+      <c r="N5" s="6">
+        <f t="shared" si="1"/>
+        <v>4.2969999999999997</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -1169,19 +1413,25 @@
         <f t="array" ref="H6">_xlfn.IFS(G6=1, "2:00 PM", G6=2, "2:30 PM", G6=3, "3:00 PM", G6=4, "3:30 PM")</f>
         <v>3:30 PM</v>
       </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="7" t="e">
-        <f>(J6/I6)*K6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M6" s="17">
+      <c r="I6" s="18">
+        <v>5</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1</v>
+      </c>
+      <c r="K6" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="L6" s="6">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="M6" s="15">
         <v>3.59</v>
       </c>
-      <c r="N6" s="7">
-        <f>0.7*J6+0.3*M6</f>
-        <v>1.077</v>
+      <c r="N6" s="6">
+        <f t="shared" si="1"/>
+        <v>1.7069999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -1210,18 +1460,20 @@
         <f t="array" ref="H7">_xlfn.IFS(G7=1, "2:00 PM", G7=2, "2:30 PM", G7=3, "3:00 PM", G7=4, "3:30 PM")</f>
         <v>2:00 PM</v>
       </c>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7" t="e">
-        <f>(J7/I7)*K7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M7" s="16">
+      <c r="I7" s="18">
+        <v>7</v>
+      </c>
+      <c r="J7" s="3"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M7" s="15">
         <v>3.55</v>
       </c>
-      <c r="N7" s="7">
-        <f>0.7*J7+0.3*M7</f>
+      <c r="N7" s="6">
+        <f t="shared" si="1"/>
         <v>1.0649999999999999</v>
       </c>
     </row>
@@ -1251,18 +1503,20 @@
         <f t="array" ref="H8">_xlfn.IFS(G8=1, "2:00 PM", G8=2, "2:30 PM", G8=3, "3:00 PM", G8=4, "3:30 PM")</f>
         <v>2:00 PM</v>
       </c>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7" t="e">
-        <f>(J8/I8)*K8</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M8" s="16">
+      <c r="I8" s="18">
+        <v>11</v>
+      </c>
+      <c r="J8" s="3"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M8" s="15">
         <v>3.55</v>
       </c>
-      <c r="N8" s="7">
-        <f>0.7*J8+0.3*M8</f>
+      <c r="N8" s="6">
+        <f t="shared" si="1"/>
         <v>1.0649999999999999</v>
       </c>
     </row>
@@ -1292,19 +1546,25 @@
         <f t="array" ref="H9">_xlfn.IFS(G9=1, "2:00 PM", G9=2, "2:30 PM", G9=3, "3:00 PM", G9=4, "3:30 PM")</f>
         <v>2:00 PM</v>
       </c>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7" t="e">
-        <f>(J9/I9)*K9</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M9" s="16">
+      <c r="I9" s="18">
+        <v>7</v>
+      </c>
+      <c r="J9" s="3">
+        <v>7</v>
+      </c>
+      <c r="K9" s="6">
+        <v>4.8</v>
+      </c>
+      <c r="L9" s="6">
+        <f t="shared" si="0"/>
+        <v>4.8</v>
+      </c>
+      <c r="M9" s="15">
         <v>3.55</v>
       </c>
-      <c r="N9" s="7">
-        <f>0.7*J9+0.3*M9</f>
-        <v>1.0649999999999999</v>
+      <c r="N9" s="6">
+        <f t="shared" si="1"/>
+        <v>4.4249999999999998</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -1333,19 +1593,25 @@
         <f t="array" ref="H10">_xlfn.IFS(G10=1, "2:00 PM", G10=2, "2:30 PM", G10=3, "3:00 PM", G10=4, "3:30 PM")</f>
         <v>2:00 PM</v>
       </c>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7" t="e">
-        <f>(J10/I10)*K10</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M10" s="16">
+      <c r="I10" s="18">
+        <v>4</v>
+      </c>
+      <c r="J10" s="3">
+        <v>4</v>
+      </c>
+      <c r="K10" s="6">
+        <v>4.8</v>
+      </c>
+      <c r="L10" s="6">
+        <f t="shared" si="0"/>
+        <v>4.8</v>
+      </c>
+      <c r="M10" s="15">
         <v>3.55</v>
       </c>
-      <c r="N10" s="7">
-        <f>0.7*J10+0.3*M10</f>
-        <v>1.0649999999999999</v>
+      <c r="N10" s="6">
+        <f t="shared" si="1"/>
+        <v>4.4249999999999998</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -1372,18 +1638,20 @@
         <f t="array" ref="H11">_xlfn.IFS(G11=1, "2:00 PM", G11=2, "2:30 PM", G11=3, "3:00 PM", G11=4, "3:30 PM")</f>
         <v>2:00 PM</v>
       </c>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7" t="e">
-        <f>(J11/I11)*K11</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M11" s="16">
+      <c r="I11" s="18">
+        <v>4</v>
+      </c>
+      <c r="J11" s="3"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="15">
         <v>3.55</v>
       </c>
-      <c r="N11" s="7">
-        <f>0.7*J11+0.3*M11</f>
+      <c r="N11" s="6">
+        <f t="shared" si="1"/>
         <v>1.0649999999999999</v>
       </c>
     </row>
@@ -1413,19 +1681,19 @@
         <f t="array" ref="H12">_xlfn.IFS(G12=1, "2:00 PM", G12=2, "2:30 PM", G12=3, "3:00 PM", G12=4, "3:30 PM")</f>
         <v>2:30 PM</v>
       </c>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7" t="e">
-        <f>(J12/I12)*K12</f>
+      <c r="I12" s="18"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6" t="e">
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M12" s="16">
+      <c r="M12" s="15">
         <v>2.76</v>
       </c>
-      <c r="N12" s="7">
-        <f>0.7*J12+0.3*M12</f>
-        <v>0.82799999999999996</v>
+      <c r="N12" s="6" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -1454,19 +1722,19 @@
         <f t="array" ref="H13">_xlfn.IFS(G13=1, "2:00 PM", G13=2, "2:30 PM", G13=3, "3:00 PM", G13=4, "3:30 PM")</f>
         <v>2:30 PM</v>
       </c>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7" t="e">
-        <f>(J13/I13)*K13</f>
+      <c r="I13" s="18"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6" t="e">
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M13" s="16">
+      <c r="M13" s="15">
         <v>2.76</v>
       </c>
-      <c r="N13" s="7">
-        <f>0.7*J13+0.3*M13</f>
-        <v>0.82799999999999996</v>
+      <c r="N13" s="6" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -1495,19 +1763,19 @@
         <f t="array" ref="H14">_xlfn.IFS(G14=1, "2:00 PM", G14=2, "2:30 PM", G14=3, "3:00 PM", G14=4, "3:30 PM")</f>
         <v>2:30 PM</v>
       </c>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7" t="e">
-        <f>(J14/I14)*K14</f>
+      <c r="I14" s="18"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6" t="e">
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M14" s="16">
+      <c r="M14" s="15">
         <v>2.76</v>
       </c>
-      <c r="N14" s="7">
-        <f>0.7*J14+0.3*M14</f>
-        <v>0.82799999999999996</v>
+      <c r="N14" s="6" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -1536,19 +1804,19 @@
         <f t="array" ref="H15">_xlfn.IFS(G15=1, "2:00 PM", G15=2, "2:30 PM", G15=3, "3:00 PM", G15=4, "3:30 PM")</f>
         <v>2:30 PM</v>
       </c>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7" t="e">
-        <f>(J15/I15)*K15</f>
+      <c r="I15" s="18"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6" t="e">
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M15" s="16">
+      <c r="M15" s="15">
         <v>2.76</v>
       </c>
-      <c r="N15" s="7">
-        <f>0.7*J15+0.3*M15</f>
-        <v>0.82799999999999996</v>
+      <c r="N15" s="6" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="15.75">
@@ -1567,7 +1835,7 @@
       <c r="E16" s="3">
         <v>3</v>
       </c>
-      <c r="F16" s="14" t="s">
+      <c r="F16" s="13" t="s">
         <v>80</v>
       </c>
       <c r="G16" s="3">
@@ -1577,19 +1845,19 @@
         <f t="array" ref="H16">_xlfn.IFS(G16=1, "2:00 PM", G16=2, "2:30 PM", G16=3, "3:00 PM", G16=4, "3:30 PM")</f>
         <v>2:30 PM</v>
       </c>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7" t="e">
-        <f>(J16/I16)*K16</f>
+      <c r="I16" s="18"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6" t="e">
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M16" s="16">
+      <c r="M16" s="15">
         <v>2.76</v>
       </c>
-      <c r="N16" s="7">
-        <f>0.7*J16+0.3*M16</f>
-        <v>0.82799999999999996</v>
+      <c r="N16" s="6" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1616,19 +1884,19 @@
         <f t="array" ref="H17">_xlfn.IFS(G17=1, "2:00 PM", G17=2, "2:30 PM", G17=3, "3:00 PM", G17=4, "3:30 PM")</f>
         <v>3:00 PM</v>
       </c>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7" t="e">
-        <f>(J17/I17)*K17</f>
+      <c r="I17" s="18"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6" t="e">
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M17" s="16">
+      <c r="M17" s="15">
         <v>2.96</v>
       </c>
-      <c r="N17" s="7">
-        <f>0.7*J17+0.3*M17</f>
-        <v>0.88800000000000001</v>
+      <c r="N17" s="6" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1657,19 +1925,19 @@
         <f t="array" ref="H18">_xlfn.IFS(G18=1, "2:00 PM", G18=2, "2:30 PM", G18=3, "3:00 PM", G18=4, "3:30 PM")</f>
         <v>3:00 PM</v>
       </c>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7" t="e">
-        <f>(J18/I18)*K18</f>
+      <c r="I18" s="18"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6" t="e">
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M18" s="16">
+      <c r="M18" s="15">
         <v>2.96</v>
       </c>
-      <c r="N18" s="7">
-        <f>0.7*J18+0.3*M18</f>
-        <v>0.88800000000000001</v>
+      <c r="N18" s="6" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1698,19 +1966,19 @@
         <f t="array" ref="H19">_xlfn.IFS(G19=1, "2:00 PM", G19=2, "2:30 PM", G19=3, "3:00 PM", G19=4, "3:30 PM")</f>
         <v>3:00 PM</v>
       </c>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7" t="e">
-        <f>(J19/I19)*K19</f>
+      <c r="I19" s="18"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6" t="e">
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M19" s="16">
+      <c r="M19" s="15">
         <v>2.96</v>
       </c>
-      <c r="N19" s="7">
-        <f>0.7*J19+0.3*M19</f>
-        <v>0.88800000000000001</v>
+      <c r="N19" s="6" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1739,19 +2007,19 @@
         <f t="array" ref="H20">_xlfn.IFS(G20=1, "2:00 PM", G20=2, "2:30 PM", G20=3, "3:00 PM", G20=4, "3:30 PM")</f>
         <v>3:00 PM</v>
       </c>
-      <c r="I20" s="2"/>
+      <c r="I20" s="18"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
-      <c r="L20" s="7" t="e">
-        <f>(J20/I20)*K20</f>
+      <c r="L20" s="6" t="e">
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M20" s="16">
+      <c r="M20" s="15">
         <v>2.96</v>
       </c>
-      <c r="N20" s="7">
-        <f>0.7*J20+0.3*M20</f>
-        <v>0.88800000000000001</v>
+      <c r="N20" s="6" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
@@ -1780,58 +2048,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="12" t="s">
         <v>94</v>
       </c>
     </row>
@@ -1841,4 +2109,187 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A445EDF0-1065-44CF-B64B-B0D7D9C19102}">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="58.5703125" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="28.5">
+      <c r="A3" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="28.5">
+      <c r="A4" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="28.5">
+      <c r="A5" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="28.5">
+      <c r="A6" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="42.75">
+      <c r="A7" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="71.25">
+      <c r="A8" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="28.5">
+      <c r="A9" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="28.5">
+      <c r="A10" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="28.5">
+      <c r="A11" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="42.75">
+      <c r="A13" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="28.5">
+      <c r="A14" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="57">
+      <c r="A15" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="28.5">
+      <c r="A16" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="42.75">
+      <c r="A17" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="57">
+      <c r="A18" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="29.25">
+      <c r="A19" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="29.25">
+      <c r="A20" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>133</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/academics/DB2/2025-2/DB2 2025-2.xlsx
+++ b/academics/DB2/2025-2/DB2 2025-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\UAO\oicampo-uao.github.io\academics\DB2\2025-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4200EF0-AEB4-4944-88C1-AE639EDABBF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13ED9B0D-1156-4B81-82EA-FDEE04BFF45E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="122">
   <si>
     <t>numero_documento</t>
   </si>
@@ -350,118 +350,82 @@
     <t>Actividad</t>
   </si>
   <si>
-    <t>Responsible</t>
-  </si>
-  <si>
     <t>Creación del cronograma</t>
   </si>
   <si>
-    <t>Oriana Monzón</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Creación del documento del proyecto </t>
-  </si>
-  <si>
-    <t>Catalina Devia</t>
-  </si>
-  <si>
-    <t>Revisión Bibliográfica y documental</t>
-  </si>
-  <si>
-    <t>Elizabeth Vasquez y Claudia Paola Holguin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analisis de causas y efectos respaldado por referentes </t>
-  </si>
-  <si>
-    <t>Nayer Isabella Avila</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Elaboración diagrama árbol del problema</t>
-  </si>
-  <si>
-    <t>Oriana Monzón y Nayer Isabella Avila</t>
-  </si>
-  <si>
-    <t>Diseño de instrumento de recolección de información (Entrevista)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oriana Monzón </t>
-  </si>
-  <si>
-    <t>Realización de entrevistas a la población objetivo y a actores clave que mantienen una relación directa con esta.</t>
-  </si>
-  <si>
-    <t>Oriana Monzón, Catalina Devia</t>
-  </si>
-  <si>
-    <t>Delimitación del tema de investigación</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elizabeth Vasquez y Oriana Monzón </t>
-  </si>
-  <si>
-    <t>Busqueda Bibliográfica</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Elizabeth Vasquez  y oriana Monzón</t>
-  </si>
-  <si>
-    <t>Selección de fuentes relevantes</t>
-  </si>
-  <si>
-    <t>Nayer Ávila</t>
-  </si>
-  <si>
-    <t>Realización perfil del usuario</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Análisis de la información recolectada (Entrevistas y estado del Arte) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Formulación de objetivos a partir de los problemas </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nayer Ávila Claudia Holguin </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Construcción gráfica del árbol de objetivos (objetivo general y objetivos especificos) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nayer Ávila </t>
-  </si>
-  <si>
-    <t>Revisión de necesidades no satisfechas</t>
-  </si>
-  <si>
-    <t>Elaboración listado de especificaciones técnicas preliminares</t>
-  </si>
-  <si>
-    <t>Elizabeth Vasquez y Oriana Monzón</t>
-  </si>
-  <si>
-    <t>Implementación metodología QFD, relación entre necesidades y criterios tecnicos</t>
-  </si>
-  <si>
-    <t>Elizabeth Vasquez y  Oriana Monzón</t>
-  </si>
-  <si>
-    <t>Validación de requerimientos (con expertos)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Catalina Devia</t>
-  </si>
-  <si>
-    <t>Elaboración caja negra y caja transparente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Claudia Holguin, Nayer Ávila, Oriana Monzón </t>
-  </si>
-  <si>
-    <t>Busqueda de referentes o inspiración</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Nayer Ávila</t>
+    <t>PaolaHol</t>
+  </si>
+  <si>
+    <t>JuanDiPro1204</t>
+  </si>
+  <si>
+    <t>Identificación y análisis de la problemática</t>
+  </si>
+  <si>
+    <t>Elaboración del Estado del Arte</t>
+  </si>
+  <si>
+    <t>Indagación social</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identificación de necesidades </t>
+  </si>
+  <si>
+    <t>Atributos y requerimientos de diseño</t>
+  </si>
+  <si>
+    <t>Árbol de objetivos</t>
+  </si>
+  <si>
+    <t>Identificación de oportunidades</t>
+  </si>
+  <si>
+    <t>Especificaciones de Producto</t>
+  </si>
+  <si>
+    <t>Matriz QFD</t>
+  </si>
+  <si>
+    <t>Validación de requerimientos</t>
+  </si>
+  <si>
+    <t>Generación de conceptos</t>
+  </si>
+  <si>
+    <t>Selección de conceptos</t>
+  </si>
+  <si>
+    <t>Prueba de conceptos</t>
+  </si>
+  <si>
+    <t>Arquitectura de producto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entrega del diseño conceptual </t>
+  </si>
+  <si>
+    <t>Lauren Calixto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Felipe Vernaza </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Santiago Jimenez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juan David Acosta </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juan José García </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lauren Calixto </t>
+  </si>
+  <si>
+    <t>Felipe Vernaza</t>
+  </si>
+  <si>
+    <t>Responsable</t>
   </si>
 </sst>
 </file>
@@ -471,7 +435,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -501,8 +465,20 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -513,6 +489,48 @@
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA6A6A6"/>
+        <bgColor rgb="FFA6A6A6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF9CB9C"/>
+        <bgColor rgb="FFF9CB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE6B8AF"/>
+        <bgColor rgb="FFE6B8AF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D2E9"/>
+        <bgColor rgb="FFD9D2E9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFFFF2CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA4C2F4"/>
+        <bgColor rgb="FFA4C2F4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB6D7A8"/>
+        <bgColor rgb="FFB6D7A8"/>
       </patternFill>
     </fill>
   </fills>
@@ -669,7 +687,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -714,14 +732,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -742,7 +754,34 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1138,7 +1177,7 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1152,6 +1191,7 @@
     <col min="7" max="7" width="6.140625" style="1" customWidth="1"/>
     <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.140625" style="19"/>
+    <col min="10" max="11" width="9.140625" style="1"/>
     <col min="13" max="13" width="9.140625" style="16"/>
   </cols>
   <sheetData>
@@ -1228,10 +1268,10 @@
       <c r="I2" s="18">
         <v>3</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="3">
         <v>1</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="3">
         <v>4.5</v>
       </c>
       <c r="L2" s="6">
@@ -1275,22 +1315,22 @@
       <c r="I3" s="18">
         <v>3</v>
       </c>
-      <c r="J3" s="2">
-        <v>3</v>
-      </c>
-      <c r="K3" s="2">
+      <c r="J3" s="3">
+        <v>2</v>
+      </c>
+      <c r="K3" s="3">
         <v>4.8</v>
       </c>
       <c r="L3" s="6">
         <f t="shared" si="0"/>
-        <v>4.8</v>
+        <v>3.1999999999999997</v>
       </c>
       <c r="M3" s="15">
         <v>3.59</v>
       </c>
       <c r="N3" s="6">
         <f t="shared" ref="N3:N20" si="1">0.7*L3+0.3*M3</f>
-        <v>4.4369999999999994</v>
+        <v>3.3169999999999997</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -1322,10 +1362,10 @@
       <c r="I4" s="18">
         <v>4</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="3">
         <v>2</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="3">
         <v>4.8</v>
       </c>
       <c r="L4" s="6">
@@ -1369,10 +1409,10 @@
       <c r="I5" s="18">
         <v>1</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="3">
         <v>1</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="3">
         <v>4.5999999999999996</v>
       </c>
       <c r="L5" s="6">
@@ -1416,10 +1456,10 @@
       <c r="I6" s="18">
         <v>5</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="3">
         <v>1</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="3">
         <v>4.5</v>
       </c>
       <c r="L6" s="6">
@@ -1463,18 +1503,22 @@
       <c r="I7" s="18">
         <v>7</v>
       </c>
-      <c r="J7" s="3"/>
-      <c r="K7" s="6"/>
+      <c r="J7" s="3">
+        <v>6</v>
+      </c>
+      <c r="K7" s="6">
+        <v>4.8</v>
+      </c>
       <c r="L7" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.1142857142857139</v>
       </c>
       <c r="M7" s="15">
         <v>3.55</v>
       </c>
       <c r="N7" s="6">
         <f t="shared" si="1"/>
-        <v>1.0649999999999999</v>
+        <v>3.9449999999999994</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -1506,18 +1550,22 @@
       <c r="I8" s="18">
         <v>11</v>
       </c>
-      <c r="J8" s="3"/>
-      <c r="K8" s="6"/>
+      <c r="J8" s="3">
+        <v>10</v>
+      </c>
+      <c r="K8" s="6">
+        <v>4.8</v>
+      </c>
       <c r="L8" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.3636363636363633</v>
       </c>
       <c r="M8" s="15">
         <v>3.55</v>
       </c>
       <c r="N8" s="6">
         <f t="shared" si="1"/>
-        <v>1.0649999999999999</v>
+        <v>4.1195454545454542</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -1597,21 +1645,21 @@
         <v>4</v>
       </c>
       <c r="J10" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K10" s="6">
         <v>4.8</v>
       </c>
       <c r="L10" s="6">
         <f t="shared" si="0"/>
-        <v>4.8</v>
+        <v>3.5999999999999996</v>
       </c>
       <c r="M10" s="15">
         <v>3.55</v>
       </c>
       <c r="N10" s="6">
         <f t="shared" si="1"/>
-        <v>4.4249999999999998</v>
+        <v>3.5849999999999995</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -1630,7 +1678,9 @@
       <c r="E11" s="3">
         <v>2</v>
       </c>
-      <c r="F11" s="2"/>
+      <c r="F11" s="2" t="s">
+        <v>97</v>
+      </c>
       <c r="G11" s="3">
         <v>1</v>
       </c>
@@ -1639,20 +1689,24 @@
         <v>2:00 PM</v>
       </c>
       <c r="I11" s="18">
-        <v>4</v>
-      </c>
-      <c r="J11" s="3"/>
-      <c r="K11" s="6"/>
+        <v>3</v>
+      </c>
+      <c r="J11" s="3">
+        <v>3</v>
+      </c>
+      <c r="K11" s="6">
+        <v>4.8</v>
+      </c>
       <c r="L11" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="M11" s="15">
         <v>3.55</v>
       </c>
       <c r="N11" s="6">
         <f t="shared" si="1"/>
-        <v>1.0649999999999999</v>
+        <v>4.4249999999999998</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -1876,7 +1930,9 @@
       <c r="E17" s="3">
         <v>4</v>
       </c>
-      <c r="F17" s="2"/>
+      <c r="F17" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="G17" s="3">
         <v>3</v>
       </c>
@@ -2008,8 +2064,8 @@
         <v>3:00 PM</v>
       </c>
       <c r="I20" s="18"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
       <c r="L20" s="6" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -2116,178 +2172,165 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection sqref="A1:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="58.5703125" defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="36" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="28" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="28.5">
-      <c r="A3" s="21" t="s">
+      <c r="B2" s="37" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="35" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="29" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="28.5">
-      <c r="A4" s="21" t="s">
+      <c r="B4" s="35" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B5" s="37" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="31" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="28.5">
-      <c r="A5" s="21" t="s">
+      <c r="B6" s="35" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B7" s="35" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="31" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="28.5">
-      <c r="A6" s="21" t="s">
+      <c r="B8" s="35" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B9" s="35" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="32" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="42.75">
-      <c r="A7" s="21" t="s">
+      <c r="B10" s="35" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B11" s="35" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="32" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="71.25">
-      <c r="A8" s="21" t="s">
+      <c r="B12" s="35" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B13" s="35" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="33" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="28.5">
-      <c r="A9" s="21" t="s">
+      <c r="B14" s="35" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B15" s="35" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="34" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="28.5">
-      <c r="A10" s="21" t="s">
+      <c r="B16" s="35" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="B10" s="21" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="28.5">
-      <c r="A11" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="42.75">
-      <c r="A13" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="28.5">
-      <c r="A14" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="B14" s="21" t="s">
+      <c r="B17" s="35" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="57">
-      <c r="A15" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="B15" s="22" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="28.5">
-      <c r="A16" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="B16" s="23" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="42.75">
-      <c r="A17" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="B17" s="23" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="57">
-      <c r="A18" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="B18" s="23" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="29.25">
-      <c r="A19" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="B19" s="23" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="29.25">
-      <c r="A20" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="B20" s="26" t="s">
-        <v>131</v>
-      </c>
+    <row r="18" spans="1:2">
+      <c r="A18" s="20"/>
+      <c r="B18" s="21"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="22"/>
+      <c r="B19" s="21"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="23"/>
+      <c r="B20" s="24"/>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="B21" s="28" t="s">
-        <v>133</v>
-      </c>
+      <c r="A21" s="25"/>
+      <c r="B21" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/academics/DB2/2025-2/DB2 2025-2.xlsx
+++ b/academics/DB2/2025-2/DB2 2025-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\UAO\oicampo-uao.github.io\academics\DB2\2025-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13ED9B0D-1156-4B81-82EA-FDEE04BFF45E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82BD3C3E-9467-45F2-B962-C51FE9D5DAA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="120">
   <si>
     <t>numero_documento</t>
   </si>
@@ -350,9 +350,6 @@
     <t>Actividad</t>
   </si>
   <si>
-    <t>Creación del cronograma</t>
-  </si>
-  <si>
     <t>PaolaHol</t>
   </si>
   <si>
@@ -362,70 +359,67 @@
     <t>Identificación y análisis de la problemática</t>
   </si>
   <si>
-    <t>Elaboración del Estado del Arte</t>
-  </si>
-  <si>
-    <t>Indagación social</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identificación de necesidades </t>
-  </si>
-  <si>
-    <t>Atributos y requerimientos de diseño</t>
-  </si>
-  <si>
-    <t>Árbol de objetivos</t>
-  </si>
-  <si>
-    <t>Identificación de oportunidades</t>
-  </si>
-  <si>
     <t>Especificaciones de Producto</t>
   </si>
   <si>
     <t>Matriz QFD</t>
   </si>
   <si>
-    <t>Validación de requerimientos</t>
-  </si>
-  <si>
-    <t>Generación de conceptos</t>
-  </si>
-  <si>
-    <t>Selección de conceptos</t>
-  </si>
-  <si>
-    <t>Prueba de conceptos</t>
-  </si>
-  <si>
-    <t>Arquitectura de producto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entrega del diseño conceptual </t>
-  </si>
-  <si>
-    <t>Lauren Calixto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Felipe Vernaza </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Santiago Jimenez </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juan David Acosta </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juan José García </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lauren Calixto </t>
-  </si>
-  <si>
-    <t>Felipe Vernaza</t>
-  </si>
-  <si>
     <t>Responsable</t>
+  </si>
+  <si>
+    <t>Sarah Mora</t>
+  </si>
+  <si>
+    <t>Indagación Social</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Elaboración del Estado del Arte</t>
+  </si>
+  <si>
+    <t>Jose Chamorro</t>
+  </si>
+  <si>
+    <t>Identificación de Necesidades</t>
+  </si>
+  <si>
+    <t>Maria Del Mar y Juan Umaña</t>
+  </si>
+  <si>
+    <t>Árbol de Objetivos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Identificación de oportunidades</t>
+  </si>
+  <si>
+    <t>Maura y Juan Umaña</t>
+  </si>
+  <si>
+    <t>Validación de requerimientos (con expertos)</t>
+  </si>
+  <si>
+    <t>Generación de Conceptos</t>
+  </si>
+  <si>
+    <t>Selección de Conceptos</t>
+  </si>
+  <si>
+    <t>Maria Del Mar</t>
+  </si>
+  <si>
+    <t>Prueba de Conceptos</t>
+  </si>
+  <si>
+    <t>Arquitectura de Producto</t>
+  </si>
+  <si>
+    <t>Juan Umaña</t>
+  </si>
+  <si>
+    <t>Maura Castro</t>
+  </si>
+  <si>
+    <t>Sarah Mora, Jose Chamorro, Maria Del Mar, Juan Umaña, Maura Castro</t>
   </si>
 </sst>
 </file>
@@ -435,7 +429,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -477,8 +471,18 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF434343"/>
+      <name val="Candara"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Candara"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -489,36 +493,6 @@
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA6A6A6"/>
-        <bgColor rgb="FFA6A6A6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF9CB9C"/>
-        <bgColor rgb="FFF9CB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE6B8AF"/>
-        <bgColor rgb="FFE6B8AF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9D2E9"/>
-        <bgColor rgb="FFD9D2E9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
     <fill>
@@ -534,7 +508,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -683,6 +657,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD9D9D9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFD9D9D9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFD9D9D9"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD9D9D9"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -760,28 +765,28 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1177,7 +1182,7 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1679,7 +1684,7 @@
         <v>2</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G11" s="3">
         <v>1</v>
@@ -1735,19 +1740,23 @@
         <f t="array" ref="H12">_xlfn.IFS(G12=1, "2:00 PM", G12=2, "2:30 PM", G12=3, "3:00 PM", G12=4, "3:30 PM")</f>
         <v>2:30 PM</v>
       </c>
-      <c r="I12" s="18"/>
-      <c r="J12" s="3"/>
+      <c r="I12" s="18">
+        <v>5</v>
+      </c>
+      <c r="J12" s="3">
+        <v>3</v>
+      </c>
       <c r="K12" s="6"/>
-      <c r="L12" s="6" t="e">
+      <c r="L12" s="6">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="M12" s="15">
         <v>2.76</v>
       </c>
-      <c r="N12" s="6" t="e">
+      <c r="N12" s="6">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0.82799999999999996</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -1776,19 +1785,23 @@
         <f t="array" ref="H13">_xlfn.IFS(G13=1, "2:00 PM", G13=2, "2:30 PM", G13=3, "3:00 PM", G13=4, "3:30 PM")</f>
         <v>2:30 PM</v>
       </c>
-      <c r="I13" s="18"/>
-      <c r="J13" s="3"/>
+      <c r="I13" s="18">
+        <v>6</v>
+      </c>
+      <c r="J13" s="3">
+        <v>4</v>
+      </c>
       <c r="K13" s="6"/>
-      <c r="L13" s="6" t="e">
+      <c r="L13" s="6">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="M13" s="15">
         <v>2.76</v>
       </c>
-      <c r="N13" s="6" t="e">
+      <c r="N13" s="6">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0.82799999999999996</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -1817,19 +1830,23 @@
         <f t="array" ref="H14">_xlfn.IFS(G14=1, "2:00 PM", G14=2, "2:30 PM", G14=3, "3:00 PM", G14=4, "3:30 PM")</f>
         <v>2:30 PM</v>
       </c>
-      <c r="I14" s="18"/>
-      <c r="J14" s="3"/>
+      <c r="I14" s="18">
+        <v>6</v>
+      </c>
+      <c r="J14" s="3">
+        <v>6</v>
+      </c>
       <c r="K14" s="6"/>
-      <c r="L14" s="6" t="e">
+      <c r="L14" s="6">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="M14" s="15">
         <v>2.76</v>
       </c>
-      <c r="N14" s="6" t="e">
+      <c r="N14" s="6">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0.82799999999999996</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -1858,19 +1875,23 @@
         <f t="array" ref="H15">_xlfn.IFS(G15=1, "2:00 PM", G15=2, "2:30 PM", G15=3, "3:00 PM", G15=4, "3:30 PM")</f>
         <v>2:30 PM</v>
       </c>
-      <c r="I15" s="18"/>
-      <c r="J15" s="3"/>
+      <c r="I15" s="18">
+        <v>5</v>
+      </c>
+      <c r="J15" s="3">
+        <v>4</v>
+      </c>
       <c r="K15" s="6"/>
-      <c r="L15" s="6" t="e">
+      <c r="L15" s="6">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="M15" s="15">
         <v>2.76</v>
       </c>
-      <c r="N15" s="6" t="e">
+      <c r="N15" s="6">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0.82799999999999996</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="15.75">
@@ -1899,19 +1920,23 @@
         <f t="array" ref="H16">_xlfn.IFS(G16=1, "2:00 PM", G16=2, "2:30 PM", G16=3, "3:00 PM", G16=4, "3:30 PM")</f>
         <v>2:30 PM</v>
       </c>
-      <c r="I16" s="18"/>
-      <c r="J16" s="3"/>
+      <c r="I16" s="18">
+        <v>5</v>
+      </c>
+      <c r="J16" s="3">
+        <v>5</v>
+      </c>
       <c r="K16" s="6"/>
-      <c r="L16" s="6" t="e">
+      <c r="L16" s="6">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="M16" s="15">
         <v>2.76</v>
       </c>
-      <c r="N16" s="6" t="e">
+      <c r="N16" s="6">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0.82799999999999996</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1931,7 +1956,7 @@
         <v>4</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G17" s="3">
         <v>3</v>
@@ -2169,152 +2194,141 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A445EDF0-1065-44CF-B64B-B0D7D9C19102}">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B17"/>
+      <selection sqref="A1:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="58.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="33.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="36" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="B2" s="37" t="s">
+      <c r="B1" s="31" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="32"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" s="34" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="B3" s="35" t="s">
+    <row r="13" spans="1:3">
+      <c r="A13" s="37" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="B4" s="35" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="B5" s="37" t="s">
+      <c r="B13" s="34" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="37" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="B6" s="35" t="s">
+      <c r="B14" s="33" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="B7" s="35" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="B8" s="35" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="B9" s="35" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="32" t="s">
-        <v>106</v>
-      </c>
-      <c r="B10" s="35" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="32" t="s">
-        <v>107</v>
-      </c>
-      <c r="B11" s="35" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="32" t="s">
-        <v>108</v>
-      </c>
-      <c r="B12" s="35" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="B13" s="35" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="B14" s="35" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="B15" s="35" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="34" t="s">
-        <v>112</v>
-      </c>
-      <c r="B16" s="35" t="s">
-        <v>120</v>
-      </c>
+    <row r="15" spans="1:3">
+      <c r="A15" s="28"/>
+      <c r="B15" s="30"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="29"/>
+      <c r="B16" s="30"/>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="34" t="s">
-        <v>113</v>
-      </c>
-      <c r="B17" s="35" t="s">
-        <v>120</v>
-      </c>
+      <c r="A17" s="29"/>
+      <c r="B17" s="30"/>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="20"/>

--- a/academics/DB2/2025-2/DB2 2025-2.xlsx
+++ b/academics/DB2/2025-2/DB2 2025-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\UAO\oicampo-uao.github.io\academics\DB2\2025-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82BD3C3E-9467-45F2-B962-C51FE9D5DAA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{743F1E12-545C-423D-A2D8-811505D3CD19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="117">
   <si>
     <t>numero_documento</t>
   </si>
@@ -350,6 +350,9 @@
     <t>Actividad</t>
   </si>
   <si>
+    <t>Creación del cronograma</t>
+  </si>
+  <si>
     <t>PaolaHol</t>
   </si>
   <si>
@@ -359,6 +362,12 @@
     <t>Identificación y análisis de la problemática</t>
   </si>
   <si>
+    <t>Elaboración del Estado del Arte</t>
+  </si>
+  <si>
+    <t>Identificación de oportunidades</t>
+  </si>
+  <si>
     <t>Especificaciones de Producto</t>
   </si>
   <si>
@@ -368,33 +377,12 @@
     <t>Responsable</t>
   </si>
   <si>
-    <t>Sarah Mora</t>
-  </si>
-  <si>
     <t>Indagación Social</t>
   </si>
   <si>
-    <t xml:space="preserve"> Elaboración del Estado del Arte</t>
-  </si>
-  <si>
-    <t>Jose Chamorro</t>
-  </si>
-  <si>
-    <t>Identificación de Necesidades</t>
-  </si>
-  <si>
-    <t>Maria Del Mar y Juan Umaña</t>
-  </si>
-  <si>
     <t>Árbol de Objetivos</t>
   </si>
   <si>
-    <t xml:space="preserve"> Identificación de oportunidades</t>
-  </si>
-  <si>
-    <t>Maura y Juan Umaña</t>
-  </si>
-  <si>
     <t>Validación de requerimientos (con expertos)</t>
   </si>
   <si>
@@ -404,22 +392,25 @@
     <t>Selección de Conceptos</t>
   </si>
   <si>
-    <t>Maria Del Mar</t>
-  </si>
-  <si>
     <t>Prueba de Conceptos</t>
   </si>
   <si>
     <t>Arquitectura de Producto</t>
   </si>
   <si>
-    <t>Juan Umaña</t>
-  </si>
-  <si>
-    <t>Maura Castro</t>
-  </si>
-  <si>
-    <t>Sarah Mora, Jose Chamorro, Maria Del Mar, Juan Umaña, Maura Castro</t>
+    <t>Ana Maria Toro</t>
+  </si>
+  <si>
+    <t>Martin Romero</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Identificación de Necesidades</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juan Diego </t>
+  </si>
+  <si>
+    <t>JOHAN STEVEN</t>
   </si>
 </sst>
 </file>
@@ -429,7 +420,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -460,11 +451,6 @@
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -477,12 +463,13 @@
       <name val="Candara"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Candara"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -495,20 +482,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA4C2F4"/>
-        <bgColor rgb="FFA4C2F4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB6D7A8"/>
-        <bgColor rgb="FFB6D7A8"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="15">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -668,31 +643,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFD9D9D9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FFD9D9D9"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFD9D9D9"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -759,35 +714,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="15" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1182,7 +1119,7 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1684,7 +1621,7 @@
         <v>2</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G11" s="3">
         <v>1</v>
@@ -1744,7 +1681,7 @@
         <v>5</v>
       </c>
       <c r="J12" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K12" s="6"/>
       <c r="L12" s="6">
@@ -1789,7 +1726,7 @@
         <v>6</v>
       </c>
       <c r="J13" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K13" s="6"/>
       <c r="L13" s="6">
@@ -1879,7 +1816,7 @@
         <v>5</v>
       </c>
       <c r="J15" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K15" s="6"/>
       <c r="L15" s="6">
@@ -1956,7 +1893,7 @@
         <v>4</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G17" s="3">
         <v>3</v>
@@ -1965,19 +1902,23 @@
         <f t="array" ref="H17">_xlfn.IFS(G17=1, "2:00 PM", G17=2, "2:30 PM", G17=3, "3:00 PM", G17=4, "3:30 PM")</f>
         <v>3:00 PM</v>
       </c>
-      <c r="I17" s="18"/>
-      <c r="J17" s="3"/>
+      <c r="I17" s="18">
+        <v>3</v>
+      </c>
+      <c r="J17" s="3">
+        <v>2</v>
+      </c>
       <c r="K17" s="6"/>
-      <c r="L17" s="6" t="e">
+      <c r="L17" s="6">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="M17" s="15">
         <v>2.96</v>
       </c>
-      <c r="N17" s="6" t="e">
+      <c r="N17" s="6">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0.88800000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -2006,19 +1947,23 @@
         <f t="array" ref="H18">_xlfn.IFS(G18=1, "2:00 PM", G18=2, "2:30 PM", G18=3, "3:00 PM", G18=4, "3:30 PM")</f>
         <v>3:00 PM</v>
       </c>
-      <c r="I18" s="18"/>
-      <c r="J18" s="3"/>
+      <c r="I18" s="18">
+        <v>4</v>
+      </c>
+      <c r="J18" s="3">
+        <v>4</v>
+      </c>
       <c r="K18" s="6"/>
-      <c r="L18" s="6" t="e">
+      <c r="L18" s="6">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="M18" s="15">
         <v>2.96</v>
       </c>
-      <c r="N18" s="6" t="e">
+      <c r="N18" s="6">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0.88800000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -2047,19 +1992,23 @@
         <f t="array" ref="H19">_xlfn.IFS(G19=1, "2:00 PM", G19=2, "2:30 PM", G19=3, "3:00 PM", G19=4, "3:30 PM")</f>
         <v>3:00 PM</v>
       </c>
-      <c r="I19" s="18"/>
-      <c r="J19" s="3"/>
+      <c r="I19" s="18">
+        <v>4</v>
+      </c>
+      <c r="J19" s="3">
+        <v>3</v>
+      </c>
       <c r="K19" s="6"/>
-      <c r="L19" s="6" t="e">
+      <c r="L19" s="6">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="M19" s="15">
         <v>2.96</v>
       </c>
-      <c r="N19" s="6" t="e">
+      <c r="N19" s="6">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0.88800000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -2088,19 +2037,23 @@
         <f t="array" ref="H20">_xlfn.IFS(G20=1, "2:00 PM", G20=2, "2:30 PM", G20=3, "3:00 PM", G20=4, "3:30 PM")</f>
         <v>3:00 PM</v>
       </c>
-      <c r="I20" s="18"/>
-      <c r="J20" s="3"/>
+      <c r="I20" s="18">
+        <v>5</v>
+      </c>
+      <c r="J20" s="3">
+        <v>5</v>
+      </c>
       <c r="K20" s="3"/>
-      <c r="L20" s="6" t="e">
+      <c r="L20" s="6">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="M20" s="15">
         <v>2.96</v>
       </c>
-      <c r="N20" s="6" t="e">
+      <c r="N20" s="6">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0.88800000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -2197,7 +2150,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B14"/>
+      <selection sqref="A1:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="58.5703125" defaultRowHeight="15"/>
@@ -2209,126 +2162,138 @@
       <c r="A1" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="28" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="29"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="30" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="B2" s="32" t="s">
+      <c r="B8" s="30" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="32"/>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="36" t="s">
+      <c r="B11" s="30" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="32" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="37" t="s">
-        <v>104</v>
-      </c>
-      <c r="B4" s="33" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="37" t="s">
-        <v>106</v>
-      </c>
-      <c r="B5" s="32" t="s">
+      <c r="B12" s="30" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="30" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="37" t="s">
+      <c r="B13" s="30" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="B6" s="32" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="37" t="s">
+      <c r="B14" s="30" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="B7" s="34" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="37" t="s">
-        <v>99</v>
-      </c>
-      <c r="B8" s="34" t="s">
+      <c r="B15" s="31" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="30" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="37" t="s">
-        <v>100</v>
-      </c>
-      <c r="B9" s="34" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="37" t="s">
+      <c r="B16" s="31" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="B10" s="34" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="37" t="s">
-        <v>112</v>
-      </c>
-      <c r="B11" s="34" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="37" t="s">
-        <v>113</v>
-      </c>
-      <c r="B12" s="34" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="37" t="s">
+      <c r="B17" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="B13" s="34" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="37" t="s">
-        <v>116</v>
-      </c>
-      <c r="B14" s="33" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="28"/>
-      <c r="B15" s="30"/>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="29"/>
-      <c r="B16" s="30"/>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="29"/>
-      <c r="B17" s="30"/>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="20"/>

--- a/academics/DB2/2025-2/DB2 2025-2.xlsx
+++ b/academics/DB2/2025-2/DB2 2025-2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\UAO\oicampo-uao.github.io\academics\DB2\2025-2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\oicampo\Documents\GitHub\oicampo-uao.github.io\academics\DB2\2025-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{743F1E12-545C-423D-A2D8-811505D3CD19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EEF101D-BD1B-40FC-A9D1-A7EFB8B409FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$P$20</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -60,10 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="117">
-  <si>
-    <t>numero_documento</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="121">
   <si>
     <t>email</t>
   </si>
@@ -344,9 +341,6 @@
     <t>Concepto VIIE</t>
   </si>
   <si>
-    <t>0.7*FC+0.3*VIIE</t>
-  </si>
-  <si>
     <t>Actividad</t>
   </si>
   <si>
@@ -411,6 +405,24 @@
   </si>
   <si>
     <t>JOHAN STEVEN</t>
+  </si>
+  <si>
+    <t>Bonus</t>
+  </si>
+  <si>
+    <t>Pitch</t>
+  </si>
+  <si>
+    <t>presentación del pitch</t>
+  </si>
+  <si>
+    <t>0.7*FC+0.2*VIIE+0.1*Pitch+Bonus*5.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bonificación por iniciativa de trabajo (tareas adicionales/total de tareas) </t>
+  </si>
+  <si>
+    <t>DI</t>
   </si>
 </sst>
 </file>
@@ -420,7 +432,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -467,6 +479,14 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -647,7 +667,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -726,6 +746,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -820,7 +842,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7E1D9A77-FA34-49D2-8C1C-73765D0BB16B}" name="Table2" displayName="Table2" ref="A1:B7" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3" totalsRowBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7E1D9A77-FA34-49D2-8C1C-73765D0BB16B}" name="Table2" displayName="Table2" ref="A1:B9" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3" totalsRowBorderDxfId="2">
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{F1BCB088-F16A-44DE-A75B-8FBE9558B2DE}" name="Factor" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{6492F7EB-1333-4A82-A7C9-6BB4CA52A3B2}" name="Explicación" dataDxfId="0"/>
@@ -1116,89 +1138,95 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:T20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="29.140625" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="7" width="6.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="6.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="9.140625" style="19"/>
     <col min="10" max="11" width="9.140625" style="1"/>
-    <col min="13" max="13" width="9.140625" style="16"/>
+    <col min="13" max="15" width="9.140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" t="s">
+    <row r="1" spans="1:20">
+      <c r="A1" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="F1" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" s="3">
+        <v>1107836732</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="32" t="s">
         <v>1</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="M1" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2">
-        <v>1107836732</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>2</v>
       </c>
       <c r="E2" s="3">
         <v>1</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G2" s="3">
         <v>4</v>
@@ -1223,29 +1251,33 @@
       <c r="M2" s="15">
         <v>3.59</v>
       </c>
-      <c r="N2" s="6">
-        <f>0.7*L2+0.3*M2</f>
-        <v>2.1269999999999998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3">
+      <c r="N2" s="15"/>
+      <c r="O2" s="15">
+        <v>4.5</v>
+      </c>
+      <c r="P2" s="6">
+        <f>0.7*L2+0.2*M2+0.1*O2+N2</f>
+        <v>2.218</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" s="3">
         <v>1110364376</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>4</v>
+      <c r="D3" s="32" t="s">
+        <v>3</v>
       </c>
       <c r="E3" s="3">
         <v>1</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G3" s="3">
         <v>4</v>
@@ -1258,41 +1290,48 @@
         <v>3</v>
       </c>
       <c r="J3" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K3" s="3">
         <v>4.8</v>
       </c>
       <c r="L3" s="6">
         <f t="shared" si="0"/>
-        <v>3.1999999999999997</v>
+        <v>4.8</v>
       </c>
       <c r="M3" s="15">
         <v>3.59</v>
       </c>
-      <c r="N3" s="6">
-        <f t="shared" ref="N3:N20" si="1">0.7*L3+0.3*M3</f>
-        <v>3.3169999999999997</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4">
+      <c r="N3" s="15">
+        <f>1/16</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="O3" s="15">
+        <v>4.5</v>
+      </c>
+      <c r="P3" s="6">
+        <f t="shared" ref="P3:P20" si="1">0.7*L3+0.2*M3+0.1*O3+N3</f>
+        <v>4.5904999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" s="3">
         <v>1126644560</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>20</v>
+      <c r="D4" s="32" t="s">
+        <v>19</v>
       </c>
       <c r="E4" s="3">
         <v>1</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G4" s="3">
         <v>4</v>
@@ -1317,29 +1356,33 @@
       <c r="M4" s="15">
         <v>3.59</v>
       </c>
-      <c r="N4" s="6">
+      <c r="N4" s="15"/>
+      <c r="O4" s="15">
+        <v>4.5</v>
+      </c>
+      <c r="P4" s="6">
         <f t="shared" si="1"/>
-        <v>2.7569999999999997</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5">
+        <v>2.8479999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" s="3">
         <v>1005967544</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>13</v>
+      <c r="D5" s="32" t="s">
+        <v>12</v>
       </c>
       <c r="E5" s="3">
         <v>1</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G5" s="3">
         <v>4</v>
@@ -1364,29 +1407,33 @@
       <c r="M5" s="15">
         <v>3.59</v>
       </c>
-      <c r="N5" s="6">
+      <c r="N5" s="15"/>
+      <c r="O5" s="15">
+        <v>4.5</v>
+      </c>
+      <c r="P5" s="6">
         <f t="shared" si="1"/>
-        <v>4.2969999999999997</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6">
+        <v>4.3879999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" s="3">
         <v>1062329024</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>11</v>
+      <c r="D6" s="32" t="s">
+        <v>10</v>
       </c>
       <c r="E6" s="3">
         <v>1</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G6" s="3">
         <v>4</v>
@@ -1411,29 +1458,33 @@
       <c r="M6" s="15">
         <v>3.59</v>
       </c>
-      <c r="N6" s="6">
+      <c r="N6" s="15"/>
+      <c r="O6" s="15">
+        <v>4.5</v>
+      </c>
+      <c r="P6" s="6">
         <f t="shared" si="1"/>
-        <v>1.7069999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7">
-        <v>1005785832</v>
+        <v>1.7979999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" s="3">
+        <v>1005783739</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>3</v>
+        <v>35</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>8</v>
       </c>
       <c r="E7" s="3">
         <v>2</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="G7" s="3">
         <v>1</v>
@@ -1443,44 +1494,52 @@
         <v>2:00 PM</v>
       </c>
       <c r="I7" s="18">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J7" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K7" s="6">
         <v>4.8</v>
       </c>
       <c r="L7" s="6">
-        <f t="shared" si="0"/>
-        <v>4.1142857142857139</v>
+        <f>(J7/I7)*K7</f>
+        <v>4.8</v>
       </c>
       <c r="M7" s="15">
         <v>3.55</v>
       </c>
-      <c r="N7" s="6">
-        <f t="shared" si="1"/>
-        <v>3.9449999999999994</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8">
-        <v>1005832925</v>
+      <c r="N7" s="15">
+        <f>3/20</f>
+        <v>0.15</v>
+      </c>
+      <c r="O7" s="15">
+        <v>4.7</v>
+      </c>
+      <c r="P7" s="6">
+        <f>0.7*L7+0.2*M7+0.1*O7+N7</f>
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="T7" s="33"/>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" s="3">
+        <v>1113698193</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>14</v>
+        <v>41</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>11</v>
       </c>
       <c r="E8" s="3">
         <v>2</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="G8" s="3">
         <v>1</v>
@@ -1490,44 +1549,51 @@
         <v>2:00 PM</v>
       </c>
       <c r="I8" s="18">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="J8" s="3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="K8" s="6">
         <v>4.8</v>
       </c>
       <c r="L8" s="6">
-        <f t="shared" si="0"/>
-        <v>4.3636363636363633</v>
+        <f>(J8/I8)*K8</f>
+        <v>4.8</v>
       </c>
       <c r="M8" s="15">
         <v>3.55</v>
       </c>
-      <c r="N8" s="6">
-        <f t="shared" si="1"/>
-        <v>4.1195454545454542</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9">
+      <c r="N8" s="15">
+        <f>2/20</f>
+        <v>0.1</v>
+      </c>
+      <c r="O8" s="15">
+        <v>4.7</v>
+      </c>
+      <c r="P8" s="6">
+        <f>0.7*L8+0.2*M8+0.1*O8+N8</f>
+        <v>4.6399999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="3">
         <v>1109662163</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>19</v>
+      <c r="D9" s="32" t="s">
+        <v>18</v>
       </c>
       <c r="E9" s="3">
         <v>2</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G9" s="3">
         <v>1</v>
@@ -1546,35 +1612,42 @@
         <v>4.8</v>
       </c>
       <c r="L9" s="6">
-        <f t="shared" si="0"/>
+        <f>(J9/I9)*K9</f>
         <v>4.8</v>
       </c>
       <c r="M9" s="15">
         <v>3.55</v>
       </c>
-      <c r="N9" s="6">
-        <f t="shared" si="1"/>
-        <v>4.4249999999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10">
-        <v>1005783739</v>
+      <c r="N9" s="16">
+        <f>1/20</f>
+        <v>0.05</v>
+      </c>
+      <c r="O9" s="15">
+        <v>4.7</v>
+      </c>
+      <c r="P9" s="6">
+        <f>0.7*L9+0.2*M9+0.1*O9+N9</f>
+        <v>4.59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="3">
+        <v>1005785832</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>2</v>
       </c>
       <c r="E10" s="3">
         <v>2</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="G10" s="3">
         <v>1</v>
@@ -1584,44 +1657,51 @@
         <v>2:00 PM</v>
       </c>
       <c r="I10" s="18">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J10" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K10" s="6">
         <v>4.8</v>
       </c>
       <c r="L10" s="6">
-        <f t="shared" si="0"/>
-        <v>3.5999999999999996</v>
+        <f>(J10/I10)*K10</f>
+        <v>4.1142857142857139</v>
       </c>
       <c r="M10" s="15">
         <v>3.55</v>
       </c>
-      <c r="N10" s="6">
-        <f t="shared" si="1"/>
-        <v>3.5849999999999995</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11">
-        <v>1113698193</v>
+      <c r="N10" s="15">
+        <f>1/20</f>
+        <v>0.05</v>
+      </c>
+      <c r="O10" s="15">
+        <v>4.7</v>
+      </c>
+      <c r="P10" s="6">
+        <f>0.7*L10+0.2*M10+0.1*O10+N10</f>
+        <v>4.1099999999999994</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" s="3">
+        <v>1005832925</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>12</v>
+        <v>45</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>13</v>
       </c>
       <c r="E11" s="3">
         <v>2</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="G11" s="3">
         <v>1</v>
@@ -1631,44 +1711,48 @@
         <v>2:00 PM</v>
       </c>
       <c r="I11" s="18">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="J11" s="3">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="K11" s="6">
         <v>4.8</v>
       </c>
       <c r="L11" s="6">
-        <f t="shared" si="0"/>
+        <f>(J11/I11)*K11</f>
         <v>4.8</v>
       </c>
       <c r="M11" s="15">
         <v>3.55</v>
       </c>
-      <c r="N11" s="6">
-        <f t="shared" si="1"/>
-        <v>4.4249999999999998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12">
+      <c r="N11" s="15"/>
+      <c r="O11" s="15">
+        <v>4.7</v>
+      </c>
+      <c r="P11" s="6">
+        <f>0.7*L11+0.2*M11+0.1*O11+N11</f>
+        <v>4.54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" s="3">
         <v>1062274189</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>7</v>
+      <c r="D12" s="32" t="s">
+        <v>6</v>
       </c>
       <c r="E12" s="3">
         <v>3</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G12" s="3">
         <v>2</v>
@@ -1681,39 +1765,45 @@
         <v>5</v>
       </c>
       <c r="J12" s="3">
-        <v>4</v>
-      </c>
-      <c r="K12" s="6"/>
+        <v>3</v>
+      </c>
+      <c r="K12" s="6">
+        <v>4.5</v>
+      </c>
       <c r="L12" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.6999999999999997</v>
       </c>
       <c r="M12" s="15">
         <v>2.76</v>
       </c>
-      <c r="N12" s="6">
+      <c r="N12" s="15"/>
+      <c r="O12" s="15">
+        <v>3</v>
+      </c>
+      <c r="P12" s="6">
         <f t="shared" si="1"/>
-        <v>0.82799999999999996</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13">
+        <v>2.742</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" s="3">
         <v>1219713263</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>15</v>
+      <c r="D13" s="32" t="s">
+        <v>14</v>
       </c>
       <c r="E13" s="3">
         <v>3</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G13" s="3">
         <v>2</v>
@@ -1728,37 +1818,43 @@
       <c r="J13" s="3">
         <v>6</v>
       </c>
-      <c r="K13" s="6"/>
+      <c r="K13" s="6">
+        <v>4.9000000000000004</v>
+      </c>
       <c r="L13" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="M13" s="15">
         <v>2.76</v>
       </c>
-      <c r="N13" s="6">
+      <c r="N13" s="15"/>
+      <c r="O13" s="15">
+        <v>3</v>
+      </c>
+      <c r="P13" s="6">
         <f t="shared" si="1"/>
-        <v>0.82799999999999996</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14">
+        <v>4.282</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" s="3">
         <v>1110363454</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="D14" s="32" t="s">
+        <v>17</v>
       </c>
       <c r="E14" s="3">
         <v>3</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G14" s="3">
         <v>2</v>
@@ -1771,39 +1867,48 @@
         <v>6</v>
       </c>
       <c r="J14" s="3">
-        <v>6</v>
-      </c>
-      <c r="K14" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="K14" s="6">
+        <v>4.8</v>
+      </c>
       <c r="L14" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M14" s="15">
         <v>2.76</v>
       </c>
-      <c r="N14" s="6">
+      <c r="N14" s="15">
+        <f>1/13</f>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="O14" s="15">
+        <v>3</v>
+      </c>
+      <c r="P14" s="6">
         <f t="shared" si="1"/>
-        <v>0.82799999999999996</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15">
+        <v>3.7289230769230772</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" s="3">
         <v>1081728000</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>6</v>
+      <c r="D15" s="32" t="s">
+        <v>5</v>
       </c>
       <c r="E15" s="3">
         <v>3</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G15" s="3">
         <v>2</v>
@@ -1818,37 +1923,43 @@
       <c r="J15" s="3">
         <v>5</v>
       </c>
-      <c r="K15" s="6"/>
+      <c r="K15" s="6">
+        <v>4.8</v>
+      </c>
       <c r="L15" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="M15" s="15">
         <v>2.76</v>
       </c>
-      <c r="N15" s="6">
+      <c r="N15" s="15"/>
+      <c r="O15" s="15">
+        <v>3</v>
+      </c>
+      <c r="P15" s="6">
         <f t="shared" si="1"/>
-        <v>0.82799999999999996</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="15.75">
-      <c r="A16">
+        <v>4.2119999999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="15.75">
+      <c r="A16" s="3">
         <v>1007603017</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>10</v>
+      <c r="D16" s="32" t="s">
+        <v>9</v>
       </c>
       <c r="E16" s="3">
         <v>3</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G16" s="3">
         <v>2</v>
@@ -1861,39 +1972,45 @@
         <v>5</v>
       </c>
       <c r="J16" s="3">
-        <v>5</v>
-      </c>
-      <c r="K16" s="6"/>
+        <v>4</v>
+      </c>
+      <c r="K16" s="6">
+        <v>4.8</v>
+      </c>
       <c r="L16" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.84</v>
       </c>
       <c r="M16" s="15">
         <v>2.76</v>
       </c>
-      <c r="N16" s="6">
+      <c r="N16" s="15"/>
+      <c r="O16" s="15">
+        <v>3</v>
+      </c>
+      <c r="P16" s="6">
         <f t="shared" si="1"/>
-        <v>0.82799999999999996</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
-      <c r="A17">
+        <v>3.54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="3">
         <v>1005894053</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>5</v>
+      <c r="D17" s="32" t="s">
+        <v>4</v>
       </c>
       <c r="E17" s="3">
         <v>4</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G17" s="3">
         <v>3</v>
@@ -1906,39 +2023,45 @@
         <v>3</v>
       </c>
       <c r="J17" s="3">
-        <v>2</v>
-      </c>
-      <c r="K17" s="6"/>
+        <v>3</v>
+      </c>
+      <c r="K17" s="6">
+        <v>4.5999999999999996</v>
+      </c>
       <c r="L17" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="M17" s="15">
         <v>2.96</v>
       </c>
-      <c r="N17" s="6">
+      <c r="N17" s="15"/>
+      <c r="O17" s="15">
+        <v>3.5</v>
+      </c>
+      <c r="P17" s="6">
         <f t="shared" si="1"/>
-        <v>0.88800000000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
-      <c r="A18">
+        <v>4.1619999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="3">
         <v>1193073115</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>8</v>
+      <c r="D18" s="32" t="s">
+        <v>7</v>
       </c>
       <c r="E18" s="3">
         <v>4</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G18" s="3">
         <v>3</v>
@@ -1953,37 +2076,43 @@
       <c r="J18" s="3">
         <v>4</v>
       </c>
-      <c r="K18" s="6"/>
+      <c r="K18" s="6">
+        <v>4.8</v>
+      </c>
       <c r="L18" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="M18" s="15">
         <v>2.96</v>
       </c>
-      <c r="N18" s="6">
+      <c r="N18" s="15"/>
+      <c r="O18" s="15">
+        <v>3.5</v>
+      </c>
+      <c r="P18" s="6">
         <f t="shared" si="1"/>
-        <v>0.88800000000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
-      <c r="A19">
+        <v>4.3019999999999996</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="3">
         <v>1193578885</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>16</v>
+      <c r="D19" s="32" t="s">
+        <v>15</v>
       </c>
       <c r="E19" s="3">
         <v>4</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G19" s="3">
         <v>3</v>
@@ -1998,37 +2127,43 @@
       <c r="J19" s="3">
         <v>3</v>
       </c>
-      <c r="K19" s="6"/>
+      <c r="K19" s="6">
+        <v>4.5999999999999996</v>
+      </c>
       <c r="L19" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.4499999999999997</v>
       </c>
       <c r="M19" s="15">
         <v>2.96</v>
       </c>
-      <c r="N19" s="6">
+      <c r="N19" s="15"/>
+      <c r="O19" s="15">
+        <v>3.5</v>
+      </c>
+      <c r="P19" s="6">
         <f t="shared" si="1"/>
-        <v>0.88800000000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
-      <c r="A20">
+        <v>3.3569999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" s="3">
         <v>1025642375</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>17</v>
+      <c r="D20" s="32" t="s">
+        <v>16</v>
       </c>
       <c r="E20" s="3">
         <v>4</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G20" s="3">
         <v>3</v>
@@ -2043,25 +2178,43 @@
       <c r="J20" s="3">
         <v>5</v>
       </c>
-      <c r="K20" s="3"/>
+      <c r="K20" s="3">
+        <v>4.7</v>
+      </c>
       <c r="L20" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="M20" s="15">
         <v>2.96</v>
       </c>
-      <c r="N20" s="6">
+      <c r="N20" s="15"/>
+      <c r="O20" s="15">
+        <v>3.5</v>
+      </c>
+      <c r="P20" s="6">
         <f t="shared" si="1"/>
-        <v>0.88800000000000001</v>
+        <v>4.2320000000000002</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N1" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N20">
-      <sortCondition ref="E1"/>
+  <autoFilter ref="A1:P20" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:P11">
+      <sortCondition ref="C1:C20"/>
     </sortState>
   </autoFilter>
+  <conditionalFormatting sqref="P2:P20">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2069,72 +2222,88 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBF4E5FE-8C1E-42BD-9F29-DCD3824FC0F7}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="63.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="72.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>86</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>93</v>
-      </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>94</v>
+      <c r="A7" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -2153,146 +2322,146 @@
       <selection sqref="A1:B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="58.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="58.5703125" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="33.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="27" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="30" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C2" s="29"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="30" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="30" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="30" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="30" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="30" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="30" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="30" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="30" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="30" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="30" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="30" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="31" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="31" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="30" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="30" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:2">

--- a/academics/DB2/2025-2/DB2 2025-2.xlsx
+++ b/academics/DB2/2025-2/DB2 2025-2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\oicampo\Documents\GitHub\oicampo-uao.github.io\academics\DB2\2025-2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubDesktopPortable\LocalData\oicampo-uao.github.io\oicampo-uao.github.io\academics\DB2\2025-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EEF101D-BD1B-40FC-A9D1-A7EFB8B409FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09988A77-5516-44F0-9B38-BE22197973D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,9 +29,10 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -416,13 +417,13 @@
     <t>presentación del pitch</t>
   </si>
   <si>
-    <t>0.7*FC+0.2*VIIE+0.1*Pitch+Bonus*5.0</t>
-  </si>
-  <si>
     <t xml:space="preserve">Bonificación por iniciativa de trabajo (tareas adicionales/total de tareas) </t>
   </si>
   <si>
     <t>DI</t>
+  </si>
+  <si>
+    <t>0.7*FC+0.2*VIIE+0.1*Pitch+Bonus</t>
   </si>
 </sst>
 </file>
@@ -852,9 +853,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -892,9 +893,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -927,9 +928,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -962,9 +980,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1141,7 +1176,7 @@
   <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="T13" sqref="T13"/>
+      <selection activeCell="A2" sqref="A2:P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1161,7 +1196,7 @@
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>58</v>
@@ -2224,8 +2259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBF4E5FE-8C1E-42BD-9F29-DCD3824FC0F7}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2295,7 +2330,7 @@
         <v>115</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2303,7 +2338,7 @@
         <v>84</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/academics/DB2/2025-2/DB2 2025-2.xlsx
+++ b/academics/DB2/2025-2/DB2 2025-2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubDesktopPortable\LocalData\oicampo-uao.github.io\oicampo-uao.github.io\academics\DB2\2025-2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\oicampo\Documents\GitHub\oicampo-uao.github.io\academics\DB2\2025-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09988A77-5516-44F0-9B38-BE22197973D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F309BB84-E427-42C0-A025-E8B8B7B71446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,9 +30,6 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
-    </ext>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -853,9 +850,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -893,9 +890,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -928,26 +925,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -980,26 +960,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1175,16 +1138,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:P6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="29.140625" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="29.140625" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="1"/>
     <col min="6" max="6" width="15.7109375" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="6.140625" style="1" hidden="1" customWidth="1"/>
@@ -1274,14 +1237,14 @@
         <v>3</v>
       </c>
       <c r="J2" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K2" s="3">
         <v>4.5</v>
       </c>
       <c r="L2" s="6">
         <f t="shared" ref="L2:L20" si="0">(J2/I2)*K2</f>
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="M2" s="15">
         <v>3.59</v>
@@ -1292,7 +1255,7 @@
       </c>
       <c r="P2" s="6">
         <f>0.7*L2+0.2*M2+0.1*O2+N2</f>
-        <v>2.218</v>
+        <v>4.3179999999999996</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -1379,14 +1342,14 @@
         <v>4</v>
       </c>
       <c r="J4" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K4" s="3">
         <v>4.8</v>
       </c>
       <c r="L4" s="6">
         <f t="shared" si="0"/>
-        <v>2.4</v>
+        <v>4.8</v>
       </c>
       <c r="M4" s="15">
         <v>3.59</v>
@@ -1397,7 +1360,7 @@
       </c>
       <c r="P4" s="6">
         <f t="shared" si="1"/>
-        <v>2.8479999999999999</v>
+        <v>4.5279999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -1481,14 +1444,14 @@
         <v>5</v>
       </c>
       <c r="J6" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K6" s="3">
         <v>4.5</v>
       </c>
       <c r="L6" s="6">
         <f t="shared" si="0"/>
-        <v>0.9</v>
+        <v>4.5</v>
       </c>
       <c r="M6" s="15">
         <v>3.59</v>
@@ -1499,7 +1462,7 @@
       </c>
       <c r="P6" s="6">
         <f t="shared" si="1"/>
-        <v>1.7979999999999998</v>
+        <v>4.3179999999999996</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -1695,14 +1658,14 @@
         <v>7</v>
       </c>
       <c r="J10" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K10" s="6">
         <v>4.8</v>
       </c>
       <c r="L10" s="6">
         <f>(J10/I10)*K10</f>
-        <v>4.1142857142857139</v>
+        <v>4.8</v>
       </c>
       <c r="M10" s="15">
         <v>3.55</v>
@@ -1716,7 +1679,7 @@
       </c>
       <c r="P10" s="6">
         <f>0.7*L10+0.2*M10+0.1*O10+N10</f>
-        <v>4.1099999999999994</v>
+        <v>4.59</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1761,13 +1724,16 @@
       <c r="M11" s="15">
         <v>3.55</v>
       </c>
-      <c r="N11" s="15"/>
+      <c r="N11" s="15">
+        <f>5/20</f>
+        <v>0.25</v>
+      </c>
       <c r="O11" s="15">
         <v>4.7</v>
       </c>
       <c r="P11" s="6">
         <f>0.7*L11+0.2*M11+0.1*O11+N11</f>
-        <v>4.54</v>
+        <v>4.79</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1902,14 +1868,14 @@
         <v>6</v>
       </c>
       <c r="J14" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K14" s="6">
         <v>4.8</v>
       </c>
       <c r="L14" s="6">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>4.8</v>
       </c>
       <c r="M14" s="15">
         <v>2.76</v>
@@ -1923,7 +1889,7 @@
       </c>
       <c r="P14" s="6">
         <f t="shared" si="1"/>
-        <v>3.7289230769230772</v>
+        <v>4.2889230769230764</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -2007,14 +1973,14 @@
         <v>5</v>
       </c>
       <c r="J16" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K16" s="6">
         <v>4.8</v>
       </c>
       <c r="L16" s="6">
         <f t="shared" si="0"/>
-        <v>3.84</v>
+        <v>4.8</v>
       </c>
       <c r="M16" s="15">
         <v>2.76</v>
@@ -2025,7 +1991,7 @@
       </c>
       <c r="P16" s="6">
         <f t="shared" si="1"/>
-        <v>3.54</v>
+        <v>4.2119999999999997</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -2160,14 +2126,14 @@
         <v>4</v>
       </c>
       <c r="J19" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K19" s="6">
         <v>4.5999999999999996</v>
       </c>
       <c r="L19" s="6">
         <f t="shared" si="0"/>
-        <v>3.4499999999999997</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="M19" s="15">
         <v>2.96</v>
@@ -2178,7 +2144,7 @@
       </c>
       <c r="P19" s="6">
         <f t="shared" si="1"/>
-        <v>3.3569999999999998</v>
+        <v>4.1619999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -2260,13 +2226,13 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="72.42578125" customWidth="1"/>
+    <col min="2" max="2" width="66.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">

--- a/academics/DB2/2025-2/DB2 2025-2.xlsx
+++ b/academics/DB2/2025-2/DB2 2025-2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\oicampo\Documents\GitHub\oicampo-uao.github.io\academics\DB2\2025-2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\UAO\oicampo-uao.github.io\academics\DB2\2025-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F309BB84-E427-42C0-A025-E8B8B7B71446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0140B19B-B4C9-40B0-89DB-CAB443C3A762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="123">
   <si>
     <t>email</t>
   </si>
@@ -421,6 +421,12 @@
   </si>
   <si>
     <t>0.7*FC+0.2*VIIE+0.1*Pitch+Bonus</t>
+  </si>
+  <si>
+    <t>DELGADO MATABANCHOY</t>
+  </si>
+  <si>
+    <t>JUAN SEBASTIAN</t>
   </si>
 </sst>
 </file>
@@ -665,7 +671,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -691,7 +697,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -746,6 +751,21 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1136,25 +1156,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T20"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" customWidth="1"/>
     <col min="4" max="4" width="29.140625" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="1"/>
-    <col min="6" max="6" width="15.7109375" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="6.140625" style="1" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="19"/>
-    <col min="10" max="11" width="9.140625" style="1"/>
-    <col min="13" max="15" width="9.140625" style="16"/>
+    <col min="5" max="5" width="9.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="6.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="18" customWidth="1"/>
+    <col min="10" max="11" width="9.140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" customWidth="1"/>
+    <col min="13" max="15" width="9.140625" style="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -1182,7 +1203,7 @@
       <c r="H1" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="16" t="s">
         <v>80</v>
       </c>
       <c r="J1" s="4" t="s">
@@ -1194,13 +1215,13 @@
       <c r="L1" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="M1" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="N1" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="O1" s="13" t="s">
         <v>116</v>
       </c>
       <c r="P1" s="4" t="s">
@@ -1217,7 +1238,7 @@
       <c r="C2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="31" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="3">
@@ -1233,7 +1254,7 @@
         <f t="array" ref="H2">_xlfn.IFS(G2=1, "2:00 PM", G2=2, "2:30 PM", G2=3, "3:00 PM", G2=4, "3:30 PM")</f>
         <v>3:30 PM</v>
       </c>
-      <c r="I2" s="18">
+      <c r="I2" s="17">
         <v>3</v>
       </c>
       <c r="J2" s="3">
@@ -1243,14 +1264,14 @@
         <v>4.5</v>
       </c>
       <c r="L2" s="6">
-        <f t="shared" ref="L2:L20" si="0">(J2/I2)*K2</f>
+        <f>(J2/I2)*K2</f>
         <v>4.5</v>
       </c>
-      <c r="M2" s="15">
+      <c r="M2" s="14">
         <v>3.59</v>
       </c>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15">
+      <c r="N2" s="14"/>
+      <c r="O2" s="14">
         <v>4.5</v>
       </c>
       <c r="P2" s="6">
@@ -1260,76 +1281,76 @@
     </row>
     <row r="3" spans="1:20">
       <c r="A3" s="3">
-        <v>1110364376</v>
+        <v>1005785832</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="32" t="s">
-        <v>3</v>
+        <v>23</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>2</v>
       </c>
       <c r="E3" s="3">
+        <v>2</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3" s="3">
         <v>1</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G3" s="3">
-        <v>4</v>
       </c>
       <c r="H3" s="3" t="str" cm="1">
         <f t="array" ref="H3">_xlfn.IFS(G3=1, "2:00 PM", G3=2, "2:30 PM", G3=3, "3:00 PM", G3=4, "3:30 PM")</f>
-        <v>3:30 PM</v>
-      </c>
-      <c r="I3" s="18">
-        <v>3</v>
+        <v>2:00 PM</v>
+      </c>
+      <c r="I3" s="17">
+        <v>7</v>
       </c>
       <c r="J3" s="3">
-        <v>3</v>
-      </c>
-      <c r="K3" s="3">
+        <v>7</v>
+      </c>
+      <c r="K3" s="6">
         <v>4.8</v>
       </c>
       <c r="L3" s="6">
-        <f t="shared" si="0"/>
+        <f>(J3/I3)*K3</f>
         <v>4.8</v>
       </c>
-      <c r="M3" s="15">
-        <v>3.59</v>
-      </c>
-      <c r="N3" s="15">
-        <f>1/16</f>
-        <v>6.25E-2</v>
-      </c>
-      <c r="O3" s="15">
-        <v>4.5</v>
+      <c r="M3" s="14">
+        <v>3.55</v>
+      </c>
+      <c r="N3" s="14">
+        <f>1/20</f>
+        <v>0.05</v>
+      </c>
+      <c r="O3" s="14">
+        <v>4.7</v>
       </c>
       <c r="P3" s="6">
-        <f t="shared" ref="P3:P20" si="1">0.7*L3+0.2*M3+0.1*O3+N3</f>
-        <v>4.5904999999999996</v>
+        <f>0.7*L3+0.2*M3+0.1*O3+N3</f>
+        <v>4.59</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" s="3">
-        <v>1126644560</v>
+        <v>1110364376</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D4" s="32" t="s">
-        <v>19</v>
+        <v>25</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>3</v>
       </c>
       <c r="E4" s="3">
         <v>1</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G4" s="3">
         <v>4</v>
@@ -1338,219 +1359,219 @@
         <f t="array" ref="H4">_xlfn.IFS(G4=1, "2:00 PM", G4=2, "2:30 PM", G4=3, "3:00 PM", G4=4, "3:30 PM")</f>
         <v>3:30 PM</v>
       </c>
-      <c r="I4" s="18">
-        <v>4</v>
+      <c r="I4" s="17">
+        <v>3</v>
       </c>
       <c r="J4" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K4" s="3">
         <v>4.8</v>
       </c>
       <c r="L4" s="6">
-        <f t="shared" si="0"/>
+        <f>(J4/I4)*K4</f>
         <v>4.8</v>
       </c>
-      <c r="M4" s="15">
+      <c r="M4" s="14">
         <v>3.59</v>
       </c>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15">
+      <c r="N4" s="14">
+        <f>1/16</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="O4" s="14">
         <v>4.5</v>
       </c>
       <c r="P4" s="6">
-        <f t="shared" si="1"/>
-        <v>4.5279999999999996</v>
+        <f>0.7*L4+0.2*M4+0.1*O4+N4</f>
+        <v>4.5904999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" s="3">
-        <v>1005967544</v>
+        <v>1005894053</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="32" t="s">
-        <v>12</v>
+        <v>27</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>4</v>
       </c>
       <c r="E5" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="G5" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H5" s="3" t="str" cm="1">
         <f t="array" ref="H5">_xlfn.IFS(G5=1, "2:00 PM", G5=2, "2:30 PM", G5=3, "3:00 PM", G5=4, "3:30 PM")</f>
-        <v>3:30 PM</v>
-      </c>
-      <c r="I5" s="18">
-        <v>1</v>
+        <v>3:00 PM</v>
+      </c>
+      <c r="I5" s="17">
+        <v>3</v>
       </c>
       <c r="J5" s="3">
-        <v>1</v>
-      </c>
-      <c r="K5" s="3">
+        <v>3</v>
+      </c>
+      <c r="K5" s="6">
         <v>4.5999999999999996</v>
       </c>
       <c r="L5" s="6">
-        <f t="shared" si="0"/>
+        <f>(J5/I5)*K5</f>
         <v>4.5999999999999996</v>
       </c>
-      <c r="M5" s="15">
-        <v>3.59</v>
-      </c>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15">
-        <v>4.5</v>
+      <c r="M5" s="14">
+        <v>2.96</v>
+      </c>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14">
+        <v>3.5</v>
       </c>
       <c r="P5" s="6">
-        <f t="shared" si="1"/>
-        <v>4.3879999999999999</v>
+        <f>0.7*L5+0.2*M5+0.1*O5+N5</f>
+        <v>4.1619999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" s="3">
-        <v>1062329024</v>
+        <v>1081728000</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="32" t="s">
-        <v>10</v>
+        <v>29</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>5</v>
       </c>
       <c r="E6" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G6" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H6" s="3" t="str" cm="1">
         <f t="array" ref="H6">_xlfn.IFS(G6=1, "2:00 PM", G6=2, "2:30 PM", G6=3, "3:00 PM", G6=4, "3:30 PM")</f>
-        <v>3:30 PM</v>
-      </c>
-      <c r="I6" s="18">
+        <v>2:30 PM</v>
+      </c>
+      <c r="I6" s="17">
         <v>5</v>
       </c>
       <c r="J6" s="3">
         <v>5</v>
       </c>
-      <c r="K6" s="3">
-        <v>4.5</v>
+      <c r="K6" s="6">
+        <v>4.8</v>
       </c>
       <c r="L6" s="6">
-        <f t="shared" si="0"/>
-        <v>4.5</v>
-      </c>
-      <c r="M6" s="15">
-        <v>3.59</v>
-      </c>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15">
-        <v>4.5</v>
+        <f>(J6/I6)*K6</f>
+        <v>4.8</v>
+      </c>
+      <c r="M6" s="14">
+        <v>2.76</v>
+      </c>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14">
+        <v>3</v>
       </c>
       <c r="P6" s="6">
-        <f t="shared" si="1"/>
-        <v>4.3179999999999996</v>
+        <f>0.7*L6+0.2*M6+0.1*O6+N6</f>
+        <v>4.2119999999999997</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" s="3">
-        <v>1005783739</v>
+        <v>1062274189</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="32" t="s">
-        <v>8</v>
+        <v>31</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>6</v>
       </c>
       <c r="E7" s="3">
+        <v>3</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G7" s="3">
         <v>2</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G7" s="3">
-        <v>1</v>
       </c>
       <c r="H7" s="3" t="str" cm="1">
         <f t="array" ref="H7">_xlfn.IFS(G7=1, "2:00 PM", G7=2, "2:30 PM", G7=3, "3:00 PM", G7=4, "3:30 PM")</f>
-        <v>2:00 PM</v>
-      </c>
-      <c r="I7" s="18">
-        <v>4</v>
+        <v>2:30 PM</v>
+      </c>
+      <c r="I7" s="17">
+        <v>5</v>
       </c>
       <c r="J7" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K7" s="6">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="L7" s="6">
         <f>(J7/I7)*K7</f>
-        <v>4.8</v>
-      </c>
-      <c r="M7" s="15">
-        <v>3.55</v>
-      </c>
-      <c r="N7" s="15">
-        <f>3/20</f>
-        <v>0.15</v>
-      </c>
-      <c r="O7" s="15">
-        <v>4.7</v>
+        <v>2.6999999999999997</v>
+      </c>
+      <c r="M7" s="14">
+        <v>2.76</v>
+      </c>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14">
+        <v>3</v>
       </c>
       <c r="P7" s="6">
         <f>0.7*L7+0.2*M7+0.1*O7+N7</f>
-        <v>4.6900000000000004</v>
-      </c>
-      <c r="T7" s="33"/>
+        <v>2.742</v>
+      </c>
+      <c r="T7" s="32"/>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" s="3">
-        <v>1113698193</v>
+        <v>1193073115</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="32" t="s">
-        <v>11</v>
+        <v>33</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>7</v>
       </c>
       <c r="E8" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="G8" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H8" s="3" t="str" cm="1">
         <f t="array" ref="H8">_xlfn.IFS(G8=1, "2:00 PM", G8=2, "2:30 PM", G8=3, "3:00 PM", G8=4, "3:30 PM")</f>
-        <v>2:00 PM</v>
-      </c>
-      <c r="I8" s="18">
-        <v>3</v>
+        <v>3:00 PM</v>
+      </c>
+      <c r="I8" s="17">
+        <v>4</v>
       </c>
       <c r="J8" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K8" s="6">
         <v>4.8</v>
@@ -1559,93 +1580,59 @@
         <f>(J8/I8)*K8</f>
         <v>4.8</v>
       </c>
-      <c r="M8" s="15">
-        <v>3.55</v>
-      </c>
-      <c r="N8" s="15">
-        <f>2/20</f>
-        <v>0.1</v>
-      </c>
-      <c r="O8" s="15">
-        <v>4.7</v>
+      <c r="M8" s="14">
+        <v>2.96</v>
+      </c>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14">
+        <v>3.5</v>
       </c>
       <c r="P8" s="6">
         <f>0.7*L8+0.2*M8+0.1*O8+N8</f>
-        <v>4.6399999999999997</v>
+        <v>4.3019999999999996</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" s="3">
-        <v>1109662163</v>
+        <v>1004189893</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>53</v>
+        <v>121</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D9" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="3">
-        <v>2</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="G9" s="3">
-        <v>1</v>
-      </c>
-      <c r="H9" s="3" t="str" cm="1">
-        <f t="array" ref="H9">_xlfn.IFS(G9=1, "2:00 PM", G9=2, "2:30 PM", G9=3, "3:00 PM", G9=4, "3:30 PM")</f>
-        <v>2:00 PM</v>
-      </c>
-      <c r="I9" s="18">
-        <v>7</v>
-      </c>
-      <c r="J9" s="3">
-        <v>7</v>
-      </c>
-      <c r="K9" s="6">
-        <v>4.8</v>
-      </c>
-      <c r="L9" s="6">
-        <f>(J9/I9)*K9</f>
-        <v>4.8</v>
-      </c>
-      <c r="M9" s="15">
-        <v>3.55</v>
-      </c>
-      <c r="N9" s="16">
-        <f>1/20</f>
-        <v>0.05</v>
-      </c>
-      <c r="O9" s="15">
-        <v>4.7</v>
-      </c>
-      <c r="P9" s="6">
-        <f>0.7*L9+0.2*M9+0.1*O9+N9</f>
-        <v>4.59</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="2"/>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" s="3">
-        <v>1005785832</v>
+        <v>1005783739</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="32" t="s">
-        <v>2</v>
+        <v>35</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>8</v>
       </c>
       <c r="E10" s="3">
         <v>2</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="G10" s="3">
         <v>1</v>
@@ -1654,11 +1641,11 @@
         <f t="array" ref="H10">_xlfn.IFS(G10=1, "2:00 PM", G10=2, "2:30 PM", G10=3, "3:00 PM", G10=4, "3:30 PM")</f>
         <v>2:00 PM</v>
       </c>
-      <c r="I10" s="18">
-        <v>7</v>
+      <c r="I10" s="17">
+        <v>4</v>
       </c>
       <c r="J10" s="3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K10" s="6">
         <v>4.8</v>
@@ -1667,52 +1654,52 @@
         <f>(J10/I10)*K10</f>
         <v>4.8</v>
       </c>
-      <c r="M10" s="15">
+      <c r="M10" s="14">
         <v>3.55</v>
       </c>
-      <c r="N10" s="15">
-        <f>1/20</f>
-        <v>0.05</v>
-      </c>
-      <c r="O10" s="15">
+      <c r="N10" s="14">
+        <f>3/20</f>
+        <v>0.15</v>
+      </c>
+      <c r="O10" s="14">
         <v>4.7</v>
       </c>
       <c r="P10" s="6">
         <f>0.7*L10+0.2*M10+0.1*O10+N10</f>
-        <v>4.59</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
+        <v>4.6900000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="15.75">
       <c r="A11" s="3">
-        <v>1005832925</v>
+        <v>1007603017</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="32" t="s">
-        <v>13</v>
+        <v>37</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>9</v>
       </c>
       <c r="E11" s="3">
+        <v>3</v>
+      </c>
+      <c r="F11" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="G11" s="3">
         <v>2</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G11" s="3">
-        <v>1</v>
       </c>
       <c r="H11" s="3" t="str" cm="1">
         <f t="array" ref="H11">_xlfn.IFS(G11=1, "2:00 PM", G11=2, "2:30 PM", G11=3, "3:00 PM", G11=4, "3:30 PM")</f>
-        <v>2:00 PM</v>
-      </c>
-      <c r="I11" s="18">
-        <v>11</v>
+        <v>2:30 PM</v>
+      </c>
+      <c r="I11" s="17">
+        <v>5</v>
       </c>
       <c r="J11" s="3">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="K11" s="6">
         <v>4.8</v>
@@ -1721,246 +1708,246 @@
         <f>(J11/I11)*K11</f>
         <v>4.8</v>
       </c>
-      <c r="M11" s="15">
+      <c r="M11" s="14">
+        <v>2.76</v>
+      </c>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14">
+        <v>3</v>
+      </c>
+      <c r="P11" s="6">
+        <f>0.7*L11+0.2*M11+0.1*O11+N11</f>
+        <v>4.2119999999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" s="3">
+        <v>1062329024</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" s="3">
+        <v>4</v>
+      </c>
+      <c r="H12" s="3" t="str" cm="1">
+        <f t="array" ref="H12">_xlfn.IFS(G12=1, "2:00 PM", G12=2, "2:30 PM", G12=3, "3:00 PM", G12=4, "3:30 PM")</f>
+        <v>3:30 PM</v>
+      </c>
+      <c r="I12" s="17">
+        <v>5</v>
+      </c>
+      <c r="J12" s="3">
+        <v>5</v>
+      </c>
+      <c r="K12" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="L12" s="6">
+        <f>(J12/I12)*K12</f>
+        <v>4.5</v>
+      </c>
+      <c r="M12" s="14">
+        <v>3.59</v>
+      </c>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14">
+        <v>4.5</v>
+      </c>
+      <c r="P12" s="6">
+        <f>0.7*L12+0.2*M12+0.1*O12+N12</f>
+        <v>4.3179999999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" s="3">
+        <v>1113698193</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="3">
+        <v>2</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G13" s="3">
+        <v>1</v>
+      </c>
+      <c r="H13" s="3" t="str" cm="1">
+        <f t="array" ref="H13">_xlfn.IFS(G13=1, "2:00 PM", G13=2, "2:30 PM", G13=3, "3:00 PM", G13=4, "3:30 PM")</f>
+        <v>2:00 PM</v>
+      </c>
+      <c r="I13" s="17">
+        <v>3</v>
+      </c>
+      <c r="J13" s="3">
+        <v>3</v>
+      </c>
+      <c r="K13" s="6">
+        <v>4.8</v>
+      </c>
+      <c r="L13" s="6">
+        <f>(J13/I13)*K13</f>
+        <v>4.8</v>
+      </c>
+      <c r="M13" s="14">
         <v>3.55</v>
       </c>
-      <c r="N11" s="15">
+      <c r="N13" s="14">
+        <f>2/20</f>
+        <v>0.1</v>
+      </c>
+      <c r="O13" s="14">
+        <v>4.7</v>
+      </c>
+      <c r="P13" s="6">
+        <f>0.7*L13+0.2*M13+0.1*O13+N13</f>
+        <v>4.6399999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" s="3">
+        <v>1005967544</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G14" s="3">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3" t="str" cm="1">
+        <f t="array" ref="H14">_xlfn.IFS(G14=1, "2:00 PM", G14=2, "2:30 PM", G14=3, "3:00 PM", G14=4, "3:30 PM")</f>
+        <v>3:30 PM</v>
+      </c>
+      <c r="I14" s="17">
+        <v>1</v>
+      </c>
+      <c r="J14" s="3">
+        <v>1</v>
+      </c>
+      <c r="K14" s="3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="L14" s="6">
+        <f>(J14/I14)*K14</f>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="M14" s="14">
+        <v>3.59</v>
+      </c>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14">
+        <v>4.5</v>
+      </c>
+      <c r="P14" s="6">
+        <f>0.7*L14+0.2*M14+0.1*O14+N14</f>
+        <v>4.3879999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" s="3">
+        <v>1005832925</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="3">
+        <v>2</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G15" s="3">
+        <v>1</v>
+      </c>
+      <c r="H15" s="3" t="str" cm="1">
+        <f t="array" ref="H15">_xlfn.IFS(G15=1, "2:00 PM", G15=2, "2:30 PM", G15=3, "3:00 PM", G15=4, "3:30 PM")</f>
+        <v>2:00 PM</v>
+      </c>
+      <c r="I15" s="17">
+        <v>11</v>
+      </c>
+      <c r="J15" s="3">
+        <v>11</v>
+      </c>
+      <c r="K15" s="6">
+        <v>4.8</v>
+      </c>
+      <c r="L15" s="6">
+        <f>(J15/I15)*K15</f>
+        <v>4.8</v>
+      </c>
+      <c r="M15" s="14">
+        <v>3.55</v>
+      </c>
+      <c r="N15" s="14">
         <f>5/20</f>
         <v>0.25</v>
       </c>
-      <c r="O11" s="15">
+      <c r="O15" s="14">
         <v>4.7</v>
       </c>
-      <c r="P11" s="6">
-        <f>0.7*L11+0.2*M11+0.1*O11+N11</f>
+      <c r="P15" s="6">
+        <f>0.7*L15+0.2*M15+0.1*O15+N15</f>
         <v>4.79</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
-      <c r="A12" s="3">
-        <v>1062274189</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="3">
-        <v>3</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G12" s="3">
-        <v>2</v>
-      </c>
-      <c r="H12" s="3" t="str" cm="1">
-        <f t="array" ref="H12">_xlfn.IFS(G12=1, "2:00 PM", G12=2, "2:30 PM", G12=3, "3:00 PM", G12=4, "3:30 PM")</f>
-        <v>2:30 PM</v>
-      </c>
-      <c r="I12" s="18">
-        <v>5</v>
-      </c>
-      <c r="J12" s="3">
-        <v>3</v>
-      </c>
-      <c r="K12" s="6">
-        <v>4.5</v>
-      </c>
-      <c r="L12" s="6">
-        <f t="shared" si="0"/>
-        <v>2.6999999999999997</v>
-      </c>
-      <c r="M12" s="15">
-        <v>2.76</v>
-      </c>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15">
-        <v>3</v>
-      </c>
-      <c r="P12" s="6">
-        <f t="shared" si="1"/>
-        <v>2.742</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" s="3">
+    <row r="16" spans="1:20">
+      <c r="A16" s="3">
         <v>1219713263</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="32" t="s">
+      <c r="D16" s="31" t="s">
         <v>14</v>
-      </c>
-      <c r="E13" s="3">
-        <v>3</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G13" s="3">
-        <v>2</v>
-      </c>
-      <c r="H13" s="3" t="str" cm="1">
-        <f t="array" ref="H13">_xlfn.IFS(G13=1, "2:00 PM", G13=2, "2:30 PM", G13=3, "3:00 PM", G13=4, "3:30 PM")</f>
-        <v>2:30 PM</v>
-      </c>
-      <c r="I13" s="18">
-        <v>6</v>
-      </c>
-      <c r="J13" s="3">
-        <v>6</v>
-      </c>
-      <c r="K13" s="6">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="L13" s="6">
-        <f t="shared" si="0"/>
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="M13" s="15">
-        <v>2.76</v>
-      </c>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15">
-        <v>3</v>
-      </c>
-      <c r="P13" s="6">
-        <f t="shared" si="1"/>
-        <v>4.282</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" s="3">
-        <v>1110363454</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="3">
-        <v>3</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G14" s="3">
-        <v>2</v>
-      </c>
-      <c r="H14" s="3" t="str" cm="1">
-        <f t="array" ref="H14">_xlfn.IFS(G14=1, "2:00 PM", G14=2, "2:30 PM", G14=3, "3:00 PM", G14=4, "3:30 PM")</f>
-        <v>2:30 PM</v>
-      </c>
-      <c r="I14" s="18">
-        <v>6</v>
-      </c>
-      <c r="J14" s="3">
-        <v>6</v>
-      </c>
-      <c r="K14" s="6">
-        <v>4.8</v>
-      </c>
-      <c r="L14" s="6">
-        <f t="shared" si="0"/>
-        <v>4.8</v>
-      </c>
-      <c r="M14" s="15">
-        <v>2.76</v>
-      </c>
-      <c r="N14" s="15">
-        <f>1/13</f>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="O14" s="15">
-        <v>3</v>
-      </c>
-      <c r="P14" s="6">
-        <f t="shared" si="1"/>
-        <v>4.2889230769230764</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" s="3">
-        <v>1081728000</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" s="3">
-        <v>3</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G15" s="3">
-        <v>2</v>
-      </c>
-      <c r="H15" s="3" t="str" cm="1">
-        <f t="array" ref="H15">_xlfn.IFS(G15=1, "2:00 PM", G15=2, "2:30 PM", G15=3, "3:00 PM", G15=4, "3:30 PM")</f>
-        <v>2:30 PM</v>
-      </c>
-      <c r="I15" s="18">
-        <v>5</v>
-      </c>
-      <c r="J15" s="3">
-        <v>5</v>
-      </c>
-      <c r="K15" s="6">
-        <v>4.8</v>
-      </c>
-      <c r="L15" s="6">
-        <f t="shared" si="0"/>
-        <v>4.8</v>
-      </c>
-      <c r="M15" s="15">
-        <v>2.76</v>
-      </c>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15">
-        <v>3</v>
-      </c>
-      <c r="P15" s="6">
-        <f t="shared" si="1"/>
-        <v>4.2119999999999997</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" ht="15.75">
-      <c r="A16" s="3">
-        <v>1007603017</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="32" t="s">
-        <v>9</v>
       </c>
       <c r="E16" s="3">
         <v>3</v>
       </c>
-      <c r="F16" s="13" t="s">
-        <v>79</v>
+      <c r="F16" s="34" t="s">
+        <v>74</v>
       </c>
       <c r="G16" s="3">
         <v>2</v>
@@ -1969,49 +1956,49 @@
         <f t="array" ref="H16">_xlfn.IFS(G16=1, "2:00 PM", G16=2, "2:30 PM", G16=3, "3:00 PM", G16=4, "3:30 PM")</f>
         <v>2:30 PM</v>
       </c>
-      <c r="I16" s="18">
-        <v>5</v>
+      <c r="I16" s="17">
+        <v>6</v>
       </c>
       <c r="J16" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K16" s="6">
-        <v>4.8</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="L16" s="6">
-        <f t="shared" si="0"/>
-        <v>4.8</v>
-      </c>
-      <c r="M16" s="15">
+        <f>(J16/I16)*K16</f>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="M16" s="14">
         <v>2.76</v>
       </c>
-      <c r="N16" s="15"/>
-      <c r="O16" s="15">
+      <c r="N16" s="14"/>
+      <c r="O16" s="14">
         <v>3</v>
       </c>
       <c r="P16" s="6">
-        <f t="shared" si="1"/>
-        <v>4.2119999999999997</v>
+        <f>0.7*L16+0.2*M16+0.1*O16+N16</f>
+        <v>4.282</v>
       </c>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="3">
-        <v>1005894053</v>
+        <v>1193578885</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="32" t="s">
-        <v>4</v>
+        <v>49</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>15</v>
       </c>
       <c r="E17" s="3">
         <v>4</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="G17" s="3">
         <v>3</v>
@@ -2020,49 +2007,49 @@
         <f t="array" ref="H17">_xlfn.IFS(G17=1, "2:00 PM", G17=2, "2:30 PM", G17=3, "3:00 PM", G17=4, "3:30 PM")</f>
         <v>3:00 PM</v>
       </c>
-      <c r="I17" s="18">
-        <v>3</v>
+      <c r="I17" s="17">
+        <v>4</v>
       </c>
       <c r="J17" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K17" s="6">
         <v>4.5999999999999996</v>
       </c>
       <c r="L17" s="6">
-        <f t="shared" si="0"/>
+        <f>(J17/I17)*K17</f>
         <v>4.5999999999999996</v>
       </c>
-      <c r="M17" s="15">
+      <c r="M17" s="14">
         <v>2.96</v>
       </c>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15">
+      <c r="N17" s="14"/>
+      <c r="O17" s="14">
         <v>3.5</v>
       </c>
       <c r="P17" s="6">
-        <f t="shared" si="1"/>
+        <f>0.7*L17+0.2*M17+0.1*O17+N17</f>
         <v>4.1619999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="3">
-        <v>1193073115</v>
+        <v>1025642375</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="32" t="s">
-        <v>7</v>
+        <v>51</v>
+      </c>
+      <c r="D18" s="31" t="s">
+        <v>16</v>
       </c>
       <c r="E18" s="3">
         <v>4</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G18" s="3">
         <v>3</v>
@@ -2071,140 +2058,197 @@
         <f t="array" ref="H18">_xlfn.IFS(G18=1, "2:00 PM", G18=2, "2:30 PM", G18=3, "3:00 PM", G18=4, "3:30 PM")</f>
         <v>3:00 PM</v>
       </c>
-      <c r="I18" s="18">
-        <v>4</v>
+      <c r="I18" s="17">
+        <v>5</v>
       </c>
       <c r="J18" s="3">
-        <v>4</v>
-      </c>
-      <c r="K18" s="6">
-        <v>4.8</v>
+        <v>5</v>
+      </c>
+      <c r="K18" s="3">
+        <v>4.7</v>
       </c>
       <c r="L18" s="6">
-        <f t="shared" si="0"/>
-        <v>4.8</v>
-      </c>
-      <c r="M18" s="15">
+        <f>(J18/I18)*K18</f>
+        <v>4.7</v>
+      </c>
+      <c r="M18" s="14">
         <v>2.96</v>
       </c>
-      <c r="N18" s="15"/>
-      <c r="O18" s="15">
+      <c r="N18" s="14"/>
+      <c r="O18" s="14">
         <v>3.5</v>
       </c>
       <c r="P18" s="6">
-        <f t="shared" si="1"/>
-        <v>4.3019999999999996</v>
+        <f>0.7*L18+0.2*M18+0.1*O18+N18</f>
+        <v>4.2320000000000002</v>
       </c>
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="3">
-        <v>1193578885</v>
+        <v>1110363454</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="32" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="D19" s="31" t="s">
+        <v>17</v>
       </c>
       <c r="E19" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="G19" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H19" s="3" t="str" cm="1">
         <f t="array" ref="H19">_xlfn.IFS(G19=1, "2:00 PM", G19=2, "2:30 PM", G19=3, "3:00 PM", G19=4, "3:30 PM")</f>
-        <v>3:00 PM</v>
-      </c>
-      <c r="I19" s="18">
-        <v>4</v>
+        <v>2:30 PM</v>
+      </c>
+      <c r="I19" s="17">
+        <v>6</v>
       </c>
       <c r="J19" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K19" s="6">
-        <v>4.5999999999999996</v>
+        <v>4.8</v>
       </c>
       <c r="L19" s="6">
-        <f t="shared" si="0"/>
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="M19" s="15">
-        <v>2.96</v>
-      </c>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15">
-        <v>3.5</v>
+        <f>(J19/I19)*K19</f>
+        <v>4.8</v>
+      </c>
+      <c r="M19" s="14">
+        <v>2.76</v>
+      </c>
+      <c r="N19" s="14">
+        <f>1/13</f>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="O19" s="14">
+        <v>3</v>
       </c>
       <c r="P19" s="6">
-        <f t="shared" si="1"/>
-        <v>4.1619999999999999</v>
+        <f>0.7*L19+0.2*M19+0.1*O19+N19</f>
+        <v>4.2889230769230764</v>
       </c>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="3">
-        <v>1025642375</v>
+        <v>1109662163</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20" s="32" t="s">
-        <v>16</v>
+        <v>54</v>
+      </c>
+      <c r="D20" s="31" t="s">
+        <v>18</v>
       </c>
       <c r="E20" s="3">
-        <v>4</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>62</v>
+        <v>2</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>69</v>
       </c>
       <c r="G20" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H20" s="3" t="str" cm="1">
         <f t="array" ref="H20">_xlfn.IFS(G20=1, "2:00 PM", G20=2, "2:30 PM", G20=3, "3:00 PM", G20=4, "3:30 PM")</f>
-        <v>3:00 PM</v>
-      </c>
-      <c r="I20" s="18">
-        <v>5</v>
+        <v>2:00 PM</v>
+      </c>
+      <c r="I20" s="17">
+        <v>7</v>
       </c>
       <c r="J20" s="3">
-        <v>5</v>
-      </c>
-      <c r="K20" s="3">
+        <v>7</v>
+      </c>
+      <c r="K20" s="6">
+        <v>4.8</v>
+      </c>
+      <c r="L20" s="6">
+        <f>(J20/I20)*K20</f>
+        <v>4.8</v>
+      </c>
+      <c r="M20" s="14">
+        <v>3.55</v>
+      </c>
+      <c r="N20" s="14">
+        <f>1/20</f>
+        <v>0.05</v>
+      </c>
+      <c r="O20" s="14">
         <v>4.7</v>
       </c>
-      <c r="L20" s="6">
-        <f t="shared" si="0"/>
-        <v>4.7</v>
-      </c>
-      <c r="M20" s="15">
-        <v>2.96</v>
-      </c>
-      <c r="N20" s="15"/>
-      <c r="O20" s="15">
-        <v>3.5</v>
-      </c>
       <c r="P20" s="6">
-        <f t="shared" si="1"/>
-        <v>4.2320000000000002</v>
+        <f>0.7*L20+0.2*M20+0.1*O20+N20</f>
+        <v>4.59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" s="36">
+        <v>1126644560</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="36">
+        <v>1</v>
+      </c>
+      <c r="F21" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="G21" s="36">
+        <v>4</v>
+      </c>
+      <c r="H21" s="36" t="str" cm="1">
+        <f t="array" ref="H21">_xlfn.IFS(G21=1, "2:00 PM", G21=2, "2:30 PM", G21=3, "3:00 PM", G21=4, "3:30 PM")</f>
+        <v>3:30 PM</v>
+      </c>
+      <c r="I21" s="38">
+        <v>4</v>
+      </c>
+      <c r="J21" s="36">
+        <v>4</v>
+      </c>
+      <c r="K21" s="36">
+        <v>4.8</v>
+      </c>
+      <c r="L21" s="39">
+        <f>(J21/I21)*K21</f>
+        <v>4.8</v>
+      </c>
+      <c r="M21" s="35">
+        <v>3.59</v>
+      </c>
+      <c r="N21" s="35"/>
+      <c r="O21" s="35">
+        <v>4.5</v>
+      </c>
+      <c r="P21" s="6">
+        <f>0.7*L21+0.2*M21+0.1*O21+N21</f>
+        <v>4.5279999999999996</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:P20" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:P11">
-      <sortCondition ref="C1:C20"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P21">
+      <sortCondition ref="B1:B20"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="P2:P20">
+  <conditionalFormatting sqref="P2:P21">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -2229,7 +2273,7 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="66.28515625" bestFit="1" customWidth="1"/>
@@ -2323,163 +2367,163 @@
       <selection sqref="A1:B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="58.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="58.5703125" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="33.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="27" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="C2" s="29"/>
+      <c r="C2" s="28"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="29" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="29" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="29" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="29" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="29" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="29" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="29" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="29" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="29" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="29" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="29" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="29" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="30" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="30" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="30" t="s">
+      <c r="A17" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="30" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="20"/>
-      <c r="B18" s="21"/>
+      <c r="A18" s="19"/>
+      <c r="B18" s="20"/>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="22"/>
-      <c r="B19" s="21"/>
+      <c r="A19" s="21"/>
+      <c r="B19" s="20"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="23"/>
-      <c r="B20" s="24"/>
+      <c r="A20" s="22"/>
+      <c r="B20" s="23"/>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="25"/>
-      <c r="B21" s="26"/>
+      <c r="A21" s="24"/>
+      <c r="B21" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/academics/DB2/2025-2/DB2 2025-2.xlsx
+++ b/academics/DB2/2025-2/DB2 2025-2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\UAO\oicampo-uao.github.io\academics\DB2\2025-2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\oicampo\Documents\GitHub\oicampo-uao.github.io\academics\DB2\2025-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0140B19B-B4C9-40B0-89DB-CAB443C3A762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3048F512-3D1D-4B3B-9272-671BC9A9576E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -671,7 +671,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -752,18 +752,14 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1159,23 +1155,24 @@
   <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="V9" sqref="V9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" customWidth="1"/>
-    <col min="4" max="4" width="29.140625" customWidth="1"/>
+    <col min="4" max="4" width="29.140625" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="7" width="6.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="6.140625" style="1" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="12.85546875" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="18" customWidth="1"/>
-    <col min="10" max="11" width="9.140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" customWidth="1"/>
-    <col min="13" max="15" width="9.140625" style="15" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="18" hidden="1" customWidth="1"/>
+    <col min="10" max="11" width="9.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="13" max="15" width="9.140625" style="15" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -1230,73 +1227,73 @@
     </row>
     <row r="2" spans="1:20">
       <c r="A2" s="3">
-        <v>1107836732</v>
+        <v>1081728000</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D2" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="3">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" s="3">
         <v>1</v>
-      </c>
-      <c r="E2" s="3">
-        <v>1</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G2" s="3">
-        <v>4</v>
       </c>
       <c r="H2" s="3" t="str" cm="1">
         <f t="array" ref="H2">_xlfn.IFS(G2=1, "2:00 PM", G2=2, "2:30 PM", G2=3, "3:00 PM", G2=4, "3:30 PM")</f>
-        <v>3:30 PM</v>
+        <v>2:00 PM</v>
       </c>
       <c r="I2" s="17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J2" s="3">
-        <v>3</v>
-      </c>
-      <c r="K2" s="3">
-        <v>4.5</v>
+        <v>5</v>
+      </c>
+      <c r="K2" s="6">
+        <v>4.8</v>
       </c>
       <c r="L2" s="6">
         <f>(J2/I2)*K2</f>
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="M2" s="14">
-        <v>3.59</v>
+        <v>2.76</v>
       </c>
       <c r="N2" s="14"/>
       <c r="O2" s="14">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="P2" s="6">
         <f>0.7*L2+0.2*M2+0.1*O2+N2</f>
-        <v>4.3179999999999996</v>
+        <v>4.2119999999999997</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" s="3">
-        <v>1005785832</v>
+        <v>1062274189</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E3" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="G3" s="3">
         <v>1</v>
@@ -1306,66 +1303,63 @@
         <v>2:00 PM</v>
       </c>
       <c r="I3" s="17">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J3" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K3" s="6">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="L3" s="6">
         <f>(J3/I3)*K3</f>
-        <v>4.8</v>
+        <v>2.6999999999999997</v>
       </c>
       <c r="M3" s="14">
-        <v>3.55</v>
-      </c>
-      <c r="N3" s="14">
-        <f>1/20</f>
-        <v>0.05</v>
-      </c>
+        <v>2.76</v>
+      </c>
+      <c r="N3" s="14"/>
       <c r="O3" s="14">
-        <v>4.7</v>
+        <v>3</v>
       </c>
       <c r="P3" s="6">
         <f>0.7*L3+0.2*M3+0.1*O3+N3</f>
-        <v>4.59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
+        <v>2.742</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="15.75">
       <c r="A4" s="3">
-        <v>1110364376</v>
+        <v>1007603017</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="D4" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="3">
         <v>3</v>
       </c>
-      <c r="E4" s="3">
+      <c r="F4" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="G4" s="3">
         <v>1</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G4" s="3">
-        <v>4</v>
       </c>
       <c r="H4" s="3" t="str" cm="1">
         <f t="array" ref="H4">_xlfn.IFS(G4=1, "2:00 PM", G4=2, "2:30 PM", G4=3, "3:00 PM", G4=4, "3:30 PM")</f>
-        <v>3:30 PM</v>
+        <v>2:00 PM</v>
       </c>
       <c r="I4" s="17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J4" s="3">
-        <v>3</v>
-      </c>
-      <c r="K4" s="3">
+        <v>5</v>
+      </c>
+      <c r="K4" s="6">
         <v>4.8</v>
       </c>
       <c r="L4" s="6">
@@ -1373,102 +1367,99 @@
         <v>4.8</v>
       </c>
       <c r="M4" s="14">
-        <v>3.59</v>
-      </c>
-      <c r="N4" s="14">
-        <f>1/16</f>
-        <v>6.25E-2</v>
-      </c>
+        <v>2.76</v>
+      </c>
+      <c r="N4" s="14"/>
       <c r="O4" s="14">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="P4" s="6">
         <f>0.7*L4+0.2*M4+0.1*O4+N4</f>
-        <v>4.5904999999999996</v>
+        <v>4.2119999999999997</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" s="3">
-        <v>1005894053</v>
+        <v>1219713263</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E5" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="G5" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H5" s="3" t="str" cm="1">
         <f t="array" ref="H5">_xlfn.IFS(G5=1, "2:00 PM", G5=2, "2:30 PM", G5=3, "3:00 PM", G5=4, "3:30 PM")</f>
-        <v>3:00 PM</v>
+        <v>2:00 PM</v>
       </c>
       <c r="I5" s="17">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J5" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K5" s="6">
-        <v>4.5999999999999996</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="L5" s="6">
         <f>(J5/I5)*K5</f>
-        <v>4.5999999999999996</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="M5" s="14">
-        <v>2.96</v>
+        <v>2.76</v>
       </c>
       <c r="N5" s="14"/>
       <c r="O5" s="14">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P5" s="6">
         <f>0.7*L5+0.2*M5+0.1*O5+N5</f>
-        <v>4.1619999999999999</v>
+        <v>4.282</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" s="3">
-        <v>1081728000</v>
+        <v>1110363454</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E6" s="3">
         <v>3</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G6" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H6" s="3" t="str" cm="1">
         <f t="array" ref="H6">_xlfn.IFS(G6=1, "2:00 PM", G6=2, "2:30 PM", G6=3, "3:00 PM", G6=4, "3:30 PM")</f>
-        <v>2:30 PM</v>
+        <v>2:00 PM</v>
       </c>
       <c r="I6" s="17">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J6" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K6" s="6">
         <v>4.8</v>
@@ -1480,33 +1471,36 @@
       <c r="M6" s="14">
         <v>2.76</v>
       </c>
-      <c r="N6" s="14"/>
+      <c r="N6" s="14">
+        <f>1/13</f>
+        <v>7.6923076923076927E-2</v>
+      </c>
       <c r="O6" s="14">
         <v>3</v>
       </c>
       <c r="P6" s="6">
         <f>0.7*L6+0.2*M6+0.1*O6+N6</f>
-        <v>4.2119999999999997</v>
+        <v>4.2889230769230764</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" s="3">
-        <v>1062274189</v>
+        <v>1005894053</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E7" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="G7" s="3">
         <v>2</v>
@@ -1516,28 +1510,28 @@
         <v>2:30 PM</v>
       </c>
       <c r="I7" s="17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J7" s="3">
         <v>3</v>
       </c>
       <c r="K7" s="6">
-        <v>4.5</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="L7" s="6">
         <f>(J7/I7)*K7</f>
-        <v>2.6999999999999997</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="M7" s="14">
-        <v>2.76</v>
+        <v>2.96</v>
       </c>
       <c r="N7" s="14"/>
       <c r="O7" s="14">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P7" s="6">
         <f>0.7*L7+0.2*M7+0.1*O7+N7</f>
-        <v>2.742</v>
+        <v>4.1619999999999999</v>
       </c>
       <c r="T7" s="32"/>
     </row>
@@ -1561,11 +1555,11 @@
         <v>63</v>
       </c>
       <c r="G8" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H8" s="3" t="str" cm="1">
         <f t="array" ref="H8">_xlfn.IFS(G8=1, "2:00 PM", G8=2, "2:30 PM", G8=3, "3:00 PM", G8=4, "3:30 PM")</f>
-        <v>3:00 PM</v>
+        <v>2:30 PM</v>
       </c>
       <c r="I8" s="17">
         <v>4</v>
@@ -1594,235 +1588,260 @@
     </row>
     <row r="9" spans="1:20">
       <c r="A9" s="3">
-        <v>1004189893</v>
+        <v>1193578885</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>121</v>
+        <v>48</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="2"/>
+        <v>49</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="3">
+        <v>4</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" s="3">
+        <v>2</v>
+      </c>
+      <c r="H9" s="3" t="str" cm="1">
+        <f t="array" ref="H9">_xlfn.IFS(G9=1, "2:00 PM", G9=2, "2:30 PM", G9=3, "3:00 PM", G9=4, "3:30 PM")</f>
+        <v>2:30 PM</v>
+      </c>
+      <c r="I9" s="17">
+        <v>4</v>
+      </c>
+      <c r="J9" s="3">
+        <v>4</v>
+      </c>
+      <c r="K9" s="6">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="L9" s="6">
+        <f>(J9/I9)*K9</f>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="M9" s="14">
+        <v>2.96</v>
+      </c>
+      <c r="N9" s="37"/>
+      <c r="O9" s="14">
+        <v>3.5</v>
+      </c>
+      <c r="P9" s="6">
+        <f>0.7*L9+0.2*M9+0.1*O9+N9</f>
+        <v>4.1619999999999999</v>
+      </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" s="3">
-        <v>1005783739</v>
+        <v>1025642375</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E10" s="3">
+        <v>4</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" s="3">
         <v>2</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G10" s="3">
-        <v>1</v>
       </c>
       <c r="H10" s="3" t="str" cm="1">
         <f t="array" ref="H10">_xlfn.IFS(G10=1, "2:00 PM", G10=2, "2:30 PM", G10=3, "3:00 PM", G10=4, "3:30 PM")</f>
-        <v>2:00 PM</v>
+        <v>2:30 PM</v>
       </c>
       <c r="I10" s="17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J10" s="3">
-        <v>4</v>
-      </c>
-      <c r="K10" s="6">
-        <v>4.8</v>
+        <v>5</v>
+      </c>
+      <c r="K10" s="3">
+        <v>4.7</v>
       </c>
       <c r="L10" s="6">
         <f>(J10/I10)*K10</f>
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="M10" s="14">
-        <v>3.55</v>
-      </c>
-      <c r="N10" s="14">
-        <f>3/20</f>
-        <v>0.15</v>
-      </c>
+        <v>2.96</v>
+      </c>
+      <c r="N10" s="14"/>
       <c r="O10" s="14">
-        <v>4.7</v>
+        <v>3.5</v>
       </c>
       <c r="P10" s="6">
         <f>0.7*L10+0.2*M10+0.1*O10+N10</f>
-        <v>4.6900000000000004</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" ht="15.75">
+        <v>4.2320000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="3">
-        <v>1007603017</v>
+        <v>1107836732</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E11" s="3">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" s="3">
         <v>3</v>
-      </c>
-      <c r="F11" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="G11" s="3">
-        <v>2</v>
       </c>
       <c r="H11" s="3" t="str" cm="1">
         <f t="array" ref="H11">_xlfn.IFS(G11=1, "2:00 PM", G11=2, "2:30 PM", G11=3, "3:00 PM", G11=4, "3:30 PM")</f>
-        <v>2:30 PM</v>
+        <v>3:00 PM</v>
       </c>
       <c r="I11" s="17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J11" s="3">
-        <v>5</v>
-      </c>
-      <c r="K11" s="6">
-        <v>4.8</v>
+        <v>3</v>
+      </c>
+      <c r="K11" s="3">
+        <v>4.5</v>
       </c>
       <c r="L11" s="6">
         <f>(J11/I11)*K11</f>
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="M11" s="14">
-        <v>2.76</v>
+        <v>3.59</v>
       </c>
       <c r="N11" s="14"/>
       <c r="O11" s="14">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="P11" s="6">
         <f>0.7*L11+0.2*M11+0.1*O11+N11</f>
-        <v>4.2119999999999997</v>
+        <v>4.3179999999999996</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" s="3">
-        <v>1062329024</v>
+        <v>1110364376</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E12" s="3">
         <v>1</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G12" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H12" s="3" t="str" cm="1">
         <f t="array" ref="H12">_xlfn.IFS(G12=1, "2:00 PM", G12=2, "2:30 PM", G12=3, "3:00 PM", G12=4, "3:30 PM")</f>
-        <v>3:30 PM</v>
+        <v>3:00 PM</v>
       </c>
       <c r="I12" s="17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J12" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K12" s="3">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="L12" s="6">
         <f>(J12/I12)*K12</f>
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="M12" s="14">
         <v>3.59</v>
       </c>
-      <c r="N12" s="14"/>
+      <c r="N12" s="14">
+        <f>1/16</f>
+        <v>6.25E-2</v>
+      </c>
       <c r="O12" s="14">
         <v>4.5</v>
       </c>
       <c r="P12" s="6">
         <f>0.7*L12+0.2*M12+0.1*O12+N12</f>
-        <v>4.3179999999999996</v>
+        <v>4.5904999999999996</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" s="3">
-        <v>1113698193</v>
+        <v>1062329024</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E13" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="G13" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H13" s="3" t="str" cm="1">
         <f t="array" ref="H13">_xlfn.IFS(G13=1, "2:00 PM", G13=2, "2:30 PM", G13=3, "3:00 PM", G13=4, "3:30 PM")</f>
-        <v>2:00 PM</v>
+        <v>3:00 PM</v>
       </c>
       <c r="I13" s="17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J13" s="3">
-        <v>3</v>
-      </c>
-      <c r="K13" s="6">
-        <v>4.8</v>
+        <v>5</v>
+      </c>
+      <c r="K13" s="3">
+        <v>4.5</v>
       </c>
       <c r="L13" s="6">
         <f>(J13/I13)*K13</f>
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="M13" s="14">
-        <v>3.55</v>
-      </c>
-      <c r="N13" s="14">
-        <f>2/20</f>
-        <v>0.1</v>
-      </c>
+        <v>3.59</v>
+      </c>
+      <c r="N13" s="14"/>
       <c r="O13" s="14">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="P13" s="6">
         <f>0.7*L13+0.2*M13+0.1*O13+N13</f>
-        <v>4.6399999999999997</v>
+        <v>4.3179999999999996</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1845,11 +1864,11 @@
         <v>71</v>
       </c>
       <c r="G14" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H14" s="3" t="str" cm="1">
         <f t="array" ref="H14">_xlfn.IFS(G14=1, "2:00 PM", G14=2, "2:30 PM", G14=3, "3:00 PM", G14=4, "3:30 PM")</f>
-        <v>3:30 PM</v>
+        <v>3:00 PM</v>
       </c>
       <c r="I14" s="17">
         <v>1</v>
@@ -1878,37 +1897,37 @@
     </row>
     <row r="15" spans="1:20">
       <c r="A15" s="3">
-        <v>1005832925</v>
+        <v>1126644560</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E15" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G15" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H15" s="3" t="str" cm="1">
         <f t="array" ref="H15">_xlfn.IFS(G15=1, "2:00 PM", G15=2, "2:30 PM", G15=3, "3:00 PM", G15=4, "3:30 PM")</f>
-        <v>2:00 PM</v>
+        <v>3:00 PM</v>
       </c>
       <c r="I15" s="17">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="J15" s="3">
-        <v>11</v>
-      </c>
-      <c r="K15" s="6">
+        <v>4</v>
+      </c>
+      <c r="K15" s="3">
         <v>4.8</v>
       </c>
       <c r="L15" s="6">
@@ -1916,96 +1935,96 @@
         <v>4.8</v>
       </c>
       <c r="M15" s="14">
-        <v>3.55</v>
-      </c>
-      <c r="N15" s="14">
-        <f>5/20</f>
-        <v>0.25</v>
-      </c>
+        <v>3.59</v>
+      </c>
+      <c r="N15" s="14"/>
       <c r="O15" s="14">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="P15" s="6">
         <f>0.7*L15+0.2*M15+0.1*O15+N15</f>
-        <v>4.79</v>
+        <v>4.5279999999999996</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" s="3">
-        <v>1219713263</v>
+        <v>1005785832</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E16" s="3">
-        <v>3</v>
-      </c>
-      <c r="F16" s="34" t="s">
-        <v>74</v>
+        <v>2</v>
+      </c>
+      <c r="F16" s="35" t="s">
+        <v>61</v>
       </c>
       <c r="G16" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H16" s="3" t="str" cm="1">
         <f t="array" ref="H16">_xlfn.IFS(G16=1, "2:00 PM", G16=2, "2:30 PM", G16=3, "3:00 PM", G16=4, "3:30 PM")</f>
-        <v>2:30 PM</v>
+        <v>3:30 PM</v>
       </c>
       <c r="I16" s="17">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J16" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K16" s="6">
-        <v>4.9000000000000004</v>
+        <v>4.8</v>
       </c>
       <c r="L16" s="6">
         <f>(J16/I16)*K16</f>
-        <v>4.9000000000000004</v>
+        <v>4.8</v>
       </c>
       <c r="M16" s="14">
-        <v>2.76</v>
-      </c>
-      <c r="N16" s="14"/>
+        <v>3.55</v>
+      </c>
+      <c r="N16" s="14">
+        <f>1/20</f>
+        <v>0.05</v>
+      </c>
       <c r="O16" s="14">
-        <v>3</v>
+        <v>4.7</v>
       </c>
       <c r="P16" s="6">
         <f>0.7*L16+0.2*M16+0.1*O16+N16</f>
-        <v>4.282</v>
+        <v>4.59</v>
       </c>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="3">
-        <v>1193578885</v>
+        <v>1005783739</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E17" s="3">
+        <v>2</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G17" s="3">
         <v>4</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G17" s="3">
-        <v>3</v>
       </c>
       <c r="H17" s="3" t="str" cm="1">
         <f t="array" ref="H17">_xlfn.IFS(G17=1, "2:00 PM", G17=2, "2:30 PM", G17=3, "3:00 PM", G17=4, "3:30 PM")</f>
-        <v>3:00 PM</v>
+        <v>3:30 PM</v>
       </c>
       <c r="I17" s="17">
         <v>4</v>
@@ -2014,106 +2033,112 @@
         <v>4</v>
       </c>
       <c r="K17" s="6">
-        <v>4.5999999999999996</v>
+        <v>4.8</v>
       </c>
       <c r="L17" s="6">
         <f>(J17/I17)*K17</f>
-        <v>4.5999999999999996</v>
+        <v>4.8</v>
       </c>
       <c r="M17" s="14">
-        <v>2.96</v>
-      </c>
-      <c r="N17" s="14"/>
+        <v>3.55</v>
+      </c>
+      <c r="N17" s="14">
+        <f>3/20</f>
+        <v>0.15</v>
+      </c>
       <c r="O17" s="14">
-        <v>3.5</v>
+        <v>4.7</v>
       </c>
       <c r="P17" s="6">
         <f>0.7*L17+0.2*M17+0.1*O17+N17</f>
-        <v>4.1619999999999999</v>
+        <v>4.6900000000000004</v>
       </c>
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="3">
-        <v>1025642375</v>
+        <v>1113698193</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D18" s="31" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E18" s="3">
+        <v>2</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G18" s="3">
         <v>4</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G18" s="3">
-        <v>3</v>
       </c>
       <c r="H18" s="3" t="str" cm="1">
         <f t="array" ref="H18">_xlfn.IFS(G18=1, "2:00 PM", G18=2, "2:30 PM", G18=3, "3:00 PM", G18=4, "3:30 PM")</f>
-        <v>3:00 PM</v>
+        <v>3:30 PM</v>
       </c>
       <c r="I18" s="17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J18" s="3">
-        <v>5</v>
-      </c>
-      <c r="K18" s="3">
-        <v>4.7</v>
+        <v>3</v>
+      </c>
+      <c r="K18" s="6">
+        <v>4.8</v>
       </c>
       <c r="L18" s="6">
         <f>(J18/I18)*K18</f>
+        <v>4.8</v>
+      </c>
+      <c r="M18" s="14">
+        <v>3.55</v>
+      </c>
+      <c r="N18" s="14">
+        <f>2/20</f>
+        <v>0.1</v>
+      </c>
+      <c r="O18" s="14">
         <v>4.7</v>
-      </c>
-      <c r="M18" s="14">
-        <v>2.96</v>
-      </c>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14">
-        <v>3.5</v>
       </c>
       <c r="P18" s="6">
         <f>0.7*L18+0.2*M18+0.1*O18+N18</f>
-        <v>4.2320000000000002</v>
+        <v>4.6399999999999997</v>
       </c>
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="3">
-        <v>1110363454</v>
+        <v>1005832925</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="D19" s="31" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E19" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G19" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H19" s="3" t="str" cm="1">
         <f t="array" ref="H19">_xlfn.IFS(G19=1, "2:00 PM", G19=2, "2:30 PM", G19=3, "3:00 PM", G19=4, "3:30 PM")</f>
-        <v>2:30 PM</v>
+        <v>3:30 PM</v>
       </c>
       <c r="I19" s="17">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="J19" s="3">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="K19" s="6">
         <v>4.8</v>
@@ -2123,18 +2148,18 @@
         <v>4.8</v>
       </c>
       <c r="M19" s="14">
-        <v>2.76</v>
+        <v>3.55</v>
       </c>
       <c r="N19" s="14">
-        <f>1/13</f>
-        <v>7.6923076923076927E-2</v>
+        <f>5/20</f>
+        <v>0.25</v>
       </c>
       <c r="O19" s="14">
-        <v>3</v>
+        <v>4.7</v>
       </c>
       <c r="P19" s="6">
         <f>0.7*L19+0.2*M19+0.1*O19+N19</f>
-        <v>4.2889230769230764</v>
+        <v>4.79</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -2157,11 +2182,11 @@
         <v>69</v>
       </c>
       <c r="G20" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H20" s="3" t="str" cm="1">
         <f t="array" ref="H20">_xlfn.IFS(G20=1, "2:00 PM", G20=2, "2:30 PM", G20=3, "3:00 PM", G20=4, "3:30 PM")</f>
-        <v>2:00 PM</v>
+        <v>3:30 PM</v>
       </c>
       <c r="I20" s="17">
         <v>7</v>
@@ -2192,60 +2217,32 @@
       </c>
     </row>
     <row r="21" spans="1:16">
-      <c r="A21" s="36">
-        <v>1126644560</v>
+      <c r="A21" s="34">
+        <v>1004189893</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="D21" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21" s="36">
-        <v>1</v>
-      </c>
-      <c r="F21" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="G21" s="36">
-        <v>4</v>
-      </c>
-      <c r="H21" s="36" t="str" cm="1">
-        <f t="array" ref="H21">_xlfn.IFS(G21=1, "2:00 PM", G21=2, "2:30 PM", G21=3, "3:00 PM", G21=4, "3:30 PM")</f>
-        <v>3:30 PM</v>
-      </c>
-      <c r="I21" s="38">
-        <v>4</v>
-      </c>
-      <c r="J21" s="36">
-        <v>4</v>
-      </c>
-      <c r="K21" s="36">
-        <v>4.8</v>
-      </c>
-      <c r="L21" s="39">
-        <f>(J21/I21)*K21</f>
-        <v>4.8</v>
-      </c>
-      <c r="M21" s="35">
-        <v>3.59</v>
-      </c>
-      <c r="N21" s="35"/>
-      <c r="O21" s="35">
-        <v>4.5</v>
-      </c>
-      <c r="P21" s="6">
-        <f>0.7*L21+0.2*M21+0.1*O21+N21</f>
-        <v>4.5279999999999996</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="C21" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="D21" s="35"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="35"/>
+      <c r="M21" s="37"/>
+      <c r="O21" s="37"/>
+      <c r="P21" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:P20" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P21">
-      <sortCondition ref="B1:B20"/>
+      <sortCondition ref="G1:G20"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="P2:P21">
@@ -2273,7 +2270,7 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="66.28515625" bestFit="1" customWidth="1"/>
@@ -2367,7 +2364,7 @@
       <selection sqref="A1:B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="58.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="58.5703125" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="33.140625" customWidth="1"/>
   </cols>

--- a/academics/DB2/2025-2/DB2 2025-2.xlsx
+++ b/academics/DB2/2025-2/DB2 2025-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\oicampo\Documents\GitHub\oicampo-uao.github.io\academics\DB2\2025-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3048F512-3D1D-4B3B-9272-671BC9A9576E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C1E53C3-F6DB-464A-BB41-D214F35B4A6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$P$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$R$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="127">
   <si>
     <t>email</t>
   </si>
@@ -426,15 +426,28 @@
     <t>DELGADO MATABANCHOY</t>
   </si>
   <si>
-    <t>JUAN SEBASTIAN</t>
+    <t>T. Conexión</t>
+  </si>
+  <si>
+    <t>%Asistencia</t>
+  </si>
+  <si>
+    <t>Fecha:</t>
+  </si>
+  <si>
+    <t>T. Encuentro:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> JUAN SEBASTIAN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="170" formatCode="0.0000"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -507,7 +520,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -667,11 +680,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -750,16 +774,23 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1152,10 +1183,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:R23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="V9" sqref="V9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1167,184 +1198,106 @@
     <col min="5" max="5" width="9.140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="6.140625" style="1" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="9.140625" style="18" hidden="1" customWidth="1"/>
     <col min="10" max="11" width="9.140625" style="1" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="9.140625" hidden="1" customWidth="1"/>
     <col min="13" max="15" width="9.140625" style="15" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="0" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:18">
+      <c r="Q1" t="s">
+        <v>124</v>
+      </c>
+      <c r="R1" s="38">
+        <v>45912</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="Q2" t="s">
+        <v>125</v>
+      </c>
+      <c r="R2" s="40">
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B3" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I3" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="M3" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="N3" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="O3" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P3" s="4" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="2" spans="1:20">
-      <c r="A2" s="3">
-        <v>1081728000</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="3">
-        <v>3</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G2" s="3">
-        <v>1</v>
-      </c>
-      <c r="H2" s="3" t="str" cm="1">
-        <f t="array" ref="H2">_xlfn.IFS(G2=1, "2:00 PM", G2=2, "2:30 PM", G2=3, "3:00 PM", G2=4, "3:30 PM")</f>
-        <v>2:00 PM</v>
-      </c>
-      <c r="I2" s="17">
-        <v>5</v>
-      </c>
-      <c r="J2" s="3">
-        <v>5</v>
-      </c>
-      <c r="K2" s="6">
-        <v>4.8</v>
-      </c>
-      <c r="L2" s="6">
-        <f>(J2/I2)*K2</f>
-        <v>4.8</v>
-      </c>
-      <c r="M2" s="14">
-        <v>2.76</v>
-      </c>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14">
-        <v>3</v>
-      </c>
-      <c r="P2" s="6">
-        <f>0.7*L2+0.2*M2+0.1*O2+N2</f>
-        <v>4.2119999999999997</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20">
-      <c r="A3" s="3">
+      <c r="Q3" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="R3" s="33" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" s="3">
         <v>1062274189</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D4" s="31" t="s">
         <v>6</v>
-      </c>
-      <c r="E3" s="3">
-        <v>3</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G3" s="3">
-        <v>1</v>
-      </c>
-      <c r="H3" s="3" t="str" cm="1">
-        <f t="array" ref="H3">_xlfn.IFS(G3=1, "2:00 PM", G3=2, "2:30 PM", G3=3, "3:00 PM", G3=4, "3:30 PM")</f>
-        <v>2:00 PM</v>
-      </c>
-      <c r="I3" s="17">
-        <v>5</v>
-      </c>
-      <c r="J3" s="3">
-        <v>3</v>
-      </c>
-      <c r="K3" s="6">
-        <v>4.5</v>
-      </c>
-      <c r="L3" s="6">
-        <f>(J3/I3)*K3</f>
-        <v>2.6999999999999997</v>
-      </c>
-      <c r="M3" s="14">
-        <v>2.76</v>
-      </c>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14">
-        <v>3</v>
-      </c>
-      <c r="P3" s="6">
-        <f>0.7*L3+0.2*M3+0.1*O3+N3</f>
-        <v>2.742</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" ht="15.75">
-      <c r="A4" s="3">
-        <v>1007603017</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="31" t="s">
-        <v>9</v>
       </c>
       <c r="E4" s="3">
         <v>3</v>
       </c>
-      <c r="F4" s="33" t="s">
-        <v>79</v>
+      <c r="F4" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="G4" s="3">
         <v>1</v>
@@ -1357,14 +1310,14 @@
         <v>5</v>
       </c>
       <c r="J4" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K4" s="6">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="L4" s="6">
         <f>(J4/I4)*K4</f>
-        <v>4.8</v>
+        <v>2.6999999999999997</v>
       </c>
       <c r="M4" s="14">
         <v>2.76</v>
@@ -1375,27 +1328,34 @@
       </c>
       <c r="P4" s="6">
         <f>0.7*L4+0.2*M4+0.1*O4+N4</f>
-        <v>4.2119999999999997</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
+        <v>2.742</v>
+      </c>
+      <c r="Q4" s="36">
+        <v>1.8506944444444444E-2</v>
+      </c>
+      <c r="R4" s="39">
+        <f>Q4/Q4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="3">
-        <v>1219713263</v>
+        <v>1110363454</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E5" s="3">
         <v>3</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G5" s="3">
         <v>1</v>
@@ -1411,42 +1371,52 @@
         <v>6</v>
       </c>
       <c r="K5" s="6">
-        <v>4.9000000000000004</v>
+        <v>4.8</v>
       </c>
       <c r="L5" s="6">
         <f>(J5/I5)*K5</f>
-        <v>4.9000000000000004</v>
+        <v>4.8</v>
       </c>
       <c r="M5" s="14">
         <v>2.76</v>
       </c>
-      <c r="N5" s="14"/>
+      <c r="N5" s="14">
+        <f>1/13</f>
+        <v>7.6923076923076927E-2</v>
+      </c>
       <c r="O5" s="14">
         <v>3</v>
       </c>
       <c r="P5" s="6">
         <f>0.7*L5+0.2*M5+0.1*O5+N5</f>
-        <v>4.282</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
+        <v>4.2889230769230764</v>
+      </c>
+      <c r="Q5" s="36">
+        <v>1.1863425925925927E-2</v>
+      </c>
+      <c r="R5" s="39">
+        <f>Q5/Q4</f>
+        <v>0.64102564102564108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="15.75">
       <c r="A6" s="3">
-        <v>1110363454</v>
+        <v>1007603017</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E6" s="3">
         <v>3</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>72</v>
+      <c r="F6" s="32" t="s">
+        <v>79</v>
       </c>
       <c r="G6" s="3">
         <v>1</v>
@@ -1456,10 +1426,10 @@
         <v>2:00 PM</v>
       </c>
       <c r="I6" s="17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J6" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K6" s="6">
         <v>4.8</v>
@@ -1471,139 +1441,156 @@
       <c r="M6" s="14">
         <v>2.76</v>
       </c>
-      <c r="N6" s="14">
-        <f>1/13</f>
-        <v>7.6923076923076927E-2</v>
-      </c>
+      <c r="N6" s="14"/>
       <c r="O6" s="14">
         <v>3</v>
       </c>
       <c r="P6" s="6">
         <f>0.7*L6+0.2*M6+0.1*O6+N6</f>
-        <v>4.2889230769230764</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
+        <v>4.2119999999999997</v>
+      </c>
+      <c r="Q6" s="36">
+        <v>1.8159722222222223E-2</v>
+      </c>
+      <c r="R6" s="39">
+        <f>Q6/Q4</f>
+        <v>0.98123827392120078</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="3">
-        <v>1005894053</v>
+        <v>1081728000</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E7" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="G7" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H7" s="3" t="str" cm="1">
         <f t="array" ref="H7">_xlfn.IFS(G7=1, "2:00 PM", G7=2, "2:30 PM", G7=3, "3:00 PM", G7=4, "3:30 PM")</f>
-        <v>2:30 PM</v>
+        <v>2:00 PM</v>
       </c>
       <c r="I7" s="17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J7" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K7" s="6">
-        <v>4.5999999999999996</v>
+        <v>4.8</v>
       </c>
       <c r="L7" s="6">
         <f>(J7/I7)*K7</f>
-        <v>4.5999999999999996</v>
+        <v>4.8</v>
       </c>
       <c r="M7" s="14">
-        <v>2.96</v>
+        <v>2.76</v>
       </c>
       <c r="N7" s="14"/>
       <c r="O7" s="14">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P7" s="6">
         <f>0.7*L7+0.2*M7+0.1*O7+N7</f>
-        <v>4.1619999999999999</v>
-      </c>
-      <c r="T7" s="32"/>
-    </row>
-    <row r="8" spans="1:20">
+        <v>4.2119999999999997</v>
+      </c>
+      <c r="Q7" s="36">
+        <v>9.9305555555555553E-3</v>
+      </c>
+      <c r="R7" s="39">
+        <f>Q7/Q4</f>
+        <v>0.53658536585365857</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="3">
-        <v>1193073115</v>
+        <v>1219713263</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E8" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="G8" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H8" s="3" t="str" cm="1">
         <f t="array" ref="H8">_xlfn.IFS(G8=1, "2:00 PM", G8=2, "2:30 PM", G8=3, "3:00 PM", G8=4, "3:30 PM")</f>
-        <v>2:30 PM</v>
+        <v>2:00 PM</v>
       </c>
       <c r="I8" s="17">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J8" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K8" s="6">
-        <v>4.8</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="L8" s="6">
         <f>(J8/I8)*K8</f>
-        <v>4.8</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="M8" s="14">
-        <v>2.96</v>
+        <v>2.76</v>
       </c>
       <c r="N8" s="14"/>
       <c r="O8" s="14">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P8" s="6">
         <f>0.7*L8+0.2*M8+0.1*O8+N8</f>
-        <v>4.3019999999999996</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
+        <v>4.282</v>
+      </c>
+      <c r="Q8" s="36">
+        <v>0</v>
+      </c>
+      <c r="R8" s="39">
+        <f>Q8/Q4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="3">
-        <v>1193578885</v>
+        <v>1025642375</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E9" s="3">
         <v>4</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G9" s="3">
         <v>2</v>
@@ -1613,48 +1600,55 @@
         <v>2:30 PM</v>
       </c>
       <c r="I9" s="17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J9" s="3">
-        <v>4</v>
-      </c>
-      <c r="K9" s="6">
-        <v>4.5999999999999996</v>
+        <v>5</v>
+      </c>
+      <c r="K9" s="3">
+        <v>4.7</v>
       </c>
       <c r="L9" s="6">
         <f>(J9/I9)*K9</f>
-        <v>4.5999999999999996</v>
+        <v>4.7</v>
       </c>
       <c r="M9" s="14">
         <v>2.96</v>
       </c>
-      <c r="N9" s="37"/>
+      <c r="N9" s="14"/>
       <c r="O9" s="14">
         <v>3.5</v>
       </c>
       <c r="P9" s="6">
         <f>0.7*L9+0.2*M9+0.1*O9+N9</f>
-        <v>4.1619999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
+        <v>4.2320000000000002</v>
+      </c>
+      <c r="Q9" s="36">
+        <v>2.0243055555555556E-2</v>
+      </c>
+      <c r="R9" s="39">
+        <f>Q9/Q11</f>
+        <v>0.94848156182212573</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="3">
-        <v>1025642375</v>
+        <v>1193073115</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E10" s="3">
         <v>4</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G10" s="3">
         <v>2</v>
@@ -1664,17 +1658,17 @@
         <v>2:30 PM</v>
       </c>
       <c r="I10" s="17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J10" s="3">
-        <v>5</v>
-      </c>
-      <c r="K10" s="3">
-        <v>4.7</v>
+        <v>4</v>
+      </c>
+      <c r="K10" s="6">
+        <v>4.8</v>
       </c>
       <c r="L10" s="6">
         <f>(J10/I10)*K10</f>
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="M10" s="14">
         <v>2.96</v>
@@ -1685,34 +1679,41 @@
       </c>
       <c r="P10" s="6">
         <f>0.7*L10+0.2*M10+0.1*O10+N10</f>
-        <v>4.2320000000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
+        <v>4.3019999999999996</v>
+      </c>
+      <c r="Q10" s="36">
+        <v>2.0532407407407409E-2</v>
+      </c>
+      <c r="R10" s="39">
+        <f>Q10/Q11</f>
+        <v>0.96203904555314534</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="3">
-        <v>1107836732</v>
+        <v>1005894053</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E11" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="G11" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H11" s="3" t="str" cm="1">
         <f t="array" ref="H11">_xlfn.IFS(G11=1, "2:00 PM", G11=2, "2:30 PM", G11=3, "3:00 PM", G11=4, "3:30 PM")</f>
-        <v>3:00 PM</v>
+        <v>2:30 PM</v>
       </c>
       <c r="I11" s="17">
         <v>3</v>
@@ -1720,97 +1721,108 @@
       <c r="J11" s="3">
         <v>3</v>
       </c>
-      <c r="K11" s="3">
-        <v>4.5</v>
+      <c r="K11" s="6">
+        <v>4.5999999999999996</v>
       </c>
       <c r="L11" s="6">
         <f>(J11/I11)*K11</f>
-        <v>4.5</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="M11" s="14">
-        <v>3.59</v>
-      </c>
-      <c r="N11" s="14"/>
+        <v>2.96</v>
+      </c>
+      <c r="N11" s="35"/>
       <c r="O11" s="14">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P11" s="6">
         <f>0.7*L11+0.2*M11+0.1*O11+N11</f>
-        <v>4.3179999999999996</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
+        <v>4.1619999999999999</v>
+      </c>
+      <c r="Q11" s="36">
+        <v>2.1342592592592594E-2</v>
+      </c>
+      <c r="R11" s="39">
+        <f>Q11/Q11</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="3">
-        <v>1110364376</v>
+        <v>1193578885</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E12" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G12" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H12" s="3" t="str" cm="1">
         <f t="array" ref="H12">_xlfn.IFS(G12=1, "2:00 PM", G12=2, "2:30 PM", G12=3, "3:00 PM", G12=4, "3:30 PM")</f>
-        <v>3:00 PM</v>
+        <v>2:30 PM</v>
       </c>
       <c r="I12" s="17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J12" s="3">
-        <v>3</v>
-      </c>
-      <c r="K12" s="3">
-        <v>4.8</v>
+        <v>4</v>
+      </c>
+      <c r="K12" s="6">
+        <v>4.5999999999999996</v>
       </c>
       <c r="L12" s="6">
         <f>(J12/I12)*K12</f>
-        <v>4.8</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="M12" s="14">
-        <v>3.59</v>
-      </c>
-      <c r="N12" s="14">
-        <f>1/16</f>
-        <v>6.25E-2</v>
-      </c>
+        <v>2.96</v>
+      </c>
+      <c r="N12" s="14"/>
       <c r="O12" s="14">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P12" s="6">
         <f>0.7*L12+0.2*M12+0.1*O12+N12</f>
-        <v>4.5904999999999996</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
+        <v>4.1619999999999999</v>
+      </c>
+      <c r="Q12" s="36">
+        <v>1.951388888888889E-2</v>
+      </c>
+      <c r="R12" s="39">
+        <f>Q12/Q11</f>
+        <v>0.91431670281995658</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="3">
-        <v>1062329024</v>
+        <v>1005967544</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E13" s="3">
         <v>1</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G13" s="3">
         <v>3</v>
@@ -1820,17 +1832,17 @@
         <v>3:00 PM</v>
       </c>
       <c r="I13" s="17">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J13" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K13" s="3">
-        <v>4.5</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="L13" s="6">
         <f>(J13/I13)*K13</f>
-        <v>4.5</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="M13" s="14">
         <v>3.59</v>
@@ -1841,27 +1853,34 @@
       </c>
       <c r="P13" s="6">
         <f>0.7*L13+0.2*M13+0.1*O13+N13</f>
-        <v>4.3179999999999996</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
+        <v>4.3879999999999999</v>
+      </c>
+      <c r="Q13" s="36">
+        <v>1.3935185185185186E-2</v>
+      </c>
+      <c r="R13" s="39">
+        <f>Q13/Q15</f>
+        <v>0.85269121813031168</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="3">
-        <v>1005967544</v>
+        <v>1107836732</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="D14" s="31" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E14" s="3">
         <v>1</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G14" s="3">
         <v>3</v>
@@ -1871,17 +1890,17 @@
         <v>3:00 PM</v>
       </c>
       <c r="I14" s="17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J14" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K14" s="3">
-        <v>4.5999999999999996</v>
+        <v>4.5</v>
       </c>
       <c r="L14" s="6">
         <f>(J14/I14)*K14</f>
-        <v>4.5999999999999996</v>
+        <v>4.5</v>
       </c>
       <c r="M14" s="14">
         <v>3.59</v>
@@ -1892,10 +1911,17 @@
       </c>
       <c r="P14" s="6">
         <f>0.7*L14+0.2*M14+0.1*O14+N14</f>
-        <v>4.3879999999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
+        <v>4.3179999999999996</v>
+      </c>
+      <c r="Q14" s="36">
+        <v>1.474537037037037E-2</v>
+      </c>
+      <c r="R14" s="39">
+        <f>Q14/Q15</f>
+        <v>0.90226628895184136</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="3">
         <v>1126644560</v>
       </c>
@@ -1945,94 +1971,105 @@
         <f>0.7*L15+0.2*M15+0.1*O15+N15</f>
         <v>4.5279999999999996</v>
       </c>
-    </row>
-    <row r="16" spans="1:20">
+      <c r="Q15" s="36">
+        <v>1.6342592592592593E-2</v>
+      </c>
+      <c r="R15" s="39">
+        <f>Q15/Q15</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="3">
-        <v>1005785832</v>
+        <v>1062329024</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E16" s="3">
-        <v>2</v>
-      </c>
-      <c r="F16" s="35" t="s">
-        <v>61</v>
+        <v>1</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="G16" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H16" s="3" t="str" cm="1">
         <f t="array" ref="H16">_xlfn.IFS(G16=1, "2:00 PM", G16=2, "2:30 PM", G16=3, "3:00 PM", G16=4, "3:30 PM")</f>
-        <v>3:30 PM</v>
+        <v>3:00 PM</v>
       </c>
       <c r="I16" s="17">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J16" s="3">
-        <v>7</v>
-      </c>
-      <c r="K16" s="6">
-        <v>4.8</v>
+        <v>5</v>
+      </c>
+      <c r="K16" s="3">
+        <v>4.5</v>
       </c>
       <c r="L16" s="6">
         <f>(J16/I16)*K16</f>
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="M16" s="14">
-        <v>3.55</v>
-      </c>
-      <c r="N16" s="14">
-        <f>1/20</f>
-        <v>0.05</v>
-      </c>
+        <v>3.59</v>
+      </c>
+      <c r="N16" s="14"/>
       <c r="O16" s="14">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="P16" s="6">
         <f>0.7*L16+0.2*M16+0.1*O16+N16</f>
-        <v>4.59</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
+        <v>4.3179999999999996</v>
+      </c>
+      <c r="Q16" s="37">
+        <v>0</v>
+      </c>
+      <c r="R16" s="39">
+        <f>Q16/Q15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="3">
-        <v>1005783739</v>
+        <v>1110364376</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E17" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="G17" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H17" s="3" t="str" cm="1">
         <f t="array" ref="H17">_xlfn.IFS(G17=1, "2:00 PM", G17=2, "2:30 PM", G17=3, "3:00 PM", G17=4, "3:30 PM")</f>
-        <v>3:30 PM</v>
+        <v>3:00 PM</v>
       </c>
       <c r="I17" s="17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J17" s="3">
-        <v>4</v>
-      </c>
-      <c r="K17" s="6">
+        <v>3</v>
+      </c>
+      <c r="K17" s="3">
         <v>4.8</v>
       </c>
       <c r="L17" s="6">
@@ -2040,38 +2077,45 @@
         <v>4.8</v>
       </c>
       <c r="M17" s="14">
-        <v>3.55</v>
+        <v>3.59</v>
       </c>
       <c r="N17" s="14">
-        <f>3/20</f>
-        <v>0.15</v>
+        <f>1/16</f>
+        <v>6.25E-2</v>
       </c>
       <c r="O17" s="14">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="P17" s="6">
         <f>0.7*L17+0.2*M17+0.1*O17+N17</f>
-        <v>4.6900000000000004</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
+        <v>4.5904999999999996</v>
+      </c>
+      <c r="Q17" s="36">
+        <v>1.412037037037037E-2</v>
+      </c>
+      <c r="R17" s="39">
+        <f>Q17/Q15</f>
+        <v>0.86402266288951834</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="3">
-        <v>1113698193</v>
+        <v>1005783739</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D18" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E18" s="3">
         <v>2</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>95</v>
+      <c r="F18" s="34" t="s">
+        <v>78</v>
       </c>
       <c r="G18" s="3">
         <v>4</v>
@@ -2081,10 +2125,10 @@
         <v>3:30 PM</v>
       </c>
       <c r="I18" s="17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J18" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K18" s="6">
         <v>4.8</v>
@@ -2097,35 +2141,42 @@
         <v>3.55</v>
       </c>
       <c r="N18" s="14">
-        <f>2/20</f>
-        <v>0.1</v>
+        <f>3/20</f>
+        <v>0.15</v>
       </c>
       <c r="O18" s="14">
         <v>4.7</v>
       </c>
       <c r="P18" s="6">
         <f>0.7*L18+0.2*M18+0.1*O18+N18</f>
-        <v>4.6399999999999997</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="Q18" s="36">
+        <v>1.4976851851851852E-2</v>
+      </c>
+      <c r="R18" s="39">
+        <f>Q18/Q22</f>
+        <v>0.93768115942028996</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="3">
-        <v>1005832925</v>
+        <v>1113698193</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D19" s="31" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E19" s="3">
         <v>2</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="G19" s="3">
         <v>4</v>
@@ -2135,10 +2186,10 @@
         <v>3:30 PM</v>
       </c>
       <c r="I19" s="17">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="J19" s="3">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="K19" s="6">
         <v>4.8</v>
@@ -2151,18 +2202,25 @@
         <v>3.55</v>
       </c>
       <c r="N19" s="14">
-        <f>5/20</f>
-        <v>0.25</v>
+        <f>2/20</f>
+        <v>0.1</v>
       </c>
       <c r="O19" s="14">
         <v>4.7</v>
       </c>
       <c r="P19" s="6">
         <f>0.7*L19+0.2*M19+0.1*O19+N19</f>
-        <v>4.79</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="Q19" s="36">
+        <v>1.5833333333333335E-2</v>
+      </c>
+      <c r="R19" s="39">
+        <f>Q19/Q22</f>
+        <v>0.99130434782608712</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="3">
         <v>1109662163</v>
       </c>
@@ -2215,37 +2273,155 @@
         <f>0.7*L20+0.2*M20+0.1*O20+N20</f>
         <v>4.59</v>
       </c>
-    </row>
-    <row r="21" spans="1:16">
-      <c r="A21" s="34">
+      <c r="Q20" s="36">
+        <v>1.4652777777777778E-2</v>
+      </c>
+      <c r="R20" s="39">
+        <f>Q20/Q22</f>
+        <v>0.91739130434782623</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21" s="3">
+        <v>1005785832</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" s="3">
+        <v>2</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G21" s="3">
+        <v>4</v>
+      </c>
+      <c r="H21" s="3" t="str" cm="1">
+        <f t="array" ref="H21">_xlfn.IFS(G21=1, "2:00 PM", G21=2, "2:30 PM", G21=3, "3:00 PM", G21=4, "3:30 PM")</f>
+        <v>3:30 PM</v>
+      </c>
+      <c r="I21" s="17">
+        <v>7</v>
+      </c>
+      <c r="J21" s="3">
+        <v>7</v>
+      </c>
+      <c r="K21" s="6">
+        <v>4.8</v>
+      </c>
+      <c r="L21" s="6">
+        <f>(J21/I21)*K21</f>
+        <v>4.8</v>
+      </c>
+      <c r="M21" s="14">
+        <v>3.55</v>
+      </c>
+      <c r="N21" s="14">
+        <f>1/20</f>
+        <v>0.05</v>
+      </c>
+      <c r="O21" s="14">
+        <v>4.7</v>
+      </c>
+      <c r="P21" s="6">
+        <f>0.7*L21+0.2*M21+0.1*O21+N21</f>
+        <v>4.59</v>
+      </c>
+      <c r="Q21" s="36">
+        <v>1.5520833333333333E-2</v>
+      </c>
+      <c r="R21" s="39">
+        <f>Q21/Q22</f>
+        <v>0.97173913043478266</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="A22" s="3">
+        <v>1005832925</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="3">
+        <v>2</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G22" s="3">
+        <v>4</v>
+      </c>
+      <c r="H22" s="3" t="str" cm="1">
+        <f t="array" ref="H22">_xlfn.IFS(G22=1, "2:00 PM", G22=2, "2:30 PM", G22=3, "3:00 PM", G22=4, "3:30 PM")</f>
+        <v>3:30 PM</v>
+      </c>
+      <c r="I22" s="17">
+        <v>11</v>
+      </c>
+      <c r="J22" s="3">
+        <v>11</v>
+      </c>
+      <c r="K22" s="6">
+        <v>4.8</v>
+      </c>
+      <c r="L22" s="6">
+        <f>(J22/I22)*K22</f>
+        <v>4.8</v>
+      </c>
+      <c r="M22" s="14">
+        <v>3.55</v>
+      </c>
+      <c r="N22" s="14">
+        <f>5/20</f>
+        <v>0.25</v>
+      </c>
+      <c r="O22" s="14">
+        <v>4.7</v>
+      </c>
+      <c r="P22" s="6">
+        <f>0.7*L22+0.2*M22+0.1*O22+N22</f>
+        <v>4.79</v>
+      </c>
+      <c r="Q22" s="36">
+        <v>1.5972222222222221E-2</v>
+      </c>
+      <c r="R22" s="39">
+        <f>Q22/Q22</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="A23" s="1">
         <v>1004189893</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B23" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C21" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="D21" s="35"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="34"/>
-      <c r="K21" s="34"/>
-      <c r="L21" s="35"/>
-      <c r="M21" s="37"/>
-      <c r="O21" s="37"/>
-      <c r="P21" s="2"/>
+      <c r="C23" t="s">
+        <v>126</v>
+      </c>
+      <c r="P23" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P20" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P21">
-      <sortCondition ref="G1:G20"/>
+  <autoFilter ref="A3:R3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:R23">
+      <sortCondition ref="G3"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="P2:P21">
+  <conditionalFormatting sqref="P4:P23">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/academics/DB2/2025-2/DB2 2025-2.xlsx
+++ b/academics/DB2/2025-2/DB2 2025-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\oicampo\Documents\GitHub\oicampo-uao.github.io\academics\DB2\2025-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C1E53C3-F6DB-464A-BB41-D214F35B4A6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACD751B7-8F3D-480D-8573-CC1AA9C9B698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -447,7 +447,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="170" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -695,7 +695,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -778,19 +778,18 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1185,8 +1184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1194,16 +1193,16 @@
     <col min="1" max="1" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" customWidth="1"/>
-    <col min="4" max="4" width="29.140625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="29.140625" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="6.140625" style="1" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="18" hidden="1" customWidth="1"/>
-    <col min="10" max="11" width="9.140625" style="1" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="13" max="15" width="9.140625" style="15" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="18" customWidth="1"/>
+    <col min="10" max="11" width="9.140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" customWidth="1"/>
+    <col min="13" max="15" width="9.140625" style="15" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" customWidth="1"/>
     <col min="17" max="17" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
   </cols>
@@ -1212,7 +1211,7 @@
       <c r="Q1" t="s">
         <v>124</v>
       </c>
-      <c r="R1" s="38">
+      <c r="R1" s="35">
         <v>45912</v>
       </c>
     </row>
@@ -1220,7 +1219,7 @@
       <c r="Q2" t="s">
         <v>125</v>
       </c>
-      <c r="R2" s="40">
+      <c r="R2" s="37">
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
@@ -1282,22 +1281,22 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="3">
-        <v>1062274189</v>
+        <v>1005783739</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E4" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="G4" s="3">
         <v>1</v>
@@ -1307,55 +1306,58 @@
         <v>2:00 PM</v>
       </c>
       <c r="I4" s="17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J4" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K4" s="6">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="L4" s="6">
         <f>(J4/I4)*K4</f>
-        <v>2.6999999999999997</v>
+        <v>4.8</v>
       </c>
       <c r="M4" s="14">
-        <v>2.76</v>
-      </c>
-      <c r="N4" s="14"/>
+        <v>3.55</v>
+      </c>
+      <c r="N4" s="14">
+        <f>3/20</f>
+        <v>0.15</v>
+      </c>
       <c r="O4" s="14">
-        <v>3</v>
+        <v>4.7</v>
       </c>
       <c r="P4" s="6">
         <f>0.7*L4+0.2*M4+0.1*O4+N4</f>
-        <v>2.742</v>
-      </c>
-      <c r="Q4" s="36">
-        <v>1.8506944444444444E-2</v>
-      </c>
-      <c r="R4" s="39">
-        <f>Q4/Q4</f>
-        <v>1</v>
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="Q4" s="34">
+        <v>1.4976851851851852E-2</v>
+      </c>
+      <c r="R4" s="36">
+        <f>Q4/Q8</f>
+        <v>0.93768115942028996</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="3">
-        <v>1110363454</v>
+        <v>1113698193</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E5" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="G5" s="3">
         <v>1</v>
@@ -1365,10 +1367,10 @@
         <v>2:00 PM</v>
       </c>
       <c r="I5" s="17">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J5" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K5" s="6">
         <v>4.8</v>
@@ -1378,45 +1380,45 @@
         <v>4.8</v>
       </c>
       <c r="M5" s="14">
-        <v>2.76</v>
+        <v>3.55</v>
       </c>
       <c r="N5" s="14">
-        <f>1/13</f>
-        <v>7.6923076923076927E-2</v>
+        <f>2/20</f>
+        <v>0.1</v>
       </c>
       <c r="O5" s="14">
-        <v>3</v>
+        <v>4.7</v>
       </c>
       <c r="P5" s="6">
         <f>0.7*L5+0.2*M5+0.1*O5+N5</f>
-        <v>4.2889230769230764</v>
-      </c>
-      <c r="Q5" s="36">
-        <v>1.1863425925925927E-2</v>
-      </c>
-      <c r="R5" s="39">
-        <f>Q5/Q4</f>
-        <v>0.64102564102564108</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" ht="15.75">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="Q5" s="34">
+        <v>1.5833333333333335E-2</v>
+      </c>
+      <c r="R5" s="36">
+        <f>Q5/Q8</f>
+        <v>0.99130434782608712</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="3">
-        <v>1007603017</v>
+        <v>1109662163</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E6" s="3">
-        <v>3</v>
-      </c>
-      <c r="F6" s="32" t="s">
-        <v>79</v>
+        <v>2</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>69</v>
       </c>
       <c r="G6" s="3">
         <v>1</v>
@@ -1426,10 +1428,10 @@
         <v>2:00 PM</v>
       </c>
       <c r="I6" s="17">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J6" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K6" s="6">
         <v>4.8</v>
@@ -1439,42 +1441,45 @@
         <v>4.8</v>
       </c>
       <c r="M6" s="14">
-        <v>2.76</v>
-      </c>
-      <c r="N6" s="14"/>
+        <v>3.55</v>
+      </c>
+      <c r="N6" s="14">
+        <f>1/20</f>
+        <v>0.05</v>
+      </c>
       <c r="O6" s="14">
-        <v>3</v>
+        <v>4.7</v>
       </c>
       <c r="P6" s="6">
         <f>0.7*L6+0.2*M6+0.1*O6+N6</f>
-        <v>4.2119999999999997</v>
-      </c>
-      <c r="Q6" s="36">
-        <v>1.8159722222222223E-2</v>
-      </c>
-      <c r="R6" s="39">
-        <f>Q6/Q4</f>
-        <v>0.98123827392120078</v>
+        <v>4.59</v>
+      </c>
+      <c r="Q6" s="34">
+        <v>1.4652777777777778E-2</v>
+      </c>
+      <c r="R6" s="36">
+        <f>Q6/Q8</f>
+        <v>0.91739130434782623</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="3">
-        <v>1081728000</v>
+        <v>1005785832</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E7" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="G7" s="3">
         <v>1</v>
@@ -1484,10 +1489,10 @@
         <v>2:00 PM</v>
       </c>
       <c r="I7" s="17">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J7" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K7" s="6">
         <v>4.8</v>
@@ -1497,42 +1502,45 @@
         <v>4.8</v>
       </c>
       <c r="M7" s="14">
-        <v>2.76</v>
-      </c>
-      <c r="N7" s="14"/>
+        <v>3.55</v>
+      </c>
+      <c r="N7" s="14">
+        <f>1/20</f>
+        <v>0.05</v>
+      </c>
       <c r="O7" s="14">
-        <v>3</v>
+        <v>4.7</v>
       </c>
       <c r="P7" s="6">
         <f>0.7*L7+0.2*M7+0.1*O7+N7</f>
-        <v>4.2119999999999997</v>
-      </c>
-      <c r="Q7" s="36">
-        <v>9.9305555555555553E-3</v>
-      </c>
-      <c r="R7" s="39">
-        <f>Q7/Q4</f>
-        <v>0.53658536585365857</v>
+        <v>4.59</v>
+      </c>
+      <c r="Q7" s="34">
+        <v>1.5520833333333333E-2</v>
+      </c>
+      <c r="R7" s="36">
+        <f>Q7/Q8</f>
+        <v>0.97173913043478266</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="3">
-        <v>1219713263</v>
+        <v>1005832925</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E8" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="G8" s="3">
         <v>1</v>
@@ -1542,55 +1550,58 @@
         <v>2:00 PM</v>
       </c>
       <c r="I8" s="17">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="J8" s="3">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="K8" s="6">
-        <v>4.9000000000000004</v>
+        <v>4.8</v>
       </c>
       <c r="L8" s="6">
         <f>(J8/I8)*K8</f>
-        <v>4.9000000000000004</v>
+        <v>4.8</v>
       </c>
       <c r="M8" s="14">
-        <v>2.76</v>
-      </c>
-      <c r="N8" s="14"/>
+        <v>3.55</v>
+      </c>
+      <c r="N8" s="14">
+        <f>5/20</f>
+        <v>0.25</v>
+      </c>
       <c r="O8" s="14">
-        <v>3</v>
+        <v>4.7</v>
       </c>
       <c r="P8" s="6">
         <f>0.7*L8+0.2*M8+0.1*O8+N8</f>
-        <v>4.282</v>
-      </c>
-      <c r="Q8" s="36">
-        <v>0</v>
-      </c>
-      <c r="R8" s="39">
-        <f>Q8/Q4</f>
-        <v>0</v>
+        <v>4.79</v>
+      </c>
+      <c r="Q8" s="34">
+        <v>1.5972222222222221E-2</v>
+      </c>
+      <c r="R8" s="36">
+        <f>Q8/Q8</f>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="3">
-        <v>1025642375</v>
+        <v>1062274189</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E9" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="G9" s="3">
         <v>2</v>
@@ -1603,52 +1614,52 @@
         <v>5</v>
       </c>
       <c r="J9" s="3">
-        <v>5</v>
-      </c>
-      <c r="K9" s="3">
-        <v>4.7</v>
+        <v>3</v>
+      </c>
+      <c r="K9" s="6">
+        <v>4.5</v>
       </c>
       <c r="L9" s="6">
         <f>(J9/I9)*K9</f>
-        <v>4.7</v>
+        <v>2.6999999999999997</v>
       </c>
       <c r="M9" s="14">
-        <v>2.96</v>
+        <v>2.76</v>
       </c>
       <c r="N9" s="14"/>
       <c r="O9" s="14">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P9" s="6">
         <f>0.7*L9+0.2*M9+0.1*O9+N9</f>
-        <v>4.2320000000000002</v>
-      </c>
-      <c r="Q9" s="36">
-        <v>2.0243055555555556E-2</v>
-      </c>
-      <c r="R9" s="39">
-        <f>Q9/Q11</f>
-        <v>0.94848156182212573</v>
+        <v>2.742</v>
+      </c>
+      <c r="Q9" s="34">
+        <v>1.8506944444444444E-2</v>
+      </c>
+      <c r="R9" s="36">
+        <f>Q9/Q9</f>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="3">
-        <v>1193073115</v>
+        <v>1110363454</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E10" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="G10" s="3">
         <v>2</v>
@@ -1658,10 +1669,10 @@
         <v>2:30 PM</v>
       </c>
       <c r="I10" s="17">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J10" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K10" s="6">
         <v>4.8</v>
@@ -1671,42 +1682,45 @@
         <v>4.8</v>
       </c>
       <c r="M10" s="14">
-        <v>2.96</v>
-      </c>
-      <c r="N10" s="14"/>
+        <v>2.76</v>
+      </c>
+      <c r="N10" s="14">
+        <f>1/13</f>
+        <v>7.6923076923076927E-2</v>
+      </c>
       <c r="O10" s="14">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P10" s="6">
         <f>0.7*L10+0.2*M10+0.1*O10+N10</f>
-        <v>4.3019999999999996</v>
-      </c>
-      <c r="Q10" s="36">
-        <v>2.0532407407407409E-2</v>
-      </c>
-      <c r="R10" s="39">
-        <f>Q10/Q11</f>
-        <v>0.96203904555314534</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>4.2889230769230764</v>
+      </c>
+      <c r="Q10" s="34">
+        <v>1.1863425925925927E-2</v>
+      </c>
+      <c r="R10" s="36">
+        <f>Q10/Q9</f>
+        <v>0.64102564102564108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="15.75">
       <c r="A11" s="3">
-        <v>1005894053</v>
+        <v>1007603017</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E11" s="3">
-        <v>4</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>96</v>
+        <v>3</v>
+      </c>
+      <c r="F11" s="32" t="s">
+        <v>79</v>
       </c>
       <c r="G11" s="3">
         <v>2</v>
@@ -1716,55 +1730,55 @@
         <v>2:30 PM</v>
       </c>
       <c r="I11" s="17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J11" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K11" s="6">
-        <v>4.5999999999999996</v>
+        <v>4.8</v>
       </c>
       <c r="L11" s="6">
         <f>(J11/I11)*K11</f>
-        <v>4.5999999999999996</v>
+        <v>4.8</v>
       </c>
       <c r="M11" s="14">
-        <v>2.96</v>
-      </c>
-      <c r="N11" s="35"/>
+        <v>2.76</v>
+      </c>
+      <c r="N11" s="39"/>
       <c r="O11" s="14">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P11" s="6">
         <f>0.7*L11+0.2*M11+0.1*O11+N11</f>
-        <v>4.1619999999999999</v>
-      </c>
-      <c r="Q11" s="36">
-        <v>2.1342592592592594E-2</v>
-      </c>
-      <c r="R11" s="39">
-        <f>Q11/Q11</f>
-        <v>1</v>
+        <v>4.2119999999999997</v>
+      </c>
+      <c r="Q11" s="34">
+        <v>1.8159722222222223E-2</v>
+      </c>
+      <c r="R11" s="36">
+        <f>Q11/Q9</f>
+        <v>0.98123827392120078</v>
       </c>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="3">
-        <v>1193578885</v>
+        <v>1081728000</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E12" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G12" s="3">
         <v>2</v>
@@ -1774,113 +1788,113 @@
         <v>2:30 PM</v>
       </c>
       <c r="I12" s="17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J12" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K12" s="6">
-        <v>4.5999999999999996</v>
+        <v>4.8</v>
       </c>
       <c r="L12" s="6">
         <f>(J12/I12)*K12</f>
-        <v>4.5999999999999996</v>
+        <v>4.8</v>
       </c>
       <c r="M12" s="14">
-        <v>2.96</v>
+        <v>2.76</v>
       </c>
       <c r="N12" s="14"/>
       <c r="O12" s="14">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P12" s="6">
         <f>0.7*L12+0.2*M12+0.1*O12+N12</f>
-        <v>4.1619999999999999</v>
-      </c>
-      <c r="Q12" s="36">
-        <v>1.951388888888889E-2</v>
-      </c>
-      <c r="R12" s="39">
-        <f>Q12/Q11</f>
-        <v>0.91431670281995658</v>
+        <v>4.2119999999999997</v>
+      </c>
+      <c r="Q12" s="34">
+        <v>9.9305555555555553E-3</v>
+      </c>
+      <c r="R12" s="36">
+        <f>Q12/Q9</f>
+        <v>0.53658536585365857</v>
       </c>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="3">
-        <v>1005967544</v>
+        <v>1219713263</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E13" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G13" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H13" s="3" t="str" cm="1">
         <f t="array" ref="H13">_xlfn.IFS(G13=1, "2:00 PM", G13=2, "2:30 PM", G13=3, "3:00 PM", G13=4, "3:30 PM")</f>
-        <v>3:00 PM</v>
+        <v>2:30 PM</v>
       </c>
       <c r="I13" s="17">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J13" s="3">
-        <v>1</v>
-      </c>
-      <c r="K13" s="3">
-        <v>4.5999999999999996</v>
+        <v>6</v>
+      </c>
+      <c r="K13" s="6">
+        <v>4.9000000000000004</v>
       </c>
       <c r="L13" s="6">
         <f>(J13/I13)*K13</f>
-        <v>4.5999999999999996</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="M13" s="14">
-        <v>3.59</v>
+        <v>2.76</v>
       </c>
       <c r="N13" s="14"/>
       <c r="O13" s="14">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="P13" s="6">
         <f>0.7*L13+0.2*M13+0.1*O13+N13</f>
-        <v>4.3879999999999999</v>
-      </c>
-      <c r="Q13" s="36">
-        <v>1.3935185185185186E-2</v>
-      </c>
-      <c r="R13" s="39">
-        <f>Q13/Q15</f>
-        <v>0.85269121813031168</v>
+        <v>4.282</v>
+      </c>
+      <c r="Q13" s="34">
+        <v>0</v>
+      </c>
+      <c r="R13" s="36">
+        <f>Q13/Q9</f>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="3">
-        <v>1107836732</v>
+        <v>1025642375</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="D14" s="31" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E14" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="G14" s="3">
         <v>3</v>
@@ -1890,55 +1904,55 @@
         <v>3:00 PM</v>
       </c>
       <c r="I14" s="17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J14" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K14" s="3">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="L14" s="6">
         <f>(J14/I14)*K14</f>
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="M14" s="14">
-        <v>3.59</v>
+        <v>2.96</v>
       </c>
       <c r="N14" s="14"/>
       <c r="O14" s="14">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P14" s="6">
         <f>0.7*L14+0.2*M14+0.1*O14+N14</f>
-        <v>4.3179999999999996</v>
-      </c>
-      <c r="Q14" s="36">
-        <v>1.474537037037037E-2</v>
-      </c>
-      <c r="R14" s="39">
-        <f>Q14/Q15</f>
-        <v>0.90226628895184136</v>
+        <v>4.2320000000000002</v>
+      </c>
+      <c r="Q14" s="34">
+        <v>2.0243055555555556E-2</v>
+      </c>
+      <c r="R14" s="36">
+        <f>Q14/Q16</f>
+        <v>0.94848156182212573</v>
       </c>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="3">
-        <v>1126644560</v>
+        <v>1193073115</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="E15" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G15" s="3">
         <v>3</v>
@@ -1953,7 +1967,7 @@
       <c r="J15" s="3">
         <v>4</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15" s="6">
         <v>4.8</v>
       </c>
       <c r="L15" s="6">
@@ -1961,42 +1975,42 @@
         <v>4.8</v>
       </c>
       <c r="M15" s="14">
-        <v>3.59</v>
+        <v>2.96</v>
       </c>
       <c r="N15" s="14"/>
       <c r="O15" s="14">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P15" s="6">
         <f>0.7*L15+0.2*M15+0.1*O15+N15</f>
-        <v>4.5279999999999996</v>
-      </c>
-      <c r="Q15" s="36">
-        <v>1.6342592592592593E-2</v>
-      </c>
-      <c r="R15" s="39">
-        <f>Q15/Q15</f>
-        <v>1</v>
+        <v>4.3019999999999996</v>
+      </c>
+      <c r="Q15" s="34">
+        <v>2.0532407407407409E-2</v>
+      </c>
+      <c r="R15" s="36">
+        <f>Q15/Q16</f>
+        <v>0.96203904555314534</v>
       </c>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="3">
-        <v>1062329024</v>
+        <v>1005894053</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E16" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="G16" s="3">
         <v>3</v>
@@ -2006,55 +2020,55 @@
         <v>3:00 PM</v>
       </c>
       <c r="I16" s="17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J16" s="3">
-        <v>5</v>
-      </c>
-      <c r="K16" s="3">
-        <v>4.5</v>
+        <v>3</v>
+      </c>
+      <c r="K16" s="6">
+        <v>4.5999999999999996</v>
       </c>
       <c r="L16" s="6">
         <f>(J16/I16)*K16</f>
-        <v>4.5</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="M16" s="14">
-        <v>3.59</v>
+        <v>2.96</v>
       </c>
       <c r="N16" s="14"/>
       <c r="O16" s="14">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P16" s="6">
         <f>0.7*L16+0.2*M16+0.1*O16+N16</f>
-        <v>4.3179999999999996</v>
-      </c>
-      <c r="Q16" s="37">
-        <v>0</v>
-      </c>
-      <c r="R16" s="39">
-        <f>Q16/Q15</f>
-        <v>0</v>
+        <v>4.1619999999999999</v>
+      </c>
+      <c r="Q16" s="34">
+        <v>2.1342592592592594E-2</v>
+      </c>
+      <c r="R16" s="36">
+        <f>Q16/Q16</f>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="3">
-        <v>1110364376</v>
+        <v>1193578885</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E17" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G17" s="3">
         <v>3</v>
@@ -2064,58 +2078,55 @@
         <v>3:00 PM</v>
       </c>
       <c r="I17" s="17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J17" s="3">
-        <v>3</v>
-      </c>
-      <c r="K17" s="3">
-        <v>4.8</v>
+        <v>4</v>
+      </c>
+      <c r="K17" s="6">
+        <v>4.5999999999999996</v>
       </c>
       <c r="L17" s="6">
         <f>(J17/I17)*K17</f>
-        <v>4.8</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="M17" s="14">
-        <v>3.59</v>
-      </c>
-      <c r="N17" s="14">
-        <f>1/16</f>
-        <v>6.25E-2</v>
-      </c>
+        <v>2.96</v>
+      </c>
+      <c r="N17" s="14"/>
       <c r="O17" s="14">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P17" s="6">
         <f>0.7*L17+0.2*M17+0.1*O17+N17</f>
-        <v>4.5904999999999996</v>
-      </c>
-      <c r="Q17" s="36">
-        <v>1.412037037037037E-2</v>
-      </c>
-      <c r="R17" s="39">
-        <f>Q17/Q15</f>
-        <v>0.86402266288951834</v>
+        <v>4.1619999999999999</v>
+      </c>
+      <c r="Q17" s="34">
+        <v>1.951388888888889E-2</v>
+      </c>
+      <c r="R17" s="36">
+        <f>Q17/Q16</f>
+        <v>0.91431670281995658</v>
       </c>
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="3">
-        <v>1005783739</v>
+        <v>1005967544</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D18" s="31" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E18" s="3">
-        <v>2</v>
-      </c>
-      <c r="F18" s="34" t="s">
-        <v>78</v>
+        <v>1</v>
+      </c>
+      <c r="F18" s="38" t="s">
+        <v>71</v>
       </c>
       <c r="G18" s="3">
         <v>4</v>
@@ -2125,58 +2136,55 @@
         <v>3:30 PM</v>
       </c>
       <c r="I18" s="17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J18" s="3">
-        <v>4</v>
-      </c>
-      <c r="K18" s="6">
-        <v>4.8</v>
+        <v>1</v>
+      </c>
+      <c r="K18" s="3">
+        <v>4.5999999999999996</v>
       </c>
       <c r="L18" s="6">
         <f>(J18/I18)*K18</f>
-        <v>4.8</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="M18" s="14">
-        <v>3.55</v>
-      </c>
-      <c r="N18" s="14">
-        <f>3/20</f>
-        <v>0.15</v>
-      </c>
+        <v>3.59</v>
+      </c>
+      <c r="N18" s="14"/>
       <c r="O18" s="14">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="P18" s="6">
         <f>0.7*L18+0.2*M18+0.1*O18+N18</f>
-        <v>4.6900000000000004</v>
-      </c>
-      <c r="Q18" s="36">
-        <v>1.4976851851851852E-2</v>
-      </c>
-      <c r="R18" s="39">
-        <f>Q18/Q22</f>
-        <v>0.93768115942028996</v>
+        <v>4.3879999999999999</v>
+      </c>
+      <c r="Q18" s="34">
+        <v>1.3935185185185186E-2</v>
+      </c>
+      <c r="R18" s="36">
+        <f>Q18/Q20</f>
+        <v>0.85269121813031168</v>
       </c>
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="3">
-        <v>1113698193</v>
+        <v>1107836732</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="D19" s="31" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E19" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="G19" s="3">
         <v>4</v>
@@ -2191,53 +2199,50 @@
       <c r="J19" s="3">
         <v>3</v>
       </c>
-      <c r="K19" s="6">
-        <v>4.8</v>
+      <c r="K19" s="3">
+        <v>4.5</v>
       </c>
       <c r="L19" s="6">
         <f>(J19/I19)*K19</f>
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="M19" s="14">
-        <v>3.55</v>
-      </c>
-      <c r="N19" s="14">
-        <f>2/20</f>
-        <v>0.1</v>
-      </c>
+        <v>3.59</v>
+      </c>
+      <c r="N19" s="14"/>
       <c r="O19" s="14">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="P19" s="6">
         <f>0.7*L19+0.2*M19+0.1*O19+N19</f>
-        <v>4.6399999999999997</v>
-      </c>
-      <c r="Q19" s="36">
-        <v>1.5833333333333335E-2</v>
-      </c>
-      <c r="R19" s="39">
-        <f>Q19/Q22</f>
-        <v>0.99130434782608712</v>
+        <v>4.3179999999999996</v>
+      </c>
+      <c r="Q19" s="34">
+        <v>1.474537037037037E-2</v>
+      </c>
+      <c r="R19" s="36">
+        <f>Q19/Q20</f>
+        <v>0.90226628895184136</v>
       </c>
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="3">
-        <v>1109662163</v>
+        <v>1126644560</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D20" s="31" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E20" s="3">
-        <v>2</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>69</v>
+        <v>1</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="G20" s="3">
         <v>4</v>
@@ -2247,12 +2252,12 @@
         <v>3:30 PM</v>
       </c>
       <c r="I20" s="17">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J20" s="3">
-        <v>7</v>
-      </c>
-      <c r="K20" s="6">
+        <v>4</v>
+      </c>
+      <c r="K20" s="3">
         <v>4.8</v>
       </c>
       <c r="L20" s="6">
@@ -2260,45 +2265,42 @@
         <v>4.8</v>
       </c>
       <c r="M20" s="14">
-        <v>3.55</v>
-      </c>
-      <c r="N20" s="14">
-        <f>1/20</f>
-        <v>0.05</v>
-      </c>
+        <v>3.59</v>
+      </c>
+      <c r="N20" s="14"/>
       <c r="O20" s="14">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="P20" s="6">
         <f>0.7*L20+0.2*M20+0.1*O20+N20</f>
-        <v>4.59</v>
-      </c>
-      <c r="Q20" s="36">
-        <v>1.4652777777777778E-2</v>
-      </c>
-      <c r="R20" s="39">
-        <f>Q20/Q22</f>
-        <v>0.91739130434782623</v>
+        <v>4.5279999999999996</v>
+      </c>
+      <c r="Q20" s="34">
+        <v>1.6342592592592593E-2</v>
+      </c>
+      <c r="R20" s="36">
+        <f>Q20/Q20</f>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="3">
-        <v>1005785832</v>
+        <v>1062329024</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D21" s="31" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E21" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="G21" s="3">
         <v>4</v>
@@ -2308,58 +2310,55 @@
         <v>3:30 PM</v>
       </c>
       <c r="I21" s="17">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J21" s="3">
-        <v>7</v>
-      </c>
-      <c r="K21" s="6">
-        <v>4.8</v>
+        <v>5</v>
+      </c>
+      <c r="K21" s="3">
+        <v>4.5</v>
       </c>
       <c r="L21" s="6">
         <f>(J21/I21)*K21</f>
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="M21" s="14">
-        <v>3.55</v>
-      </c>
-      <c r="N21" s="14">
-        <f>1/20</f>
-        <v>0.05</v>
-      </c>
+        <v>3.59</v>
+      </c>
+      <c r="N21" s="14"/>
       <c r="O21" s="14">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="P21" s="6">
         <f>0.7*L21+0.2*M21+0.1*O21+N21</f>
-        <v>4.59</v>
-      </c>
-      <c r="Q21" s="36">
-        <v>1.5520833333333333E-2</v>
-      </c>
-      <c r="R21" s="39">
-        <f>Q21/Q22</f>
-        <v>0.97173913043478266</v>
+        <v>4.3179999999999996</v>
+      </c>
+      <c r="Q21" s="34">
+        <v>0</v>
+      </c>
+      <c r="R21" s="36">
+        <f>Q21/Q20</f>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:18">
       <c r="A22" s="3">
-        <v>1005832925</v>
+        <v>1110364376</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="D22" s="31" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E22" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G22" s="3">
         <v>4</v>
@@ -2369,12 +2368,12 @@
         <v>3:30 PM</v>
       </c>
       <c r="I22" s="17">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="J22" s="3">
-        <v>11</v>
-      </c>
-      <c r="K22" s="6">
+        <v>3</v>
+      </c>
+      <c r="K22" s="3">
         <v>4.8</v>
       </c>
       <c r="L22" s="6">
@@ -2382,25 +2381,25 @@
         <v>4.8</v>
       </c>
       <c r="M22" s="14">
-        <v>3.55</v>
+        <v>3.59</v>
       </c>
       <c r="N22" s="14">
-        <f>5/20</f>
-        <v>0.25</v>
+        <f>1/16</f>
+        <v>6.25E-2</v>
       </c>
       <c r="O22" s="14">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="P22" s="6">
         <f>0.7*L22+0.2*M22+0.1*O22+N22</f>
-        <v>4.79</v>
-      </c>
-      <c r="Q22" s="36">
-        <v>1.5972222222222221E-2</v>
-      </c>
-      <c r="R22" s="39">
-        <f>Q22/Q22</f>
-        <v>1</v>
+        <v>4.5904999999999996</v>
+      </c>
+      <c r="Q22" s="34">
+        <v>1.412037037037037E-2</v>
+      </c>
+      <c r="R22" s="36">
+        <f>Q22/Q20</f>
+        <v>0.86402266288951834</v>
       </c>
     </row>
     <row r="23" spans="1:18">

--- a/academics/DB2/2025-2/DB2 2025-2.xlsx
+++ b/academics/DB2/2025-2/DB2 2025-2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10822"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\oicampo\Documents\GitHub\oicampo-uao.github.io\academics\DB2\2025-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FC103B8-27F4-4C8A-81D3-74C591A4365B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{9485CFAA-2363-884A-BAC9-4C291A5B0A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$1</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <si>
     <t>numero_documento</t>
   </si>
@@ -301,13 +301,34 @@
   </si>
   <si>
     <t>mariadm3</t>
+  </si>
+  <si>
+    <t>Presentación 1</t>
+  </si>
+  <si>
+    <t>Reconocimiento del entorno?</t>
+  </si>
+  <si>
+    <t>La población: niños</t>
+  </si>
+  <si>
+    <t>Excelentes perspectivas y potencialidad</t>
+  </si>
+  <si>
+    <t>La tienen clara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atienden una necesidad específica para una población específica </t>
+  </si>
+  <si>
+    <t>Navegación en transporte público</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -368,7 +389,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -381,8 +402,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -687,25 +707,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D20"/>
+    <sheetView tabSelected="1" topLeftCell="B12" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="1"/>
-    <col min="6" max="6" width="15.7109375" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="6.140625" style="1" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5234375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.37109375" customWidth="1"/>
+    <col min="3" max="3" width="18.5625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.19140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.14453125" style="1"/>
+    <col min="6" max="6" width="15.73828125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="6.1875" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="12.9140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -730,520 +751,598 @@
       <c r="H1" s="4" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>1005785832</v>
+        <v>1107836732</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E2" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="G2" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H2" s="3" t="str" cm="1">
         <f t="array" ref="H2">_xlfn.IFS(G2=1, "2:00 PM", G2=2, "2:30 PM", G2=3, "3:00 PM", G2=4, "3:30 PM")</f>
-        <v>2:00 PM</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>3:30 PM</v>
+      </c>
+      <c r="I2">
+        <v>4.5</v>
+      </c>
+      <c r="J2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>1005832925</v>
+        <v>1110364376</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E3" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G3" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H3" s="3" t="str" cm="1">
         <f t="array" ref="H3">_xlfn.IFS(G3=1, "2:00 PM", G3=2, "2:30 PM", G3=3, "3:00 PM", G3=4, "3:30 PM")</f>
-        <v>2:00 PM</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>3:30 PM</v>
+      </c>
+      <c r="I3">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>1109662163</v>
+        <v>1126644560</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4" s="3">
-        <v>2</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>70</v>
+        <v>1</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="G4" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H4" s="3" t="str" cm="1">
         <f t="array" ref="H4">_xlfn.IFS(G4=1, "2:00 PM", G4=2, "2:30 PM", G4=3, "3:00 PM", G4=4, "3:30 PM")</f>
-        <v>2:00 PM</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>3:30 PM</v>
+      </c>
+      <c r="I4">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>1005783739</v>
+        <v>1005967544</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E5" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G5" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H5" s="3" t="str" cm="1">
         <f t="array" ref="H5">_xlfn.IFS(G5=1, "2:00 PM", G5=2, "2:30 PM", G5=3, "3:00 PM", G5=4, "3:30 PM")</f>
-        <v>2:00 PM</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>3:30 PM</v>
+      </c>
+      <c r="I5">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>1113698193</v>
+        <v>1062329024</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E6" s="3">
-        <v>2</v>
-      </c>
-      <c r="F6" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="G6" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H6" s="3" t="str" cm="1">
         <f t="array" ref="H6">_xlfn.IFS(G6=1, "2:00 PM", G6=2, "2:30 PM", G6=3, "3:00 PM", G6=4, "3:30 PM")</f>
-        <v>2:00 PM</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>3:30 PM</v>
+      </c>
+      <c r="I6">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>1062274189</v>
+        <v>1005785832</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E7" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="G7" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H7" s="3" t="str" cm="1">
         <f t="array" ref="H7">_xlfn.IFS(G7=1, "2:00 PM", G7=2, "2:30 PM", G7=3, "3:00 PM", G7=4, "3:30 PM")</f>
-        <v>2:30 PM</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>2:00 PM</v>
+      </c>
+      <c r="I7">
+        <v>5</v>
+      </c>
+      <c r="J7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>1219713263</v>
+        <v>1005832925</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E8" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="G8" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H8" s="3" t="str" cm="1">
         <f t="array" ref="H8">_xlfn.IFS(G8=1, "2:00 PM", G8=2, "2:30 PM", G8=3, "3:00 PM", G8=4, "3:30 PM")</f>
-        <v>2:30 PM</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>2:00 PM</v>
+      </c>
+      <c r="I8">
+        <v>5</v>
+      </c>
+      <c r="J8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>1110363454</v>
+        <v>1109662163</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E9" s="3">
-        <v>3</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>73</v>
+        <v>2</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>70</v>
       </c>
       <c r="G9" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H9" s="3" t="str" cm="1">
         <f t="array" ref="H9">_xlfn.IFS(G9=1, "2:00 PM", G9=2, "2:30 PM", G9=3, "3:00 PM", G9=4, "3:30 PM")</f>
-        <v>2:30 PM</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>2:00 PM</v>
+      </c>
+      <c r="I9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>1081728000</v>
+        <v>1005783739</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E10" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G10" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H10" s="3" t="str" cm="1">
         <f t="array" ref="H10">_xlfn.IFS(G10=1, "2:00 PM", G10=2, "2:30 PM", G10=3, "3:00 PM", G10=4, "3:30 PM")</f>
-        <v>2:30 PM</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="15.75">
+        <v>2:00 PM</v>
+      </c>
+      <c r="I10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>1007603017</v>
+        <v>1113698193</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E11" s="3">
-        <v>3</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>80</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F11" s="2"/>
       <c r="G11" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H11" s="3" t="str" cm="1">
         <f t="array" ref="H11">_xlfn.IFS(G11=1, "2:00 PM", G11=2, "2:30 PM", G11=3, "3:00 PM", G11=4, "3:30 PM")</f>
-        <v>2:30 PM</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>2:00 PM</v>
+      </c>
+      <c r="I11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>1005894053</v>
+        <v>1062274189</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E12" s="3">
-        <v>4</v>
-      </c>
-      <c r="F12" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="G12" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H12" s="3" t="str" cm="1">
         <f t="array" ref="H12">_xlfn.IFS(G12=1, "2:00 PM", G12=2, "2:30 PM", G12=3, "3:00 PM", G12=4, "3:30 PM")</f>
-        <v>3:00 PM</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>2:30 PM</v>
+      </c>
+      <c r="I12">
+        <v>3.5</v>
+      </c>
+      <c r="J12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>1193073115</v>
+        <v>1219713263</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E13" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="G13" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H13" s="3" t="str" cm="1">
         <f t="array" ref="H13">_xlfn.IFS(G13=1, "2:00 PM", G13=2, "2:30 PM", G13=3, "3:00 PM", G13=4, "3:30 PM")</f>
-        <v>3:00 PM</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>2:30 PM</v>
+      </c>
+      <c r="I13">
+        <v>3.5</v>
+      </c>
+      <c r="J13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>1193578885</v>
+        <v>1110363454</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E14" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="G14" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H14" s="3" t="str" cm="1">
         <f t="array" ref="H14">_xlfn.IFS(G14=1, "2:00 PM", G14=2, "2:30 PM", G14=3, "3:00 PM", G14=4, "3:30 PM")</f>
-        <v>3:00 PM</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>2:30 PM</v>
+      </c>
+      <c r="I14">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>1025642375</v>
+        <v>1081728000</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E15" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="G15" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H15" s="3" t="str" cm="1">
         <f t="array" ref="H15">_xlfn.IFS(G15=1, "2:00 PM", G15=2, "2:30 PM", G15=3, "3:00 PM", G15=4, "3:30 PM")</f>
-        <v>3:00 PM</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>2:30 PM</v>
+      </c>
+      <c r="I15">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>1107836732</v>
+        <v>1007603017</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="D16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="3">
+        <v>3</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G16" s="3">
         <v>2</v>
-      </c>
-      <c r="E16" s="3">
-        <v>1</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G16" s="3">
-        <v>4</v>
       </c>
       <c r="H16" s="3" t="str" cm="1">
         <f t="array" ref="H16">_xlfn.IFS(G16=1, "2:00 PM", G16=2, "2:30 PM", G16=3, "3:00 PM", G16=4, "3:30 PM")</f>
-        <v>3:30 PM</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>2:30 PM</v>
+      </c>
+      <c r="I16">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>1110364376</v>
+        <v>1005894053</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="3">
         <v>4</v>
       </c>
-      <c r="E17" s="3">
-        <v>1</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>69</v>
-      </c>
+      <c r="F17" s="2"/>
       <c r="G17" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H17" s="3" t="str" cm="1">
         <f t="array" ref="H17">_xlfn.IFS(G17=1, "2:00 PM", G17=2, "2:30 PM", G17=3, "3:00 PM", G17=4, "3:30 PM")</f>
-        <v>3:30 PM</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>3:00 PM</v>
+      </c>
+      <c r="I17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>1126644560</v>
+        <v>1193073115</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E18" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G18" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H18" s="3" t="str" cm="1">
         <f t="array" ref="H18">_xlfn.IFS(G18=1, "2:00 PM", G18=2, "2:30 PM", G18=3, "3:00 PM", G18=4, "3:30 PM")</f>
-        <v>3:30 PM</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>3:00 PM</v>
+      </c>
+      <c r="I18">
+        <v>4</v>
+      </c>
+      <c r="J18" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>1005967544</v>
+        <v>1193578885</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E19" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="G19" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H19" s="3" t="str" cm="1">
         <f t="array" ref="H19">_xlfn.IFS(G19=1, "2:00 PM", G19=2, "2:30 PM", G19=3, "3:00 PM", G19=4, "3:30 PM")</f>
-        <v>3:30 PM</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>3:00 PM</v>
+      </c>
+      <c r="I19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>1062329024</v>
+        <v>1025642375</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E20" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="G20" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H20" s="3" t="str" cm="1">
         <f t="array" ref="H20">_xlfn.IFS(G20=1, "2:00 PM", G20=2, "2:30 PM", G20=3, "3:00 PM", G20=4, "3:30 PM")</f>
-        <v>3:30 PM</v>
+        <v>3:00 PM</v>
+      </c>
+      <c r="I20">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:H1" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H20">
-      <sortCondition ref="G1"/>
+      <sortCondition ref="E1"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/academics/DB2/2025-2/DB2 2025-2.xlsx
+++ b/academics/DB2/2025-2/DB2 2025-2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\oicampo\Documents\GitHub\oicampo-uao.github.io\academics\DB2\2025-2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubDesktopPortable\LocalData\oicampo-uao.github.io\oicampo-uao.github.io\academics\DB2\2025-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACD751B7-8F3D-480D-8573-CC1AA9C9B698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1215810B-C1AC-42DD-9E7B-65F44AEBDFFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,6 +30,9 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -896,9 +899,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -936,9 +939,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -971,9 +974,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1006,9 +1026,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1182,10 +1219,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R23"/>
+  <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:D22"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C14" sqref="A14:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1207,7 +1244,7 @@
     <col min="18" max="18" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="Q1" t="s">
         <v>124</v>
       </c>
@@ -1215,7 +1252,7 @@
         <v>45912</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:19">
       <c r="Q2" t="s">
         <v>125</v>
       </c>
@@ -1223,7 +1260,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:19">
       <c r="A3" s="4" t="s">
         <v>119</v>
       </c>
@@ -1279,7 +1316,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:19">
       <c r="A4" s="3">
         <v>1005783739</v>
       </c>
@@ -1315,7 +1352,7 @@
         <v>4.8</v>
       </c>
       <c r="L4" s="6">
-        <f>(J4/I4)*K4</f>
+        <f t="shared" ref="L4:L22" si="0">(J4/I4)*K4</f>
         <v>4.8</v>
       </c>
       <c r="M4" s="14">
@@ -1329,7 +1366,7 @@
         <v>4.7</v>
       </c>
       <c r="P4" s="6">
-        <f>0.7*L4+0.2*M4+0.1*O4+N4</f>
+        <f t="shared" ref="P4:P22" si="1">0.7*L4+0.2*M4+0.1*O4+N4</f>
         <v>4.6900000000000004</v>
       </c>
       <c r="Q4" s="34">
@@ -1340,7 +1377,7 @@
         <v>0.93768115942028996</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:19">
       <c r="A5" s="3">
         <v>1113698193</v>
       </c>
@@ -1376,7 +1413,7 @@
         <v>4.8</v>
       </c>
       <c r="L5" s="6">
-        <f>(J5/I5)*K5</f>
+        <f t="shared" si="0"/>
         <v>4.8</v>
       </c>
       <c r="M5" s="14">
@@ -1390,7 +1427,7 @@
         <v>4.7</v>
       </c>
       <c r="P5" s="6">
-        <f>0.7*L5+0.2*M5+0.1*O5+N5</f>
+        <f t="shared" si="1"/>
         <v>4.6399999999999997</v>
       </c>
       <c r="Q5" s="34">
@@ -1400,8 +1437,11 @@
         <f>Q5/Q8</f>
         <v>0.99130434782608712</v>
       </c>
-    </row>
-    <row r="6" spans="1:18">
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="3">
         <v>1109662163</v>
       </c>
@@ -1437,7 +1477,7 @@
         <v>4.8</v>
       </c>
       <c r="L6" s="6">
-        <f>(J6/I6)*K6</f>
+        <f t="shared" si="0"/>
         <v>4.8</v>
       </c>
       <c r="M6" s="14">
@@ -1451,7 +1491,7 @@
         <v>4.7</v>
       </c>
       <c r="P6" s="6">
-        <f>0.7*L6+0.2*M6+0.1*O6+N6</f>
+        <f t="shared" si="1"/>
         <v>4.59</v>
       </c>
       <c r="Q6" s="34">
@@ -1462,7 +1502,7 @@
         <v>0.91739130434782623</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:19">
       <c r="A7" s="3">
         <v>1005785832</v>
       </c>
@@ -1498,7 +1538,7 @@
         <v>4.8</v>
       </c>
       <c r="L7" s="6">
-        <f>(J7/I7)*K7</f>
+        <f t="shared" si="0"/>
         <v>4.8</v>
       </c>
       <c r="M7" s="14">
@@ -1512,7 +1552,7 @@
         <v>4.7</v>
       </c>
       <c r="P7" s="6">
-        <f>0.7*L7+0.2*M7+0.1*O7+N7</f>
+        <f t="shared" si="1"/>
         <v>4.59</v>
       </c>
       <c r="Q7" s="34">
@@ -1523,7 +1563,7 @@
         <v>0.97173913043478266</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:19">
       <c r="A8" s="3">
         <v>1005832925</v>
       </c>
@@ -1559,7 +1599,7 @@
         <v>4.8</v>
       </c>
       <c r="L8" s="6">
-        <f>(J8/I8)*K8</f>
+        <f t="shared" si="0"/>
         <v>4.8</v>
       </c>
       <c r="M8" s="14">
@@ -1573,7 +1613,7 @@
         <v>4.7</v>
       </c>
       <c r="P8" s="6">
-        <f>0.7*L8+0.2*M8+0.1*O8+N8</f>
+        <f t="shared" si="1"/>
         <v>4.79</v>
       </c>
       <c r="Q8" s="34">
@@ -1584,7 +1624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:19">
       <c r="A9" s="3">
         <v>1062274189</v>
       </c>
@@ -1620,7 +1660,7 @@
         <v>4.5</v>
       </c>
       <c r="L9" s="6">
-        <f>(J9/I9)*K9</f>
+        <f t="shared" si="0"/>
         <v>2.6999999999999997</v>
       </c>
       <c r="M9" s="14">
@@ -1631,7 +1671,7 @@
         <v>3</v>
       </c>
       <c r="P9" s="6">
-        <f>0.7*L9+0.2*M9+0.1*O9+N9</f>
+        <f t="shared" si="1"/>
         <v>2.742</v>
       </c>
       <c r="Q9" s="34">
@@ -1642,7 +1682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:19">
       <c r="A10" s="3">
         <v>1110363454</v>
       </c>
@@ -1678,7 +1718,7 @@
         <v>4.8</v>
       </c>
       <c r="L10" s="6">
-        <f>(J10/I10)*K10</f>
+        <f t="shared" si="0"/>
         <v>4.8</v>
       </c>
       <c r="M10" s="14">
@@ -1692,7 +1732,7 @@
         <v>3</v>
       </c>
       <c r="P10" s="6">
-        <f>0.7*L10+0.2*M10+0.1*O10+N10</f>
+        <f t="shared" si="1"/>
         <v>4.2889230769230764</v>
       </c>
       <c r="Q10" s="34">
@@ -1703,7 +1743,7 @@
         <v>0.64102564102564108</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="15.75">
+    <row r="11" spans="1:19" ht="15.75">
       <c r="A11" s="3">
         <v>1007603017</v>
       </c>
@@ -1739,7 +1779,7 @@
         <v>4.8</v>
       </c>
       <c r="L11" s="6">
-        <f>(J11/I11)*K11</f>
+        <f t="shared" si="0"/>
         <v>4.8</v>
       </c>
       <c r="M11" s="14">
@@ -1750,7 +1790,7 @@
         <v>3</v>
       </c>
       <c r="P11" s="6">
-        <f>0.7*L11+0.2*M11+0.1*O11+N11</f>
+        <f t="shared" si="1"/>
         <v>4.2119999999999997</v>
       </c>
       <c r="Q11" s="34">
@@ -1761,7 +1801,7 @@
         <v>0.98123827392120078</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:19">
       <c r="A12" s="3">
         <v>1081728000</v>
       </c>
@@ -1797,7 +1837,7 @@
         <v>4.8</v>
       </c>
       <c r="L12" s="6">
-        <f>(J12/I12)*K12</f>
+        <f t="shared" si="0"/>
         <v>4.8</v>
       </c>
       <c r="M12" s="14">
@@ -1808,7 +1848,7 @@
         <v>3</v>
       </c>
       <c r="P12" s="6">
-        <f>0.7*L12+0.2*M12+0.1*O12+N12</f>
+        <f t="shared" si="1"/>
         <v>4.2119999999999997</v>
       </c>
       <c r="Q12" s="34">
@@ -1819,7 +1859,7 @@
         <v>0.53658536585365857</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:19">
       <c r="A13" s="3">
         <v>1219713263</v>
       </c>
@@ -1855,7 +1895,7 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="L13" s="6">
-        <f>(J13/I13)*K13</f>
+        <f t="shared" si="0"/>
         <v>4.9000000000000004</v>
       </c>
       <c r="M13" s="14">
@@ -1866,7 +1906,7 @@
         <v>3</v>
       </c>
       <c r="P13" s="6">
-        <f>0.7*L13+0.2*M13+0.1*O13+N13</f>
+        <f t="shared" si="1"/>
         <v>4.282</v>
       </c>
       <c r="Q13" s="34">
@@ -1876,8 +1916,11 @@
         <f>Q13/Q9</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18">
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="3">
         <v>1025642375</v>
       </c>
@@ -1913,7 +1956,7 @@
         <v>4.7</v>
       </c>
       <c r="L14" s="6">
-        <f>(J14/I14)*K14</f>
+        <f t="shared" si="0"/>
         <v>4.7</v>
       </c>
       <c r="M14" s="14">
@@ -1924,7 +1967,7 @@
         <v>3.5</v>
       </c>
       <c r="P14" s="6">
-        <f>0.7*L14+0.2*M14+0.1*O14+N14</f>
+        <f t="shared" si="1"/>
         <v>4.2320000000000002</v>
       </c>
       <c r="Q14" s="34">
@@ -1935,7 +1978,7 @@
         <v>0.94848156182212573</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:19">
       <c r="A15" s="3">
         <v>1193073115</v>
       </c>
@@ -1971,7 +2014,7 @@
         <v>4.8</v>
       </c>
       <c r="L15" s="6">
-        <f>(J15/I15)*K15</f>
+        <f t="shared" si="0"/>
         <v>4.8</v>
       </c>
       <c r="M15" s="14">
@@ -1982,7 +2025,7 @@
         <v>3.5</v>
       </c>
       <c r="P15" s="6">
-        <f>0.7*L15+0.2*M15+0.1*O15+N15</f>
+        <f t="shared" si="1"/>
         <v>4.3019999999999996</v>
       </c>
       <c r="Q15" s="34">
@@ -1993,7 +2036,7 @@
         <v>0.96203904555314534</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:19">
       <c r="A16" s="3">
         <v>1005894053</v>
       </c>
@@ -2029,7 +2072,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="L16" s="6">
-        <f>(J16/I16)*K16</f>
+        <f t="shared" si="0"/>
         <v>4.5999999999999996</v>
       </c>
       <c r="M16" s="14">
@@ -2040,7 +2083,7 @@
         <v>3.5</v>
       </c>
       <c r="P16" s="6">
-        <f>0.7*L16+0.2*M16+0.1*O16+N16</f>
+        <f t="shared" si="1"/>
         <v>4.1619999999999999</v>
       </c>
       <c r="Q16" s="34">
@@ -2051,7 +2094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:19">
       <c r="A17" s="3">
         <v>1193578885</v>
       </c>
@@ -2087,7 +2130,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="L17" s="6">
-        <f>(J17/I17)*K17</f>
+        <f t="shared" si="0"/>
         <v>4.5999999999999996</v>
       </c>
       <c r="M17" s="14">
@@ -2098,7 +2141,7 @@
         <v>3.5</v>
       </c>
       <c r="P17" s="6">
-        <f>0.7*L17+0.2*M17+0.1*O17+N17</f>
+        <f t="shared" si="1"/>
         <v>4.1619999999999999</v>
       </c>
       <c r="Q17" s="34">
@@ -2109,7 +2152,7 @@
         <v>0.91431670281995658</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:19">
       <c r="A18" s="3">
         <v>1005967544</v>
       </c>
@@ -2145,7 +2188,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="L18" s="6">
-        <f>(J18/I18)*K18</f>
+        <f t="shared" si="0"/>
         <v>4.5999999999999996</v>
       </c>
       <c r="M18" s="14">
@@ -2156,7 +2199,7 @@
         <v>4.5</v>
       </c>
       <c r="P18" s="6">
-        <f>0.7*L18+0.2*M18+0.1*O18+N18</f>
+        <f t="shared" si="1"/>
         <v>4.3879999999999999</v>
       </c>
       <c r="Q18" s="34">
@@ -2167,7 +2210,7 @@
         <v>0.85269121813031168</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:19">
       <c r="A19" s="3">
         <v>1107836732</v>
       </c>
@@ -2203,7 +2246,7 @@
         <v>4.5</v>
       </c>
       <c r="L19" s="6">
-        <f>(J19/I19)*K19</f>
+        <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
       <c r="M19" s="14">
@@ -2214,7 +2257,7 @@
         <v>4.5</v>
       </c>
       <c r="P19" s="6">
-        <f>0.7*L19+0.2*M19+0.1*O19+N19</f>
+        <f t="shared" si="1"/>
         <v>4.3179999999999996</v>
       </c>
       <c r="Q19" s="34">
@@ -2225,7 +2268,7 @@
         <v>0.90226628895184136</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:19">
       <c r="A20" s="3">
         <v>1126644560</v>
       </c>
@@ -2261,7 +2304,7 @@
         <v>4.8</v>
       </c>
       <c r="L20" s="6">
-        <f>(J20/I20)*K20</f>
+        <f t="shared" si="0"/>
         <v>4.8</v>
       </c>
       <c r="M20" s="14">
@@ -2272,7 +2315,7 @@
         <v>4.5</v>
       </c>
       <c r="P20" s="6">
-        <f>0.7*L20+0.2*M20+0.1*O20+N20</f>
+        <f t="shared" si="1"/>
         <v>4.5279999999999996</v>
       </c>
       <c r="Q20" s="34">
@@ -2283,7 +2326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:19">
       <c r="A21" s="3">
         <v>1062329024</v>
       </c>
@@ -2319,7 +2362,7 @@
         <v>4.5</v>
       </c>
       <c r="L21" s="6">
-        <f>(J21/I21)*K21</f>
+        <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
       <c r="M21" s="14">
@@ -2330,7 +2373,7 @@
         <v>4.5</v>
       </c>
       <c r="P21" s="6">
-        <f>0.7*L21+0.2*M21+0.1*O21+N21</f>
+        <f t="shared" si="1"/>
         <v>4.3179999999999996</v>
       </c>
       <c r="Q21" s="34">
@@ -2340,8 +2383,11 @@
         <f>Q21/Q20</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:18">
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="3">
         <v>1110364376</v>
       </c>
@@ -2377,7 +2423,7 @@
         <v>4.8</v>
       </c>
       <c r="L22" s="6">
-        <f>(J22/I22)*K22</f>
+        <f t="shared" si="0"/>
         <v>4.8</v>
       </c>
       <c r="M22" s="14">
@@ -2391,7 +2437,7 @@
         <v>4.5</v>
       </c>
       <c r="P22" s="6">
-        <f>0.7*L22+0.2*M22+0.1*O22+N22</f>
+        <f t="shared" si="1"/>
         <v>4.5904999999999996</v>
       </c>
       <c r="Q22" s="34">
@@ -2402,7 +2448,7 @@
         <v>0.86402266288951834</v>
       </c>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>1004189893</v>
       </c>

--- a/academics/DB2/2025-2/DB2 2025-2.xlsx
+++ b/academics/DB2/2025-2/DB2 2025-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\oicampo\Documents\GitHub\oicampo-uao.github.io\academics\DB2\2025-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACD751B7-8F3D-480D-8573-CC1AA9C9B698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6D7E8A4-FC21-4A54-A798-8F805AB3248A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1185,7 +1185,7 @@
   <dimension ref="A1:R23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:D22"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1193,7 +1193,7 @@
     <col min="1" max="1" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" customWidth="1"/>
-    <col min="4" max="4" width="29.140625" customWidth="1"/>
+    <col min="4" max="4" width="29.140625" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="6.140625" style="1" hidden="1" customWidth="1"/>
@@ -1281,22 +1281,22 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="3">
-        <v>1005783739</v>
+        <v>1005967544</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E4" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="G4" s="3">
         <v>1</v>
@@ -1306,58 +1306,55 @@
         <v>2:00 PM</v>
       </c>
       <c r="I4" s="17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J4" s="3">
-        <v>4</v>
-      </c>
-      <c r="K4" s="6">
-        <v>4.8</v>
+        <v>1</v>
+      </c>
+      <c r="K4" s="3">
+        <v>4.5999999999999996</v>
       </c>
       <c r="L4" s="6">
         <f>(J4/I4)*K4</f>
-        <v>4.8</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="M4" s="14">
-        <v>3.55</v>
-      </c>
-      <c r="N4" s="14">
-        <f>3/20</f>
-        <v>0.15</v>
-      </c>
+        <v>3.59</v>
+      </c>
+      <c r="N4" s="14"/>
       <c r="O4" s="14">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="P4" s="6">
         <f>0.7*L4+0.2*M4+0.1*O4+N4</f>
-        <v>4.6900000000000004</v>
+        <v>4.3879999999999999</v>
       </c>
       <c r="Q4" s="34">
-        <v>1.4976851851851852E-2</v>
+        <v>1.3935185185185186E-2</v>
       </c>
       <c r="R4" s="36">
-        <f>Q4/Q8</f>
-        <v>0.93768115942028996</v>
+        <f>Q4/Q6</f>
+        <v>0.85269121813031168</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="3">
-        <v>1113698193</v>
+        <v>1107836732</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E5" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="G5" s="3">
         <v>1</v>
@@ -1372,53 +1369,50 @@
       <c r="J5" s="3">
         <v>3</v>
       </c>
-      <c r="K5" s="6">
-        <v>4.8</v>
+      <c r="K5" s="3">
+        <v>4.5</v>
       </c>
       <c r="L5" s="6">
         <f>(J5/I5)*K5</f>
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="M5" s="14">
-        <v>3.55</v>
-      </c>
-      <c r="N5" s="14">
-        <f>2/20</f>
-        <v>0.1</v>
-      </c>
+        <v>3.59</v>
+      </c>
+      <c r="N5" s="14"/>
       <c r="O5" s="14">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="P5" s="6">
         <f>0.7*L5+0.2*M5+0.1*O5+N5</f>
-        <v>4.6399999999999997</v>
+        <v>4.3179999999999996</v>
       </c>
       <c r="Q5" s="34">
-        <v>1.5833333333333335E-2</v>
+        <v>1.474537037037037E-2</v>
       </c>
       <c r="R5" s="36">
-        <f>Q5/Q8</f>
-        <v>0.99130434782608712</v>
+        <f>Q5/Q6</f>
+        <v>0.90226628895184136</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="3">
-        <v>1109662163</v>
+        <v>1126644560</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E6" s="3">
-        <v>2</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>69</v>
+        <v>1</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="G6" s="3">
         <v>1</v>
@@ -1428,12 +1422,12 @@
         <v>2:00 PM</v>
       </c>
       <c r="I6" s="17">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J6" s="3">
-        <v>7</v>
-      </c>
-      <c r="K6" s="6">
+        <v>4</v>
+      </c>
+      <c r="K6" s="3">
         <v>4.8</v>
       </c>
       <c r="L6" s="6">
@@ -1441,45 +1435,42 @@
         <v>4.8</v>
       </c>
       <c r="M6" s="14">
-        <v>3.55</v>
-      </c>
-      <c r="N6" s="14">
-        <f>1/20</f>
-        <v>0.05</v>
-      </c>
+        <v>3.59</v>
+      </c>
+      <c r="N6" s="14"/>
       <c r="O6" s="14">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="P6" s="6">
         <f>0.7*L6+0.2*M6+0.1*O6+N6</f>
-        <v>4.59</v>
+        <v>4.5279999999999996</v>
       </c>
       <c r="Q6" s="34">
-        <v>1.4652777777777778E-2</v>
+        <v>1.6342592592592593E-2</v>
       </c>
       <c r="R6" s="36">
-        <f>Q6/Q8</f>
-        <v>0.91739130434782623</v>
+        <f>Q6/Q6</f>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="3">
-        <v>1005785832</v>
+        <v>1062329024</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E7" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="G7" s="3">
         <v>1</v>
@@ -1489,58 +1480,55 @@
         <v>2:00 PM</v>
       </c>
       <c r="I7" s="17">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J7" s="3">
-        <v>7</v>
-      </c>
-      <c r="K7" s="6">
-        <v>4.8</v>
+        <v>5</v>
+      </c>
+      <c r="K7" s="3">
+        <v>4.5</v>
       </c>
       <c r="L7" s="6">
         <f>(J7/I7)*K7</f>
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="M7" s="14">
-        <v>3.55</v>
-      </c>
-      <c r="N7" s="14">
-        <f>1/20</f>
-        <v>0.05</v>
-      </c>
+        <v>3.59</v>
+      </c>
+      <c r="N7" s="14"/>
       <c r="O7" s="14">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="P7" s="6">
         <f>0.7*L7+0.2*M7+0.1*O7+N7</f>
-        <v>4.59</v>
+        <v>4.3179999999999996</v>
       </c>
       <c r="Q7" s="34">
-        <v>1.5520833333333333E-2</v>
+        <v>0</v>
       </c>
       <c r="R7" s="36">
-        <f>Q7/Q8</f>
-        <v>0.97173913043478266</v>
+        <f>Q7/Q6</f>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="3">
-        <v>1005832925</v>
+        <v>1110364376</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E8" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G8" s="3">
         <v>1</v>
@@ -1550,12 +1538,12 @@
         <v>2:00 PM</v>
       </c>
       <c r="I8" s="17">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="J8" s="3">
-        <v>11</v>
-      </c>
-      <c r="K8" s="6">
+        <v>3</v>
+      </c>
+      <c r="K8" s="3">
         <v>4.8</v>
       </c>
       <c r="L8" s="6">
@@ -1563,45 +1551,45 @@
         <v>4.8</v>
       </c>
       <c r="M8" s="14">
-        <v>3.55</v>
+        <v>3.59</v>
       </c>
       <c r="N8" s="14">
-        <f>5/20</f>
-        <v>0.25</v>
+        <f>1/16</f>
+        <v>6.25E-2</v>
       </c>
       <c r="O8" s="14">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="P8" s="6">
         <f>0.7*L8+0.2*M8+0.1*O8+N8</f>
-        <v>4.79</v>
+        <v>4.5904999999999996</v>
       </c>
       <c r="Q8" s="34">
-        <v>1.5972222222222221E-2</v>
+        <v>1.412037037037037E-2</v>
       </c>
       <c r="R8" s="36">
-        <f>Q8/Q8</f>
-        <v>1</v>
+        <f>Q8/Q6</f>
+        <v>0.86402266288951834</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="3">
-        <v>1062274189</v>
+        <v>1005783739</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E9" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="G9" s="3">
         <v>2</v>
@@ -1611,55 +1599,58 @@
         <v>2:30 PM</v>
       </c>
       <c r="I9" s="17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J9" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K9" s="6">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="L9" s="6">
         <f>(J9/I9)*K9</f>
-        <v>2.6999999999999997</v>
+        <v>4.8</v>
       </c>
       <c r="M9" s="14">
-        <v>2.76</v>
-      </c>
-      <c r="N9" s="14"/>
+        <v>3.55</v>
+      </c>
+      <c r="N9" s="14">
+        <f>3/20</f>
+        <v>0.15</v>
+      </c>
       <c r="O9" s="14">
-        <v>3</v>
+        <v>4.7</v>
       </c>
       <c r="P9" s="6">
         <f>0.7*L9+0.2*M9+0.1*O9+N9</f>
-        <v>2.742</v>
+        <v>4.6900000000000004</v>
       </c>
       <c r="Q9" s="34">
-        <v>1.8506944444444444E-2</v>
+        <v>1.4976851851851852E-2</v>
       </c>
       <c r="R9" s="36">
-        <f>Q9/Q9</f>
-        <v>1</v>
+        <f>Q9/Q13</f>
+        <v>0.93768115942028996</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="3">
-        <v>1110363454</v>
+        <v>1113698193</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E10" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="G10" s="3">
         <v>2</v>
@@ -1669,10 +1660,10 @@
         <v>2:30 PM</v>
       </c>
       <c r="I10" s="17">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J10" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K10" s="6">
         <v>4.8</v>
@@ -1682,45 +1673,45 @@
         <v>4.8</v>
       </c>
       <c r="M10" s="14">
-        <v>2.76</v>
+        <v>3.55</v>
       </c>
       <c r="N10" s="14">
-        <f>1/13</f>
-        <v>7.6923076923076927E-2</v>
+        <f>2/20</f>
+        <v>0.1</v>
       </c>
       <c r="O10" s="14">
-        <v>3</v>
+        <v>4.7</v>
       </c>
       <c r="P10" s="6">
         <f>0.7*L10+0.2*M10+0.1*O10+N10</f>
-        <v>4.2889230769230764</v>
+        <v>4.6399999999999997</v>
       </c>
       <c r="Q10" s="34">
-        <v>1.1863425925925927E-2</v>
+        <v>1.5833333333333335E-2</v>
       </c>
       <c r="R10" s="36">
-        <f>Q10/Q9</f>
-        <v>0.64102564102564108</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" ht="15.75">
+        <f>Q10/Q13</f>
+        <v>0.99130434782608712</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="3">
-        <v>1007603017</v>
+        <v>1109662163</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E11" s="3">
-        <v>3</v>
-      </c>
-      <c r="F11" s="32" t="s">
-        <v>79</v>
+        <v>2</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>69</v>
       </c>
       <c r="G11" s="3">
         <v>2</v>
@@ -1730,10 +1721,10 @@
         <v>2:30 PM</v>
       </c>
       <c r="I11" s="17">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J11" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K11" s="6">
         <v>4.8</v>
@@ -1743,42 +1734,45 @@
         <v>4.8</v>
       </c>
       <c r="M11" s="14">
-        <v>2.76</v>
-      </c>
-      <c r="N11" s="39"/>
+        <v>3.55</v>
+      </c>
+      <c r="N11" s="39">
+        <f>1/20</f>
+        <v>0.05</v>
+      </c>
       <c r="O11" s="14">
-        <v>3</v>
+        <v>4.7</v>
       </c>
       <c r="P11" s="6">
         <f>0.7*L11+0.2*M11+0.1*O11+N11</f>
-        <v>4.2119999999999997</v>
+        <v>4.59</v>
       </c>
       <c r="Q11" s="34">
-        <v>1.8159722222222223E-2</v>
+        <v>1.4652777777777778E-2</v>
       </c>
       <c r="R11" s="36">
-        <f>Q11/Q9</f>
-        <v>0.98123827392120078</v>
+        <f>Q11/Q13</f>
+        <v>0.91739130434782623</v>
       </c>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="3">
-        <v>1081728000</v>
+        <v>1005785832</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E12" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="G12" s="3">
         <v>2</v>
@@ -1788,10 +1782,10 @@
         <v>2:30 PM</v>
       </c>
       <c r="I12" s="17">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J12" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K12" s="6">
         <v>4.8</v>
@@ -1801,42 +1795,45 @@
         <v>4.8</v>
       </c>
       <c r="M12" s="14">
-        <v>2.76</v>
-      </c>
-      <c r="N12" s="14"/>
+        <v>3.55</v>
+      </c>
+      <c r="N12" s="14">
+        <f>1/20</f>
+        <v>0.05</v>
+      </c>
       <c r="O12" s="14">
-        <v>3</v>
+        <v>4.7</v>
       </c>
       <c r="P12" s="6">
         <f>0.7*L12+0.2*M12+0.1*O12+N12</f>
-        <v>4.2119999999999997</v>
+        <v>4.59</v>
       </c>
       <c r="Q12" s="34">
-        <v>9.9305555555555553E-3</v>
+        <v>1.5520833333333333E-2</v>
       </c>
       <c r="R12" s="36">
-        <f>Q12/Q9</f>
-        <v>0.53658536585365857</v>
+        <f>Q12/Q13</f>
+        <v>0.97173913043478266</v>
       </c>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="3">
-        <v>1219713263</v>
+        <v>1005832925</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E13" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="G13" s="3">
         <v>2</v>
@@ -1846,55 +1843,58 @@
         <v>2:30 PM</v>
       </c>
       <c r="I13" s="17">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="J13" s="3">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="K13" s="6">
-        <v>4.9000000000000004</v>
+        <v>4.8</v>
       </c>
       <c r="L13" s="6">
         <f>(J13/I13)*K13</f>
-        <v>4.9000000000000004</v>
+        <v>4.8</v>
       </c>
       <c r="M13" s="14">
-        <v>2.76</v>
-      </c>
-      <c r="N13" s="14"/>
+        <v>3.55</v>
+      </c>
+      <c r="N13" s="14">
+        <f>5/20</f>
+        <v>0.25</v>
+      </c>
       <c r="O13" s="14">
-        <v>3</v>
+        <v>4.7</v>
       </c>
       <c r="P13" s="6">
         <f>0.7*L13+0.2*M13+0.1*O13+N13</f>
-        <v>4.282</v>
+        <v>4.79</v>
       </c>
       <c r="Q13" s="34">
-        <v>0</v>
+        <v>1.5972222222222221E-2</v>
       </c>
       <c r="R13" s="36">
-        <f>Q13/Q9</f>
-        <v>0</v>
+        <f>Q13/Q13</f>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="3">
-        <v>1025642375</v>
+        <v>1062274189</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="D14" s="31" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E14" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="G14" s="3">
         <v>3</v>
@@ -1907,52 +1907,52 @@
         <v>5</v>
       </c>
       <c r="J14" s="3">
-        <v>5</v>
-      </c>
-      <c r="K14" s="3">
-        <v>4.7</v>
+        <v>3</v>
+      </c>
+      <c r="K14" s="6">
+        <v>4.5</v>
       </c>
       <c r="L14" s="6">
         <f>(J14/I14)*K14</f>
-        <v>4.7</v>
+        <v>2.6999999999999997</v>
       </c>
       <c r="M14" s="14">
-        <v>2.96</v>
+        <v>2.76</v>
       </c>
       <c r="N14" s="14"/>
       <c r="O14" s="14">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P14" s="6">
         <f>0.7*L14+0.2*M14+0.1*O14+N14</f>
-        <v>4.2320000000000002</v>
+        <v>2.742</v>
       </c>
       <c r="Q14" s="34">
-        <v>2.0243055555555556E-2</v>
+        <v>1.8506944444444444E-2</v>
       </c>
       <c r="R14" s="36">
-        <f>Q14/Q16</f>
-        <v>0.94848156182212573</v>
+        <f>Q14/Q14</f>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="3">
-        <v>1193073115</v>
+        <v>1110363454</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E15" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="G15" s="3">
         <v>3</v>
@@ -1962,10 +1962,10 @@
         <v>3:00 PM</v>
       </c>
       <c r="I15" s="17">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J15" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K15" s="6">
         <v>4.8</v>
@@ -1975,42 +1975,45 @@
         <v>4.8</v>
       </c>
       <c r="M15" s="14">
-        <v>2.96</v>
-      </c>
-      <c r="N15" s="14"/>
+        <v>2.76</v>
+      </c>
+      <c r="N15" s="14">
+        <f>1/13</f>
+        <v>7.6923076923076927E-2</v>
+      </c>
       <c r="O15" s="14">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P15" s="6">
         <f>0.7*L15+0.2*M15+0.1*O15+N15</f>
-        <v>4.3019999999999996</v>
+        <v>4.2889230769230764</v>
       </c>
       <c r="Q15" s="34">
-        <v>2.0532407407407409E-2</v>
+        <v>1.1863425925925927E-2</v>
       </c>
       <c r="R15" s="36">
-        <f>Q15/Q16</f>
-        <v>0.96203904555314534</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <f>Q15/Q14</f>
+        <v>0.64102564102564108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="15.75">
       <c r="A16" s="3">
-        <v>1005894053</v>
+        <v>1007603017</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E16" s="3">
-        <v>4</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>96</v>
+        <v>3</v>
+      </c>
+      <c r="F16" s="32" t="s">
+        <v>79</v>
       </c>
       <c r="G16" s="3">
         <v>3</v>
@@ -2020,55 +2023,55 @@
         <v>3:00 PM</v>
       </c>
       <c r="I16" s="17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J16" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K16" s="6">
-        <v>4.5999999999999996</v>
+        <v>4.8</v>
       </c>
       <c r="L16" s="6">
         <f>(J16/I16)*K16</f>
-        <v>4.5999999999999996</v>
+        <v>4.8</v>
       </c>
       <c r="M16" s="14">
-        <v>2.96</v>
+        <v>2.76</v>
       </c>
       <c r="N16" s="14"/>
       <c r="O16" s="14">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P16" s="6">
         <f>0.7*L16+0.2*M16+0.1*O16+N16</f>
-        <v>4.1619999999999999</v>
+        <v>4.2119999999999997</v>
       </c>
       <c r="Q16" s="34">
-        <v>2.1342592592592594E-2</v>
+        <v>1.8159722222222223E-2</v>
       </c>
       <c r="R16" s="36">
-        <f>Q16/Q16</f>
-        <v>1</v>
+        <f>Q16/Q14</f>
+        <v>0.98123827392120078</v>
       </c>
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="3">
-        <v>1193578885</v>
+        <v>1081728000</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E17" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G17" s="3">
         <v>3</v>
@@ -2078,113 +2081,113 @@
         <v>3:00 PM</v>
       </c>
       <c r="I17" s="17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J17" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K17" s="6">
-        <v>4.5999999999999996</v>
+        <v>4.8</v>
       </c>
       <c r="L17" s="6">
         <f>(J17/I17)*K17</f>
-        <v>4.5999999999999996</v>
+        <v>4.8</v>
       </c>
       <c r="M17" s="14">
-        <v>2.96</v>
+        <v>2.76</v>
       </c>
       <c r="N17" s="14"/>
       <c r="O17" s="14">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P17" s="6">
         <f>0.7*L17+0.2*M17+0.1*O17+N17</f>
-        <v>4.1619999999999999</v>
+        <v>4.2119999999999997</v>
       </c>
       <c r="Q17" s="34">
-        <v>1.951388888888889E-2</v>
+        <v>9.9305555555555553E-3</v>
       </c>
       <c r="R17" s="36">
-        <f>Q17/Q16</f>
-        <v>0.91431670281995658</v>
+        <f>Q17/Q14</f>
+        <v>0.53658536585365857</v>
       </c>
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="3">
-        <v>1005967544</v>
+        <v>1219713263</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D18" s="31" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E18" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18" s="38" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G18" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H18" s="3" t="str" cm="1">
         <f t="array" ref="H18">_xlfn.IFS(G18=1, "2:00 PM", G18=2, "2:30 PM", G18=3, "3:00 PM", G18=4, "3:30 PM")</f>
-        <v>3:30 PM</v>
+        <v>3:00 PM</v>
       </c>
       <c r="I18" s="17">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J18" s="3">
-        <v>1</v>
-      </c>
-      <c r="K18" s="3">
-        <v>4.5999999999999996</v>
+        <v>6</v>
+      </c>
+      <c r="K18" s="6">
+        <v>4.9000000000000004</v>
       </c>
       <c r="L18" s="6">
         <f>(J18/I18)*K18</f>
-        <v>4.5999999999999996</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="M18" s="14">
-        <v>3.59</v>
+        <v>2.76</v>
       </c>
       <c r="N18" s="14"/>
       <c r="O18" s="14">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="P18" s="6">
         <f>0.7*L18+0.2*M18+0.1*O18+N18</f>
-        <v>4.3879999999999999</v>
+        <v>4.282</v>
       </c>
       <c r="Q18" s="34">
-        <v>1.3935185185185186E-2</v>
+        <v>0</v>
       </c>
       <c r="R18" s="36">
-        <f>Q18/Q20</f>
-        <v>0.85269121813031168</v>
+        <f>Q18/Q14</f>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="3">
-        <v>1107836732</v>
+        <v>1025642375</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="D19" s="31" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E19" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="G19" s="3">
         <v>4</v>
@@ -2194,55 +2197,55 @@
         <v>3:30 PM</v>
       </c>
       <c r="I19" s="17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J19" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K19" s="3">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="L19" s="6">
         <f>(J19/I19)*K19</f>
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="M19" s="14">
-        <v>3.59</v>
+        <v>2.96</v>
       </c>
       <c r="N19" s="14"/>
       <c r="O19" s="14">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P19" s="6">
         <f>0.7*L19+0.2*M19+0.1*O19+N19</f>
-        <v>4.3179999999999996</v>
+        <v>4.2320000000000002</v>
       </c>
       <c r="Q19" s="34">
-        <v>1.474537037037037E-2</v>
+        <v>2.0243055555555556E-2</v>
       </c>
       <c r="R19" s="36">
-        <f>Q19/Q20</f>
-        <v>0.90226628895184136</v>
+        <f>Q19/Q21</f>
+        <v>0.94848156182212573</v>
       </c>
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="3">
-        <v>1126644560</v>
+        <v>1193073115</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="D20" s="31" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="E20" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G20" s="3">
         <v>4</v>
@@ -2257,7 +2260,7 @@
       <c r="J20" s="3">
         <v>4</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20" s="6">
         <v>4.8</v>
       </c>
       <c r="L20" s="6">
@@ -2265,42 +2268,42 @@
         <v>4.8</v>
       </c>
       <c r="M20" s="14">
-        <v>3.59</v>
+        <v>2.96</v>
       </c>
       <c r="N20" s="14"/>
       <c r="O20" s="14">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P20" s="6">
         <f>0.7*L20+0.2*M20+0.1*O20+N20</f>
-        <v>4.5279999999999996</v>
+        <v>4.3019999999999996</v>
       </c>
       <c r="Q20" s="34">
-        <v>1.6342592592592593E-2</v>
+        <v>2.0532407407407409E-2</v>
       </c>
       <c r="R20" s="36">
-        <f>Q20/Q20</f>
-        <v>1</v>
+        <f>Q20/Q21</f>
+        <v>0.96203904555314534</v>
       </c>
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="3">
-        <v>1062329024</v>
+        <v>1005894053</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D21" s="31" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="G21" s="3">
         <v>4</v>
@@ -2310,55 +2313,55 @@
         <v>3:30 PM</v>
       </c>
       <c r="I21" s="17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J21" s="3">
-        <v>5</v>
-      </c>
-      <c r="K21" s="3">
-        <v>4.5</v>
+        <v>3</v>
+      </c>
+      <c r="K21" s="6">
+        <v>4.5999999999999996</v>
       </c>
       <c r="L21" s="6">
         <f>(J21/I21)*K21</f>
-        <v>4.5</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="M21" s="14">
-        <v>3.59</v>
+        <v>2.96</v>
       </c>
       <c r="N21" s="14"/>
       <c r="O21" s="14">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P21" s="6">
         <f>0.7*L21+0.2*M21+0.1*O21+N21</f>
-        <v>4.3179999999999996</v>
+        <v>4.1619999999999999</v>
       </c>
       <c r="Q21" s="34">
-        <v>0</v>
+        <v>2.1342592592592594E-2</v>
       </c>
       <c r="R21" s="36">
-        <f>Q21/Q20</f>
-        <v>0</v>
+        <f>Q21/Q21</f>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:18">
       <c r="A22" s="3">
-        <v>1110364376</v>
+        <v>1193578885</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="D22" s="31" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E22" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G22" s="3">
         <v>4</v>
@@ -2368,38 +2371,35 @@
         <v>3:30 PM</v>
       </c>
       <c r="I22" s="17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J22" s="3">
-        <v>3</v>
-      </c>
-      <c r="K22" s="3">
-        <v>4.8</v>
+        <v>4</v>
+      </c>
+      <c r="K22" s="6">
+        <v>4.5999999999999996</v>
       </c>
       <c r="L22" s="6">
         <f>(J22/I22)*K22</f>
-        <v>4.8</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="M22" s="14">
-        <v>3.59</v>
-      </c>
-      <c r="N22" s="14">
-        <f>1/16</f>
-        <v>6.25E-2</v>
-      </c>
+        <v>2.96</v>
+      </c>
+      <c r="N22" s="14"/>
       <c r="O22" s="14">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P22" s="6">
         <f>0.7*L22+0.2*M22+0.1*O22+N22</f>
-        <v>4.5904999999999996</v>
+        <v>4.1619999999999999</v>
       </c>
       <c r="Q22" s="34">
-        <v>1.412037037037037E-2</v>
+        <v>1.951388888888889E-2</v>
       </c>
       <c r="R22" s="36">
-        <f>Q22/Q20</f>
-        <v>0.86402266288951834</v>
+        <f>Q22/Q21</f>
+        <v>0.91431670281995658</v>
       </c>
     </row>
     <row r="23" spans="1:18">

--- a/academics/DB2/2025-2/DB2 2025-2.xlsx
+++ b/academics/DB2/2025-2/DB2 2025-2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubDesktopPortable\LocalData\oicampo-uao.github.io\oicampo-uao.github.io\academics\DB2\2025-2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\oicampo\Documents\GitHub\oicampo-uao.github.io\academics\DB2\2025-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1215810B-C1AC-42DD-9E7B-65F44AEBDFFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B5341EF-78E4-4D1A-A6C9-84A40B5D9EE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,9 +30,6 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
-    </ext>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -61,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="127">
   <si>
     <t>email</t>
   </si>
@@ -899,9 +896,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -939,9 +936,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -974,26 +971,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1026,26 +1006,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1219,19 +1182,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S23"/>
+  <dimension ref="A1:T27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C14" sqref="A14:XFD17"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" customWidth="1"/>
-    <col min="4" max="4" width="29.140625" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.140625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="6.140625" style="1" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="12.85546875" customWidth="1"/>
@@ -1242,25 +1205,38 @@
     <col min="16" max="16" width="9.140625" customWidth="1"/>
     <col min="17" max="17" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:20">
       <c r="Q1" t="s">
         <v>124</v>
       </c>
       <c r="R1" s="35">
         <v>45912</v>
       </c>
-    </row>
-    <row r="2" spans="1:19">
+      <c r="S1" t="s">
+        <v>124</v>
+      </c>
+      <c r="T1" s="35">
+        <v>45926</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="Q2" t="s">
         <v>125</v>
       </c>
       <c r="R2" s="37">
         <v>2.0833333333333332E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:19">
+      <c r="S2" t="s">
+        <v>125</v>
+      </c>
+      <c r="T2" s="37">
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="4" t="s">
         <v>119</v>
       </c>
@@ -1315,25 +1291,31 @@
       <c r="R3" s="33" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="4" spans="1:19">
+      <c r="S3" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="T3" s="33" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="3">
-        <v>1005783739</v>
+        <v>1062274189</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E4" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="G4" s="3">
         <v>1</v>
@@ -1343,58 +1325,62 @@
         <v>2:00 PM</v>
       </c>
       <c r="I4" s="17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J4" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K4" s="6">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="L4" s="6">
-        <f t="shared" ref="L4:L22" si="0">(J4/I4)*K4</f>
-        <v>4.8</v>
+        <f>(J4/I4)*K4</f>
+        <v>2.6999999999999997</v>
       </c>
       <c r="M4" s="14">
-        <v>3.55</v>
-      </c>
-      <c r="N4" s="14">
-        <f>3/20</f>
-        <v>0.15</v>
-      </c>
+        <v>2.76</v>
+      </c>
+      <c r="N4" s="14"/>
       <c r="O4" s="14">
-        <v>4.7</v>
+        <v>3</v>
       </c>
       <c r="P4" s="6">
-        <f t="shared" ref="P4:P22" si="1">0.7*L4+0.2*M4+0.1*O4+N4</f>
-        <v>4.6900000000000004</v>
+        <f>0.7*L4+0.2*M4+0.1*O4+N4</f>
+        <v>2.742</v>
       </c>
       <c r="Q4" s="34">
-        <v>1.4976851851851852E-2</v>
+        <v>1.8506944444444444E-2</v>
       </c>
       <c r="R4" s="36">
-        <f>Q4/Q8</f>
-        <v>0.93768115942028996</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19">
+        <f>Q4/Q4</f>
+        <v>1</v>
+      </c>
+      <c r="S4" s="37">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="T4" s="36">
+        <f>S4/$T$2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="3">
-        <v>1113698193</v>
+        <v>1110363454</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E5" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="G5" s="3">
         <v>1</v>
@@ -1404,61 +1390,65 @@
         <v>2:00 PM</v>
       </c>
       <c r="I5" s="17">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J5" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K5" s="6">
         <v>4.8</v>
       </c>
       <c r="L5" s="6">
-        <f t="shared" si="0"/>
+        <f>(J5/I5)*K5</f>
         <v>4.8</v>
       </c>
       <c r="M5" s="14">
-        <v>3.55</v>
+        <v>2.76</v>
       </c>
       <c r="N5" s="14">
-        <f>2/20</f>
-        <v>0.1</v>
+        <f>1/13</f>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="O5" s="14">
-        <v>4.7</v>
+        <v>3</v>
       </c>
       <c r="P5" s="6">
-        <f t="shared" si="1"/>
-        <v>4.6399999999999997</v>
+        <f>0.7*L5+0.2*M5+0.1*O5+N5</f>
+        <v>4.2889230769230764</v>
       </c>
       <c r="Q5" s="34">
-        <v>1.5833333333333335E-2</v>
+        <v>1.1863425925925927E-2</v>
       </c>
       <c r="R5" s="36">
-        <f>Q5/Q8</f>
-        <v>0.99130434782608712</v>
-      </c>
-      <c r="S5">
+        <f>Q5/Q4</f>
+        <v>0.64102564102564108</v>
+      </c>
+      <c r="S5" s="37">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:19">
+      <c r="T5" s="36">
+        <f t="shared" ref="T5:T22" si="0">S5/$T$2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="15.75">
       <c r="A6" s="3">
-        <v>1109662163</v>
+        <v>1007603017</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E6" s="3">
-        <v>2</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>69</v>
+        <v>3</v>
+      </c>
+      <c r="F6" s="32" t="s">
+        <v>79</v>
       </c>
       <c r="G6" s="3">
         <v>1</v>
@@ -1468,58 +1458,62 @@
         <v>2:00 PM</v>
       </c>
       <c r="I6" s="17">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J6" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K6" s="6">
         <v>4.8</v>
       </c>
       <c r="L6" s="6">
+        <f>(J6/I6)*K6</f>
+        <v>4.8</v>
+      </c>
+      <c r="M6" s="14">
+        <v>2.76</v>
+      </c>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14">
+        <v>3</v>
+      </c>
+      <c r="P6" s="6">
+        <f>0.7*L6+0.2*M6+0.1*O6+N6</f>
+        <v>4.2119999999999997</v>
+      </c>
+      <c r="Q6" s="34">
+        <v>1.8159722222222223E-2</v>
+      </c>
+      <c r="R6" s="36">
+        <f>Q6/Q4</f>
+        <v>0.98123827392120078</v>
+      </c>
+      <c r="S6" s="37">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="T6" s="36">
         <f t="shared" si="0"/>
-        <v>4.8</v>
-      </c>
-      <c r="M6" s="14">
-        <v>3.55</v>
-      </c>
-      <c r="N6" s="14">
-        <f>1/20</f>
-        <v>0.05</v>
-      </c>
-      <c r="O6" s="14">
-        <v>4.7</v>
-      </c>
-      <c r="P6" s="6">
-        <f t="shared" si="1"/>
-        <v>4.59</v>
-      </c>
-      <c r="Q6" s="34">
-        <v>1.4652777777777778E-2</v>
-      </c>
-      <c r="R6" s="36">
-        <f>Q6/Q8</f>
-        <v>0.91739130434782623</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="3">
-        <v>1005785832</v>
+        <v>1081728000</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E7" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="G7" s="3">
         <v>1</v>
@@ -1529,58 +1523,62 @@
         <v>2:00 PM</v>
       </c>
       <c r="I7" s="17">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J7" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K7" s="6">
         <v>4.8</v>
       </c>
       <c r="L7" s="6">
+        <f>(J7/I7)*K7</f>
+        <v>4.8</v>
+      </c>
+      <c r="M7" s="14">
+        <v>2.76</v>
+      </c>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14">
+        <v>3</v>
+      </c>
+      <c r="P7" s="6">
+        <f>0.7*L7+0.2*M7+0.1*O7+N7</f>
+        <v>4.2119999999999997</v>
+      </c>
+      <c r="Q7" s="34">
+        <v>9.9305555555555553E-3</v>
+      </c>
+      <c r="R7" s="36">
+        <f>Q7/Q4</f>
+        <v>0.53658536585365857</v>
+      </c>
+      <c r="S7" s="37">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="T7" s="36">
         <f t="shared" si="0"/>
-        <v>4.8</v>
-      </c>
-      <c r="M7" s="14">
-        <v>3.55</v>
-      </c>
-      <c r="N7" s="14">
-        <f>1/20</f>
-        <v>0.05</v>
-      </c>
-      <c r="O7" s="14">
-        <v>4.7</v>
-      </c>
-      <c r="P7" s="6">
-        <f t="shared" si="1"/>
-        <v>4.59</v>
-      </c>
-      <c r="Q7" s="34">
-        <v>1.5520833333333333E-2</v>
-      </c>
-      <c r="R7" s="36">
-        <f>Q7/Q8</f>
-        <v>0.97173913043478266</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="3">
-        <v>1005832925</v>
+        <v>1219713263</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E8" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="G8" s="3">
         <v>1</v>
@@ -1590,58 +1588,62 @@
         <v>2:00 PM</v>
       </c>
       <c r="I8" s="17">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J8" s="3">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="K8" s="6">
-        <v>4.8</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="L8" s="6">
+        <f>(J8/I8)*K8</f>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="M8" s="14">
+        <v>2.76</v>
+      </c>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14">
+        <v>3</v>
+      </c>
+      <c r="P8" s="6">
+        <f>0.7*L8+0.2*M8+0.1*O8+N8</f>
+        <v>4.282</v>
+      </c>
+      <c r="Q8" s="34">
+        <v>0</v>
+      </c>
+      <c r="R8" s="36">
+        <f>Q8/Q4</f>
+        <v>0</v>
+      </c>
+      <c r="S8" s="37">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="T8" s="36">
         <f t="shared" si="0"/>
-        <v>4.8</v>
-      </c>
-      <c r="M8" s="14">
-        <v>3.55</v>
-      </c>
-      <c r="N8" s="14">
-        <f>5/20</f>
-        <v>0.25</v>
-      </c>
-      <c r="O8" s="14">
-        <v>4.7</v>
-      </c>
-      <c r="P8" s="6">
-        <f t="shared" si="1"/>
-        <v>4.79</v>
-      </c>
-      <c r="Q8" s="34">
-        <v>1.5972222222222221E-2</v>
-      </c>
-      <c r="R8" s="36">
-        <f>Q8/Q8</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="3">
-        <v>1062274189</v>
+        <v>1025642375</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E9" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="G9" s="3">
         <v>2</v>
@@ -1654,52 +1656,59 @@
         <v>5</v>
       </c>
       <c r="J9" s="3">
-        <v>3</v>
-      </c>
-      <c r="K9" s="6">
-        <v>4.5</v>
+        <v>5</v>
+      </c>
+      <c r="K9" s="3">
+        <v>4.7</v>
       </c>
       <c r="L9" s="6">
-        <f t="shared" si="0"/>
-        <v>2.6999999999999997</v>
+        <f>(J9/I9)*K9</f>
+        <v>4.7</v>
       </c>
       <c r="M9" s="14">
-        <v>2.76</v>
+        <v>2.96</v>
       </c>
       <c r="N9" s="14"/>
       <c r="O9" s="14">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P9" s="6">
-        <f t="shared" si="1"/>
-        <v>2.742</v>
+        <f>0.7*L9+0.2*M9+0.1*O9+N9</f>
+        <v>4.2320000000000002</v>
       </c>
       <c r="Q9" s="34">
-        <v>1.8506944444444444E-2</v>
+        <v>2.0243055555555556E-2</v>
       </c>
       <c r="R9" s="36">
-        <f>Q9/Q9</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19">
+        <f>Q9/Q11</f>
+        <v>0.94848156182212573</v>
+      </c>
+      <c r="S9" s="37">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="T9" s="36">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="3">
-        <v>1110363454</v>
+        <v>1193073115</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E10" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="G10" s="3">
         <v>2</v>
@@ -1709,58 +1718,62 @@
         <v>2:30 PM</v>
       </c>
       <c r="I10" s="17">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J10" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K10" s="6">
         <v>4.8</v>
       </c>
       <c r="L10" s="6">
+        <f>(J10/I10)*K10</f>
+        <v>4.8</v>
+      </c>
+      <c r="M10" s="14">
+        <v>2.96</v>
+      </c>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14">
+        <v>3.5</v>
+      </c>
+      <c r="P10" s="6">
+        <f>0.7*L10+0.2*M10+0.1*O10+N10</f>
+        <v>4.3019999999999996</v>
+      </c>
+      <c r="Q10" s="34">
+        <v>2.0532407407407409E-2</v>
+      </c>
+      <c r="R10" s="36">
+        <f>Q10/Q11</f>
+        <v>0.96203904555314534</v>
+      </c>
+      <c r="S10" s="37">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="T10" s="36">
         <f t="shared" si="0"/>
-        <v>4.8</v>
-      </c>
-      <c r="M10" s="14">
-        <v>2.76</v>
-      </c>
-      <c r="N10" s="14">
-        <f>1/13</f>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="O10" s="14">
-        <v>3</v>
-      </c>
-      <c r="P10" s="6">
-        <f t="shared" si="1"/>
-        <v>4.2889230769230764</v>
-      </c>
-      <c r="Q10" s="34">
-        <v>1.1863425925925927E-2</v>
-      </c>
-      <c r="R10" s="36">
-        <f>Q10/Q9</f>
-        <v>0.64102564102564108</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" ht="15.75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="3">
-        <v>1007603017</v>
+        <v>1005894053</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E11" s="3">
-        <v>3</v>
-      </c>
-      <c r="F11" s="32" t="s">
-        <v>79</v>
+        <v>4</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="G11" s="3">
         <v>2</v>
@@ -1770,55 +1783,62 @@
         <v>2:30 PM</v>
       </c>
       <c r="I11" s="17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J11" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K11" s="6">
-        <v>4.8</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="L11" s="6">
-        <f t="shared" si="0"/>
-        <v>4.8</v>
+        <f>(J11/I11)*K11</f>
+        <v>4.5999999999999996</v>
       </c>
       <c r="M11" s="14">
-        <v>2.76</v>
+        <v>2.96</v>
       </c>
       <c r="N11" s="39"/>
       <c r="O11" s="14">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P11" s="6">
-        <f t="shared" si="1"/>
-        <v>4.2119999999999997</v>
+        <f>0.7*L11+0.2*M11+0.1*O11+N11</f>
+        <v>4.1619999999999999</v>
       </c>
       <c r="Q11" s="34">
-        <v>1.8159722222222223E-2</v>
+        <v>2.1342592592592594E-2</v>
       </c>
       <c r="R11" s="36">
-        <f>Q11/Q9</f>
-        <v>0.98123827392120078</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19">
+        <f>Q11/Q11</f>
+        <v>1</v>
+      </c>
+      <c r="S11" s="37">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="T11" s="36">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="3">
-        <v>1081728000</v>
+        <v>1193578885</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E12" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="G12" s="3">
         <v>2</v>
@@ -1828,116 +1848,127 @@
         <v>2:30 PM</v>
       </c>
       <c r="I12" s="17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J12" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K12" s="6">
-        <v>4.8</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="L12" s="6">
-        <f t="shared" si="0"/>
-        <v>4.8</v>
+        <f>(J12/I12)*K12</f>
+        <v>4.5999999999999996</v>
       </c>
       <c r="M12" s="14">
-        <v>2.76</v>
+        <v>2.96</v>
       </c>
       <c r="N12" s="14"/>
       <c r="O12" s="14">
+        <v>3.5</v>
+      </c>
+      <c r="P12" s="6">
+        <f>0.7*L12+0.2*M12+0.1*O12+N12</f>
+        <v>4.1619999999999999</v>
+      </c>
+      <c r="Q12" s="34">
+        <v>1.951388888888889E-2</v>
+      </c>
+      <c r="R12" s="36">
+        <f>Q12/Q11</f>
+        <v>0.91431670281995658</v>
+      </c>
+      <c r="S12" s="37">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="T12" s="36">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" s="3">
+        <v>1005967544</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G13" s="3">
         <v>3</v>
-      </c>
-      <c r="P12" s="6">
-        <f t="shared" si="1"/>
-        <v>4.2119999999999997</v>
-      </c>
-      <c r="Q12" s="34">
-        <v>9.9305555555555553E-3</v>
-      </c>
-      <c r="R12" s="36">
-        <f>Q12/Q9</f>
-        <v>0.53658536585365857</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19">
-      <c r="A13" s="3">
-        <v>1219713263</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="3">
-        <v>3</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G13" s="3">
-        <v>2</v>
       </c>
       <c r="H13" s="3" t="str" cm="1">
         <f t="array" ref="H13">_xlfn.IFS(G13=1, "2:00 PM", G13=2, "2:30 PM", G13=3, "3:00 PM", G13=4, "3:30 PM")</f>
-        <v>2:30 PM</v>
+        <v>3:00 PM</v>
       </c>
       <c r="I13" s="17">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J13" s="3">
-        <v>6</v>
-      </c>
-      <c r="K13" s="6">
-        <v>4.9000000000000004</v>
+        <v>1</v>
+      </c>
+      <c r="K13" s="3">
+        <v>4.5999999999999996</v>
       </c>
       <c r="L13" s="6">
-        <f t="shared" si="0"/>
-        <v>4.9000000000000004</v>
+        <f>(J13/I13)*K13</f>
+        <v>4.5999999999999996</v>
       </c>
       <c r="M13" s="14">
-        <v>2.76</v>
+        <v>3.59</v>
       </c>
       <c r="N13" s="14"/>
       <c r="O13" s="14">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="P13" s="6">
-        <f t="shared" si="1"/>
-        <v>4.282</v>
+        <f>0.7*L13+0.2*M13+0.1*O13+N13</f>
+        <v>4.3879999999999999</v>
       </c>
       <c r="Q13" s="34">
+        <v>1.3935185185185186E-2</v>
+      </c>
+      <c r="R13" s="36">
+        <f>Q13/Q15</f>
+        <v>0.85269121813031168</v>
+      </c>
+      <c r="S13" s="37">
         <v>0</v>
       </c>
-      <c r="R13" s="36">
-        <f>Q13/Q9</f>
+      <c r="T13" s="36">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19">
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="3">
-        <v>1025642375</v>
+        <v>1107836732</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="D14" s="31" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E14" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="G14" s="3">
         <v>3</v>
@@ -1947,55 +1978,62 @@
         <v>3:00 PM</v>
       </c>
       <c r="I14" s="17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J14" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K14" s="3">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="L14" s="6">
-        <f t="shared" si="0"/>
-        <v>4.7</v>
+        <f>(J14/I14)*K14</f>
+        <v>4.5</v>
       </c>
       <c r="M14" s="14">
-        <v>2.96</v>
+        <v>3.59</v>
       </c>
       <c r="N14" s="14"/>
       <c r="O14" s="14">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P14" s="6">
-        <f t="shared" si="1"/>
-        <v>4.2320000000000002</v>
+        <f>0.7*L14+0.2*M14+0.1*O14+N14</f>
+        <v>4.3179999999999996</v>
       </c>
       <c r="Q14" s="34">
-        <v>2.0243055555555556E-2</v>
+        <v>1.474537037037037E-2</v>
       </c>
       <c r="R14" s="36">
-        <f>Q14/Q16</f>
-        <v>0.94848156182212573</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19">
+        <f>Q14/Q15</f>
+        <v>0.90226628895184136</v>
+      </c>
+      <c r="S14" s="37">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="T14" s="36">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="3">
-        <v>1193073115</v>
+        <v>1126644560</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E15" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G15" s="3">
         <v>3</v>
@@ -2010,50 +2048,57 @@
       <c r="J15" s="3">
         <v>4</v>
       </c>
-      <c r="K15" s="6">
+      <c r="K15" s="3">
         <v>4.8</v>
       </c>
       <c r="L15" s="6">
-        <f t="shared" si="0"/>
+        <f>(J15/I15)*K15</f>
         <v>4.8</v>
       </c>
       <c r="M15" s="14">
-        <v>2.96</v>
+        <v>3.59</v>
       </c>
       <c r="N15" s="14"/>
       <c r="O15" s="14">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P15" s="6">
-        <f t="shared" si="1"/>
-        <v>4.3019999999999996</v>
+        <f>0.7*L15+0.2*M15+0.1*O15+N15</f>
+        <v>4.5279999999999996</v>
       </c>
       <c r="Q15" s="34">
-        <v>2.0532407407407409E-2</v>
+        <v>1.6342592592592593E-2</v>
       </c>
       <c r="R15" s="36">
-        <f>Q15/Q16</f>
-        <v>0.96203904555314534</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19">
+        <f>Q15/Q15</f>
+        <v>1</v>
+      </c>
+      <c r="S15" s="37">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="T15" s="36">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="3">
-        <v>1005894053</v>
+        <v>1062329024</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E16" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="G16" s="3">
         <v>3</v>
@@ -2063,55 +2108,62 @@
         <v>3:00 PM</v>
       </c>
       <c r="I16" s="17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J16" s="3">
-        <v>3</v>
-      </c>
-      <c r="K16" s="6">
-        <v>4.5999999999999996</v>
+        <v>5</v>
+      </c>
+      <c r="K16" s="3">
+        <v>4.5</v>
       </c>
       <c r="L16" s="6">
-        <f t="shared" si="0"/>
-        <v>4.5999999999999996</v>
+        <f>(J16/I16)*K16</f>
+        <v>4.5</v>
       </c>
       <c r="M16" s="14">
-        <v>2.96</v>
+        <v>3.59</v>
       </c>
       <c r="N16" s="14"/>
       <c r="O16" s="14">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P16" s="6">
-        <f t="shared" si="1"/>
-        <v>4.1619999999999999</v>
+        <f>0.7*L16+0.2*M16+0.1*O16+N16</f>
+        <v>4.3179999999999996</v>
       </c>
       <c r="Q16" s="34">
-        <v>2.1342592592592594E-2</v>
+        <v>0</v>
       </c>
       <c r="R16" s="36">
-        <f>Q16/Q16</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19">
+        <f>Q16/Q15</f>
+        <v>0</v>
+      </c>
+      <c r="S16" s="37">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="T16" s="36">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="3">
-        <v>1193578885</v>
+        <v>1110364376</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E17" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G17" s="3">
         <v>3</v>
@@ -2121,55 +2173,65 @@
         <v>3:00 PM</v>
       </c>
       <c r="I17" s="17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J17" s="3">
-        <v>4</v>
-      </c>
-      <c r="K17" s="6">
-        <v>4.5999999999999996</v>
+        <v>3</v>
+      </c>
+      <c r="K17" s="3">
+        <v>4.8</v>
       </c>
       <c r="L17" s="6">
+        <f>(J17/I17)*K17</f>
+        <v>4.8</v>
+      </c>
+      <c r="M17" s="14">
+        <v>3.59</v>
+      </c>
+      <c r="N17" s="14">
+        <f>1/16</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="O17" s="14">
+        <v>4.5</v>
+      </c>
+      <c r="P17" s="6">
+        <f>0.7*L17+0.2*M17+0.1*O17+N17</f>
+        <v>4.5904999999999996</v>
+      </c>
+      <c r="Q17" s="34">
+        <v>1.412037037037037E-2</v>
+      </c>
+      <c r="R17" s="36">
+        <f>Q17/Q15</f>
+        <v>0.86402266288951834</v>
+      </c>
+      <c r="S17" s="37">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="T17" s="36">
         <f t="shared" si="0"/>
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="M17" s="14">
-        <v>2.96</v>
-      </c>
-      <c r="N17" s="14"/>
-      <c r="O17" s="14">
-        <v>3.5</v>
-      </c>
-      <c r="P17" s="6">
-        <f t="shared" si="1"/>
-        <v>4.1619999999999999</v>
-      </c>
-      <c r="Q17" s="34">
-        <v>1.951388888888889E-2</v>
-      </c>
-      <c r="R17" s="36">
-        <f>Q17/Q16</f>
-        <v>0.91431670281995658</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="3">
-        <v>1005967544</v>
+        <v>1005783739</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D18" s="31" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E18" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18" s="38" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="G18" s="3">
         <v>4</v>
@@ -2179,55 +2241,65 @@
         <v>3:30 PM</v>
       </c>
       <c r="I18" s="17">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J18" s="3">
-        <v>1</v>
-      </c>
-      <c r="K18" s="3">
-        <v>4.5999999999999996</v>
+        <v>4</v>
+      </c>
+      <c r="K18" s="6">
+        <v>4.8</v>
       </c>
       <c r="L18" s="6">
+        <f>(J18/I18)*K18</f>
+        <v>4.8</v>
+      </c>
+      <c r="M18" s="14">
+        <v>3.55</v>
+      </c>
+      <c r="N18" s="14">
+        <f>3/20</f>
+        <v>0.15</v>
+      </c>
+      <c r="O18" s="14">
+        <v>4.7</v>
+      </c>
+      <c r="P18" s="6">
+        <f>0.7*L18+0.2*M18+0.1*O18+N18</f>
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="Q18" s="34">
+        <v>1.4976851851851852E-2</v>
+      </c>
+      <c r="R18" s="36">
+        <f>Q18/Q22</f>
+        <v>0.93768115942028996</v>
+      </c>
+      <c r="S18" s="37">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="T18" s="36">
         <f t="shared" si="0"/>
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="M18" s="14">
-        <v>3.59</v>
-      </c>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14">
-        <v>4.5</v>
-      </c>
-      <c r="P18" s="6">
-        <f t="shared" si="1"/>
-        <v>4.3879999999999999</v>
-      </c>
-      <c r="Q18" s="34">
-        <v>1.3935185185185186E-2</v>
-      </c>
-      <c r="R18" s="36">
-        <f>Q18/Q20</f>
-        <v>0.85269121813031168</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="3">
-        <v>1107836732</v>
+        <v>1113698193</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="D19" s="31" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E19" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="G19" s="3">
         <v>4</v>
@@ -2242,50 +2314,60 @@
       <c r="J19" s="3">
         <v>3</v>
       </c>
-      <c r="K19" s="3">
-        <v>4.5</v>
+      <c r="K19" s="6">
+        <v>4.8</v>
       </c>
       <c r="L19" s="6">
+        <f>(J19/I19)*K19</f>
+        <v>4.8</v>
+      </c>
+      <c r="M19" s="14">
+        <v>3.55</v>
+      </c>
+      <c r="N19" s="14">
+        <f>2/20</f>
+        <v>0.1</v>
+      </c>
+      <c r="O19" s="14">
+        <v>4.7</v>
+      </c>
+      <c r="P19" s="6">
+        <f>0.7*L19+0.2*M19+0.1*O19+N19</f>
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="Q19" s="34">
+        <v>1.5833333333333335E-2</v>
+      </c>
+      <c r="R19" s="36">
+        <f>Q19/Q22</f>
+        <v>0.99130434782608712</v>
+      </c>
+      <c r="S19" s="37">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="T19" s="36">
         <f t="shared" si="0"/>
-        <v>4.5</v>
-      </c>
-      <c r="M19" s="14">
-        <v>3.59</v>
-      </c>
-      <c r="N19" s="14"/>
-      <c r="O19" s="14">
-        <v>4.5</v>
-      </c>
-      <c r="P19" s="6">
-        <f t="shared" si="1"/>
-        <v>4.3179999999999996</v>
-      </c>
-      <c r="Q19" s="34">
-        <v>1.474537037037037E-2</v>
-      </c>
-      <c r="R19" s="36">
-        <f>Q19/Q20</f>
-        <v>0.90226628895184136</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="3">
-        <v>1126644560</v>
+        <v>1109662163</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D20" s="31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E20" s="3">
-        <v>1</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>65</v>
+        <v>2</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>69</v>
       </c>
       <c r="G20" s="3">
         <v>4</v>
@@ -2295,55 +2377,65 @@
         <v>3:30 PM</v>
       </c>
       <c r="I20" s="17">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J20" s="3">
-        <v>4</v>
-      </c>
-      <c r="K20" s="3">
+        <v>7</v>
+      </c>
+      <c r="K20" s="6">
         <v>4.8</v>
       </c>
       <c r="L20" s="6">
+        <f>(J20/I20)*K20</f>
+        <v>4.8</v>
+      </c>
+      <c r="M20" s="14">
+        <v>3.55</v>
+      </c>
+      <c r="N20" s="14">
+        <f>1/20</f>
+        <v>0.05</v>
+      </c>
+      <c r="O20" s="14">
+        <v>4.7</v>
+      </c>
+      <c r="P20" s="6">
+        <f>0.7*L20+0.2*M20+0.1*O20+N20</f>
+        <v>4.59</v>
+      </c>
+      <c r="Q20" s="34">
+        <v>1.4652777777777778E-2</v>
+      </c>
+      <c r="R20" s="36">
+        <f>Q20/Q22</f>
+        <v>0.91739130434782623</v>
+      </c>
+      <c r="S20" s="37">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="T20" s="36">
         <f t="shared" si="0"/>
-        <v>4.8</v>
-      </c>
-      <c r="M20" s="14">
-        <v>3.59</v>
-      </c>
-      <c r="N20" s="14"/>
-      <c r="O20" s="14">
-        <v>4.5</v>
-      </c>
-      <c r="P20" s="6">
-        <f t="shared" si="1"/>
-        <v>4.5279999999999996</v>
-      </c>
-      <c r="Q20" s="34">
-        <v>1.6342592592592593E-2</v>
-      </c>
-      <c r="R20" s="36">
-        <f>Q20/Q20</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="3">
-        <v>1062329024</v>
+        <v>1005785832</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="D21" s="31" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E21" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="G21" s="3">
         <v>4</v>
@@ -2353,58 +2445,65 @@
         <v>3:30 PM</v>
       </c>
       <c r="I21" s="17">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J21" s="3">
-        <v>5</v>
-      </c>
-      <c r="K21" s="3">
-        <v>4.5</v>
+        <v>7</v>
+      </c>
+      <c r="K21" s="6">
+        <v>4.8</v>
       </c>
       <c r="L21" s="6">
+        <f>(J21/I21)*K21</f>
+        <v>4.8</v>
+      </c>
+      <c r="M21" s="14">
+        <v>3.55</v>
+      </c>
+      <c r="N21" s="14">
+        <f>1/20</f>
+        <v>0.05</v>
+      </c>
+      <c r="O21" s="14">
+        <v>4.7</v>
+      </c>
+      <c r="P21" s="6">
+        <f>0.7*L21+0.2*M21+0.1*O21+N21</f>
+        <v>4.59</v>
+      </c>
+      <c r="Q21" s="34">
+        <v>1.5520833333333333E-2</v>
+      </c>
+      <c r="R21" s="36">
+        <f>Q21/Q22</f>
+        <v>0.97173913043478266</v>
+      </c>
+      <c r="S21" s="37">
+        <v>0</v>
+      </c>
+      <c r="T21" s="36">
         <f t="shared" si="0"/>
-        <v>4.5</v>
-      </c>
-      <c r="M21" s="14">
-        <v>3.59</v>
-      </c>
-      <c r="N21" s="14"/>
-      <c r="O21" s="14">
-        <v>4.5</v>
-      </c>
-      <c r="P21" s="6">
-        <f t="shared" si="1"/>
-        <v>4.3179999999999996</v>
-      </c>
-      <c r="Q21" s="34">
         <v>0</v>
       </c>
-      <c r="R21" s="36">
-        <f>Q21/Q20</f>
-        <v>0</v>
-      </c>
-      <c r="S21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19">
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="3">
-        <v>1110364376</v>
+        <v>1005832925</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D22" s="31" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E22" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G22" s="3">
         <v>4</v>
@@ -2414,41 +2513,48 @@
         <v>3:30 PM</v>
       </c>
       <c r="I22" s="17">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="J22" s="3">
-        <v>3</v>
-      </c>
-      <c r="K22" s="3">
+        <v>11</v>
+      </c>
+      <c r="K22" s="6">
         <v>4.8</v>
       </c>
       <c r="L22" s="6">
+        <f>(J22/I22)*K22</f>
+        <v>4.8</v>
+      </c>
+      <c r="M22" s="14">
+        <v>3.55</v>
+      </c>
+      <c r="N22" s="14">
+        <f>5/20</f>
+        <v>0.25</v>
+      </c>
+      <c r="O22" s="14">
+        <v>4.7</v>
+      </c>
+      <c r="P22" s="6">
+        <f>0.7*L22+0.2*M22+0.1*O22+N22</f>
+        <v>4.79</v>
+      </c>
+      <c r="Q22" s="34">
+        <v>1.5972222222222221E-2</v>
+      </c>
+      <c r="R22" s="36">
+        <f>Q22/Q22</f>
+        <v>1</v>
+      </c>
+      <c r="S22" s="37">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="T22" s="36">
         <f t="shared" si="0"/>
-        <v>4.8</v>
-      </c>
-      <c r="M22" s="14">
-        <v>3.59</v>
-      </c>
-      <c r="N22" s="14">
-        <f>1/16</f>
-        <v>6.25E-2</v>
-      </c>
-      <c r="O22" s="14">
-        <v>4.5</v>
-      </c>
-      <c r="P22" s="6">
-        <f t="shared" si="1"/>
-        <v>4.5904999999999996</v>
-      </c>
-      <c r="Q22" s="34">
-        <v>1.412037037037037E-2</v>
-      </c>
-      <c r="R22" s="36">
-        <f>Q22/Q20</f>
-        <v>0.86402266288951834</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>1004189893</v>
       </c>
@@ -2458,12 +2564,25 @@
       <c r="C23" t="s">
         <v>126</v>
       </c>
+      <c r="G23" s="3"/>
       <c r="P23" s="2"/>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="G27" s="3"/>
     </row>
   </sheetData>
   <autoFilter ref="A3:R3" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:R23">
-      <sortCondition ref="G3"/>
+      <sortCondition ref="H3"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="P4:P23">

--- a/academics/DB2/2025-2/DB2 2025-2.xlsx
+++ b/academics/DB2/2025-2/DB2 2025-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\oicampo\Documents\GitHub\oicampo-uao.github.io\academics\DB2\2025-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B5341EF-78E4-4D1A-A6C9-84A40B5D9EE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35C94357-BCDA-41F6-89FD-8E70DE95A391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -695,7 +695,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -786,10 +786,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1185,7 +1181,7 @@
   <dimension ref="A1:T27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="D4" sqref="D4:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1193,10 +1189,10 @@
     <col min="1" max="1" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" customWidth="1"/>
-    <col min="4" max="4" width="29.140625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="29.140625" customWidth="1"/>
     <col min="5" max="5" width="11.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="6.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="6.140625" style="1" customWidth="1"/>
     <col min="8" max="8" width="12.85546875" customWidth="1"/>
     <col min="9" max="9" width="9.140625" style="18" customWidth="1"/>
     <col min="10" max="11" width="9.140625" style="1" customWidth="1"/>
@@ -1334,7 +1330,7 @@
         <v>4.5</v>
       </c>
       <c r="L4" s="6">
-        <f>(J4/I4)*K4</f>
+        <f t="shared" ref="L4:L22" si="0">(J4/I4)*K4</f>
         <v>2.6999999999999997</v>
       </c>
       <c r="M4" s="14">
@@ -1345,7 +1341,7 @@
         <v>3</v>
       </c>
       <c r="P4" s="6">
-        <f>0.7*L4+0.2*M4+0.1*O4+N4</f>
+        <f t="shared" ref="P4:P22" si="1">0.7*L4+0.2*M4+0.1*O4+N4</f>
         <v>2.742</v>
       </c>
       <c r="Q4" s="34">
@@ -1399,7 +1395,7 @@
         <v>4.8</v>
       </c>
       <c r="L5" s="6">
-        <f>(J5/I5)*K5</f>
+        <f t="shared" si="0"/>
         <v>4.8</v>
       </c>
       <c r="M5" s="14">
@@ -1413,7 +1409,7 @@
         <v>3</v>
       </c>
       <c r="P5" s="6">
-        <f>0.7*L5+0.2*M5+0.1*O5+N5</f>
+        <f t="shared" si="1"/>
         <v>4.2889230769230764</v>
       </c>
       <c r="Q5" s="34">
@@ -1427,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="36">
-        <f t="shared" ref="T5:T22" si="0">S5/$T$2</f>
+        <f t="shared" ref="T5:T22" si="2">S5/$T$2</f>
         <v>0</v>
       </c>
     </row>
@@ -1467,7 +1463,7 @@
         <v>4.8</v>
       </c>
       <c r="L6" s="6">
-        <f>(J6/I6)*K6</f>
+        <f t="shared" si="0"/>
         <v>4.8</v>
       </c>
       <c r="M6" s="14">
@@ -1478,7 +1474,7 @@
         <v>3</v>
       </c>
       <c r="P6" s="6">
-        <f>0.7*L6+0.2*M6+0.1*O6+N6</f>
+        <f t="shared" si="1"/>
         <v>4.2119999999999997</v>
       </c>
       <c r="Q6" s="34">
@@ -1492,7 +1488,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="T6" s="36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -1532,7 +1528,7 @@
         <v>4.8</v>
       </c>
       <c r="L7" s="6">
-        <f>(J7/I7)*K7</f>
+        <f t="shared" si="0"/>
         <v>4.8</v>
       </c>
       <c r="M7" s="14">
@@ -1543,7 +1539,7 @@
         <v>3</v>
       </c>
       <c r="P7" s="6">
-        <f>0.7*L7+0.2*M7+0.1*O7+N7</f>
+        <f t="shared" si="1"/>
         <v>4.2119999999999997</v>
       </c>
       <c r="Q7" s="34">
@@ -1557,7 +1553,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="T7" s="36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -1597,7 +1593,7 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="L8" s="6">
-        <f>(J8/I8)*K8</f>
+        <f t="shared" si="0"/>
         <v>4.9000000000000004</v>
       </c>
       <c r="M8" s="14">
@@ -1608,7 +1604,7 @@
         <v>3</v>
       </c>
       <c r="P8" s="6">
-        <f>0.7*L8+0.2*M8+0.1*O8+N8</f>
+        <f t="shared" si="1"/>
         <v>4.282</v>
       </c>
       <c r="Q8" s="34">
@@ -1622,7 +1618,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="T8" s="36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -1662,7 +1658,7 @@
         <v>4.7</v>
       </c>
       <c r="L9" s="6">
-        <f>(J9/I9)*K9</f>
+        <f t="shared" si="0"/>
         <v>4.7</v>
       </c>
       <c r="M9" s="14">
@@ -1673,7 +1669,7 @@
         <v>3.5</v>
       </c>
       <c r="P9" s="6">
-        <f>0.7*L9+0.2*M9+0.1*O9+N9</f>
+        <f t="shared" si="1"/>
         <v>4.2320000000000002</v>
       </c>
       <c r="Q9" s="34">
@@ -1687,7 +1683,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="T9" s="36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -1727,7 +1723,7 @@
         <v>4.8</v>
       </c>
       <c r="L10" s="6">
-        <f>(J10/I10)*K10</f>
+        <f t="shared" si="0"/>
         <v>4.8</v>
       </c>
       <c r="M10" s="14">
@@ -1738,7 +1734,7 @@
         <v>3.5</v>
       </c>
       <c r="P10" s="6">
-        <f>0.7*L10+0.2*M10+0.1*O10+N10</f>
+        <f t="shared" si="1"/>
         <v>4.3019999999999996</v>
       </c>
       <c r="Q10" s="34">
@@ -1752,7 +1748,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="T10" s="36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -1792,18 +1788,17 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="L11" s="6">
-        <f>(J11/I11)*K11</f>
+        <f t="shared" si="0"/>
         <v>4.5999999999999996</v>
       </c>
       <c r="M11" s="14">
         <v>2.96</v>
       </c>
-      <c r="N11" s="39"/>
       <c r="O11" s="14">
         <v>3.5</v>
       </c>
       <c r="P11" s="6">
-        <f>0.7*L11+0.2*M11+0.1*O11+N11</f>
+        <f t="shared" si="1"/>
         <v>4.1619999999999999</v>
       </c>
       <c r="Q11" s="34">
@@ -1817,7 +1812,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="T11" s="36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -1857,7 +1852,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="L12" s="6">
-        <f>(J12/I12)*K12</f>
+        <f t="shared" si="0"/>
         <v>4.5999999999999996</v>
       </c>
       <c r="M12" s="14">
@@ -1868,7 +1863,7 @@
         <v>3.5</v>
       </c>
       <c r="P12" s="6">
-        <f>0.7*L12+0.2*M12+0.1*O12+N12</f>
+        <f t="shared" si="1"/>
         <v>4.1619999999999999</v>
       </c>
       <c r="Q12" s="34">
@@ -1882,7 +1877,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="T12" s="36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -1922,7 +1917,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="L13" s="6">
-        <f>(J13/I13)*K13</f>
+        <f t="shared" si="0"/>
         <v>4.5999999999999996</v>
       </c>
       <c r="M13" s="14">
@@ -1933,7 +1928,7 @@
         <v>4.5</v>
       </c>
       <c r="P13" s="6">
-        <f>0.7*L13+0.2*M13+0.1*O13+N13</f>
+        <f t="shared" si="1"/>
         <v>4.3879999999999999</v>
       </c>
       <c r="Q13" s="34">
@@ -1947,7 +1942,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1987,7 +1982,7 @@
         <v>4.5</v>
       </c>
       <c r="L14" s="6">
-        <f>(J14/I14)*K14</f>
+        <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
       <c r="M14" s="14">
@@ -1998,7 +1993,7 @@
         <v>4.5</v>
       </c>
       <c r="P14" s="6">
-        <f>0.7*L14+0.2*M14+0.1*O14+N14</f>
+        <f t="shared" si="1"/>
         <v>4.3179999999999996</v>
       </c>
       <c r="Q14" s="34">
@@ -2012,7 +2007,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="T14" s="36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2052,7 +2047,7 @@
         <v>4.8</v>
       </c>
       <c r="L15" s="6">
-        <f>(J15/I15)*K15</f>
+        <f t="shared" si="0"/>
         <v>4.8</v>
       </c>
       <c r="M15" s="14">
@@ -2063,7 +2058,7 @@
         <v>4.5</v>
       </c>
       <c r="P15" s="6">
-        <f>0.7*L15+0.2*M15+0.1*O15+N15</f>
+        <f t="shared" si="1"/>
         <v>4.5279999999999996</v>
       </c>
       <c r="Q15" s="34">
@@ -2077,7 +2072,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="T15" s="36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2117,7 +2112,7 @@
         <v>4.5</v>
       </c>
       <c r="L16" s="6">
-        <f>(J16/I16)*K16</f>
+        <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
       <c r="M16" s="14">
@@ -2128,7 +2123,7 @@
         <v>4.5</v>
       </c>
       <c r="P16" s="6">
-        <f>0.7*L16+0.2*M16+0.1*O16+N16</f>
+        <f t="shared" si="1"/>
         <v>4.3179999999999996</v>
       </c>
       <c r="Q16" s="34">
@@ -2142,7 +2137,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="T16" s="36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2182,7 +2177,7 @@
         <v>4.8</v>
       </c>
       <c r="L17" s="6">
-        <f>(J17/I17)*K17</f>
+        <f t="shared" si="0"/>
         <v>4.8</v>
       </c>
       <c r="M17" s="14">
@@ -2196,7 +2191,7 @@
         <v>4.5</v>
       </c>
       <c r="P17" s="6">
-        <f>0.7*L17+0.2*M17+0.1*O17+N17</f>
+        <f t="shared" si="1"/>
         <v>4.5904999999999996</v>
       </c>
       <c r="Q17" s="34">
@@ -2210,7 +2205,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="T17" s="36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2230,7 +2225,7 @@
       <c r="E18" s="3">
         <v>2</v>
       </c>
-      <c r="F18" s="38" t="s">
+      <c r="F18" t="s">
         <v>78</v>
       </c>
       <c r="G18" s="3">
@@ -2250,7 +2245,7 @@
         <v>4.8</v>
       </c>
       <c r="L18" s="6">
-        <f>(J18/I18)*K18</f>
+        <f t="shared" si="0"/>
         <v>4.8</v>
       </c>
       <c r="M18" s="14">
@@ -2264,7 +2259,7 @@
         <v>4.7</v>
       </c>
       <c r="P18" s="6">
-        <f>0.7*L18+0.2*M18+0.1*O18+N18</f>
+        <f t="shared" si="1"/>
         <v>4.6900000000000004</v>
       </c>
       <c r="Q18" s="34">
@@ -2278,7 +2273,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="T18" s="36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2318,7 +2313,7 @@
         <v>4.8</v>
       </c>
       <c r="L19" s="6">
-        <f>(J19/I19)*K19</f>
+        <f t="shared" si="0"/>
         <v>4.8</v>
       </c>
       <c r="M19" s="14">
@@ -2332,7 +2327,7 @@
         <v>4.7</v>
       </c>
       <c r="P19" s="6">
-        <f>0.7*L19+0.2*M19+0.1*O19+N19</f>
+        <f t="shared" si="1"/>
         <v>4.6399999999999997</v>
       </c>
       <c r="Q19" s="34">
@@ -2346,7 +2341,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="T19" s="36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2386,7 +2381,7 @@
         <v>4.8</v>
       </c>
       <c r="L20" s="6">
-        <f>(J20/I20)*K20</f>
+        <f t="shared" si="0"/>
         <v>4.8</v>
       </c>
       <c r="M20" s="14">
@@ -2400,7 +2395,7 @@
         <v>4.7</v>
       </c>
       <c r="P20" s="6">
-        <f>0.7*L20+0.2*M20+0.1*O20+N20</f>
+        <f t="shared" si="1"/>
         <v>4.59</v>
       </c>
       <c r="Q20" s="34">
@@ -2414,7 +2409,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="T20" s="36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2454,7 +2449,7 @@
         <v>4.8</v>
       </c>
       <c r="L21" s="6">
-        <f>(J21/I21)*K21</f>
+        <f t="shared" si="0"/>
         <v>4.8</v>
       </c>
       <c r="M21" s="14">
@@ -2468,7 +2463,7 @@
         <v>4.7</v>
       </c>
       <c r="P21" s="6">
-        <f>0.7*L21+0.2*M21+0.1*O21+N21</f>
+        <f t="shared" si="1"/>
         <v>4.59</v>
       </c>
       <c r="Q21" s="34">
@@ -2482,7 +2477,7 @@
         <v>0</v>
       </c>
       <c r="T21" s="36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2522,7 +2517,7 @@
         <v>4.8</v>
       </c>
       <c r="L22" s="6">
-        <f>(J22/I22)*K22</f>
+        <f t="shared" si="0"/>
         <v>4.8</v>
       </c>
       <c r="M22" s="14">
@@ -2536,7 +2531,7 @@
         <v>4.7</v>
       </c>
       <c r="P22" s="6">
-        <f>0.7*L22+0.2*M22+0.1*O22+N22</f>
+        <f t="shared" si="1"/>
         <v>4.79</v>
       </c>
       <c r="Q22" s="34">
@@ -2550,7 +2545,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="T22" s="36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>

--- a/academics/DB2/2025-2/DB2 2025-2.xlsx
+++ b/academics/DB2/2025-2/DB2 2025-2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\oicampo\Documents\GitHub\oicampo-uao.github.io\academics\DB2\2025-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35C94357-BCDA-41F6-89FD-8E70DE95A391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{835CD220-011F-4126-B80B-4AF0F95B2512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$R$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$R$23</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="127">
   <si>
     <t>email</t>
   </si>
@@ -1178,10 +1178,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T27"/>
+  <dimension ref="A1:V27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:D22"/>
+      <selection activeCell="V24" sqref="V24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1191,20 +1191,20 @@
     <col min="3" max="3" width="18.5703125" customWidth="1"/>
     <col min="4" max="4" width="29.140625" customWidth="1"/>
     <col min="5" max="5" width="11.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="7" width="6.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="18" customWidth="1"/>
-    <col min="10" max="11" width="9.140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" customWidth="1"/>
-    <col min="13" max="15" width="9.140625" style="15" customWidth="1"/>
-    <col min="16" max="16" width="9.140625" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="6.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="18" hidden="1" customWidth="1"/>
+    <col min="10" max="11" width="9.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="13" max="15" width="9.140625" style="15" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:22">
       <c r="Q1" t="s">
         <v>124</v>
       </c>
@@ -1217,8 +1217,14 @@
       <c r="T1" s="35">
         <v>45926</v>
       </c>
-    </row>
-    <row r="2" spans="1:20">
+      <c r="U1" t="s">
+        <v>124</v>
+      </c>
+      <c r="V1" s="35">
+        <v>45933</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
       <c r="Q2" t="s">
         <v>125</v>
       </c>
@@ -1231,8 +1237,14 @@
       <c r="T2" s="37">
         <v>2.0833333333333332E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:20">
+      <c r="U2" t="s">
+        <v>125</v>
+      </c>
+      <c r="V2" s="37">
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
       <c r="A3" s="4" t="s">
         <v>119</v>
       </c>
@@ -1294,7 +1306,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:22">
       <c r="A4" s="3">
         <v>1062274189</v>
       </c>
@@ -1359,7 +1371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:22">
       <c r="A5" s="3">
         <v>1110363454</v>
       </c>
@@ -1426,8 +1438,11 @@
         <f t="shared" ref="T5:T22" si="2">S5/$T$2</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" ht="15.75">
+      <c r="V5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="15.75">
       <c r="A6" s="3">
         <v>1007603017</v>
       </c>
@@ -1492,7 +1507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:22">
       <c r="A7" s="3">
         <v>1081728000</v>
       </c>
@@ -1557,7 +1572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:22">
       <c r="A8" s="3">
         <v>1219713263</v>
       </c>
@@ -1622,7 +1637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:22">
       <c r="A9" s="3">
         <v>1025642375</v>
       </c>
@@ -1686,8 +1701,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:20">
+      <c r="V9">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
       <c r="A10" s="3">
         <v>1193073115</v>
       </c>
@@ -1752,7 +1770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:22">
       <c r="A11" s="3">
         <v>1005894053</v>
       </c>
@@ -1815,8 +1833,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:20">
+      <c r="V11">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
       <c r="A12" s="3">
         <v>1193578885</v>
       </c>
@@ -1881,7 +1902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:22">
       <c r="A13" s="3">
         <v>1005967544</v>
       </c>
@@ -1946,7 +1967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:22">
       <c r="A14" s="3">
         <v>1107836732</v>
       </c>
@@ -2011,7 +2032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:22">
       <c r="A15" s="3">
         <v>1126644560</v>
       </c>
@@ -2075,8 +2096,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:20">
+      <c r="V15">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
       <c r="A16" s="3">
         <v>1062329024</v>
       </c>
@@ -2141,7 +2165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:22">
       <c r="A17" s="3">
         <v>1110364376</v>
       </c>
@@ -2208,8 +2232,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:20">
+      <c r="V17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22">
       <c r="A18" s="3">
         <v>1005783739</v>
       </c>
@@ -2277,7 +2304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:22">
       <c r="A19" s="3">
         <v>1113698193</v>
       </c>
@@ -2345,7 +2372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:22">
       <c r="A20" s="3">
         <v>1109662163</v>
       </c>
@@ -2413,7 +2440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:22">
       <c r="A21" s="3">
         <v>1005785832</v>
       </c>
@@ -2481,7 +2508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:22">
       <c r="A22" s="3">
         <v>1005832925</v>
       </c>
@@ -2549,7 +2576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:22">
       <c r="A23" s="1">
         <v>1004189893</v>
       </c>
@@ -2562,20 +2589,20 @@
       <c r="G23" s="3"/>
       <c r="P23" s="2"/>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24" spans="1:22">
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:22">
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:22">
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:22">
       <c r="G27" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:R3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <autoFilter ref="A3:R23" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:R23">
       <sortCondition ref="H3"/>
     </sortState>

--- a/academics/DB2/2025-2/DB2 2025-2.xlsx
+++ b/academics/DB2/2025-2/DB2 2025-2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\oicampo\Documents\GitHub\oicampo-uao.github.io\academics\DB2\2025-2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\UAO\oicampo-uao.github.io\academics\DB2\2025-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{835CD220-011F-4126-B80B-4AF0F95B2512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B01D7CC-8AF0-404F-9902-BA922D9D4CB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="107">
   <si>
     <t>email</t>
   </si>
@@ -339,70 +339,10 @@
     <t>Concepto VIIE</t>
   </si>
   <si>
-    <t>Actividad</t>
-  </si>
-  <si>
-    <t>Creación del cronograma</t>
-  </si>
-  <si>
     <t>PaolaHol</t>
   </si>
   <si>
     <t>JuanDiPro1204</t>
-  </si>
-  <si>
-    <t>Identificación y análisis de la problemática</t>
-  </si>
-  <si>
-    <t>Elaboración del Estado del Arte</t>
-  </si>
-  <si>
-    <t>Identificación de oportunidades</t>
-  </si>
-  <si>
-    <t>Especificaciones de Producto</t>
-  </si>
-  <si>
-    <t>Matriz QFD</t>
-  </si>
-  <si>
-    <t>Responsable</t>
-  </si>
-  <si>
-    <t>Indagación Social</t>
-  </si>
-  <si>
-    <t>Árbol de Objetivos</t>
-  </si>
-  <si>
-    <t>Validación de requerimientos (con expertos)</t>
-  </si>
-  <si>
-    <t>Generación de Conceptos</t>
-  </si>
-  <si>
-    <t>Selección de Conceptos</t>
-  </si>
-  <si>
-    <t>Prueba de Conceptos</t>
-  </si>
-  <si>
-    <t>Arquitectura de Producto</t>
-  </si>
-  <si>
-    <t>Ana Maria Toro</t>
-  </si>
-  <si>
-    <t>Martin Romero</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Identificación de Necesidades</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juan Diego </t>
-  </si>
-  <si>
-    <t>JOHAN STEVEN</t>
   </si>
   <si>
     <t>Bonus</t>
@@ -449,7 +389,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -469,33 +409,9 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF434343"/>
-      <name val="Candara"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -520,7 +436,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -620,35 +536,7 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
       <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -670,17 +558,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFD9D9D9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -695,7 +572,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -739,43 +616,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -787,6 +636,13 @@
     </xf>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1180,11 +1036,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="V24" sqref="V24"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
@@ -1206,47 +1062,47 @@
   <sheetData>
     <row r="1" spans="1:22">
       <c r="Q1" t="s">
-        <v>124</v>
-      </c>
-      <c r="R1" s="35">
+        <v>104</v>
+      </c>
+      <c r="R1" s="25">
         <v>45912</v>
       </c>
       <c r="S1" t="s">
-        <v>124</v>
-      </c>
-      <c r="T1" s="35">
+        <v>104</v>
+      </c>
+      <c r="T1" s="25">
         <v>45926</v>
       </c>
       <c r="U1" t="s">
-        <v>124</v>
-      </c>
-      <c r="V1" s="35">
+        <v>104</v>
+      </c>
+      <c r="V1" s="25">
         <v>45933</v>
       </c>
     </row>
     <row r="2" spans="1:22">
       <c r="Q2" t="s">
-        <v>125</v>
-      </c>
-      <c r="R2" s="37">
+        <v>105</v>
+      </c>
+      <c r="R2" s="27">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="S2" t="s">
-        <v>125</v>
-      </c>
-      <c r="T2" s="37">
+        <v>105</v>
+      </c>
+      <c r="T2" s="27">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="U2" t="s">
-        <v>125</v>
-      </c>
-      <c r="V2" s="37">
+        <v>105</v>
+      </c>
+      <c r="V2" s="27">
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
     <row r="3" spans="1:22">
       <c r="A3" s="4" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>58</v>
@@ -1285,846 +1141,865 @@
         <v>91</v>
       </c>
       <c r="N3" s="13" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="O3" s="13" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="P3" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="Q3" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="R3" s="33" t="s">
-        <v>123</v>
-      </c>
-      <c r="S3" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="T3" s="33" t="s">
-        <v>123</v>
+      <c r="Q3" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="R3" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="S3" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="T3" s="23" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:22">
       <c r="A4" s="3">
-        <v>1062274189</v>
+        <v>1005967544</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="31" t="s">
-        <v>6</v>
+        <v>43</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>12</v>
       </c>
       <c r="E4" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G4" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H4" s="3" t="str" cm="1">
         <f t="array" ref="H4">_xlfn.IFS(G4=1, "2:00 PM", G4=2, "2:30 PM", G4=3, "3:00 PM", G4=4, "3:30 PM")</f>
-        <v>2:00 PM</v>
+        <v>3:00 PM</v>
       </c>
       <c r="I4" s="17">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J4" s="3">
-        <v>3</v>
-      </c>
-      <c r="K4" s="6">
-        <v>4.5</v>
+        <v>1</v>
+      </c>
+      <c r="K4" s="3">
+        <v>4.5999999999999996</v>
       </c>
       <c r="L4" s="6">
-        <f t="shared" ref="L4:L22" si="0">(J4/I4)*K4</f>
-        <v>2.6999999999999997</v>
+        <f>(J4/I4)*K4</f>
+        <v>4.5999999999999996</v>
       </c>
       <c r="M4" s="14">
-        <v>2.76</v>
+        <v>3.59</v>
       </c>
       <c r="N4" s="14"/>
       <c r="O4" s="14">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="P4" s="6">
-        <f t="shared" ref="P4:P22" si="1">0.7*L4+0.2*M4+0.1*O4+N4</f>
-        <v>2.742</v>
-      </c>
-      <c r="Q4" s="34">
-        <v>1.8506944444444444E-2</v>
-      </c>
-      <c r="R4" s="36">
-        <f>Q4/Q4</f>
-        <v>1</v>
-      </c>
-      <c r="S4" s="37">
+        <f>0.7*L4+0.2*M4+0.1*O4+N4</f>
+        <v>4.3879999999999999</v>
+      </c>
+      <c r="Q4" s="24">
+        <v>1.3935185185185186E-2</v>
+      </c>
+      <c r="R4" s="26">
+        <f>Q4/Q6</f>
+        <v>0.85269121813031168</v>
+      </c>
+      <c r="S4" s="27">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="T4" s="36">
+      <c r="T4" s="26">
         <f>S4/$T$2</f>
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:22">
       <c r="A5" s="3">
-        <v>1110363454</v>
+        <v>1107836732</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="31" t="s">
-        <v>17</v>
+      <c r="D5" s="21" t="s">
+        <v>1</v>
       </c>
       <c r="E5" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G5" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H5" s="3" t="str" cm="1">
         <f t="array" ref="H5">_xlfn.IFS(G5=1, "2:00 PM", G5=2, "2:30 PM", G5=3, "3:00 PM", G5=4, "3:30 PM")</f>
+        <v>3:00 PM</v>
+      </c>
+      <c r="I5" s="17">
+        <v>3</v>
+      </c>
+      <c r="J5" s="3">
+        <v>3</v>
+      </c>
+      <c r="K5" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="L5" s="6">
+        <f>(J5/I5)*K5</f>
+        <v>4.5</v>
+      </c>
+      <c r="M5" s="14">
+        <v>3.59</v>
+      </c>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14">
+        <v>4.5</v>
+      </c>
+      <c r="P5" s="6">
+        <f>0.7*L5+0.2*M5+0.1*O5+N5</f>
+        <v>4.3179999999999996</v>
+      </c>
+      <c r="Q5" s="24">
+        <v>1.474537037037037E-2</v>
+      </c>
+      <c r="R5" s="26">
+        <f>Q5/Q6</f>
+        <v>0.90226628895184136</v>
+      </c>
+      <c r="S5" s="27">
+        <v>0</v>
+      </c>
+      <c r="T5" s="26">
+        <f t="shared" ref="T5:T22" si="0">S5/$T$2</f>
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
+      <c r="A6" s="3">
+        <v>1126644560</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" s="3">
+        <v>3</v>
+      </c>
+      <c r="H6" s="3" t="str" cm="1">
+        <f t="array" ref="H6">_xlfn.IFS(G6=1, "2:00 PM", G6=2, "2:30 PM", G6=3, "3:00 PM", G6=4, "3:30 PM")</f>
+        <v>3:00 PM</v>
+      </c>
+      <c r="I6" s="17">
+        <v>4</v>
+      </c>
+      <c r="J6" s="3">
+        <v>4</v>
+      </c>
+      <c r="K6" s="3">
+        <v>4.8</v>
+      </c>
+      <c r="L6" s="6">
+        <f>(J6/I6)*K6</f>
+        <v>4.8</v>
+      </c>
+      <c r="M6" s="14">
+        <v>3.59</v>
+      </c>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14">
+        <v>4.5</v>
+      </c>
+      <c r="P6" s="6">
+        <f>0.7*L6+0.2*M6+0.1*O6+N6</f>
+        <v>4.5279999999999996</v>
+      </c>
+      <c r="Q6" s="24">
+        <v>1.6342592592592593E-2</v>
+      </c>
+      <c r="R6" s="26">
+        <f>Q6/Q6</f>
+        <v>1</v>
+      </c>
+      <c r="S6" s="27">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="T6" s="26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
+      <c r="A7" s="3">
+        <v>1062329024</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" s="3">
+        <v>3</v>
+      </c>
+      <c r="H7" s="3" t="str" cm="1">
+        <f t="array" ref="H7">_xlfn.IFS(G7=1, "2:00 PM", G7=2, "2:30 PM", G7=3, "3:00 PM", G7=4, "3:30 PM")</f>
+        <v>3:00 PM</v>
+      </c>
+      <c r="I7" s="17">
+        <v>5</v>
+      </c>
+      <c r="J7" s="3">
+        <v>5</v>
+      </c>
+      <c r="K7" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="L7" s="6">
+        <f>(J7/I7)*K7</f>
+        <v>4.5</v>
+      </c>
+      <c r="M7" s="14">
+        <v>3.59</v>
+      </c>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14">
+        <v>4.5</v>
+      </c>
+      <c r="P7" s="6">
+        <f>0.7*L7+0.2*M7+0.1*O7+N7</f>
+        <v>4.3179999999999996</v>
+      </c>
+      <c r="Q7" s="24">
+        <v>0</v>
+      </c>
+      <c r="R7" s="26">
+        <f>Q7/Q6</f>
+        <v>0</v>
+      </c>
+      <c r="S7" s="27">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="T7" s="26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
+      <c r="A8" s="3">
+        <v>1110364376</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8" s="3">
+        <v>3</v>
+      </c>
+      <c r="H8" s="3" t="str" cm="1">
+        <f t="array" ref="H8">_xlfn.IFS(G8=1, "2:00 PM", G8=2, "2:30 PM", G8=3, "3:00 PM", G8=4, "3:30 PM")</f>
+        <v>3:00 PM</v>
+      </c>
+      <c r="I8" s="17">
+        <v>3</v>
+      </c>
+      <c r="J8" s="3">
+        <v>3</v>
+      </c>
+      <c r="K8" s="3">
+        <v>4.8</v>
+      </c>
+      <c r="L8" s="6">
+        <f>(J8/I8)*K8</f>
+        <v>4.8</v>
+      </c>
+      <c r="M8" s="14">
+        <v>3.59</v>
+      </c>
+      <c r="N8" s="14">
+        <f>1/16</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="O8" s="14">
+        <v>4.5</v>
+      </c>
+      <c r="P8" s="6">
+        <f>0.7*L8+0.2*M8+0.1*O8+N8</f>
+        <v>4.5904999999999996</v>
+      </c>
+      <c r="Q8" s="24">
+        <v>1.412037037037037E-2</v>
+      </c>
+      <c r="R8" s="26">
+        <f>Q8/Q6</f>
+        <v>0.86402266288951834</v>
+      </c>
+      <c r="S8" s="27">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="T8" s="26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
+      <c r="A9" s="3">
+        <v>1005783739</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G9" s="3">
+        <v>4</v>
+      </c>
+      <c r="H9" s="3" t="str" cm="1">
+        <f t="array" ref="H9">_xlfn.IFS(G9=1, "2:00 PM", G9=2, "2:30 PM", G9=3, "3:00 PM", G9=4, "3:30 PM")</f>
+        <v>3:30 PM</v>
+      </c>
+      <c r="I9" s="17">
+        <v>4</v>
+      </c>
+      <c r="J9" s="3">
+        <v>4</v>
+      </c>
+      <c r="K9" s="6">
+        <v>4.8</v>
+      </c>
+      <c r="L9" s="6">
+        <f>(J9/I9)*K9</f>
+        <v>4.8</v>
+      </c>
+      <c r="M9" s="14">
+        <v>3.55</v>
+      </c>
+      <c r="N9" s="14">
+        <f>3/20</f>
+        <v>0.15</v>
+      </c>
+      <c r="O9" s="14">
+        <v>4.7</v>
+      </c>
+      <c r="P9" s="6">
+        <f>0.7*L9+0.2*M9+0.1*O9+N9</f>
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="Q9" s="24">
+        <v>1.4976851851851852E-2</v>
+      </c>
+      <c r="R9" s="26">
+        <f>Q9/Q13</f>
+        <v>0.93768115942028996</v>
+      </c>
+      <c r="S9" s="27">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="T9" s="26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="V9">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
+      <c r="A10" s="3">
+        <v>1113698193</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="3">
+        <v>2</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G10" s="3">
+        <v>4</v>
+      </c>
+      <c r="H10" s="3" t="str" cm="1">
+        <f t="array" ref="H10">_xlfn.IFS(G10=1, "2:00 PM", G10=2, "2:30 PM", G10=3, "3:00 PM", G10=4, "3:30 PM")</f>
+        <v>3:30 PM</v>
+      </c>
+      <c r="I10" s="17">
+        <v>3</v>
+      </c>
+      <c r="J10" s="3">
+        <v>3</v>
+      </c>
+      <c r="K10" s="6">
+        <v>4.8</v>
+      </c>
+      <c r="L10" s="6">
+        <f>(J10/I10)*K10</f>
+        <v>4.8</v>
+      </c>
+      <c r="M10" s="14">
+        <v>3.55</v>
+      </c>
+      <c r="N10" s="14">
+        <f>2/20</f>
+        <v>0.1</v>
+      </c>
+      <c r="O10" s="14">
+        <v>4.7</v>
+      </c>
+      <c r="P10" s="6">
+        <f>0.7*L10+0.2*M10+0.1*O10+N10</f>
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="Q10" s="24">
+        <v>1.5833333333333335E-2</v>
+      </c>
+      <c r="R10" s="26">
+        <f>Q10/Q13</f>
+        <v>0.99130434782608712</v>
+      </c>
+      <c r="S10" s="27">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="T10" s="26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
+      <c r="A11" s="3">
+        <v>1109662163</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="3">
+        <v>2</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="3">
+        <v>4</v>
+      </c>
+      <c r="H11" s="3" t="str" cm="1">
+        <f t="array" ref="H11">_xlfn.IFS(G11=1, "2:00 PM", G11=2, "2:30 PM", G11=3, "3:00 PM", G11=4, "3:30 PM")</f>
+        <v>3:30 PM</v>
+      </c>
+      <c r="I11" s="17">
+        <v>7</v>
+      </c>
+      <c r="J11" s="3">
+        <v>7</v>
+      </c>
+      <c r="K11" s="6">
+        <v>4.8</v>
+      </c>
+      <c r="L11" s="6">
+        <f>(J11/I11)*K11</f>
+        <v>4.8</v>
+      </c>
+      <c r="M11" s="14">
+        <v>3.55</v>
+      </c>
+      <c r="N11" s="29">
+        <f>1/20</f>
+        <v>0.05</v>
+      </c>
+      <c r="O11" s="14">
+        <v>4.7</v>
+      </c>
+      <c r="P11" s="6">
+        <f>0.7*L11+0.2*M11+0.1*O11+N11</f>
+        <v>4.59</v>
+      </c>
+      <c r="Q11" s="24">
+        <v>1.4652777777777778E-2</v>
+      </c>
+      <c r="R11" s="26">
+        <f>Q11/Q13</f>
+        <v>0.91739130434782623</v>
+      </c>
+      <c r="S11" s="27">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="T11" s="26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="V11">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
+      <c r="A12" s="3">
+        <v>1005785832</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="3">
+        <v>2</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" s="3">
+        <v>4</v>
+      </c>
+      <c r="H12" s="3" t="str" cm="1">
+        <f t="array" ref="H12">_xlfn.IFS(G12=1, "2:00 PM", G12=2, "2:30 PM", G12=3, "3:00 PM", G12=4, "3:30 PM")</f>
+        <v>3:30 PM</v>
+      </c>
+      <c r="I12" s="17">
+        <v>7</v>
+      </c>
+      <c r="J12" s="3">
+        <v>7</v>
+      </c>
+      <c r="K12" s="6">
+        <v>4.8</v>
+      </c>
+      <c r="L12" s="6">
+        <f>(J12/I12)*K12</f>
+        <v>4.8</v>
+      </c>
+      <c r="M12" s="14">
+        <v>3.55</v>
+      </c>
+      <c r="N12" s="14">
+        <f>1/20</f>
+        <v>0.05</v>
+      </c>
+      <c r="O12" s="14">
+        <v>4.7</v>
+      </c>
+      <c r="P12" s="6">
+        <f>0.7*L12+0.2*M12+0.1*O12+N12</f>
+        <v>4.59</v>
+      </c>
+      <c r="Q12" s="24">
+        <v>1.5520833333333333E-2</v>
+      </c>
+      <c r="R12" s="26">
+        <f>Q12/Q13</f>
+        <v>0.97173913043478266</v>
+      </c>
+      <c r="S12" s="27">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="T12" s="26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
+      <c r="A13" s="3">
+        <v>1005832925</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="3">
+        <v>2</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="3">
+        <v>4</v>
+      </c>
+      <c r="H13" s="3" t="str" cm="1">
+        <f t="array" ref="H13">_xlfn.IFS(G13=1, "2:00 PM", G13=2, "2:30 PM", G13=3, "3:00 PM", G13=4, "3:30 PM")</f>
+        <v>3:30 PM</v>
+      </c>
+      <c r="I13" s="17">
+        <v>11</v>
+      </c>
+      <c r="J13" s="3">
+        <v>11</v>
+      </c>
+      <c r="K13" s="6">
+        <v>4.8</v>
+      </c>
+      <c r="L13" s="6">
+        <f>(J13/I13)*K13</f>
+        <v>4.8</v>
+      </c>
+      <c r="M13" s="14">
+        <v>3.55</v>
+      </c>
+      <c r="N13" s="14">
+        <f>5/20</f>
+        <v>0.25</v>
+      </c>
+      <c r="O13" s="14">
+        <v>4.7</v>
+      </c>
+      <c r="P13" s="6">
+        <f>0.7*L13+0.2*M13+0.1*O13+N13</f>
+        <v>4.79</v>
+      </c>
+      <c r="Q13" s="24">
+        <v>1.5972222222222221E-2</v>
+      </c>
+      <c r="R13" s="26">
+        <f>Q13/Q13</f>
+        <v>1</v>
+      </c>
+      <c r="S13" s="27">
+        <v>0</v>
+      </c>
+      <c r="T13" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
+      <c r="A14" s="3">
+        <v>1062274189</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="3">
+        <v>3</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14" s="3">
+        <v>1</v>
+      </c>
+      <c r="H14" s="3" t="str" cm="1">
+        <f t="array" ref="H14">_xlfn.IFS(G14=1, "2:00 PM", G14=2, "2:30 PM", G14=3, "3:00 PM", G14=4, "3:30 PM")</f>
         <v>2:00 PM</v>
       </c>
-      <c r="I5" s="17">
+      <c r="I14" s="17">
+        <v>5</v>
+      </c>
+      <c r="J14" s="3">
+        <v>3</v>
+      </c>
+      <c r="K14" s="6">
+        <v>4.5</v>
+      </c>
+      <c r="L14" s="6">
+        <f>(J14/I14)*K14</f>
+        <v>2.6999999999999997</v>
+      </c>
+      <c r="M14" s="14">
+        <v>2.76</v>
+      </c>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14">
+        <v>3</v>
+      </c>
+      <c r="P14" s="6">
+        <f>0.7*L14+0.2*M14+0.1*O14+N14</f>
+        <v>2.742</v>
+      </c>
+      <c r="Q14" s="24">
+        <v>1.8506944444444444E-2</v>
+      </c>
+      <c r="R14" s="26">
+        <f>Q14/Q14</f>
+        <v>1</v>
+      </c>
+      <c r="S14" s="27">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="T14" s="26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
+      <c r="A15" s="3">
+        <v>1110363454</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="3">
+        <v>3</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G15" s="3">
+        <v>1</v>
+      </c>
+      <c r="H15" s="3" t="str" cm="1">
+        <f t="array" ref="H15">_xlfn.IFS(G15=1, "2:00 PM", G15=2, "2:30 PM", G15=3, "3:00 PM", G15=4, "3:30 PM")</f>
+        <v>2:00 PM</v>
+      </c>
+      <c r="I15" s="17">
         <v>6</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J15" s="3">
         <v>6</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K15" s="6">
         <v>4.8</v>
       </c>
-      <c r="L5" s="6">
-        <f t="shared" si="0"/>
+      <c r="L15" s="6">
+        <f>(J15/I15)*K15</f>
         <v>4.8</v>
       </c>
-      <c r="M5" s="14">
+      <c r="M15" s="14">
         <v>2.76</v>
       </c>
-      <c r="N5" s="14">
+      <c r="N15" s="14">
         <f>1/13</f>
         <v>7.6923076923076927E-2</v>
       </c>
-      <c r="O5" s="14">
-        <v>3</v>
-      </c>
-      <c r="P5" s="6">
-        <f t="shared" si="1"/>
+      <c r="O15" s="14">
+        <v>3</v>
+      </c>
+      <c r="P15" s="6">
+        <f>0.7*L15+0.2*M15+0.1*O15+N15</f>
         <v>4.2889230769230764</v>
       </c>
-      <c r="Q5" s="34">
+      <c r="Q15" s="24">
         <v>1.1863425925925927E-2</v>
       </c>
-      <c r="R5" s="36">
-        <f>Q5/Q4</f>
+      <c r="R15" s="26">
+        <f>Q15/Q14</f>
         <v>0.64102564102564108</v>
       </c>
-      <c r="S5" s="37">
-        <v>0</v>
-      </c>
-      <c r="T5" s="36">
-        <f t="shared" ref="T5:T22" si="2">S5/$T$2</f>
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" ht="15.75">
-      <c r="A6" s="3">
-        <v>1007603017</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="3">
-        <v>3</v>
-      </c>
-      <c r="F6" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="G6" s="3">
-        <v>1</v>
-      </c>
-      <c r="H6" s="3" t="str" cm="1">
-        <f t="array" ref="H6">_xlfn.IFS(G6=1, "2:00 PM", G6=2, "2:30 PM", G6=3, "3:00 PM", G6=4, "3:30 PM")</f>
-        <v>2:00 PM</v>
-      </c>
-      <c r="I6" s="17">
-        <v>5</v>
-      </c>
-      <c r="J6" s="3">
-        <v>5</v>
-      </c>
-      <c r="K6" s="6">
-        <v>4.8</v>
-      </c>
-      <c r="L6" s="6">
+      <c r="S15" s="27">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="T15" s="26">
         <f t="shared" si="0"/>
-        <v>4.8</v>
-      </c>
-      <c r="M6" s="14">
-        <v>2.76</v>
-      </c>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14">
-        <v>3</v>
-      </c>
-      <c r="P6" s="6">
-        <f t="shared" si="1"/>
-        <v>4.2119999999999997</v>
-      </c>
-      <c r="Q6" s="34">
-        <v>1.8159722222222223E-2</v>
-      </c>
-      <c r="R6" s="36">
-        <f>Q6/Q4</f>
-        <v>0.98123827392120078</v>
-      </c>
-      <c r="S6" s="37">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="T6" s="36">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22">
-      <c r="A7" s="3">
-        <v>1081728000</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="3">
-        <v>3</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G7" s="3">
-        <v>1</v>
-      </c>
-      <c r="H7" s="3" t="str" cm="1">
-        <f t="array" ref="H7">_xlfn.IFS(G7=1, "2:00 PM", G7=2, "2:30 PM", G7=3, "3:00 PM", G7=4, "3:30 PM")</f>
-        <v>2:00 PM</v>
-      </c>
-      <c r="I7" s="17">
-        <v>5</v>
-      </c>
-      <c r="J7" s="3">
-        <v>5</v>
-      </c>
-      <c r="K7" s="6">
-        <v>4.8</v>
-      </c>
-      <c r="L7" s="6">
-        <f t="shared" si="0"/>
-        <v>4.8</v>
-      </c>
-      <c r="M7" s="14">
-        <v>2.76</v>
-      </c>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14">
-        <v>3</v>
-      </c>
-      <c r="P7" s="6">
-        <f t="shared" si="1"/>
-        <v>4.2119999999999997</v>
-      </c>
-      <c r="Q7" s="34">
-        <v>9.9305555555555553E-3</v>
-      </c>
-      <c r="R7" s="36">
-        <f>Q7/Q4</f>
-        <v>0.53658536585365857</v>
-      </c>
-      <c r="S7" s="37">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="T7" s="36">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22">
-      <c r="A8" s="3">
-        <v>1219713263</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="3">
-        <v>3</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G8" s="3">
-        <v>1</v>
-      </c>
-      <c r="H8" s="3" t="str" cm="1">
-        <f t="array" ref="H8">_xlfn.IFS(G8=1, "2:00 PM", G8=2, "2:30 PM", G8=3, "3:00 PM", G8=4, "3:30 PM")</f>
-        <v>2:00 PM</v>
-      </c>
-      <c r="I8" s="17">
-        <v>6</v>
-      </c>
-      <c r="J8" s="3">
-        <v>6</v>
-      </c>
-      <c r="K8" s="6">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="L8" s="6">
-        <f t="shared" si="0"/>
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="M8" s="14">
-        <v>2.76</v>
-      </c>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14">
-        <v>3</v>
-      </c>
-      <c r="P8" s="6">
-        <f t="shared" si="1"/>
-        <v>4.282</v>
-      </c>
-      <c r="Q8" s="34">
-        <v>0</v>
-      </c>
-      <c r="R8" s="36">
-        <f>Q8/Q4</f>
-        <v>0</v>
-      </c>
-      <c r="S8" s="37">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="T8" s="36">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22">
-      <c r="A9" s="3">
-        <v>1025642375</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="3">
-        <v>4</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G9" s="3">
-        <v>2</v>
-      </c>
-      <c r="H9" s="3" t="str" cm="1">
-        <f t="array" ref="H9">_xlfn.IFS(G9=1, "2:00 PM", G9=2, "2:30 PM", G9=3, "3:00 PM", G9=4, "3:30 PM")</f>
-        <v>2:30 PM</v>
-      </c>
-      <c r="I9" s="17">
-        <v>5</v>
-      </c>
-      <c r="J9" s="3">
-        <v>5</v>
-      </c>
-      <c r="K9" s="3">
-        <v>4.7</v>
-      </c>
-      <c r="L9" s="6">
-        <f t="shared" si="0"/>
-        <v>4.7</v>
-      </c>
-      <c r="M9" s="14">
-        <v>2.96</v>
-      </c>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14">
-        <v>3.5</v>
-      </c>
-      <c r="P9" s="6">
-        <f t="shared" si="1"/>
-        <v>4.2320000000000002</v>
-      </c>
-      <c r="Q9" s="34">
-        <v>2.0243055555555556E-2</v>
-      </c>
-      <c r="R9" s="36">
-        <f>Q9/Q11</f>
-        <v>0.94848156182212573</v>
-      </c>
-      <c r="S9" s="37">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="T9" s="36">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="V9">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22">
-      <c r="A10" s="3">
-        <v>1193073115</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="3">
-        <v>4</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G10" s="3">
-        <v>2</v>
-      </c>
-      <c r="H10" s="3" t="str" cm="1">
-        <f t="array" ref="H10">_xlfn.IFS(G10=1, "2:00 PM", G10=2, "2:30 PM", G10=3, "3:00 PM", G10=4, "3:30 PM")</f>
-        <v>2:30 PM</v>
-      </c>
-      <c r="I10" s="17">
-        <v>4</v>
-      </c>
-      <c r="J10" s="3">
-        <v>4</v>
-      </c>
-      <c r="K10" s="6">
-        <v>4.8</v>
-      </c>
-      <c r="L10" s="6">
-        <f t="shared" si="0"/>
-        <v>4.8</v>
-      </c>
-      <c r="M10" s="14">
-        <v>2.96</v>
-      </c>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14">
-        <v>3.5</v>
-      </c>
-      <c r="P10" s="6">
-        <f t="shared" si="1"/>
-        <v>4.3019999999999996</v>
-      </c>
-      <c r="Q10" s="34">
-        <v>2.0532407407407409E-2</v>
-      </c>
-      <c r="R10" s="36">
-        <f>Q10/Q11</f>
-        <v>0.96203904555314534</v>
-      </c>
-      <c r="S10" s="37">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="T10" s="36">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22">
-      <c r="A11" s="3">
-        <v>1005894053</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="3">
-        <v>4</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="G11" s="3">
-        <v>2</v>
-      </c>
-      <c r="H11" s="3" t="str" cm="1">
-        <f t="array" ref="H11">_xlfn.IFS(G11=1, "2:00 PM", G11=2, "2:30 PM", G11=3, "3:00 PM", G11=4, "3:30 PM")</f>
-        <v>2:30 PM</v>
-      </c>
-      <c r="I11" s="17">
-        <v>3</v>
-      </c>
-      <c r="J11" s="3">
-        <v>3</v>
-      </c>
-      <c r="K11" s="6">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="L11" s="6">
-        <f t="shared" si="0"/>
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="M11" s="14">
-        <v>2.96</v>
-      </c>
-      <c r="O11" s="14">
-        <v>3.5</v>
-      </c>
-      <c r="P11" s="6">
-        <f t="shared" si="1"/>
-        <v>4.1619999999999999</v>
-      </c>
-      <c r="Q11" s="34">
-        <v>2.1342592592592594E-2</v>
-      </c>
-      <c r="R11" s="36">
-        <f>Q11/Q11</f>
-        <v>1</v>
-      </c>
-      <c r="S11" s="37">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="T11" s="36">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="V11">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22">
-      <c r="A12" s="3">
-        <v>1193578885</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="3">
-        <v>4</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G12" s="3">
-        <v>2</v>
-      </c>
-      <c r="H12" s="3" t="str" cm="1">
-        <f t="array" ref="H12">_xlfn.IFS(G12=1, "2:00 PM", G12=2, "2:30 PM", G12=3, "3:00 PM", G12=4, "3:30 PM")</f>
-        <v>2:30 PM</v>
-      </c>
-      <c r="I12" s="17">
-        <v>4</v>
-      </c>
-      <c r="J12" s="3">
-        <v>4</v>
-      </c>
-      <c r="K12" s="6">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="L12" s="6">
-        <f t="shared" si="0"/>
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="M12" s="14">
-        <v>2.96</v>
-      </c>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14">
-        <v>3.5</v>
-      </c>
-      <c r="P12" s="6">
-        <f t="shared" si="1"/>
-        <v>4.1619999999999999</v>
-      </c>
-      <c r="Q12" s="34">
-        <v>1.951388888888889E-2</v>
-      </c>
-      <c r="R12" s="36">
-        <f>Q12/Q11</f>
-        <v>0.91431670281995658</v>
-      </c>
-      <c r="S12" s="37">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="T12" s="36">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22">
-      <c r="A13" s="3">
-        <v>1005967544</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="3">
-        <v>1</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="3">
-        <v>3</v>
-      </c>
-      <c r="H13" s="3" t="str" cm="1">
-        <f t="array" ref="H13">_xlfn.IFS(G13=1, "2:00 PM", G13=2, "2:30 PM", G13=3, "3:00 PM", G13=4, "3:30 PM")</f>
-        <v>3:00 PM</v>
-      </c>
-      <c r="I13" s="17">
-        <v>1</v>
-      </c>
-      <c r="J13" s="3">
-        <v>1</v>
-      </c>
-      <c r="K13" s="3">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="L13" s="6">
-        <f t="shared" si="0"/>
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="M13" s="14">
-        <v>3.59</v>
-      </c>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14">
-        <v>4.5</v>
-      </c>
-      <c r="P13" s="6">
-        <f t="shared" si="1"/>
-        <v>4.3879999999999999</v>
-      </c>
-      <c r="Q13" s="34">
-        <v>1.3935185185185186E-2</v>
-      </c>
-      <c r="R13" s="36">
-        <f>Q13/Q15</f>
-        <v>0.85269121813031168</v>
-      </c>
-      <c r="S13" s="37">
-        <v>0</v>
-      </c>
-      <c r="T13" s="36">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22">
-      <c r="A14" s="3">
-        <v>1107836732</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="E14" s="3">
-        <v>1</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G14" s="3">
-        <v>3</v>
-      </c>
-      <c r="H14" s="3" t="str" cm="1">
-        <f t="array" ref="H14">_xlfn.IFS(G14=1, "2:00 PM", G14=2, "2:30 PM", G14=3, "3:00 PM", G14=4, "3:30 PM")</f>
-        <v>3:00 PM</v>
-      </c>
-      <c r="I14" s="17">
-        <v>3</v>
-      </c>
-      <c r="J14" s="3">
-        <v>3</v>
-      </c>
-      <c r="K14" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="L14" s="6">
-        <f t="shared" si="0"/>
-        <v>4.5</v>
-      </c>
-      <c r="M14" s="14">
-        <v>3.59</v>
-      </c>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14">
-        <v>4.5</v>
-      </c>
-      <c r="P14" s="6">
-        <f t="shared" si="1"/>
-        <v>4.3179999999999996</v>
-      </c>
-      <c r="Q14" s="34">
-        <v>1.474537037037037E-2</v>
-      </c>
-      <c r="R14" s="36">
-        <f>Q14/Q15</f>
-        <v>0.90226628895184136</v>
-      </c>
-      <c r="S14" s="37">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="T14" s="36">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22">
-      <c r="A15" s="3">
-        <v>1126644560</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="3">
-        <v>1</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G15" s="3">
-        <v>3</v>
-      </c>
-      <c r="H15" s="3" t="str" cm="1">
-        <f t="array" ref="H15">_xlfn.IFS(G15=1, "2:00 PM", G15=2, "2:30 PM", G15=3, "3:00 PM", G15=4, "3:30 PM")</f>
-        <v>3:00 PM</v>
-      </c>
-      <c r="I15" s="17">
-        <v>4</v>
-      </c>
-      <c r="J15" s="3">
-        <v>4</v>
-      </c>
-      <c r="K15" s="3">
-        <v>4.8</v>
-      </c>
-      <c r="L15" s="6">
-        <f t="shared" si="0"/>
-        <v>4.8</v>
-      </c>
-      <c r="M15" s="14">
-        <v>3.59</v>
-      </c>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14">
-        <v>4.5</v>
-      </c>
-      <c r="P15" s="6">
-        <f t="shared" si="1"/>
-        <v>4.5279999999999996</v>
-      </c>
-      <c r="Q15" s="34">
-        <v>1.6342592592592593E-2</v>
-      </c>
-      <c r="R15" s="36">
-        <f>Q15/Q15</f>
-        <v>1</v>
-      </c>
-      <c r="S15" s="37">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="T15" s="36">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="V15">
         <v>0.8</v>
       </c>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:22" ht="15.75">
       <c r="A16" s="3">
-        <v>1062329024</v>
+        <v>1007603017</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="31" t="s">
-        <v>10</v>
+        <v>37</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>9</v>
       </c>
       <c r="E16" s="3">
-        <v>1</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>70</v>
+        <v>3</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>79</v>
       </c>
       <c r="G16" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H16" s="3" t="str" cm="1">
         <f t="array" ref="H16">_xlfn.IFS(G16=1, "2:00 PM", G16=2, "2:30 PM", G16=3, "3:00 PM", G16=4, "3:30 PM")</f>
-        <v>3:00 PM</v>
+        <v>2:00 PM</v>
       </c>
       <c r="I16" s="17">
         <v>5</v>
@@ -2132,104 +2007,101 @@
       <c r="J16" s="3">
         <v>5</v>
       </c>
-      <c r="K16" s="3">
-        <v>4.5</v>
+      <c r="K16" s="6">
+        <v>4.8</v>
       </c>
       <c r="L16" s="6">
-        <f t="shared" si="0"/>
-        <v>4.5</v>
+        <f>(J16/I16)*K16</f>
+        <v>4.8</v>
       </c>
       <c r="M16" s="14">
-        <v>3.59</v>
+        <v>2.76</v>
       </c>
       <c r="N16" s="14"/>
       <c r="O16" s="14">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="P16" s="6">
-        <f t="shared" si="1"/>
-        <v>4.3179999999999996</v>
-      </c>
-      <c r="Q16" s="34">
-        <v>0</v>
-      </c>
-      <c r="R16" s="36">
-        <f>Q16/Q15</f>
-        <v>0</v>
-      </c>
-      <c r="S16" s="37">
+        <f>0.7*L16+0.2*M16+0.1*O16+N16</f>
+        <v>4.2119999999999997</v>
+      </c>
+      <c r="Q16" s="24">
+        <v>1.8159722222222223E-2</v>
+      </c>
+      <c r="R16" s="26">
+        <f>Q16/Q14</f>
+        <v>0.98123827392120078</v>
+      </c>
+      <c r="S16" s="27">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="T16" s="36">
-        <f t="shared" si="2"/>
+      <c r="T16" s="26">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:22">
       <c r="A17" s="3">
-        <v>1110364376</v>
+        <v>1081728000</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="31" t="s">
-        <v>3</v>
+        <v>29</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>5</v>
       </c>
       <c r="E17" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="G17" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H17" s="3" t="str" cm="1">
         <f t="array" ref="H17">_xlfn.IFS(G17=1, "2:00 PM", G17=2, "2:30 PM", G17=3, "3:00 PM", G17=4, "3:30 PM")</f>
-        <v>3:00 PM</v>
+        <v>2:00 PM</v>
       </c>
       <c r="I17" s="17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J17" s="3">
-        <v>3</v>
-      </c>
-      <c r="K17" s="3">
+        <v>5</v>
+      </c>
+      <c r="K17" s="6">
         <v>4.8</v>
       </c>
       <c r="L17" s="6">
+        <f>(J17/I17)*K17</f>
+        <v>4.8</v>
+      </c>
+      <c r="M17" s="14">
+        <v>2.76</v>
+      </c>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14">
+        <v>3</v>
+      </c>
+      <c r="P17" s="6">
+        <f>0.7*L17+0.2*M17+0.1*O17+N17</f>
+        <v>4.2119999999999997</v>
+      </c>
+      <c r="Q17" s="24">
+        <v>9.9305555555555553E-3</v>
+      </c>
+      <c r="R17" s="26">
+        <f>Q17/Q14</f>
+        <v>0.53658536585365857</v>
+      </c>
+      <c r="S17" s="27">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="T17" s="26">
         <f t="shared" si="0"/>
-        <v>4.8</v>
-      </c>
-      <c r="M17" s="14">
-        <v>3.59</v>
-      </c>
-      <c r="N17" s="14">
-        <f>1/16</f>
-        <v>6.25E-2</v>
-      </c>
-      <c r="O17" s="14">
-        <v>4.5</v>
-      </c>
-      <c r="P17" s="6">
-        <f t="shared" si="1"/>
-        <v>4.5904999999999996</v>
-      </c>
-      <c r="Q17" s="34">
-        <v>1.412037037037037E-2</v>
-      </c>
-      <c r="R17" s="36">
-        <f>Q17/Q15</f>
-        <v>0.86402266288951834</v>
-      </c>
-      <c r="S17" s="37">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="T17" s="36">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="V17">
@@ -2238,341 +2110,326 @@
     </row>
     <row r="18" spans="1:22">
       <c r="A18" s="3">
-        <v>1005783739</v>
+        <v>1219713263</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="31" t="s">
-        <v>8</v>
+        <v>47</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>14</v>
       </c>
       <c r="E18" s="3">
-        <v>2</v>
-      </c>
-      <c r="F18" t="s">
-        <v>78</v>
+        <v>3</v>
+      </c>
+      <c r="F18" s="28" t="s">
+        <v>74</v>
       </c>
       <c r="G18" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H18" s="3" t="str" cm="1">
         <f t="array" ref="H18">_xlfn.IFS(G18=1, "2:00 PM", G18=2, "2:30 PM", G18=3, "3:00 PM", G18=4, "3:30 PM")</f>
-        <v>3:30 PM</v>
+        <v>2:00 PM</v>
       </c>
       <c r="I18" s="17">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J18" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K18" s="6">
-        <v>4.8</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="L18" s="6">
+        <f>(J18/I18)*K18</f>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="M18" s="14">
+        <v>2.76</v>
+      </c>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14">
+        <v>3</v>
+      </c>
+      <c r="P18" s="6">
+        <f>0.7*L18+0.2*M18+0.1*O18+N18</f>
+        <v>4.282</v>
+      </c>
+      <c r="Q18" s="24">
+        <v>0</v>
+      </c>
+      <c r="R18" s="26">
+        <f>Q18/Q14</f>
+        <v>0</v>
+      </c>
+      <c r="S18" s="27">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="T18" s="26">
         <f t="shared" si="0"/>
-        <v>4.8</v>
-      </c>
-      <c r="M18" s="14">
-        <v>3.55</v>
-      </c>
-      <c r="N18" s="14">
-        <f>3/20</f>
-        <v>0.15</v>
-      </c>
-      <c r="O18" s="14">
-        <v>4.7</v>
-      </c>
-      <c r="P18" s="6">
-        <f t="shared" si="1"/>
-        <v>4.6900000000000004</v>
-      </c>
-      <c r="Q18" s="34">
-        <v>1.4976851851851852E-2</v>
-      </c>
-      <c r="R18" s="36">
-        <f>Q18/Q22</f>
-        <v>0.93768115942028996</v>
-      </c>
-      <c r="S18" s="37">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="T18" s="36">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:22">
       <c r="A19" s="3">
-        <v>1113698193</v>
+        <v>1025642375</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="31" t="s">
-        <v>11</v>
+        <v>51</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>16</v>
       </c>
       <c r="E19" s="3">
+        <v>4</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G19" s="3">
         <v>2</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G19" s="3">
-        <v>4</v>
       </c>
       <c r="H19" s="3" t="str" cm="1">
         <f t="array" ref="H19">_xlfn.IFS(G19=1, "2:00 PM", G19=2, "2:30 PM", G19=3, "3:00 PM", G19=4, "3:30 PM")</f>
-        <v>3:30 PM</v>
+        <v>2:30 PM</v>
       </c>
       <c r="I19" s="17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J19" s="3">
-        <v>3</v>
-      </c>
-      <c r="K19" s="6">
-        <v>4.8</v>
+        <v>5</v>
+      </c>
+      <c r="K19" s="3">
+        <v>4.7</v>
       </c>
       <c r="L19" s="6">
+        <f>(J19/I19)*K19</f>
+        <v>4.7</v>
+      </c>
+      <c r="M19" s="14">
+        <v>2.96</v>
+      </c>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14">
+        <v>3.5</v>
+      </c>
+      <c r="P19" s="6">
+        <f>0.7*L19+0.2*M19+0.1*O19+N19</f>
+        <v>4.2320000000000002</v>
+      </c>
+      <c r="Q19" s="24">
+        <v>2.0243055555555556E-2</v>
+      </c>
+      <c r="R19" s="26">
+        <f>Q19/Q21</f>
+        <v>0.94848156182212573</v>
+      </c>
+      <c r="S19" s="27">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="T19" s="26">
         <f t="shared" si="0"/>
-        <v>4.8</v>
-      </c>
-      <c r="M19" s="14">
-        <v>3.55</v>
-      </c>
-      <c r="N19" s="14">
-        <f>2/20</f>
-        <v>0.1</v>
-      </c>
-      <c r="O19" s="14">
-        <v>4.7</v>
-      </c>
-      <c r="P19" s="6">
-        <f t="shared" si="1"/>
-        <v>4.6399999999999997</v>
-      </c>
-      <c r="Q19" s="34">
-        <v>1.5833333333333335E-2</v>
-      </c>
-      <c r="R19" s="36">
-        <f>Q19/Q22</f>
-        <v>0.99130434782608712</v>
-      </c>
-      <c r="S19" s="37">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="T19" s="36">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:22">
       <c r="A20" s="3">
-        <v>1109662163</v>
+        <v>1193073115</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D20" s="31" t="s">
-        <v>18</v>
+        <v>33</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>7</v>
       </c>
       <c r="E20" s="3">
+        <v>4</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G20" s="3">
         <v>2</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="G20" s="3">
-        <v>4</v>
       </c>
       <c r="H20" s="3" t="str" cm="1">
         <f t="array" ref="H20">_xlfn.IFS(G20=1, "2:00 PM", G20=2, "2:30 PM", G20=3, "3:00 PM", G20=4, "3:30 PM")</f>
-        <v>3:30 PM</v>
+        <v>2:30 PM</v>
       </c>
       <c r="I20" s="17">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J20" s="3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K20" s="6">
         <v>4.8</v>
       </c>
       <c r="L20" s="6">
+        <f>(J20/I20)*K20</f>
+        <v>4.8</v>
+      </c>
+      <c r="M20" s="14">
+        <v>2.96</v>
+      </c>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14">
+        <v>3.5</v>
+      </c>
+      <c r="P20" s="6">
+        <f>0.7*L20+0.2*M20+0.1*O20+N20</f>
+        <v>4.3019999999999996</v>
+      </c>
+      <c r="Q20" s="24">
+        <v>2.0532407407407409E-2</v>
+      </c>
+      <c r="R20" s="26">
+        <f>Q20/Q21</f>
+        <v>0.96203904555314534</v>
+      </c>
+      <c r="S20" s="27">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="T20" s="26">
         <f t="shared" si="0"/>
-        <v>4.8</v>
-      </c>
-      <c r="M20" s="14">
-        <v>3.55</v>
-      </c>
-      <c r="N20" s="14">
-        <f>1/20</f>
-        <v>0.05</v>
-      </c>
-      <c r="O20" s="14">
-        <v>4.7</v>
-      </c>
-      <c r="P20" s="6">
-        <f t="shared" si="1"/>
-        <v>4.59</v>
-      </c>
-      <c r="Q20" s="34">
-        <v>1.4652777777777778E-2</v>
-      </c>
-      <c r="R20" s="36">
-        <f>Q20/Q22</f>
-        <v>0.91739130434782623</v>
-      </c>
-      <c r="S20" s="37">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="T20" s="36">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:22">
       <c r="A21" s="3">
-        <v>1005785832</v>
+        <v>1005894053</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="3">
+        <v>4</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G21" s="3">
         <v>2</v>
-      </c>
-      <c r="E21" s="3">
-        <v>2</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G21" s="3">
-        <v>4</v>
       </c>
       <c r="H21" s="3" t="str" cm="1">
         <f t="array" ref="H21">_xlfn.IFS(G21=1, "2:00 PM", G21=2, "2:30 PM", G21=3, "3:00 PM", G21=4, "3:30 PM")</f>
-        <v>3:30 PM</v>
+        <v>2:30 PM</v>
       </c>
       <c r="I21" s="17">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J21" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K21" s="6">
-        <v>4.8</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="L21" s="6">
+        <f>(J21/I21)*K21</f>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="M21" s="14">
+        <v>2.96</v>
+      </c>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14">
+        <v>3.5</v>
+      </c>
+      <c r="P21" s="6">
+        <f>0.7*L21+0.2*M21+0.1*O21+N21</f>
+        <v>4.1619999999999999</v>
+      </c>
+      <c r="Q21" s="24">
+        <v>2.1342592592592594E-2</v>
+      </c>
+      <c r="R21" s="26">
+        <f>Q21/Q21</f>
+        <v>1</v>
+      </c>
+      <c r="S21" s="27">
+        <v>0</v>
+      </c>
+      <c r="T21" s="26">
         <f t="shared" si="0"/>
-        <v>4.8</v>
-      </c>
-      <c r="M21" s="14">
-        <v>3.55</v>
-      </c>
-      <c r="N21" s="14">
-        <f>1/20</f>
-        <v>0.05</v>
-      </c>
-      <c r="O21" s="14">
-        <v>4.7</v>
-      </c>
-      <c r="P21" s="6">
-        <f t="shared" si="1"/>
-        <v>4.59</v>
-      </c>
-      <c r="Q21" s="34">
-        <v>1.5520833333333333E-2</v>
-      </c>
-      <c r="R21" s="36">
-        <f>Q21/Q22</f>
-        <v>0.97173913043478266</v>
-      </c>
-      <c r="S21" s="37">
-        <v>0</v>
-      </c>
-      <c r="T21" s="36">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:22">
       <c r="A22" s="3">
-        <v>1005832925</v>
+        <v>1193578885</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" s="31" t="s">
-        <v>13</v>
+        <v>49</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>15</v>
       </c>
       <c r="E22" s="3">
+        <v>4</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G22" s="3">
         <v>2</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G22" s="3">
-        <v>4</v>
       </c>
       <c r="H22" s="3" t="str" cm="1">
         <f t="array" ref="H22">_xlfn.IFS(G22=1, "2:00 PM", G22=2, "2:30 PM", G22=3, "3:00 PM", G22=4, "3:30 PM")</f>
-        <v>3:30 PM</v>
+        <v>2:30 PM</v>
       </c>
       <c r="I22" s="17">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="J22" s="3">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="K22" s="6">
-        <v>4.8</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="L22" s="6">
+        <f>(J22/I22)*K22</f>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="M22" s="14">
+        <v>2.96</v>
+      </c>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14">
+        <v>3.5</v>
+      </c>
+      <c r="P22" s="6">
+        <f>0.7*L22+0.2*M22+0.1*O22+N22</f>
+        <v>4.1619999999999999</v>
+      </c>
+      <c r="Q22" s="24">
+        <v>1.951388888888889E-2</v>
+      </c>
+      <c r="R22" s="26">
+        <f>Q22/Q21</f>
+        <v>0.91431670281995658</v>
+      </c>
+      <c r="S22" s="27">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="T22" s="26">
         <f t="shared" si="0"/>
-        <v>4.8</v>
-      </c>
-      <c r="M22" s="14">
-        <v>3.55</v>
-      </c>
-      <c r="N22" s="14">
-        <f>5/20</f>
-        <v>0.25</v>
-      </c>
-      <c r="O22" s="14">
-        <v>4.7</v>
-      </c>
-      <c r="P22" s="6">
-        <f t="shared" si="1"/>
-        <v>4.79</v>
-      </c>
-      <c r="Q22" s="34">
-        <v>1.5972222222222221E-2</v>
-      </c>
-      <c r="R22" s="36">
-        <f>Q22/Q22</f>
-        <v>1</v>
-      </c>
-      <c r="S22" s="37">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="T22" s="36">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2581,10 +2438,10 @@
         <v>1004189893</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="C23" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="G23" s="3"/>
       <c r="P23" s="2"/>
@@ -2604,7 +2461,7 @@
   </sheetData>
   <autoFilter ref="A3:R23" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:R23">
-      <sortCondition ref="H3"/>
+      <sortCondition ref="E3:E23"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="P4:P23">
@@ -2632,7 +2489,7 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="66.28515625" bestFit="1" customWidth="1"/>
@@ -2688,18 +2545,18 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="9" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="9" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2707,7 +2564,7 @@
         <v>84</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2722,167 +2579,233 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A445EDF0-1065-44CF-B64B-B0D7D9C19102}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="58.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="58.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="33.140625" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>102</v>
+      <c r="A1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="B2" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="C2" s="28"/>
+      <c r="A2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="B3" s="29" t="s">
-        <v>110</v>
+      <c r="A3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="B4" s="29" t="s">
-        <v>111</v>
+      <c r="A4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="B5" s="29" t="s">
-        <v>114</v>
+      <c r="A5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="B6" s="29" t="s">
-        <v>110</v>
+      <c r="A6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="B7" s="29" t="s">
-        <v>110</v>
+      <c r="A7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="B8" s="29" t="s">
-        <v>110</v>
+      <c r="A8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="B9" s="29" t="s">
-        <v>111</v>
+      <c r="A9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="B10" s="29" t="s">
-        <v>111</v>
+      <c r="A10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="B11" s="29" t="s">
-        <v>111</v>
+      <c r="A11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="B12" s="29" t="s">
-        <v>114</v>
+      <c r="A12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="B13" s="29" t="s">
-        <v>114</v>
+      <c r="A13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="30" t="s">
-        <v>106</v>
-      </c>
-      <c r="B14" s="29" t="s">
-        <v>114</v>
+      <c r="A14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="B15" s="30" t="s">
-        <v>113</v>
+      <c r="A15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="B16" s="30" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="B17" s="30" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="19"/>
-      <c r="B18" s="20"/>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="21"/>
-      <c r="B19" s="20"/>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="22"/>
-      <c r="B20" s="23"/>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="24"/>
-      <c r="B21" s="25"/>
+      <c r="A16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="19"/>
+      <c r="B20" s="30"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="20"/>
+      <c r="B21" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/academics/DB2/2025-2/DB2 2025-2.xlsx
+++ b/academics/DB2/2025-2/DB2 2025-2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\UAO\oicampo-uao.github.io\academics\DB2\2025-2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\oicampo\Documents\GitHub\oicampo-uao.github.io\academics\DB2\2025-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B01D7CC-8AF0-404F-9902-BA922D9D4CB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F05D54D7-8CC3-4348-A194-C4B83A544AF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -572,7 +572,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -637,11 +637,7 @@
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1036,11 +1032,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V27"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:E22"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
@@ -1198,7 +1194,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="L4" s="6">
-        <f>(J4/I4)*K4</f>
+        <f t="shared" ref="L4:L22" si="0">(J4/I4)*K4</f>
         <v>4.5999999999999996</v>
       </c>
       <c r="M4" s="14">
@@ -1209,7 +1205,7 @@
         <v>4.5</v>
       </c>
       <c r="P4" s="6">
-        <f>0.7*L4+0.2*M4+0.1*O4+N4</f>
+        <f t="shared" ref="P4:P22" si="1">0.7*L4+0.2*M4+0.1*O4+N4</f>
         <v>4.3879999999999999</v>
       </c>
       <c r="Q4" s="24">
@@ -1263,7 +1259,7 @@
         <v>4.5</v>
       </c>
       <c r="L5" s="6">
-        <f>(J5/I5)*K5</f>
+        <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
       <c r="M5" s="14">
@@ -1274,7 +1270,7 @@
         <v>4.5</v>
       </c>
       <c r="P5" s="6">
-        <f>0.7*L5+0.2*M5+0.1*O5+N5</f>
+        <f t="shared" si="1"/>
         <v>4.3179999999999996</v>
       </c>
       <c r="Q5" s="24">
@@ -1288,7 +1284,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="26">
-        <f t="shared" ref="T5:T22" si="0">S5/$T$2</f>
+        <f t="shared" ref="T5:T22" si="2">S5/$T$2</f>
         <v>0</v>
       </c>
       <c r="V5">
@@ -1331,7 +1327,7 @@
         <v>4.8</v>
       </c>
       <c r="L6" s="6">
-        <f>(J6/I6)*K6</f>
+        <f t="shared" si="0"/>
         <v>4.8</v>
       </c>
       <c r="M6" s="14">
@@ -1342,7 +1338,7 @@
         <v>4.5</v>
       </c>
       <c r="P6" s="6">
-        <f>0.7*L6+0.2*M6+0.1*O6+N6</f>
+        <f t="shared" si="1"/>
         <v>4.5279999999999996</v>
       </c>
       <c r="Q6" s="24">
@@ -1356,7 +1352,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="T6" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -1396,7 +1392,7 @@
         <v>4.5</v>
       </c>
       <c r="L7" s="6">
-        <f>(J7/I7)*K7</f>
+        <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
       <c r="M7" s="14">
@@ -1407,7 +1403,7 @@
         <v>4.5</v>
       </c>
       <c r="P7" s="6">
-        <f>0.7*L7+0.2*M7+0.1*O7+N7</f>
+        <f t="shared" si="1"/>
         <v>4.3179999999999996</v>
       </c>
       <c r="Q7" s="24">
@@ -1421,7 +1417,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="T7" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -1461,7 +1457,7 @@
         <v>4.8</v>
       </c>
       <c r="L8" s="6">
-        <f>(J8/I8)*K8</f>
+        <f t="shared" si="0"/>
         <v>4.8</v>
       </c>
       <c r="M8" s="14">
@@ -1475,7 +1471,7 @@
         <v>4.5</v>
       </c>
       <c r="P8" s="6">
-        <f>0.7*L8+0.2*M8+0.1*O8+N8</f>
+        <f t="shared" si="1"/>
         <v>4.5904999999999996</v>
       </c>
       <c r="Q8" s="24">
@@ -1489,7 +1485,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="T8" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -1529,7 +1525,7 @@
         <v>4.8</v>
       </c>
       <c r="L9" s="6">
-        <f>(J9/I9)*K9</f>
+        <f t="shared" si="0"/>
         <v>4.8</v>
       </c>
       <c r="M9" s="14">
@@ -1543,7 +1539,7 @@
         <v>4.7</v>
       </c>
       <c r="P9" s="6">
-        <f>0.7*L9+0.2*M9+0.1*O9+N9</f>
+        <f t="shared" si="1"/>
         <v>4.6900000000000004</v>
       </c>
       <c r="Q9" s="24">
@@ -1557,7 +1553,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="T9" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="V9">
@@ -1600,7 +1596,7 @@
         <v>4.8</v>
       </c>
       <c r="L10" s="6">
-        <f>(J10/I10)*K10</f>
+        <f t="shared" si="0"/>
         <v>4.8</v>
       </c>
       <c r="M10" s="14">
@@ -1614,7 +1610,7 @@
         <v>4.7</v>
       </c>
       <c r="P10" s="6">
-        <f>0.7*L10+0.2*M10+0.1*O10+N10</f>
+        <f t="shared" si="1"/>
         <v>4.6399999999999997</v>
       </c>
       <c r="Q10" s="24">
@@ -1628,7 +1624,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="T10" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -1668,13 +1664,13 @@
         <v>4.8</v>
       </c>
       <c r="L11" s="6">
-        <f>(J11/I11)*K11</f>
+        <f t="shared" si="0"/>
         <v>4.8</v>
       </c>
       <c r="M11" s="14">
         <v>3.55</v>
       </c>
-      <c r="N11" s="29">
+      <c r="N11" s="15">
         <f>1/20</f>
         <v>0.05</v>
       </c>
@@ -1682,7 +1678,7 @@
         <v>4.7</v>
       </c>
       <c r="P11" s="6">
-        <f>0.7*L11+0.2*M11+0.1*O11+N11</f>
+        <f t="shared" si="1"/>
         <v>4.59</v>
       </c>
       <c r="Q11" s="24">
@@ -1696,7 +1692,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="T11" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="V11">
@@ -1739,7 +1735,7 @@
         <v>4.8</v>
       </c>
       <c r="L12" s="6">
-        <f>(J12/I12)*K12</f>
+        <f t="shared" si="0"/>
         <v>4.8</v>
       </c>
       <c r="M12" s="14">
@@ -1753,7 +1749,7 @@
         <v>4.7</v>
       </c>
       <c r="P12" s="6">
-        <f>0.7*L12+0.2*M12+0.1*O12+N12</f>
+        <f t="shared" si="1"/>
         <v>4.59</v>
       </c>
       <c r="Q12" s="24">
@@ -1767,7 +1763,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="T12" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -1807,7 +1803,7 @@
         <v>4.8</v>
       </c>
       <c r="L13" s="6">
-        <f>(J13/I13)*K13</f>
+        <f t="shared" si="0"/>
         <v>4.8</v>
       </c>
       <c r="M13" s="14">
@@ -1821,7 +1817,7 @@
         <v>4.7</v>
       </c>
       <c r="P13" s="6">
-        <f>0.7*L13+0.2*M13+0.1*O13+N13</f>
+        <f t="shared" si="1"/>
         <v>4.79</v>
       </c>
       <c r="Q13" s="24">
@@ -1835,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1875,7 +1871,7 @@
         <v>4.5</v>
       </c>
       <c r="L14" s="6">
-        <f>(J14/I14)*K14</f>
+        <f t="shared" si="0"/>
         <v>2.6999999999999997</v>
       </c>
       <c r="M14" s="14">
@@ -1886,7 +1882,7 @@
         <v>3</v>
       </c>
       <c r="P14" s="6">
-        <f>0.7*L14+0.2*M14+0.1*O14+N14</f>
+        <f t="shared" si="1"/>
         <v>2.742</v>
       </c>
       <c r="Q14" s="24">
@@ -1900,7 +1896,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="T14" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -1940,7 +1936,7 @@
         <v>4.8</v>
       </c>
       <c r="L15" s="6">
-        <f>(J15/I15)*K15</f>
+        <f t="shared" si="0"/>
         <v>4.8</v>
       </c>
       <c r="M15" s="14">
@@ -1954,7 +1950,7 @@
         <v>3</v>
       </c>
       <c r="P15" s="6">
-        <f>0.7*L15+0.2*M15+0.1*O15+N15</f>
+        <f t="shared" si="1"/>
         <v>4.2889230769230764</v>
       </c>
       <c r="Q15" s="24">
@@ -1968,7 +1964,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="T15" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="V15">
@@ -2011,7 +2007,7 @@
         <v>4.8</v>
       </c>
       <c r="L16" s="6">
-        <f>(J16/I16)*K16</f>
+        <f t="shared" si="0"/>
         <v>4.8</v>
       </c>
       <c r="M16" s="14">
@@ -2022,7 +2018,7 @@
         <v>3</v>
       </c>
       <c r="P16" s="6">
-        <f>0.7*L16+0.2*M16+0.1*O16+N16</f>
+        <f t="shared" si="1"/>
         <v>4.2119999999999997</v>
       </c>
       <c r="Q16" s="24">
@@ -2036,7 +2032,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="T16" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2076,7 +2072,7 @@
         <v>4.8</v>
       </c>
       <c r="L17" s="6">
-        <f>(J17/I17)*K17</f>
+        <f t="shared" si="0"/>
         <v>4.8</v>
       </c>
       <c r="M17" s="14">
@@ -2087,7 +2083,7 @@
         <v>3</v>
       </c>
       <c r="P17" s="6">
-        <f>0.7*L17+0.2*M17+0.1*O17+N17</f>
+        <f t="shared" si="1"/>
         <v>4.2119999999999997</v>
       </c>
       <c r="Q17" s="24">
@@ -2101,7 +2097,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="T17" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="V17">
@@ -2124,7 +2120,7 @@
       <c r="E18" s="3">
         <v>3</v>
       </c>
-      <c r="F18" s="28" t="s">
+      <c r="F18" t="s">
         <v>74</v>
       </c>
       <c r="G18" s="3">
@@ -2144,7 +2140,7 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="L18" s="6">
-        <f>(J18/I18)*K18</f>
+        <f t="shared" si="0"/>
         <v>4.9000000000000004</v>
       </c>
       <c r="M18" s="14">
@@ -2155,7 +2151,7 @@
         <v>3</v>
       </c>
       <c r="P18" s="6">
-        <f>0.7*L18+0.2*M18+0.1*O18+N18</f>
+        <f t="shared" si="1"/>
         <v>4.282</v>
       </c>
       <c r="Q18" s="24">
@@ -2169,7 +2165,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="T18" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2209,7 +2205,7 @@
         <v>4.7</v>
       </c>
       <c r="L19" s="6">
-        <f>(J19/I19)*K19</f>
+        <f t="shared" si="0"/>
         <v>4.7</v>
       </c>
       <c r="M19" s="14">
@@ -2220,7 +2216,7 @@
         <v>3.5</v>
       </c>
       <c r="P19" s="6">
-        <f>0.7*L19+0.2*M19+0.1*O19+N19</f>
+        <f t="shared" si="1"/>
         <v>4.2320000000000002</v>
       </c>
       <c r="Q19" s="24">
@@ -2234,7 +2230,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="T19" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2274,7 +2270,7 @@
         <v>4.8</v>
       </c>
       <c r="L20" s="6">
-        <f>(J20/I20)*K20</f>
+        <f t="shared" si="0"/>
         <v>4.8</v>
       </c>
       <c r="M20" s="14">
@@ -2285,7 +2281,7 @@
         <v>3.5</v>
       </c>
       <c r="P20" s="6">
-        <f>0.7*L20+0.2*M20+0.1*O20+N20</f>
+        <f t="shared" si="1"/>
         <v>4.3019999999999996</v>
       </c>
       <c r="Q20" s="24">
@@ -2299,7 +2295,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="T20" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2339,7 +2335,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="L21" s="6">
-        <f>(J21/I21)*K21</f>
+        <f t="shared" si="0"/>
         <v>4.5999999999999996</v>
       </c>
       <c r="M21" s="14">
@@ -2350,7 +2346,7 @@
         <v>3.5</v>
       </c>
       <c r="P21" s="6">
-        <f>0.7*L21+0.2*M21+0.1*O21+N21</f>
+        <f t="shared" si="1"/>
         <v>4.1619999999999999</v>
       </c>
       <c r="Q21" s="24">
@@ -2364,7 +2360,7 @@
         <v>0</v>
       </c>
       <c r="T21" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2404,7 +2400,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="L22" s="6">
-        <f>(J22/I22)*K22</f>
+        <f t="shared" si="0"/>
         <v>4.5999999999999996</v>
       </c>
       <c r="M22" s="14">
@@ -2415,7 +2411,7 @@
         <v>3.5</v>
       </c>
       <c r="P22" s="6">
-        <f>0.7*L22+0.2*M22+0.1*O22+N22</f>
+        <f t="shared" si="1"/>
         <v>4.1619999999999999</v>
       </c>
       <c r="Q22" s="24">
@@ -2429,7 +2425,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="T22" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2489,7 +2485,7 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="66.28515625" bestFit="1" customWidth="1"/>
@@ -2579,11 +2575,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A445EDF0-1065-44CF-B64B-B0D7D9C19102}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="58.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="58.5703125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
@@ -2801,11 +2797,11 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="19"/>
-      <c r="B20" s="30"/>
+      <c r="B20" s="28"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="20"/>
-      <c r="B21" s="30"/>
+      <c r="B21" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/academics/DB2/2025-2/DB2 2025-2.xlsx
+++ b/academics/DB2/2025-2/DB2 2025-2.xlsx
@@ -8,17 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\oicampo\Documents\GitHub\oicampo-uao.github.io\academics\DB2\2025-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F05D54D7-8CC3-4348-A194-C4B83A544AF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D014752-C511-4FD1-8512-DF416B84BFD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Hoja1" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$R$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Hoja1!$A$1:$B$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$AG$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -58,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="139">
   <si>
     <t>email</t>
   </si>
@@ -379,6 +381,102 @@
   </si>
   <si>
     <t xml:space="preserve"> JUAN SEBASTIAN</t>
+  </si>
+  <si>
+    <t>Pregunta Extra</t>
+  </si>
+  <si>
+    <t>PREGUNTA PARA GRUPO 1</t>
+  </si>
+  <si>
+    <t>PREGUNTA PARA GRUPO 2</t>
+  </si>
+  <si>
+    <t>PREGUNTA PARA GRUPO 3</t>
+  </si>
+  <si>
+    <t>PREGUNTA PARA GRUPO 4</t>
+  </si>
+  <si>
+    <t>Nota Asistencia</t>
+  </si>
+  <si>
+    <t>Expo</t>
+  </si>
+  <si>
+    <t>Resp</t>
+  </si>
+  <si>
+    <t>JUAN DAVID ACOSTA CASTRO</t>
+  </si>
+  <si>
+    <t>JUAN FELIPE VERNAZA TOVAR</t>
+  </si>
+  <si>
+    <t>JUAN JOSE GARCIA CARABALI</t>
+  </si>
+  <si>
+    <t>LAUREN NICOLE CALIXTO AVENDAÑO</t>
+  </si>
+  <si>
+    <t>BREYLIN SANTIAGO JIMÉNEZ</t>
+  </si>
+  <si>
+    <t>CATALINA DEVIA GALINDEZ</t>
+  </si>
+  <si>
+    <t>CLAUDIA PAOLA HOLGUIN VELEZ</t>
+  </si>
+  <si>
+    <t>ELIZABETH VASQUEZ RIVAS</t>
+  </si>
+  <si>
+    <t>NAYER ISABELLA AVILA OVIEDO</t>
+  </si>
+  <si>
+    <t>ORIANA MONZON SANDOVAL</t>
+  </si>
+  <si>
+    <t>JOSE ANGEL CHAMORRO ARRECHEA</t>
+  </si>
+  <si>
+    <t>JUAN DAVID UMAÑA GRAJALES</t>
+  </si>
+  <si>
+    <t>MARIA DEL MAR DUQUE VARGAS</t>
+  </si>
+  <si>
+    <t>MAURA FERNANDA CASTRO MOTTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SARAH LUCIA MORA SABOGAL </t>
+  </si>
+  <si>
+    <t>ANA MARIA TORO AGUIRRE</t>
+  </si>
+  <si>
+    <t>JOHAN STEVEN COSME ARANZAZU</t>
+  </si>
+  <si>
+    <t>JUAN DIEGO CASTRILLON SALAZAR</t>
+  </si>
+  <si>
+    <t>MARTIN DE JESUS ROMERO TURIZO</t>
+  </si>
+  <si>
+    <t>NN</t>
+  </si>
+  <si>
+    <t>Not</t>
+  </si>
+  <si>
+    <t>Nota Expo Compañeros</t>
+  </si>
+  <si>
+    <t>Nota Preguntas</t>
+  </si>
+  <si>
+    <t>Avances del Corte</t>
   </si>
 </sst>
 </file>
@@ -389,7 +487,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -421,8 +519,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -435,8 +541,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -568,20 +680,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -598,17 +731,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -624,9 +751,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -640,6 +764,47 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1030,152 +1195,208 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V27"/>
+  <dimension ref="A1:AG27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:D22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AG3" sqref="A3:AG3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="35.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.140625" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="6.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="6.140625" style="1" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="18" hidden="1" customWidth="1"/>
-    <col min="10" max="11" width="9.140625" style="1" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="13" max="15" width="9.140625" style="15" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.85546875" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="4.42578125" style="15" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="3.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="4" style="1" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="3.5703125" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="4.5703125" style="13" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="6.42578125" style="13" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="5.42578125" style="13" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="6.7109375" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="12.5703125" customWidth="1"/>
+    <col min="18" max="18" width="11.5703125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="12.5703125" customWidth="1"/>
+    <col min="20" max="20" width="11.5703125" customWidth="1"/>
+    <col min="21" max="21" width="12.5703125" customWidth="1"/>
+    <col min="22" max="22" width="11.5703125" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" customWidth="1"/>
+    <col min="24" max="24" width="12.7109375" customWidth="1"/>
+    <col min="25" max="25" width="12.42578125" customWidth="1"/>
+    <col min="26" max="26" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.42578125" customWidth="1"/>
+    <col min="28" max="29" width="8" customWidth="1"/>
+    <col min="30" max="31" width="5.28515625" customWidth="1"/>
+    <col min="32" max="32" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:33">
       <c r="Q1" t="s">
         <v>104</v>
       </c>
-      <c r="R1" s="25">
+      <c r="R1" s="21">
         <v>45912</v>
       </c>
       <c r="S1" t="s">
         <v>104</v>
       </c>
-      <c r="T1" s="25">
+      <c r="T1" s="21">
         <v>45926</v>
       </c>
       <c r="U1" t="s">
         <v>104</v>
       </c>
-      <c r="V1" s="25">
+      <c r="V1" s="21">
         <v>45933</v>
       </c>
-    </row>
-    <row r="2" spans="1:22">
+      <c r="W1" s="21"/>
+    </row>
+    <row r="2" spans="1:33">
       <c r="Q2" t="s">
         <v>105</v>
       </c>
-      <c r="R2" s="27">
+      <c r="R2" s="23">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="S2" t="s">
         <v>105</v>
       </c>
-      <c r="T2" s="27">
+      <c r="T2" s="23">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="U2" t="s">
         <v>105</v>
       </c>
-      <c r="V2" s="27">
+      <c r="V2" s="23">
         <v>2.0833333333333332E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:22">
-      <c r="A3" s="4" t="s">
+      <c r="W2" s="23"/>
+    </row>
+    <row r="3" spans="1:33" s="38" customFormat="1" ht="45">
+      <c r="A3" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="I3" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="M3" s="13" t="s">
+      <c r="M3" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="N3" s="13" t="s">
+      <c r="N3" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="O3" s="13" t="s">
+      <c r="O3" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="P3" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="Q3" s="23" t="s">
+      <c r="Q3" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="R3" s="23" t="s">
+      <c r="R3" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="S3" s="23" t="s">
+      <c r="S3" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="T3" s="23" t="s">
+      <c r="T3" s="36" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="4" spans="1:22">
+      <c r="U3" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="V3" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="W3" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="X3" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y3" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z3" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA3" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB3" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC3" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="AD3" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="AE3" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF3" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="AG3" s="37" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33">
       <c r="A4" s="3">
-        <v>1005967544</v>
+        <v>1107836732</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>12</v>
+        <v>21</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>1</v>
       </c>
       <c r="E4" s="3">
         <v>1</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G4" s="3">
         <v>3</v>
@@ -1184,131 +1405,189 @@
         <f t="array" ref="H4">_xlfn.IFS(G4=1, "2:00 PM", G4=2, "2:30 PM", G4=3, "3:00 PM", G4=4, "3:30 PM")</f>
         <v>3:00 PM</v>
       </c>
-      <c r="I4" s="17">
-        <v>1</v>
+      <c r="I4" s="14">
+        <v>3</v>
       </c>
       <c r="J4" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K4" s="3">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="L4" s="6">
-        <f t="shared" ref="L4:L22" si="0">(J4/I4)*K4</f>
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="M4" s="14">
+        <v>4.5</v>
+      </c>
+      <c r="L4" s="5">
+        <f>(J4/I4)*K4</f>
+        <v>4.5</v>
+      </c>
+      <c r="M4" s="12">
         <v>3.59</v>
       </c>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14">
+      <c r="N4" s="12"/>
+      <c r="O4" s="12">
         <v>4.5</v>
       </c>
-      <c r="P4" s="6">
-        <f t="shared" ref="P4:P22" si="1">0.7*L4+0.2*M4+0.1*O4+N4</f>
-        <v>4.3879999999999999</v>
-      </c>
-      <c r="Q4" s="24">
-        <v>1.3935185185185186E-2</v>
-      </c>
-      <c r="R4" s="26">
-        <f>Q4/Q6</f>
-        <v>0.85269121813031168</v>
-      </c>
-      <c r="S4" s="27">
+      <c r="P4" s="5">
+        <f>0.7*L4+0.2*M4+0.1*O4+N4</f>
+        <v>4.3179999999999996</v>
+      </c>
+      <c r="Q4" s="20">
+        <v>1.474537037037037E-2</v>
+      </c>
+      <c r="R4" s="22">
+        <f>Q4/$R$2</f>
+        <v>0.70777777777777784</v>
+      </c>
+      <c r="S4" s="23">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="T4" s="26">
+      <c r="T4" s="22">
         <f>S4/$T$2</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:22">
+      <c r="U4" s="25">
+        <v>1</v>
+      </c>
+      <c r="V4" s="25">
+        <v>1</v>
+      </c>
+      <c r="W4" s="13">
+        <f>AVERAGE(R4,T4,V4)*5</f>
+        <v>4.5129629629629626</v>
+      </c>
+      <c r="X4" s="26"/>
+      <c r="Y4" s="26"/>
+      <c r="Z4" s="26"/>
+      <c r="AA4" s="26">
+        <v>4</v>
+      </c>
+      <c r="AB4" s="26"/>
+      <c r="AC4" s="26">
+        <f>AVERAGE(X4:AB4)</f>
+        <v>4</v>
+      </c>
+      <c r="AD4" s="27">
+        <v>4</v>
+      </c>
+      <c r="AE4" s="27"/>
+      <c r="AF4" s="13">
+        <v>4.0769230769230766</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33">
       <c r="A5" s="3">
-        <v>1107836732</v>
+        <v>1005785832</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>1</v>
+        <v>23</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>2</v>
       </c>
       <c r="E5" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="G5" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H5" s="3" t="str" cm="1">
         <f t="array" ref="H5">_xlfn.IFS(G5=1, "2:00 PM", G5=2, "2:30 PM", G5=3, "3:00 PM", G5=4, "3:30 PM")</f>
-        <v>3:00 PM</v>
-      </c>
-      <c r="I5" s="17">
+        <v>3:30 PM</v>
+      </c>
+      <c r="I5" s="14">
+        <v>7</v>
+      </c>
+      <c r="J5" s="3">
+        <v>7</v>
+      </c>
+      <c r="K5" s="5">
+        <v>4.8</v>
+      </c>
+      <c r="L5" s="5">
+        <f>(J5/I5)*K5</f>
+        <v>4.8</v>
+      </c>
+      <c r="M5" s="12">
+        <v>3.55</v>
+      </c>
+      <c r="N5" s="12">
+        <f>1/20</f>
+        <v>0.05</v>
+      </c>
+      <c r="O5" s="12">
+        <v>4.7</v>
+      </c>
+      <c r="P5" s="5">
+        <f>0.7*L5+0.2*M5+0.1*O5+N5</f>
+        <v>4.59</v>
+      </c>
+      <c r="Q5" s="20">
+        <v>1.5520833333333333E-2</v>
+      </c>
+      <c r="R5" s="22">
+        <f>Q5/$R$2</f>
+        <v>0.745</v>
+      </c>
+      <c r="S5" s="23">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="T5" s="22">
+        <f>S5/$T$2</f>
+        <v>1</v>
+      </c>
+      <c r="U5" s="25">
+        <v>1</v>
+      </c>
+      <c r="V5" s="25">
+        <v>0.8</v>
+      </c>
+      <c r="W5" s="13">
+        <f>AVERAGE(R5,T5,V5)*5</f>
+        <v>4.2416666666666663</v>
+      </c>
+      <c r="X5" s="26">
         <v>3</v>
       </c>
-      <c r="J5" s="3">
+      <c r="Y5" s="26"/>
+      <c r="Z5" s="26"/>
+      <c r="AA5" s="26">
+        <v>4</v>
+      </c>
+      <c r="AB5" s="26"/>
+      <c r="AC5" s="26">
+        <f t="shared" ref="AC5:AC23" si="0">AVERAGE(X5:AB5)</f>
+        <v>3.5</v>
+      </c>
+      <c r="AD5" s="27">
+        <v>4.5</v>
+      </c>
+      <c r="AE5" s="27"/>
+      <c r="AF5" s="13">
+        <v>4.9285714285714288</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33">
+      <c r="A6" s="3">
+        <v>1110364376</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="K5" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="L5" s="6">
-        <f t="shared" si="0"/>
-        <v>4.5</v>
-      </c>
-      <c r="M5" s="14">
-        <v>3.59</v>
-      </c>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14">
-        <v>4.5</v>
-      </c>
-      <c r="P5" s="6">
-        <f t="shared" si="1"/>
-        <v>4.3179999999999996</v>
-      </c>
-      <c r="Q5" s="24">
-        <v>1.474537037037037E-2</v>
-      </c>
-      <c r="R5" s="26">
-        <f>Q5/Q6</f>
-        <v>0.90226628895184136</v>
-      </c>
-      <c r="S5" s="27">
-        <v>0</v>
-      </c>
-      <c r="T5" s="26">
-        <f t="shared" ref="T5:T22" si="2">S5/$T$2</f>
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22">
-      <c r="A6" s="3">
-        <v>1126644560</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>19</v>
-      </c>
       <c r="E6" s="3">
         <v>1</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G6" s="3">
         <v>3</v>
@@ -1317,406 +1596,525 @@
         <f t="array" ref="H6">_xlfn.IFS(G6=1, "2:00 PM", G6=2, "2:30 PM", G6=3, "3:00 PM", G6=4, "3:30 PM")</f>
         <v>3:00 PM</v>
       </c>
-      <c r="I6" s="17">
-        <v>4</v>
+      <c r="I6" s="14">
+        <v>3</v>
       </c>
       <c r="J6" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K6" s="3">
         <v>4.8</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L6" s="5">
+        <f>(J6/I6)*K6</f>
+        <v>4.8</v>
+      </c>
+      <c r="M6" s="12">
+        <v>3.59</v>
+      </c>
+      <c r="N6" s="12">
+        <f>1/16</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="O6" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="P6" s="5">
+        <f>0.7*L6+0.2*M6+0.1*O6+N6</f>
+        <v>4.5904999999999996</v>
+      </c>
+      <c r="Q6" s="20">
+        <v>1.412037037037037E-2</v>
+      </c>
+      <c r="R6" s="22">
+        <f>Q6/$R$2</f>
+        <v>0.67777777777777781</v>
+      </c>
+      <c r="S6" s="23">
+        <v>0</v>
+      </c>
+      <c r="T6" s="22">
+        <f>S6/$T$2</f>
+        <v>0</v>
+      </c>
+      <c r="U6" s="25">
+        <v>1</v>
+      </c>
+      <c r="V6" s="25">
+        <v>0</v>
+      </c>
+      <c r="W6" s="13">
+        <f>AVERAGE(R6,T6,V6)*5</f>
+        <v>1.1296296296296298</v>
+      </c>
+      <c r="X6" s="26"/>
+      <c r="Y6" s="26">
+        <v>2</v>
+      </c>
+      <c r="Z6" s="26">
+        <v>2</v>
+      </c>
+      <c r="AA6" s="26"/>
+      <c r="AB6" s="26"/>
+      <c r="AC6" s="26">
         <f t="shared" si="0"/>
-        <v>4.8</v>
-      </c>
-      <c r="M6" s="14">
-        <v>3.59</v>
-      </c>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14">
+        <v>2</v>
+      </c>
+      <c r="AD6" s="27">
         <v>4.5</v>
       </c>
-      <c r="P6" s="6">
-        <f t="shared" si="1"/>
-        <v>4.5279999999999996</v>
-      </c>
-      <c r="Q6" s="24">
-        <v>1.6342592592592593E-2</v>
-      </c>
-      <c r="R6" s="26">
-        <f>Q6/Q6</f>
-        <v>1</v>
-      </c>
-      <c r="S6" s="27">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="T6" s="26">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22">
+      <c r="AE6" s="27">
+        <v>4</v>
+      </c>
+      <c r="AF6" s="13">
+        <v>4.9230769230769234</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33">
       <c r="A7" s="3">
-        <v>1062329024</v>
+        <v>1005894053</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>10</v>
+        <v>27</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>4</v>
       </c>
       <c r="E7" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="G7" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H7" s="3" t="str" cm="1">
         <f t="array" ref="H7">_xlfn.IFS(G7=1, "2:00 PM", G7=2, "2:30 PM", G7=3, "3:00 PM", G7=4, "3:30 PM")</f>
-        <v>3:00 PM</v>
-      </c>
-      <c r="I7" s="17">
+        <v>2:30 PM</v>
+      </c>
+      <c r="I7" s="14">
+        <v>3</v>
+      </c>
+      <c r="J7" s="3">
+        <v>3</v>
+      </c>
+      <c r="K7" s="5">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="L7" s="5">
+        <f>(J7/I7)*K7</f>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="M7" s="12">
+        <v>2.96</v>
+      </c>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12">
+        <v>3.5</v>
+      </c>
+      <c r="P7" s="5">
+        <f>0.7*L7+0.2*M7+0.1*O7+N7</f>
+        <v>4.1619999999999999</v>
+      </c>
+      <c r="Q7" s="20">
+        <v>2.1342592592592594E-2</v>
+      </c>
+      <c r="R7" s="22">
+        <f>Q7/$R$2</f>
+        <v>1.0244444444444445</v>
+      </c>
+      <c r="S7" s="23">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="T7" s="22">
+        <f>S7/$T$2</f>
+        <v>1</v>
+      </c>
+      <c r="U7" s="25">
+        <v>1</v>
+      </c>
+      <c r="V7" s="25">
+        <v>1</v>
+      </c>
+      <c r="W7" s="13">
+        <f>AVERAGE(R7,T7,V7)*5</f>
+        <v>5.0407407407407412</v>
+      </c>
+      <c r="X7" s="26">
         <v>5</v>
       </c>
-      <c r="J7" s="3">
+      <c r="Y7" s="26"/>
+      <c r="Z7" s="26"/>
+      <c r="AA7" s="26"/>
+      <c r="AB7" s="26"/>
+      <c r="AC7" s="26">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="K7" s="3">
+      <c r="AD7" s="27">
         <v>4.5</v>
       </c>
-      <c r="L7" s="6">
-        <f t="shared" si="0"/>
-        <v>4.5</v>
-      </c>
-      <c r="M7" s="14">
-        <v>3.59</v>
-      </c>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14">
-        <v>4.5</v>
-      </c>
-      <c r="P7" s="6">
-        <f t="shared" si="1"/>
-        <v>4.3179999999999996</v>
-      </c>
-      <c r="Q7" s="24">
-        <v>0</v>
-      </c>
-      <c r="R7" s="26">
-        <f>Q7/Q6</f>
-        <v>0</v>
-      </c>
-      <c r="S7" s="27">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="T7" s="26">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22">
+      <c r="AE7" s="27">
+        <v>4</v>
+      </c>
+      <c r="AF7" s="13">
+        <v>4.666666666666667</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33">
       <c r="A8" s="3">
-        <v>1110364376</v>
+        <v>1081728000</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="3">
         <v>3</v>
       </c>
-      <c r="E8" s="3">
-        <v>1</v>
-      </c>
       <c r="F8" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="G8" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H8" s="3" t="str" cm="1">
         <f t="array" ref="H8">_xlfn.IFS(G8=1, "2:00 PM", G8=2, "2:30 PM", G8=3, "3:00 PM", G8=4, "3:30 PM")</f>
-        <v>3:00 PM</v>
-      </c>
-      <c r="I8" s="17">
+        <v>2:00 PM</v>
+      </c>
+      <c r="I8" s="14">
+        <v>5</v>
+      </c>
+      <c r="J8" s="3">
+        <v>5</v>
+      </c>
+      <c r="K8" s="5">
+        <v>4.8</v>
+      </c>
+      <c r="L8" s="5">
+        <f>(J8/I8)*K8</f>
+        <v>4.8</v>
+      </c>
+      <c r="M8" s="12">
+        <v>2.76</v>
+      </c>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12">
         <v>3</v>
       </c>
-      <c r="J8" s="3">
+      <c r="P8" s="5">
+        <f>0.7*L8+0.2*M8+0.1*O8+N8</f>
+        <v>4.2119999999999997</v>
+      </c>
+      <c r="Q8" s="20">
+        <v>9.9305555555555553E-3</v>
+      </c>
+      <c r="R8" s="22">
+        <f>Q8/$R$2</f>
+        <v>0.47666666666666668</v>
+      </c>
+      <c r="S8" s="23">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="T8" s="22">
+        <f>S8/$T$2</f>
+        <v>1</v>
+      </c>
+      <c r="U8" s="25">
+        <v>1</v>
+      </c>
+      <c r="V8" s="25">
+        <v>1</v>
+      </c>
+      <c r="W8" s="13">
+        <f>AVERAGE(R8,T8,V8)*5</f>
+        <v>4.1277777777777773</v>
+      </c>
+      <c r="X8" s="26">
+        <v>2</v>
+      </c>
+      <c r="Y8" s="26"/>
+      <c r="Z8" s="26"/>
+      <c r="AA8" s="26">
+        <v>1</v>
+      </c>
+      <c r="AB8" s="26"/>
+      <c r="AC8" s="26">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="AD8" s="27">
+        <v>4</v>
+      </c>
+      <c r="AE8" s="27">
+        <v>4</v>
+      </c>
+      <c r="AF8" s="13">
+        <v>4.615384615384615</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33">
+      <c r="A9" s="3">
+        <v>1062274189</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="3">
         <v>3</v>
       </c>
-      <c r="K8" s="3">
-        <v>4.8</v>
-      </c>
-      <c r="L8" s="6">
-        <f t="shared" si="0"/>
-        <v>4.8</v>
-      </c>
-      <c r="M8" s="14">
-        <v>3.59</v>
-      </c>
-      <c r="N8" s="14">
-        <f>1/16</f>
-        <v>6.25E-2</v>
-      </c>
-      <c r="O8" s="14">
-        <v>4.5</v>
-      </c>
-      <c r="P8" s="6">
-        <f t="shared" si="1"/>
-        <v>4.5904999999999996</v>
-      </c>
-      <c r="Q8" s="24">
-        <v>1.412037037037037E-2</v>
-      </c>
-      <c r="R8" s="26">
-        <f>Q8/Q6</f>
-        <v>0.86402266288951834</v>
-      </c>
-      <c r="S8" s="27">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="T8" s="26">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22">
-      <c r="A9" s="3">
-        <v>1005783739</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="3">
-        <v>2</v>
-      </c>
       <c r="F9" s="2" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="G9" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H9" s="3" t="str" cm="1">
         <f t="array" ref="H9">_xlfn.IFS(G9=1, "2:00 PM", G9=2, "2:30 PM", G9=3, "3:00 PM", G9=4, "3:30 PM")</f>
-        <v>3:30 PM</v>
-      </c>
-      <c r="I9" s="17">
-        <v>4</v>
+        <v>2:00 PM</v>
+      </c>
+      <c r="I9" s="14">
+        <v>5</v>
       </c>
       <c r="J9" s="3">
-        <v>4</v>
-      </c>
-      <c r="K9" s="6">
-        <v>4.8</v>
-      </c>
-      <c r="L9" s="6">
+        <v>3</v>
+      </c>
+      <c r="K9" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="L9" s="5">
+        <f>(J9/I9)*K9</f>
+        <v>2.6999999999999997</v>
+      </c>
+      <c r="M9" s="12">
+        <v>2.76</v>
+      </c>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12">
+        <v>3</v>
+      </c>
+      <c r="P9" s="5">
+        <f>0.7*L9+0.2*M9+0.1*O9+N9</f>
+        <v>2.742</v>
+      </c>
+      <c r="Q9" s="20">
+        <v>1.8506944444444444E-2</v>
+      </c>
+      <c r="R9" s="22">
+        <f>Q9/$R$2</f>
+        <v>0.88833333333333331</v>
+      </c>
+      <c r="S9" s="23">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="T9" s="22">
+        <f>S9/$T$2</f>
+        <v>1</v>
+      </c>
+      <c r="U9" s="25">
+        <v>1</v>
+      </c>
+      <c r="V9" s="25">
+        <v>0.8</v>
+      </c>
+      <c r="W9" s="13">
+        <f>AVERAGE(R9,T9,V9)*5</f>
+        <v>4.4805555555555561</v>
+      </c>
+      <c r="X9" s="26">
+        <v>2</v>
+      </c>
+      <c r="Y9" s="26">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="26"/>
+      <c r="AA9" s="26">
+        <v>3</v>
+      </c>
+      <c r="AB9" s="26"/>
+      <c r="AC9" s="26">
         <f t="shared" si="0"/>
-        <v>4.8</v>
-      </c>
-      <c r="M9" s="14">
-        <v>3.55</v>
-      </c>
-      <c r="N9" s="14">
-        <f>3/20</f>
-        <v>0.15</v>
-      </c>
-      <c r="O9" s="14">
-        <v>4.7</v>
-      </c>
-      <c r="P9" s="6">
-        <f t="shared" si="1"/>
-        <v>4.6900000000000004</v>
-      </c>
-      <c r="Q9" s="24">
-        <v>1.4976851851851852E-2</v>
-      </c>
-      <c r="R9" s="26">
-        <f>Q9/Q13</f>
-        <v>0.93768115942028996</v>
-      </c>
-      <c r="S9" s="27">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="T9" s="26">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="V9">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22">
+        <v>2</v>
+      </c>
+      <c r="AD9" s="27">
+        <v>4</v>
+      </c>
+      <c r="AE9" s="27">
+        <v>4</v>
+      </c>
+      <c r="AF9" s="13">
+        <v>4.7692307692307692</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33">
       <c r="A10" s="3">
-        <v>1113698193</v>
+        <v>1193073115</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>11</v>
+        <v>33</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>7</v>
       </c>
       <c r="E10" s="3">
+        <v>4</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" s="3">
         <v>2</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="G10" s="3">
-        <v>4</v>
       </c>
       <c r="H10" s="3" t="str" cm="1">
         <f t="array" ref="H10">_xlfn.IFS(G10=1, "2:00 PM", G10=2, "2:30 PM", G10=3, "3:00 PM", G10=4, "3:30 PM")</f>
-        <v>3:30 PM</v>
-      </c>
-      <c r="I10" s="17">
-        <v>3</v>
+        <v>2:30 PM</v>
+      </c>
+      <c r="I10" s="14">
+        <v>4</v>
       </c>
       <c r="J10" s="3">
-        <v>3</v>
-      </c>
-      <c r="K10" s="6">
+        <v>4</v>
+      </c>
+      <c r="K10" s="5">
         <v>4.8</v>
       </c>
-      <c r="L10" s="6">
+      <c r="L10" s="5">
+        <f>(J10/I10)*K10</f>
+        <v>4.8</v>
+      </c>
+      <c r="M10" s="12">
+        <v>2.96</v>
+      </c>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12">
+        <v>3.5</v>
+      </c>
+      <c r="P10" s="5">
+        <f>0.7*L10+0.2*M10+0.1*O10+N10</f>
+        <v>4.3019999999999996</v>
+      </c>
+      <c r="Q10" s="20">
+        <v>2.0532407407407409E-2</v>
+      </c>
+      <c r="R10" s="22">
+        <f>Q10/$R$2</f>
+        <v>0.98555555555555563</v>
+      </c>
+      <c r="S10" s="23">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="T10" s="22">
+        <f>S10/$T$2</f>
+        <v>1</v>
+      </c>
+      <c r="U10" s="25">
+        <v>1</v>
+      </c>
+      <c r="V10" s="25">
+        <v>1</v>
+      </c>
+      <c r="W10" s="13">
+        <f>AVERAGE(R10,T10,V10)*5</f>
+        <v>4.9759259259259263</v>
+      </c>
+      <c r="X10" s="26">
+        <v>5</v>
+      </c>
+      <c r="Y10" s="26">
+        <v>5</v>
+      </c>
+      <c r="Z10" s="26">
+        <v>5</v>
+      </c>
+      <c r="AA10" s="26"/>
+      <c r="AB10" s="26"/>
+      <c r="AC10" s="26">
         <f t="shared" si="0"/>
-        <v>4.8</v>
-      </c>
-      <c r="M10" s="14">
-        <v>3.55</v>
-      </c>
-      <c r="N10" s="14">
-        <f>2/20</f>
-        <v>0.1</v>
-      </c>
-      <c r="O10" s="14">
-        <v>4.7</v>
-      </c>
-      <c r="P10" s="6">
-        <f t="shared" si="1"/>
-        <v>4.6399999999999997</v>
-      </c>
-      <c r="Q10" s="24">
-        <v>1.5833333333333335E-2</v>
-      </c>
-      <c r="R10" s="26">
-        <f>Q10/Q13</f>
-        <v>0.99130434782608712</v>
-      </c>
-      <c r="S10" s="27">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="T10" s="26">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22">
+        <v>5</v>
+      </c>
+      <c r="AD10" s="27">
+        <v>5</v>
+      </c>
+      <c r="AE10" s="27">
+        <v>4</v>
+      </c>
+      <c r="AF10" s="13">
+        <v>4.833333333333333</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33">
       <c r="A11" s="3">
-        <v>1109662163</v>
+        <v>1004189893</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="3">
-        <v>2</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="G11" s="3">
-        <v>4</v>
-      </c>
-      <c r="H11" s="3" t="str" cm="1">
-        <f t="array" ref="H11">_xlfn.IFS(G11=1, "2:00 PM", G11=2, "2:30 PM", G11=3, "3:00 PM", G11=4, "3:30 PM")</f>
-        <v>3:30 PM</v>
-      </c>
-      <c r="I11" s="17">
-        <v>7</v>
-      </c>
-      <c r="J11" s="3">
-        <v>7</v>
-      </c>
-      <c r="K11" s="6">
-        <v>4.8</v>
-      </c>
-      <c r="L11" s="6">
-        <f t="shared" si="0"/>
-        <v>4.8</v>
-      </c>
-      <c r="M11" s="14">
-        <v>3.55</v>
-      </c>
-      <c r="N11" s="15">
-        <f>1/20</f>
-        <v>0.05</v>
-      </c>
-      <c r="O11" s="14">
-        <v>4.7</v>
-      </c>
-      <c r="P11" s="6">
-        <f t="shared" si="1"/>
-        <v>4.59</v>
-      </c>
-      <c r="Q11" s="24">
-        <v>1.4652777777777778E-2</v>
-      </c>
-      <c r="R11" s="26">
-        <f>Q11/Q13</f>
-        <v>0.91739130434782623</v>
-      </c>
-      <c r="S11" s="27">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="T11" s="26">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="V11">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22">
+        <v>106</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="2"/>
+      <c r="R11" s="22"/>
+      <c r="W11" s="13"/>
+      <c r="X11" s="26"/>
+      <c r="Y11" s="26"/>
+      <c r="Z11" s="26"/>
+      <c r="AA11" s="26"/>
+      <c r="AB11" s="26"/>
+      <c r="AC11" s="26">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="27"/>
+      <c r="AE11" s="27"/>
+      <c r="AF11" s="13"/>
+    </row>
+    <row r="12" spans="1:33">
       <c r="A12" s="3">
-        <v>1005785832</v>
+        <v>1005783739</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>2</v>
+        <v>35</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>8</v>
       </c>
       <c r="E12" s="3">
         <v>2</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="G12" s="3">
         <v>4</v>
@@ -1725,386 +2123,574 @@
         <f t="array" ref="H12">_xlfn.IFS(G12=1, "2:00 PM", G12=2, "2:30 PM", G12=3, "3:00 PM", G12=4, "3:30 PM")</f>
         <v>3:30 PM</v>
       </c>
-      <c r="I12" s="17">
-        <v>7</v>
+      <c r="I12" s="14">
+        <v>4</v>
       </c>
       <c r="J12" s="3">
-        <v>7</v>
-      </c>
-      <c r="K12" s="6">
+        <v>4</v>
+      </c>
+      <c r="K12" s="5">
         <v>4.8</v>
       </c>
-      <c r="L12" s="6">
+      <c r="L12" s="5">
+        <f>(J12/I12)*K12</f>
+        <v>4.8</v>
+      </c>
+      <c r="M12" s="12">
+        <v>3.55</v>
+      </c>
+      <c r="N12" s="12">
+        <f>3/20</f>
+        <v>0.15</v>
+      </c>
+      <c r="O12" s="12">
+        <v>4.7</v>
+      </c>
+      <c r="P12" s="5">
+        <f>0.7*L12+0.2*M12+0.1*O12+N12</f>
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="Q12" s="20">
+        <v>1.4976851851851852E-2</v>
+      </c>
+      <c r="R12" s="22">
+        <f>Q12/$R$2</f>
+        <v>0.71888888888888891</v>
+      </c>
+      <c r="S12" s="23">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="T12" s="22">
+        <f>S12/$T$2</f>
+        <v>1</v>
+      </c>
+      <c r="U12" s="25">
+        <v>1</v>
+      </c>
+      <c r="V12" s="25">
+        <v>1</v>
+      </c>
+      <c r="W12" s="13">
+        <f>AVERAGE(R12,T12,V12)*5</f>
+        <v>4.5314814814814817</v>
+      </c>
+      <c r="X12" s="26">
+        <v>2</v>
+      </c>
+      <c r="Y12" s="26"/>
+      <c r="Z12" s="26">
+        <v>4</v>
+      </c>
+      <c r="AA12" s="26"/>
+      <c r="AB12" s="26"/>
+      <c r="AC12" s="26">
         <f t="shared" si="0"/>
-        <v>4.8</v>
-      </c>
-      <c r="M12" s="14">
-        <v>3.55</v>
-      </c>
-      <c r="N12" s="14">
-        <f>1/20</f>
-        <v>0.05</v>
-      </c>
-      <c r="O12" s="14">
-        <v>4.7</v>
-      </c>
-      <c r="P12" s="6">
-        <f t="shared" si="1"/>
-        <v>4.59</v>
-      </c>
-      <c r="Q12" s="24">
-        <v>1.5520833333333333E-2</v>
-      </c>
-      <c r="R12" s="26">
-        <f>Q12/Q13</f>
-        <v>0.97173913043478266</v>
-      </c>
-      <c r="S12" s="27">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="T12" s="26">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22">
+        <v>3</v>
+      </c>
+      <c r="AD12" s="27">
+        <v>4.5</v>
+      </c>
+      <c r="AE12" s="27">
+        <v>5</v>
+      </c>
+      <c r="AF12" s="13">
+        <v>4.9285714285714288</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" ht="15.75">
       <c r="A13" s="3">
-        <v>1005832925</v>
+        <v>1007603017</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>13</v>
+        <v>37</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>9</v>
       </c>
       <c r="E13" s="3">
-        <v>2</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>66</v>
+        <v>3</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>79</v>
       </c>
       <c r="G13" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H13" s="3" t="str" cm="1">
         <f t="array" ref="H13">_xlfn.IFS(G13=1, "2:00 PM", G13=2, "2:30 PM", G13=3, "3:00 PM", G13=4, "3:30 PM")</f>
+        <v>2:00 PM</v>
+      </c>
+      <c r="I13" s="14">
+        <v>5</v>
+      </c>
+      <c r="J13" s="3">
+        <v>5</v>
+      </c>
+      <c r="K13" s="5">
+        <v>4.8</v>
+      </c>
+      <c r="L13" s="5">
+        <f>(J13/I13)*K13</f>
+        <v>4.8</v>
+      </c>
+      <c r="M13" s="12">
+        <v>2.76</v>
+      </c>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12">
+        <v>3</v>
+      </c>
+      <c r="P13" s="5">
+        <f>0.7*L13+0.2*M13+0.1*O13+N13</f>
+        <v>4.2119999999999997</v>
+      </c>
+      <c r="Q13" s="20">
+        <v>1.8159722222222223E-2</v>
+      </c>
+      <c r="R13" s="22">
+        <f>Q13/$R$2</f>
+        <v>0.8716666666666667</v>
+      </c>
+      <c r="S13" s="23">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="T13" s="22">
+        <f>S13/$T$2</f>
+        <v>1</v>
+      </c>
+      <c r="U13" s="25">
+        <v>1</v>
+      </c>
+      <c r="V13" s="25">
+        <v>1</v>
+      </c>
+      <c r="W13" s="13">
+        <f>AVERAGE(R13,T13,V13)*5</f>
+        <v>4.7861111111111114</v>
+      </c>
+      <c r="X13" s="26">
+        <v>4</v>
+      </c>
+      <c r="Y13" s="26"/>
+      <c r="Z13" s="26"/>
+      <c r="AA13" s="26">
+        <v>5</v>
+      </c>
+      <c r="AB13" s="26"/>
+      <c r="AC13" s="26">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+      <c r="AD13" s="27">
+        <v>4</v>
+      </c>
+      <c r="AE13" s="27">
+        <v>4</v>
+      </c>
+      <c r="AF13" s="13">
+        <v>4.615384615384615</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33">
+      <c r="A14" s="3">
+        <v>1062329024</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" s="3">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3" t="str" cm="1">
+        <f t="array" ref="H14">_xlfn.IFS(G14=1, "2:00 PM", G14=2, "2:30 PM", G14=3, "3:00 PM", G14=4, "3:30 PM")</f>
+        <v>3:00 PM</v>
+      </c>
+      <c r="I14" s="14">
+        <v>5</v>
+      </c>
+      <c r="J14" s="3">
+        <v>5</v>
+      </c>
+      <c r="K14" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="L14" s="5">
+        <f>(J14/I14)*K14</f>
+        <v>4.5</v>
+      </c>
+      <c r="M14" s="12">
+        <v>3.59</v>
+      </c>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="P14" s="5">
+        <f>0.7*L14+0.2*M14+0.1*O14+N14</f>
+        <v>4.3179999999999996</v>
+      </c>
+      <c r="Q14" s="20">
+        <v>0</v>
+      </c>
+      <c r="R14" s="22">
+        <f>Q14/$R$2</f>
+        <v>0</v>
+      </c>
+      <c r="S14" s="23">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="T14" s="22">
+        <f>S14/$T$2</f>
+        <v>1</v>
+      </c>
+      <c r="U14" s="25">
+        <v>1</v>
+      </c>
+      <c r="V14" s="25">
+        <v>1</v>
+      </c>
+      <c r="W14" s="13">
+        <f>AVERAGE(R14,T14,V14)*5</f>
+        <v>3.333333333333333</v>
+      </c>
+      <c r="X14" s="26"/>
+      <c r="Y14" s="26">
+        <v>5</v>
+      </c>
+      <c r="Z14" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="26"/>
+      <c r="AB14" s="26"/>
+      <c r="AC14" s="26">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="AD14" s="27">
+        <v>3</v>
+      </c>
+      <c r="AE14" s="27">
+        <v>4</v>
+      </c>
+      <c r="AF14" s="13">
+        <v>3.8461538461538463</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33">
+      <c r="A15" s="3">
+        <v>1113698193</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="3">
+        <v>2</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G15" s="3">
+        <v>4</v>
+      </c>
+      <c r="H15" s="3" t="str" cm="1">
+        <f t="array" ref="H15">_xlfn.IFS(G15=1, "2:00 PM", G15=2, "2:30 PM", G15=3, "3:00 PM", G15=4, "3:30 PM")</f>
         <v>3:30 PM</v>
       </c>
-      <c r="I13" s="17">
+      <c r="I15" s="14">
+        <v>3</v>
+      </c>
+      <c r="J15" s="3">
+        <v>3</v>
+      </c>
+      <c r="K15" s="5">
+        <v>4.8</v>
+      </c>
+      <c r="L15" s="5">
+        <f>(J15/I15)*K15</f>
+        <v>4.8</v>
+      </c>
+      <c r="M15" s="12">
+        <v>3.55</v>
+      </c>
+      <c r="N15" s="12">
+        <f>2/20</f>
+        <v>0.1</v>
+      </c>
+      <c r="O15" s="12">
+        <v>4.7</v>
+      </c>
+      <c r="P15" s="5">
+        <f>0.7*L15+0.2*M15+0.1*O15+N15</f>
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="Q15" s="20">
+        <v>1.5833333333333335E-2</v>
+      </c>
+      <c r="R15" s="22">
+        <f>Q15/$R$2</f>
+        <v>0.76000000000000012</v>
+      </c>
+      <c r="S15" s="23">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="T15" s="22">
+        <f>S15/$T$2</f>
+        <v>1</v>
+      </c>
+      <c r="U15" s="25">
+        <v>1</v>
+      </c>
+      <c r="V15" s="25">
+        <v>0.6</v>
+      </c>
+      <c r="W15" s="13">
+        <f>AVERAGE(R15,T15,V15)*5</f>
+        <v>3.9333333333333336</v>
+      </c>
+      <c r="X15" s="26">
+        <v>5</v>
+      </c>
+      <c r="Y15" s="26"/>
+      <c r="Z15" s="26"/>
+      <c r="AA15" s="26">
+        <v>4</v>
+      </c>
+      <c r="AB15" s="26"/>
+      <c r="AC15" s="26">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+      <c r="AD15" s="27">
+        <v>4.5</v>
+      </c>
+      <c r="AE15" s="27">
+        <v>5</v>
+      </c>
+      <c r="AF15" s="13">
+        <v>4.8571428571428568</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33">
+      <c r="A16" s="3">
+        <v>1005967544</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G16" s="3">
+        <v>3</v>
+      </c>
+      <c r="H16" s="3" t="str" cm="1">
+        <f t="array" ref="H16">_xlfn.IFS(G16=1, "2:00 PM", G16=2, "2:30 PM", G16=3, "3:00 PM", G16=4, "3:30 PM")</f>
+        <v>3:00 PM</v>
+      </c>
+      <c r="I16" s="14">
+        <v>1</v>
+      </c>
+      <c r="J16" s="3">
+        <v>1</v>
+      </c>
+      <c r="K16" s="3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="L16" s="5">
+        <f>(J16/I16)*K16</f>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="M16" s="12">
+        <v>3.59</v>
+      </c>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="P16" s="5">
+        <f>0.7*L16+0.2*M16+0.1*O16+N16</f>
+        <v>4.3879999999999999</v>
+      </c>
+      <c r="Q16" s="20">
+        <v>1.3935185185185186E-2</v>
+      </c>
+      <c r="R16" s="22">
+        <f>Q16/$R$2</f>
+        <v>0.66888888888888898</v>
+      </c>
+      <c r="S16" s="23">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="T16" s="22">
+        <f>S16/$T$2</f>
+        <v>1</v>
+      </c>
+      <c r="U16" s="25">
+        <v>1</v>
+      </c>
+      <c r="V16" s="25">
+        <v>1</v>
+      </c>
+      <c r="W16" s="13">
+        <f>AVERAGE(R16,T16,V16)*5</f>
+        <v>4.4481481481481486</v>
+      </c>
+      <c r="X16" s="26"/>
+      <c r="Y16" s="26">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="26"/>
+      <c r="AA16" s="26">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="26"/>
+      <c r="AC16" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD16" s="27">
+        <v>4</v>
+      </c>
+      <c r="AE16" s="27">
+        <v>4</v>
+      </c>
+      <c r="AF16" s="13">
+        <v>4.916666666666667</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32">
+      <c r="A17" s="3">
+        <v>1005832925</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G17" s="3">
+        <v>4</v>
+      </c>
+      <c r="H17" s="3" t="str" cm="1">
+        <f t="array" ref="H17">_xlfn.IFS(G17=1, "2:00 PM", G17=2, "2:30 PM", G17=3, "3:00 PM", G17=4, "3:30 PM")</f>
+        <v>3:30 PM</v>
+      </c>
+      <c r="I17" s="14">
         <v>11</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J17" s="3">
         <v>11</v>
       </c>
-      <c r="K13" s="6">
+      <c r="K17" s="5">
         <v>4.8</v>
       </c>
-      <c r="L13" s="6">
-        <f t="shared" si="0"/>
+      <c r="L17" s="5">
+        <f>(J17/I17)*K17</f>
         <v>4.8</v>
       </c>
-      <c r="M13" s="14">
+      <c r="M17" s="12">
         <v>3.55</v>
       </c>
-      <c r="N13" s="14">
+      <c r="N17" s="12">
         <f>5/20</f>
         <v>0.25</v>
       </c>
-      <c r="O13" s="14">
+      <c r="O17" s="12">
         <v>4.7</v>
       </c>
-      <c r="P13" s="6">
-        <f t="shared" si="1"/>
+      <c r="P17" s="5">
+        <f>0.7*L17+0.2*M17+0.1*O17+N17</f>
         <v>4.79</v>
       </c>
-      <c r="Q13" s="24">
+      <c r="Q17" s="20">
         <v>1.5972222222222221E-2</v>
       </c>
-      <c r="R13" s="26">
-        <f>Q13/Q13</f>
-        <v>1</v>
-      </c>
-      <c r="S13" s="27">
-        <v>0</v>
-      </c>
-      <c r="T13" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22">
-      <c r="A14" s="3">
-        <v>1062274189</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="3">
+      <c r="R17" s="22">
+        <f>Q17/$R$2</f>
+        <v>0.76666666666666661</v>
+      </c>
+      <c r="S17" s="23">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="T17" s="22">
+        <f>S17/$T$2</f>
+        <v>1</v>
+      </c>
+      <c r="U17" s="25">
+        <v>1</v>
+      </c>
+      <c r="V17" s="25">
+        <v>1</v>
+      </c>
+      <c r="W17" s="13">
+        <f>AVERAGE(R17,T17,V17)*5</f>
+        <v>4.6111111111111107</v>
+      </c>
+      <c r="X17" s="26"/>
+      <c r="Y17" s="26">
+        <v>5</v>
+      </c>
+      <c r="Z17" s="26"/>
+      <c r="AA17" s="26">
+        <v>2</v>
+      </c>
+      <c r="AB17" s="26">
         <v>3</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G14" s="3">
-        <v>1</v>
-      </c>
-      <c r="H14" s="3" t="str" cm="1">
-        <f t="array" ref="H14">_xlfn.IFS(G14=1, "2:00 PM", G14=2, "2:30 PM", G14=3, "3:00 PM", G14=4, "3:30 PM")</f>
-        <v>2:00 PM</v>
-      </c>
-      <c r="I14" s="17">
+      <c r="AC17" s="26">
+        <f t="shared" si="0"/>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="AD17" s="27">
         <v>5</v>
       </c>
-      <c r="J14" s="3">
-        <v>3</v>
-      </c>
-      <c r="K14" s="6">
-        <v>4.5</v>
-      </c>
-      <c r="L14" s="6">
-        <f t="shared" si="0"/>
-        <v>2.6999999999999997</v>
-      </c>
-      <c r="M14" s="14">
-        <v>2.76</v>
-      </c>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14">
-        <v>3</v>
-      </c>
-      <c r="P14" s="6">
-        <f t="shared" si="1"/>
-        <v>2.742</v>
-      </c>
-      <c r="Q14" s="24">
-        <v>1.8506944444444444E-2</v>
-      </c>
-      <c r="R14" s="26">
-        <f>Q14/Q14</f>
-        <v>1</v>
-      </c>
-      <c r="S14" s="27">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="T14" s="26">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22">
-      <c r="A15" s="3">
-        <v>1110363454</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="3">
-        <v>3</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G15" s="3">
-        <v>1</v>
-      </c>
-      <c r="H15" s="3" t="str" cm="1">
-        <f t="array" ref="H15">_xlfn.IFS(G15=1, "2:00 PM", G15=2, "2:30 PM", G15=3, "3:00 PM", G15=4, "3:30 PM")</f>
-        <v>2:00 PM</v>
-      </c>
-      <c r="I15" s="17">
-        <v>6</v>
-      </c>
-      <c r="J15" s="3">
-        <v>6</v>
-      </c>
-      <c r="K15" s="6">
-        <v>4.8</v>
-      </c>
-      <c r="L15" s="6">
-        <f t="shared" si="0"/>
-        <v>4.8</v>
-      </c>
-      <c r="M15" s="14">
-        <v>2.76</v>
-      </c>
-      <c r="N15" s="14">
-        <f>1/13</f>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="O15" s="14">
-        <v>3</v>
-      </c>
-      <c r="P15" s="6">
-        <f t="shared" si="1"/>
-        <v>4.2889230769230764</v>
-      </c>
-      <c r="Q15" s="24">
-        <v>1.1863425925925927E-2</v>
-      </c>
-      <c r="R15" s="26">
-        <f>Q15/Q14</f>
-        <v>0.64102564102564108</v>
-      </c>
-      <c r="S15" s="27">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="T15" s="26">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="V15">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" ht="15.75">
-      <c r="A16" s="3">
-        <v>1007603017</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="3">
-        <v>3</v>
-      </c>
-      <c r="F16" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="G16" s="3">
-        <v>1</v>
-      </c>
-      <c r="H16" s="3" t="str" cm="1">
-        <f t="array" ref="H16">_xlfn.IFS(G16=1, "2:00 PM", G16=2, "2:30 PM", G16=3, "3:00 PM", G16=4, "3:30 PM")</f>
-        <v>2:00 PM</v>
-      </c>
-      <c r="I16" s="17">
+      <c r="AE17" s="27">
         <v>5</v>
       </c>
-      <c r="J16" s="3">
+      <c r="AF17" s="13">
         <v>5</v>
       </c>
-      <c r="K16" s="6">
-        <v>4.8</v>
-      </c>
-      <c r="L16" s="6">
-        <f t="shared" si="0"/>
-        <v>4.8</v>
-      </c>
-      <c r="M16" s="14">
-        <v>2.76</v>
-      </c>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14">
-        <v>3</v>
-      </c>
-      <c r="P16" s="6">
-        <f t="shared" si="1"/>
-        <v>4.2119999999999997</v>
-      </c>
-      <c r="Q16" s="24">
-        <v>1.8159722222222223E-2</v>
-      </c>
-      <c r="R16" s="26">
-        <f>Q16/Q14</f>
-        <v>0.98123827392120078</v>
-      </c>
-      <c r="S16" s="27">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="T16" s="26">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22">
-      <c r="A17" s="3">
-        <v>1081728000</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="3">
-        <v>3</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G17" s="3">
-        <v>1</v>
-      </c>
-      <c r="H17" s="3" t="str" cm="1">
-        <f t="array" ref="H17">_xlfn.IFS(G17=1, "2:00 PM", G17=2, "2:30 PM", G17=3, "3:00 PM", G17=4, "3:30 PM")</f>
-        <v>2:00 PM</v>
-      </c>
-      <c r="I17" s="17">
-        <v>5</v>
-      </c>
-      <c r="J17" s="3">
-        <v>5</v>
-      </c>
-      <c r="K17" s="6">
-        <v>4.8</v>
-      </c>
-      <c r="L17" s="6">
-        <f t="shared" si="0"/>
-        <v>4.8</v>
-      </c>
-      <c r="M17" s="14">
-        <v>2.76</v>
-      </c>
-      <c r="N17" s="14"/>
-      <c r="O17" s="14">
-        <v>3</v>
-      </c>
-      <c r="P17" s="6">
-        <f t="shared" si="1"/>
-        <v>4.2119999999999997</v>
-      </c>
-      <c r="Q17" s="24">
-        <v>9.9305555555555553E-3</v>
-      </c>
-      <c r="R17" s="26">
-        <f>Q17/Q14</f>
-        <v>0.53658536585365857</v>
-      </c>
-      <c r="S17" s="27">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="T17" s="26">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="V17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22">
+    </row>
+    <row r="18" spans="1:32">
       <c r="A18" s="3">
         <v>1219713263</v>
       </c>
@@ -2114,13 +2700,13 @@
       <c r="C18" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="21" t="s">
+      <c r="D18" s="18" t="s">
         <v>14</v>
       </c>
       <c r="E18" s="3">
         <v>3</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="29" t="s">
         <v>74</v>
       </c>
       <c r="G18" s="3">
@@ -2130,63 +2716,97 @@
         <f t="array" ref="H18">_xlfn.IFS(G18=1, "2:00 PM", G18=2, "2:30 PM", G18=3, "3:00 PM", G18=4, "3:30 PM")</f>
         <v>2:00 PM</v>
       </c>
-      <c r="I18" s="17">
+      <c r="I18" s="14">
         <v>6</v>
       </c>
       <c r="J18" s="3">
         <v>6</v>
       </c>
-      <c r="K18" s="6">
+      <c r="K18" s="5">
         <v>4.9000000000000004</v>
       </c>
-      <c r="L18" s="6">
+      <c r="L18" s="5">
+        <f>(J18/I18)*K18</f>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="M18" s="12">
+        <v>2.76</v>
+      </c>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12">
+        <v>3</v>
+      </c>
+      <c r="P18" s="5">
+        <f>0.7*L18+0.2*M18+0.1*O18+N18</f>
+        <v>4.282</v>
+      </c>
+      <c r="Q18" s="20">
+        <v>0</v>
+      </c>
+      <c r="R18" s="22">
+        <f>Q18/$R$2</f>
+        <v>0</v>
+      </c>
+      <c r="S18" s="23">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="T18" s="22">
+        <f>S18/$T$2</f>
+        <v>1</v>
+      </c>
+      <c r="U18" s="25">
+        <v>1</v>
+      </c>
+      <c r="V18" s="25">
+        <v>0</v>
+      </c>
+      <c r="W18" s="13">
+        <f>AVERAGE(R18,T18,V18)*5</f>
+        <v>1.6666666666666665</v>
+      </c>
+      <c r="X18" s="26">
+        <v>2</v>
+      </c>
+      <c r="Y18" s="26">
+        <v>1</v>
+      </c>
+      <c r="Z18" s="26"/>
+      <c r="AA18" s="26">
+        <v>3</v>
+      </c>
+      <c r="AB18" s="26"/>
+      <c r="AC18" s="26">
         <f t="shared" si="0"/>
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="M18" s="14">
-        <v>2.76</v>
-      </c>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14">
-        <v>3</v>
-      </c>
-      <c r="P18" s="6">
-        <f t="shared" si="1"/>
-        <v>4.282</v>
-      </c>
-      <c r="Q18" s="24">
-        <v>0</v>
-      </c>
-      <c r="R18" s="26">
-        <f>Q18/Q14</f>
-        <v>0</v>
-      </c>
-      <c r="S18" s="27">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="T18" s="26">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22">
+        <v>2</v>
+      </c>
+      <c r="AD18" s="27">
+        <v>4</v>
+      </c>
+      <c r="AE18" s="27">
+        <v>4</v>
+      </c>
+      <c r="AF18" s="13">
+        <v>4.5384615384615383</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32">
       <c r="A19" s="3">
-        <v>1025642375</v>
+        <v>1193578885</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19" s="21" t="s">
-        <v>16</v>
+        <v>49</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>15</v>
       </c>
       <c r="E19" s="3">
         <v>4</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G19" s="3">
         <v>2</v>
@@ -2195,63 +2815,86 @@
         <f t="array" ref="H19">_xlfn.IFS(G19=1, "2:00 PM", G19=2, "2:30 PM", G19=3, "3:00 PM", G19=4, "3:30 PM")</f>
         <v>2:30 PM</v>
       </c>
-      <c r="I19" s="17">
-        <v>5</v>
+      <c r="I19" s="14">
+        <v>4</v>
       </c>
       <c r="J19" s="3">
-        <v>5</v>
-      </c>
-      <c r="K19" s="3">
-        <v>4.7</v>
-      </c>
-      <c r="L19" s="6">
-        <f t="shared" si="0"/>
-        <v>4.7</v>
-      </c>
-      <c r="M19" s="14">
+        <v>4</v>
+      </c>
+      <c r="K19" s="5">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="L19" s="5">
+        <f>(J19/I19)*K19</f>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="M19" s="12">
         <v>2.96</v>
       </c>
-      <c r="N19" s="14"/>
-      <c r="O19" s="14">
+      <c r="N19" s="12"/>
+      <c r="O19" s="12">
         <v>3.5</v>
       </c>
-      <c r="P19" s="6">
-        <f t="shared" si="1"/>
-        <v>4.2320000000000002</v>
-      </c>
-      <c r="Q19" s="24">
-        <v>2.0243055555555556E-2</v>
-      </c>
-      <c r="R19" s="26">
-        <f>Q19/Q21</f>
-        <v>0.94848156182212573</v>
-      </c>
-      <c r="S19" s="27">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="T19" s="26">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22">
+      <c r="P19" s="5">
+        <f>0.7*L19+0.2*M19+0.1*O19+N19</f>
+        <v>4.1619999999999999</v>
+      </c>
+      <c r="Q19" s="20">
+        <v>1.951388888888889E-2</v>
+      </c>
+      <c r="R19" s="22">
+        <f>Q19/$R$2</f>
+        <v>0.93666666666666676</v>
+      </c>
+      <c r="S19" s="23">
+        <v>0</v>
+      </c>
+      <c r="T19" s="22">
+        <f>S19/$T$2</f>
+        <v>0</v>
+      </c>
+      <c r="U19" s="25">
+        <v>1</v>
+      </c>
+      <c r="V19" s="25">
+        <v>1</v>
+      </c>
+      <c r="W19" s="13">
+        <f>AVERAGE(R19,T19,V19)*5</f>
+        <v>3.2277777777777779</v>
+      </c>
+      <c r="X19" s="26"/>
+      <c r="Y19" s="26"/>
+      <c r="Z19" s="26"/>
+      <c r="AA19" s="26"/>
+      <c r="AB19" s="26"/>
+      <c r="AC19" s="26">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="27"/>
+      <c r="AE19" s="27"/>
+      <c r="AF19" s="13">
+        <v>2.3333333333333335</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32">
       <c r="A20" s="3">
-        <v>1193073115</v>
+        <v>1025642375</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" s="21" t="s">
-        <v>7</v>
+        <v>51</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>16</v>
       </c>
       <c r="E20" s="3">
         <v>4</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G20" s="3">
         <v>2</v>
@@ -2260,206 +2903,381 @@
         <f t="array" ref="H20">_xlfn.IFS(G20=1, "2:00 PM", G20=2, "2:30 PM", G20=3, "3:00 PM", G20=4, "3:30 PM")</f>
         <v>2:30 PM</v>
       </c>
-      <c r="I20" s="17">
-        <v>4</v>
+      <c r="I20" s="14">
+        <v>5</v>
       </c>
       <c r="J20" s="3">
-        <v>4</v>
-      </c>
-      <c r="K20" s="6">
-        <v>4.8</v>
-      </c>
-      <c r="L20" s="6">
-        <f t="shared" si="0"/>
-        <v>4.8</v>
-      </c>
-      <c r="M20" s="14">
+        <v>5</v>
+      </c>
+      <c r="K20" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="L20" s="5">
+        <f>(J20/I20)*K20</f>
+        <v>4.7</v>
+      </c>
+      <c r="M20" s="12">
         <v>2.96</v>
       </c>
-      <c r="N20" s="14"/>
-      <c r="O20" s="14">
+      <c r="N20" s="12"/>
+      <c r="O20" s="12">
         <v>3.5</v>
       </c>
-      <c r="P20" s="6">
-        <f t="shared" si="1"/>
-        <v>4.3019999999999996</v>
-      </c>
-      <c r="Q20" s="24">
-        <v>2.0532407407407409E-2</v>
-      </c>
-      <c r="R20" s="26">
-        <f>Q20/Q21</f>
-        <v>0.96203904555314534</v>
-      </c>
-      <c r="S20" s="27">
+      <c r="P20" s="5">
+        <f>0.7*L20+0.2*M20+0.1*O20+N20</f>
+        <v>4.2320000000000002</v>
+      </c>
+      <c r="Q20" s="20">
+        <v>2.0243055555555556E-2</v>
+      </c>
+      <c r="R20" s="22">
+        <f>Q20/$R$2</f>
+        <v>0.97166666666666668</v>
+      </c>
+      <c r="S20" s="23">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="T20" s="26">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22">
+      <c r="T20" s="22">
+        <f>S20/$T$2</f>
+        <v>1</v>
+      </c>
+      <c r="U20" s="25">
+        <v>1</v>
+      </c>
+      <c r="V20" s="25">
+        <v>1</v>
+      </c>
+      <c r="W20" s="13">
+        <f>AVERAGE(R20,T20,V20)*5</f>
+        <v>4.9527777777777775</v>
+      </c>
+      <c r="X20" s="26"/>
+      <c r="Y20" s="26"/>
+      <c r="Z20" s="26"/>
+      <c r="AA20" s="26"/>
+      <c r="AB20" s="26"/>
+      <c r="AC20" s="26">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="27"/>
+      <c r="AE20" s="27"/>
+      <c r="AF20" s="13">
+        <v>2.3333333333333335</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32">
       <c r="A21" s="3">
-        <v>1005894053</v>
+        <v>1110363454</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="21" t="s">
-        <v>4</v>
+        <v>21</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>17</v>
       </c>
       <c r="E21" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="G21" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H21" s="3" t="str" cm="1">
         <f t="array" ref="H21">_xlfn.IFS(G21=1, "2:00 PM", G21=2, "2:30 PM", G21=3, "3:00 PM", G21=4, "3:30 PM")</f>
-        <v>2:30 PM</v>
-      </c>
-      <c r="I21" s="17">
+        <v>2:00 PM</v>
+      </c>
+      <c r="I21" s="14">
+        <v>6</v>
+      </c>
+      <c r="J21" s="3">
+        <v>6</v>
+      </c>
+      <c r="K21" s="5">
+        <v>4.8</v>
+      </c>
+      <c r="L21" s="5">
+        <f>(J21/I21)*K21</f>
+        <v>4.8</v>
+      </c>
+      <c r="M21" s="12">
+        <v>2.76</v>
+      </c>
+      <c r="N21" s="12">
+        <f>1/13</f>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="O21" s="12">
         <v>3</v>
       </c>
-      <c r="J21" s="3">
+      <c r="P21" s="5">
+        <f>0.7*L21+0.2*M21+0.1*O21+N21</f>
+        <v>4.2889230769230764</v>
+      </c>
+      <c r="Q21" s="20">
+        <v>1.1863425925925927E-2</v>
+      </c>
+      <c r="R21" s="22">
+        <f>Q21/$R$2</f>
+        <v>0.56944444444444453</v>
+      </c>
+      <c r="S21" s="23">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="T21" s="22">
+        <f>S21/$T$2</f>
+        <v>1</v>
+      </c>
+      <c r="U21" s="25">
+        <v>1</v>
+      </c>
+      <c r="V21" s="25">
+        <v>1</v>
+      </c>
+      <c r="W21" s="13">
+        <f>AVERAGE(R21,T21,V21)*5</f>
+        <v>4.2824074074074074</v>
+      </c>
+      <c r="X21" s="26">
+        <v>5</v>
+      </c>
+      <c r="Y21" s="26">
         <v>3</v>
       </c>
-      <c r="K21" s="6">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="L21" s="6">
+      <c r="Z21" s="26"/>
+      <c r="AA21" s="26">
+        <v>5</v>
+      </c>
+      <c r="AB21" s="26"/>
+      <c r="AC21" s="26">
         <f t="shared" si="0"/>
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="M21" s="14">
-        <v>2.96</v>
-      </c>
-      <c r="N21" s="14"/>
-      <c r="O21" s="14">
-        <v>3.5</v>
-      </c>
-      <c r="P21" s="6">
-        <f t="shared" si="1"/>
-        <v>4.1619999999999999</v>
-      </c>
-      <c r="Q21" s="24">
-        <v>2.1342592592592594E-2</v>
-      </c>
-      <c r="R21" s="26">
-        <f>Q21/Q21</f>
-        <v>1</v>
-      </c>
-      <c r="S21" s="27">
+        <v>4.333333333333333</v>
+      </c>
+      <c r="AD21" s="27">
+        <v>4</v>
+      </c>
+      <c r="AE21" s="27">
         <v>0</v>
       </c>
-      <c r="T21" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22">
+      <c r="AF21" s="13">
+        <v>4.6923076923076925</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32">
       <c r="A22" s="3">
-        <v>1193578885</v>
+        <v>1109662163</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D22" s="21" t="s">
-        <v>15</v>
+        <v>54</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>18</v>
       </c>
       <c r="E22" s="3">
-        <v>4</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>64</v>
+        <v>2</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>69</v>
       </c>
       <c r="G22" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H22" s="3" t="str" cm="1">
         <f t="array" ref="H22">_xlfn.IFS(G22=1, "2:00 PM", G22=2, "2:30 PM", G22=3, "3:00 PM", G22=4, "3:30 PM")</f>
-        <v>2:30 PM</v>
-      </c>
-      <c r="I22" s="17">
-        <v>4</v>
+        <v>3:30 PM</v>
+      </c>
+      <c r="I22" s="14">
+        <v>7</v>
       </c>
       <c r="J22" s="3">
-        <v>4</v>
-      </c>
-      <c r="K22" s="6">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="L22" s="6">
+        <v>7</v>
+      </c>
+      <c r="K22" s="5">
+        <v>4.8</v>
+      </c>
+      <c r="L22" s="5">
+        <f>(J22/I22)*K22</f>
+        <v>4.8</v>
+      </c>
+      <c r="M22" s="12">
+        <v>3.55</v>
+      </c>
+      <c r="N22" s="12">
+        <f>1/20</f>
+        <v>0.05</v>
+      </c>
+      <c r="O22" s="12">
+        <v>4.7</v>
+      </c>
+      <c r="P22" s="5">
+        <f>0.7*L22+0.2*M22+0.1*O22+N22</f>
+        <v>4.59</v>
+      </c>
+      <c r="Q22" s="20">
+        <v>1.4652777777777778E-2</v>
+      </c>
+      <c r="R22" s="22">
+        <f>Q22/$R$2</f>
+        <v>0.70333333333333337</v>
+      </c>
+      <c r="S22" s="23">
+        <v>0</v>
+      </c>
+      <c r="T22" s="22">
+        <f>S22/$T$2</f>
+        <v>0</v>
+      </c>
+      <c r="U22" s="25">
+        <v>1</v>
+      </c>
+      <c r="V22" s="25">
+        <v>1</v>
+      </c>
+      <c r="W22" s="13">
+        <f>AVERAGE(R22,T22,V22)*5</f>
+        <v>2.838888888888889</v>
+      </c>
+      <c r="X22" s="26">
+        <v>3</v>
+      </c>
+      <c r="Y22" s="26"/>
+      <c r="Z22" s="26">
+        <v>5</v>
+      </c>
+      <c r="AA22" s="26"/>
+      <c r="AB22" s="26"/>
+      <c r="AC22" s="26">
         <f t="shared" si="0"/>
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="M22" s="14">
-        <v>2.96</v>
-      </c>
-      <c r="N22" s="14"/>
-      <c r="O22" s="14">
-        <v>3.5</v>
-      </c>
-      <c r="P22" s="6">
-        <f t="shared" si="1"/>
-        <v>4.1619999999999999</v>
-      </c>
-      <c r="Q22" s="24">
-        <v>1.951388888888889E-2</v>
-      </c>
-      <c r="R22" s="26">
-        <f>Q22/Q21</f>
-        <v>0.91431670281995658</v>
-      </c>
-      <c r="S22" s="27">
+        <v>4</v>
+      </c>
+      <c r="AD22" s="27">
+        <v>4.5</v>
+      </c>
+      <c r="AE22" s="27">
+        <v>5</v>
+      </c>
+      <c r="AF22" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32">
+      <c r="A23" s="28">
+        <v>1126644560</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="28">
+        <v>1</v>
+      </c>
+      <c r="F23" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="G23" s="3">
+        <v>3</v>
+      </c>
+      <c r="H23" s="28" t="str" cm="1">
+        <f t="array" ref="H23">_xlfn.IFS(G23=1, "2:00 PM", G23=2, "2:30 PM", G23=3, "3:00 PM", G23=4, "3:30 PM")</f>
+        <v>3:00 PM</v>
+      </c>
+      <c r="I23" s="31">
+        <v>4</v>
+      </c>
+      <c r="J23" s="28">
+        <v>4</v>
+      </c>
+      <c r="K23" s="28">
+        <v>4.8</v>
+      </c>
+      <c r="L23" s="32">
+        <f>(J23/I23)*K23</f>
+        <v>4.8</v>
+      </c>
+      <c r="M23" s="33">
+        <v>3.59</v>
+      </c>
+      <c r="N23" s="33"/>
+      <c r="O23" s="33">
+        <v>4.5</v>
+      </c>
+      <c r="P23" s="5">
+        <f>0.7*L23+0.2*M23+0.1*O23+N23</f>
+        <v>4.5279999999999996</v>
+      </c>
+      <c r="Q23" s="20">
+        <v>1.6342592592592593E-2</v>
+      </c>
+      <c r="R23" s="22">
+        <f>Q23/$R$2</f>
+        <v>0.7844444444444445</v>
+      </c>
+      <c r="S23" s="23">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="T22" s="26">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22">
-      <c r="A23" s="1">
-        <v>1004189893</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C23" t="s">
-        <v>106</v>
-      </c>
-      <c r="G23" s="3"/>
-      <c r="P23" s="2"/>
-    </row>
-    <row r="24" spans="1:22">
+      <c r="T23" s="22">
+        <f>S23/$T$2</f>
+        <v>1</v>
+      </c>
+      <c r="U23" s="25">
+        <v>1</v>
+      </c>
+      <c r="V23" s="25">
+        <v>1</v>
+      </c>
+      <c r="W23" s="13">
+        <f>AVERAGE(R23,T23,V23)*5</f>
+        <v>4.6407407407407408</v>
+      </c>
+      <c r="X23" s="26"/>
+      <c r="Y23" s="26">
+        <v>4</v>
+      </c>
+      <c r="Z23" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="26"/>
+      <c r="AB23" s="26"/>
+      <c r="AC23" s="26">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AD23" s="27">
+        <v>4.5</v>
+      </c>
+      <c r="AE23" s="27">
+        <v>4</v>
+      </c>
+      <c r="AF23" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32">
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:22">
+    <row r="25" spans="1:32">
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="1:22">
+    <row r="26" spans="1:32">
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:22">
+    <row r="27" spans="1:32">
       <c r="G27" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:R23" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:R23">
-      <sortCondition ref="E3:E23"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A3:AG3" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <conditionalFormatting sqref="P4:P23">
     <cfRule type="colorScale" priority="1">
       <colorScale>
@@ -2478,6 +3296,190 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69DE39B1-9B3A-48EC-A1C3-0236E1FBCFFB}">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="40" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2">
+        <v>2.3333333333333335</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="39" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3">
+        <v>4.916666666666667</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4">
+        <v>4.9285714285714288</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5">
+        <v>4.8571428571428568</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="40" t="s">
+        <v>131</v>
+      </c>
+      <c r="B7">
+        <v>4.833333333333333</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="B8">
+        <v>4.7692307692307692</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="B9">
+        <v>4.0769230769230766</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="40" t="s">
+        <v>126</v>
+      </c>
+      <c r="B10">
+        <v>4.6923076923076925</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="B11">
+        <v>4.666666666666667</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="B12">
+        <v>3.8461538461538463</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="B13">
+        <v>4.9230769230769234</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="B14">
+        <v>4.615384615384615</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="40" t="s">
+        <v>128</v>
+      </c>
+      <c r="B15">
+        <v>4.615384615384615</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="B16">
+        <v>4.9285714285714288</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="B17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="B18">
+        <v>4.5384615384615383</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="41" t="s">
+        <v>133</v>
+      </c>
+      <c r="B20">
+        <v>2.3333333333333335</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:B1" xr:uid="{69DE39B1-9B3A-48EC-A1C3-0236E1FBCFFB}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B18">
+      <sortCondition ref="A1"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBF4E5FE-8C1E-42BD-9F29-DCD3824FC0F7}">
   <dimension ref="A1:B9"/>
   <sheetViews>
@@ -2492,74 +3494,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="11" t="s">
         <v>100</v>
       </c>
     </row>
@@ -2571,7 +3573,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A445EDF0-1065-44CF-B64B-B0D7D9C19102}">
   <dimension ref="A1:C21"/>
   <sheetViews>
@@ -2796,12 +3798,12 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="19"/>
-      <c r="B20" s="28"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="24"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="20"/>
-      <c r="B21" s="28"/>
+      <c r="A21" s="17"/>
+      <c r="B21" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/academics/DB2/2025-2/DB2 2025-2.xlsx
+++ b/academics/DB2/2025-2/DB2 2025-2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\oicampo\Documents\GitHub\oicampo-uao.github.io\academics\DB2\2025-2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\UAO\oicampo-uao.github.io\academics\DB2\2025-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D014752-C511-4FD1-8512-DF416B84BFD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D44AE1F3-D6D6-4DB9-9DD8-6F97C05917C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Hoja1!$A$1:$B$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$AG$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$AO$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="148">
   <si>
     <t>email</t>
   </si>
@@ -476,7 +476,34 @@
     <t>Nota Preguntas</t>
   </si>
   <si>
-    <t>Avances del Corte</t>
+    <t>Aplicación de  Normas</t>
+  </si>
+  <si>
+    <t>Diseño de Detalle</t>
+  </si>
+  <si>
+    <t>Prototipo</t>
+  </si>
+  <si>
+    <t>Pruebas Usabilidad</t>
+  </si>
+  <si>
+    <t>Alineación con términos de Referencia Convocatoria FOAL</t>
+  </si>
+  <si>
+    <t>Nota 2o Corte</t>
+  </si>
+  <si>
+    <t>Nota Avances 2o Corte</t>
+  </si>
+  <si>
+    <t>Nota Evaluación por Pares</t>
+  </si>
+  <si>
+    <t>Planos/UI/MockUps/Simulaciones</t>
+  </si>
+  <si>
+    <t>No se les tuvo en cuenta evaluación por pares</t>
   </si>
 </sst>
 </file>
@@ -528,7 +555,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -547,8 +574,26 @@
         <bgColor theme="4"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -704,11 +749,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -750,12 +821,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -764,37 +830,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -805,6 +844,72 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1195,19 +1300,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG27"/>
+  <dimension ref="A1:AO27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AG3" sqref="A3:AG3"/>
+    <sheetView tabSelected="1" topLeftCell="W1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:AO26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="35.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="35.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.140625" customWidth="1"/>
-    <col min="5" max="5" width="6.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="29.140625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="6.42578125" style="1" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="13.85546875" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="6.140625" style="1" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="7.85546875" hidden="1" customWidth="1"/>
@@ -1228,158 +1333,189 @@
     <col min="23" max="23" width="14.7109375" customWidth="1"/>
     <col min="24" max="24" width="12.7109375" customWidth="1"/>
     <col min="25" max="25" width="12.42578125" customWidth="1"/>
-    <col min="26" max="26" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.28515625" customWidth="1"/>
     <col min="27" max="27" width="12.42578125" customWidth="1"/>
     <col min="28" max="29" width="8" customWidth="1"/>
     <col min="30" max="31" width="5.28515625" customWidth="1"/>
-    <col min="32" max="32" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="17" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="12" style="1" customWidth="1"/>
+    <col min="34" max="34" width="11.5703125" style="1" customWidth="1"/>
+    <col min="35" max="35" width="12.140625" style="1" customWidth="1"/>
+    <col min="36" max="36" width="19.140625" style="1" customWidth="1"/>
+    <col min="37" max="37" width="9.5703125" style="1" customWidth="1"/>
+    <col min="38" max="38" width="11.42578125" style="1" customWidth="1"/>
+    <col min="39" max="39" width="14.42578125" style="1" customWidth="1"/>
+    <col min="40" max="40" width="22.28515625" style="1" customWidth="1"/>
+    <col min="41" max="41" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:41">
       <c r="Q1" t="s">
         <v>104</v>
       </c>
-      <c r="R1" s="21">
+      <c r="R1" s="19">
         <v>45912</v>
       </c>
       <c r="S1" t="s">
         <v>104</v>
       </c>
-      <c r="T1" s="21">
+      <c r="T1" s="19">
         <v>45926</v>
       </c>
       <c r="U1" t="s">
         <v>104</v>
       </c>
-      <c r="V1" s="21">
+      <c r="V1" s="19">
         <v>45933</v>
       </c>
-      <c r="W1" s="21"/>
-    </row>
-    <row r="2" spans="1:33">
+      <c r="W1" s="19"/>
+    </row>
+    <row r="2" spans="1:41">
       <c r="Q2" t="s">
         <v>105</v>
       </c>
-      <c r="R2" s="23">
+      <c r="R2" s="20">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="S2" t="s">
         <v>105</v>
       </c>
-      <c r="T2" s="23">
+      <c r="T2" s="20">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="U2" t="s">
         <v>105</v>
       </c>
-      <c r="V2" s="23">
+      <c r="V2" s="20">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="W2" s="23"/>
-    </row>
-    <row r="3" spans="1:33" s="38" customFormat="1" ht="45">
-      <c r="A3" s="34" t="s">
+      <c r="W2" s="20"/>
+    </row>
+    <row r="3" spans="1:41" s="24" customFormat="1" ht="45">
+      <c r="A3" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="34" t="s">
+      <c r="D3" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="F3" s="34" t="s">
+      <c r="F3" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="G3" s="34" t="s">
+      <c r="G3" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="H3" s="34" t="s">
+      <c r="H3" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="I3" s="34" t="s">
+      <c r="I3" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="J3" s="34" t="s">
+      <c r="J3" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="K3" s="34" t="s">
+      <c r="K3" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="L3" s="34" t="s">
+      <c r="L3" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="M3" s="35" t="s">
+      <c r="M3" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="N3" s="35" t="s">
+      <c r="N3" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="O3" s="35" t="s">
+      <c r="O3" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="P3" s="34" t="s">
+      <c r="P3" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="Q3" s="36" t="s">
+      <c r="Q3" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="R3" s="36" t="s">
+      <c r="R3" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="S3" s="36" t="s">
+      <c r="S3" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="T3" s="36" t="s">
+      <c r="T3" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="U3" s="36" t="s">
+      <c r="U3" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="V3" s="36" t="s">
+      <c r="V3" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="W3" s="37" t="s">
+      <c r="W3" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="X3" s="37" t="s">
+      <c r="X3" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="Y3" s="37" t="s">
+      <c r="Y3" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="Z3" s="37" t="s">
+      <c r="Z3" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="AA3" s="37" t="s">
+      <c r="AA3" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="AB3" s="37" t="s">
+      <c r="AB3" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="AC3" s="37" t="s">
+      <c r="AC3" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="AD3" s="37" t="s">
+      <c r="AD3" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="AE3" s="37" t="s">
+      <c r="AE3" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="AF3" s="37" t="s">
+      <c r="AF3" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="AG3" s="37" t="s">
+      <c r="AG3" s="50" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH3" s="23" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="4" spans="1:33">
+      <c r="AI3" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="AJ3" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="AK3" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="AL3" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="AM3" s="50" t="s">
+        <v>144</v>
+      </c>
+      <c r="AN3" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="AO3" s="23" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41">
       <c r="A4" s="3">
         <v>1107836732</v>
       </c>
@@ -1429,148 +1565,210 @@
         <f>0.7*L4+0.2*M4+0.1*O4+N4</f>
         <v>4.3179999999999996</v>
       </c>
-      <c r="Q4" s="20">
+      <c r="Q4" s="31">
         <v>1.474537037037037E-2</v>
       </c>
-      <c r="R4" s="22">
+      <c r="R4" s="32">
         <f>Q4/$R$2</f>
         <v>0.70777777777777784</v>
       </c>
-      <c r="S4" s="23">
+      <c r="S4" s="33">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="T4" s="22">
+      <c r="T4" s="32">
         <f>S4/$T$2</f>
         <v>1</v>
       </c>
-      <c r="U4" s="25">
-        <v>1</v>
-      </c>
-      <c r="V4" s="25">
-        <v>1</v>
-      </c>
-      <c r="W4" s="13">
+      <c r="U4" s="32">
+        <v>1</v>
+      </c>
+      <c r="V4" s="34">
+        <v>1</v>
+      </c>
+      <c r="W4" s="12">
         <f>AVERAGE(R4,T4,V4)*5</f>
         <v>4.5129629629629626</v>
       </c>
-      <c r="X4" s="26"/>
-      <c r="Y4" s="26"/>
-      <c r="Z4" s="26"/>
-      <c r="AA4" s="26">
-        <v>4</v>
-      </c>
-      <c r="AB4" s="26"/>
-      <c r="AC4" s="26">
+      <c r="X4" s="35"/>
+      <c r="Y4" s="35"/>
+      <c r="Z4" s="35"/>
+      <c r="AA4" s="35">
+        <v>4</v>
+      </c>
+      <c r="AB4" s="35"/>
+      <c r="AC4" s="35">
         <f>AVERAGE(X4:AB4)</f>
         <v>4</v>
       </c>
-      <c r="AD4" s="27">
-        <v>4</v>
-      </c>
-      <c r="AE4" s="27"/>
-      <c r="AF4" s="13">
+      <c r="AD4" s="5">
+        <v>4</v>
+      </c>
+      <c r="AE4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="5">
         <v>4.0769230769230766</v>
       </c>
-    </row>
-    <row r="5" spans="1:33">
-      <c r="A5" s="3">
+      <c r="AG4" s="5">
+        <f>0.3*AF4+0.7*AVERAGE(AC4:AE4)</f>
+        <v>3.0897435897435894</v>
+      </c>
+      <c r="AH4" s="5">
+        <v>4.3</v>
+      </c>
+      <c r="AI4" s="5">
+        <v>4</v>
+      </c>
+      <c r="AJ4" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="AK4" s="5">
+        <v>4.8</v>
+      </c>
+      <c r="AL4" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="AM4" s="5">
+        <f>AVERAGE(AH4:AL4)</f>
+        <v>4.42</v>
+      </c>
+      <c r="AN4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AO4" s="5">
+        <f>0.3*AN4+0.6*AM4+0.05*AG4+0.05*W4</f>
+        <v>3.0321353276353271</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41" s="48" customFormat="1">
+      <c r="A5" s="37">
         <v>1005785832</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="37">
         <v>2</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="G5" s="3">
-        <v>4</v>
-      </c>
-      <c r="H5" s="3" t="str" cm="1">
+      <c r="G5" s="37">
+        <v>4</v>
+      </c>
+      <c r="H5" s="37" t="str" cm="1">
         <f t="array" ref="H5">_xlfn.IFS(G5=1, "2:00 PM", G5=2, "2:30 PM", G5=3, "3:00 PM", G5=4, "3:30 PM")</f>
         <v>3:30 PM</v>
       </c>
-      <c r="I5" s="14">
+      <c r="I5" s="40">
         <v>7</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="37">
         <v>7</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="41">
         <v>4.8</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="41">
         <f>(J5/I5)*K5</f>
         <v>4.8</v>
       </c>
-      <c r="M5" s="12">
+      <c r="M5" s="42">
         <v>3.55</v>
       </c>
-      <c r="N5" s="12">
+      <c r="N5" s="42">
         <f>1/20</f>
         <v>0.05</v>
       </c>
-      <c r="O5" s="12">
+      <c r="O5" s="42">
         <v>4.7</v>
       </c>
-      <c r="P5" s="5">
+      <c r="P5" s="41">
         <f>0.7*L5+0.2*M5+0.1*O5+N5</f>
         <v>4.59</v>
       </c>
-      <c r="Q5" s="20">
+      <c r="Q5" s="43">
         <v>1.5520833333333333E-2</v>
       </c>
-      <c r="R5" s="22">
+      <c r="R5" s="44">
         <f>Q5/$R$2</f>
         <v>0.745</v>
       </c>
-      <c r="S5" s="23">
+      <c r="S5" s="45">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="T5" s="22">
+      <c r="T5" s="44">
         <f>S5/$T$2</f>
         <v>1</v>
       </c>
-      <c r="U5" s="25">
-        <v>1</v>
-      </c>
-      <c r="V5" s="25">
+      <c r="U5" s="44">
+        <v>1</v>
+      </c>
+      <c r="V5" s="46">
         <v>0.8</v>
       </c>
-      <c r="W5" s="13">
+      <c r="W5" s="52">
         <f>AVERAGE(R5,T5,V5)*5</f>
         <v>4.2416666666666663</v>
       </c>
-      <c r="X5" s="26">
+      <c r="X5" s="47">
         <v>3</v>
       </c>
-      <c r="Y5" s="26"/>
-      <c r="Z5" s="26"/>
-      <c r="AA5" s="26">
-        <v>4</v>
-      </c>
-      <c r="AB5" s="26"/>
-      <c r="AC5" s="26">
-        <f t="shared" ref="AC5:AC23" si="0">AVERAGE(X5:AB5)</f>
+      <c r="Y5" s="47"/>
+      <c r="Z5" s="47"/>
+      <c r="AA5" s="47">
+        <v>4</v>
+      </c>
+      <c r="AB5" s="47"/>
+      <c r="AC5" s="47">
+        <f>AVERAGE(X5:AB5)</f>
         <v>3.5</v>
       </c>
-      <c r="AD5" s="27">
-        <v>4.5</v>
-      </c>
-      <c r="AE5" s="27"/>
-      <c r="AF5" s="13">
+      <c r="AD5" s="41">
+        <v>4.5</v>
+      </c>
+      <c r="AE5" s="41"/>
+      <c r="AF5" s="41">
         <v>4.9285714285714288</v>
       </c>
-    </row>
-    <row r="6" spans="1:33">
+      <c r="AG5" s="51">
+        <f>0.2*AF5+0.8*AVERAGE(AC5:AE5)</f>
+        <v>4.1857142857142859</v>
+      </c>
+      <c r="AH5" s="41">
+        <v>4.8</v>
+      </c>
+      <c r="AI5" s="41">
+        <v>4.8</v>
+      </c>
+      <c r="AJ5" s="41">
+        <v>4.5</v>
+      </c>
+      <c r="AK5" s="41">
+        <v>5</v>
+      </c>
+      <c r="AL5" s="41">
+        <v>4.5</v>
+      </c>
+      <c r="AM5" s="51">
+        <f>AVERAGE(AH5:AL5)</f>
+        <v>4.7200000000000006</v>
+      </c>
+      <c r="AN5" s="51">
+        <v>4.5</v>
+      </c>
+      <c r="AO5" s="41">
+        <f>0.3*AN5+0.6*AM5+0.05*AG5+0.05*W5</f>
+        <v>4.6033690476190481</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41">
       <c r="A6" s="3">
         <v>1110364376</v>
       </c>
@@ -1623,149 +1821,207 @@
         <f>0.7*L6+0.2*M6+0.1*O6+N6</f>
         <v>4.5904999999999996</v>
       </c>
-      <c r="Q6" s="20">
+      <c r="Q6" s="31">
         <v>1.412037037037037E-2</v>
       </c>
-      <c r="R6" s="22">
+      <c r="R6" s="32">
         <f>Q6/$R$2</f>
         <v>0.67777777777777781</v>
       </c>
-      <c r="S6" s="23">
-        <v>0</v>
-      </c>
-      <c r="T6" s="22">
+      <c r="S6" s="33">
+        <v>0</v>
+      </c>
+      <c r="T6" s="32">
         <f>S6/$T$2</f>
         <v>0</v>
       </c>
-      <c r="U6" s="25">
-        <v>1</v>
-      </c>
-      <c r="V6" s="25">
-        <v>0</v>
-      </c>
-      <c r="W6" s="13">
-        <f>AVERAGE(R6,T6,V6)*5</f>
-        <v>1.1296296296296298</v>
-      </c>
-      <c r="X6" s="26"/>
-      <c r="Y6" s="26">
+      <c r="U6" s="32">
+        <v>1</v>
+      </c>
+      <c r="V6" s="34">
+        <v>0</v>
+      </c>
+      <c r="W6" s="12">
+        <v>3</v>
+      </c>
+      <c r="X6" s="35"/>
+      <c r="Y6" s="35">
         <v>2</v>
       </c>
-      <c r="Z6" s="26">
+      <c r="Z6" s="35">
         <v>2</v>
       </c>
-      <c r="AA6" s="26"/>
-      <c r="AB6" s="26"/>
-      <c r="AC6" s="26">
-        <f t="shared" si="0"/>
+      <c r="AA6" s="35"/>
+      <c r="AB6" s="35"/>
+      <c r="AC6" s="35">
+        <f>AVERAGE(X6:AB6)</f>
         <v>2</v>
       </c>
-      <c r="AD6" s="27">
-        <v>4.5</v>
-      </c>
-      <c r="AE6" s="27">
-        <v>4</v>
-      </c>
-      <c r="AF6" s="13">
+      <c r="AD6" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="AE6" s="5">
+        <v>4</v>
+      </c>
+      <c r="AF6" s="5">
         <v>4.9230769230769234</v>
       </c>
-    </row>
-    <row r="7" spans="1:33">
-      <c r="A7" s="3">
+      <c r="AG6" s="5">
+        <f>0.2*AF6+0.8*AVERAGE(AC6:AE6)</f>
+        <v>3.7846153846153849</v>
+      </c>
+      <c r="AH6" s="5">
+        <v>4.3</v>
+      </c>
+      <c r="AI6" s="5">
+        <v>4</v>
+      </c>
+      <c r="AJ6" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="AK6" s="5">
+        <v>4.8</v>
+      </c>
+      <c r="AL6" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="AM6" s="5">
+        <f>AVERAGE(AH6:AL6)</f>
+        <v>4.42</v>
+      </c>
+      <c r="AN6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AO6" s="5">
+        <f>0.3*AN6+0.6*AM6+0.05*AG6+0.05*W6</f>
+        <v>2.9912307692307687</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41" s="48" customFormat="1">
+      <c r="A7" s="37">
         <v>1005894053</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="3">
-        <v>4</v>
-      </c>
-      <c r="F7" s="2" t="s">
+      <c r="D7" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="37">
+        <v>4</v>
+      </c>
+      <c r="F7" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="37">
         <v>2</v>
       </c>
-      <c r="H7" s="3" t="str" cm="1">
+      <c r="H7" s="37" t="str" cm="1">
         <f t="array" ref="H7">_xlfn.IFS(G7=1, "2:00 PM", G7=2, "2:30 PM", G7=3, "3:00 PM", G7=4, "3:30 PM")</f>
         <v>2:30 PM</v>
       </c>
-      <c r="I7" s="14">
+      <c r="I7" s="40">
         <v>3</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="37">
         <v>3</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="41">
         <v>4.5999999999999996</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7" s="41">
         <f>(J7/I7)*K7</f>
         <v>4.5999999999999996</v>
       </c>
-      <c r="M7" s="12">
+      <c r="M7" s="42">
         <v>2.96</v>
       </c>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12">
+      <c r="N7" s="42"/>
+      <c r="O7" s="42">
         <v>3.5</v>
       </c>
-      <c r="P7" s="5">
+      <c r="P7" s="41">
         <f>0.7*L7+0.2*M7+0.1*O7+N7</f>
         <v>4.1619999999999999</v>
       </c>
-      <c r="Q7" s="20">
+      <c r="Q7" s="43">
         <v>2.1342592592592594E-2</v>
       </c>
-      <c r="R7" s="22">
+      <c r="R7" s="44">
         <f>Q7/$R$2</f>
         <v>1.0244444444444445</v>
       </c>
-      <c r="S7" s="23">
+      <c r="S7" s="45">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="T7" s="22">
+      <c r="T7" s="44">
         <f>S7/$T$2</f>
         <v>1</v>
       </c>
-      <c r="U7" s="25">
-        <v>1</v>
-      </c>
-      <c r="V7" s="25">
-        <v>1</v>
-      </c>
-      <c r="W7" s="13">
-        <f>AVERAGE(R7,T7,V7)*5</f>
-        <v>5.0407407407407412</v>
-      </c>
-      <c r="X7" s="26">
+      <c r="U7" s="44">
+        <v>1</v>
+      </c>
+      <c r="V7" s="46">
+        <v>1</v>
+      </c>
+      <c r="W7" s="52">
         <v>5</v>
       </c>
-      <c r="Y7" s="26"/>
-      <c r="Z7" s="26"/>
-      <c r="AA7" s="26"/>
-      <c r="AB7" s="26"/>
-      <c r="AC7" s="26">
-        <f t="shared" si="0"/>
+      <c r="X7" s="47">
         <v>5</v>
       </c>
-      <c r="AD7" s="27">
-        <v>4.5</v>
-      </c>
-      <c r="AE7" s="27">
-        <v>4</v>
-      </c>
-      <c r="AF7" s="13">
+      <c r="Y7" s="47"/>
+      <c r="Z7" s="47"/>
+      <c r="AA7" s="47"/>
+      <c r="AB7" s="47"/>
+      <c r="AC7" s="47">
+        <f>AVERAGE(X7:AB7)</f>
+        <v>5</v>
+      </c>
+      <c r="AD7" s="41">
+        <v>4.5</v>
+      </c>
+      <c r="AE7" s="41">
+        <v>4</v>
+      </c>
+      <c r="AF7" s="41">
         <v>4.666666666666667</v>
       </c>
-    </row>
-    <row r="8" spans="1:33">
+      <c r="AG7" s="51">
+        <f>0.2*AF7+0.8*AVERAGE(AC7:AE7)</f>
+        <v>4.5333333333333332</v>
+      </c>
+      <c r="AH7" s="41">
+        <v>4.8</v>
+      </c>
+      <c r="AI7" s="41">
+        <v>4.5</v>
+      </c>
+      <c r="AJ7" s="41">
+        <v>4.5</v>
+      </c>
+      <c r="AK7" s="41">
+        <v>3.5</v>
+      </c>
+      <c r="AL7" s="41">
+        <v>3</v>
+      </c>
+      <c r="AM7" s="51">
+        <f>AVERAGE(AH7:AL7)</f>
+        <v>4.0600000000000005</v>
+      </c>
+      <c r="AN7" s="51">
+        <v>4</v>
+      </c>
+      <c r="AO7" s="41">
+        <f>0.3*AN7+0.6*AM7+0.05*AG7+0.05*W7</f>
+        <v>4.1126666666666667</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41">
       <c r="A8" s="3">
         <v>1081728000</v>
       </c>
@@ -1815,153 +2071,213 @@
         <f>0.7*L8+0.2*M8+0.1*O8+N8</f>
         <v>4.2119999999999997</v>
       </c>
-      <c r="Q8" s="20">
+      <c r="Q8" s="31">
         <v>9.9305555555555553E-3</v>
       </c>
-      <c r="R8" s="22">
+      <c r="R8" s="32">
         <f>Q8/$R$2</f>
         <v>0.47666666666666668</v>
       </c>
-      <c r="S8" s="23">
+      <c r="S8" s="33">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="T8" s="22">
+      <c r="T8" s="32">
         <f>S8/$T$2</f>
         <v>1</v>
       </c>
-      <c r="U8" s="25">
-        <v>1</v>
-      </c>
-      <c r="V8" s="25">
-        <v>1</v>
-      </c>
-      <c r="W8" s="13">
+      <c r="U8" s="32">
+        <v>1</v>
+      </c>
+      <c r="V8" s="34">
+        <v>1</v>
+      </c>
+      <c r="W8" s="12">
         <f>AVERAGE(R8,T8,V8)*5</f>
         <v>4.1277777777777773</v>
       </c>
-      <c r="X8" s="26">
+      <c r="X8" s="35">
         <v>2</v>
       </c>
-      <c r="Y8" s="26"/>
-      <c r="Z8" s="26"/>
-      <c r="AA8" s="26">
-        <v>1</v>
-      </c>
-      <c r="AB8" s="26"/>
-      <c r="AC8" s="26">
-        <f t="shared" si="0"/>
+      <c r="Y8" s="35"/>
+      <c r="Z8" s="35"/>
+      <c r="AA8" s="35">
+        <v>1</v>
+      </c>
+      <c r="AB8" s="35"/>
+      <c r="AC8" s="35">
+        <f>AVERAGE(X8:AB8)</f>
         <v>1.5</v>
       </c>
-      <c r="AD8" s="27">
-        <v>4</v>
-      </c>
-      <c r="AE8" s="27">
-        <v>4</v>
-      </c>
-      <c r="AF8" s="13">
+      <c r="AD8" s="5">
+        <v>4</v>
+      </c>
+      <c r="AE8" s="5">
+        <v>4</v>
+      </c>
+      <c r="AF8" s="5">
         <v>4.615384615384615</v>
       </c>
-    </row>
-    <row r="9" spans="1:33">
-      <c r="A9" s="3">
+      <c r="AG8" s="5">
+        <f>0.2*AF8+0.8*AVERAGE(AC8:AE8)</f>
+        <v>3.4564102564102561</v>
+      </c>
+      <c r="AH8" s="5">
+        <v>4</v>
+      </c>
+      <c r="AI8" s="5">
+        <v>4.7</v>
+      </c>
+      <c r="AJ8" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="AK8" s="5">
+        <v>4</v>
+      </c>
+      <c r="AL8" s="5">
+        <v>4.3</v>
+      </c>
+      <c r="AM8" s="5">
+        <f>AVERAGE(AH8:AL8)</f>
+        <v>4.3</v>
+      </c>
+      <c r="AN8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AO8" s="5">
+        <f>0.3*AN8+0.6*AM8+0.05*AG8+0.05*W8</f>
+        <v>2.9592094017094013</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41" s="48" customFormat="1">
+      <c r="A9" s="37">
         <v>1062274189</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="37">
         <v>3</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="G9" s="3">
-        <v>1</v>
-      </c>
-      <c r="H9" s="3" t="str" cm="1">
+      <c r="G9" s="37">
+        <v>1</v>
+      </c>
+      <c r="H9" s="37" t="str" cm="1">
         <f t="array" ref="H9">_xlfn.IFS(G9=1, "2:00 PM", G9=2, "2:30 PM", G9=3, "3:00 PM", G9=4, "3:30 PM")</f>
         <v>2:00 PM</v>
       </c>
-      <c r="I9" s="14">
+      <c r="I9" s="40">
         <v>5</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="37">
         <v>3</v>
       </c>
-      <c r="K9" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="L9" s="5">
+      <c r="K9" s="41">
+        <v>4.5</v>
+      </c>
+      <c r="L9" s="41">
         <f>(J9/I9)*K9</f>
         <v>2.6999999999999997</v>
       </c>
-      <c r="M9" s="12">
+      <c r="M9" s="42">
         <v>2.76</v>
       </c>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12">
+      <c r="N9" s="42"/>
+      <c r="O9" s="42">
         <v>3</v>
       </c>
-      <c r="P9" s="5">
+      <c r="P9" s="41">
         <f>0.7*L9+0.2*M9+0.1*O9+N9</f>
         <v>2.742</v>
       </c>
-      <c r="Q9" s="20">
+      <c r="Q9" s="43">
         <v>1.8506944444444444E-2</v>
       </c>
-      <c r="R9" s="22">
+      <c r="R9" s="44">
         <f>Q9/$R$2</f>
         <v>0.88833333333333331</v>
       </c>
-      <c r="S9" s="23">
+      <c r="S9" s="45">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="T9" s="22">
+      <c r="T9" s="44">
         <f>S9/$T$2</f>
         <v>1</v>
       </c>
-      <c r="U9" s="25">
-        <v>1</v>
-      </c>
-      <c r="V9" s="25">
+      <c r="U9" s="44">
+        <v>1</v>
+      </c>
+      <c r="V9" s="46">
         <v>0.8</v>
       </c>
-      <c r="W9" s="13">
+      <c r="W9" s="52">
         <f>AVERAGE(R9,T9,V9)*5</f>
         <v>4.4805555555555561</v>
       </c>
-      <c r="X9" s="26">
+      <c r="X9" s="47">
         <v>2</v>
       </c>
-      <c r="Y9" s="26">
-        <v>1</v>
-      </c>
-      <c r="Z9" s="26"/>
-      <c r="AA9" s="26">
+      <c r="Y9" s="47">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="47"/>
+      <c r="AA9" s="47">
         <v>3</v>
       </c>
-      <c r="AB9" s="26"/>
-      <c r="AC9" s="26">
-        <f t="shared" si="0"/>
+      <c r="AB9" s="47"/>
+      <c r="AC9" s="47">
+        <f>AVERAGE(X9:AB9)</f>
         <v>2</v>
       </c>
-      <c r="AD9" s="27">
-        <v>4</v>
-      </c>
-      <c r="AE9" s="27">
-        <v>4</v>
-      </c>
-      <c r="AF9" s="13">
+      <c r="AD9" s="41">
+        <v>4</v>
+      </c>
+      <c r="AE9" s="41">
+        <v>4</v>
+      </c>
+      <c r="AF9" s="41">
         <v>4.7692307692307692</v>
       </c>
-    </row>
-    <row r="10" spans="1:33">
+      <c r="AG9" s="51">
+        <f>0.2*AF9+0.8*AVERAGE(AC9:AE9)</f>
+        <v>3.620512820512821</v>
+      </c>
+      <c r="AH9" s="41">
+        <v>4</v>
+      </c>
+      <c r="AI9" s="41">
+        <v>4.7</v>
+      </c>
+      <c r="AJ9" s="41">
+        <v>4.5</v>
+      </c>
+      <c r="AK9" s="41">
+        <v>4</v>
+      </c>
+      <c r="AL9" s="41">
+        <v>4.3</v>
+      </c>
+      <c r="AM9" s="51">
+        <f>AVERAGE(AH9:AL9)</f>
+        <v>4.3</v>
+      </c>
+      <c r="AN9" s="51">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="41">
+        <f>0.3*AN9+0.6*AM9+0.05*AG9+0.05*W9</f>
+        <v>2.9850534188034183</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41">
       <c r="A10" s="3">
         <v>1193073115</v>
       </c>
@@ -2011,93 +2327,172 @@
         <f>0.7*L10+0.2*M10+0.1*O10+N10</f>
         <v>4.3019999999999996</v>
       </c>
-      <c r="Q10" s="20">
+      <c r="Q10" s="31">
         <v>2.0532407407407409E-2</v>
       </c>
-      <c r="R10" s="22">
+      <c r="R10" s="32">
         <f>Q10/$R$2</f>
         <v>0.98555555555555563</v>
       </c>
-      <c r="S10" s="23">
+      <c r="S10" s="33">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="T10" s="22">
+      <c r="T10" s="32">
         <f>S10/$T$2</f>
         <v>1</v>
       </c>
-      <c r="U10" s="25">
-        <v>1</v>
-      </c>
-      <c r="V10" s="25">
-        <v>1</v>
-      </c>
-      <c r="W10" s="13">
+      <c r="U10" s="32">
+        <v>1</v>
+      </c>
+      <c r="V10" s="34">
+        <v>1</v>
+      </c>
+      <c r="W10" s="12">
         <f>AVERAGE(R10,T10,V10)*5</f>
         <v>4.9759259259259263</v>
       </c>
-      <c r="X10" s="26">
+      <c r="X10" s="35">
         <v>5</v>
       </c>
-      <c r="Y10" s="26">
+      <c r="Y10" s="35">
         <v>5</v>
       </c>
-      <c r="Z10" s="26">
+      <c r="Z10" s="35">
         <v>5</v>
       </c>
-      <c r="AA10" s="26"/>
-      <c r="AB10" s="26"/>
-      <c r="AC10" s="26">
-        <f t="shared" si="0"/>
+      <c r="AA10" s="35"/>
+      <c r="AB10" s="35"/>
+      <c r="AC10" s="35">
+        <f>AVERAGE(X10:AB10)</f>
         <v>5</v>
       </c>
-      <c r="AD10" s="27">
+      <c r="AD10" s="5">
         <v>5</v>
       </c>
-      <c r="AE10" s="27">
-        <v>4</v>
-      </c>
-      <c r="AF10" s="13">
+      <c r="AE10" s="5">
+        <v>4</v>
+      </c>
+      <c r="AF10" s="5">
         <v>4.833333333333333</v>
       </c>
-    </row>
-    <row r="11" spans="1:33">
-      <c r="A11" s="3">
+      <c r="AG10" s="5">
+        <f>0.2*AF10+0.8*AVERAGE(AC10:AE10)</f>
+        <v>4.7</v>
+      </c>
+      <c r="AH10" s="5">
+        <v>4.8</v>
+      </c>
+      <c r="AI10" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="AJ10" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="AK10" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="AL10" s="5">
+        <v>3</v>
+      </c>
+      <c r="AM10" s="5">
+        <f>AVERAGE(AH10:AL10)</f>
+        <v>4.0600000000000005</v>
+      </c>
+      <c r="AN10" s="5">
+        <v>4</v>
+      </c>
+      <c r="AO10" s="5">
+        <f>0.3*AN10+0.6*AM10+0.05*AG10+0.05*W10</f>
+        <v>4.119796296296296</v>
+      </c>
+    </row>
+    <row r="11" spans="1:41" s="48" customFormat="1">
+      <c r="A11" s="37">
         <v>1004189893</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="33"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="2"/>
-      <c r="R11" s="22"/>
-      <c r="W11" s="13"/>
-      <c r="X11" s="26"/>
-      <c r="Y11" s="26"/>
-      <c r="Z11" s="26"/>
-      <c r="AA11" s="26"/>
-      <c r="AB11" s="26"/>
-      <c r="AC11" s="26">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="27"/>
-      <c r="AE11" s="27"/>
-      <c r="AF11" s="13"/>
-    </row>
-    <row r="12" spans="1:33">
+      <c r="D11" s="38"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="42"/>
+      <c r="O11" s="42"/>
+      <c r="P11" s="38"/>
+      <c r="Q11" s="43">
+        <v>0</v>
+      </c>
+      <c r="R11" s="44">
+        <v>0</v>
+      </c>
+      <c r="S11" s="45">
+        <v>0</v>
+      </c>
+      <c r="T11" s="44">
+        <v>0</v>
+      </c>
+      <c r="U11" s="45">
+        <v>0</v>
+      </c>
+      <c r="V11" s="46">
+        <v>0</v>
+      </c>
+      <c r="W11" s="52">
+        <v>0</v>
+      </c>
+      <c r="X11" s="47"/>
+      <c r="Y11" s="47"/>
+      <c r="Z11" s="47"/>
+      <c r="AA11" s="47"/>
+      <c r="AB11" s="47"/>
+      <c r="AC11" s="47">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="41"/>
+      <c r="AE11" s="41"/>
+      <c r="AF11" s="41">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="51">
+        <f>0.2*AF11+0.8*AVERAGE(AC11:AE11)</f>
+        <v>0</v>
+      </c>
+      <c r="AH11" s="41">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="41">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="41">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="41">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="41">
+        <v>0</v>
+      </c>
+      <c r="AM11" s="51">
+        <v>0</v>
+      </c>
+      <c r="AN11" s="51">
+        <v>0</v>
+      </c>
+      <c r="AO11" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:41">
       <c r="A12" s="3">
         <v>1005783739</v>
       </c>
@@ -2150,151 +2545,211 @@
         <f>0.7*L12+0.2*M12+0.1*O12+N12</f>
         <v>4.6900000000000004</v>
       </c>
-      <c r="Q12" s="20">
+      <c r="Q12" s="31">
         <v>1.4976851851851852E-2</v>
       </c>
-      <c r="R12" s="22">
+      <c r="R12" s="32">
         <f>Q12/$R$2</f>
         <v>0.71888888888888891</v>
       </c>
-      <c r="S12" s="23">
+      <c r="S12" s="33">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="T12" s="22">
+      <c r="T12" s="32">
         <f>S12/$T$2</f>
         <v>1</v>
       </c>
-      <c r="U12" s="25">
-        <v>1</v>
-      </c>
-      <c r="V12" s="25">
-        <v>1</v>
-      </c>
-      <c r="W12" s="13">
+      <c r="U12" s="32">
+        <v>1</v>
+      </c>
+      <c r="V12" s="34">
+        <v>1</v>
+      </c>
+      <c r="W12" s="12">
         <f>AVERAGE(R12,T12,V12)*5</f>
         <v>4.5314814814814817</v>
       </c>
-      <c r="X12" s="26">
+      <c r="X12" s="35">
         <v>2</v>
       </c>
-      <c r="Y12" s="26"/>
-      <c r="Z12" s="26">
-        <v>4</v>
-      </c>
-      <c r="AA12" s="26"/>
-      <c r="AB12" s="26"/>
-      <c r="AC12" s="26">
-        <f t="shared" si="0"/>
+      <c r="Y12" s="35"/>
+      <c r="Z12" s="35">
+        <v>4</v>
+      </c>
+      <c r="AA12" s="35"/>
+      <c r="AB12" s="35"/>
+      <c r="AC12" s="35">
+        <f>AVERAGE(X12:AB12)</f>
         <v>3</v>
       </c>
-      <c r="AD12" s="27">
-        <v>4.5</v>
-      </c>
-      <c r="AE12" s="27">
+      <c r="AD12" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="AE12" s="5">
         <v>5</v>
       </c>
-      <c r="AF12" s="13">
+      <c r="AF12" s="5">
         <v>4.9285714285714288</v>
       </c>
-    </row>
-    <row r="13" spans="1:33" ht="15.75">
-      <c r="A13" s="3">
+      <c r="AG12" s="5">
+        <f>0.2*AF12+0.8*AVERAGE(AC12:AE12)</f>
+        <v>4.3190476190476197</v>
+      </c>
+      <c r="AH12" s="5">
+        <v>4.8</v>
+      </c>
+      <c r="AI12" s="5">
+        <v>4.8</v>
+      </c>
+      <c r="AJ12" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="AK12" s="5">
+        <v>5</v>
+      </c>
+      <c r="AL12" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="AM12" s="5">
+        <f>AVERAGE(AH12:AL12)</f>
+        <v>4.7200000000000006</v>
+      </c>
+      <c r="AN12" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="AO12" s="5">
+        <f>0.3*AN12+0.6*AM12+0.05*AG12+0.05*W12</f>
+        <v>4.624526455026456</v>
+      </c>
+    </row>
+    <row r="13" spans="1:41" s="48" customFormat="1" ht="15.75">
+      <c r="A13" s="37">
         <v>1007603017</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="37">
         <v>3</v>
       </c>
-      <c r="F13" s="19" t="s">
+      <c r="F13" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="G13" s="3">
-        <v>1</v>
-      </c>
-      <c r="H13" s="3" t="str" cm="1">
+      <c r="G13" s="37">
+        <v>1</v>
+      </c>
+      <c r="H13" s="37" t="str" cm="1">
         <f t="array" ref="H13">_xlfn.IFS(G13=1, "2:00 PM", G13=2, "2:30 PM", G13=3, "3:00 PM", G13=4, "3:30 PM")</f>
         <v>2:00 PM</v>
       </c>
-      <c r="I13" s="14">
+      <c r="I13" s="40">
         <v>5</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J13" s="37">
         <v>5</v>
       </c>
-      <c r="K13" s="5">
+      <c r="K13" s="41">
         <v>4.8</v>
       </c>
-      <c r="L13" s="5">
+      <c r="L13" s="41">
         <f>(J13/I13)*K13</f>
         <v>4.8</v>
       </c>
-      <c r="M13" s="12">
+      <c r="M13" s="42">
         <v>2.76</v>
       </c>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12">
+      <c r="N13" s="42"/>
+      <c r="O13" s="42">
         <v>3</v>
       </c>
-      <c r="P13" s="5">
+      <c r="P13" s="41">
         <f>0.7*L13+0.2*M13+0.1*O13+N13</f>
         <v>4.2119999999999997</v>
       </c>
-      <c r="Q13" s="20">
+      <c r="Q13" s="43">
         <v>1.8159722222222223E-2</v>
       </c>
-      <c r="R13" s="22">
+      <c r="R13" s="44">
         <f>Q13/$R$2</f>
         <v>0.8716666666666667</v>
       </c>
-      <c r="S13" s="23">
+      <c r="S13" s="45">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="T13" s="22">
+      <c r="T13" s="44">
         <f>S13/$T$2</f>
         <v>1</v>
       </c>
-      <c r="U13" s="25">
-        <v>1</v>
-      </c>
-      <c r="V13" s="25">
-        <v>1</v>
-      </c>
-      <c r="W13" s="13">
+      <c r="U13" s="44">
+        <v>1</v>
+      </c>
+      <c r="V13" s="46">
+        <v>1</v>
+      </c>
+      <c r="W13" s="52">
         <f>AVERAGE(R13,T13,V13)*5</f>
         <v>4.7861111111111114</v>
       </c>
-      <c r="X13" s="26">
-        <v>4</v>
-      </c>
-      <c r="Y13" s="26"/>
-      <c r="Z13" s="26"/>
-      <c r="AA13" s="26">
+      <c r="X13" s="47">
+        <v>4</v>
+      </c>
+      <c r="Y13" s="47"/>
+      <c r="Z13" s="47"/>
+      <c r="AA13" s="47">
         <v>5</v>
       </c>
-      <c r="AB13" s="26"/>
-      <c r="AC13" s="26">
-        <f t="shared" si="0"/>
-        <v>4.5</v>
-      </c>
-      <c r="AD13" s="27">
-        <v>4</v>
-      </c>
-      <c r="AE13" s="27">
-        <v>4</v>
-      </c>
-      <c r="AF13" s="13">
+      <c r="AB13" s="47"/>
+      <c r="AC13" s="47">
+        <f>AVERAGE(X13:AB13)</f>
+        <v>4.5</v>
+      </c>
+      <c r="AD13" s="41">
+        <v>4</v>
+      </c>
+      <c r="AE13" s="41">
+        <v>4</v>
+      </c>
+      <c r="AF13" s="41">
         <v>4.615384615384615</v>
       </c>
-    </row>
-    <row r="14" spans="1:33">
+      <c r="AG13" s="51">
+        <f>0.2*AF13+0.8*AVERAGE(AC13:AE13)</f>
+        <v>4.2564102564102573</v>
+      </c>
+      <c r="AH13" s="41">
+        <v>4</v>
+      </c>
+      <c r="AI13" s="41">
+        <v>4.7</v>
+      </c>
+      <c r="AJ13" s="41">
+        <v>4.5</v>
+      </c>
+      <c r="AK13" s="41">
+        <v>4</v>
+      </c>
+      <c r="AL13" s="41">
+        <v>4.3</v>
+      </c>
+      <c r="AM13" s="51">
+        <f>AVERAGE(AH13:AL13)</f>
+        <v>4.3</v>
+      </c>
+      <c r="AN13" s="51">
+        <v>0</v>
+      </c>
+      <c r="AO13" s="41">
+        <f>0.3*AN13+0.6*AM13+0.05*AG13+0.05*W13</f>
+        <v>3.0321260683760682</v>
+      </c>
+    </row>
+    <row r="14" spans="1:41">
       <c r="A14" s="3">
         <v>1062329024</v>
       </c>
@@ -2344,154 +2799,214 @@
         <f>0.7*L14+0.2*M14+0.1*O14+N14</f>
         <v>4.3179999999999996</v>
       </c>
-      <c r="Q14" s="20">
-        <v>0</v>
-      </c>
-      <c r="R14" s="22">
+      <c r="Q14" s="31">
+        <v>0</v>
+      </c>
+      <c r="R14" s="32">
         <f>Q14/$R$2</f>
         <v>0</v>
       </c>
-      <c r="S14" s="23">
+      <c r="S14" s="33">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="T14" s="22">
+      <c r="T14" s="32">
         <f>S14/$T$2</f>
         <v>1</v>
       </c>
-      <c r="U14" s="25">
-        <v>1</v>
-      </c>
-      <c r="V14" s="25">
-        <v>1</v>
-      </c>
-      <c r="W14" s="13">
+      <c r="U14" s="32">
+        <v>1</v>
+      </c>
+      <c r="V14" s="34">
+        <v>1</v>
+      </c>
+      <c r="W14" s="12">
         <f>AVERAGE(R14,T14,V14)*5</f>
         <v>3.333333333333333</v>
       </c>
-      <c r="X14" s="26"/>
-      <c r="Y14" s="26">
+      <c r="X14" s="35"/>
+      <c r="Y14" s="35">
         <v>5</v>
       </c>
-      <c r="Z14" s="26">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="26"/>
-      <c r="AB14" s="26"/>
-      <c r="AC14" s="26">
-        <f t="shared" si="0"/>
+      <c r="Z14" s="35">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="35"/>
+      <c r="AB14" s="35"/>
+      <c r="AC14" s="35">
+        <f>AVERAGE(X14:AB14)</f>
         <v>2.5</v>
       </c>
-      <c r="AD14" s="27">
+      <c r="AD14" s="5">
         <v>3</v>
       </c>
-      <c r="AE14" s="27">
-        <v>4</v>
-      </c>
-      <c r="AF14" s="13">
+      <c r="AE14" s="5">
+        <v>4</v>
+      </c>
+      <c r="AF14" s="5">
         <v>3.8461538461538463</v>
       </c>
-    </row>
-    <row r="15" spans="1:33">
-      <c r="A15" s="3">
+      <c r="AG14" s="5">
+        <f>0.2*AF14+0.8*AVERAGE(AC14:AE14)</f>
+        <v>3.3025641025641024</v>
+      </c>
+      <c r="AH14" s="5">
+        <v>4.3</v>
+      </c>
+      <c r="AI14" s="5">
+        <v>4</v>
+      </c>
+      <c r="AJ14" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="AK14" s="5">
+        <v>4.8</v>
+      </c>
+      <c r="AL14" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="AM14" s="5">
+        <f>AVERAGE(AH14:AL14)</f>
+        <v>4.42</v>
+      </c>
+      <c r="AN14" s="5">
+        <v>0</v>
+      </c>
+      <c r="AO14" s="5">
+        <f>0.3*AN14+0.6*AM14+0.05*AG14+0.05*W14</f>
+        <v>2.9837948717948715</v>
+      </c>
+    </row>
+    <row r="15" spans="1:41" s="48" customFormat="1">
+      <c r="A15" s="37">
         <v>1113698193</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="37">
         <v>2</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="G15" s="3">
-        <v>4</v>
-      </c>
-      <c r="H15" s="3" t="str" cm="1">
+      <c r="G15" s="37">
+        <v>4</v>
+      </c>
+      <c r="H15" s="37" t="str" cm="1">
         <f t="array" ref="H15">_xlfn.IFS(G15=1, "2:00 PM", G15=2, "2:30 PM", G15=3, "3:00 PM", G15=4, "3:30 PM")</f>
         <v>3:30 PM</v>
       </c>
-      <c r="I15" s="14">
+      <c r="I15" s="40">
         <v>3</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="37">
         <v>3</v>
       </c>
-      <c r="K15" s="5">
+      <c r="K15" s="41">
         <v>4.8</v>
       </c>
-      <c r="L15" s="5">
+      <c r="L15" s="41">
         <f>(J15/I15)*K15</f>
         <v>4.8</v>
       </c>
-      <c r="M15" s="12">
+      <c r="M15" s="42">
         <v>3.55</v>
       </c>
-      <c r="N15" s="12">
+      <c r="N15" s="42">
         <f>2/20</f>
         <v>0.1</v>
       </c>
-      <c r="O15" s="12">
+      <c r="O15" s="42">
         <v>4.7</v>
       </c>
-      <c r="P15" s="5">
+      <c r="P15" s="41">
         <f>0.7*L15+0.2*M15+0.1*O15+N15</f>
         <v>4.6399999999999997</v>
       </c>
-      <c r="Q15" s="20">
+      <c r="Q15" s="43">
         <v>1.5833333333333335E-2</v>
       </c>
-      <c r="R15" s="22">
+      <c r="R15" s="44">
         <f>Q15/$R$2</f>
         <v>0.76000000000000012</v>
       </c>
-      <c r="S15" s="23">
+      <c r="S15" s="45">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="T15" s="22">
+      <c r="T15" s="44">
         <f>S15/$T$2</f>
         <v>1</v>
       </c>
-      <c r="U15" s="25">
-        <v>1</v>
-      </c>
-      <c r="V15" s="25">
+      <c r="U15" s="44">
+        <v>1</v>
+      </c>
+      <c r="V15" s="46">
         <v>0.6</v>
       </c>
-      <c r="W15" s="13">
+      <c r="W15" s="52">
         <f>AVERAGE(R15,T15,V15)*5</f>
         <v>3.9333333333333336</v>
       </c>
-      <c r="X15" s="26">
+      <c r="X15" s="47">
         <v>5</v>
       </c>
-      <c r="Y15" s="26"/>
-      <c r="Z15" s="26"/>
-      <c r="AA15" s="26">
-        <v>4</v>
-      </c>
-      <c r="AB15" s="26"/>
-      <c r="AC15" s="26">
-        <f t="shared" si="0"/>
-        <v>4.5</v>
-      </c>
-      <c r="AD15" s="27">
-        <v>4.5</v>
-      </c>
-      <c r="AE15" s="27">
+      <c r="Y15" s="47"/>
+      <c r="Z15" s="47"/>
+      <c r="AA15" s="47">
+        <v>4</v>
+      </c>
+      <c r="AB15" s="47"/>
+      <c r="AC15" s="47">
+        <f>AVERAGE(X15:AB15)</f>
+        <v>4.5</v>
+      </c>
+      <c r="AD15" s="41">
+        <v>4.5</v>
+      </c>
+      <c r="AE15" s="41">
         <v>5</v>
       </c>
-      <c r="AF15" s="13">
+      <c r="AF15" s="41">
         <v>4.8571428571428568</v>
       </c>
-    </row>
-    <row r="16" spans="1:33">
+      <c r="AG15" s="51">
+        <f>0.2*AF15+0.8*AVERAGE(AC15:AE15)</f>
+        <v>4.7047619047619049</v>
+      </c>
+      <c r="AH15" s="41">
+        <v>4.8</v>
+      </c>
+      <c r="AI15" s="41">
+        <v>4.8</v>
+      </c>
+      <c r="AJ15" s="41">
+        <v>4.5</v>
+      </c>
+      <c r="AK15" s="41">
+        <v>5</v>
+      </c>
+      <c r="AL15" s="41">
+        <v>4.5</v>
+      </c>
+      <c r="AM15" s="51">
+        <f>AVERAGE(AH15:AL15)</f>
+        <v>4.7200000000000006</v>
+      </c>
+      <c r="AN15" s="51">
+        <v>4.5</v>
+      </c>
+      <c r="AO15" s="41">
+        <f>0.3*AN15+0.6*AM15+0.05*AG15+0.05*W15</f>
+        <v>4.6139047619047622</v>
+      </c>
+    </row>
+    <row r="16" spans="1:41">
       <c r="A16" s="3">
         <v>1005967544</v>
       </c>
@@ -2541,156 +3056,216 @@
         <f>0.7*L16+0.2*M16+0.1*O16+N16</f>
         <v>4.3879999999999999</v>
       </c>
-      <c r="Q16" s="20">
+      <c r="Q16" s="31">
         <v>1.3935185185185186E-2</v>
       </c>
-      <c r="R16" s="22">
+      <c r="R16" s="32">
         <f>Q16/$R$2</f>
         <v>0.66888888888888898</v>
       </c>
-      <c r="S16" s="23">
+      <c r="S16" s="33">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="T16" s="22">
+      <c r="T16" s="32">
         <f>S16/$T$2</f>
         <v>1</v>
       </c>
-      <c r="U16" s="25">
-        <v>1</v>
-      </c>
-      <c r="V16" s="25">
-        <v>1</v>
-      </c>
-      <c r="W16" s="13">
+      <c r="U16" s="32">
+        <v>1</v>
+      </c>
+      <c r="V16" s="34">
+        <v>1</v>
+      </c>
+      <c r="W16" s="12">
         <f>AVERAGE(R16,T16,V16)*5</f>
         <v>4.4481481481481486</v>
       </c>
-      <c r="X16" s="26"/>
-      <c r="Y16" s="26">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="26"/>
-      <c r="AA16" s="26">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="26"/>
-      <c r="AC16" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AD16" s="27">
-        <v>4</v>
-      </c>
-      <c r="AE16" s="27">
-        <v>4</v>
-      </c>
-      <c r="AF16" s="13">
+      <c r="X16" s="35"/>
+      <c r="Y16" s="35">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="35"/>
+      <c r="AA16" s="35">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="35"/>
+      <c r="AC16" s="35">
+        <f>AVERAGE(X16:AB16)</f>
+        <v>0</v>
+      </c>
+      <c r="AD16" s="5">
+        <v>4</v>
+      </c>
+      <c r="AE16" s="5">
+        <v>4</v>
+      </c>
+      <c r="AF16" s="5">
         <v>4.916666666666667</v>
       </c>
-    </row>
-    <row r="17" spans="1:32">
-      <c r="A17" s="3">
+      <c r="AG16" s="5">
+        <f>0.2*AF16+0.8*AVERAGE(AC16:AE16)</f>
+        <v>3.1166666666666667</v>
+      </c>
+      <c r="AH16" s="5">
+        <v>4.3</v>
+      </c>
+      <c r="AI16" s="5">
+        <v>4</v>
+      </c>
+      <c r="AJ16" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="AK16" s="5">
+        <v>4.8</v>
+      </c>
+      <c r="AL16" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="AM16" s="5">
+        <f>AVERAGE(AH16:AL16)</f>
+        <v>4.42</v>
+      </c>
+      <c r="AN16" s="5">
+        <v>0</v>
+      </c>
+      <c r="AO16" s="5">
+        <f>0.3*AN16+0.6*AM16+0.05*AG16+0.05*W16</f>
+        <v>3.0302407407407403</v>
+      </c>
+    </row>
+    <row r="17" spans="1:41" s="48" customFormat="1">
+      <c r="A17" s="37">
         <v>1005832925</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="37">
         <v>2</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="G17" s="3">
-        <v>4</v>
-      </c>
-      <c r="H17" s="3" t="str" cm="1">
+      <c r="G17" s="37">
+        <v>4</v>
+      </c>
+      <c r="H17" s="37" t="str" cm="1">
         <f t="array" ref="H17">_xlfn.IFS(G17=1, "2:00 PM", G17=2, "2:30 PM", G17=3, "3:00 PM", G17=4, "3:30 PM")</f>
         <v>3:30 PM</v>
       </c>
-      <c r="I17" s="14">
+      <c r="I17" s="40">
         <v>11</v>
       </c>
-      <c r="J17" s="3">
+      <c r="J17" s="37">
         <v>11</v>
       </c>
-      <c r="K17" s="5">
+      <c r="K17" s="41">
         <v>4.8</v>
       </c>
-      <c r="L17" s="5">
+      <c r="L17" s="41">
         <f>(J17/I17)*K17</f>
         <v>4.8</v>
       </c>
-      <c r="M17" s="12">
+      <c r="M17" s="42">
         <v>3.55</v>
       </c>
-      <c r="N17" s="12">
+      <c r="N17" s="42">
         <f>5/20</f>
         <v>0.25</v>
       </c>
-      <c r="O17" s="12">
+      <c r="O17" s="42">
         <v>4.7</v>
       </c>
-      <c r="P17" s="5">
+      <c r="P17" s="41">
         <f>0.7*L17+0.2*M17+0.1*O17+N17</f>
         <v>4.79</v>
       </c>
-      <c r="Q17" s="20">
+      <c r="Q17" s="43">
         <v>1.5972222222222221E-2</v>
       </c>
-      <c r="R17" s="22">
+      <c r="R17" s="44">
         <f>Q17/$R$2</f>
         <v>0.76666666666666661</v>
       </c>
-      <c r="S17" s="23">
+      <c r="S17" s="45">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="T17" s="22">
+      <c r="T17" s="44">
         <f>S17/$T$2</f>
         <v>1</v>
       </c>
-      <c r="U17" s="25">
-        <v>1</v>
-      </c>
-      <c r="V17" s="25">
-        <v>1</v>
-      </c>
-      <c r="W17" s="13">
+      <c r="U17" s="44">
+        <v>1</v>
+      </c>
+      <c r="V17" s="46">
+        <v>1</v>
+      </c>
+      <c r="W17" s="52">
         <f>AVERAGE(R17,T17,V17)*5</f>
         <v>4.6111111111111107</v>
       </c>
-      <c r="X17" s="26"/>
-      <c r="Y17" s="26">
+      <c r="X17" s="47"/>
+      <c r="Y17" s="47">
         <v>5</v>
       </c>
-      <c r="Z17" s="26"/>
-      <c r="AA17" s="26">
+      <c r="Z17" s="47"/>
+      <c r="AA17" s="47">
         <v>2</v>
       </c>
-      <c r="AB17" s="26">
+      <c r="AB17" s="47">
         <v>3</v>
       </c>
-      <c r="AC17" s="26">
-        <f t="shared" si="0"/>
+      <c r="AC17" s="47">
+        <f>AVERAGE(X17:AB17)</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="AD17" s="27">
+      <c r="AD17" s="41">
         <v>5</v>
       </c>
-      <c r="AE17" s="27">
+      <c r="AE17" s="41">
         <v>5</v>
       </c>
-      <c r="AF17" s="13">
+      <c r="AF17" s="41">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:32">
+      <c r="AG17" s="51">
+        <f>0.2*AF17+0.8*AVERAGE(AC17:AE17)</f>
+        <v>4.5555555555555554</v>
+      </c>
+      <c r="AH17" s="41">
+        <v>4.8</v>
+      </c>
+      <c r="AI17" s="41">
+        <v>4.8</v>
+      </c>
+      <c r="AJ17" s="41">
+        <v>4.5</v>
+      </c>
+      <c r="AK17" s="41">
+        <v>5</v>
+      </c>
+      <c r="AL17" s="41">
+        <v>4.5</v>
+      </c>
+      <c r="AM17" s="51">
+        <f>AVERAGE(AH17:AL17)</f>
+        <v>4.7200000000000006</v>
+      </c>
+      <c r="AN17" s="51">
+        <v>4.5</v>
+      </c>
+      <c r="AO17" s="41">
+        <f>0.3*AN17+0.6*AM17+0.05*AG17+0.05*W17</f>
+        <v>4.6403333333333334</v>
+      </c>
+    </row>
+    <row r="18" spans="1:41">
       <c r="A18" s="3">
         <v>1219713263</v>
       </c>
@@ -2706,7 +3281,7 @@
       <c r="E18" s="3">
         <v>3</v>
       </c>
-      <c r="F18" s="29" t="s">
+      <c r="F18" s="2" t="s">
         <v>74</v>
       </c>
       <c r="G18" s="3">
@@ -2740,144 +3315,202 @@
         <f>0.7*L18+0.2*M18+0.1*O18+N18</f>
         <v>4.282</v>
       </c>
-      <c r="Q18" s="20">
-        <v>0</v>
-      </c>
-      <c r="R18" s="22">
+      <c r="Q18" s="31">
+        <v>0</v>
+      </c>
+      <c r="R18" s="32">
         <f>Q18/$R$2</f>
         <v>0</v>
       </c>
-      <c r="S18" s="23">
+      <c r="S18" s="33">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="T18" s="22">
+      <c r="T18" s="32">
         <f>S18/$T$2</f>
         <v>1</v>
       </c>
-      <c r="U18" s="25">
-        <v>1</v>
-      </c>
-      <c r="V18" s="25">
-        <v>0</v>
-      </c>
-      <c r="W18" s="13">
-        <f>AVERAGE(R18,T18,V18)*5</f>
-        <v>1.6666666666666665</v>
-      </c>
-      <c r="X18" s="26">
+      <c r="U18" s="32">
+        <v>1</v>
+      </c>
+      <c r="V18" s="34">
+        <v>0</v>
+      </c>
+      <c r="W18" s="12">
+        <v>3</v>
+      </c>
+      <c r="X18" s="35">
         <v>2</v>
       </c>
-      <c r="Y18" s="26">
-        <v>1</v>
-      </c>
-      <c r="Z18" s="26"/>
-      <c r="AA18" s="26">
+      <c r="Y18" s="35">
+        <v>1</v>
+      </c>
+      <c r="Z18" s="35"/>
+      <c r="AA18" s="35">
         <v>3</v>
       </c>
-      <c r="AB18" s="26"/>
-      <c r="AC18" s="26">
-        <f t="shared" si="0"/>
+      <c r="AB18" s="35"/>
+      <c r="AC18" s="35">
+        <f>AVERAGE(X18:AB18)</f>
         <v>2</v>
       </c>
-      <c r="AD18" s="27">
-        <v>4</v>
-      </c>
-      <c r="AE18" s="27">
-        <v>4</v>
-      </c>
-      <c r="AF18" s="13">
+      <c r="AD18" s="5">
+        <v>4</v>
+      </c>
+      <c r="AE18" s="5">
+        <v>4</v>
+      </c>
+      <c r="AF18" s="5">
         <v>4.5384615384615383</v>
       </c>
-    </row>
-    <row r="19" spans="1:32">
-      <c r="A19" s="3">
+      <c r="AG18" s="5">
+        <f>0.2*AF18+0.8*AVERAGE(AC18:AE18)</f>
+        <v>3.5743589743589745</v>
+      </c>
+      <c r="AH18" s="5">
+        <v>4</v>
+      </c>
+      <c r="AI18" s="5">
+        <v>4.7</v>
+      </c>
+      <c r="AJ18" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="AK18" s="5">
+        <v>4</v>
+      </c>
+      <c r="AL18" s="5">
+        <v>4.3</v>
+      </c>
+      <c r="AM18" s="5">
+        <f>AVERAGE(AH18:AL18)</f>
+        <v>4.3</v>
+      </c>
+      <c r="AN18" s="5">
+        <v>0</v>
+      </c>
+      <c r="AO18" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:41" s="48" customFormat="1">
+      <c r="A19" s="37">
         <v>1193578885</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="18" t="s">
+      <c r="D19" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="3">
-        <v>4</v>
-      </c>
-      <c r="F19" s="2" t="s">
+      <c r="E19" s="37">
+        <v>4</v>
+      </c>
+      <c r="F19" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="37">
         <v>2</v>
       </c>
-      <c r="H19" s="3" t="str" cm="1">
+      <c r="H19" s="37" t="str" cm="1">
         <f t="array" ref="H19">_xlfn.IFS(G19=1, "2:00 PM", G19=2, "2:30 PM", G19=3, "3:00 PM", G19=4, "3:30 PM")</f>
         <v>2:30 PM</v>
       </c>
-      <c r="I19" s="14">
-        <v>4</v>
-      </c>
-      <c r="J19" s="3">
-        <v>4</v>
-      </c>
-      <c r="K19" s="5">
+      <c r="I19" s="40">
+        <v>4</v>
+      </c>
+      <c r="J19" s="37">
+        <v>4</v>
+      </c>
+      <c r="K19" s="41">
         <v>4.5999999999999996</v>
       </c>
-      <c r="L19" s="5">
+      <c r="L19" s="41">
         <f>(J19/I19)*K19</f>
         <v>4.5999999999999996</v>
       </c>
-      <c r="M19" s="12">
+      <c r="M19" s="42">
         <v>2.96</v>
       </c>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12">
+      <c r="N19" s="42"/>
+      <c r="O19" s="42">
         <v>3.5</v>
       </c>
-      <c r="P19" s="5">
+      <c r="P19" s="41">
         <f>0.7*L19+0.2*M19+0.1*O19+N19</f>
         <v>4.1619999999999999</v>
       </c>
-      <c r="Q19" s="20">
+      <c r="Q19" s="43">
         <v>1.951388888888889E-2</v>
       </c>
-      <c r="R19" s="22">
+      <c r="R19" s="44">
         <f>Q19/$R$2</f>
         <v>0.93666666666666676</v>
       </c>
-      <c r="S19" s="23">
-        <v>0</v>
-      </c>
-      <c r="T19" s="22">
+      <c r="S19" s="45">
+        <v>0</v>
+      </c>
+      <c r="T19" s="44">
         <f>S19/$T$2</f>
         <v>0</v>
       </c>
-      <c r="U19" s="25">
-        <v>1</v>
-      </c>
-      <c r="V19" s="25">
-        <v>1</v>
-      </c>
-      <c r="W19" s="13">
+      <c r="U19" s="44">
+        <v>1</v>
+      </c>
+      <c r="V19" s="46">
+        <v>1</v>
+      </c>
+      <c r="W19" s="52">
         <f>AVERAGE(R19,T19,V19)*5</f>
         <v>3.2277777777777779</v>
       </c>
-      <c r="X19" s="26"/>
-      <c r="Y19" s="26"/>
-      <c r="Z19" s="26"/>
-      <c r="AA19" s="26"/>
-      <c r="AB19" s="26"/>
-      <c r="AC19" s="26">
-        <v>0</v>
-      </c>
-      <c r="AD19" s="27"/>
-      <c r="AE19" s="27"/>
-      <c r="AF19" s="13">
+      <c r="X19" s="47"/>
+      <c r="Y19" s="47"/>
+      <c r="Z19" s="47"/>
+      <c r="AA19" s="47"/>
+      <c r="AB19" s="47"/>
+      <c r="AC19" s="47">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="41"/>
+      <c r="AE19" s="41"/>
+      <c r="AF19" s="41">
         <v>2.3333333333333335</v>
       </c>
-    </row>
-    <row r="20" spans="1:32">
+      <c r="AG19" s="51">
+        <f>0.2*AF19+0.8*AVERAGE(AC19:AE19)</f>
+        <v>0.46666666666666673</v>
+      </c>
+      <c r="AH19" s="41">
+        <v>4.8</v>
+      </c>
+      <c r="AI19" s="41">
+        <v>4.5</v>
+      </c>
+      <c r="AJ19" s="41">
+        <v>4.5</v>
+      </c>
+      <c r="AK19" s="41">
+        <v>3.5</v>
+      </c>
+      <c r="AL19" s="41">
+        <v>3</v>
+      </c>
+      <c r="AM19" s="51">
+        <f>AVERAGE(AH19:AL19)</f>
+        <v>4.0600000000000005</v>
+      </c>
+      <c r="AN19" s="51">
+        <v>4</v>
+      </c>
+      <c r="AO19" s="36">
+        <f>0.3*AN19+0.7*AM19</f>
+        <v>4.0419999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:41">
       <c r="A20" s="3">
         <v>1025642375</v>
       </c>
@@ -2927,147 +3560,207 @@
         <f>0.7*L20+0.2*M20+0.1*O20+N20</f>
         <v>4.2320000000000002</v>
       </c>
-      <c r="Q20" s="20">
+      <c r="Q20" s="31">
         <v>2.0243055555555556E-2</v>
       </c>
-      <c r="R20" s="22">
+      <c r="R20" s="32">
         <f>Q20/$R$2</f>
         <v>0.97166666666666668</v>
       </c>
-      <c r="S20" s="23">
+      <c r="S20" s="33">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="T20" s="22">
+      <c r="T20" s="32">
         <f>S20/$T$2</f>
         <v>1</v>
       </c>
-      <c r="U20" s="25">
-        <v>1</v>
-      </c>
-      <c r="V20" s="25">
-        <v>1</v>
-      </c>
-      <c r="W20" s="13">
+      <c r="U20" s="32">
+        <v>1</v>
+      </c>
+      <c r="V20" s="34">
+        <v>1</v>
+      </c>
+      <c r="W20" s="12">
         <f>AVERAGE(R20,T20,V20)*5</f>
         <v>4.9527777777777775</v>
       </c>
-      <c r="X20" s="26"/>
-      <c r="Y20" s="26"/>
-      <c r="Z20" s="26"/>
-      <c r="AA20" s="26"/>
-      <c r="AB20" s="26"/>
-      <c r="AC20" s="26">
-        <v>0</v>
-      </c>
-      <c r="AD20" s="27"/>
-      <c r="AE20" s="27"/>
-      <c r="AF20" s="13">
+      <c r="X20" s="35"/>
+      <c r="Y20" s="35"/>
+      <c r="Z20" s="35"/>
+      <c r="AA20" s="35"/>
+      <c r="AB20" s="35"/>
+      <c r="AC20" s="35">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="5"/>
+      <c r="AE20" s="5"/>
+      <c r="AF20" s="5">
         <v>2.3333333333333335</v>
       </c>
-    </row>
-    <row r="21" spans="1:32">
-      <c r="A21" s="3">
+      <c r="AG20" s="5">
+        <f>0.2*AF20+0.8*AVERAGE(AC20:AE20)</f>
+        <v>0.46666666666666673</v>
+      </c>
+      <c r="AH20" s="5">
+        <v>4.8</v>
+      </c>
+      <c r="AI20" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="AJ20" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="AK20" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="AL20" s="5">
+        <v>3</v>
+      </c>
+      <c r="AM20" s="5">
+        <f>AVERAGE(AH20:AL20)</f>
+        <v>4.0600000000000005</v>
+      </c>
+      <c r="AN20" s="5">
+        <v>4</v>
+      </c>
+      <c r="AO20" s="36">
+        <f>0.3*AN20+0.7*AM20</f>
+        <v>4.0419999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:41" s="48" customFormat="1">
+      <c r="A21" s="37">
         <v>1110363454</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="D21" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="37">
         <v>3</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F21" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="G21" s="3">
-        <v>1</v>
-      </c>
-      <c r="H21" s="3" t="str" cm="1">
+      <c r="G21" s="37">
+        <v>1</v>
+      </c>
+      <c r="H21" s="37" t="str" cm="1">
         <f t="array" ref="H21">_xlfn.IFS(G21=1, "2:00 PM", G21=2, "2:30 PM", G21=3, "3:00 PM", G21=4, "3:30 PM")</f>
         <v>2:00 PM</v>
       </c>
-      <c r="I21" s="14">
+      <c r="I21" s="40">
         <v>6</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="37">
         <v>6</v>
       </c>
-      <c r="K21" s="5">
+      <c r="K21" s="41">
         <v>4.8</v>
       </c>
-      <c r="L21" s="5">
+      <c r="L21" s="41">
         <f>(J21/I21)*K21</f>
         <v>4.8</v>
       </c>
-      <c r="M21" s="12">
+      <c r="M21" s="42">
         <v>2.76</v>
       </c>
-      <c r="N21" s="12">
+      <c r="N21" s="42">
         <f>1/13</f>
         <v>7.6923076923076927E-2</v>
       </c>
-      <c r="O21" s="12">
+      <c r="O21" s="42">
         <v>3</v>
       </c>
-      <c r="P21" s="5">
+      <c r="P21" s="41">
         <f>0.7*L21+0.2*M21+0.1*O21+N21</f>
         <v>4.2889230769230764</v>
       </c>
-      <c r="Q21" s="20">
+      <c r="Q21" s="43">
         <v>1.1863425925925927E-2</v>
       </c>
-      <c r="R21" s="22">
+      <c r="R21" s="44">
         <f>Q21/$R$2</f>
         <v>0.56944444444444453</v>
       </c>
-      <c r="S21" s="23">
+      <c r="S21" s="45">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="T21" s="22">
+      <c r="T21" s="44">
         <f>S21/$T$2</f>
         <v>1</v>
       </c>
-      <c r="U21" s="25">
-        <v>1</v>
-      </c>
-      <c r="V21" s="25">
-        <v>1</v>
-      </c>
-      <c r="W21" s="13">
+      <c r="U21" s="44">
+        <v>1</v>
+      </c>
+      <c r="V21" s="46">
+        <v>1</v>
+      </c>
+      <c r="W21" s="52">
         <f>AVERAGE(R21,T21,V21)*5</f>
         <v>4.2824074074074074</v>
       </c>
-      <c r="X21" s="26">
+      <c r="X21" s="47">
         <v>5</v>
       </c>
-      <c r="Y21" s="26">
+      <c r="Y21" s="47">
         <v>3</v>
       </c>
-      <c r="Z21" s="26"/>
-      <c r="AA21" s="26">
+      <c r="Z21" s="47"/>
+      <c r="AA21" s="47">
         <v>5</v>
       </c>
-      <c r="AB21" s="26"/>
-      <c r="AC21" s="26">
-        <f t="shared" si="0"/>
+      <c r="AB21" s="47"/>
+      <c r="AC21" s="47">
+        <f>AVERAGE(X21:AB21)</f>
         <v>4.333333333333333</v>
       </c>
-      <c r="AD21" s="27">
-        <v>4</v>
-      </c>
-      <c r="AE21" s="27">
-        <v>0</v>
-      </c>
-      <c r="AF21" s="13">
+      <c r="AD21" s="41">
+        <v>4</v>
+      </c>
+      <c r="AE21" s="41">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="41">
         <v>4.6923076923076925</v>
       </c>
-    </row>
-    <row r="22" spans="1:32">
+      <c r="AG21" s="51">
+        <f>0.2*AF21+0.8*AVERAGE(AC21:AE21)</f>
+        <v>3.1606837606837606</v>
+      </c>
+      <c r="AH21" s="41">
+        <v>4</v>
+      </c>
+      <c r="AI21" s="41">
+        <v>4.7</v>
+      </c>
+      <c r="AJ21" s="41">
+        <v>4.5</v>
+      </c>
+      <c r="AK21" s="41">
+        <v>4</v>
+      </c>
+      <c r="AL21" s="41">
+        <v>4.3</v>
+      </c>
+      <c r="AM21" s="51">
+        <f>AVERAGE(AH21:AL21)</f>
+        <v>4.3</v>
+      </c>
+      <c r="AN21" s="51">
+        <v>0</v>
+      </c>
+      <c r="AO21" s="41">
+        <f>0.3*AN21+0.6*AM21+0.05*AG21+0.05*W21</f>
+        <v>2.9521545584045579</v>
+      </c>
+    </row>
+    <row r="22" spans="1:41">
       <c r="A22" s="3">
         <v>1109662163</v>
       </c>
@@ -3120,164 +3813,235 @@
         <f>0.7*L22+0.2*M22+0.1*O22+N22</f>
         <v>4.59</v>
       </c>
-      <c r="Q22" s="20">
+      <c r="Q22" s="31">
         <v>1.4652777777777778E-2</v>
       </c>
-      <c r="R22" s="22">
+      <c r="R22" s="32">
         <f>Q22/$R$2</f>
         <v>0.70333333333333337</v>
       </c>
-      <c r="S22" s="23">
-        <v>0</v>
-      </c>
-      <c r="T22" s="22">
+      <c r="S22" s="33">
+        <v>0</v>
+      </c>
+      <c r="T22" s="32">
         <f>S22/$T$2</f>
         <v>0</v>
       </c>
-      <c r="U22" s="25">
-        <v>1</v>
-      </c>
-      <c r="V22" s="25">
-        <v>1</v>
-      </c>
-      <c r="W22" s="13">
+      <c r="U22" s="32">
+        <v>1</v>
+      </c>
+      <c r="V22" s="34">
+        <v>1</v>
+      </c>
+      <c r="W22" s="12">
         <f>AVERAGE(R22,T22,V22)*5</f>
         <v>2.838888888888889</v>
       </c>
-      <c r="X22" s="26">
+      <c r="X22" s="35">
         <v>3</v>
       </c>
-      <c r="Y22" s="26"/>
-      <c r="Z22" s="26">
+      <c r="Y22" s="35"/>
+      <c r="Z22" s="35">
         <v>5</v>
       </c>
-      <c r="AA22" s="26"/>
-      <c r="AB22" s="26"/>
-      <c r="AC22" s="26">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="AD22" s="27">
-        <v>4.5</v>
-      </c>
-      <c r="AE22" s="27">
+      <c r="AA22" s="35"/>
+      <c r="AB22" s="35"/>
+      <c r="AC22" s="35">
+        <f>AVERAGE(X22:AB22)</f>
+        <v>4</v>
+      </c>
+      <c r="AD22" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="AE22" s="5">
         <v>5</v>
       </c>
-      <c r="AF22" s="13">
+      <c r="AF22" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:32">
-      <c r="A23" s="28">
+      <c r="AG22" s="5">
+        <f>0.2*AF22+0.8*AVERAGE(AC22:AE22)</f>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AH22" s="5">
+        <v>4.8</v>
+      </c>
+      <c r="AI22" s="5">
+        <v>4.8</v>
+      </c>
+      <c r="AJ22" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="AK22" s="5">
+        <v>5</v>
+      </c>
+      <c r="AL22" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="AM22" s="5">
+        <f>AVERAGE(AH22:AL22)</f>
+        <v>4.7200000000000006</v>
+      </c>
+      <c r="AN22" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="AO22" s="5">
+        <f>0.3*AN22+0.6*AM22+0.05*AG22+0.05*W22</f>
+        <v>4.5539444444444452</v>
+      </c>
+    </row>
+    <row r="23" spans="1:41" s="48" customFormat="1">
+      <c r="A23" s="37">
         <v>1126644560</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="29" t="s">
+      <c r="C23" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="D23" s="30" t="s">
+      <c r="D23" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="28">
-        <v>1</v>
-      </c>
-      <c r="F23" s="29" t="s">
+      <c r="E23" s="37">
+        <v>1</v>
+      </c>
+      <c r="F23" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23" s="37">
         <v>3</v>
       </c>
-      <c r="H23" s="28" t="str" cm="1">
+      <c r="H23" s="37" t="str" cm="1">
         <f t="array" ref="H23">_xlfn.IFS(G23=1, "2:00 PM", G23=2, "2:30 PM", G23=3, "3:00 PM", G23=4, "3:30 PM")</f>
         <v>3:00 PM</v>
       </c>
-      <c r="I23" s="31">
-        <v>4</v>
-      </c>
-      <c r="J23" s="28">
-        <v>4</v>
-      </c>
-      <c r="K23" s="28">
+      <c r="I23" s="40">
+        <v>4</v>
+      </c>
+      <c r="J23" s="37">
+        <v>4</v>
+      </c>
+      <c r="K23" s="37">
         <v>4.8</v>
       </c>
-      <c r="L23" s="32">
+      <c r="L23" s="41">
         <f>(J23/I23)*K23</f>
         <v>4.8</v>
       </c>
-      <c r="M23" s="33">
+      <c r="M23" s="42">
         <v>3.59</v>
       </c>
-      <c r="N23" s="33"/>
-      <c r="O23" s="33">
-        <v>4.5</v>
-      </c>
-      <c r="P23" s="5">
+      <c r="N23" s="42"/>
+      <c r="O23" s="42">
+        <v>4.5</v>
+      </c>
+      <c r="P23" s="41">
         <f>0.7*L23+0.2*M23+0.1*O23+N23</f>
         <v>4.5279999999999996</v>
       </c>
-      <c r="Q23" s="20">
+      <c r="Q23" s="43">
         <v>1.6342592592592593E-2</v>
       </c>
-      <c r="R23" s="22">
+      <c r="R23" s="44">
         <f>Q23/$R$2</f>
         <v>0.7844444444444445</v>
       </c>
-      <c r="S23" s="23">
+      <c r="S23" s="45">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="T23" s="22">
+      <c r="T23" s="44">
         <f>S23/$T$2</f>
         <v>1</v>
       </c>
-      <c r="U23" s="25">
-        <v>1</v>
-      </c>
-      <c r="V23" s="25">
-        <v>1</v>
-      </c>
-      <c r="W23" s="13">
+      <c r="U23" s="44">
+        <v>1</v>
+      </c>
+      <c r="V23" s="46">
+        <v>1</v>
+      </c>
+      <c r="W23" s="52">
         <f>AVERAGE(R23,T23,V23)*5</f>
         <v>4.6407407407407408</v>
       </c>
-      <c r="X23" s="26"/>
-      <c r="Y23" s="26">
-        <v>4</v>
-      </c>
-      <c r="Z23" s="26">
-        <v>0</v>
-      </c>
-      <c r="AA23" s="26"/>
-      <c r="AB23" s="26"/>
-      <c r="AC23" s="26">
-        <f t="shared" si="0"/>
+      <c r="X23" s="47"/>
+      <c r="Y23" s="47">
+        <v>4</v>
+      </c>
+      <c r="Z23" s="47">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="47"/>
+      <c r="AB23" s="47"/>
+      <c r="AC23" s="47">
+        <f>AVERAGE(X23:AB23)</f>
         <v>2</v>
       </c>
-      <c r="AD23" s="27">
-        <v>4.5</v>
-      </c>
-      <c r="AE23" s="27">
-        <v>4</v>
-      </c>
-      <c r="AF23" s="13">
+      <c r="AD23" s="41">
+        <v>4.5</v>
+      </c>
+      <c r="AE23" s="41">
+        <v>4</v>
+      </c>
+      <c r="AF23" s="41">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="1:32">
-      <c r="G24" s="3"/>
-    </row>
-    <row r="25" spans="1:32">
+      <c r="AG23" s="51">
+        <f>0.2*AF23+0.8*AVERAGE(AC23:AE23)</f>
+        <v>3.8000000000000003</v>
+      </c>
+      <c r="AH23" s="41">
+        <v>4.3</v>
+      </c>
+      <c r="AI23" s="41">
+        <v>4</v>
+      </c>
+      <c r="AJ23" s="41">
+        <v>4.5</v>
+      </c>
+      <c r="AK23" s="41">
+        <v>4.8</v>
+      </c>
+      <c r="AL23" s="41">
+        <v>4.5</v>
+      </c>
+      <c r="AM23" s="51">
+        <f>AVERAGE(AH23:AL23)</f>
+        <v>4.42</v>
+      </c>
+      <c r="AN23" s="51">
+        <v>0</v>
+      </c>
+      <c r="AO23" s="41">
+        <f>0.3*AN23+0.6*AM23+0.05*AG23+0.05*W23</f>
+        <v>3.0740370370370367</v>
+      </c>
+    </row>
+    <row r="24" spans="1:41">
+      <c r="G24" s="30"/>
+      <c r="AO24" s="13"/>
+    </row>
+    <row r="25" spans="1:41">
       <c r="G25" s="3"/>
-    </row>
-    <row r="26" spans="1:32">
+      <c r="Q25" s="54" t="s">
+        <v>147</v>
+      </c>
+      <c r="R25" s="55"/>
+      <c r="S25" s="53"/>
+      <c r="T25" s="53"/>
+    </row>
+    <row r="26" spans="1:41">
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:32">
+    <row r="27" spans="1:41">
       <c r="G27" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:AG3" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A3:AO3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:AO23">
+      <sortCondition ref="B3"/>
+    </sortState>
+  </autoFilter>
   <conditionalFormatting sqref="P4:P23">
     <cfRule type="colorScale" priority="1">
       <colorScale>
@@ -3292,6 +4056,9 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="AC6:AC7 AC18" formulaRange="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -3303,22 +4070,22 @@
       <selection activeCell="A2" sqref="A2:B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="34.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="24" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="26" t="s">
         <v>130</v>
       </c>
       <c r="B2">
@@ -3326,7 +4093,7 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="25" t="s">
         <v>119</v>
       </c>
       <c r="B3">
@@ -3334,7 +4101,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="26" t="s">
         <v>120</v>
       </c>
       <c r="B4">
@@ -3342,7 +4109,7 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="26" t="s">
         <v>121</v>
       </c>
       <c r="B5">
@@ -3350,7 +4117,7 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="26" t="s">
         <v>122</v>
       </c>
       <c r="B6">
@@ -3358,7 +4125,7 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="26" t="s">
         <v>131</v>
       </c>
       <c r="B7">
@@ -3366,7 +4133,7 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="26" t="s">
         <v>125</v>
       </c>
       <c r="B8">
@@ -3374,7 +4141,7 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="25" t="s">
         <v>115</v>
       </c>
       <c r="B9">
@@ -3382,7 +4149,7 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="26" t="s">
         <v>126</v>
       </c>
       <c r="B10">
@@ -3390,7 +4157,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="26" t="s">
         <v>132</v>
       </c>
       <c r="B11">
@@ -3398,15 +4165,15 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="25" t="s">
         <v>117</v>
       </c>
       <c r="B12">
         <v>3.8461538461538463</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="39" t="s">
+    <row r="13" spans="1:2" ht="30">
+      <c r="A13" s="25" t="s">
         <v>118</v>
       </c>
       <c r="B13">
@@ -3414,7 +4181,7 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="40" t="s">
+      <c r="A14" s="26" t="s">
         <v>127</v>
       </c>
       <c r="B14">
@@ -3422,7 +4189,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="40" t="s">
+      <c r="A15" s="26" t="s">
         <v>128</v>
       </c>
       <c r="B15">
@@ -3430,7 +4197,7 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="40" t="s">
+      <c r="A16" s="26" t="s">
         <v>123</v>
       </c>
       <c r="B16">
@@ -3438,7 +4205,7 @@
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="40" t="s">
+      <c r="A17" s="26" t="s">
         <v>124</v>
       </c>
       <c r="B17">
@@ -3446,7 +4213,7 @@
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="40" t="s">
+      <c r="A18" s="26" t="s">
         <v>129</v>
       </c>
       <c r="B18">
@@ -3454,7 +4221,7 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="41" t="s">
+      <c r="A20" s="27" t="s">
         <v>133</v>
       </c>
       <c r="B20">
@@ -3462,7 +4229,7 @@
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="39" t="s">
+      <c r="A21" s="25" t="s">
         <v>116</v>
       </c>
       <c r="B21">
@@ -3487,7 +4254,7 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="66.28515625" bestFit="1" customWidth="1"/>
@@ -3581,7 +4348,7 @@
       <selection activeCell="A2" sqref="A2:C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="58.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="58.5703125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
@@ -3799,11 +4566,11 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="16"/>
-      <c r="B20" s="24"/>
+      <c r="B20" s="21"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="17"/>
-      <c r="B21" s="24"/>
+      <c r="B21" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/academics/DB2/2025-2/DB2 2025-2.xlsx
+++ b/academics/DB2/2025-2/DB2 2025-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\UAO\oicampo-uao.github.io\academics\DB2\2025-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D44AE1F3-D6D6-4DB9-9DD8-6F97C05917C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A9CC44-DA0F-4439-967B-DF70569CFAFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1302,28 +1302,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AO27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:AO26"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W31" sqref="W31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.5703125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="29.140625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="6.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="6.140625" style="1" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="7.85546875" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="4.42578125" style="15" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="3.140625" style="1" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="4" style="1" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="3.5703125" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="4.5703125" style="13" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="6.42578125" style="13" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="5.42578125" style="13" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="6.7109375" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="29.140625" customWidth="1"/>
+    <col min="5" max="5" width="6.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="7" max="7" width="6.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.85546875" customWidth="1"/>
+    <col min="9" max="9" width="4.42578125" style="15" customWidth="1"/>
+    <col min="10" max="10" width="3.140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="4" style="1" customWidth="1"/>
+    <col min="12" max="12" width="3.5703125" customWidth="1"/>
+    <col min="13" max="13" width="4.5703125" style="13" customWidth="1"/>
+    <col min="14" max="14" width="6.42578125" style="13" customWidth="1"/>
+    <col min="15" max="15" width="5.42578125" style="13" customWidth="1"/>
+    <col min="16" max="16" width="6.7109375" customWidth="1"/>
     <col min="17" max="17" width="12.5703125" customWidth="1"/>
     <col min="18" max="18" width="11.5703125" style="1" customWidth="1"/>
     <col min="19" max="19" width="12.5703125" customWidth="1"/>
@@ -1633,159 +1633,160 @@
         <v>4.42</v>
       </c>
       <c r="AN4" s="5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AO4" s="5">
         <f>0.3*AN4+0.6*AM4+0.05*AG4+0.05*W4</f>
-        <v>3.0321353276353271</v>
+        <v>4.2321353276353273</v>
       </c>
     </row>
     <row r="5" spans="1:41" s="48" customFormat="1">
-      <c r="A5" s="37">
-        <v>1005785832</v>
-      </c>
-      <c r="B5" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="37">
-        <v>2</v>
-      </c>
-      <c r="F5" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="G5" s="37">
-        <v>4</v>
-      </c>
-      <c r="H5" s="37" t="str" cm="1">
+      <c r="A5" s="3">
+        <v>1110364376</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" s="3">
+        <v>3</v>
+      </c>
+      <c r="H5" s="3" t="str" cm="1">
         <f t="array" ref="H5">_xlfn.IFS(G5=1, "2:00 PM", G5=2, "2:30 PM", G5=3, "3:00 PM", G5=4, "3:30 PM")</f>
-        <v>3:30 PM</v>
-      </c>
-      <c r="I5" s="40">
-        <v>7</v>
-      </c>
-      <c r="J5" s="37">
-        <v>7</v>
-      </c>
-      <c r="K5" s="41">
+        <v>3:00 PM</v>
+      </c>
+      <c r="I5" s="14">
+        <v>3</v>
+      </c>
+      <c r="J5" s="3">
+        <v>3</v>
+      </c>
+      <c r="K5" s="3">
         <v>4.8</v>
       </c>
-      <c r="L5" s="41">
+      <c r="L5" s="5">
         <f>(J5/I5)*K5</f>
         <v>4.8</v>
       </c>
-      <c r="M5" s="42">
-        <v>3.55</v>
-      </c>
-      <c r="N5" s="42">
-        <f>1/20</f>
-        <v>0.05</v>
-      </c>
-      <c r="O5" s="42">
-        <v>4.7</v>
-      </c>
-      <c r="P5" s="41">
+      <c r="M5" s="12">
+        <v>3.59</v>
+      </c>
+      <c r="N5" s="12">
+        <f>1/16</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="O5" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="P5" s="5">
         <f>0.7*L5+0.2*M5+0.1*O5+N5</f>
-        <v>4.59</v>
-      </c>
-      <c r="Q5" s="43">
-        <v>1.5520833333333333E-2</v>
-      </c>
-      <c r="R5" s="44">
+        <v>4.5904999999999996</v>
+      </c>
+      <c r="Q5" s="31">
+        <v>1.412037037037037E-2</v>
+      </c>
+      <c r="R5" s="32">
         <f>Q5/$R$2</f>
-        <v>0.745</v>
-      </c>
-      <c r="S5" s="45">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="T5" s="44">
+        <v>0.67777777777777781</v>
+      </c>
+      <c r="S5" s="33">
+        <v>0</v>
+      </c>
+      <c r="T5" s="32">
         <f>S5/$T$2</f>
-        <v>1</v>
-      </c>
-      <c r="U5" s="44">
-        <v>1</v>
-      </c>
-      <c r="V5" s="46">
-        <v>0.8</v>
-      </c>
-      <c r="W5" s="52">
-        <f>AVERAGE(R5,T5,V5)*5</f>
-        <v>4.2416666666666663</v>
-      </c>
-      <c r="X5" s="47">
+        <v>0</v>
+      </c>
+      <c r="U5" s="32">
+        <v>1</v>
+      </c>
+      <c r="V5" s="34">
+        <v>0</v>
+      </c>
+      <c r="W5" s="12">
         <v>3</v>
       </c>
-      <c r="Y5" s="47"/>
-      <c r="Z5" s="47"/>
-      <c r="AA5" s="47">
-        <v>4</v>
-      </c>
-      <c r="AB5" s="47"/>
-      <c r="AC5" s="47">
+      <c r="X5" s="35"/>
+      <c r="Y5" s="35">
+        <v>2</v>
+      </c>
+      <c r="Z5" s="35">
+        <v>2</v>
+      </c>
+      <c r="AA5" s="35"/>
+      <c r="AB5" s="35"/>
+      <c r="AC5" s="35">
         <f>AVERAGE(X5:AB5)</f>
-        <v>3.5</v>
-      </c>
-      <c r="AD5" s="41">
-        <v>4.5</v>
-      </c>
-      <c r="AE5" s="41"/>
-      <c r="AF5" s="41">
-        <v>4.9285714285714288</v>
-      </c>
-      <c r="AG5" s="51">
+        <v>2</v>
+      </c>
+      <c r="AD5" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="AE5" s="5">
+        <v>4</v>
+      </c>
+      <c r="AF5" s="5">
+        <v>4.9230769230769234</v>
+      </c>
+      <c r="AG5" s="5">
         <f>0.2*AF5+0.8*AVERAGE(AC5:AE5)</f>
-        <v>4.1857142857142859</v>
-      </c>
-      <c r="AH5" s="41">
+        <v>3.7846153846153849</v>
+      </c>
+      <c r="AH5" s="5">
+        <v>4.3</v>
+      </c>
+      <c r="AI5" s="5">
+        <v>4</v>
+      </c>
+      <c r="AJ5" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="AK5" s="5">
         <v>4.8</v>
       </c>
-      <c r="AI5" s="41">
-        <v>4.8</v>
-      </c>
-      <c r="AJ5" s="41">
-        <v>4.5</v>
-      </c>
-      <c r="AK5" s="41">
-        <v>5</v>
-      </c>
-      <c r="AL5" s="41">
-        <v>4.5</v>
-      </c>
-      <c r="AM5" s="51">
+      <c r="AL5" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="AM5" s="5">
         <f>AVERAGE(AH5:AL5)</f>
-        <v>4.7200000000000006</v>
-      </c>
-      <c r="AN5" s="51">
-        <v>4.5</v>
-      </c>
-      <c r="AO5" s="41">
+        <v>4.42</v>
+      </c>
+      <c r="AN5" s="5">
+        <v>4</v>
+      </c>
+      <c r="AO5" s="5">
         <f>0.3*AN5+0.6*AM5+0.05*AG5+0.05*W5</f>
-        <v>4.6033690476190481</v>
+        <v>4.1912307692307689</v>
       </c>
     </row>
     <row r="6" spans="1:41">
       <c r="A6" s="3">
-        <v>1110364376</v>
+        <v>1062329024</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E6" s="3">
         <v>1</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G6" s="3">
         <v>3</v>
@@ -1795,80 +1796,78 @@
         <v>3:00 PM</v>
       </c>
       <c r="I6" s="14">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J6" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K6" s="3">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="L6" s="5">
         <f>(J6/I6)*K6</f>
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="M6" s="12">
         <v>3.59</v>
       </c>
-      <c r="N6" s="12">
-        <f>1/16</f>
-        <v>6.25E-2</v>
-      </c>
+      <c r="N6" s="12"/>
       <c r="O6" s="12">
         <v>4.5</v>
       </c>
       <c r="P6" s="5">
         <f>0.7*L6+0.2*M6+0.1*O6+N6</f>
-        <v>4.5904999999999996</v>
+        <v>4.3179999999999996</v>
       </c>
       <c r="Q6" s="31">
-        <v>1.412037037037037E-2</v>
+        <v>0</v>
       </c>
       <c r="R6" s="32">
         <f>Q6/$R$2</f>
-        <v>0.67777777777777781</v>
+        <v>0</v>
       </c>
       <c r="S6" s="33">
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="T6" s="32">
         <f>S6/$T$2</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U6" s="32">
         <v>1</v>
       </c>
       <c r="V6" s="34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W6" s="12">
-        <v>3</v>
+        <f>AVERAGE(R6,T6,V6)*5</f>
+        <v>3.333333333333333</v>
       </c>
       <c r="X6" s="35"/>
       <c r="Y6" s="35">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Z6" s="35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA6" s="35"/>
       <c r="AB6" s="35"/>
       <c r="AC6" s="35">
         <f>AVERAGE(X6:AB6)</f>
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="AD6" s="5">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="AE6" s="5">
         <v>4</v>
       </c>
       <c r="AF6" s="5">
-        <v>4.9230769230769234</v>
+        <v>3.8461538461538463</v>
       </c>
       <c r="AG6" s="5">
         <f>0.2*AF6+0.8*AVERAGE(AC6:AE6)</f>
-        <v>3.7846153846153849</v>
+        <v>3.3025641025641024</v>
       </c>
       <c r="AH6" s="5">
         <v>4.3</v>
@@ -1890,320 +1889,326 @@
         <v>4.42</v>
       </c>
       <c r="AN6" s="5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AO6" s="5">
         <f>0.3*AN6+0.6*AM6+0.05*AG6+0.05*W6</f>
-        <v>2.9912307692307687</v>
+        <v>4.1837948717948716</v>
       </c>
     </row>
     <row r="7" spans="1:41" s="48" customFormat="1">
-      <c r="A7" s="37">
-        <v>1005894053</v>
-      </c>
-      <c r="B7" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="37">
-        <v>4</v>
-      </c>
-      <c r="F7" s="38" t="s">
-        <v>94</v>
-      </c>
-      <c r="G7" s="37">
-        <v>2</v>
-      </c>
-      <c r="H7" s="37" t="str" cm="1">
+      <c r="A7" s="3">
+        <v>1005967544</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G7" s="3">
+        <v>3</v>
+      </c>
+      <c r="H7" s="3" t="str" cm="1">
         <f t="array" ref="H7">_xlfn.IFS(G7=1, "2:00 PM", G7=2, "2:30 PM", G7=3, "3:00 PM", G7=4, "3:30 PM")</f>
-        <v>2:30 PM</v>
-      </c>
-      <c r="I7" s="40">
-        <v>3</v>
-      </c>
-      <c r="J7" s="37">
-        <v>3</v>
-      </c>
-      <c r="K7" s="41">
+        <v>3:00 PM</v>
+      </c>
+      <c r="I7" s="14">
+        <v>1</v>
+      </c>
+      <c r="J7" s="3">
+        <v>1</v>
+      </c>
+      <c r="K7" s="3">
         <v>4.5999999999999996</v>
       </c>
-      <c r="L7" s="41">
+      <c r="L7" s="5">
         <f>(J7/I7)*K7</f>
         <v>4.5999999999999996</v>
       </c>
-      <c r="M7" s="42">
-        <v>2.96</v>
-      </c>
-      <c r="N7" s="42"/>
-      <c r="O7" s="42">
-        <v>3.5</v>
-      </c>
-      <c r="P7" s="41">
+      <c r="M7" s="12">
+        <v>3.59</v>
+      </c>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="P7" s="5">
         <f>0.7*L7+0.2*M7+0.1*O7+N7</f>
-        <v>4.1619999999999999</v>
-      </c>
-      <c r="Q7" s="43">
-        <v>2.1342592592592594E-2</v>
-      </c>
-      <c r="R7" s="44">
+        <v>4.3879999999999999</v>
+      </c>
+      <c r="Q7" s="31">
+        <v>1.3935185185185186E-2</v>
+      </c>
+      <c r="R7" s="32">
         <f>Q7/$R$2</f>
-        <v>1.0244444444444445</v>
-      </c>
-      <c r="S7" s="45">
+        <v>0.66888888888888898</v>
+      </c>
+      <c r="S7" s="33">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="T7" s="44">
+      <c r="T7" s="32">
         <f>S7/$T$2</f>
         <v>1</v>
       </c>
-      <c r="U7" s="44">
-        <v>1</v>
-      </c>
-      <c r="V7" s="46">
-        <v>1</v>
-      </c>
-      <c r="W7" s="52">
-        <v>5</v>
-      </c>
-      <c r="X7" s="47">
-        <v>5</v>
-      </c>
-      <c r="Y7" s="47"/>
-      <c r="Z7" s="47"/>
-      <c r="AA7" s="47"/>
-      <c r="AB7" s="47"/>
-      <c r="AC7" s="47">
+      <c r="U7" s="32">
+        <v>1</v>
+      </c>
+      <c r="V7" s="34">
+        <v>1</v>
+      </c>
+      <c r="W7" s="12">
+        <f>AVERAGE(R7,T7,V7)*5</f>
+        <v>4.4481481481481486</v>
+      </c>
+      <c r="X7" s="35"/>
+      <c r="Y7" s="35">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="35"/>
+      <c r="AA7" s="35">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="35"/>
+      <c r="AC7" s="35">
         <f>AVERAGE(X7:AB7)</f>
-        <v>5</v>
-      </c>
-      <c r="AD7" s="41">
-        <v>4.5</v>
-      </c>
-      <c r="AE7" s="41">
-        <v>4</v>
-      </c>
-      <c r="AF7" s="41">
-        <v>4.666666666666667</v>
-      </c>
-      <c r="AG7" s="51">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="5">
+        <v>4</v>
+      </c>
+      <c r="AE7" s="5">
+        <v>4</v>
+      </c>
+      <c r="AF7" s="5">
+        <v>4.916666666666667</v>
+      </c>
+      <c r="AG7" s="5">
         <f>0.2*AF7+0.8*AVERAGE(AC7:AE7)</f>
-        <v>4.5333333333333332</v>
-      </c>
-      <c r="AH7" s="41">
+        <v>3.1166666666666667</v>
+      </c>
+      <c r="AH7" s="5">
+        <v>4.3</v>
+      </c>
+      <c r="AI7" s="5">
+        <v>4</v>
+      </c>
+      <c r="AJ7" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="AK7" s="5">
         <v>4.8</v>
       </c>
-      <c r="AI7" s="41">
-        <v>4.5</v>
-      </c>
-      <c r="AJ7" s="41">
-        <v>4.5</v>
-      </c>
-      <c r="AK7" s="41">
-        <v>3.5</v>
-      </c>
-      <c r="AL7" s="41">
+      <c r="AL7" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="AM7" s="5">
+        <f>AVERAGE(AH7:AL7)</f>
+        <v>4.42</v>
+      </c>
+      <c r="AN7" s="5">
+        <v>4</v>
+      </c>
+      <c r="AO7" s="5">
+        <f>0.3*AN7+0.6*AM7+0.05*AG7+0.05*W7</f>
+        <v>4.230240740740741</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41">
+      <c r="A8" s="37">
+        <v>1126644560</v>
+      </c>
+      <c r="B8" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="37">
+        <v>1</v>
+      </c>
+      <c r="F8" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" s="37">
         <v>3</v>
       </c>
-      <c r="AM7" s="51">
-        <f>AVERAGE(AH7:AL7)</f>
-        <v>4.0600000000000005</v>
-      </c>
-      <c r="AN7" s="51">
-        <v>4</v>
-      </c>
-      <c r="AO7" s="41">
-        <f>0.3*AN7+0.6*AM7+0.05*AG7+0.05*W7</f>
-        <v>4.1126666666666667</v>
-      </c>
-    </row>
-    <row r="8" spans="1:41">
-      <c r="A8" s="3">
-        <v>1081728000</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="3">
-        <v>3</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G8" s="3">
-        <v>1</v>
-      </c>
-      <c r="H8" s="3" t="str" cm="1">
+      <c r="H8" s="37" t="str" cm="1">
         <f t="array" ref="H8">_xlfn.IFS(G8=1, "2:00 PM", G8=2, "2:30 PM", G8=3, "3:00 PM", G8=4, "3:30 PM")</f>
-        <v>2:00 PM</v>
-      </c>
-      <c r="I8" s="14">
-        <v>5</v>
-      </c>
-      <c r="J8" s="3">
-        <v>5</v>
-      </c>
-      <c r="K8" s="5">
+        <v>3:00 PM</v>
+      </c>
+      <c r="I8" s="40">
+        <v>4</v>
+      </c>
+      <c r="J8" s="37">
+        <v>4</v>
+      </c>
+      <c r="K8" s="37">
         <v>4.8</v>
       </c>
-      <c r="L8" s="5">
+      <c r="L8" s="41">
         <f>(J8/I8)*K8</f>
         <v>4.8</v>
       </c>
-      <c r="M8" s="12">
-        <v>2.76</v>
-      </c>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12">
-        <v>3</v>
-      </c>
-      <c r="P8" s="5">
+      <c r="M8" s="42">
+        <v>3.59</v>
+      </c>
+      <c r="N8" s="42"/>
+      <c r="O8" s="42">
+        <v>4.5</v>
+      </c>
+      <c r="P8" s="41">
         <f>0.7*L8+0.2*M8+0.1*O8+N8</f>
-        <v>4.2119999999999997</v>
-      </c>
-      <c r="Q8" s="31">
-        <v>9.9305555555555553E-3</v>
-      </c>
-      <c r="R8" s="32">
+        <v>4.5279999999999996</v>
+      </c>
+      <c r="Q8" s="43">
+        <v>1.6342592592592593E-2</v>
+      </c>
+      <c r="R8" s="44">
         <f>Q8/$R$2</f>
-        <v>0.47666666666666668</v>
-      </c>
-      <c r="S8" s="33">
+        <v>0.7844444444444445</v>
+      </c>
+      <c r="S8" s="45">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="T8" s="32">
+      <c r="T8" s="44">
         <f>S8/$T$2</f>
         <v>1</v>
       </c>
-      <c r="U8" s="32">
-        <v>1</v>
-      </c>
-      <c r="V8" s="34">
-        <v>1</v>
-      </c>
-      <c r="W8" s="12">
+      <c r="U8" s="44">
+        <v>1</v>
+      </c>
+      <c r="V8" s="46">
+        <v>1</v>
+      </c>
+      <c r="W8" s="52">
         <f>AVERAGE(R8,T8,V8)*5</f>
-        <v>4.1277777777777773</v>
-      </c>
-      <c r="X8" s="35">
+        <v>4.6407407407407408</v>
+      </c>
+      <c r="X8" s="47"/>
+      <c r="Y8" s="47">
+        <v>4</v>
+      </c>
+      <c r="Z8" s="47">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="47"/>
+      <c r="AB8" s="47"/>
+      <c r="AC8" s="47">
+        <f>AVERAGE(X8:AB8)</f>
         <v>2</v>
       </c>
-      <c r="Y8" s="35"/>
-      <c r="Z8" s="35"/>
-      <c r="AA8" s="35">
-        <v>1</v>
-      </c>
-      <c r="AB8" s="35"/>
-      <c r="AC8" s="35">
-        <f>AVERAGE(X8:AB8)</f>
-        <v>1.5</v>
-      </c>
-      <c r="AD8" s="5">
-        <v>4</v>
-      </c>
-      <c r="AE8" s="5">
-        <v>4</v>
-      </c>
-      <c r="AF8" s="5">
-        <v>4.615384615384615</v>
-      </c>
-      <c r="AG8" s="5">
+      <c r="AD8" s="41">
+        <v>4.5</v>
+      </c>
+      <c r="AE8" s="41">
+        <v>4</v>
+      </c>
+      <c r="AF8" s="41">
+        <v>5</v>
+      </c>
+      <c r="AG8" s="51">
         <f>0.2*AF8+0.8*AVERAGE(AC8:AE8)</f>
-        <v>3.4564102564102561</v>
-      </c>
-      <c r="AH8" s="5">
-        <v>4</v>
-      </c>
-      <c r="AI8" s="5">
-        <v>4.7</v>
-      </c>
-      <c r="AJ8" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="AK8" s="5">
-        <v>4</v>
-      </c>
-      <c r="AL8" s="5">
+        <v>3.8000000000000003</v>
+      </c>
+      <c r="AH8" s="41">
         <v>4.3</v>
       </c>
-      <c r="AM8" s="5">
+      <c r="AI8" s="41">
+        <v>4</v>
+      </c>
+      <c r="AJ8" s="41">
+        <v>4.5</v>
+      </c>
+      <c r="AK8" s="41">
+        <v>4.8</v>
+      </c>
+      <c r="AL8" s="41">
+        <v>4.5</v>
+      </c>
+      <c r="AM8" s="51">
         <f>AVERAGE(AH8:AL8)</f>
-        <v>4.3</v>
-      </c>
-      <c r="AN8" s="5">
+        <v>4.42</v>
+      </c>
+      <c r="AN8" s="51">
         <v>0</v>
       </c>
-      <c r="AO8" s="5">
+      <c r="AO8" s="41">
         <f>0.3*AN8+0.6*AM8+0.05*AG8+0.05*W8</f>
-        <v>2.9592094017094013</v>
+        <v>3.0740370370370367</v>
       </c>
     </row>
     <row r="9" spans="1:41" s="48" customFormat="1">
       <c r="A9" s="37">
-        <v>1062274189</v>
+        <v>1005785832</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C9" s="38" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D9" s="39" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E9" s="37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9" s="38" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="G9" s="37">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H9" s="37" t="str" cm="1">
         <f t="array" ref="H9">_xlfn.IFS(G9=1, "2:00 PM", G9=2, "2:30 PM", G9=3, "3:00 PM", G9=4, "3:30 PM")</f>
-        <v>2:00 PM</v>
+        <v>3:30 PM</v>
       </c>
       <c r="I9" s="40">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J9" s="37">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K9" s="41">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="L9" s="41">
         <f>(J9/I9)*K9</f>
-        <v>2.6999999999999997</v>
+        <v>4.8</v>
       </c>
       <c r="M9" s="42">
-        <v>2.76</v>
-      </c>
-      <c r="N9" s="42"/>
+        <v>3.55</v>
+      </c>
+      <c r="N9" s="42">
+        <f>1/20</f>
+        <v>0.05</v>
+      </c>
       <c r="O9" s="42">
-        <v>3</v>
+        <v>4.7</v>
       </c>
       <c r="P9" s="41">
         <f>0.7*L9+0.2*M9+0.1*O9+N9</f>
-        <v>2.742</v>
+        <v>4.59</v>
       </c>
       <c r="Q9" s="43">
-        <v>1.8506944444444444E-2</v>
+        <v>1.5520833333333333E-2</v>
       </c>
       <c r="R9" s="44">
         <f>Q9/$R$2</f>
-        <v>0.88833333333333331</v>
+        <v>0.745</v>
       </c>
       <c r="S9" s="45">
         <v>2.0833333333333332E-2</v>
@@ -2220,88 +2225,84 @@
       </c>
       <c r="W9" s="52">
         <f>AVERAGE(R9,T9,V9)*5</f>
-        <v>4.4805555555555561</v>
+        <v>4.2416666666666663</v>
       </c>
       <c r="X9" s="47">
-        <v>2</v>
-      </c>
-      <c r="Y9" s="47">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="Y9" s="47"/>
       <c r="Z9" s="47"/>
       <c r="AA9" s="47">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB9" s="47"/>
       <c r="AC9" s="47">
         <f>AVERAGE(X9:AB9)</f>
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="AD9" s="41">
-        <v>4</v>
-      </c>
-      <c r="AE9" s="41">
-        <v>4</v>
-      </c>
+        <v>4.5</v>
+      </c>
+      <c r="AE9" s="41"/>
       <c r="AF9" s="41">
-        <v>4.7692307692307692</v>
+        <v>4.9285714285714288</v>
       </c>
       <c r="AG9" s="51">
         <f>0.2*AF9+0.8*AVERAGE(AC9:AE9)</f>
-        <v>3.620512820512821</v>
+        <v>4.1857142857142859</v>
       </c>
       <c r="AH9" s="41">
-        <v>4</v>
+        <v>4.8</v>
       </c>
       <c r="AI9" s="41">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="AJ9" s="41">
         <v>4.5</v>
       </c>
       <c r="AK9" s="41">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AL9" s="41">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="AM9" s="51">
         <f>AVERAGE(AH9:AL9)</f>
-        <v>4.3</v>
+        <v>4.7200000000000006</v>
       </c>
       <c r="AN9" s="51">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="AO9" s="41">
         <f>0.3*AN9+0.6*AM9+0.05*AG9+0.05*W9</f>
-        <v>2.9850534188034183</v>
+        <v>4.6033690476190481</v>
       </c>
     </row>
     <row r="10" spans="1:41">
       <c r="A10" s="3">
-        <v>1193073115</v>
+        <v>1005783739</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E10" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="G10" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H10" s="3" t="str" cm="1">
         <f t="array" ref="H10">_xlfn.IFS(G10=1, "2:00 PM", G10=2, "2:30 PM", G10=3, "3:00 PM", G10=4, "3:30 PM")</f>
-        <v>2:30 PM</v>
+        <v>3:30 PM</v>
       </c>
       <c r="I10" s="14">
         <v>4</v>
@@ -2317,22 +2318,25 @@
         <v>4.8</v>
       </c>
       <c r="M10" s="12">
-        <v>2.96</v>
-      </c>
-      <c r="N10" s="12"/>
+        <v>3.55</v>
+      </c>
+      <c r="N10" s="12">
+        <f>3/20</f>
+        <v>0.15</v>
+      </c>
       <c r="O10" s="12">
-        <v>3.5</v>
+        <v>4.7</v>
       </c>
       <c r="P10" s="5">
         <f>0.7*L10+0.2*M10+0.1*O10+N10</f>
-        <v>4.3019999999999996</v>
+        <v>4.6900000000000004</v>
       </c>
       <c r="Q10" s="31">
-        <v>2.0532407407407409E-2</v>
+        <v>1.4976851851851852E-2</v>
       </c>
       <c r="R10" s="32">
         <f>Q10/$R$2</f>
-        <v>0.98555555555555563</v>
+        <v>0.71888888888888891</v>
       </c>
       <c r="S10" s="33">
         <v>2.0833333333333332E-2</v>
@@ -2349,431 +2353,478 @@
       </c>
       <c r="W10" s="12">
         <f>AVERAGE(R10,T10,V10)*5</f>
-        <v>4.9759259259259263</v>
+        <v>4.5314814814814817</v>
       </c>
       <c r="X10" s="35">
-        <v>5</v>
-      </c>
-      <c r="Y10" s="35">
-        <v>5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="Y10" s="35"/>
       <c r="Z10" s="35">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AA10" s="35"/>
       <c r="AB10" s="35"/>
       <c r="AC10" s="35">
         <f>AVERAGE(X10:AB10)</f>
+        <v>3</v>
+      </c>
+      <c r="AD10" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="AE10" s="5">
         <v>5</v>
       </c>
-      <c r="AD10" s="5">
-        <v>5</v>
-      </c>
-      <c r="AE10" s="5">
-        <v>4</v>
-      </c>
       <c r="AF10" s="5">
-        <v>4.833333333333333</v>
+        <v>4.9285714285714288</v>
       </c>
       <c r="AG10" s="5">
         <f>0.2*AF10+0.8*AVERAGE(AC10:AE10)</f>
-        <v>4.7</v>
+        <v>4.3190476190476197</v>
       </c>
       <c r="AH10" s="5">
         <v>4.8</v>
       </c>
       <c r="AI10" s="5">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="AJ10" s="5">
         <v>4.5</v>
       </c>
       <c r="AK10" s="5">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="AL10" s="5">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="AM10" s="5">
         <f>AVERAGE(AH10:AL10)</f>
-        <v>4.0600000000000005</v>
+        <v>4.7200000000000006</v>
       </c>
       <c r="AN10" s="5">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="AO10" s="5">
         <f>0.3*AN10+0.6*AM10+0.05*AG10+0.05*W10</f>
-        <v>4.119796296296296</v>
+        <v>4.624526455026456</v>
       </c>
     </row>
     <row r="11" spans="1:41" s="48" customFormat="1">
       <c r="A11" s="37">
-        <v>1004189893</v>
+        <v>1113698193</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>101</v>
+        <v>40</v>
       </c>
       <c r="C11" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="D11" s="38"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="38"/>
-      <c r="M11" s="42"/>
-      <c r="N11" s="42"/>
-      <c r="O11" s="42"/>
-      <c r="P11" s="38"/>
+        <v>41</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="37">
+        <v>2</v>
+      </c>
+      <c r="F11" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="G11" s="37">
+        <v>4</v>
+      </c>
+      <c r="H11" s="37" t="str" cm="1">
+        <f t="array" ref="H11">_xlfn.IFS(G11=1, "2:00 PM", G11=2, "2:30 PM", G11=3, "3:00 PM", G11=4, "3:30 PM")</f>
+        <v>3:30 PM</v>
+      </c>
+      <c r="I11" s="40">
+        <v>3</v>
+      </c>
+      <c r="J11" s="37">
+        <v>3</v>
+      </c>
+      <c r="K11" s="41">
+        <v>4.8</v>
+      </c>
+      <c r="L11" s="41">
+        <f>(J11/I11)*K11</f>
+        <v>4.8</v>
+      </c>
+      <c r="M11" s="42">
+        <v>3.55</v>
+      </c>
+      <c r="N11" s="42">
+        <f>2/20</f>
+        <v>0.1</v>
+      </c>
+      <c r="O11" s="42">
+        <v>4.7</v>
+      </c>
+      <c r="P11" s="41">
+        <f>0.7*L11+0.2*M11+0.1*O11+N11</f>
+        <v>4.6399999999999997</v>
+      </c>
       <c r="Q11" s="43">
-        <v>0</v>
+        <v>1.5833333333333335E-2</v>
       </c>
       <c r="R11" s="44">
-        <v>0</v>
+        <f>Q11/$R$2</f>
+        <v>0.76000000000000012</v>
       </c>
       <c r="S11" s="45">
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="T11" s="44">
-        <v>0</v>
-      </c>
-      <c r="U11" s="45">
-        <v>0</v>
+        <f>S11/$T$2</f>
+        <v>1</v>
+      </c>
+      <c r="U11" s="44">
+        <v>1</v>
       </c>
       <c r="V11" s="46">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="W11" s="52">
-        <v>0</v>
-      </c>
-      <c r="X11" s="47"/>
+        <f>AVERAGE(R11,T11,V11)*5</f>
+        <v>3.9333333333333336</v>
+      </c>
+      <c r="X11" s="47">
+        <v>5</v>
+      </c>
       <c r="Y11" s="47"/>
       <c r="Z11" s="47"/>
-      <c r="AA11" s="47"/>
+      <c r="AA11" s="47">
+        <v>4</v>
+      </c>
       <c r="AB11" s="47"/>
       <c r="AC11" s="47">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="41"/>
-      <c r="AE11" s="41"/>
+        <f>AVERAGE(X11:AB11)</f>
+        <v>4.5</v>
+      </c>
+      <c r="AD11" s="41">
+        <v>4.5</v>
+      </c>
+      <c r="AE11" s="41">
+        <v>5</v>
+      </c>
       <c r="AF11" s="41">
-        <v>0</v>
+        <v>4.8571428571428568</v>
       </c>
       <c r="AG11" s="51">
         <f>0.2*AF11+0.8*AVERAGE(AC11:AE11)</f>
-        <v>0</v>
+        <v>4.7047619047619049</v>
       </c>
       <c r="AH11" s="41">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="AI11" s="41">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="AJ11" s="41">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="AK11" s="41">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AL11" s="41">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="AM11" s="51">
-        <v>0</v>
+        <f>AVERAGE(AH11:AL11)</f>
+        <v>4.7200000000000006</v>
       </c>
       <c r="AN11" s="51">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="AO11" s="41">
-        <v>0</v>
+        <f>0.3*AN11+0.6*AM11+0.05*AG11+0.05*W11</f>
+        <v>4.6139047619047622</v>
       </c>
     </row>
     <row r="12" spans="1:41">
-      <c r="A12" s="3">
-        <v>1005783739</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="3">
+      <c r="A12" s="37">
+        <v>1005832925</v>
+      </c>
+      <c r="B12" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="37">
         <v>2</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G12" s="3">
-        <v>4</v>
-      </c>
-      <c r="H12" s="3" t="str" cm="1">
+      <c r="F12" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12" s="37">
+        <v>4</v>
+      </c>
+      <c r="H12" s="37" t="str" cm="1">
         <f t="array" ref="H12">_xlfn.IFS(G12=1, "2:00 PM", G12=2, "2:30 PM", G12=3, "3:00 PM", G12=4, "3:30 PM")</f>
         <v>3:30 PM</v>
       </c>
-      <c r="I12" s="14">
-        <v>4</v>
-      </c>
-      <c r="J12" s="3">
-        <v>4</v>
-      </c>
-      <c r="K12" s="5">
+      <c r="I12" s="40">
+        <v>11</v>
+      </c>
+      <c r="J12" s="37">
+        <v>11</v>
+      </c>
+      <c r="K12" s="41">
         <v>4.8</v>
       </c>
-      <c r="L12" s="5">
+      <c r="L12" s="41">
         <f>(J12/I12)*K12</f>
         <v>4.8</v>
       </c>
-      <c r="M12" s="12">
+      <c r="M12" s="42">
         <v>3.55</v>
       </c>
-      <c r="N12" s="12">
-        <f>3/20</f>
-        <v>0.15</v>
-      </c>
-      <c r="O12" s="12">
+      <c r="N12" s="42">
+        <f>5/20</f>
+        <v>0.25</v>
+      </c>
+      <c r="O12" s="42">
         <v>4.7</v>
       </c>
-      <c r="P12" s="5">
+      <c r="P12" s="41">
         <f>0.7*L12+0.2*M12+0.1*O12+N12</f>
-        <v>4.6900000000000004</v>
-      </c>
-      <c r="Q12" s="31">
-        <v>1.4976851851851852E-2</v>
-      </c>
-      <c r="R12" s="32">
+        <v>4.79</v>
+      </c>
+      <c r="Q12" s="43">
+        <v>1.5972222222222221E-2</v>
+      </c>
+      <c r="R12" s="44">
         <f>Q12/$R$2</f>
-        <v>0.71888888888888891</v>
-      </c>
-      <c r="S12" s="33">
+        <v>0.76666666666666661</v>
+      </c>
+      <c r="S12" s="45">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="T12" s="32">
+      <c r="T12" s="44">
         <f>S12/$T$2</f>
         <v>1</v>
       </c>
-      <c r="U12" s="32">
-        <v>1</v>
-      </c>
-      <c r="V12" s="34">
-        <v>1</v>
-      </c>
-      <c r="W12" s="12">
+      <c r="U12" s="44">
+        <v>1</v>
+      </c>
+      <c r="V12" s="46">
+        <v>1</v>
+      </c>
+      <c r="W12" s="52">
         <f>AVERAGE(R12,T12,V12)*5</f>
-        <v>4.5314814814814817</v>
-      </c>
-      <c r="X12" s="35">
+        <v>4.6111111111111107</v>
+      </c>
+      <c r="X12" s="47"/>
+      <c r="Y12" s="47">
+        <v>5</v>
+      </c>
+      <c r="Z12" s="47"/>
+      <c r="AA12" s="47">
         <v>2</v>
       </c>
-      <c r="Y12" s="35"/>
-      <c r="Z12" s="35">
-        <v>4</v>
-      </c>
-      <c r="AA12" s="35"/>
-      <c r="AB12" s="35"/>
-      <c r="AC12" s="35">
+      <c r="AB12" s="47">
+        <v>3</v>
+      </c>
+      <c r="AC12" s="47">
         <f>AVERAGE(X12:AB12)</f>
-        <v>3</v>
-      </c>
-      <c r="AD12" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="AE12" s="5">
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="AD12" s="41">
         <v>5</v>
       </c>
-      <c r="AF12" s="5">
-        <v>4.9285714285714288</v>
-      </c>
-      <c r="AG12" s="5">
+      <c r="AE12" s="41">
+        <v>5</v>
+      </c>
+      <c r="AF12" s="41">
+        <v>5</v>
+      </c>
+      <c r="AG12" s="51">
         <f>0.2*AF12+0.8*AVERAGE(AC12:AE12)</f>
-        <v>4.3190476190476197</v>
-      </c>
-      <c r="AH12" s="5">
+        <v>4.5555555555555554</v>
+      </c>
+      <c r="AH12" s="41">
         <v>4.8</v>
       </c>
-      <c r="AI12" s="5">
+      <c r="AI12" s="41">
         <v>4.8</v>
       </c>
-      <c r="AJ12" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="AK12" s="5">
+      <c r="AJ12" s="41">
+        <v>4.5</v>
+      </c>
+      <c r="AK12" s="41">
         <v>5</v>
       </c>
-      <c r="AL12" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="AM12" s="5">
+      <c r="AL12" s="41">
+        <v>4.5</v>
+      </c>
+      <c r="AM12" s="51">
         <f>AVERAGE(AH12:AL12)</f>
         <v>4.7200000000000006</v>
       </c>
-      <c r="AN12" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="AO12" s="5">
+      <c r="AN12" s="51">
+        <v>4.5</v>
+      </c>
+      <c r="AO12" s="41">
         <f>0.3*AN12+0.6*AM12+0.05*AG12+0.05*W12</f>
-        <v>4.624526455026456</v>
-      </c>
-    </row>
-    <row r="13" spans="1:41" s="48" customFormat="1" ht="15.75">
-      <c r="A13" s="37">
-        <v>1007603017</v>
-      </c>
-      <c r="B13" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="37">
-        <v>3</v>
-      </c>
-      <c r="F13" s="49" t="s">
-        <v>79</v>
-      </c>
-      <c r="G13" s="37">
-        <v>1</v>
-      </c>
-      <c r="H13" s="37" t="str" cm="1">
+        <v>4.6403333333333334</v>
+      </c>
+    </row>
+    <row r="13" spans="1:41" s="48" customFormat="1">
+      <c r="A13" s="3">
+        <v>1109662163</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="3">
+        <v>2</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="3">
+        <v>4</v>
+      </c>
+      <c r="H13" s="3" t="str" cm="1">
         <f t="array" ref="H13">_xlfn.IFS(G13=1, "2:00 PM", G13=2, "2:30 PM", G13=3, "3:00 PM", G13=4, "3:30 PM")</f>
-        <v>2:00 PM</v>
-      </c>
-      <c r="I13" s="40">
-        <v>5</v>
-      </c>
-      <c r="J13" s="37">
-        <v>5</v>
-      </c>
-      <c r="K13" s="41">
+        <v>3:30 PM</v>
+      </c>
+      <c r="I13" s="14">
+        <v>7</v>
+      </c>
+      <c r="J13" s="3">
+        <v>7</v>
+      </c>
+      <c r="K13" s="5">
         <v>4.8</v>
       </c>
-      <c r="L13" s="41">
+      <c r="L13" s="5">
         <f>(J13/I13)*K13</f>
         <v>4.8</v>
       </c>
-      <c r="M13" s="42">
-        <v>2.76</v>
-      </c>
-      <c r="N13" s="42"/>
-      <c r="O13" s="42">
+      <c r="M13" s="12">
+        <v>3.55</v>
+      </c>
+      <c r="N13" s="12">
+        <f>1/20</f>
+        <v>0.05</v>
+      </c>
+      <c r="O13" s="12">
+        <v>4.7</v>
+      </c>
+      <c r="P13" s="5">
+        <f>0.7*L13+0.2*M13+0.1*O13+N13</f>
+        <v>4.59</v>
+      </c>
+      <c r="Q13" s="31">
+        <v>1.4652777777777778E-2</v>
+      </c>
+      <c r="R13" s="32">
+        <f>Q13/$R$2</f>
+        <v>0.70333333333333337</v>
+      </c>
+      <c r="S13" s="33">
+        <v>0</v>
+      </c>
+      <c r="T13" s="32">
+        <f>S13/$T$2</f>
+        <v>0</v>
+      </c>
+      <c r="U13" s="32">
+        <v>1</v>
+      </c>
+      <c r="V13" s="34">
+        <v>1</v>
+      </c>
+      <c r="W13" s="12">
+        <f>AVERAGE(R13,T13,V13)*5</f>
+        <v>2.838888888888889</v>
+      </c>
+      <c r="X13" s="35">
         <v>3</v>
       </c>
-      <c r="P13" s="41">
-        <f>0.7*L13+0.2*M13+0.1*O13+N13</f>
-        <v>4.2119999999999997</v>
-      </c>
-      <c r="Q13" s="43">
-        <v>1.8159722222222223E-2</v>
-      </c>
-      <c r="R13" s="44">
-        <f>Q13/$R$2</f>
-        <v>0.8716666666666667</v>
-      </c>
-      <c r="S13" s="45">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="T13" s="44">
-        <f>S13/$T$2</f>
-        <v>1</v>
-      </c>
-      <c r="U13" s="44">
-        <v>1</v>
-      </c>
-      <c r="V13" s="46">
-        <v>1</v>
-      </c>
-      <c r="W13" s="52">
-        <f>AVERAGE(R13,T13,V13)*5</f>
-        <v>4.7861111111111114</v>
-      </c>
-      <c r="X13" s="47">
-        <v>4</v>
-      </c>
-      <c r="Y13" s="47"/>
-      <c r="Z13" s="47"/>
-      <c r="AA13" s="47">
+      <c r="Y13" s="35"/>
+      <c r="Z13" s="35">
         <v>5</v>
       </c>
-      <c r="AB13" s="47"/>
-      <c r="AC13" s="47">
+      <c r="AA13" s="35"/>
+      <c r="AB13" s="35"/>
+      <c r="AC13" s="35">
         <f>AVERAGE(X13:AB13)</f>
-        <v>4.5</v>
-      </c>
-      <c r="AD13" s="41">
-        <v>4</v>
-      </c>
-      <c r="AE13" s="41">
-        <v>4</v>
-      </c>
-      <c r="AF13" s="41">
-        <v>4.615384615384615</v>
-      </c>
-      <c r="AG13" s="51">
+        <v>4</v>
+      </c>
+      <c r="AD13" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="AE13" s="5">
+        <v>5</v>
+      </c>
+      <c r="AF13" s="5">
+        <v>5</v>
+      </c>
+      <c r="AG13" s="5">
         <f>0.2*AF13+0.8*AVERAGE(AC13:AE13)</f>
-        <v>4.2564102564102573</v>
-      </c>
-      <c r="AH13" s="41">
-        <v>4</v>
-      </c>
-      <c r="AI13" s="41">
-        <v>4.7</v>
-      </c>
-      <c r="AJ13" s="41">
-        <v>4.5</v>
-      </c>
-      <c r="AK13" s="41">
-        <v>4</v>
-      </c>
-      <c r="AL13" s="41">
-        <v>4.3</v>
-      </c>
-      <c r="AM13" s="51">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AH13" s="5">
+        <v>4.8</v>
+      </c>
+      <c r="AI13" s="5">
+        <v>4.8</v>
+      </c>
+      <c r="AJ13" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="AK13" s="5">
+        <v>5</v>
+      </c>
+      <c r="AL13" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="AM13" s="5">
         <f>AVERAGE(AH13:AL13)</f>
-        <v>4.3</v>
-      </c>
-      <c r="AN13" s="51">
-        <v>0</v>
-      </c>
-      <c r="AO13" s="41">
+        <v>4.7200000000000006</v>
+      </c>
+      <c r="AN13" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="AO13" s="5">
         <f>0.3*AN13+0.6*AM13+0.05*AG13+0.05*W13</f>
-        <v>3.0321260683760682</v>
+        <v>4.5539444444444452</v>
       </c>
     </row>
     <row r="14" spans="1:41">
       <c r="A14" s="3">
-        <v>1062329024</v>
+        <v>1081728000</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E14" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G14" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H14" s="3" t="str" cm="1">
         <f t="array" ref="H14">_xlfn.IFS(G14=1, "2:00 PM", G14=2, "2:30 PM", G14=3, "3:00 PM", G14=4, "3:30 PM")</f>
-        <v>3:00 PM</v>
+        <v>2:00 PM</v>
       </c>
       <c r="I14" s="14">
         <v>5</v>
@@ -2781,30 +2832,30 @@
       <c r="J14" s="3">
         <v>5</v>
       </c>
-      <c r="K14" s="3">
-        <v>4.5</v>
+      <c r="K14" s="5">
+        <v>4.8</v>
       </c>
       <c r="L14" s="5">
         <f>(J14/I14)*K14</f>
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="M14" s="12">
-        <v>3.59</v>
+        <v>2.76</v>
       </c>
       <c r="N14" s="12"/>
       <c r="O14" s="12">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="P14" s="5">
         <f>0.7*L14+0.2*M14+0.1*O14+N14</f>
-        <v>4.3179999999999996</v>
+        <v>4.2119999999999997</v>
       </c>
       <c r="Q14" s="31">
-        <v>0</v>
+        <v>9.9305555555555553E-3</v>
       </c>
       <c r="R14" s="32">
         <f>Q14/$R$2</f>
-        <v>0</v>
+        <v>0.47666666666666668</v>
       </c>
       <c r="S14" s="33">
         <v>2.0833333333333332E-2</v>
@@ -2821,120 +2872,117 @@
       </c>
       <c r="W14" s="12">
         <f>AVERAGE(R14,T14,V14)*5</f>
-        <v>3.333333333333333</v>
-      </c>
-      <c r="X14" s="35"/>
-      <c r="Y14" s="35">
-        <v>5</v>
-      </c>
-      <c r="Z14" s="35">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="35"/>
+        <v>4.1277777777777773</v>
+      </c>
+      <c r="X14" s="35">
+        <v>2</v>
+      </c>
+      <c r="Y14" s="35"/>
+      <c r="Z14" s="35"/>
+      <c r="AA14" s="35">
+        <v>1</v>
+      </c>
       <c r="AB14" s="35"/>
       <c r="AC14" s="35">
         <f>AVERAGE(X14:AB14)</f>
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="AD14" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE14" s="5">
         <v>4</v>
       </c>
       <c r="AF14" s="5">
-        <v>3.8461538461538463</v>
+        <v>4.615384615384615</v>
       </c>
       <c r="AG14" s="5">
         <f>0.2*AF14+0.8*AVERAGE(AC14:AE14)</f>
-        <v>3.3025641025641024</v>
+        <v>3.4564102564102561</v>
       </c>
       <c r="AH14" s="5">
+        <v>4</v>
+      </c>
+      <c r="AI14" s="5">
+        <v>4.7</v>
+      </c>
+      <c r="AJ14" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="AK14" s="5">
+        <v>4</v>
+      </c>
+      <c r="AL14" s="5">
         <v>4.3</v>
-      </c>
-      <c r="AI14" s="5">
-        <v>4</v>
-      </c>
-      <c r="AJ14" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="AK14" s="5">
-        <v>4.8</v>
-      </c>
-      <c r="AL14" s="5">
-        <v>4.5</v>
       </c>
       <c r="AM14" s="5">
         <f>AVERAGE(AH14:AL14)</f>
-        <v>4.42</v>
+        <v>4.3</v>
       </c>
       <c r="AN14" s="5">
         <v>0</v>
       </c>
       <c r="AO14" s="5">
         <f>0.3*AN14+0.6*AM14+0.05*AG14+0.05*W14</f>
-        <v>2.9837948717948715</v>
+        <v>2.9592094017094013</v>
       </c>
     </row>
     <row r="15" spans="1:41" s="48" customFormat="1">
       <c r="A15" s="37">
-        <v>1113698193</v>
+        <v>1062274189</v>
       </c>
       <c r="B15" s="38" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D15" s="39" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E15" s="37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15" s="38" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="G15" s="37">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H15" s="37" t="str" cm="1">
         <f t="array" ref="H15">_xlfn.IFS(G15=1, "2:00 PM", G15=2, "2:30 PM", G15=3, "3:00 PM", G15=4, "3:30 PM")</f>
-        <v>3:30 PM</v>
+        <v>2:00 PM</v>
       </c>
       <c r="I15" s="40">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J15" s="37">
         <v>3</v>
       </c>
       <c r="K15" s="41">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="L15" s="41">
         <f>(J15/I15)*K15</f>
-        <v>4.8</v>
+        <v>2.6999999999999997</v>
       </c>
       <c r="M15" s="42">
-        <v>3.55</v>
-      </c>
-      <c r="N15" s="42">
-        <f>2/20</f>
-        <v>0.1</v>
-      </c>
+        <v>2.76</v>
+      </c>
+      <c r="N15" s="42"/>
       <c r="O15" s="42">
-        <v>4.7</v>
+        <v>3</v>
       </c>
       <c r="P15" s="41">
         <f>0.7*L15+0.2*M15+0.1*O15+N15</f>
-        <v>4.6399999999999997</v>
+        <v>2.742</v>
       </c>
       <c r="Q15" s="43">
-        <v>1.5833333333333335E-2</v>
+        <v>1.8506944444444444E-2</v>
       </c>
       <c r="R15" s="44">
         <f>Q15/$R$2</f>
-        <v>0.76000000000000012</v>
+        <v>0.88833333333333331</v>
       </c>
       <c r="S15" s="45">
         <v>2.0833333333333332E-2</v>
@@ -2947,469 +2995,471 @@
         <v>1</v>
       </c>
       <c r="V15" s="46">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="W15" s="52">
         <f>AVERAGE(R15,T15,V15)*5</f>
-        <v>3.9333333333333336</v>
+        <v>4.4805555555555561</v>
       </c>
       <c r="X15" s="47">
-        <v>5</v>
-      </c>
-      <c r="Y15" s="47"/>
+        <v>2</v>
+      </c>
+      <c r="Y15" s="47">
+        <v>1</v>
+      </c>
       <c r="Z15" s="47"/>
       <c r="AA15" s="47">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AB15" s="47"/>
       <c r="AC15" s="47">
         <f>AVERAGE(X15:AB15)</f>
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="AD15" s="41">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="AE15" s="41">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF15" s="41">
-        <v>4.8571428571428568</v>
+        <v>4.7692307692307692</v>
       </c>
       <c r="AG15" s="51">
         <f>0.2*AF15+0.8*AVERAGE(AC15:AE15)</f>
-        <v>4.7047619047619049</v>
+        <v>3.620512820512821</v>
       </c>
       <c r="AH15" s="41">
-        <v>4.8</v>
+        <v>4</v>
       </c>
       <c r="AI15" s="41">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="AJ15" s="41">
         <v>4.5</v>
       </c>
       <c r="AK15" s="41">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AL15" s="41">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="AM15" s="51">
         <f>AVERAGE(AH15:AL15)</f>
-        <v>4.7200000000000006</v>
+        <v>4.3</v>
       </c>
       <c r="AN15" s="51">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="41">
         <f>0.3*AN15+0.6*AM15+0.05*AG15+0.05*W15</f>
-        <v>4.6139047619047622</v>
-      </c>
-    </row>
-    <row r="16" spans="1:41">
-      <c r="A16" s="3">
-        <v>1005967544</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="3">
-        <v>1</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G16" s="3">
+        <v>2.9850534188034183</v>
+      </c>
+    </row>
+    <row r="16" spans="1:41" ht="15.75">
+      <c r="A16" s="37">
+        <v>1007603017</v>
+      </c>
+      <c r="B16" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="37">
         <v>3</v>
       </c>
-      <c r="H16" s="3" t="str" cm="1">
+      <c r="F16" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="G16" s="37">
+        <v>1</v>
+      </c>
+      <c r="H16" s="37" t="str" cm="1">
         <f t="array" ref="H16">_xlfn.IFS(G16=1, "2:00 PM", G16=2, "2:30 PM", G16=3, "3:00 PM", G16=4, "3:30 PM")</f>
-        <v>3:00 PM</v>
-      </c>
-      <c r="I16" s="14">
-        <v>1</v>
-      </c>
-      <c r="J16" s="3">
-        <v>1</v>
-      </c>
-      <c r="K16" s="3">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="L16" s="5">
+        <v>2:00 PM</v>
+      </c>
+      <c r="I16" s="40">
+        <v>5</v>
+      </c>
+      <c r="J16" s="37">
+        <v>5</v>
+      </c>
+      <c r="K16" s="41">
+        <v>4.8</v>
+      </c>
+      <c r="L16" s="41">
         <f>(J16/I16)*K16</f>
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="M16" s="12">
-        <v>3.59</v>
-      </c>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12">
-        <v>4.5</v>
-      </c>
-      <c r="P16" s="5">
+        <v>4.8</v>
+      </c>
+      <c r="M16" s="42">
+        <v>2.76</v>
+      </c>
+      <c r="N16" s="42"/>
+      <c r="O16" s="42">
+        <v>3</v>
+      </c>
+      <c r="P16" s="41">
         <f>0.7*L16+0.2*M16+0.1*O16+N16</f>
-        <v>4.3879999999999999</v>
-      </c>
-      <c r="Q16" s="31">
-        <v>1.3935185185185186E-2</v>
-      </c>
-      <c r="R16" s="32">
+        <v>4.2119999999999997</v>
+      </c>
+      <c r="Q16" s="43">
+        <v>1.8159722222222223E-2</v>
+      </c>
+      <c r="R16" s="44">
         <f>Q16/$R$2</f>
-        <v>0.66888888888888898</v>
-      </c>
-      <c r="S16" s="33">
+        <v>0.8716666666666667</v>
+      </c>
+      <c r="S16" s="45">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="T16" s="32">
+      <c r="T16" s="44">
         <f>S16/$T$2</f>
         <v>1</v>
       </c>
-      <c r="U16" s="32">
-        <v>1</v>
-      </c>
-      <c r="V16" s="34">
-        <v>1</v>
-      </c>
-      <c r="W16" s="12">
+      <c r="U16" s="44">
+        <v>1</v>
+      </c>
+      <c r="V16" s="46">
+        <v>1</v>
+      </c>
+      <c r="W16" s="52">
         <f>AVERAGE(R16,T16,V16)*5</f>
-        <v>4.4481481481481486</v>
-      </c>
-      <c r="X16" s="35"/>
-      <c r="Y16" s="35">
+        <v>4.7861111111111114</v>
+      </c>
+      <c r="X16" s="47">
+        <v>4</v>
+      </c>
+      <c r="Y16" s="47"/>
+      <c r="Z16" s="47"/>
+      <c r="AA16" s="47">
+        <v>5</v>
+      </c>
+      <c r="AB16" s="47"/>
+      <c r="AC16" s="47">
+        <f>AVERAGE(X16:AB16)</f>
+        <v>4.5</v>
+      </c>
+      <c r="AD16" s="41">
+        <v>4</v>
+      </c>
+      <c r="AE16" s="41">
+        <v>4</v>
+      </c>
+      <c r="AF16" s="41">
+        <v>4.615384615384615</v>
+      </c>
+      <c r="AG16" s="51">
+        <f>0.2*AF16+0.8*AVERAGE(AC16:AE16)</f>
+        <v>4.2564102564102573</v>
+      </c>
+      <c r="AH16" s="41">
+        <v>4</v>
+      </c>
+      <c r="AI16" s="41">
+        <v>4.7</v>
+      </c>
+      <c r="AJ16" s="41">
+        <v>4.5</v>
+      </c>
+      <c r="AK16" s="41">
+        <v>4</v>
+      </c>
+      <c r="AL16" s="41">
+        <v>4.3</v>
+      </c>
+      <c r="AM16" s="51">
+        <f>AVERAGE(AH16:AL16)</f>
+        <v>4.3</v>
+      </c>
+      <c r="AN16" s="51">
         <v>0</v>
       </c>
-      <c r="Z16" s="35"/>
-      <c r="AA16" s="35">
+      <c r="AO16" s="41">
+        <f>0.3*AN16+0.6*AM16+0.05*AG16+0.05*W16</f>
+        <v>3.0321260683760682</v>
+      </c>
+    </row>
+    <row r="17" spans="1:41" s="48" customFormat="1">
+      <c r="A17" s="3">
+        <v>1219713263</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="3">
+        <v>3</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G17" s="3">
+        <v>1</v>
+      </c>
+      <c r="H17" s="3" t="str" cm="1">
+        <f t="array" ref="H17">_xlfn.IFS(G17=1, "2:00 PM", G17=2, "2:30 PM", G17=3, "3:00 PM", G17=4, "3:30 PM")</f>
+        <v>2:00 PM</v>
+      </c>
+      <c r="I17" s="14">
+        <v>6</v>
+      </c>
+      <c r="J17" s="3">
+        <v>6</v>
+      </c>
+      <c r="K17" s="5">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="L17" s="5">
+        <f>(J17/I17)*K17</f>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="M17" s="12">
+        <v>2.76</v>
+      </c>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12">
+        <v>3</v>
+      </c>
+      <c r="P17" s="5">
+        <f>0.7*L17+0.2*M17+0.1*O17+N17</f>
+        <v>4.282</v>
+      </c>
+      <c r="Q17" s="31">
         <v>0</v>
       </c>
-      <c r="AB16" s="35"/>
-      <c r="AC16" s="35">
-        <f>AVERAGE(X16:AB16)</f>
+      <c r="R17" s="32">
+        <f>Q17/$R$2</f>
         <v>0</v>
       </c>
-      <c r="AD16" s="5">
-        <v>4</v>
-      </c>
-      <c r="AE16" s="5">
-        <v>4</v>
-      </c>
-      <c r="AF16" s="5">
-        <v>4.916666666666667</v>
-      </c>
-      <c r="AG16" s="5">
-        <f>0.2*AF16+0.8*AVERAGE(AC16:AE16)</f>
-        <v>3.1166666666666667</v>
-      </c>
-      <c r="AH16" s="5">
+      <c r="S17" s="33">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="T17" s="32">
+        <f>S17/$T$2</f>
+        <v>1</v>
+      </c>
+      <c r="U17" s="32">
+        <v>1</v>
+      </c>
+      <c r="V17" s="34">
+        <v>0</v>
+      </c>
+      <c r="W17" s="12">
+        <v>3</v>
+      </c>
+      <c r="X17" s="35">
+        <v>2</v>
+      </c>
+      <c r="Y17" s="35">
+        <v>1</v>
+      </c>
+      <c r="Z17" s="35"/>
+      <c r="AA17" s="35">
+        <v>3</v>
+      </c>
+      <c r="AB17" s="35"/>
+      <c r="AC17" s="35">
+        <f>AVERAGE(X17:AB17)</f>
+        <v>2</v>
+      </c>
+      <c r="AD17" s="5">
+        <v>4</v>
+      </c>
+      <c r="AE17" s="5">
+        <v>4</v>
+      </c>
+      <c r="AF17" s="5">
+        <v>4.5384615384615383</v>
+      </c>
+      <c r="AG17" s="5">
+        <f>0.2*AF17+0.8*AVERAGE(AC17:AE17)</f>
+        <v>3.5743589743589745</v>
+      </c>
+      <c r="AH17" s="5">
+        <v>4</v>
+      </c>
+      <c r="AI17" s="5">
+        <v>4.7</v>
+      </c>
+      <c r="AJ17" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="AK17" s="5">
+        <v>4</v>
+      </c>
+      <c r="AL17" s="5">
         <v>4.3</v>
       </c>
-      <c r="AI16" s="5">
-        <v>4</v>
-      </c>
-      <c r="AJ16" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="AK16" s="5">
-        <v>4.8</v>
-      </c>
-      <c r="AL16" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="AM16" s="5">
-        <f>AVERAGE(AH16:AL16)</f>
-        <v>4.42</v>
-      </c>
-      <c r="AN16" s="5">
+      <c r="AM17" s="5">
+        <f>AVERAGE(AH17:AL17)</f>
+        <v>4.3</v>
+      </c>
+      <c r="AN17" s="5">
         <v>0</v>
       </c>
-      <c r="AO16" s="5">
-        <f>0.3*AN16+0.6*AM16+0.05*AG16+0.05*W16</f>
-        <v>3.0302407407407403</v>
-      </c>
-    </row>
-    <row r="17" spans="1:41" s="48" customFormat="1">
-      <c r="A17" s="37">
-        <v>1005832925</v>
-      </c>
-      <c r="B17" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="37">
-        <v>2</v>
-      </c>
-      <c r="F17" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="G17" s="37">
-        <v>4</v>
-      </c>
-      <c r="H17" s="37" t="str" cm="1">
-        <f t="array" ref="H17">_xlfn.IFS(G17=1, "2:00 PM", G17=2, "2:30 PM", G17=3, "3:00 PM", G17=4, "3:30 PM")</f>
-        <v>3:30 PM</v>
-      </c>
-      <c r="I17" s="40">
-        <v>11</v>
-      </c>
-      <c r="J17" s="37">
-        <v>11</v>
-      </c>
-      <c r="K17" s="41">
-        <v>4.8</v>
-      </c>
-      <c r="L17" s="41">
-        <f>(J17/I17)*K17</f>
-        <v>4.8</v>
-      </c>
-      <c r="M17" s="42">
-        <v>3.55</v>
-      </c>
-      <c r="N17" s="42">
-        <f>5/20</f>
-        <v>0.25</v>
-      </c>
-      <c r="O17" s="42">
-        <v>4.7</v>
-      </c>
-      <c r="P17" s="41">
-        <f>0.7*L17+0.2*M17+0.1*O17+N17</f>
-        <v>4.79</v>
-      </c>
-      <c r="Q17" s="43">
-        <v>1.5972222222222221E-2</v>
-      </c>
-      <c r="R17" s="44">
-        <f>Q17/$R$2</f>
-        <v>0.76666666666666661</v>
-      </c>
-      <c r="S17" s="45">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="T17" s="44">
-        <f>S17/$T$2</f>
-        <v>1</v>
-      </c>
-      <c r="U17" s="44">
-        <v>1</v>
-      </c>
-      <c r="V17" s="46">
-        <v>1</v>
-      </c>
-      <c r="W17" s="52">
-        <f>AVERAGE(R17,T17,V17)*5</f>
-        <v>4.6111111111111107</v>
-      </c>
-      <c r="X17" s="47"/>
-      <c r="Y17" s="47">
-        <v>5</v>
-      </c>
-      <c r="Z17" s="47"/>
-      <c r="AA17" s="47">
-        <v>2</v>
-      </c>
-      <c r="AB17" s="47">
+      <c r="AO17" s="5">
         <v>3</v>
       </c>
-      <c r="AC17" s="47">
-        <f>AVERAGE(X17:AB17)</f>
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="AD17" s="41">
-        <v>5</v>
-      </c>
-      <c r="AE17" s="41">
-        <v>5</v>
-      </c>
-      <c r="AF17" s="41">
-        <v>5</v>
-      </c>
-      <c r="AG17" s="51">
-        <f>0.2*AF17+0.8*AVERAGE(AC17:AE17)</f>
-        <v>4.5555555555555554</v>
-      </c>
-      <c r="AH17" s="41">
-        <v>4.8</v>
-      </c>
-      <c r="AI17" s="41">
-        <v>4.8</v>
-      </c>
-      <c r="AJ17" s="41">
-        <v>4.5</v>
-      </c>
-      <c r="AK17" s="41">
-        <v>5</v>
-      </c>
-      <c r="AL17" s="41">
-        <v>4.5</v>
-      </c>
-      <c r="AM17" s="51">
-        <f>AVERAGE(AH17:AL17)</f>
-        <v>4.7200000000000006</v>
-      </c>
-      <c r="AN17" s="51">
-        <v>4.5</v>
-      </c>
-      <c r="AO17" s="41">
-        <f>0.3*AN17+0.6*AM17+0.05*AG17+0.05*W17</f>
-        <v>4.6403333333333334</v>
-      </c>
     </row>
     <row r="18" spans="1:41">
-      <c r="A18" s="3">
-        <v>1219713263</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="3">
+      <c r="A18" s="37">
+        <v>1110363454</v>
+      </c>
+      <c r="B18" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="37">
         <v>3</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G18" s="3">
-        <v>1</v>
-      </c>
-      <c r="H18" s="3" t="str" cm="1">
+      <c r="F18" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="G18" s="37">
+        <v>1</v>
+      </c>
+      <c r="H18" s="37" t="str" cm="1">
         <f t="array" ref="H18">_xlfn.IFS(G18=1, "2:00 PM", G18=2, "2:30 PM", G18=3, "3:00 PM", G18=4, "3:30 PM")</f>
         <v>2:00 PM</v>
       </c>
-      <c r="I18" s="14">
+      <c r="I18" s="40">
         <v>6</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18" s="37">
         <v>6</v>
       </c>
-      <c r="K18" s="5">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="L18" s="5">
+      <c r="K18" s="41">
+        <v>4.8</v>
+      </c>
+      <c r="L18" s="41">
         <f>(J18/I18)*K18</f>
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="M18" s="12">
+        <v>4.8</v>
+      </c>
+      <c r="M18" s="42">
         <v>2.76</v>
       </c>
-      <c r="N18" s="12"/>
-      <c r="O18" s="12">
+      <c r="N18" s="42">
+        <f>1/13</f>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="O18" s="42">
         <v>3</v>
       </c>
-      <c r="P18" s="5">
+      <c r="P18" s="41">
         <f>0.7*L18+0.2*M18+0.1*O18+N18</f>
-        <v>4.282</v>
-      </c>
-      <c r="Q18" s="31">
+        <v>4.2889230769230764</v>
+      </c>
+      <c r="Q18" s="43">
+        <v>1.1863425925925927E-2</v>
+      </c>
+      <c r="R18" s="44">
+        <f>Q18/$R$2</f>
+        <v>0.56944444444444453</v>
+      </c>
+      <c r="S18" s="45">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="T18" s="44">
+        <f>S18/$T$2</f>
+        <v>1</v>
+      </c>
+      <c r="U18" s="44">
+        <v>1</v>
+      </c>
+      <c r="V18" s="46">
+        <v>1</v>
+      </c>
+      <c r="W18" s="52">
+        <f>AVERAGE(R18,T18,V18)*5</f>
+        <v>4.2824074074074074</v>
+      </c>
+      <c r="X18" s="47">
+        <v>5</v>
+      </c>
+      <c r="Y18" s="47">
+        <v>3</v>
+      </c>
+      <c r="Z18" s="47"/>
+      <c r="AA18" s="47">
+        <v>5</v>
+      </c>
+      <c r="AB18" s="47"/>
+      <c r="AC18" s="47">
+        <f>AVERAGE(X18:AB18)</f>
+        <v>4.333333333333333</v>
+      </c>
+      <c r="AD18" s="41">
+        <v>4</v>
+      </c>
+      <c r="AE18" s="41">
         <v>0</v>
       </c>
-      <c r="R18" s="32">
-        <f>Q18/$R$2</f>
-        <v>0</v>
-      </c>
-      <c r="S18" s="33">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="T18" s="32">
-        <f>S18/$T$2</f>
-        <v>1</v>
-      </c>
-      <c r="U18" s="32">
-        <v>1</v>
-      </c>
-      <c r="V18" s="34">
-        <v>0</v>
-      </c>
-      <c r="W18" s="12">
-        <v>3</v>
-      </c>
-      <c r="X18" s="35">
-        <v>2</v>
-      </c>
-      <c r="Y18" s="35">
-        <v>1</v>
-      </c>
-      <c r="Z18" s="35"/>
-      <c r="AA18" s="35">
-        <v>3</v>
-      </c>
-      <c r="AB18" s="35"/>
-      <c r="AC18" s="35">
-        <f>AVERAGE(X18:AB18)</f>
-        <v>2</v>
-      </c>
-      <c r="AD18" s="5">
-        <v>4</v>
-      </c>
-      <c r="AE18" s="5">
-        <v>4</v>
-      </c>
-      <c r="AF18" s="5">
-        <v>4.5384615384615383</v>
-      </c>
-      <c r="AG18" s="5">
+      <c r="AF18" s="41">
+        <v>4.6923076923076925</v>
+      </c>
+      <c r="AG18" s="51">
         <f>0.2*AF18+0.8*AVERAGE(AC18:AE18)</f>
-        <v>3.5743589743589745</v>
-      </c>
-      <c r="AH18" s="5">
-        <v>4</v>
-      </c>
-      <c r="AI18" s="5">
+        <v>3.1606837606837606</v>
+      </c>
+      <c r="AH18" s="41">
+        <v>4</v>
+      </c>
+      <c r="AI18" s="41">
         <v>4.7</v>
       </c>
-      <c r="AJ18" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="AK18" s="5">
-        <v>4</v>
-      </c>
-      <c r="AL18" s="5">
+      <c r="AJ18" s="41">
+        <v>4.5</v>
+      </c>
+      <c r="AK18" s="41">
+        <v>4</v>
+      </c>
+      <c r="AL18" s="41">
         <v>4.3</v>
       </c>
-      <c r="AM18" s="5">
+      <c r="AM18" s="51">
         <f>AVERAGE(AH18:AL18)</f>
         <v>4.3</v>
       </c>
-      <c r="AN18" s="5">
+      <c r="AN18" s="51">
         <v>0</v>
       </c>
-      <c r="AO18" s="5">
-        <v>3</v>
+      <c r="AO18" s="41">
+        <f>0.3*AN18+0.6*AM18+0.05*AG18+0.05*W18</f>
+        <v>2.9521545584045579</v>
       </c>
     </row>
     <row r="19" spans="1:41" s="48" customFormat="1">
       <c r="A19" s="37">
-        <v>1193578885</v>
+        <v>1005894053</v>
       </c>
       <c r="B19" s="38" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="C19" s="38" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="D19" s="39" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E19" s="37">
         <v>4</v>
       </c>
       <c r="F19" s="38" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="G19" s="37">
         <v>2</v>
@@ -3419,10 +3469,10 @@
         <v>2:30 PM</v>
       </c>
       <c r="I19" s="40">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J19" s="37">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K19" s="41">
         <v>4.5999999999999996</v>
@@ -3443,18 +3493,18 @@
         <v>4.1619999999999999</v>
       </c>
       <c r="Q19" s="43">
-        <v>1.951388888888889E-2</v>
+        <v>2.1342592592592594E-2</v>
       </c>
       <c r="R19" s="44">
         <f>Q19/$R$2</f>
-        <v>0.93666666666666676</v>
+        <v>1.0244444444444445</v>
       </c>
       <c r="S19" s="45">
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="T19" s="44">
         <f>S19/$T$2</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U19" s="44">
         <v>1</v>
@@ -3463,25 +3513,31 @@
         <v>1</v>
       </c>
       <c r="W19" s="52">
-        <f>AVERAGE(R19,T19,V19)*5</f>
-        <v>3.2277777777777779</v>
-      </c>
-      <c r="X19" s="47"/>
+        <v>5</v>
+      </c>
+      <c r="X19" s="47">
+        <v>5</v>
+      </c>
       <c r="Y19" s="47"/>
       <c r="Z19" s="47"/>
       <c r="AA19" s="47"/>
       <c r="AB19" s="47"/>
       <c r="AC19" s="47">
-        <v>0</v>
-      </c>
-      <c r="AD19" s="41"/>
-      <c r="AE19" s="41"/>
+        <f>AVERAGE(X19:AB19)</f>
+        <v>5</v>
+      </c>
+      <c r="AD19" s="41">
+        <v>4.5</v>
+      </c>
+      <c r="AE19" s="41">
+        <v>4</v>
+      </c>
       <c r="AF19" s="41">
-        <v>2.3333333333333335</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="AG19" s="51">
         <f>0.2*AF19+0.8*AVERAGE(AC19:AE19)</f>
-        <v>0.46666666666666673</v>
+        <v>4.5333333333333332</v>
       </c>
       <c r="AH19" s="41">
         <v>4.8</v>
@@ -3505,29 +3561,29 @@
       <c r="AN19" s="51">
         <v>4</v>
       </c>
-      <c r="AO19" s="36">
-        <f>0.3*AN19+0.7*AM19</f>
-        <v>4.0419999999999998</v>
+      <c r="AO19" s="41">
+        <f>0.3*AN19+0.6*AM19+0.05*AG19+0.05*W19</f>
+        <v>4.1126666666666667</v>
       </c>
     </row>
     <row r="20" spans="1:41">
       <c r="A20" s="3">
-        <v>1025642375</v>
+        <v>1193073115</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E20" s="3">
         <v>4</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G20" s="3">
         <v>2</v>
@@ -3537,17 +3593,17 @@
         <v>2:30 PM</v>
       </c>
       <c r="I20" s="14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J20" s="3">
-        <v>5</v>
-      </c>
-      <c r="K20" s="3">
-        <v>4.7</v>
+        <v>4</v>
+      </c>
+      <c r="K20" s="5">
+        <v>4.8</v>
       </c>
       <c r="L20" s="5">
         <f>(J20/I20)*K20</f>
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="M20" s="12">
         <v>2.96</v>
@@ -3558,14 +3614,14 @@
       </c>
       <c r="P20" s="5">
         <f>0.7*L20+0.2*M20+0.1*O20+N20</f>
-        <v>4.2320000000000002</v>
+        <v>4.3019999999999996</v>
       </c>
       <c r="Q20" s="31">
-        <v>2.0243055555555556E-2</v>
+        <v>2.0532407407407409E-2</v>
       </c>
       <c r="R20" s="32">
         <f>Q20/$R$2</f>
-        <v>0.97166666666666668</v>
+        <v>0.98555555555555563</v>
       </c>
       <c r="S20" s="33">
         <v>2.0833333333333332E-2</v>
@@ -3582,24 +3638,35 @@
       </c>
       <c r="W20" s="12">
         <f>AVERAGE(R20,T20,V20)*5</f>
-        <v>4.9527777777777775</v>
-      </c>
-      <c r="X20" s="35"/>
-      <c r="Y20" s="35"/>
-      <c r="Z20" s="35"/>
+        <v>4.9759259259259263</v>
+      </c>
+      <c r="X20" s="35">
+        <v>5</v>
+      </c>
+      <c r="Y20" s="35">
+        <v>5</v>
+      </c>
+      <c r="Z20" s="35">
+        <v>5</v>
+      </c>
       <c r="AA20" s="35"/>
       <c r="AB20" s="35"/>
       <c r="AC20" s="35">
-        <v>0</v>
-      </c>
-      <c r="AD20" s="5"/>
-      <c r="AE20" s="5"/>
+        <f>AVERAGE(X20:AB20)</f>
+        <v>5</v>
+      </c>
+      <c r="AD20" s="5">
+        <v>5</v>
+      </c>
+      <c r="AE20" s="5">
+        <v>4</v>
+      </c>
       <c r="AF20" s="5">
-        <v>2.3333333333333335</v>
+        <v>4.833333333333333</v>
       </c>
       <c r="AG20" s="5">
         <f>0.2*AF20+0.8*AVERAGE(AC20:AE20)</f>
-        <v>0.46666666666666673</v>
+        <v>4.7</v>
       </c>
       <c r="AH20" s="5">
         <v>4.8</v>
@@ -3623,77 +3690,74 @@
       <c r="AN20" s="5">
         <v>4</v>
       </c>
-      <c r="AO20" s="36">
-        <f>0.3*AN20+0.7*AM20</f>
-        <v>4.0419999999999998</v>
+      <c r="AO20" s="5">
+        <f>0.3*AN20+0.6*AM20+0.05*AG20+0.05*W20</f>
+        <v>4.119796296296296</v>
       </c>
     </row>
     <row r="21" spans="1:41" s="48" customFormat="1">
       <c r="A21" s="37">
-        <v>1110363454</v>
+        <v>1193578885</v>
       </c>
       <c r="B21" s="38" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="D21" s="39" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E21" s="37">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F21" s="38" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="G21" s="37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H21" s="37" t="str" cm="1">
         <f t="array" ref="H21">_xlfn.IFS(G21=1, "2:00 PM", G21=2, "2:30 PM", G21=3, "3:00 PM", G21=4, "3:30 PM")</f>
-        <v>2:00 PM</v>
+        <v>2:30 PM</v>
       </c>
       <c r="I21" s="40">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J21" s="37">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K21" s="41">
-        <v>4.8</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="L21" s="41">
         <f>(J21/I21)*K21</f>
-        <v>4.8</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="M21" s="42">
-        <v>2.76</v>
-      </c>
-      <c r="N21" s="42">
-        <f>1/13</f>
-        <v>7.6923076923076927E-2</v>
-      </c>
+        <v>2.96</v>
+      </c>
+      <c r="N21" s="42"/>
       <c r="O21" s="42">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P21" s="41">
         <f>0.7*L21+0.2*M21+0.1*O21+N21</f>
-        <v>4.2889230769230764</v>
+        <v>4.1619999999999999</v>
       </c>
       <c r="Q21" s="43">
-        <v>1.1863425925925927E-2</v>
+        <v>1.951388888888889E-2</v>
       </c>
       <c r="R21" s="44">
         <f>Q21/$R$2</f>
-        <v>0.56944444444444453</v>
+        <v>0.93666666666666676</v>
       </c>
       <c r="S21" s="45">
-        <v>2.0833333333333332E-2</v>
+        <v>0</v>
       </c>
       <c r="T21" s="44">
         <f>S21/$T$2</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U21" s="44">
         <v>1</v>
@@ -3703,129 +3767,115 @@
       </c>
       <c r="W21" s="52">
         <f>AVERAGE(R21,T21,V21)*5</f>
-        <v>4.2824074074074074</v>
-      </c>
-      <c r="X21" s="47">
-        <v>5</v>
-      </c>
-      <c r="Y21" s="47">
-        <v>3</v>
-      </c>
+        <v>3.2277777777777779</v>
+      </c>
+      <c r="X21" s="47"/>
+      <c r="Y21" s="47"/>
       <c r="Z21" s="47"/>
-      <c r="AA21" s="47">
-        <v>5</v>
-      </c>
+      <c r="AA21" s="47"/>
       <c r="AB21" s="47"/>
       <c r="AC21" s="47">
-        <f>AVERAGE(X21:AB21)</f>
-        <v>4.333333333333333</v>
-      </c>
-      <c r="AD21" s="41">
-        <v>4</v>
-      </c>
-      <c r="AE21" s="41">
         <v>0</v>
       </c>
+      <c r="AD21" s="41"/>
+      <c r="AE21" s="41"/>
       <c r="AF21" s="41">
-        <v>4.6923076923076925</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="AG21" s="51">
         <f>0.2*AF21+0.8*AVERAGE(AC21:AE21)</f>
-        <v>3.1606837606837606</v>
+        <v>0.46666666666666673</v>
       </c>
       <c r="AH21" s="41">
-        <v>4</v>
+        <v>4.8</v>
       </c>
       <c r="AI21" s="41">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="AJ21" s="41">
         <v>4.5</v>
       </c>
       <c r="AK21" s="41">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="AL21" s="41">
-        <v>4.3</v>
+        <v>3</v>
       </c>
       <c r="AM21" s="51">
         <f>AVERAGE(AH21:AL21)</f>
-        <v>4.3</v>
+        <v>4.0600000000000005</v>
       </c>
       <c r="AN21" s="51">
-        <v>0</v>
-      </c>
-      <c r="AO21" s="41">
-        <f>0.3*AN21+0.6*AM21+0.05*AG21+0.05*W21</f>
-        <v>2.9521545584045579</v>
+        <v>4</v>
+      </c>
+      <c r="AO21" s="36">
+        <f>0.3*AN21+0.7*AM21</f>
+        <v>4.0419999999999998</v>
       </c>
     </row>
     <row r="22" spans="1:41">
       <c r="A22" s="3">
-        <v>1109662163</v>
+        <v>1025642375</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E22" s="3">
+        <v>4</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G22" s="3">
         <v>2</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G22" s="3">
-        <v>4</v>
       </c>
       <c r="H22" s="3" t="str" cm="1">
         <f t="array" ref="H22">_xlfn.IFS(G22=1, "2:00 PM", G22=2, "2:30 PM", G22=3, "3:00 PM", G22=4, "3:30 PM")</f>
-        <v>3:30 PM</v>
+        <v>2:30 PM</v>
       </c>
       <c r="I22" s="14">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J22" s="3">
-        <v>7</v>
-      </c>
-      <c r="K22" s="5">
-        <v>4.8</v>
+        <v>5</v>
+      </c>
+      <c r="K22" s="3">
+        <v>4.7</v>
       </c>
       <c r="L22" s="5">
         <f>(J22/I22)*K22</f>
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="M22" s="12">
-        <v>3.55</v>
-      </c>
-      <c r="N22" s="12">
-        <f>1/20</f>
-        <v>0.05</v>
-      </c>
+        <v>2.96</v>
+      </c>
+      <c r="N22" s="12"/>
       <c r="O22" s="12">
-        <v>4.7</v>
+        <v>3.5</v>
       </c>
       <c r="P22" s="5">
         <f>0.7*L22+0.2*M22+0.1*O22+N22</f>
-        <v>4.59</v>
+        <v>4.2320000000000002</v>
       </c>
       <c r="Q22" s="31">
-        <v>1.4652777777777778E-2</v>
+        <v>2.0243055555555556E-2</v>
       </c>
       <c r="R22" s="32">
         <f>Q22/$R$2</f>
-        <v>0.70333333333333337</v>
+        <v>0.97166666666666668</v>
       </c>
       <c r="S22" s="33">
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="T22" s="32">
         <f>S22/$T$2</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U22" s="32">
         <v>1</v>
@@ -3835,186 +3885,136 @@
       </c>
       <c r="W22" s="12">
         <f>AVERAGE(R22,T22,V22)*5</f>
-        <v>2.838888888888889</v>
-      </c>
-      <c r="X22" s="35">
-        <v>3</v>
-      </c>
+        <v>4.9527777777777775</v>
+      </c>
+      <c r="X22" s="35"/>
       <c r="Y22" s="35"/>
-      <c r="Z22" s="35">
-        <v>5</v>
-      </c>
+      <c r="Z22" s="35"/>
       <c r="AA22" s="35"/>
       <c r="AB22" s="35"/>
       <c r="AC22" s="35">
-        <f>AVERAGE(X22:AB22)</f>
-        <v>4</v>
-      </c>
-      <c r="AD22" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="AE22" s="5">
-        <v>5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AD22" s="5"/>
+      <c r="AE22" s="5"/>
       <c r="AF22" s="5">
-        <v>5</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="AG22" s="5">
         <f>0.2*AF22+0.8*AVERAGE(AC22:AE22)</f>
-        <v>4.5999999999999996</v>
+        <v>0.46666666666666673</v>
       </c>
       <c r="AH22" s="5">
         <v>4.8</v>
       </c>
       <c r="AI22" s="5">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="AJ22" s="5">
         <v>4.5</v>
       </c>
       <c r="AK22" s="5">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="AL22" s="5">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="AM22" s="5">
         <f>AVERAGE(AH22:AL22)</f>
-        <v>4.7200000000000006</v>
+        <v>4.0600000000000005</v>
       </c>
       <c r="AN22" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="AO22" s="5">
-        <f>0.3*AN22+0.6*AM22+0.05*AG22+0.05*W22</f>
-        <v>4.5539444444444452</v>
+        <v>4</v>
+      </c>
+      <c r="AO22" s="36">
+        <f>0.3*AN22+0.7*AM22</f>
+        <v>4.0419999999999998</v>
       </c>
     </row>
     <row r="23" spans="1:41" s="48" customFormat="1">
       <c r="A23" s="37">
-        <v>1126644560</v>
+        <v>1004189893</v>
       </c>
       <c r="B23" s="38" t="s">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="D23" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" s="37">
-        <v>1</v>
-      </c>
-      <c r="F23" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="G23" s="37">
-        <v>3</v>
-      </c>
-      <c r="H23" s="37" t="str" cm="1">
-        <f t="array" ref="H23">_xlfn.IFS(G23=1, "2:00 PM", G23=2, "2:30 PM", G23=3, "3:00 PM", G23=4, "3:30 PM")</f>
-        <v>3:00 PM</v>
-      </c>
-      <c r="I23" s="40">
-        <v>4</v>
-      </c>
-      <c r="J23" s="37">
-        <v>4</v>
-      </c>
-      <c r="K23" s="37">
-        <v>4.8</v>
-      </c>
-      <c r="L23" s="41">
-        <f>(J23/I23)*K23</f>
-        <v>4.8</v>
-      </c>
-      <c r="M23" s="42">
-        <v>3.59</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="D23" s="38"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="37"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="42"/>
       <c r="N23" s="42"/>
-      <c r="O23" s="42">
-        <v>4.5</v>
-      </c>
-      <c r="P23" s="41">
-        <f>0.7*L23+0.2*M23+0.1*O23+N23</f>
-        <v>4.5279999999999996</v>
-      </c>
+      <c r="O23" s="42"/>
+      <c r="P23" s="38"/>
       <c r="Q23" s="43">
-        <v>1.6342592592592593E-2</v>
+        <v>0</v>
       </c>
       <c r="R23" s="44">
-        <f>Q23/$R$2</f>
-        <v>0.7844444444444445</v>
+        <v>0</v>
       </c>
       <c r="S23" s="45">
-        <v>2.0833333333333332E-2</v>
+        <v>0</v>
       </c>
       <c r="T23" s="44">
-        <f>S23/$T$2</f>
-        <v>1</v>
-      </c>
-      <c r="U23" s="44">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="U23" s="45">
+        <v>0</v>
       </c>
       <c r="V23" s="46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W23" s="52">
-        <f>AVERAGE(R23,T23,V23)*5</f>
-        <v>4.6407407407407408</v>
+        <v>0</v>
       </c>
       <c r="X23" s="47"/>
-      <c r="Y23" s="47">
-        <v>4</v>
-      </c>
-      <c r="Z23" s="47">
-        <v>0</v>
-      </c>
+      <c r="Y23" s="47"/>
+      <c r="Z23" s="47"/>
       <c r="AA23" s="47"/>
       <c r="AB23" s="47"/>
       <c r="AC23" s="47">
-        <f>AVERAGE(X23:AB23)</f>
-        <v>2</v>
-      </c>
-      <c r="AD23" s="41">
-        <v>4.5</v>
-      </c>
-      <c r="AE23" s="41">
-        <v>4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AD23" s="41"/>
+      <c r="AE23" s="41"/>
       <c r="AF23" s="41">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AG23" s="51">
         <f>0.2*AF23+0.8*AVERAGE(AC23:AE23)</f>
-        <v>3.8000000000000003</v>
+        <v>0</v>
       </c>
       <c r="AH23" s="41">
-        <v>4.3</v>
+        <v>0</v>
       </c>
       <c r="AI23" s="41">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="41">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="AK23" s="41">
-        <v>4.8</v>
+        <v>0</v>
       </c>
       <c r="AL23" s="41">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="AM23" s="51">
-        <f>AVERAGE(AH23:AL23)</f>
-        <v>4.42</v>
+        <v>0</v>
       </c>
       <c r="AN23" s="51">
         <v>0</v>
       </c>
       <c r="AO23" s="41">
-        <f>0.3*AN23+0.6*AM23+0.05*AG23+0.05*W23</f>
-        <v>3.0740370370370367</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:41">
@@ -4039,7 +4039,7 @@
   </sheetData>
   <autoFilter ref="A3:AO3" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:AO23">
-      <sortCondition ref="B3"/>
+      <sortCondition ref="E3"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="P4:P23">
@@ -4056,9 +4056,6 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="AC6:AC7 AC18" formulaRange="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 

--- a/academics/DB2/2025-2/DB2 2025-2.xlsx
+++ b/academics/DB2/2025-2/DB2 2025-2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\UAO\oicampo-uao.github.io\academics\DB2\2025-2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\oicampo\Documents\GitHub\oicampo-uao.github.io\academics\DB2\2025-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A9CC44-DA0F-4439-967B-DF70569CFAFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E91739A1-4577-47D2-9080-4BB65B6D86A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1302,11 +1302,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AO27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W31" sqref="W31"/>
+    <sheetView tabSelected="1" topLeftCell="V1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AO18" sqref="AO18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="35.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="35.5703125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.140625" customWidth="1"/>
@@ -1551,7 +1551,7 @@
         <v>4.5</v>
       </c>
       <c r="L4" s="5">
-        <f>(J4/I4)*K4</f>
+        <f t="shared" ref="L4:L22" si="0">(J4/I4)*K4</f>
         <v>4.5</v>
       </c>
       <c r="M4" s="12">
@@ -1562,21 +1562,21 @@
         <v>4.5</v>
       </c>
       <c r="P4" s="5">
-        <f>0.7*L4+0.2*M4+0.1*O4+N4</f>
+        <f t="shared" ref="P4:P22" si="1">0.7*L4+0.2*M4+0.1*O4+N4</f>
         <v>4.3179999999999996</v>
       </c>
       <c r="Q4" s="31">
         <v>1.474537037037037E-2</v>
       </c>
       <c r="R4" s="32">
-        <f>Q4/$R$2</f>
+        <f t="shared" ref="R4:R22" si="2">Q4/$R$2</f>
         <v>0.70777777777777784</v>
       </c>
       <c r="S4" s="33">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="T4" s="32">
-        <f>S4/$T$2</f>
+        <f t="shared" ref="T4:T22" si="3">S4/$T$2</f>
         <v>1</v>
       </c>
       <c r="U4" s="32">
@@ -1597,7 +1597,7 @@
       </c>
       <c r="AB4" s="35"/>
       <c r="AC4" s="35">
-        <f>AVERAGE(X4:AB4)</f>
+        <f t="shared" ref="AC4:AC20" si="4">AVERAGE(X4:AB4)</f>
         <v>4</v>
       </c>
       <c r="AD4" s="5">
@@ -1629,14 +1629,14 @@
         <v>4.5</v>
       </c>
       <c r="AM4" s="5">
-        <f>AVERAGE(AH4:AL4)</f>
+        <f t="shared" ref="AM4:AM22" si="5">AVERAGE(AH4:AL4)</f>
         <v>4.42</v>
       </c>
       <c r="AN4" s="5">
         <v>4</v>
       </c>
       <c r="AO4" s="5">
-        <f>0.3*AN4+0.6*AM4+0.05*AG4+0.05*W4</f>
+        <f t="shared" ref="AO4:AO16" si="6">0.3*AN4+0.6*AM4+0.05*AG4+0.05*W4</f>
         <v>4.2321353276353273</v>
       </c>
     </row>
@@ -1676,7 +1676,7 @@
         <v>4.8</v>
       </c>
       <c r="L5" s="5">
-        <f>(J5/I5)*K5</f>
+        <f t="shared" si="0"/>
         <v>4.8</v>
       </c>
       <c r="M5" s="12">
@@ -1690,21 +1690,21 @@
         <v>4.5</v>
       </c>
       <c r="P5" s="5">
-        <f>0.7*L5+0.2*M5+0.1*O5+N5</f>
+        <f t="shared" si="1"/>
         <v>4.5904999999999996</v>
       </c>
       <c r="Q5" s="31">
         <v>1.412037037037037E-2</v>
       </c>
       <c r="R5" s="32">
-        <f>Q5/$R$2</f>
+        <f t="shared" si="2"/>
         <v>0.67777777777777781</v>
       </c>
       <c r="S5" s="33">
         <v>0</v>
       </c>
       <c r="T5" s="32">
-        <f>S5/$T$2</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U5" s="32">
@@ -1726,7 +1726,7 @@
       <c r="AA5" s="35"/>
       <c r="AB5" s="35"/>
       <c r="AC5" s="35">
-        <f>AVERAGE(X5:AB5)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AD5" s="5">
@@ -1739,7 +1739,7 @@
         <v>4.9230769230769234</v>
       </c>
       <c r="AG5" s="5">
-        <f>0.2*AF5+0.8*AVERAGE(AC5:AE5)</f>
+        <f t="shared" ref="AG5:AG23" si="7">0.2*AF5+0.8*AVERAGE(AC5:AE5)</f>
         <v>3.7846153846153849</v>
       </c>
       <c r="AH5" s="5">
@@ -1758,14 +1758,14 @@
         <v>4.5</v>
       </c>
       <c r="AM5" s="5">
-        <f>AVERAGE(AH5:AL5)</f>
+        <f t="shared" si="5"/>
         <v>4.42</v>
       </c>
       <c r="AN5" s="5">
         <v>4</v>
       </c>
       <c r="AO5" s="5">
-        <f>0.3*AN5+0.6*AM5+0.05*AG5+0.05*W5</f>
+        <f t="shared" si="6"/>
         <v>4.1912307692307689</v>
       </c>
     </row>
@@ -1805,7 +1805,7 @@
         <v>4.5</v>
       </c>
       <c r="L6" s="5">
-        <f>(J6/I6)*K6</f>
+        <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
       <c r="M6" s="12">
@@ -1816,21 +1816,21 @@
         <v>4.5</v>
       </c>
       <c r="P6" s="5">
-        <f>0.7*L6+0.2*M6+0.1*O6+N6</f>
+        <f t="shared" si="1"/>
         <v>4.3179999999999996</v>
       </c>
       <c r="Q6" s="31">
         <v>0</v>
       </c>
       <c r="R6" s="32">
-        <f>Q6/$R$2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S6" s="33">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="T6" s="32">
-        <f>S6/$T$2</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="U6" s="32">
@@ -1840,7 +1840,7 @@
         <v>1</v>
       </c>
       <c r="W6" s="12">
-        <f>AVERAGE(R6,T6,V6)*5</f>
+        <f t="shared" ref="W6:W16" si="8">AVERAGE(R6,T6,V6)*5</f>
         <v>3.333333333333333</v>
       </c>
       <c r="X6" s="35"/>
@@ -1853,7 +1853,7 @@
       <c r="AA6" s="35"/>
       <c r="AB6" s="35"/>
       <c r="AC6" s="35">
-        <f>AVERAGE(X6:AB6)</f>
+        <f t="shared" si="4"/>
         <v>2.5</v>
       </c>
       <c r="AD6" s="5">
@@ -1866,7 +1866,7 @@
         <v>3.8461538461538463</v>
       </c>
       <c r="AG6" s="5">
-        <f>0.2*AF6+0.8*AVERAGE(AC6:AE6)</f>
+        <f t="shared" si="7"/>
         <v>3.3025641025641024</v>
       </c>
       <c r="AH6" s="5">
@@ -1885,14 +1885,14 @@
         <v>4.5</v>
       </c>
       <c r="AM6" s="5">
-        <f>AVERAGE(AH6:AL6)</f>
+        <f t="shared" si="5"/>
         <v>4.42</v>
       </c>
       <c r="AN6" s="5">
         <v>4</v>
       </c>
       <c r="AO6" s="5">
-        <f>0.3*AN6+0.6*AM6+0.05*AG6+0.05*W6</f>
+        <f t="shared" si="6"/>
         <v>4.1837948717948716</v>
       </c>
     </row>
@@ -1932,7 +1932,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="L7" s="5">
-        <f>(J7/I7)*K7</f>
+        <f t="shared" si="0"/>
         <v>4.5999999999999996</v>
       </c>
       <c r="M7" s="12">
@@ -1943,21 +1943,21 @@
         <v>4.5</v>
       </c>
       <c r="P7" s="5">
-        <f>0.7*L7+0.2*M7+0.1*O7+N7</f>
+        <f t="shared" si="1"/>
         <v>4.3879999999999999</v>
       </c>
       <c r="Q7" s="31">
         <v>1.3935185185185186E-2</v>
       </c>
       <c r="R7" s="32">
-        <f>Q7/$R$2</f>
+        <f t="shared" si="2"/>
         <v>0.66888888888888898</v>
       </c>
       <c r="S7" s="33">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="T7" s="32">
-        <f>S7/$T$2</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="U7" s="32">
@@ -1967,7 +1967,7 @@
         <v>1</v>
       </c>
       <c r="W7" s="12">
-        <f>AVERAGE(R7,T7,V7)*5</f>
+        <f t="shared" si="8"/>
         <v>4.4481481481481486</v>
       </c>
       <c r="X7" s="35"/>
@@ -1980,7 +1980,7 @@
       </c>
       <c r="AB7" s="35"/>
       <c r="AC7" s="35">
-        <f>AVERAGE(X7:AB7)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD7" s="5">
@@ -1993,7 +1993,7 @@
         <v>4.916666666666667</v>
       </c>
       <c r="AG7" s="5">
-        <f>0.2*AF7+0.8*AVERAGE(AC7:AE7)</f>
+        <f t="shared" si="7"/>
         <v>3.1166666666666667</v>
       </c>
       <c r="AH7" s="5">
@@ -2012,14 +2012,14 @@
         <v>4.5</v>
       </c>
       <c r="AM7" s="5">
-        <f>AVERAGE(AH7:AL7)</f>
+        <f t="shared" si="5"/>
         <v>4.42</v>
       </c>
       <c r="AN7" s="5">
         <v>4</v>
       </c>
       <c r="AO7" s="5">
-        <f>0.3*AN7+0.6*AM7+0.05*AG7+0.05*W7</f>
+        <f t="shared" si="6"/>
         <v>4.230240740740741</v>
       </c>
     </row>
@@ -2059,7 +2059,7 @@
         <v>4.8</v>
       </c>
       <c r="L8" s="41">
-        <f>(J8/I8)*K8</f>
+        <f t="shared" si="0"/>
         <v>4.8</v>
       </c>
       <c r="M8" s="42">
@@ -2070,21 +2070,21 @@
         <v>4.5</v>
       </c>
       <c r="P8" s="41">
-        <f>0.7*L8+0.2*M8+0.1*O8+N8</f>
+        <f t="shared" si="1"/>
         <v>4.5279999999999996</v>
       </c>
       <c r="Q8" s="43">
         <v>1.6342592592592593E-2</v>
       </c>
       <c r="R8" s="44">
-        <f>Q8/$R$2</f>
+        <f t="shared" si="2"/>
         <v>0.7844444444444445</v>
       </c>
       <c r="S8" s="45">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="T8" s="44">
-        <f>S8/$T$2</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="U8" s="44">
@@ -2094,7 +2094,7 @@
         <v>1</v>
       </c>
       <c r="W8" s="52">
-        <f>AVERAGE(R8,T8,V8)*5</f>
+        <f t="shared" si="8"/>
         <v>4.6407407407407408</v>
       </c>
       <c r="X8" s="47"/>
@@ -2107,7 +2107,7 @@
       <c r="AA8" s="47"/>
       <c r="AB8" s="47"/>
       <c r="AC8" s="47">
-        <f>AVERAGE(X8:AB8)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AD8" s="41">
@@ -2120,7 +2120,7 @@
         <v>5</v>
       </c>
       <c r="AG8" s="51">
-        <f>0.2*AF8+0.8*AVERAGE(AC8:AE8)</f>
+        <f t="shared" si="7"/>
         <v>3.8000000000000003</v>
       </c>
       <c r="AH8" s="41">
@@ -2139,14 +2139,14 @@
         <v>4.5</v>
       </c>
       <c r="AM8" s="51">
-        <f>AVERAGE(AH8:AL8)</f>
+        <f t="shared" si="5"/>
         <v>4.42</v>
       </c>
       <c r="AN8" s="51">
         <v>0</v>
       </c>
       <c r="AO8" s="41">
-        <f>0.3*AN8+0.6*AM8+0.05*AG8+0.05*W8</f>
+        <f t="shared" si="6"/>
         <v>3.0740370370370367</v>
       </c>
     </row>
@@ -2186,7 +2186,7 @@
         <v>4.8</v>
       </c>
       <c r="L9" s="41">
-        <f>(J9/I9)*K9</f>
+        <f t="shared" si="0"/>
         <v>4.8</v>
       </c>
       <c r="M9" s="42">
@@ -2200,21 +2200,21 @@
         <v>4.7</v>
       </c>
       <c r="P9" s="41">
-        <f>0.7*L9+0.2*M9+0.1*O9+N9</f>
+        <f t="shared" si="1"/>
         <v>4.59</v>
       </c>
       <c r="Q9" s="43">
         <v>1.5520833333333333E-2</v>
       </c>
       <c r="R9" s="44">
-        <f>Q9/$R$2</f>
+        <f t="shared" si="2"/>
         <v>0.745</v>
       </c>
       <c r="S9" s="45">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="T9" s="44">
-        <f>S9/$T$2</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="U9" s="44">
@@ -2224,7 +2224,7 @@
         <v>0.8</v>
       </c>
       <c r="W9" s="52">
-        <f>AVERAGE(R9,T9,V9)*5</f>
+        <f t="shared" si="8"/>
         <v>4.2416666666666663</v>
       </c>
       <c r="X9" s="47">
@@ -2237,7 +2237,7 @@
       </c>
       <c r="AB9" s="47"/>
       <c r="AC9" s="47">
-        <f>AVERAGE(X9:AB9)</f>
+        <f t="shared" si="4"/>
         <v>3.5</v>
       </c>
       <c r="AD9" s="41">
@@ -2248,7 +2248,7 @@
         <v>4.9285714285714288</v>
       </c>
       <c r="AG9" s="51">
-        <f>0.2*AF9+0.8*AVERAGE(AC9:AE9)</f>
+        <f t="shared" si="7"/>
         <v>4.1857142857142859</v>
       </c>
       <c r="AH9" s="41">
@@ -2267,14 +2267,14 @@
         <v>4.5</v>
       </c>
       <c r="AM9" s="51">
-        <f>AVERAGE(AH9:AL9)</f>
+        <f t="shared" si="5"/>
         <v>4.7200000000000006</v>
       </c>
       <c r="AN9" s="51">
         <v>4.5</v>
       </c>
       <c r="AO9" s="41">
-        <f>0.3*AN9+0.6*AM9+0.05*AG9+0.05*W9</f>
+        <f t="shared" si="6"/>
         <v>4.6033690476190481</v>
       </c>
     </row>
@@ -2314,7 +2314,7 @@
         <v>4.8</v>
       </c>
       <c r="L10" s="5">
-        <f>(J10/I10)*K10</f>
+        <f t="shared" si="0"/>
         <v>4.8</v>
       </c>
       <c r="M10" s="12">
@@ -2328,21 +2328,21 @@
         <v>4.7</v>
       </c>
       <c r="P10" s="5">
-        <f>0.7*L10+0.2*M10+0.1*O10+N10</f>
+        <f t="shared" si="1"/>
         <v>4.6900000000000004</v>
       </c>
       <c r="Q10" s="31">
         <v>1.4976851851851852E-2</v>
       </c>
       <c r="R10" s="32">
-        <f>Q10/$R$2</f>
+        <f t="shared" si="2"/>
         <v>0.71888888888888891</v>
       </c>
       <c r="S10" s="33">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="T10" s="32">
-        <f>S10/$T$2</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="U10" s="32">
@@ -2352,7 +2352,7 @@
         <v>1</v>
       </c>
       <c r="W10" s="12">
-        <f>AVERAGE(R10,T10,V10)*5</f>
+        <f t="shared" si="8"/>
         <v>4.5314814814814817</v>
       </c>
       <c r="X10" s="35">
@@ -2365,7 +2365,7 @@
       <c r="AA10" s="35"/>
       <c r="AB10" s="35"/>
       <c r="AC10" s="35">
-        <f>AVERAGE(X10:AB10)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AD10" s="5">
@@ -2378,7 +2378,7 @@
         <v>4.9285714285714288</v>
       </c>
       <c r="AG10" s="5">
-        <f>0.2*AF10+0.8*AVERAGE(AC10:AE10)</f>
+        <f t="shared" si="7"/>
         <v>4.3190476190476197</v>
       </c>
       <c r="AH10" s="5">
@@ -2397,14 +2397,14 @@
         <v>4.5</v>
       </c>
       <c r="AM10" s="5">
-        <f>AVERAGE(AH10:AL10)</f>
+        <f t="shared" si="5"/>
         <v>4.7200000000000006</v>
       </c>
       <c r="AN10" s="5">
         <v>4.5</v>
       </c>
       <c r="AO10" s="5">
-        <f>0.3*AN10+0.6*AM10+0.05*AG10+0.05*W10</f>
+        <f t="shared" si="6"/>
         <v>4.624526455026456</v>
       </c>
     </row>
@@ -2444,7 +2444,7 @@
         <v>4.8</v>
       </c>
       <c r="L11" s="41">
-        <f>(J11/I11)*K11</f>
+        <f t="shared" si="0"/>
         <v>4.8</v>
       </c>
       <c r="M11" s="42">
@@ -2458,21 +2458,21 @@
         <v>4.7</v>
       </c>
       <c r="P11" s="41">
-        <f>0.7*L11+0.2*M11+0.1*O11+N11</f>
+        <f t="shared" si="1"/>
         <v>4.6399999999999997</v>
       </c>
       <c r="Q11" s="43">
         <v>1.5833333333333335E-2</v>
       </c>
       <c r="R11" s="44">
-        <f>Q11/$R$2</f>
+        <f t="shared" si="2"/>
         <v>0.76000000000000012</v>
       </c>
       <c r="S11" s="45">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="T11" s="44">
-        <f>S11/$T$2</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="U11" s="44">
@@ -2482,7 +2482,7 @@
         <v>0.6</v>
       </c>
       <c r="W11" s="52">
-        <f>AVERAGE(R11,T11,V11)*5</f>
+        <f t="shared" si="8"/>
         <v>3.9333333333333336</v>
       </c>
       <c r="X11" s="47">
@@ -2495,7 +2495,7 @@
       </c>
       <c r="AB11" s="47"/>
       <c r="AC11" s="47">
-        <f>AVERAGE(X11:AB11)</f>
+        <f t="shared" si="4"/>
         <v>4.5</v>
       </c>
       <c r="AD11" s="41">
@@ -2508,7 +2508,7 @@
         <v>4.8571428571428568</v>
       </c>
       <c r="AG11" s="51">
-        <f>0.2*AF11+0.8*AVERAGE(AC11:AE11)</f>
+        <f t="shared" si="7"/>
         <v>4.7047619047619049</v>
       </c>
       <c r="AH11" s="41">
@@ -2527,14 +2527,14 @@
         <v>4.5</v>
       </c>
       <c r="AM11" s="51">
-        <f>AVERAGE(AH11:AL11)</f>
+        <f t="shared" si="5"/>
         <v>4.7200000000000006</v>
       </c>
       <c r="AN11" s="51">
         <v>4.5</v>
       </c>
       <c r="AO11" s="41">
-        <f>0.3*AN11+0.6*AM11+0.05*AG11+0.05*W11</f>
+        <f t="shared" si="6"/>
         <v>4.6139047619047622</v>
       </c>
     </row>
@@ -2574,7 +2574,7 @@
         <v>4.8</v>
       </c>
       <c r="L12" s="41">
-        <f>(J12/I12)*K12</f>
+        <f t="shared" si="0"/>
         <v>4.8</v>
       </c>
       <c r="M12" s="42">
@@ -2588,21 +2588,21 @@
         <v>4.7</v>
       </c>
       <c r="P12" s="41">
-        <f>0.7*L12+0.2*M12+0.1*O12+N12</f>
+        <f t="shared" si="1"/>
         <v>4.79</v>
       </c>
       <c r="Q12" s="43">
         <v>1.5972222222222221E-2</v>
       </c>
       <c r="R12" s="44">
-        <f>Q12/$R$2</f>
+        <f t="shared" si="2"/>
         <v>0.76666666666666661</v>
       </c>
       <c r="S12" s="45">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="T12" s="44">
-        <f>S12/$T$2</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="U12" s="44">
@@ -2612,7 +2612,7 @@
         <v>1</v>
       </c>
       <c r="W12" s="52">
-        <f>AVERAGE(R12,T12,V12)*5</f>
+        <f t="shared" si="8"/>
         <v>4.6111111111111107</v>
       </c>
       <c r="X12" s="47"/>
@@ -2627,7 +2627,7 @@
         <v>3</v>
       </c>
       <c r="AC12" s="47">
-        <f>AVERAGE(X12:AB12)</f>
+        <f t="shared" si="4"/>
         <v>3.3333333333333335</v>
       </c>
       <c r="AD12" s="41">
@@ -2640,7 +2640,7 @@
         <v>5</v>
       </c>
       <c r="AG12" s="51">
-        <f>0.2*AF12+0.8*AVERAGE(AC12:AE12)</f>
+        <f t="shared" si="7"/>
         <v>4.5555555555555554</v>
       </c>
       <c r="AH12" s="41">
@@ -2659,14 +2659,14 @@
         <v>4.5</v>
       </c>
       <c r="AM12" s="51">
-        <f>AVERAGE(AH12:AL12)</f>
+        <f t="shared" si="5"/>
         <v>4.7200000000000006</v>
       </c>
       <c r="AN12" s="51">
         <v>4.5</v>
       </c>
       <c r="AO12" s="41">
-        <f>0.3*AN12+0.6*AM12+0.05*AG12+0.05*W12</f>
+        <f t="shared" si="6"/>
         <v>4.6403333333333334</v>
       </c>
     </row>
@@ -2706,7 +2706,7 @@
         <v>4.8</v>
       </c>
       <c r="L13" s="5">
-        <f>(J13/I13)*K13</f>
+        <f t="shared" si="0"/>
         <v>4.8</v>
       </c>
       <c r="M13" s="12">
@@ -2720,22 +2720,22 @@
         <v>4.7</v>
       </c>
       <c r="P13" s="5">
-        <f>0.7*L13+0.2*M13+0.1*O13+N13</f>
+        <f t="shared" si="1"/>
         <v>4.59</v>
       </c>
       <c r="Q13" s="31">
         <v>1.4652777777777778E-2</v>
       </c>
       <c r="R13" s="32">
-        <f>Q13/$R$2</f>
+        <f t="shared" si="2"/>
         <v>0.70333333333333337</v>
       </c>
-      <c r="S13" s="33">
-        <v>0</v>
+      <c r="S13" s="45">
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="T13" s="32">
-        <f>S13/$T$2</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="U13" s="32">
         <v>1</v>
@@ -2744,8 +2744,8 @@
         <v>1</v>
       </c>
       <c r="W13" s="12">
-        <f>AVERAGE(R13,T13,V13)*5</f>
-        <v>2.838888888888889</v>
+        <f t="shared" si="8"/>
+        <v>4.5055555555555555</v>
       </c>
       <c r="X13" s="35">
         <v>3</v>
@@ -2757,7 +2757,7 @@
       <c r="AA13" s="35"/>
       <c r="AB13" s="35"/>
       <c r="AC13" s="35">
-        <f>AVERAGE(X13:AB13)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="AD13" s="5">
@@ -2770,7 +2770,7 @@
         <v>5</v>
       </c>
       <c r="AG13" s="5">
-        <f>0.2*AF13+0.8*AVERAGE(AC13:AE13)</f>
+        <f t="shared" si="7"/>
         <v>4.5999999999999996</v>
       </c>
       <c r="AH13" s="5">
@@ -2789,15 +2789,15 @@
         <v>4.5</v>
       </c>
       <c r="AM13" s="5">
-        <f>AVERAGE(AH13:AL13)</f>
+        <f t="shared" si="5"/>
         <v>4.7200000000000006</v>
       </c>
       <c r="AN13" s="5">
         <v>4.5</v>
       </c>
       <c r="AO13" s="5">
-        <f>0.3*AN13+0.6*AM13+0.05*AG13+0.05*W13</f>
-        <v>4.5539444444444452</v>
+        <f t="shared" si="6"/>
+        <v>4.6372777777777783</v>
       </c>
     </row>
     <row r="14" spans="1:41">
@@ -2836,7 +2836,7 @@
         <v>4.8</v>
       </c>
       <c r="L14" s="5">
-        <f>(J14/I14)*K14</f>
+        <f t="shared" si="0"/>
         <v>4.8</v>
       </c>
       <c r="M14" s="12">
@@ -2847,21 +2847,21 @@
         <v>3</v>
       </c>
       <c r="P14" s="5">
-        <f>0.7*L14+0.2*M14+0.1*O14+N14</f>
+        <f t="shared" si="1"/>
         <v>4.2119999999999997</v>
       </c>
       <c r="Q14" s="31">
         <v>9.9305555555555553E-3</v>
       </c>
       <c r="R14" s="32">
-        <f>Q14/$R$2</f>
+        <f t="shared" si="2"/>
         <v>0.47666666666666668</v>
       </c>
       <c r="S14" s="33">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="T14" s="32">
-        <f>S14/$T$2</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="U14" s="32">
@@ -2871,7 +2871,7 @@
         <v>1</v>
       </c>
       <c r="W14" s="12">
-        <f>AVERAGE(R14,T14,V14)*5</f>
+        <f t="shared" si="8"/>
         <v>4.1277777777777773</v>
       </c>
       <c r="X14" s="35">
@@ -2884,7 +2884,7 @@
       </c>
       <c r="AB14" s="35"/>
       <c r="AC14" s="35">
-        <f>AVERAGE(X14:AB14)</f>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="AD14" s="5">
@@ -2897,7 +2897,7 @@
         <v>4.615384615384615</v>
       </c>
       <c r="AG14" s="5">
-        <f>0.2*AF14+0.8*AVERAGE(AC14:AE14)</f>
+        <f t="shared" si="7"/>
         <v>3.4564102564102561</v>
       </c>
       <c r="AH14" s="5">
@@ -2916,14 +2916,14 @@
         <v>4.3</v>
       </c>
       <c r="AM14" s="5">
-        <f>AVERAGE(AH14:AL14)</f>
+        <f t="shared" si="5"/>
         <v>4.3</v>
       </c>
       <c r="AN14" s="5">
         <v>0</v>
       </c>
       <c r="AO14" s="5">
-        <f>0.3*AN14+0.6*AM14+0.05*AG14+0.05*W14</f>
+        <f t="shared" si="6"/>
         <v>2.9592094017094013</v>
       </c>
     </row>
@@ -2963,7 +2963,7 @@
         <v>4.5</v>
       </c>
       <c r="L15" s="41">
-        <f>(J15/I15)*K15</f>
+        <f t="shared" si="0"/>
         <v>2.6999999999999997</v>
       </c>
       <c r="M15" s="42">
@@ -2974,21 +2974,21 @@
         <v>3</v>
       </c>
       <c r="P15" s="41">
-        <f>0.7*L15+0.2*M15+0.1*O15+N15</f>
+        <f t="shared" si="1"/>
         <v>2.742</v>
       </c>
       <c r="Q15" s="43">
         <v>1.8506944444444444E-2</v>
       </c>
       <c r="R15" s="44">
-        <f>Q15/$R$2</f>
+        <f t="shared" si="2"/>
         <v>0.88833333333333331</v>
       </c>
       <c r="S15" s="45">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="T15" s="44">
-        <f>S15/$T$2</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="U15" s="44">
@@ -2998,7 +2998,7 @@
         <v>0.8</v>
       </c>
       <c r="W15" s="52">
-        <f>AVERAGE(R15,T15,V15)*5</f>
+        <f t="shared" si="8"/>
         <v>4.4805555555555561</v>
       </c>
       <c r="X15" s="47">
@@ -3013,7 +3013,7 @@
       </c>
       <c r="AB15" s="47"/>
       <c r="AC15" s="47">
-        <f>AVERAGE(X15:AB15)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AD15" s="41">
@@ -3026,7 +3026,7 @@
         <v>4.7692307692307692</v>
       </c>
       <c r="AG15" s="51">
-        <f>0.2*AF15+0.8*AVERAGE(AC15:AE15)</f>
+        <f t="shared" si="7"/>
         <v>3.620512820512821</v>
       </c>
       <c r="AH15" s="41">
@@ -3045,14 +3045,14 @@
         <v>4.3</v>
       </c>
       <c r="AM15" s="51">
-        <f>AVERAGE(AH15:AL15)</f>
+        <f t="shared" si="5"/>
         <v>4.3</v>
       </c>
       <c r="AN15" s="51">
         <v>0</v>
       </c>
       <c r="AO15" s="41">
-        <f>0.3*AN15+0.6*AM15+0.05*AG15+0.05*W15</f>
+        <f t="shared" si="6"/>
         <v>2.9850534188034183</v>
       </c>
     </row>
@@ -3092,7 +3092,7 @@
         <v>4.8</v>
       </c>
       <c r="L16" s="41">
-        <f>(J16/I16)*K16</f>
+        <f t="shared" si="0"/>
         <v>4.8</v>
       </c>
       <c r="M16" s="42">
@@ -3103,21 +3103,21 @@
         <v>3</v>
       </c>
       <c r="P16" s="41">
-        <f>0.7*L16+0.2*M16+0.1*O16+N16</f>
+        <f t="shared" si="1"/>
         <v>4.2119999999999997</v>
       </c>
       <c r="Q16" s="43">
         <v>1.8159722222222223E-2</v>
       </c>
       <c r="R16" s="44">
-        <f>Q16/$R$2</f>
+        <f t="shared" si="2"/>
         <v>0.8716666666666667</v>
       </c>
       <c r="S16" s="45">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="T16" s="44">
-        <f>S16/$T$2</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="U16" s="44">
@@ -3127,7 +3127,7 @@
         <v>1</v>
       </c>
       <c r="W16" s="52">
-        <f>AVERAGE(R16,T16,V16)*5</f>
+        <f t="shared" si="8"/>
         <v>4.7861111111111114</v>
       </c>
       <c r="X16" s="47">
@@ -3140,7 +3140,7 @@
       </c>
       <c r="AB16" s="47"/>
       <c r="AC16" s="47">
-        <f>AVERAGE(X16:AB16)</f>
+        <f t="shared" si="4"/>
         <v>4.5</v>
       </c>
       <c r="AD16" s="41">
@@ -3153,7 +3153,7 @@
         <v>4.615384615384615</v>
       </c>
       <c r="AG16" s="51">
-        <f>0.2*AF16+0.8*AVERAGE(AC16:AE16)</f>
+        <f t="shared" si="7"/>
         <v>4.2564102564102573</v>
       </c>
       <c r="AH16" s="41">
@@ -3172,14 +3172,14 @@
         <v>4.3</v>
       </c>
       <c r="AM16" s="51">
-        <f>AVERAGE(AH16:AL16)</f>
+        <f t="shared" si="5"/>
         <v>4.3</v>
       </c>
       <c r="AN16" s="51">
         <v>0</v>
       </c>
       <c r="AO16" s="41">
-        <f>0.3*AN16+0.6*AM16+0.05*AG16+0.05*W16</f>
+        <f t="shared" si="6"/>
         <v>3.0321260683760682</v>
       </c>
     </row>
@@ -3219,7 +3219,7 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="L17" s="5">
-        <f>(J17/I17)*K17</f>
+        <f t="shared" si="0"/>
         <v>4.9000000000000004</v>
       </c>
       <c r="M17" s="12">
@@ -3230,21 +3230,21 @@
         <v>3</v>
       </c>
       <c r="P17" s="5">
-        <f>0.7*L17+0.2*M17+0.1*O17+N17</f>
+        <f t="shared" si="1"/>
         <v>4.282</v>
       </c>
       <c r="Q17" s="31">
         <v>0</v>
       </c>
       <c r="R17" s="32">
-        <f>Q17/$R$2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S17" s="33">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="T17" s="32">
-        <f>S17/$T$2</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="U17" s="32">
@@ -3268,7 +3268,7 @@
       </c>
       <c r="AB17" s="35"/>
       <c r="AC17" s="35">
-        <f>AVERAGE(X17:AB17)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AD17" s="5">
@@ -3281,7 +3281,7 @@
         <v>4.5384615384615383</v>
       </c>
       <c r="AG17" s="5">
-        <f>0.2*AF17+0.8*AVERAGE(AC17:AE17)</f>
+        <f t="shared" si="7"/>
         <v>3.5743589743589745</v>
       </c>
       <c r="AH17" s="5">
@@ -3300,7 +3300,7 @@
         <v>4.3</v>
       </c>
       <c r="AM17" s="5">
-        <f>AVERAGE(AH17:AL17)</f>
+        <f t="shared" si="5"/>
         <v>4.3</v>
       </c>
       <c r="AN17" s="5">
@@ -3346,7 +3346,7 @@
         <v>4.8</v>
       </c>
       <c r="L18" s="41">
-        <f>(J18/I18)*K18</f>
+        <f t="shared" si="0"/>
         <v>4.8</v>
       </c>
       <c r="M18" s="42">
@@ -3360,21 +3360,21 @@
         <v>3</v>
       </c>
       <c r="P18" s="41">
-        <f>0.7*L18+0.2*M18+0.1*O18+N18</f>
+        <f t="shared" si="1"/>
         <v>4.2889230769230764</v>
       </c>
       <c r="Q18" s="43">
         <v>1.1863425925925927E-2</v>
       </c>
       <c r="R18" s="44">
-        <f>Q18/$R$2</f>
+        <f t="shared" si="2"/>
         <v>0.56944444444444453</v>
       </c>
       <c r="S18" s="45">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="T18" s="44">
-        <f>S18/$T$2</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="U18" s="44">
@@ -3399,21 +3399,21 @@
       </c>
       <c r="AB18" s="47"/>
       <c r="AC18" s="47">
-        <f>AVERAGE(X18:AB18)</f>
+        <f t="shared" si="4"/>
         <v>4.333333333333333</v>
       </c>
       <c r="AD18" s="41">
         <v>4</v>
       </c>
       <c r="AE18" s="41">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AF18" s="41">
         <v>4.6923076923076925</v>
       </c>
       <c r="AG18" s="51">
-        <f>0.2*AF18+0.8*AVERAGE(AC18:AE18)</f>
-        <v>3.1606837606837606</v>
+        <f t="shared" si="7"/>
+        <v>4.2273504273504274</v>
       </c>
       <c r="AH18" s="41">
         <v>4</v>
@@ -3431,7 +3431,7 @@
         <v>4.3</v>
       </c>
       <c r="AM18" s="51">
-        <f>AVERAGE(AH18:AL18)</f>
+        <f t="shared" si="5"/>
         <v>4.3</v>
       </c>
       <c r="AN18" s="51">
@@ -3439,7 +3439,7 @@
       </c>
       <c r="AO18" s="41">
         <f>0.3*AN18+0.6*AM18+0.05*AG18+0.05*W18</f>
-        <v>2.9521545584045579</v>
+        <v>3.0054878917378911</v>
       </c>
     </row>
     <row r="19" spans="1:41" s="48" customFormat="1">
@@ -3478,7 +3478,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="L19" s="41">
-        <f>(J19/I19)*K19</f>
+        <f t="shared" si="0"/>
         <v>4.5999999999999996</v>
       </c>
       <c r="M19" s="42">
@@ -3489,21 +3489,21 @@
         <v>3.5</v>
       </c>
       <c r="P19" s="41">
-        <f>0.7*L19+0.2*M19+0.1*O19+N19</f>
+        <f t="shared" si="1"/>
         <v>4.1619999999999999</v>
       </c>
       <c r="Q19" s="43">
         <v>2.1342592592592594E-2</v>
       </c>
       <c r="R19" s="44">
-        <f>Q19/$R$2</f>
+        <f t="shared" si="2"/>
         <v>1.0244444444444445</v>
       </c>
       <c r="S19" s="45">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="T19" s="44">
-        <f>S19/$T$2</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="U19" s="44">
@@ -3523,7 +3523,7 @@
       <c r="AA19" s="47"/>
       <c r="AB19" s="47"/>
       <c r="AC19" s="47">
-        <f>AVERAGE(X19:AB19)</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="AD19" s="41">
@@ -3536,7 +3536,7 @@
         <v>4.666666666666667</v>
       </c>
       <c r="AG19" s="51">
-        <f>0.2*AF19+0.8*AVERAGE(AC19:AE19)</f>
+        <f t="shared" si="7"/>
         <v>4.5333333333333332</v>
       </c>
       <c r="AH19" s="41">
@@ -3555,7 +3555,7 @@
         <v>3</v>
       </c>
       <c r="AM19" s="51">
-        <f>AVERAGE(AH19:AL19)</f>
+        <f t="shared" si="5"/>
         <v>4.0600000000000005</v>
       </c>
       <c r="AN19" s="51">
@@ -3602,7 +3602,7 @@
         <v>4.8</v>
       </c>
       <c r="L20" s="5">
-        <f>(J20/I20)*K20</f>
+        <f t="shared" si="0"/>
         <v>4.8</v>
       </c>
       <c r="M20" s="12">
@@ -3613,21 +3613,21 @@
         <v>3.5</v>
       </c>
       <c r="P20" s="5">
-        <f>0.7*L20+0.2*M20+0.1*O20+N20</f>
+        <f t="shared" si="1"/>
         <v>4.3019999999999996</v>
       </c>
       <c r="Q20" s="31">
         <v>2.0532407407407409E-2</v>
       </c>
       <c r="R20" s="32">
-        <f>Q20/$R$2</f>
+        <f t="shared" si="2"/>
         <v>0.98555555555555563</v>
       </c>
       <c r="S20" s="33">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="T20" s="32">
-        <f>S20/$T$2</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="U20" s="32">
@@ -3652,7 +3652,7 @@
       <c r="AA20" s="35"/>
       <c r="AB20" s="35"/>
       <c r="AC20" s="35">
-        <f>AVERAGE(X20:AB20)</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="AD20" s="5">
@@ -3665,7 +3665,7 @@
         <v>4.833333333333333</v>
       </c>
       <c r="AG20" s="5">
-        <f>0.2*AF20+0.8*AVERAGE(AC20:AE20)</f>
+        <f t="shared" si="7"/>
         <v>4.7</v>
       </c>
       <c r="AH20" s="5">
@@ -3684,7 +3684,7 @@
         <v>3</v>
       </c>
       <c r="AM20" s="5">
-        <f>AVERAGE(AH20:AL20)</f>
+        <f t="shared" si="5"/>
         <v>4.0600000000000005</v>
       </c>
       <c r="AN20" s="5">
@@ -3731,7 +3731,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="L21" s="41">
-        <f>(J21/I21)*K21</f>
+        <f t="shared" si="0"/>
         <v>4.5999999999999996</v>
       </c>
       <c r="M21" s="42">
@@ -3742,21 +3742,21 @@
         <v>3.5</v>
       </c>
       <c r="P21" s="41">
-        <f>0.7*L21+0.2*M21+0.1*O21+N21</f>
+        <f t="shared" si="1"/>
         <v>4.1619999999999999</v>
       </c>
       <c r="Q21" s="43">
         <v>1.951388888888889E-2</v>
       </c>
       <c r="R21" s="44">
-        <f>Q21/$R$2</f>
+        <f t="shared" si="2"/>
         <v>0.93666666666666676</v>
       </c>
       <c r="S21" s="45">
         <v>0</v>
       </c>
       <c r="T21" s="44">
-        <f>S21/$T$2</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U21" s="44">
@@ -3783,7 +3783,7 @@
         <v>2.3333333333333335</v>
       </c>
       <c r="AG21" s="51">
-        <f>0.2*AF21+0.8*AVERAGE(AC21:AE21)</f>
+        <f t="shared" si="7"/>
         <v>0.46666666666666673</v>
       </c>
       <c r="AH21" s="41">
@@ -3802,7 +3802,7 @@
         <v>3</v>
       </c>
       <c r="AM21" s="51">
-        <f>AVERAGE(AH21:AL21)</f>
+        <f t="shared" si="5"/>
         <v>4.0600000000000005</v>
       </c>
       <c r="AN21" s="51">
@@ -3849,7 +3849,7 @@
         <v>4.7</v>
       </c>
       <c r="L22" s="5">
-        <f>(J22/I22)*K22</f>
+        <f t="shared" si="0"/>
         <v>4.7</v>
       </c>
       <c r="M22" s="12">
@@ -3860,21 +3860,21 @@
         <v>3.5</v>
       </c>
       <c r="P22" s="5">
-        <f>0.7*L22+0.2*M22+0.1*O22+N22</f>
+        <f t="shared" si="1"/>
         <v>4.2320000000000002</v>
       </c>
       <c r="Q22" s="31">
         <v>2.0243055555555556E-2</v>
       </c>
       <c r="R22" s="32">
-        <f>Q22/$R$2</f>
+        <f t="shared" si="2"/>
         <v>0.97166666666666668</v>
       </c>
       <c r="S22" s="33">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="T22" s="32">
-        <f>S22/$T$2</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="U22" s="32">
@@ -3901,7 +3901,7 @@
         <v>2.3333333333333335</v>
       </c>
       <c r="AG22" s="5">
-        <f>0.2*AF22+0.8*AVERAGE(AC22:AE22)</f>
+        <f t="shared" si="7"/>
         <v>0.46666666666666673</v>
       </c>
       <c r="AH22" s="5">
@@ -3920,7 +3920,7 @@
         <v>3</v>
       </c>
       <c r="AM22" s="5">
-        <f>AVERAGE(AH22:AL22)</f>
+        <f t="shared" si="5"/>
         <v>4.0600000000000005</v>
       </c>
       <c r="AN22" s="5">
@@ -3989,7 +3989,7 @@
         <v>0</v>
       </c>
       <c r="AG23" s="51">
-        <f>0.2*AF23+0.8*AVERAGE(AC23:AE23)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AH23" s="41">
@@ -4067,7 +4067,7 @@
       <selection activeCell="A2" sqref="A2:B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="34.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
@@ -4169,7 +4169,7 @@
         <v>3.8461538461538463</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="30">
+    <row r="13" spans="1:2">
       <c r="A13" s="25" t="s">
         <v>118</v>
       </c>
@@ -4251,7 +4251,7 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="66.28515625" bestFit="1" customWidth="1"/>
@@ -4345,7 +4345,7 @@
       <selection activeCell="A2" sqref="A2:C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="58.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="58.5703125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>

--- a/academics/DB2/2025-2/DB2 2025-2.xlsx
+++ b/academics/DB2/2025-2/DB2 2025-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\oicampo\Documents\GitHub\oicampo-uao.github.io\academics\DB2\2025-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E91739A1-4577-47D2-9080-4BB65B6D86A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AC96114-0E1E-4649-A64D-E4D91043835C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1302,8 +1302,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AO27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AO18" sqref="AO18"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="35.5703125" defaultRowHeight="15"/>
@@ -1311,10 +1311,10 @@
     <col min="1" max="1" width="10.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.140625" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" customWidth="1"/>
-    <col min="4" max="4" width="29.140625" customWidth="1"/>
+    <col min="4" max="4" width="29.140625" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="6.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" customWidth="1"/>
-    <col min="7" max="7" width="6.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="6.140625" style="1" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="7.85546875" customWidth="1"/>
     <col min="9" max="9" width="4.42578125" style="15" customWidth="1"/>
     <col min="10" max="10" width="3.140625" style="1" customWidth="1"/>
@@ -1516,1609 +1516,1613 @@
       </c>
     </row>
     <row r="4" spans="1:41">
-      <c r="A4" s="3">
-        <v>1107836732</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G4" s="3">
+      <c r="A4" s="37">
+        <v>1005785832</v>
+      </c>
+      <c r="B4" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="37">
+        <v>2</v>
+      </c>
+      <c r="F4" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" s="37">
+        <v>1</v>
+      </c>
+      <c r="H4" s="37" t="str" cm="1">
+        <f t="array" ref="H4">_xlfn.IFS(G4=1, "2:00 PM", G4=2, "2:30 PM", G4=3, "3:00 PM", G4=4, "3:30 PM")</f>
+        <v>2:00 PM</v>
+      </c>
+      <c r="I4" s="40">
+        <v>7</v>
+      </c>
+      <c r="J4" s="37">
+        <v>7</v>
+      </c>
+      <c r="K4" s="41">
+        <v>4.8</v>
+      </c>
+      <c r="L4" s="41">
+        <f>(J4/I4)*K4</f>
+        <v>4.8</v>
+      </c>
+      <c r="M4" s="42">
+        <v>3.55</v>
+      </c>
+      <c r="N4" s="42">
+        <f>1/20</f>
+        <v>0.05</v>
+      </c>
+      <c r="O4" s="42">
+        <v>4.7</v>
+      </c>
+      <c r="P4" s="41">
+        <f>0.7*L4+0.2*M4+0.1*O4+N4</f>
+        <v>4.59</v>
+      </c>
+      <c r="Q4" s="43">
+        <v>1.5520833333333333E-2</v>
+      </c>
+      <c r="R4" s="44">
+        <f>Q4/$R$2</f>
+        <v>0.745</v>
+      </c>
+      <c r="S4" s="45">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="T4" s="44">
+        <f>S4/$T$2</f>
+        <v>1</v>
+      </c>
+      <c r="U4" s="44">
+        <v>1</v>
+      </c>
+      <c r="V4" s="46">
+        <v>0.8</v>
+      </c>
+      <c r="W4" s="52">
+        <f>AVERAGE(R4,T4,V4)*5</f>
+        <v>4.2416666666666663</v>
+      </c>
+      <c r="X4" s="47">
         <v>3</v>
       </c>
-      <c r="H4" s="3" t="str" cm="1">
-        <f t="array" ref="H4">_xlfn.IFS(G4=1, "2:00 PM", G4=2, "2:30 PM", G4=3, "3:00 PM", G4=4, "3:30 PM")</f>
-        <v>3:00 PM</v>
-      </c>
-      <c r="I4" s="14">
-        <v>3</v>
-      </c>
-      <c r="J4" s="3">
-        <v>3</v>
-      </c>
-      <c r="K4" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="L4" s="5">
-        <f t="shared" ref="L4:L22" si="0">(J4/I4)*K4</f>
-        <v>4.5</v>
-      </c>
-      <c r="M4" s="12">
-        <v>3.59</v>
-      </c>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12">
-        <v>4.5</v>
-      </c>
-      <c r="P4" s="5">
-        <f t="shared" ref="P4:P22" si="1">0.7*L4+0.2*M4+0.1*O4+N4</f>
-        <v>4.3179999999999996</v>
-      </c>
-      <c r="Q4" s="31">
-        <v>1.474537037037037E-2</v>
-      </c>
-      <c r="R4" s="32">
-        <f t="shared" ref="R4:R22" si="2">Q4/$R$2</f>
-        <v>0.70777777777777784</v>
-      </c>
-      <c r="S4" s="33">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="T4" s="32">
-        <f t="shared" ref="T4:T22" si="3">S4/$T$2</f>
-        <v>1</v>
-      </c>
-      <c r="U4" s="32">
-        <v>1</v>
-      </c>
-      <c r="V4" s="34">
-        <v>1</v>
-      </c>
-      <c r="W4" s="12">
-        <f>AVERAGE(R4,T4,V4)*5</f>
-        <v>4.5129629629629626</v>
-      </c>
-      <c r="X4" s="35"/>
-      <c r="Y4" s="35"/>
-      <c r="Z4" s="35"/>
-      <c r="AA4" s="35">
-        <v>4</v>
-      </c>
-      <c r="AB4" s="35"/>
-      <c r="AC4" s="35">
-        <f t="shared" ref="AC4:AC20" si="4">AVERAGE(X4:AB4)</f>
-        <v>4</v>
-      </c>
-      <c r="AD4" s="5">
-        <v>4</v>
-      </c>
-      <c r="AE4" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF4" s="5">
-        <v>4.0769230769230766</v>
-      </c>
-      <c r="AG4" s="5">
-        <f>0.3*AF4+0.7*AVERAGE(AC4:AE4)</f>
-        <v>3.0897435897435894</v>
-      </c>
-      <c r="AH4" s="5">
-        <v>4.3</v>
-      </c>
-      <c r="AI4" s="5">
-        <v>4</v>
-      </c>
-      <c r="AJ4" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="AK4" s="5">
+      <c r="Y4" s="47"/>
+      <c r="Z4" s="47"/>
+      <c r="AA4" s="47">
+        <v>4</v>
+      </c>
+      <c r="AB4" s="47"/>
+      <c r="AC4" s="47">
+        <f>AVERAGE(X4:AB4)</f>
+        <v>3.5</v>
+      </c>
+      <c r="AD4" s="41">
+        <v>4.5</v>
+      </c>
+      <c r="AE4" s="41"/>
+      <c r="AF4" s="41">
+        <v>4.9285714285714288</v>
+      </c>
+      <c r="AG4" s="51">
+        <f>0.2*AF4+0.8*AVERAGE(AC4:AE4)</f>
+        <v>4.1857142857142859</v>
+      </c>
+      <c r="AH4" s="41">
         <v>4.8</v>
       </c>
-      <c r="AL4" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="AM4" s="5">
-        <f t="shared" ref="AM4:AM22" si="5">AVERAGE(AH4:AL4)</f>
-        <v>4.42</v>
-      </c>
-      <c r="AN4" s="5">
-        <v>4</v>
-      </c>
-      <c r="AO4" s="5">
-        <f t="shared" ref="AO4:AO16" si="6">0.3*AN4+0.6*AM4+0.05*AG4+0.05*W4</f>
-        <v>4.2321353276353273</v>
+      <c r="AI4" s="41">
+        <v>4.8</v>
+      </c>
+      <c r="AJ4" s="41">
+        <v>4.5</v>
+      </c>
+      <c r="AK4" s="41">
+        <v>5</v>
+      </c>
+      <c r="AL4" s="41">
+        <v>4.5</v>
+      </c>
+      <c r="AM4" s="51">
+        <f>AVERAGE(AH4:AL4)</f>
+        <v>4.7200000000000006</v>
+      </c>
+      <c r="AN4" s="51">
+        <v>4.5</v>
+      </c>
+      <c r="AO4" s="41">
+        <f>0.3*AN4+0.6*AM4+0.05*AG4+0.05*W4</f>
+        <v>4.6033690476190481</v>
       </c>
     </row>
     <row r="5" spans="1:41" s="48" customFormat="1">
       <c r="A5" s="3">
-        <v>1110364376</v>
+        <v>1005783739</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E5" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="G5" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H5" s="3" t="str" cm="1">
         <f t="array" ref="H5">_xlfn.IFS(G5=1, "2:00 PM", G5=2, "2:30 PM", G5=3, "3:00 PM", G5=4, "3:30 PM")</f>
-        <v>3:00 PM</v>
+        <v>2:00 PM</v>
       </c>
       <c r="I5" s="14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J5" s="3">
-        <v>3</v>
-      </c>
-      <c r="K5" s="3">
+        <v>4</v>
+      </c>
+      <c r="K5" s="5">
         <v>4.8</v>
       </c>
       <c r="L5" s="5">
-        <f t="shared" si="0"/>
+        <f>(J5/I5)*K5</f>
         <v>4.8</v>
       </c>
       <c r="M5" s="12">
-        <v>3.59</v>
+        <v>3.55</v>
       </c>
       <c r="N5" s="12">
-        <f>1/16</f>
-        <v>6.25E-2</v>
+        <f>3/20</f>
+        <v>0.15</v>
       </c>
       <c r="O5" s="12">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="P5" s="5">
-        <f t="shared" si="1"/>
-        <v>4.5904999999999996</v>
+        <f>0.7*L5+0.2*M5+0.1*O5+N5</f>
+        <v>4.6900000000000004</v>
       </c>
       <c r="Q5" s="31">
-        <v>1.412037037037037E-2</v>
+        <v>1.4976851851851852E-2</v>
       </c>
       <c r="R5" s="32">
-        <f t="shared" si="2"/>
-        <v>0.67777777777777781</v>
+        <f>Q5/$R$2</f>
+        <v>0.71888888888888891</v>
       </c>
       <c r="S5" s="33">
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="T5" s="32">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>S5/$T$2</f>
+        <v>1</v>
       </c>
       <c r="U5" s="32">
         <v>1</v>
       </c>
       <c r="V5" s="34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W5" s="12">
-        <v>3</v>
-      </c>
-      <c r="X5" s="35"/>
-      <c r="Y5" s="35">
+        <f>AVERAGE(R5,T5,V5)*5</f>
+        <v>4.5314814814814817</v>
+      </c>
+      <c r="X5" s="35">
         <v>2</v>
       </c>
+      <c r="Y5" s="35"/>
       <c r="Z5" s="35">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AA5" s="35"/>
       <c r="AB5" s="35"/>
       <c r="AC5" s="35">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(X5:AB5)</f>
+        <v>3</v>
+      </c>
+      <c r="AD5" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="AE5" s="5">
+        <v>5</v>
+      </c>
+      <c r="AF5" s="5">
+        <v>4.9285714285714288</v>
+      </c>
+      <c r="AG5" s="5">
+        <f>0.2*AF5+0.8*AVERAGE(AC5:AE5)</f>
+        <v>4.3190476190476197</v>
+      </c>
+      <c r="AH5" s="5">
+        <v>4.8</v>
+      </c>
+      <c r="AI5" s="5">
+        <v>4.8</v>
+      </c>
+      <c r="AJ5" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="AK5" s="5">
+        <v>5</v>
+      </c>
+      <c r="AL5" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="AM5" s="5">
+        <f>AVERAGE(AH5:AL5)</f>
+        <v>4.7200000000000006</v>
+      </c>
+      <c r="AN5" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="AO5" s="5">
+        <f>0.3*AN5+0.6*AM5+0.05*AG5+0.05*W5</f>
+        <v>4.624526455026456</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41">
+      <c r="A6" s="37">
+        <v>1113698193</v>
+      </c>
+      <c r="B6" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="37">
         <v>2</v>
       </c>
-      <c r="AD5" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="AE5" s="5">
-        <v>4</v>
-      </c>
-      <c r="AF5" s="5">
-        <v>4.9230769230769234</v>
-      </c>
-      <c r="AG5" s="5">
-        <f t="shared" ref="AG5:AG23" si="7">0.2*AF5+0.8*AVERAGE(AC5:AE5)</f>
-        <v>3.7846153846153849</v>
-      </c>
-      <c r="AH5" s="5">
-        <v>4.3</v>
-      </c>
-      <c r="AI5" s="5">
-        <v>4</v>
-      </c>
-      <c r="AJ5" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="AK5" s="5">
+      <c r="F6" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="G6" s="37">
+        <v>1</v>
+      </c>
+      <c r="H6" s="37" t="str" cm="1">
+        <f t="array" ref="H6">_xlfn.IFS(G6=1, "2:00 PM", G6=2, "2:30 PM", G6=3, "3:00 PM", G6=4, "3:30 PM")</f>
+        <v>2:00 PM</v>
+      </c>
+      <c r="I6" s="40">
+        <v>3</v>
+      </c>
+      <c r="J6" s="37">
+        <v>3</v>
+      </c>
+      <c r="K6" s="41">
         <v>4.8</v>
       </c>
-      <c r="AL5" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="AM5" s="5">
-        <f t="shared" si="5"/>
-        <v>4.42</v>
-      </c>
-      <c r="AN5" s="5">
-        <v>4</v>
-      </c>
-      <c r="AO5" s="5">
-        <f t="shared" si="6"/>
-        <v>4.1912307692307689</v>
-      </c>
-    </row>
-    <row r="6" spans="1:41">
-      <c r="A6" s="3">
-        <v>1062329024</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="3">
-        <v>1</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G6" s="3">
+      <c r="L6" s="41">
+        <f>(J6/I6)*K6</f>
+        <v>4.8</v>
+      </c>
+      <c r="M6" s="42">
+        <v>3.55</v>
+      </c>
+      <c r="N6" s="42">
+        <f>2/20</f>
+        <v>0.1</v>
+      </c>
+      <c r="O6" s="42">
+        <v>4.7</v>
+      </c>
+      <c r="P6" s="41">
+        <f>0.7*L6+0.2*M6+0.1*O6+N6</f>
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="Q6" s="43">
+        <v>1.5833333333333335E-2</v>
+      </c>
+      <c r="R6" s="44">
+        <f>Q6/$R$2</f>
+        <v>0.76000000000000012</v>
+      </c>
+      <c r="S6" s="45">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="T6" s="44">
+        <f>S6/$T$2</f>
+        <v>1</v>
+      </c>
+      <c r="U6" s="44">
+        <v>1</v>
+      </c>
+      <c r="V6" s="46">
+        <v>0.6</v>
+      </c>
+      <c r="W6" s="52">
+        <f>AVERAGE(R6,T6,V6)*5</f>
+        <v>3.9333333333333336</v>
+      </c>
+      <c r="X6" s="47">
+        <v>5</v>
+      </c>
+      <c r="Y6" s="47"/>
+      <c r="Z6" s="47"/>
+      <c r="AA6" s="47">
+        <v>4</v>
+      </c>
+      <c r="AB6" s="47"/>
+      <c r="AC6" s="47">
+        <f>AVERAGE(X6:AB6)</f>
+        <v>4.5</v>
+      </c>
+      <c r="AD6" s="41">
+        <v>4.5</v>
+      </c>
+      <c r="AE6" s="41">
+        <v>5</v>
+      </c>
+      <c r="AF6" s="41">
+        <v>4.8571428571428568</v>
+      </c>
+      <c r="AG6" s="51">
+        <f>0.2*AF6+0.8*AVERAGE(AC6:AE6)</f>
+        <v>4.7047619047619049</v>
+      </c>
+      <c r="AH6" s="41">
+        <v>4.8</v>
+      </c>
+      <c r="AI6" s="41">
+        <v>4.8</v>
+      </c>
+      <c r="AJ6" s="41">
+        <v>4.5</v>
+      </c>
+      <c r="AK6" s="41">
+        <v>5</v>
+      </c>
+      <c r="AL6" s="41">
+        <v>4.5</v>
+      </c>
+      <c r="AM6" s="51">
+        <f>AVERAGE(AH6:AL6)</f>
+        <v>4.7200000000000006</v>
+      </c>
+      <c r="AN6" s="51">
+        <v>4.5</v>
+      </c>
+      <c r="AO6" s="41">
+        <f>0.3*AN6+0.6*AM6+0.05*AG6+0.05*W6</f>
+        <v>4.6139047619047622</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41" s="48" customFormat="1">
+      <c r="A7" s="37">
+        <v>1005832925</v>
+      </c>
+      <c r="B7" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="37">
+        <v>2</v>
+      </c>
+      <c r="F7" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="G7" s="37">
+        <v>1</v>
+      </c>
+      <c r="H7" s="37" t="str" cm="1">
+        <f t="array" ref="H7">_xlfn.IFS(G7=1, "2:00 PM", G7=2, "2:30 PM", G7=3, "3:00 PM", G7=4, "3:30 PM")</f>
+        <v>2:00 PM</v>
+      </c>
+      <c r="I7" s="40">
+        <v>11</v>
+      </c>
+      <c r="J7" s="37">
+        <v>11</v>
+      </c>
+      <c r="K7" s="41">
+        <v>4.8</v>
+      </c>
+      <c r="L7" s="41">
+        <f>(J7/I7)*K7</f>
+        <v>4.8</v>
+      </c>
+      <c r="M7" s="42">
+        <v>3.55</v>
+      </c>
+      <c r="N7" s="42">
+        <f>5/20</f>
+        <v>0.25</v>
+      </c>
+      <c r="O7" s="42">
+        <v>4.7</v>
+      </c>
+      <c r="P7" s="41">
+        <f>0.7*L7+0.2*M7+0.1*O7+N7</f>
+        <v>4.79</v>
+      </c>
+      <c r="Q7" s="43">
+        <v>1.5972222222222221E-2</v>
+      </c>
+      <c r="R7" s="44">
+        <f>Q7/$R$2</f>
+        <v>0.76666666666666661</v>
+      </c>
+      <c r="S7" s="45">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="T7" s="44">
+        <f>S7/$T$2</f>
+        <v>1</v>
+      </c>
+      <c r="U7" s="44">
+        <v>1</v>
+      </c>
+      <c r="V7" s="46">
+        <v>1</v>
+      </c>
+      <c r="W7" s="52">
+        <f>AVERAGE(R7,T7,V7)*5</f>
+        <v>4.6111111111111107</v>
+      </c>
+      <c r="X7" s="47"/>
+      <c r="Y7" s="47">
+        <v>5</v>
+      </c>
+      <c r="Z7" s="47"/>
+      <c r="AA7" s="47">
+        <v>2</v>
+      </c>
+      <c r="AB7" s="47">
         <v>3</v>
       </c>
-      <c r="H6" s="3" t="str" cm="1">
-        <f t="array" ref="H6">_xlfn.IFS(G6=1, "2:00 PM", G6=2, "2:30 PM", G6=3, "3:00 PM", G6=4, "3:30 PM")</f>
-        <v>3:00 PM</v>
-      </c>
-      <c r="I6" s="14">
+      <c r="AC7" s="47">
+        <f>AVERAGE(X7:AB7)</f>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="AD7" s="41">
         <v>5</v>
       </c>
-      <c r="J6" s="3">
+      <c r="AE7" s="41">
         <v>5</v>
       </c>
-      <c r="K6" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="L6" s="5">
-        <f t="shared" si="0"/>
-        <v>4.5</v>
-      </c>
-      <c r="M6" s="12">
-        <v>3.59</v>
-      </c>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12">
-        <v>4.5</v>
-      </c>
-      <c r="P6" s="5">
-        <f t="shared" si="1"/>
-        <v>4.3179999999999996</v>
-      </c>
-      <c r="Q6" s="31">
-        <v>0</v>
-      </c>
-      <c r="R6" s="32">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S6" s="33">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="T6" s="32">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="U6" s="32">
-        <v>1</v>
-      </c>
-      <c r="V6" s="34">
-        <v>1</v>
-      </c>
-      <c r="W6" s="12">
-        <f t="shared" ref="W6:W16" si="8">AVERAGE(R6,T6,V6)*5</f>
-        <v>3.333333333333333</v>
-      </c>
-      <c r="X6" s="35"/>
-      <c r="Y6" s="35">
+      <c r="AF7" s="41">
         <v>5</v>
       </c>
-      <c r="Z6" s="35">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="35"/>
-      <c r="AB6" s="35"/>
-      <c r="AC6" s="35">
-        <f t="shared" si="4"/>
-        <v>2.5</v>
-      </c>
-      <c r="AD6" s="5">
-        <v>3</v>
-      </c>
-      <c r="AE6" s="5">
-        <v>4</v>
-      </c>
-      <c r="AF6" s="5">
-        <v>3.8461538461538463</v>
-      </c>
-      <c r="AG6" s="5">
-        <f t="shared" si="7"/>
-        <v>3.3025641025641024</v>
-      </c>
-      <c r="AH6" s="5">
-        <v>4.3</v>
-      </c>
-      <c r="AI6" s="5">
-        <v>4</v>
-      </c>
-      <c r="AJ6" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="AK6" s="5">
+      <c r="AG7" s="51">
+        <f>0.2*AF7+0.8*AVERAGE(AC7:AE7)</f>
+        <v>4.5555555555555554</v>
+      </c>
+      <c r="AH7" s="41">
         <v>4.8</v>
       </c>
-      <c r="AL6" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="AM6" s="5">
-        <f t="shared" si="5"/>
-        <v>4.42</v>
-      </c>
-      <c r="AN6" s="5">
-        <v>4</v>
-      </c>
-      <c r="AO6" s="5">
-        <f t="shared" si="6"/>
-        <v>4.1837948717948716</v>
-      </c>
-    </row>
-    <row r="7" spans="1:41" s="48" customFormat="1">
-      <c r="A7" s="3">
-        <v>1005967544</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>1</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G7" s="3">
-        <v>3</v>
-      </c>
-      <c r="H7" s="3" t="str" cm="1">
-        <f t="array" ref="H7">_xlfn.IFS(G7=1, "2:00 PM", G7=2, "2:30 PM", G7=3, "3:00 PM", G7=4, "3:30 PM")</f>
-        <v>3:00 PM</v>
-      </c>
-      <c r="I7" s="14">
-        <v>1</v>
-      </c>
-      <c r="J7" s="3">
-        <v>1</v>
-      </c>
-      <c r="K7" s="3">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="L7" s="5">
-        <f t="shared" si="0"/>
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="M7" s="12">
-        <v>3.59</v>
-      </c>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12">
-        <v>4.5</v>
-      </c>
-      <c r="P7" s="5">
-        <f t="shared" si="1"/>
-        <v>4.3879999999999999</v>
-      </c>
-      <c r="Q7" s="31">
-        <v>1.3935185185185186E-2</v>
-      </c>
-      <c r="R7" s="32">
-        <f t="shared" si="2"/>
-        <v>0.66888888888888898</v>
-      </c>
-      <c r="S7" s="33">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="T7" s="32">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="U7" s="32">
-        <v>1</v>
-      </c>
-      <c r="V7" s="34">
-        <v>1</v>
-      </c>
-      <c r="W7" s="12">
-        <f t="shared" si="8"/>
-        <v>4.4481481481481486</v>
-      </c>
-      <c r="X7" s="35"/>
-      <c r="Y7" s="35">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="35"/>
-      <c r="AA7" s="35">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="35"/>
-      <c r="AC7" s="35">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AD7" s="5">
-        <v>4</v>
-      </c>
-      <c r="AE7" s="5">
-        <v>4</v>
-      </c>
-      <c r="AF7" s="5">
-        <v>4.916666666666667</v>
-      </c>
-      <c r="AG7" s="5">
-        <f t="shared" si="7"/>
-        <v>3.1166666666666667</v>
-      </c>
-      <c r="AH7" s="5">
-        <v>4.3</v>
-      </c>
-      <c r="AI7" s="5">
-        <v>4</v>
-      </c>
-      <c r="AJ7" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="AK7" s="5">
+      <c r="AI7" s="41">
         <v>4.8</v>
       </c>
-      <c r="AL7" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="AM7" s="5">
-        <f t="shared" si="5"/>
-        <v>4.42</v>
-      </c>
-      <c r="AN7" s="5">
-        <v>4</v>
-      </c>
-      <c r="AO7" s="5">
-        <f t="shared" si="6"/>
-        <v>4.230240740740741</v>
+      <c r="AJ7" s="41">
+        <v>4.5</v>
+      </c>
+      <c r="AK7" s="41">
+        <v>5</v>
+      </c>
+      <c r="AL7" s="41">
+        <v>4.5</v>
+      </c>
+      <c r="AM7" s="51">
+        <f>AVERAGE(AH7:AL7)</f>
+        <v>4.7200000000000006</v>
+      </c>
+      <c r="AN7" s="51">
+        <v>4.5</v>
+      </c>
+      <c r="AO7" s="41">
+        <f>0.3*AN7+0.6*AM7+0.05*AG7+0.05*W7</f>
+        <v>4.6403333333333334</v>
       </c>
     </row>
     <row r="8" spans="1:41">
-      <c r="A8" s="37">
-        <v>1126644560</v>
-      </c>
-      <c r="B8" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="37">
-        <v>1</v>
-      </c>
-      <c r="F8" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="G8" s="37">
-        <v>3</v>
-      </c>
-      <c r="H8" s="37" t="str" cm="1">
+      <c r="A8" s="3">
+        <v>1109662163</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1</v>
+      </c>
+      <c r="H8" s="3" t="str" cm="1">
         <f t="array" ref="H8">_xlfn.IFS(G8=1, "2:00 PM", G8=2, "2:30 PM", G8=3, "3:00 PM", G8=4, "3:30 PM")</f>
-        <v>3:00 PM</v>
-      </c>
-      <c r="I8" s="40">
-        <v>4</v>
-      </c>
-      <c r="J8" s="37">
-        <v>4</v>
-      </c>
-      <c r="K8" s="37">
+        <v>2:00 PM</v>
+      </c>
+      <c r="I8" s="14">
+        <v>7</v>
+      </c>
+      <c r="J8" s="3">
+        <v>7</v>
+      </c>
+      <c r="K8" s="5">
         <v>4.8</v>
       </c>
-      <c r="L8" s="41">
-        <f t="shared" si="0"/>
+      <c r="L8" s="5">
+        <f>(J8/I8)*K8</f>
         <v>4.8</v>
       </c>
-      <c r="M8" s="42">
-        <v>3.59</v>
-      </c>
-      <c r="N8" s="42"/>
-      <c r="O8" s="42">
-        <v>4.5</v>
-      </c>
-      <c r="P8" s="41">
-        <f t="shared" si="1"/>
-        <v>4.5279999999999996</v>
-      </c>
-      <c r="Q8" s="43">
-        <v>1.6342592592592593E-2</v>
-      </c>
-      <c r="R8" s="44">
-        <f t="shared" si="2"/>
-        <v>0.7844444444444445</v>
+      <c r="M8" s="12">
+        <v>3.55</v>
+      </c>
+      <c r="N8" s="12">
+        <f>1/20</f>
+        <v>0.05</v>
+      </c>
+      <c r="O8" s="12">
+        <v>4.7</v>
+      </c>
+      <c r="P8" s="5">
+        <f>0.7*L8+0.2*M8+0.1*O8+N8</f>
+        <v>4.59</v>
+      </c>
+      <c r="Q8" s="31">
+        <v>1.4652777777777778E-2</v>
+      </c>
+      <c r="R8" s="32">
+        <f>Q8/$R$2</f>
+        <v>0.70333333333333337</v>
       </c>
       <c r="S8" s="45">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="T8" s="44">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="U8" s="44">
-        <v>1</v>
-      </c>
-      <c r="V8" s="46">
-        <v>1</v>
-      </c>
-      <c r="W8" s="52">
-        <f t="shared" si="8"/>
-        <v>4.6407407407407408</v>
-      </c>
-      <c r="X8" s="47"/>
-      <c r="Y8" s="47">
-        <v>4</v>
-      </c>
-      <c r="Z8" s="47">
+      <c r="T8" s="32">
+        <f>S8/$T$2</f>
+        <v>1</v>
+      </c>
+      <c r="U8" s="32">
+        <v>1</v>
+      </c>
+      <c r="V8" s="34">
+        <v>1</v>
+      </c>
+      <c r="W8" s="12">
+        <f>AVERAGE(R8,T8,V8)*5</f>
+        <v>4.5055555555555555</v>
+      </c>
+      <c r="X8" s="35">
+        <v>3</v>
+      </c>
+      <c r="Y8" s="35"/>
+      <c r="Z8" s="35">
+        <v>5</v>
+      </c>
+      <c r="AA8" s="35"/>
+      <c r="AB8" s="35"/>
+      <c r="AC8" s="35">
+        <f>AVERAGE(X8:AB8)</f>
+        <v>4</v>
+      </c>
+      <c r="AD8" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="AE8" s="5">
+        <v>5</v>
+      </c>
+      <c r="AF8" s="5">
+        <v>5</v>
+      </c>
+      <c r="AG8" s="5">
+        <f>0.2*AF8+0.8*AVERAGE(AC8:AE8)</f>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AH8" s="5">
+        <v>4.8</v>
+      </c>
+      <c r="AI8" s="5">
+        <v>4.8</v>
+      </c>
+      <c r="AJ8" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="AK8" s="5">
+        <v>5</v>
+      </c>
+      <c r="AL8" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="AM8" s="5">
+        <f>AVERAGE(AH8:AL8)</f>
+        <v>4.7200000000000006</v>
+      </c>
+      <c r="AN8" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="AO8" s="5">
+        <f>0.3*AN8+0.6*AM8+0.05*AG8+0.05*W8</f>
+        <v>4.6372777777777783</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41" s="48" customFormat="1">
+      <c r="A9" s="3">
+        <v>1081728000</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="3">
+        <v>3</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G9" s="3">
+        <v>2</v>
+      </c>
+      <c r="H9" s="3" t="str" cm="1">
+        <f t="array" ref="H9">_xlfn.IFS(G9=1, "2:00 PM", G9=2, "2:30 PM", G9=3, "3:00 PM", G9=4, "3:30 PM")</f>
+        <v>2:30 PM</v>
+      </c>
+      <c r="I9" s="14">
+        <v>5</v>
+      </c>
+      <c r="J9" s="3">
+        <v>5</v>
+      </c>
+      <c r="K9" s="5">
+        <v>4.8</v>
+      </c>
+      <c r="L9" s="5">
+        <f>(J9/I9)*K9</f>
+        <v>4.8</v>
+      </c>
+      <c r="M9" s="12">
+        <v>2.76</v>
+      </c>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12">
+        <v>3</v>
+      </c>
+      <c r="P9" s="5">
+        <f>0.7*L9+0.2*M9+0.1*O9+N9</f>
+        <v>4.2119999999999997</v>
+      </c>
+      <c r="Q9" s="31">
+        <v>9.9305555555555553E-3</v>
+      </c>
+      <c r="R9" s="32">
+        <f>Q9/$R$2</f>
+        <v>0.47666666666666668</v>
+      </c>
+      <c r="S9" s="33">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="T9" s="32">
+        <f>S9/$T$2</f>
+        <v>1</v>
+      </c>
+      <c r="U9" s="32">
+        <v>1</v>
+      </c>
+      <c r="V9" s="34">
+        <v>1</v>
+      </c>
+      <c r="W9" s="12">
+        <f>AVERAGE(R9,T9,V9)*5</f>
+        <v>4.1277777777777773</v>
+      </c>
+      <c r="X9" s="35">
+        <v>2</v>
+      </c>
+      <c r="Y9" s="35"/>
+      <c r="Z9" s="35"/>
+      <c r="AA9" s="35">
+        <v>1</v>
+      </c>
+      <c r="AB9" s="35"/>
+      <c r="AC9" s="35">
+        <f>AVERAGE(X9:AB9)</f>
+        <v>1.5</v>
+      </c>
+      <c r="AD9" s="5">
+        <v>4</v>
+      </c>
+      <c r="AE9" s="5">
+        <v>4</v>
+      </c>
+      <c r="AF9" s="5">
+        <v>4.615384615384615</v>
+      </c>
+      <c r="AG9" s="5">
+        <f>0.2*AF9+0.8*AVERAGE(AC9:AE9)</f>
+        <v>3.4564102564102561</v>
+      </c>
+      <c r="AH9" s="5">
+        <v>4</v>
+      </c>
+      <c r="AI9" s="5">
+        <v>4.7</v>
+      </c>
+      <c r="AJ9" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="AK9" s="5">
+        <v>4</v>
+      </c>
+      <c r="AL9" s="5">
+        <v>4.3</v>
+      </c>
+      <c r="AM9" s="5">
+        <f>AVERAGE(AH9:AL9)</f>
+        <v>4.3</v>
+      </c>
+      <c r="AN9" s="5">
         <v>0</v>
       </c>
-      <c r="AA8" s="47"/>
-      <c r="AB8" s="47"/>
-      <c r="AC8" s="47">
-        <f t="shared" si="4"/>
+      <c r="AO9" s="5">
+        <f>0.3*AN9+0.6*AM9+0.05*AG9+0.05*W9</f>
+        <v>2.9592094017094013</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41">
+      <c r="A10" s="37">
+        <v>1062274189</v>
+      </c>
+      <c r="B10" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="37">
+        <v>3</v>
+      </c>
+      <c r="F10" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="G10" s="37">
         <v>2</v>
       </c>
-      <c r="AD8" s="41">
-        <v>4.5</v>
-      </c>
-      <c r="AE8" s="41">
-        <v>4</v>
-      </c>
-      <c r="AF8" s="41">
+      <c r="H10" s="37" t="str" cm="1">
+        <f t="array" ref="H10">_xlfn.IFS(G10=1, "2:00 PM", G10=2, "2:30 PM", G10=3, "3:00 PM", G10=4, "3:30 PM")</f>
+        <v>2:30 PM</v>
+      </c>
+      <c r="I10" s="40">
         <v>5</v>
       </c>
-      <c r="AG8" s="51">
-        <f t="shared" si="7"/>
-        <v>3.8000000000000003</v>
-      </c>
-      <c r="AH8" s="41">
+      <c r="J10" s="37">
+        <v>3</v>
+      </c>
+      <c r="K10" s="41">
+        <v>4.5</v>
+      </c>
+      <c r="L10" s="41">
+        <f>(J10/I10)*K10</f>
+        <v>2.6999999999999997</v>
+      </c>
+      <c r="M10" s="42">
+        <v>2.76</v>
+      </c>
+      <c r="N10" s="42"/>
+      <c r="O10" s="42">
+        <v>3</v>
+      </c>
+      <c r="P10" s="41">
+        <f>0.7*L10+0.2*M10+0.1*O10+N10</f>
+        <v>2.742</v>
+      </c>
+      <c r="Q10" s="43">
+        <v>1.8506944444444444E-2</v>
+      </c>
+      <c r="R10" s="44">
+        <f>Q10/$R$2</f>
+        <v>0.88833333333333331</v>
+      </c>
+      <c r="S10" s="45">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="T10" s="44">
+        <f>S10/$T$2</f>
+        <v>1</v>
+      </c>
+      <c r="U10" s="44">
+        <v>1</v>
+      </c>
+      <c r="V10" s="46">
+        <v>0.8</v>
+      </c>
+      <c r="W10" s="52">
+        <f>AVERAGE(R10,T10,V10)*5</f>
+        <v>4.4805555555555561</v>
+      </c>
+      <c r="X10" s="47">
+        <v>2</v>
+      </c>
+      <c r="Y10" s="47">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="47"/>
+      <c r="AA10" s="47">
+        <v>3</v>
+      </c>
+      <c r="AB10" s="47"/>
+      <c r="AC10" s="47">
+        <f>AVERAGE(X10:AB10)</f>
+        <v>2</v>
+      </c>
+      <c r="AD10" s="41">
+        <v>4</v>
+      </c>
+      <c r="AE10" s="41">
+        <v>4</v>
+      </c>
+      <c r="AF10" s="41">
+        <v>4.7692307692307692</v>
+      </c>
+      <c r="AG10" s="51">
+        <f>0.2*AF10+0.8*AVERAGE(AC10:AE10)</f>
+        <v>3.620512820512821</v>
+      </c>
+      <c r="AH10" s="41">
+        <v>4</v>
+      </c>
+      <c r="AI10" s="41">
+        <v>4.7</v>
+      </c>
+      <c r="AJ10" s="41">
+        <v>4.5</v>
+      </c>
+      <c r="AK10" s="41">
+        <v>4</v>
+      </c>
+      <c r="AL10" s="41">
         <v>4.3</v>
       </c>
-      <c r="AI8" s="41">
-        <v>4</v>
-      </c>
-      <c r="AJ8" s="41">
-        <v>4.5</v>
-      </c>
-      <c r="AK8" s="41">
-        <v>4.8</v>
-      </c>
-      <c r="AL8" s="41">
-        <v>4.5</v>
-      </c>
-      <c r="AM8" s="51">
-        <f t="shared" si="5"/>
-        <v>4.42</v>
-      </c>
-      <c r="AN8" s="51">
+      <c r="AM10" s="51">
+        <f>AVERAGE(AH10:AL10)</f>
+        <v>4.3</v>
+      </c>
+      <c r="AN10" s="51">
         <v>0</v>
       </c>
-      <c r="AO8" s="41">
-        <f t="shared" si="6"/>
-        <v>3.0740370370370367</v>
-      </c>
-    </row>
-    <row r="9" spans="1:41" s="48" customFormat="1">
-      <c r="A9" s="37">
-        <v>1005785832</v>
-      </c>
-      <c r="B9" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="39" t="s">
+      <c r="AO10" s="41">
+        <f>0.3*AN10+0.6*AM10+0.05*AG10+0.05*W10</f>
+        <v>2.9850534188034183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:41" s="48" customFormat="1" ht="15.75">
+      <c r="A11" s="37">
+        <v>1007603017</v>
+      </c>
+      <c r="B11" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="37">
+        <v>3</v>
+      </c>
+      <c r="F11" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="G11" s="37">
         <v>2</v>
-      </c>
-      <c r="E9" s="37">
-        <v>2</v>
-      </c>
-      <c r="F9" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="G9" s="37">
-        <v>4</v>
-      </c>
-      <c r="H9" s="37" t="str" cm="1">
-        <f t="array" ref="H9">_xlfn.IFS(G9=1, "2:00 PM", G9=2, "2:30 PM", G9=3, "3:00 PM", G9=4, "3:30 PM")</f>
-        <v>3:30 PM</v>
-      </c>
-      <c r="I9" s="40">
-        <v>7</v>
-      </c>
-      <c r="J9" s="37">
-        <v>7</v>
-      </c>
-      <c r="K9" s="41">
-        <v>4.8</v>
-      </c>
-      <c r="L9" s="41">
-        <f t="shared" si="0"/>
-        <v>4.8</v>
-      </c>
-      <c r="M9" s="42">
-        <v>3.55</v>
-      </c>
-      <c r="N9" s="42">
-        <f>1/20</f>
-        <v>0.05</v>
-      </c>
-      <c r="O9" s="42">
-        <v>4.7</v>
-      </c>
-      <c r="P9" s="41">
-        <f t="shared" si="1"/>
-        <v>4.59</v>
-      </c>
-      <c r="Q9" s="43">
-        <v>1.5520833333333333E-2</v>
-      </c>
-      <c r="R9" s="44">
-        <f t="shared" si="2"/>
-        <v>0.745</v>
-      </c>
-      <c r="S9" s="45">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="T9" s="44">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="U9" s="44">
-        <v>1</v>
-      </c>
-      <c r="V9" s="46">
-        <v>0.8</v>
-      </c>
-      <c r="W9" s="52">
-        <f t="shared" si="8"/>
-        <v>4.2416666666666663</v>
-      </c>
-      <c r="X9" s="47">
-        <v>3</v>
-      </c>
-      <c r="Y9" s="47"/>
-      <c r="Z9" s="47"/>
-      <c r="AA9" s="47">
-        <v>4</v>
-      </c>
-      <c r="AB9" s="47"/>
-      <c r="AC9" s="47">
-        <f t="shared" si="4"/>
-        <v>3.5</v>
-      </c>
-      <c r="AD9" s="41">
-        <v>4.5</v>
-      </c>
-      <c r="AE9" s="41"/>
-      <c r="AF9" s="41">
-        <v>4.9285714285714288</v>
-      </c>
-      <c r="AG9" s="51">
-        <f t="shared" si="7"/>
-        <v>4.1857142857142859</v>
-      </c>
-      <c r="AH9" s="41">
-        <v>4.8</v>
-      </c>
-      <c r="AI9" s="41">
-        <v>4.8</v>
-      </c>
-      <c r="AJ9" s="41">
-        <v>4.5</v>
-      </c>
-      <c r="AK9" s="41">
-        <v>5</v>
-      </c>
-      <c r="AL9" s="41">
-        <v>4.5</v>
-      </c>
-      <c r="AM9" s="51">
-        <f t="shared" si="5"/>
-        <v>4.7200000000000006</v>
-      </c>
-      <c r="AN9" s="51">
-        <v>4.5</v>
-      </c>
-      <c r="AO9" s="41">
-        <f t="shared" si="6"/>
-        <v>4.6033690476190481</v>
-      </c>
-    </row>
-    <row r="10" spans="1:41">
-      <c r="A10" s="3">
-        <v>1005783739</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="3">
-        <v>2</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G10" s="3">
-        <v>4</v>
-      </c>
-      <c r="H10" s="3" t="str" cm="1">
-        <f t="array" ref="H10">_xlfn.IFS(G10=1, "2:00 PM", G10=2, "2:30 PM", G10=3, "3:00 PM", G10=4, "3:30 PM")</f>
-        <v>3:30 PM</v>
-      </c>
-      <c r="I10" s="14">
-        <v>4</v>
-      </c>
-      <c r="J10" s="3">
-        <v>4</v>
-      </c>
-      <c r="K10" s="5">
-        <v>4.8</v>
-      </c>
-      <c r="L10" s="5">
-        <f t="shared" si="0"/>
-        <v>4.8</v>
-      </c>
-      <c r="M10" s="12">
-        <v>3.55</v>
-      </c>
-      <c r="N10" s="12">
-        <f>3/20</f>
-        <v>0.15</v>
-      </c>
-      <c r="O10" s="12">
-        <v>4.7</v>
-      </c>
-      <c r="P10" s="5">
-        <f t="shared" si="1"/>
-        <v>4.6900000000000004</v>
-      </c>
-      <c r="Q10" s="31">
-        <v>1.4976851851851852E-2</v>
-      </c>
-      <c r="R10" s="32">
-        <f t="shared" si="2"/>
-        <v>0.71888888888888891</v>
-      </c>
-      <c r="S10" s="33">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="T10" s="32">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="U10" s="32">
-        <v>1</v>
-      </c>
-      <c r="V10" s="34">
-        <v>1</v>
-      </c>
-      <c r="W10" s="12">
-        <f t="shared" si="8"/>
-        <v>4.5314814814814817</v>
-      </c>
-      <c r="X10" s="35">
-        <v>2</v>
-      </c>
-      <c r="Y10" s="35"/>
-      <c r="Z10" s="35">
-        <v>4</v>
-      </c>
-      <c r="AA10" s="35"/>
-      <c r="AB10" s="35"/>
-      <c r="AC10" s="35">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="AD10" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="AE10" s="5">
-        <v>5</v>
-      </c>
-      <c r="AF10" s="5">
-        <v>4.9285714285714288</v>
-      </c>
-      <c r="AG10" s="5">
-        <f t="shared" si="7"/>
-        <v>4.3190476190476197</v>
-      </c>
-      <c r="AH10" s="5">
-        <v>4.8</v>
-      </c>
-      <c r="AI10" s="5">
-        <v>4.8</v>
-      </c>
-      <c r="AJ10" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="AK10" s="5">
-        <v>5</v>
-      </c>
-      <c r="AL10" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="AM10" s="5">
-        <f t="shared" si="5"/>
-        <v>4.7200000000000006</v>
-      </c>
-      <c r="AN10" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="AO10" s="5">
-        <f t="shared" si="6"/>
-        <v>4.624526455026456</v>
-      </c>
-    </row>
-    <row r="11" spans="1:41" s="48" customFormat="1">
-      <c r="A11" s="37">
-        <v>1113698193</v>
-      </c>
-      <c r="B11" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="37">
-        <v>2</v>
-      </c>
-      <c r="F11" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="G11" s="37">
-        <v>4</v>
       </c>
       <c r="H11" s="37" t="str" cm="1">
         <f t="array" ref="H11">_xlfn.IFS(G11=1, "2:00 PM", G11=2, "2:30 PM", G11=3, "3:00 PM", G11=4, "3:30 PM")</f>
-        <v>3:30 PM</v>
+        <v>2:30 PM</v>
       </c>
       <c r="I11" s="40">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J11" s="37">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K11" s="41">
         <v>4.8</v>
       </c>
       <c r="L11" s="41">
-        <f t="shared" si="0"/>
+        <f>(J11/I11)*K11</f>
         <v>4.8</v>
       </c>
       <c r="M11" s="42">
-        <v>3.55</v>
-      </c>
-      <c r="N11" s="42">
-        <f>2/20</f>
-        <v>0.1</v>
-      </c>
+        <v>2.76</v>
+      </c>
+      <c r="N11" s="42"/>
       <c r="O11" s="42">
-        <v>4.7</v>
+        <v>3</v>
       </c>
       <c r="P11" s="41">
-        <f t="shared" si="1"/>
-        <v>4.6399999999999997</v>
+        <f>0.7*L11+0.2*M11+0.1*O11+N11</f>
+        <v>4.2119999999999997</v>
       </c>
       <c r="Q11" s="43">
-        <v>1.5833333333333335E-2</v>
+        <v>1.8159722222222223E-2</v>
       </c>
       <c r="R11" s="44">
-        <f t="shared" si="2"/>
-        <v>0.76000000000000012</v>
+        <f>Q11/$R$2</f>
+        <v>0.8716666666666667</v>
       </c>
       <c r="S11" s="45">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="T11" s="44">
-        <f t="shared" si="3"/>
+        <f>S11/$T$2</f>
         <v>1</v>
       </c>
       <c r="U11" s="44">
         <v>1</v>
       </c>
       <c r="V11" s="46">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="W11" s="52">
-        <f t="shared" si="8"/>
-        <v>3.9333333333333336</v>
+        <f>AVERAGE(R11,T11,V11)*5</f>
+        <v>4.7861111111111114</v>
       </c>
       <c r="X11" s="47">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Y11" s="47"/>
       <c r="Z11" s="47"/>
       <c r="AA11" s="47">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AB11" s="47"/>
       <c r="AC11" s="47">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(X11:AB11)</f>
         <v>4.5</v>
       </c>
       <c r="AD11" s="41">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="AE11" s="41">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF11" s="41">
-        <v>4.8571428571428568</v>
+        <v>4.615384615384615</v>
       </c>
       <c r="AG11" s="51">
-        <f t="shared" si="7"/>
-        <v>4.7047619047619049</v>
+        <f>0.2*AF11+0.8*AVERAGE(AC11:AE11)</f>
+        <v>4.2564102564102573</v>
       </c>
       <c r="AH11" s="41">
+        <v>4</v>
+      </c>
+      <c r="AI11" s="41">
+        <v>4.7</v>
+      </c>
+      <c r="AJ11" s="41">
+        <v>4.5</v>
+      </c>
+      <c r="AK11" s="41">
+        <v>4</v>
+      </c>
+      <c r="AL11" s="41">
+        <v>4.3</v>
+      </c>
+      <c r="AM11" s="51">
+        <f>AVERAGE(AH11:AL11)</f>
+        <v>4.3</v>
+      </c>
+      <c r="AN11" s="51">
+        <v>0</v>
+      </c>
+      <c r="AO11" s="41">
+        <f>0.3*AN11+0.6*AM11+0.05*AG11+0.05*W11</f>
+        <v>3.0321260683760682</v>
+      </c>
+    </row>
+    <row r="12" spans="1:41">
+      <c r="A12" s="3">
+        <v>1219713263</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="3">
+        <v>3</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G12" s="3">
+        <v>2</v>
+      </c>
+      <c r="H12" s="3" t="str" cm="1">
+        <f t="array" ref="H12">_xlfn.IFS(G12=1, "2:00 PM", G12=2, "2:30 PM", G12=3, "3:00 PM", G12=4, "3:30 PM")</f>
+        <v>2:30 PM</v>
+      </c>
+      <c r="I12" s="14">
+        <v>6</v>
+      </c>
+      <c r="J12" s="3">
+        <v>6</v>
+      </c>
+      <c r="K12" s="5">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="L12" s="5">
+        <f>(J12/I12)*K12</f>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="M12" s="12">
+        <v>2.76</v>
+      </c>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12">
+        <v>3</v>
+      </c>
+      <c r="P12" s="5">
+        <f>0.7*L12+0.2*M12+0.1*O12+N12</f>
+        <v>4.282</v>
+      </c>
+      <c r="Q12" s="31">
+        <v>0</v>
+      </c>
+      <c r="R12" s="32">
+        <f>Q12/$R$2</f>
+        <v>0</v>
+      </c>
+      <c r="S12" s="33">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="T12" s="32">
+        <f>S12/$T$2</f>
+        <v>1</v>
+      </c>
+      <c r="U12" s="32">
+        <v>1</v>
+      </c>
+      <c r="V12" s="34">
+        <v>0</v>
+      </c>
+      <c r="W12" s="12">
+        <v>3</v>
+      </c>
+      <c r="X12" s="35">
+        <v>2</v>
+      </c>
+      <c r="Y12" s="35">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="35"/>
+      <c r="AA12" s="35">
+        <v>3</v>
+      </c>
+      <c r="AB12" s="35"/>
+      <c r="AC12" s="35">
+        <f>AVERAGE(X12:AB12)</f>
+        <v>2</v>
+      </c>
+      <c r="AD12" s="5">
+        <v>4</v>
+      </c>
+      <c r="AE12" s="5">
+        <v>4</v>
+      </c>
+      <c r="AF12" s="5">
+        <v>4.5384615384615383</v>
+      </c>
+      <c r="AG12" s="5">
+        <f>0.2*AF12+0.8*AVERAGE(AC12:AE12)</f>
+        <v>3.5743589743589745</v>
+      </c>
+      <c r="AH12" s="5">
+        <v>4</v>
+      </c>
+      <c r="AI12" s="5">
+        <v>4.7</v>
+      </c>
+      <c r="AJ12" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="AK12" s="5">
+        <v>4</v>
+      </c>
+      <c r="AL12" s="5">
+        <v>4.3</v>
+      </c>
+      <c r="AM12" s="5">
+        <f>AVERAGE(AH12:AL12)</f>
+        <v>4.3</v>
+      </c>
+      <c r="AN12" s="5">
+        <v>0</v>
+      </c>
+      <c r="AO12" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:41" s="48" customFormat="1">
+      <c r="A13" s="37">
+        <v>1110363454</v>
+      </c>
+      <c r="B13" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="37">
+        <v>3</v>
+      </c>
+      <c r="F13" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13" s="37">
+        <v>2</v>
+      </c>
+      <c r="H13" s="37" t="str" cm="1">
+        <f t="array" ref="H13">_xlfn.IFS(G13=1, "2:00 PM", G13=2, "2:30 PM", G13=3, "3:00 PM", G13=4, "3:30 PM")</f>
+        <v>2:30 PM</v>
+      </c>
+      <c r="I13" s="40">
+        <v>6</v>
+      </c>
+      <c r="J13" s="37">
+        <v>6</v>
+      </c>
+      <c r="K13" s="41">
         <v>4.8</v>
       </c>
-      <c r="AI11" s="41">
+      <c r="L13" s="41">
+        <f>(J13/I13)*K13</f>
         <v>4.8</v>
       </c>
-      <c r="AJ11" s="41">
-        <v>4.5</v>
-      </c>
-      <c r="AK11" s="41">
-        <v>5</v>
-      </c>
-      <c r="AL11" s="41">
-        <v>4.5</v>
-      </c>
-      <c r="AM11" s="51">
-        <f t="shared" si="5"/>
-        <v>4.7200000000000006</v>
-      </c>
-      <c r="AN11" s="51">
-        <v>4.5</v>
-      </c>
-      <c r="AO11" s="41">
-        <f t="shared" si="6"/>
-        <v>4.6139047619047622</v>
-      </c>
-    </row>
-    <row r="12" spans="1:41">
-      <c r="A12" s="37">
-        <v>1005832925</v>
-      </c>
-      <c r="B12" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="37">
-        <v>2</v>
-      </c>
-      <c r="F12" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="G12" s="37">
-        <v>4</v>
-      </c>
-      <c r="H12" s="37" t="str" cm="1">
-        <f t="array" ref="H12">_xlfn.IFS(G12=1, "2:00 PM", G12=2, "2:30 PM", G12=3, "3:00 PM", G12=4, "3:30 PM")</f>
-        <v>3:30 PM</v>
-      </c>
-      <c r="I12" s="40">
-        <v>11</v>
-      </c>
-      <c r="J12" s="37">
-        <v>11</v>
-      </c>
-      <c r="K12" s="41">
-        <v>4.8</v>
-      </c>
-      <c r="L12" s="41">
-        <f t="shared" si="0"/>
-        <v>4.8</v>
-      </c>
-      <c r="M12" s="42">
-        <v>3.55</v>
-      </c>
-      <c r="N12" s="42">
-        <f>5/20</f>
-        <v>0.25</v>
-      </c>
-      <c r="O12" s="42">
-        <v>4.7</v>
-      </c>
-      <c r="P12" s="41">
-        <f t="shared" si="1"/>
-        <v>4.79</v>
-      </c>
-      <c r="Q12" s="43">
-        <v>1.5972222222222221E-2</v>
-      </c>
-      <c r="R12" s="44">
-        <f t="shared" si="2"/>
-        <v>0.76666666666666661</v>
-      </c>
-      <c r="S12" s="45">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="T12" s="44">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="U12" s="44">
-        <v>1</v>
-      </c>
-      <c r="V12" s="46">
-        <v>1</v>
-      </c>
-      <c r="W12" s="52">
-        <f t="shared" si="8"/>
-        <v>4.6111111111111107</v>
-      </c>
-      <c r="X12" s="47"/>
-      <c r="Y12" s="47">
-        <v>5</v>
-      </c>
-      <c r="Z12" s="47"/>
-      <c r="AA12" s="47">
-        <v>2</v>
-      </c>
-      <c r="AB12" s="47">
+      <c r="M13" s="42">
+        <v>2.76</v>
+      </c>
+      <c r="N13" s="42">
+        <f>1/13</f>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="O13" s="42">
         <v>3</v>
       </c>
-      <c r="AC12" s="47">
-        <f t="shared" si="4"/>
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="AD12" s="41">
-        <v>5</v>
-      </c>
-      <c r="AE12" s="41">
-        <v>5</v>
-      </c>
-      <c r="AF12" s="41">
-        <v>5</v>
-      </c>
-      <c r="AG12" s="51">
-        <f t="shared" si="7"/>
-        <v>4.5555555555555554</v>
-      </c>
-      <c r="AH12" s="41">
-        <v>4.8</v>
-      </c>
-      <c r="AI12" s="41">
-        <v>4.8</v>
-      </c>
-      <c r="AJ12" s="41">
-        <v>4.5</v>
-      </c>
-      <c r="AK12" s="41">
-        <v>5</v>
-      </c>
-      <c r="AL12" s="41">
-        <v>4.5</v>
-      </c>
-      <c r="AM12" s="51">
-        <f t="shared" si="5"/>
-        <v>4.7200000000000006</v>
-      </c>
-      <c r="AN12" s="51">
-        <v>4.5</v>
-      </c>
-      <c r="AO12" s="41">
-        <f t="shared" si="6"/>
-        <v>4.6403333333333334</v>
-      </c>
-    </row>
-    <row r="13" spans="1:41" s="48" customFormat="1">
-      <c r="A13" s="3">
-        <v>1109662163</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="3">
-        <v>2</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G13" s="3">
-        <v>4</v>
-      </c>
-      <c r="H13" s="3" t="str" cm="1">
-        <f t="array" ref="H13">_xlfn.IFS(G13=1, "2:00 PM", G13=2, "2:30 PM", G13=3, "3:00 PM", G13=4, "3:30 PM")</f>
-        <v>3:30 PM</v>
-      </c>
-      <c r="I13" s="14">
-        <v>7</v>
-      </c>
-      <c r="J13" s="3">
-        <v>7</v>
-      </c>
-      <c r="K13" s="5">
-        <v>4.8</v>
-      </c>
-      <c r="L13" s="5">
-        <f t="shared" si="0"/>
-        <v>4.8</v>
-      </c>
-      <c r="M13" s="12">
-        <v>3.55</v>
-      </c>
-      <c r="N13" s="12">
-        <f>1/20</f>
-        <v>0.05</v>
-      </c>
-      <c r="O13" s="12">
-        <v>4.7</v>
-      </c>
-      <c r="P13" s="5">
-        <f t="shared" si="1"/>
-        <v>4.59</v>
-      </c>
-      <c r="Q13" s="31">
-        <v>1.4652777777777778E-2</v>
-      </c>
-      <c r="R13" s="32">
-        <f t="shared" si="2"/>
-        <v>0.70333333333333337</v>
+      <c r="P13" s="41">
+        <f>0.7*L13+0.2*M13+0.1*O13+N13</f>
+        <v>4.2889230769230764</v>
+      </c>
+      <c r="Q13" s="43">
+        <v>1.1863425925925927E-2</v>
+      </c>
+      <c r="R13" s="44">
+        <f>Q13/$R$2</f>
+        <v>0.56944444444444453</v>
       </c>
       <c r="S13" s="45">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="T13" s="32">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="U13" s="32">
-        <v>1</v>
-      </c>
-      <c r="V13" s="34">
-        <v>1</v>
-      </c>
-      <c r="W13" s="12">
-        <f t="shared" si="8"/>
-        <v>4.5055555555555555</v>
-      </c>
-      <c r="X13" s="35">
+      <c r="T13" s="44">
+        <f>S13/$T$2</f>
+        <v>1</v>
+      </c>
+      <c r="U13" s="44">
+        <v>1</v>
+      </c>
+      <c r="V13" s="46">
+        <v>1</v>
+      </c>
+      <c r="W13" s="52">
+        <f>AVERAGE(R13,T13,V13)*5</f>
+        <v>4.2824074074074074</v>
+      </c>
+      <c r="X13" s="47">
+        <v>5</v>
+      </c>
+      <c r="Y13" s="47">
         <v>3</v>
       </c>
-      <c r="Y13" s="35"/>
-      <c r="Z13" s="35">
+      <c r="Z13" s="47"/>
+      <c r="AA13" s="47">
         <v>5</v>
       </c>
-      <c r="AA13" s="35"/>
-      <c r="AB13" s="35"/>
-      <c r="AC13" s="35">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="AD13" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="AE13" s="5">
+      <c r="AB13" s="47"/>
+      <c r="AC13" s="47">
+        <f>AVERAGE(X13:AB13)</f>
+        <v>4.333333333333333</v>
+      </c>
+      <c r="AD13" s="41">
+        <v>4</v>
+      </c>
+      <c r="AE13" s="41">
+        <v>4</v>
+      </c>
+      <c r="AF13" s="41">
+        <v>4.6923076923076925</v>
+      </c>
+      <c r="AG13" s="51">
+        <f>0.2*AF13+0.8*AVERAGE(AC13:AE13)</f>
+        <v>4.2273504273504274</v>
+      </c>
+      <c r="AH13" s="41">
+        <v>4</v>
+      </c>
+      <c r="AI13" s="41">
+        <v>4.7</v>
+      </c>
+      <c r="AJ13" s="41">
+        <v>4.5</v>
+      </c>
+      <c r="AK13" s="41">
+        <v>4</v>
+      </c>
+      <c r="AL13" s="41">
+        <v>4.3</v>
+      </c>
+      <c r="AM13" s="51">
+        <f>AVERAGE(AH13:AL13)</f>
+        <v>4.3</v>
+      </c>
+      <c r="AN13" s="51">
+        <v>0</v>
+      </c>
+      <c r="AO13" s="41">
+        <f>0.3*AN13+0.6*AM13+0.05*AG13+0.05*W13</f>
+        <v>3.0054878917378911</v>
+      </c>
+    </row>
+    <row r="14" spans="1:41">
+      <c r="A14" s="37">
+        <v>1005894053</v>
+      </c>
+      <c r="B14" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="37">
+        <v>4</v>
+      </c>
+      <c r="F14" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="G14" s="37">
+        <v>3</v>
+      </c>
+      <c r="H14" s="37" t="str" cm="1">
+        <f t="array" ref="H14">_xlfn.IFS(G14=1, "2:00 PM", G14=2, "2:30 PM", G14=3, "3:00 PM", G14=4, "3:30 PM")</f>
+        <v>3:00 PM</v>
+      </c>
+      <c r="I14" s="40">
+        <v>3</v>
+      </c>
+      <c r="J14" s="37">
+        <v>3</v>
+      </c>
+      <c r="K14" s="41">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="L14" s="41">
+        <f>(J14/I14)*K14</f>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="M14" s="42">
+        <v>2.96</v>
+      </c>
+      <c r="N14" s="42"/>
+      <c r="O14" s="42">
+        <v>3.5</v>
+      </c>
+      <c r="P14" s="41">
+        <f>0.7*L14+0.2*M14+0.1*O14+N14</f>
+        <v>4.1619999999999999</v>
+      </c>
+      <c r="Q14" s="43">
+        <v>2.1342592592592594E-2</v>
+      </c>
+      <c r="R14" s="44">
+        <f>Q14/$R$2</f>
+        <v>1.0244444444444445</v>
+      </c>
+      <c r="S14" s="45">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="T14" s="44">
+        <f>S14/$T$2</f>
+        <v>1</v>
+      </c>
+      <c r="U14" s="44">
+        <v>1</v>
+      </c>
+      <c r="V14" s="46">
+        <v>1</v>
+      </c>
+      <c r="W14" s="52">
         <v>5</v>
       </c>
-      <c r="AF13" s="5">
+      <c r="X14" s="47">
         <v>5</v>
       </c>
-      <c r="AG13" s="5">
-        <f t="shared" si="7"/>
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="AH13" s="5">
+      <c r="Y14" s="47"/>
+      <c r="Z14" s="47"/>
+      <c r="AA14" s="47"/>
+      <c r="AB14" s="47"/>
+      <c r="AC14" s="47">
+        <f>AVERAGE(X14:AB14)</f>
+        <v>5</v>
+      </c>
+      <c r="AD14" s="41">
+        <v>4.5</v>
+      </c>
+      <c r="AE14" s="41">
+        <v>4</v>
+      </c>
+      <c r="AF14" s="41">
+        <v>4.666666666666667</v>
+      </c>
+      <c r="AG14" s="51">
+        <f>0.2*AF14+0.8*AVERAGE(AC14:AE14)</f>
+        <v>4.5333333333333332</v>
+      </c>
+      <c r="AH14" s="41">
         <v>4.8</v>
       </c>
-      <c r="AI13" s="5">
+      <c r="AI14" s="41">
+        <v>4.5</v>
+      </c>
+      <c r="AJ14" s="41">
+        <v>4.5</v>
+      </c>
+      <c r="AK14" s="41">
+        <v>3.5</v>
+      </c>
+      <c r="AL14" s="41">
+        <v>3</v>
+      </c>
+      <c r="AM14" s="51">
+        <f>AVERAGE(AH14:AL14)</f>
+        <v>4.0600000000000005</v>
+      </c>
+      <c r="AN14" s="51">
+        <v>4</v>
+      </c>
+      <c r="AO14" s="41">
+        <f>0.3*AN14+0.6*AM14+0.05*AG14+0.05*W14</f>
+        <v>4.1126666666666667</v>
+      </c>
+    </row>
+    <row r="15" spans="1:41" s="48" customFormat="1">
+      <c r="A15" s="3">
+        <v>1193073115</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="3">
+        <v>4</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G15" s="3">
+        <v>3</v>
+      </c>
+      <c r="H15" s="3" t="str" cm="1">
+        <f t="array" ref="H15">_xlfn.IFS(G15=1, "2:00 PM", G15=2, "2:30 PM", G15=3, "3:00 PM", G15=4, "3:30 PM")</f>
+        <v>3:00 PM</v>
+      </c>
+      <c r="I15" s="14">
+        <v>4</v>
+      </c>
+      <c r="J15" s="3">
+        <v>4</v>
+      </c>
+      <c r="K15" s="5">
         <v>4.8</v>
       </c>
-      <c r="AJ13" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="AK13" s="5">
+      <c r="L15" s="5">
+        <f>(J15/I15)*K15</f>
+        <v>4.8</v>
+      </c>
+      <c r="M15" s="12">
+        <v>2.96</v>
+      </c>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12">
+        <v>3.5</v>
+      </c>
+      <c r="P15" s="5">
+        <f>0.7*L15+0.2*M15+0.1*O15+N15</f>
+        <v>4.3019999999999996</v>
+      </c>
+      <c r="Q15" s="31">
+        <v>2.0532407407407409E-2</v>
+      </c>
+      <c r="R15" s="32">
+        <f>Q15/$R$2</f>
+        <v>0.98555555555555563</v>
+      </c>
+      <c r="S15" s="33">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="T15" s="32">
+        <f>S15/$T$2</f>
+        <v>1</v>
+      </c>
+      <c r="U15" s="32">
+        <v>1</v>
+      </c>
+      <c r="V15" s="34">
+        <v>1</v>
+      </c>
+      <c r="W15" s="12">
+        <f>AVERAGE(R15,T15,V15)*5</f>
+        <v>4.9759259259259263</v>
+      </c>
+      <c r="X15" s="35">
         <v>5</v>
       </c>
-      <c r="AL13" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="AM13" s="5">
-        <f t="shared" si="5"/>
-        <v>4.7200000000000006</v>
-      </c>
-      <c r="AN13" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="AO13" s="5">
-        <f t="shared" si="6"/>
-        <v>4.6372777777777783</v>
-      </c>
-    </row>
-    <row r="14" spans="1:41">
-      <c r="A14" s="3">
-        <v>1081728000</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="18" t="s">
+      <c r="Y15" s="35">
         <v>5</v>
       </c>
-      <c r="E14" s="3">
+      <c r="Z15" s="35">
+        <v>5</v>
+      </c>
+      <c r="AA15" s="35"/>
+      <c r="AB15" s="35"/>
+      <c r="AC15" s="35">
+        <f>AVERAGE(X15:AB15)</f>
+        <v>5</v>
+      </c>
+      <c r="AD15" s="5">
+        <v>5</v>
+      </c>
+      <c r="AE15" s="5">
+        <v>4</v>
+      </c>
+      <c r="AF15" s="5">
+        <v>4.833333333333333</v>
+      </c>
+      <c r="AG15" s="5">
+        <f>0.2*AF15+0.8*AVERAGE(AC15:AE15)</f>
+        <v>4.7</v>
+      </c>
+      <c r="AH15" s="5">
+        <v>4.8</v>
+      </c>
+      <c r="AI15" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="AJ15" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="AK15" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="AL15" s="5">
         <v>3</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G14" s="3">
-        <v>1</v>
-      </c>
-      <c r="H14" s="3" t="str" cm="1">
-        <f t="array" ref="H14">_xlfn.IFS(G14=1, "2:00 PM", G14=2, "2:30 PM", G14=3, "3:00 PM", G14=4, "3:30 PM")</f>
-        <v>2:00 PM</v>
-      </c>
-      <c r="I14" s="14">
-        <v>5</v>
-      </c>
-      <c r="J14" s="3">
-        <v>5</v>
-      </c>
-      <c r="K14" s="5">
-        <v>4.8</v>
-      </c>
-      <c r="L14" s="5">
-        <f t="shared" si="0"/>
-        <v>4.8</v>
-      </c>
-      <c r="M14" s="12">
-        <v>2.76</v>
-      </c>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12">
+      <c r="AM15" s="5">
+        <f>AVERAGE(AH15:AL15)</f>
+        <v>4.0600000000000005</v>
+      </c>
+      <c r="AN15" s="5">
+        <v>4</v>
+      </c>
+      <c r="AO15" s="5">
+        <f>0.3*AN15+0.6*AM15+0.05*AG15+0.05*W15</f>
+        <v>4.119796296296296</v>
+      </c>
+    </row>
+    <row r="16" spans="1:41">
+      <c r="A16" s="37">
+        <v>1193578885</v>
+      </c>
+      <c r="B16" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="37">
+        <v>4</v>
+      </c>
+      <c r="F16" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="G16" s="37">
         <v>3</v>
-      </c>
-      <c r="P14" s="5">
-        <f t="shared" si="1"/>
-        <v>4.2119999999999997</v>
-      </c>
-      <c r="Q14" s="31">
-        <v>9.9305555555555553E-3</v>
-      </c>
-      <c r="R14" s="32">
-        <f t="shared" si="2"/>
-        <v>0.47666666666666668</v>
-      </c>
-      <c r="S14" s="33">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="T14" s="32">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="U14" s="32">
-        <v>1</v>
-      </c>
-      <c r="V14" s="34">
-        <v>1</v>
-      </c>
-      <c r="W14" s="12">
-        <f t="shared" si="8"/>
-        <v>4.1277777777777773</v>
-      </c>
-      <c r="X14" s="35">
-        <v>2</v>
-      </c>
-      <c r="Y14" s="35"/>
-      <c r="Z14" s="35"/>
-      <c r="AA14" s="35">
-        <v>1</v>
-      </c>
-      <c r="AB14" s="35"/>
-      <c r="AC14" s="35">
-        <f t="shared" si="4"/>
-        <v>1.5</v>
-      </c>
-      <c r="AD14" s="5">
-        <v>4</v>
-      </c>
-      <c r="AE14" s="5">
-        <v>4</v>
-      </c>
-      <c r="AF14" s="5">
-        <v>4.615384615384615</v>
-      </c>
-      <c r="AG14" s="5">
-        <f t="shared" si="7"/>
-        <v>3.4564102564102561</v>
-      </c>
-      <c r="AH14" s="5">
-        <v>4</v>
-      </c>
-      <c r="AI14" s="5">
-        <v>4.7</v>
-      </c>
-      <c r="AJ14" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="AK14" s="5">
-        <v>4</v>
-      </c>
-      <c r="AL14" s="5">
-        <v>4.3</v>
-      </c>
-      <c r="AM14" s="5">
-        <f t="shared" si="5"/>
-        <v>4.3</v>
-      </c>
-      <c r="AN14" s="5">
-        <v>0</v>
-      </c>
-      <c r="AO14" s="5">
-        <f t="shared" si="6"/>
-        <v>2.9592094017094013</v>
-      </c>
-    </row>
-    <row r="15" spans="1:41" s="48" customFormat="1">
-      <c r="A15" s="37">
-        <v>1062274189</v>
-      </c>
-      <c r="B15" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="37">
-        <v>3</v>
-      </c>
-      <c r="F15" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="G15" s="37">
-        <v>1</v>
-      </c>
-      <c r="H15" s="37" t="str" cm="1">
-        <f t="array" ref="H15">_xlfn.IFS(G15=1, "2:00 PM", G15=2, "2:30 PM", G15=3, "3:00 PM", G15=4, "3:30 PM")</f>
-        <v>2:00 PM</v>
-      </c>
-      <c r="I15" s="40">
-        <v>5</v>
-      </c>
-      <c r="J15" s="37">
-        <v>3</v>
-      </c>
-      <c r="K15" s="41">
-        <v>4.5</v>
-      </c>
-      <c r="L15" s="41">
-        <f t="shared" si="0"/>
-        <v>2.6999999999999997</v>
-      </c>
-      <c r="M15" s="42">
-        <v>2.76</v>
-      </c>
-      <c r="N15" s="42"/>
-      <c r="O15" s="42">
-        <v>3</v>
-      </c>
-      <c r="P15" s="41">
-        <f t="shared" si="1"/>
-        <v>2.742</v>
-      </c>
-      <c r="Q15" s="43">
-        <v>1.8506944444444444E-2</v>
-      </c>
-      <c r="R15" s="44">
-        <f t="shared" si="2"/>
-        <v>0.88833333333333331</v>
-      </c>
-      <c r="S15" s="45">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="T15" s="44">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="U15" s="44">
-        <v>1</v>
-      </c>
-      <c r="V15" s="46">
-        <v>0.8</v>
-      </c>
-      <c r="W15" s="52">
-        <f t="shared" si="8"/>
-        <v>4.4805555555555561</v>
-      </c>
-      <c r="X15" s="47">
-        <v>2</v>
-      </c>
-      <c r="Y15" s="47">
-        <v>1</v>
-      </c>
-      <c r="Z15" s="47"/>
-      <c r="AA15" s="47">
-        <v>3</v>
-      </c>
-      <c r="AB15" s="47"/>
-      <c r="AC15" s="47">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="AD15" s="41">
-        <v>4</v>
-      </c>
-      <c r="AE15" s="41">
-        <v>4</v>
-      </c>
-      <c r="AF15" s="41">
-        <v>4.7692307692307692</v>
-      </c>
-      <c r="AG15" s="51">
-        <f t="shared" si="7"/>
-        <v>3.620512820512821</v>
-      </c>
-      <c r="AH15" s="41">
-        <v>4</v>
-      </c>
-      <c r="AI15" s="41">
-        <v>4.7</v>
-      </c>
-      <c r="AJ15" s="41">
-        <v>4.5</v>
-      </c>
-      <c r="AK15" s="41">
-        <v>4</v>
-      </c>
-      <c r="AL15" s="41">
-        <v>4.3</v>
-      </c>
-      <c r="AM15" s="51">
-        <f t="shared" si="5"/>
-        <v>4.3</v>
-      </c>
-      <c r="AN15" s="51">
-        <v>0</v>
-      </c>
-      <c r="AO15" s="41">
-        <f t="shared" si="6"/>
-        <v>2.9850534188034183</v>
-      </c>
-    </row>
-    <row r="16" spans="1:41" ht="15.75">
-      <c r="A16" s="37">
-        <v>1007603017</v>
-      </c>
-      <c r="B16" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="37">
-        <v>3</v>
-      </c>
-      <c r="F16" s="49" t="s">
-        <v>79</v>
-      </c>
-      <c r="G16" s="37">
-        <v>1</v>
       </c>
       <c r="H16" s="37" t="str" cm="1">
         <f t="array" ref="H16">_xlfn.IFS(G16=1, "2:00 PM", G16=2, "2:30 PM", G16=3, "3:00 PM", G16=4, "3:30 PM")</f>
-        <v>2:00 PM</v>
+        <v>3:00 PM</v>
       </c>
       <c r="I16" s="40">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J16" s="37">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K16" s="41">
-        <v>4.8</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="L16" s="41">
-        <f t="shared" si="0"/>
-        <v>4.8</v>
+        <f>(J16/I16)*K16</f>
+        <v>4.5999999999999996</v>
       </c>
       <c r="M16" s="42">
-        <v>2.76</v>
+        <v>2.96</v>
       </c>
       <c r="N16" s="42"/>
       <c r="O16" s="42">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P16" s="41">
-        <f t="shared" si="1"/>
-        <v>4.2119999999999997</v>
+        <f>0.7*L16+0.2*M16+0.1*O16+N16</f>
+        <v>4.1619999999999999</v>
       </c>
       <c r="Q16" s="43">
-        <v>1.8159722222222223E-2</v>
+        <v>1.951388888888889E-2</v>
       </c>
       <c r="R16" s="44">
-        <f t="shared" si="2"/>
-        <v>0.8716666666666667</v>
+        <f>Q16/$R$2</f>
+        <v>0.93666666666666676</v>
       </c>
       <c r="S16" s="45">
-        <v>2.0833333333333332E-2</v>
+        <v>0</v>
       </c>
       <c r="T16" s="44">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f>S16/$T$2</f>
+        <v>0</v>
       </c>
       <c r="U16" s="44">
         <v>1</v>
@@ -3127,507 +3131,487 @@
         <v>1</v>
       </c>
       <c r="W16" s="52">
-        <f t="shared" si="8"/>
-        <v>4.7861111111111114</v>
-      </c>
-      <c r="X16" s="47">
-        <v>4</v>
-      </c>
+        <f>AVERAGE(R16,T16,V16)*5</f>
+        <v>3.2277777777777779</v>
+      </c>
+      <c r="X16" s="47"/>
       <c r="Y16" s="47"/>
       <c r="Z16" s="47"/>
-      <c r="AA16" s="47">
-        <v>5</v>
-      </c>
+      <c r="AA16" s="47"/>
       <c r="AB16" s="47"/>
       <c r="AC16" s="47">
-        <f t="shared" si="4"/>
-        <v>4.5</v>
-      </c>
-      <c r="AD16" s="41">
-        <v>4</v>
-      </c>
-      <c r="AE16" s="41">
-        <v>4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AD16" s="41"/>
+      <c r="AE16" s="41"/>
       <c r="AF16" s="41">
-        <v>4.615384615384615</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="AG16" s="51">
-        <f t="shared" si="7"/>
-        <v>4.2564102564102573</v>
+        <f>0.2*AF16+0.8*AVERAGE(AC16:AE16)</f>
+        <v>0.46666666666666673</v>
       </c>
       <c r="AH16" s="41">
-        <v>4</v>
+        <v>4.8</v>
       </c>
       <c r="AI16" s="41">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="AJ16" s="41">
         <v>4.5</v>
       </c>
       <c r="AK16" s="41">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="AL16" s="41">
-        <v>4.3</v>
+        <v>3</v>
       </c>
       <c r="AM16" s="51">
-        <f t="shared" si="5"/>
-        <v>4.3</v>
+        <f>AVERAGE(AH16:AL16)</f>
+        <v>4.0600000000000005</v>
       </c>
       <c r="AN16" s="51">
-        <v>0</v>
-      </c>
-      <c r="AO16" s="41">
-        <f t="shared" si="6"/>
-        <v>3.0321260683760682</v>
+        <v>4</v>
+      </c>
+      <c r="AO16" s="36">
+        <f>0.3*AN16+0.7*AM16</f>
+        <v>4.0419999999999998</v>
       </c>
     </row>
     <row r="17" spans="1:41" s="48" customFormat="1">
       <c r="A17" s="3">
-        <v>1219713263</v>
+        <v>1025642375</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E17" s="3">
+        <v>4</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G17" s="3">
         <v>3</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G17" s="3">
-        <v>1</v>
       </c>
       <c r="H17" s="3" t="str" cm="1">
         <f t="array" ref="H17">_xlfn.IFS(G17=1, "2:00 PM", G17=2, "2:30 PM", G17=3, "3:00 PM", G17=4, "3:30 PM")</f>
-        <v>2:00 PM</v>
+        <v>3:00 PM</v>
       </c>
       <c r="I17" s="14">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J17" s="3">
-        <v>6</v>
-      </c>
-      <c r="K17" s="5">
-        <v>4.9000000000000004</v>
+        <v>5</v>
+      </c>
+      <c r="K17" s="3">
+        <v>4.7</v>
       </c>
       <c r="L17" s="5">
-        <f t="shared" si="0"/>
-        <v>4.9000000000000004</v>
+        <f>(J17/I17)*K17</f>
+        <v>4.7</v>
       </c>
       <c r="M17" s="12">
-        <v>2.76</v>
+        <v>2.96</v>
       </c>
       <c r="N17" s="12"/>
       <c r="O17" s="12">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P17" s="5">
-        <f t="shared" si="1"/>
-        <v>4.282</v>
+        <f>0.7*L17+0.2*M17+0.1*O17+N17</f>
+        <v>4.2320000000000002</v>
       </c>
       <c r="Q17" s="31">
-        <v>0</v>
+        <v>2.0243055555555556E-2</v>
       </c>
       <c r="R17" s="32">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>Q17/$R$2</f>
+        <v>0.97166666666666668</v>
       </c>
       <c r="S17" s="33">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="T17" s="32">
-        <f t="shared" si="3"/>
+        <f>S17/$T$2</f>
         <v>1</v>
       </c>
       <c r="U17" s="32">
         <v>1</v>
       </c>
       <c r="V17" s="34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W17" s="12">
-        <v>3</v>
-      </c>
-      <c r="X17" s="35">
-        <v>2</v>
-      </c>
-      <c r="Y17" s="35">
-        <v>1</v>
-      </c>
+        <f>AVERAGE(R17,T17,V17)*5</f>
+        <v>4.9527777777777775</v>
+      </c>
+      <c r="X17" s="35"/>
+      <c r="Y17" s="35"/>
       <c r="Z17" s="35"/>
-      <c r="AA17" s="35">
-        <v>3</v>
-      </c>
+      <c r="AA17" s="35"/>
       <c r="AB17" s="35"/>
       <c r="AC17" s="35">
-        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AD17" s="5"/>
+      <c r="AE17" s="5"/>
+      <c r="AF17" s="5">
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="AG17" s="5">
+        <f>0.2*AF17+0.8*AVERAGE(AC17:AE17)</f>
+        <v>0.46666666666666673</v>
+      </c>
+      <c r="AH17" s="5">
+        <v>4.8</v>
+      </c>
+      <c r="AI17" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="AJ17" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="AK17" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="AL17" s="5">
+        <v>3</v>
+      </c>
+      <c r="AM17" s="5">
+        <f>AVERAGE(AH17:AL17)</f>
+        <v>4.0600000000000005</v>
+      </c>
+      <c r="AN17" s="5">
+        <v>4</v>
+      </c>
+      <c r="AO17" s="36">
+        <f>0.3*AN17+0.7*AM17</f>
+        <v>4.0419999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:41">
+      <c r="A18" s="3">
+        <v>1107836732</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G18" s="3">
+        <v>4</v>
+      </c>
+      <c r="H18" s="3" t="str" cm="1">
+        <f t="array" ref="H18">_xlfn.IFS(G18=1, "2:00 PM", G18=2, "2:30 PM", G18=3, "3:00 PM", G18=4, "3:30 PM")</f>
+        <v>3:30 PM</v>
+      </c>
+      <c r="I18" s="14">
+        <v>3</v>
+      </c>
+      <c r="J18" s="3">
+        <v>3</v>
+      </c>
+      <c r="K18" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="L18" s="5">
+        <f>(J18/I18)*K18</f>
+        <v>4.5</v>
+      </c>
+      <c r="M18" s="12">
+        <v>3.59</v>
+      </c>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="P18" s="5">
+        <f>0.7*L18+0.2*M18+0.1*O18+N18</f>
+        <v>4.3179999999999996</v>
+      </c>
+      <c r="Q18" s="31">
+        <v>1.474537037037037E-2</v>
+      </c>
+      <c r="R18" s="32">
+        <f>Q18/$R$2</f>
+        <v>0.70777777777777784</v>
+      </c>
+      <c r="S18" s="33">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="T18" s="32">
+        <f>S18/$T$2</f>
+        <v>1</v>
+      </c>
+      <c r="U18" s="32">
+        <v>1</v>
+      </c>
+      <c r="V18" s="34">
+        <v>1</v>
+      </c>
+      <c r="W18" s="12">
+        <f>AVERAGE(R18,T18,V18)*5</f>
+        <v>4.5129629629629626</v>
+      </c>
+      <c r="X18" s="35"/>
+      <c r="Y18" s="35"/>
+      <c r="Z18" s="35"/>
+      <c r="AA18" s="35">
+        <v>4</v>
+      </c>
+      <c r="AB18" s="35"/>
+      <c r="AC18" s="35">
+        <f>AVERAGE(X18:AB18)</f>
+        <v>4</v>
+      </c>
+      <c r="AD18" s="5">
+        <v>4</v>
+      </c>
+      <c r="AE18" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="5">
+        <v>4.0769230769230766</v>
+      </c>
+      <c r="AG18" s="5">
+        <f>0.3*AF18+0.7*AVERAGE(AC18:AE18)</f>
+        <v>3.0897435897435894</v>
+      </c>
+      <c r="AH18" s="5">
+        <v>4.3</v>
+      </c>
+      <c r="AI18" s="5">
+        <v>4</v>
+      </c>
+      <c r="AJ18" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="AK18" s="5">
+        <v>4.8</v>
+      </c>
+      <c r="AL18" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="AM18" s="5">
+        <f>AVERAGE(AH18:AL18)</f>
+        <v>4.42</v>
+      </c>
+      <c r="AN18" s="5">
+        <v>4</v>
+      </c>
+      <c r="AO18" s="5">
+        <f>0.3*AN18+0.6*AM18+0.05*AG18+0.05*W18</f>
+        <v>4.2321353276353273</v>
+      </c>
+    </row>
+    <row r="19" spans="1:41" s="48" customFormat="1">
+      <c r="A19" s="3">
+        <v>1110364376</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="3">
+        <v>1</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G19" s="3">
+        <v>4</v>
+      </c>
+      <c r="H19" s="3" t="str" cm="1">
+        <f t="array" ref="H19">_xlfn.IFS(G19=1, "2:00 PM", G19=2, "2:30 PM", G19=3, "3:00 PM", G19=4, "3:30 PM")</f>
+        <v>3:30 PM</v>
+      </c>
+      <c r="I19" s="14">
+        <v>3</v>
+      </c>
+      <c r="J19" s="3">
+        <v>3</v>
+      </c>
+      <c r="K19" s="3">
+        <v>4.8</v>
+      </c>
+      <c r="L19" s="5">
+        <f>(J19/I19)*K19</f>
+        <v>4.8</v>
+      </c>
+      <c r="M19" s="12">
+        <v>3.59</v>
+      </c>
+      <c r="N19" s="12">
+        <f>1/16</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="O19" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="P19" s="5">
+        <f>0.7*L19+0.2*M19+0.1*O19+N19</f>
+        <v>4.5904999999999996</v>
+      </c>
+      <c r="Q19" s="31">
+        <v>1.412037037037037E-2</v>
+      </c>
+      <c r="R19" s="32">
+        <f>Q19/$R$2</f>
+        <v>0.67777777777777781</v>
+      </c>
+      <c r="S19" s="33">
+        <v>0</v>
+      </c>
+      <c r="T19" s="32">
+        <f>S19/$T$2</f>
+        <v>0</v>
+      </c>
+      <c r="U19" s="32">
+        <v>1</v>
+      </c>
+      <c r="V19" s="34">
+        <v>0</v>
+      </c>
+      <c r="W19" s="12">
+        <v>3</v>
+      </c>
+      <c r="X19" s="35"/>
+      <c r="Y19" s="35">
         <v>2</v>
       </c>
-      <c r="AD17" s="5">
-        <v>4</v>
-      </c>
-      <c r="AE17" s="5">
-        <v>4</v>
-      </c>
-      <c r="AF17" s="5">
-        <v>4.5384615384615383</v>
-      </c>
-      <c r="AG17" s="5">
-        <f t="shared" si="7"/>
-        <v>3.5743589743589745</v>
-      </c>
-      <c r="AH17" s="5">
-        <v>4</v>
-      </c>
-      <c r="AI17" s="5">
-        <v>4.7</v>
-      </c>
-      <c r="AJ17" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="AK17" s="5">
-        <v>4</v>
-      </c>
-      <c r="AL17" s="5">
+      <c r="Z19" s="35">
+        <v>2</v>
+      </c>
+      <c r="AA19" s="35"/>
+      <c r="AB19" s="35"/>
+      <c r="AC19" s="35">
+        <f>AVERAGE(X19:AB19)</f>
+        <v>2</v>
+      </c>
+      <c r="AD19" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="AE19" s="5">
+        <v>4</v>
+      </c>
+      <c r="AF19" s="5">
+        <v>4.9230769230769234</v>
+      </c>
+      <c r="AG19" s="5">
+        <f>0.2*AF19+0.8*AVERAGE(AC19:AE19)</f>
+        <v>3.7846153846153849</v>
+      </c>
+      <c r="AH19" s="5">
         <v>4.3</v>
       </c>
-      <c r="AM17" s="5">
-        <f t="shared" si="5"/>
-        <v>4.3</v>
-      </c>
-      <c r="AN17" s="5">
-        <v>0</v>
-      </c>
-      <c r="AO17" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:41">
-      <c r="A18" s="37">
-        <v>1110363454</v>
-      </c>
-      <c r="B18" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" s="37">
-        <v>3</v>
-      </c>
-      <c r="F18" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="G18" s="37">
-        <v>1</v>
-      </c>
-      <c r="H18" s="37" t="str" cm="1">
-        <f t="array" ref="H18">_xlfn.IFS(G18=1, "2:00 PM", G18=2, "2:30 PM", G18=3, "3:00 PM", G18=4, "3:30 PM")</f>
-        <v>2:00 PM</v>
-      </c>
-      <c r="I18" s="40">
-        <v>6</v>
-      </c>
-      <c r="J18" s="37">
-        <v>6</v>
-      </c>
-      <c r="K18" s="41">
+      <c r="AI19" s="5">
+        <v>4</v>
+      </c>
+      <c r="AJ19" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="AK19" s="5">
         <v>4.8</v>
       </c>
-      <c r="L18" s="41">
-        <f t="shared" si="0"/>
-        <v>4.8</v>
-      </c>
-      <c r="M18" s="42">
-        <v>2.76</v>
-      </c>
-      <c r="N18" s="42">
-        <f>1/13</f>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="O18" s="42">
-        <v>3</v>
-      </c>
-      <c r="P18" s="41">
-        <f t="shared" si="1"/>
-        <v>4.2889230769230764</v>
-      </c>
-      <c r="Q18" s="43">
-        <v>1.1863425925925927E-2</v>
-      </c>
-      <c r="R18" s="44">
-        <f t="shared" si="2"/>
-        <v>0.56944444444444453</v>
-      </c>
-      <c r="S18" s="45">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="T18" s="44">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="U18" s="44">
-        <v>1</v>
-      </c>
-      <c r="V18" s="46">
-        <v>1</v>
-      </c>
-      <c r="W18" s="52">
-        <f>AVERAGE(R18,T18,V18)*5</f>
-        <v>4.2824074074074074</v>
-      </c>
-      <c r="X18" s="47">
-        <v>5</v>
-      </c>
-      <c r="Y18" s="47">
-        <v>3</v>
-      </c>
-      <c r="Z18" s="47"/>
-      <c r="AA18" s="47">
-        <v>5</v>
-      </c>
-      <c r="AB18" s="47"/>
-      <c r="AC18" s="47">
-        <f t="shared" si="4"/>
-        <v>4.333333333333333</v>
-      </c>
-      <c r="AD18" s="41">
-        <v>4</v>
-      </c>
-      <c r="AE18" s="41">
-        <v>4</v>
-      </c>
-      <c r="AF18" s="41">
-        <v>4.6923076923076925</v>
-      </c>
-      <c r="AG18" s="51">
-        <f t="shared" si="7"/>
-        <v>4.2273504273504274</v>
-      </c>
-      <c r="AH18" s="41">
-        <v>4</v>
-      </c>
-      <c r="AI18" s="41">
-        <v>4.7</v>
-      </c>
-      <c r="AJ18" s="41">
-        <v>4.5</v>
-      </c>
-      <c r="AK18" s="41">
-        <v>4</v>
-      </c>
-      <c r="AL18" s="41">
-        <v>4.3</v>
-      </c>
-      <c r="AM18" s="51">
-        <f t="shared" si="5"/>
-        <v>4.3</v>
-      </c>
-      <c r="AN18" s="51">
-        <v>0</v>
-      </c>
-      <c r="AO18" s="41">
-        <f>0.3*AN18+0.6*AM18+0.05*AG18+0.05*W18</f>
-        <v>3.0054878917378911</v>
-      </c>
-    </row>
-    <row r="19" spans="1:41" s="48" customFormat="1">
-      <c r="A19" s="37">
-        <v>1005894053</v>
-      </c>
-      <c r="B19" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="E19" s="37">
-        <v>4</v>
-      </c>
-      <c r="F19" s="38" t="s">
-        <v>94</v>
-      </c>
-      <c r="G19" s="37">
-        <v>2</v>
-      </c>
-      <c r="H19" s="37" t="str" cm="1">
-        <f t="array" ref="H19">_xlfn.IFS(G19=1, "2:00 PM", G19=2, "2:30 PM", G19=3, "3:00 PM", G19=4, "3:30 PM")</f>
-        <v>2:30 PM</v>
-      </c>
-      <c r="I19" s="40">
-        <v>3</v>
-      </c>
-      <c r="J19" s="37">
-        <v>3</v>
-      </c>
-      <c r="K19" s="41">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="L19" s="41">
-        <f t="shared" si="0"/>
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="M19" s="42">
-        <v>2.96</v>
-      </c>
-      <c r="N19" s="42"/>
-      <c r="O19" s="42">
-        <v>3.5</v>
-      </c>
-      <c r="P19" s="41">
-        <f t="shared" si="1"/>
-        <v>4.1619999999999999</v>
-      </c>
-      <c r="Q19" s="43">
-        <v>2.1342592592592594E-2</v>
-      </c>
-      <c r="R19" s="44">
-        <f t="shared" si="2"/>
-        <v>1.0244444444444445</v>
-      </c>
-      <c r="S19" s="45">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="T19" s="44">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="U19" s="44">
-        <v>1</v>
-      </c>
-      <c r="V19" s="46">
-        <v>1</v>
-      </c>
-      <c r="W19" s="52">
-        <v>5</v>
-      </c>
-      <c r="X19" s="47">
-        <v>5</v>
-      </c>
-      <c r="Y19" s="47"/>
-      <c r="Z19" s="47"/>
-      <c r="AA19" s="47"/>
-      <c r="AB19" s="47"/>
-      <c r="AC19" s="47">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="AD19" s="41">
-        <v>4.5</v>
-      </c>
-      <c r="AE19" s="41">
-        <v>4</v>
-      </c>
-      <c r="AF19" s="41">
-        <v>4.666666666666667</v>
-      </c>
-      <c r="AG19" s="51">
-        <f t="shared" si="7"/>
-        <v>4.5333333333333332</v>
-      </c>
-      <c r="AH19" s="41">
-        <v>4.8</v>
-      </c>
-      <c r="AI19" s="41">
-        <v>4.5</v>
-      </c>
-      <c r="AJ19" s="41">
-        <v>4.5</v>
-      </c>
-      <c r="AK19" s="41">
-        <v>3.5</v>
-      </c>
-      <c r="AL19" s="41">
-        <v>3</v>
-      </c>
-      <c r="AM19" s="51">
-        <f t="shared" si="5"/>
-        <v>4.0600000000000005</v>
-      </c>
-      <c r="AN19" s="51">
-        <v>4</v>
-      </c>
-      <c r="AO19" s="41">
+      <c r="AL19" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="AM19" s="5">
+        <f>AVERAGE(AH19:AL19)</f>
+        <v>4.42</v>
+      </c>
+      <c r="AN19" s="5">
+        <v>4</v>
+      </c>
+      <c r="AO19" s="5">
         <f>0.3*AN19+0.6*AM19+0.05*AG19+0.05*W19</f>
-        <v>4.1126666666666667</v>
+        <v>4.1912307692307689</v>
       </c>
     </row>
     <row r="20" spans="1:41">
       <c r="A20" s="3">
-        <v>1193073115</v>
+        <v>1062329024</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E20" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G20" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H20" s="3" t="str" cm="1">
         <f t="array" ref="H20">_xlfn.IFS(G20=1, "2:00 PM", G20=2, "2:30 PM", G20=3, "3:00 PM", G20=4, "3:30 PM")</f>
-        <v>2:30 PM</v>
+        <v>3:30 PM</v>
       </c>
       <c r="I20" s="14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J20" s="3">
-        <v>4</v>
-      </c>
-      <c r="K20" s="5">
-        <v>4.8</v>
+        <v>5</v>
+      </c>
+      <c r="K20" s="3">
+        <v>4.5</v>
       </c>
       <c r="L20" s="5">
-        <f t="shared" si="0"/>
-        <v>4.8</v>
+        <f>(J20/I20)*K20</f>
+        <v>4.5</v>
       </c>
       <c r="M20" s="12">
-        <v>2.96</v>
+        <v>3.59</v>
       </c>
       <c r="N20" s="12"/>
       <c r="O20" s="12">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P20" s="5">
-        <f t="shared" si="1"/>
-        <v>4.3019999999999996</v>
+        <f>0.7*L20+0.2*M20+0.1*O20+N20</f>
+        <v>4.3179999999999996</v>
       </c>
       <c r="Q20" s="31">
-        <v>2.0532407407407409E-2</v>
+        <v>0</v>
       </c>
       <c r="R20" s="32">
-        <f t="shared" si="2"/>
-        <v>0.98555555555555563</v>
+        <f>Q20/$R$2</f>
+        <v>0</v>
       </c>
       <c r="S20" s="33">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="T20" s="32">
-        <f t="shared" si="3"/>
+        <f>S20/$T$2</f>
         <v>1</v>
       </c>
       <c r="U20" s="32">
@@ -3638,297 +3622,313 @@
       </c>
       <c r="W20" s="12">
         <f>AVERAGE(R20,T20,V20)*5</f>
-        <v>4.9759259259259263</v>
-      </c>
-      <c r="X20" s="35">
-        <v>5</v>
-      </c>
+        <v>3.333333333333333</v>
+      </c>
+      <c r="X20" s="35"/>
       <c r="Y20" s="35">
         <v>5</v>
       </c>
       <c r="Z20" s="35">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AA20" s="35"/>
       <c r="AB20" s="35"/>
       <c r="AC20" s="35">
-        <f t="shared" si="4"/>
-        <v>5</v>
+        <f>AVERAGE(X20:AB20)</f>
+        <v>2.5</v>
       </c>
       <c r="AD20" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE20" s="5">
         <v>4</v>
       </c>
       <c r="AF20" s="5">
-        <v>4.833333333333333</v>
+        <v>3.8461538461538463</v>
       </c>
       <c r="AG20" s="5">
-        <f t="shared" si="7"/>
-        <v>4.7</v>
+        <f>0.2*AF20+0.8*AVERAGE(AC20:AE20)</f>
+        <v>3.3025641025641024</v>
       </c>
       <c r="AH20" s="5">
+        <v>4.3</v>
+      </c>
+      <c r="AI20" s="5">
+        <v>4</v>
+      </c>
+      <c r="AJ20" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="AK20" s="5">
         <v>4.8</v>
       </c>
-      <c r="AI20" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="AJ20" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="AK20" s="5">
-        <v>3.5</v>
-      </c>
       <c r="AL20" s="5">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="AM20" s="5">
-        <f t="shared" si="5"/>
-        <v>4.0600000000000005</v>
+        <f>AVERAGE(AH20:AL20)</f>
+        <v>4.42</v>
       </c>
       <c r="AN20" s="5">
         <v>4</v>
       </c>
       <c r="AO20" s="5">
         <f>0.3*AN20+0.6*AM20+0.05*AG20+0.05*W20</f>
-        <v>4.119796296296296</v>
+        <v>4.1837948717948716</v>
       </c>
     </row>
     <row r="21" spans="1:41" s="48" customFormat="1">
-      <c r="A21" s="37">
-        <v>1193578885</v>
-      </c>
-      <c r="B21" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="D21" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" s="37">
-        <v>4</v>
-      </c>
-      <c r="F21" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="G21" s="37">
+      <c r="A21" s="3">
+        <v>1005967544</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G21" s="3">
+        <v>4</v>
+      </c>
+      <c r="H21" s="3" t="str" cm="1">
+        <f t="array" ref="H21">_xlfn.IFS(G21=1, "2:00 PM", G21=2, "2:30 PM", G21=3, "3:00 PM", G21=4, "3:30 PM")</f>
+        <v>3:30 PM</v>
+      </c>
+      <c r="I21" s="14">
+        <v>1</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1</v>
+      </c>
+      <c r="K21" s="3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="L21" s="5">
+        <f>(J21/I21)*K21</f>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="M21" s="12">
+        <v>3.59</v>
+      </c>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="P21" s="5">
+        <f>0.7*L21+0.2*M21+0.1*O21+N21</f>
+        <v>4.3879999999999999</v>
+      </c>
+      <c r="Q21" s="31">
+        <v>1.3935185185185186E-2</v>
+      </c>
+      <c r="R21" s="32">
+        <f>Q21/$R$2</f>
+        <v>0.66888888888888898</v>
+      </c>
+      <c r="S21" s="33">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="T21" s="32">
+        <f>S21/$T$2</f>
+        <v>1</v>
+      </c>
+      <c r="U21" s="32">
+        <v>1</v>
+      </c>
+      <c r="V21" s="34">
+        <v>1</v>
+      </c>
+      <c r="W21" s="12">
+        <f>AVERAGE(R21,T21,V21)*5</f>
+        <v>4.4481481481481486</v>
+      </c>
+      <c r="X21" s="35"/>
+      <c r="Y21" s="35">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="35"/>
+      <c r="AA21" s="35">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="35"/>
+      <c r="AC21" s="35">
+        <f>AVERAGE(X21:AB21)</f>
+        <v>0</v>
+      </c>
+      <c r="AD21" s="5">
+        <v>4</v>
+      </c>
+      <c r="AE21" s="5">
+        <v>4</v>
+      </c>
+      <c r="AF21" s="5">
+        <v>4.916666666666667</v>
+      </c>
+      <c r="AG21" s="5">
+        <f>0.2*AF21+0.8*AVERAGE(AC21:AE21)</f>
+        <v>3.1166666666666667</v>
+      </c>
+      <c r="AH21" s="5">
+        <v>4.3</v>
+      </c>
+      <c r="AI21" s="5">
+        <v>4</v>
+      </c>
+      <c r="AJ21" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="AK21" s="5">
+        <v>4.8</v>
+      </c>
+      <c r="AL21" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="AM21" s="5">
+        <f>AVERAGE(AH21:AL21)</f>
+        <v>4.42</v>
+      </c>
+      <c r="AN21" s="5">
+        <v>4</v>
+      </c>
+      <c r="AO21" s="5">
+        <f>0.3*AN21+0.6*AM21+0.05*AG21+0.05*W21</f>
+        <v>4.230240740740741</v>
+      </c>
+    </row>
+    <row r="22" spans="1:41">
+      <c r="A22" s="37">
+        <v>1126644560</v>
+      </c>
+      <c r="B22" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="37">
+        <v>1</v>
+      </c>
+      <c r="F22" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="G22" s="37">
+        <v>4</v>
+      </c>
+      <c r="H22" s="37" t="str" cm="1">
+        <f t="array" ref="H22">_xlfn.IFS(G22=1, "2:00 PM", G22=2, "2:30 PM", G22=3, "3:00 PM", G22=4, "3:30 PM")</f>
+        <v>3:30 PM</v>
+      </c>
+      <c r="I22" s="40">
+        <v>4</v>
+      </c>
+      <c r="J22" s="37">
+        <v>4</v>
+      </c>
+      <c r="K22" s="37">
+        <v>4.8</v>
+      </c>
+      <c r="L22" s="41">
+        <f>(J22/I22)*K22</f>
+        <v>4.8</v>
+      </c>
+      <c r="M22" s="42">
+        <v>3.59</v>
+      </c>
+      <c r="N22" s="42"/>
+      <c r="O22" s="42">
+        <v>4.5</v>
+      </c>
+      <c r="P22" s="41">
+        <f>0.7*L22+0.2*M22+0.1*O22+N22</f>
+        <v>4.5279999999999996</v>
+      </c>
+      <c r="Q22" s="43">
+        <v>1.6342592592592593E-2</v>
+      </c>
+      <c r="R22" s="44">
+        <f>Q22/$R$2</f>
+        <v>0.7844444444444445</v>
+      </c>
+      <c r="S22" s="45">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="T22" s="44">
+        <f>S22/$T$2</f>
+        <v>1</v>
+      </c>
+      <c r="U22" s="44">
+        <v>1</v>
+      </c>
+      <c r="V22" s="46">
+        <v>1</v>
+      </c>
+      <c r="W22" s="52">
+        <f>AVERAGE(R22,T22,V22)*5</f>
+        <v>4.6407407407407408</v>
+      </c>
+      <c r="X22" s="47"/>
+      <c r="Y22" s="47">
+        <v>4</v>
+      </c>
+      <c r="Z22" s="47">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="47"/>
+      <c r="AB22" s="47"/>
+      <c r="AC22" s="47">
+        <f>AVERAGE(X22:AB22)</f>
         <v>2</v>
       </c>
-      <c r="H21" s="37" t="str" cm="1">
-        <f t="array" ref="H21">_xlfn.IFS(G21=1, "2:00 PM", G21=2, "2:30 PM", G21=3, "3:00 PM", G21=4, "3:30 PM")</f>
-        <v>2:30 PM</v>
-      </c>
-      <c r="I21" s="40">
-        <v>4</v>
-      </c>
-      <c r="J21" s="37">
-        <v>4</v>
-      </c>
-      <c r="K21" s="41">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="L21" s="41">
-        <f t="shared" si="0"/>
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="M21" s="42">
-        <v>2.96</v>
-      </c>
-      <c r="N21" s="42"/>
-      <c r="O21" s="42">
-        <v>3.5</v>
-      </c>
-      <c r="P21" s="41">
-        <f t="shared" si="1"/>
-        <v>4.1619999999999999</v>
-      </c>
-      <c r="Q21" s="43">
-        <v>1.951388888888889E-2</v>
-      </c>
-      <c r="R21" s="44">
-        <f t="shared" si="2"/>
-        <v>0.93666666666666676</v>
-      </c>
-      <c r="S21" s="45">
+      <c r="AD22" s="41">
+        <v>4.5</v>
+      </c>
+      <c r="AE22" s="41">
+        <v>4</v>
+      </c>
+      <c r="AF22" s="41">
+        <v>5</v>
+      </c>
+      <c r="AG22" s="51">
+        <f>0.2*AF22+0.8*AVERAGE(AC22:AE22)</f>
+        <v>3.8000000000000003</v>
+      </c>
+      <c r="AH22" s="41">
+        <v>4.3</v>
+      </c>
+      <c r="AI22" s="41">
+        <v>4</v>
+      </c>
+      <c r="AJ22" s="41">
+        <v>4.5</v>
+      </c>
+      <c r="AK22" s="41">
+        <v>4.8</v>
+      </c>
+      <c r="AL22" s="41">
+        <v>4.5</v>
+      </c>
+      <c r="AM22" s="51">
+        <f>AVERAGE(AH22:AL22)</f>
+        <v>4.42</v>
+      </c>
+      <c r="AN22" s="51">
         <v>0</v>
       </c>
-      <c r="T21" s="44">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U21" s="44">
-        <v>1</v>
-      </c>
-      <c r="V21" s="46">
-        <v>1</v>
-      </c>
-      <c r="W21" s="52">
-        <f>AVERAGE(R21,T21,V21)*5</f>
-        <v>3.2277777777777779</v>
-      </c>
-      <c r="X21" s="47"/>
-      <c r="Y21" s="47"/>
-      <c r="Z21" s="47"/>
-      <c r="AA21" s="47"/>
-      <c r="AB21" s="47"/>
-      <c r="AC21" s="47">
-        <v>0</v>
-      </c>
-      <c r="AD21" s="41"/>
-      <c r="AE21" s="41"/>
-      <c r="AF21" s="41">
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="AG21" s="51">
-        <f t="shared" si="7"/>
-        <v>0.46666666666666673</v>
-      </c>
-      <c r="AH21" s="41">
-        <v>4.8</v>
-      </c>
-      <c r="AI21" s="41">
-        <v>4.5</v>
-      </c>
-      <c r="AJ21" s="41">
-        <v>4.5</v>
-      </c>
-      <c r="AK21" s="41">
-        <v>3.5</v>
-      </c>
-      <c r="AL21" s="41">
-        <v>3</v>
-      </c>
-      <c r="AM21" s="51">
-        <f t="shared" si="5"/>
-        <v>4.0600000000000005</v>
-      </c>
-      <c r="AN21" s="51">
-        <v>4</v>
-      </c>
-      <c r="AO21" s="36">
-        <f>0.3*AN21+0.7*AM21</f>
-        <v>4.0419999999999998</v>
-      </c>
-    </row>
-    <row r="22" spans="1:41">
-      <c r="A22" s="3">
-        <v>1025642375</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" s="3">
-        <v>4</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G22" s="3">
-        <v>2</v>
-      </c>
-      <c r="H22" s="3" t="str" cm="1">
-        <f t="array" ref="H22">_xlfn.IFS(G22=1, "2:00 PM", G22=2, "2:30 PM", G22=3, "3:00 PM", G22=4, "3:30 PM")</f>
-        <v>2:30 PM</v>
-      </c>
-      <c r="I22" s="14">
-        <v>5</v>
-      </c>
-      <c r="J22" s="3">
-        <v>5</v>
-      </c>
-      <c r="K22" s="3">
-        <v>4.7</v>
-      </c>
-      <c r="L22" s="5">
-        <f t="shared" si="0"/>
-        <v>4.7</v>
-      </c>
-      <c r="M22" s="12">
-        <v>2.96</v>
-      </c>
-      <c r="N22" s="12"/>
-      <c r="O22" s="12">
-        <v>3.5</v>
-      </c>
-      <c r="P22" s="5">
-        <f t="shared" si="1"/>
-        <v>4.2320000000000002</v>
-      </c>
-      <c r="Q22" s="31">
-        <v>2.0243055555555556E-2</v>
-      </c>
-      <c r="R22" s="32">
-        <f t="shared" si="2"/>
-        <v>0.97166666666666668</v>
-      </c>
-      <c r="S22" s="33">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="T22" s="32">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="U22" s="32">
-        <v>1</v>
-      </c>
-      <c r="V22" s="34">
-        <v>1</v>
-      </c>
-      <c r="W22" s="12">
-        <f>AVERAGE(R22,T22,V22)*5</f>
-        <v>4.9527777777777775</v>
-      </c>
-      <c r="X22" s="35"/>
-      <c r="Y22" s="35"/>
-      <c r="Z22" s="35"/>
-      <c r="AA22" s="35"/>
-      <c r="AB22" s="35"/>
-      <c r="AC22" s="35">
-        <v>0</v>
-      </c>
-      <c r="AD22" s="5"/>
-      <c r="AE22" s="5"/>
-      <c r="AF22" s="5">
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="AG22" s="5">
-        <f t="shared" si="7"/>
-        <v>0.46666666666666673</v>
-      </c>
-      <c r="AH22" s="5">
-        <v>4.8</v>
-      </c>
-      <c r="AI22" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="AJ22" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="AK22" s="5">
-        <v>3.5</v>
-      </c>
-      <c r="AL22" s="5">
-        <v>3</v>
-      </c>
-      <c r="AM22" s="5">
-        <f t="shared" si="5"/>
-        <v>4.0600000000000005</v>
-      </c>
-      <c r="AN22" s="5">
-        <v>4</v>
-      </c>
-      <c r="AO22" s="36">
-        <f>0.3*AN22+0.7*AM22</f>
-        <v>4.0419999999999998</v>
+      <c r="AO22" s="41">
+        <f>0.3*AN22+0.6*AM22+0.05*AG22+0.05*W22</f>
+        <v>3.0740370370370367</v>
       </c>
     </row>
     <row r="23" spans="1:41" s="48" customFormat="1">
@@ -3989,7 +3989,7 @@
         <v>0</v>
       </c>
       <c r="AG23" s="51">
-        <f t="shared" si="7"/>
+        <f>0.2*AF23+0.8*AVERAGE(AC23:AE23)</f>
         <v>0</v>
       </c>
       <c r="AH23" s="41">
@@ -4039,7 +4039,7 @@
   </sheetData>
   <autoFilter ref="A3:AO3" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:AO23">
-      <sortCondition ref="E3"/>
+      <sortCondition ref="G3"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="P4:P23">

--- a/academics/DB2/2025-2/DB2 2025-2.xlsx
+++ b/academics/DB2/2025-2/DB2 2025-2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\oicampo\Documents\GitHub\oicampo-uao.github.io\academics\DB2\2025-2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\UAO\oicampo-uao.github.io\academics\DB2\2025-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AC96114-0E1E-4649-A64D-E4D91043835C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2068B46-F52A-406F-8CCF-DF17B1A39C78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Hoja1!$A$1:$B$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$AO$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$AQ$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="148">
   <si>
     <t>email</t>
   </si>
@@ -779,7 +779,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -910,6 +910,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1300,13 +1301,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AO27"/>
+  <dimension ref="A1:AQ27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="AR7" sqref="AR7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="35.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="35.5703125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.140625" customWidth="1"/>
@@ -1315,40 +1316,42 @@
     <col min="5" max="5" width="6.42578125" style="1" customWidth="1"/>
     <col min="6" max="6" width="13.85546875" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="6.140625" style="1" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="7.85546875" customWidth="1"/>
-    <col min="9" max="9" width="4.42578125" style="15" customWidth="1"/>
-    <col min="10" max="10" width="3.140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="4" style="1" customWidth="1"/>
-    <col min="12" max="12" width="3.5703125" customWidth="1"/>
-    <col min="13" max="13" width="4.5703125" style="13" customWidth="1"/>
-    <col min="14" max="14" width="6.42578125" style="13" customWidth="1"/>
-    <col min="15" max="15" width="5.42578125" style="13" customWidth="1"/>
-    <col min="16" max="16" width="6.7109375" customWidth="1"/>
-    <col min="17" max="17" width="12.5703125" customWidth="1"/>
-    <col min="18" max="18" width="11.5703125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="12.5703125" customWidth="1"/>
-    <col min="20" max="20" width="11.5703125" customWidth="1"/>
-    <col min="21" max="21" width="12.5703125" customWidth="1"/>
-    <col min="22" max="22" width="11.5703125" customWidth="1"/>
-    <col min="23" max="23" width="14.7109375" customWidth="1"/>
-    <col min="24" max="24" width="12.7109375" customWidth="1"/>
-    <col min="25" max="25" width="12.42578125" customWidth="1"/>
-    <col min="26" max="26" width="13.28515625" customWidth="1"/>
-    <col min="27" max="27" width="12.42578125" customWidth="1"/>
-    <col min="28" max="29" width="8" customWidth="1"/>
-    <col min="30" max="31" width="5.28515625" customWidth="1"/>
-    <col min="32" max="33" width="12" style="1" customWidth="1"/>
-    <col min="34" max="34" width="11.5703125" style="1" customWidth="1"/>
-    <col min="35" max="35" width="12.140625" style="1" customWidth="1"/>
-    <col min="36" max="36" width="19.140625" style="1" customWidth="1"/>
-    <col min="37" max="37" width="9.5703125" style="1" customWidth="1"/>
-    <col min="38" max="38" width="11.42578125" style="1" customWidth="1"/>
-    <col min="39" max="39" width="14.42578125" style="1" customWidth="1"/>
-    <col min="40" max="40" width="22.28515625" style="1" customWidth="1"/>
-    <col min="41" max="41" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.85546875" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="4.42578125" style="15" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="3.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="4" style="1" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="3.5703125" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="4.5703125" style="13" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="6.42578125" style="13" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="5.42578125" style="13" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="6.7109375" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="12.5703125" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="11.5703125" style="1" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="12.5703125" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="11.5703125" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="12.5703125" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="11.5703125" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="12.7109375" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="12.42578125" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="13.28515625" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="12.42578125" hidden="1" customWidth="1"/>
+    <col min="28" max="29" width="8" hidden="1" customWidth="1"/>
+    <col min="30" max="31" width="5.28515625" hidden="1" customWidth="1"/>
+    <col min="32" max="33" width="12" style="1" hidden="1" customWidth="1"/>
+    <col min="34" max="34" width="11.5703125" style="1" hidden="1" customWidth="1"/>
+    <col min="35" max="35" width="12.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="36" max="36" width="19.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="37" max="37" width="9.5703125" style="1" hidden="1" customWidth="1"/>
+    <col min="38" max="38" width="11.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="39" max="39" width="14.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="40" max="40" width="22.28515625" style="1" hidden="1" customWidth="1"/>
+    <col min="41" max="41" width="13.28515625" style="1" hidden="1" customWidth="1"/>
+    <col min="42" max="42" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41">
+    <row r="1" spans="1:43">
       <c r="Q1" t="s">
         <v>104</v>
       </c>
@@ -1368,8 +1371,14 @@
         <v>45933</v>
       </c>
       <c r="W1" s="19"/>
-    </row>
-    <row r="2" spans="1:41">
+      <c r="AP1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AQ1" s="19">
+        <v>45954</v>
+      </c>
+    </row>
+    <row r="2" spans="1:43">
       <c r="Q2" t="s">
         <v>105</v>
       </c>
@@ -1389,8 +1398,14 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="W2" s="20"/>
-    </row>
-    <row r="3" spans="1:41" s="24" customFormat="1" ht="45">
+      <c r="AP2" t="s">
+        <v>105</v>
+      </c>
+      <c r="AQ2" s="56">
+        <v>8.458333333333333E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43" s="24" customFormat="1" ht="45">
       <c r="A3" s="28" t="s">
         <v>99</v>
       </c>
@@ -1514,194 +1529,203 @@
       <c r="AO3" s="23" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="4" spans="1:41">
-      <c r="A4" s="37">
-        <v>1005785832</v>
-      </c>
-      <c r="B4" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="37">
-        <v>2</v>
-      </c>
-      <c r="F4" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="G4" s="37">
-        <v>1</v>
-      </c>
-      <c r="H4" s="37" t="str" cm="1">
+      <c r="AP3" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="AQ3" s="22" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43">
+      <c r="A4" s="3">
+        <v>1005967544</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4" s="3">
+        <v>4</v>
+      </c>
+      <c r="H4" s="3" t="str" cm="1">
         <f t="array" ref="H4">_xlfn.IFS(G4=1, "2:00 PM", G4=2, "2:30 PM", G4=3, "3:00 PM", G4=4, "3:30 PM")</f>
-        <v>2:00 PM</v>
-      </c>
-      <c r="I4" s="40">
-        <v>7</v>
-      </c>
-      <c r="J4" s="37">
-        <v>7</v>
-      </c>
-      <c r="K4" s="41">
+        <v>3:30 PM</v>
+      </c>
+      <c r="I4" s="14">
+        <v>1</v>
+      </c>
+      <c r="J4" s="3">
+        <v>1</v>
+      </c>
+      <c r="K4" s="3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="L4" s="5">
+        <f>(J4/I4)*K4</f>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="M4" s="12">
+        <v>3.59</v>
+      </c>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="P4" s="5">
+        <f>0.7*L4+0.2*M4+0.1*O4+N4</f>
+        <v>4.3879999999999999</v>
+      </c>
+      <c r="Q4" s="31">
+        <v>1.3935185185185186E-2</v>
+      </c>
+      <c r="R4" s="32">
+        <f>Q4/$R$2</f>
+        <v>0.66888888888888898</v>
+      </c>
+      <c r="S4" s="33">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="T4" s="32">
+        <f>S4/$T$2</f>
+        <v>1</v>
+      </c>
+      <c r="U4" s="32">
+        <v>1</v>
+      </c>
+      <c r="V4" s="34">
+        <v>1</v>
+      </c>
+      <c r="W4" s="12">
+        <f>AVERAGE(R4,T4,V4)*5</f>
+        <v>4.4481481481481486</v>
+      </c>
+      <c r="X4" s="35"/>
+      <c r="Y4" s="35">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="35"/>
+      <c r="AA4" s="35">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="35"/>
+      <c r="AC4" s="35">
+        <f>AVERAGE(X4:AB4)</f>
+        <v>0</v>
+      </c>
+      <c r="AD4" s="5">
+        <v>4</v>
+      </c>
+      <c r="AE4" s="5">
+        <v>4</v>
+      </c>
+      <c r="AF4" s="5">
+        <v>4.916666666666667</v>
+      </c>
+      <c r="AG4" s="5">
+        <f>0.2*AF4+0.8*AVERAGE(AC4:AE4)</f>
+        <v>3.1166666666666667</v>
+      </c>
+      <c r="AH4" s="5">
+        <v>4.3</v>
+      </c>
+      <c r="AI4" s="5">
+        <v>4</v>
+      </c>
+      <c r="AJ4" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="AK4" s="5">
         <v>4.8</v>
       </c>
-      <c r="L4" s="41">
-        <f>(J4/I4)*K4</f>
-        <v>4.8</v>
-      </c>
-      <c r="M4" s="42">
-        <v>3.55</v>
-      </c>
-      <c r="N4" s="42">
-        <f>1/20</f>
-        <v>0.05</v>
-      </c>
-      <c r="O4" s="42">
-        <v>4.7</v>
-      </c>
-      <c r="P4" s="41">
-        <f>0.7*L4+0.2*M4+0.1*O4+N4</f>
-        <v>4.59</v>
-      </c>
-      <c r="Q4" s="43">
-        <v>1.5520833333333333E-2</v>
-      </c>
-      <c r="R4" s="44">
-        <f>Q4/$R$2</f>
-        <v>0.745</v>
-      </c>
-      <c r="S4" s="45">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="T4" s="44">
-        <f>S4/$T$2</f>
-        <v>1</v>
-      </c>
-      <c r="U4" s="44">
-        <v>1</v>
-      </c>
-      <c r="V4" s="46">
-        <v>0.8</v>
-      </c>
-      <c r="W4" s="52">
-        <f>AVERAGE(R4,T4,V4)*5</f>
-        <v>4.2416666666666663</v>
-      </c>
-      <c r="X4" s="47">
-        <v>3</v>
-      </c>
-      <c r="Y4" s="47"/>
-      <c r="Z4" s="47"/>
-      <c r="AA4" s="47">
-        <v>4</v>
-      </c>
-      <c r="AB4" s="47"/>
-      <c r="AC4" s="47">
-        <f>AVERAGE(X4:AB4)</f>
-        <v>3.5</v>
-      </c>
-      <c r="AD4" s="41">
-        <v>4.5</v>
-      </c>
-      <c r="AE4" s="41"/>
-      <c r="AF4" s="41">
-        <v>4.9285714285714288</v>
-      </c>
-      <c r="AG4" s="51">
-        <f>0.2*AF4+0.8*AVERAGE(AC4:AE4)</f>
-        <v>4.1857142857142859</v>
-      </c>
-      <c r="AH4" s="41">
-        <v>4.8</v>
-      </c>
-      <c r="AI4" s="41">
-        <v>4.8</v>
-      </c>
-      <c r="AJ4" s="41">
-        <v>4.5</v>
-      </c>
-      <c r="AK4" s="41">
-        <v>5</v>
-      </c>
-      <c r="AL4" s="41">
-        <v>4.5</v>
-      </c>
-      <c r="AM4" s="51">
+      <c r="AL4" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="AM4" s="5">
         <f>AVERAGE(AH4:AL4)</f>
-        <v>4.7200000000000006</v>
-      </c>
-      <c r="AN4" s="51">
-        <v>4.5</v>
-      </c>
-      <c r="AO4" s="41">
+        <v>4.42</v>
+      </c>
+      <c r="AN4" s="5">
+        <v>4</v>
+      </c>
+      <c r="AO4" s="5">
         <f>0.3*AN4+0.6*AM4+0.05*AG4+0.05*W4</f>
-        <v>4.6033690476190481</v>
-      </c>
-    </row>
-    <row r="5" spans="1:41" s="48" customFormat="1">
+        <v>4.230240740740741</v>
+      </c>
+      <c r="AP4" s="56">
+        <v>1.6909722222222222E-2</v>
+      </c>
+      <c r="AQ4" s="5">
+        <f>AP4/0.0170138888888889</f>
+        <v>0.99387755102040742</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43" s="48" customFormat="1">
       <c r="A5" s="3">
-        <v>1005783739</v>
+        <v>1107836732</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E5" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G5" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H5" s="3" t="str" cm="1">
         <f t="array" ref="H5">_xlfn.IFS(G5=1, "2:00 PM", G5=2, "2:30 PM", G5=3, "3:00 PM", G5=4, "3:30 PM")</f>
-        <v>2:00 PM</v>
+        <v>3:30 PM</v>
       </c>
       <c r="I5" s="14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J5" s="3">
-        <v>4</v>
-      </c>
-      <c r="K5" s="5">
-        <v>4.8</v>
+        <v>3</v>
+      </c>
+      <c r="K5" s="3">
+        <v>4.5</v>
       </c>
       <c r="L5" s="5">
         <f>(J5/I5)*K5</f>
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="M5" s="12">
-        <v>3.55</v>
-      </c>
-      <c r="N5" s="12">
-        <f>3/20</f>
-        <v>0.15</v>
-      </c>
+        <v>3.59</v>
+      </c>
+      <c r="N5" s="12"/>
       <c r="O5" s="12">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="P5" s="5">
         <f>0.7*L5+0.2*M5+0.1*O5+N5</f>
-        <v>4.6900000000000004</v>
+        <v>4.3179999999999996</v>
       </c>
       <c r="Q5" s="31">
-        <v>1.4976851851851852E-2</v>
+        <v>1.474537037037037E-2</v>
       </c>
       <c r="R5" s="32">
         <f>Q5/$R$2</f>
-        <v>0.71888888888888891</v>
+        <v>0.70777777777777784</v>
       </c>
       <c r="S5" s="33">
         <v>2.0833333333333332E-2</v>
@@ -1718,94 +1742,96 @@
       </c>
       <c r="W5" s="12">
         <f>AVERAGE(R5,T5,V5)*5</f>
-        <v>4.5314814814814817</v>
-      </c>
-      <c r="X5" s="35">
-        <v>2</v>
-      </c>
+        <v>4.5129629629629626</v>
+      </c>
+      <c r="X5" s="35"/>
       <c r="Y5" s="35"/>
-      <c r="Z5" s="35">
-        <v>4</v>
-      </c>
-      <c r="AA5" s="35"/>
+      <c r="Z5" s="35"/>
+      <c r="AA5" s="35">
+        <v>4</v>
+      </c>
       <c r="AB5" s="35"/>
       <c r="AC5" s="35">
         <f>AVERAGE(X5:AB5)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AD5" s="5">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="AE5" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AF5" s="5">
-        <v>4.9285714285714288</v>
+        <v>4.0769230769230766</v>
       </c>
       <c r="AG5" s="5">
-        <f>0.2*AF5+0.8*AVERAGE(AC5:AE5)</f>
-        <v>4.3190476190476197</v>
+        <f>0.3*AF5+0.7*AVERAGE(AC5:AE5)</f>
+        <v>3.0897435897435894</v>
       </c>
       <c r="AH5" s="5">
+        <v>4.3</v>
+      </c>
+      <c r="AI5" s="5">
+        <v>4</v>
+      </c>
+      <c r="AJ5" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="AK5" s="5">
         <v>4.8</v>
-      </c>
-      <c r="AI5" s="5">
-        <v>4.8</v>
-      </c>
-      <c r="AJ5" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="AK5" s="5">
-        <v>5</v>
       </c>
       <c r="AL5" s="5">
         <v>4.5</v>
       </c>
       <c r="AM5" s="5">
         <f>AVERAGE(AH5:AL5)</f>
-        <v>4.7200000000000006</v>
+        <v>4.42</v>
       </c>
       <c r="AN5" s="5">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="AO5" s="5">
         <f>0.3*AN5+0.6*AM5+0.05*AG5+0.05*W5</f>
-        <v>4.624526455026456</v>
-      </c>
-    </row>
-    <row r="6" spans="1:41">
+        <v>4.2321353276353273</v>
+      </c>
+      <c r="AQ5" s="5">
+        <f t="shared" ref="AQ5:AQ8" si="0">AP5/0.0170138888888889</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:43">
       <c r="A6" s="37">
-        <v>1113698193</v>
+        <v>1126644560</v>
       </c>
       <c r="B6" s="38" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="C6" s="38" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="D6" s="39" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E6" s="37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6" s="38" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="G6" s="37">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H6" s="37" t="str" cm="1">
         <f t="array" ref="H6">_xlfn.IFS(G6=1, "2:00 PM", G6=2, "2:30 PM", G6=3, "3:00 PM", G6=4, "3:30 PM")</f>
-        <v>2:00 PM</v>
+        <v>3:30 PM</v>
       </c>
       <c r="I6" s="40">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J6" s="37">
-        <v>3</v>
-      </c>
-      <c r="K6" s="41">
+        <v>4</v>
+      </c>
+      <c r="K6" s="37">
         <v>4.8</v>
       </c>
       <c r="L6" s="41">
@@ -1813,25 +1839,22 @@
         <v>4.8</v>
       </c>
       <c r="M6" s="42">
-        <v>3.55</v>
-      </c>
-      <c r="N6" s="42">
-        <f>2/20</f>
-        <v>0.1</v>
-      </c>
+        <v>3.59</v>
+      </c>
+      <c r="N6" s="42"/>
       <c r="O6" s="42">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="P6" s="41">
         <f>0.7*L6+0.2*M6+0.1*O6+N6</f>
-        <v>4.6399999999999997</v>
+        <v>4.5279999999999996</v>
       </c>
       <c r="Q6" s="43">
-        <v>1.5833333333333335E-2</v>
+        <v>1.6342592592592593E-2</v>
       </c>
       <c r="R6" s="44">
         <f>Q6/$R$2</f>
-        <v>0.76000000000000012</v>
+        <v>0.7844444444444445</v>
       </c>
       <c r="S6" s="45">
         <v>2.0833333333333332E-2</v>
@@ -1844,230 +1867,236 @@
         <v>1</v>
       </c>
       <c r="V6" s="46">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="W6" s="52">
         <f>AVERAGE(R6,T6,V6)*5</f>
-        <v>3.9333333333333336</v>
-      </c>
-      <c r="X6" s="47">
-        <v>5</v>
-      </c>
-      <c r="Y6" s="47"/>
-      <c r="Z6" s="47"/>
-      <c r="AA6" s="47">
-        <v>4</v>
-      </c>
+        <v>4.6407407407407408</v>
+      </c>
+      <c r="X6" s="47"/>
+      <c r="Y6" s="47">
+        <v>4</v>
+      </c>
+      <c r="Z6" s="47">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="47"/>
       <c r="AB6" s="47"/>
       <c r="AC6" s="47">
         <f>AVERAGE(X6:AB6)</f>
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="AD6" s="41">
         <v>4.5</v>
       </c>
       <c r="AE6" s="41">
+        <v>4</v>
+      </c>
+      <c r="AF6" s="41">
         <v>5</v>
-      </c>
-      <c r="AF6" s="41">
-        <v>4.8571428571428568</v>
       </c>
       <c r="AG6" s="51">
         <f>0.2*AF6+0.8*AVERAGE(AC6:AE6)</f>
-        <v>4.7047619047619049</v>
+        <v>3.8000000000000003</v>
       </c>
       <c r="AH6" s="41">
+        <v>4.3</v>
+      </c>
+      <c r="AI6" s="41">
+        <v>4</v>
+      </c>
+      <c r="AJ6" s="41">
+        <v>4.5</v>
+      </c>
+      <c r="AK6" s="41">
         <v>4.8</v>
-      </c>
-      <c r="AI6" s="41">
-        <v>4.8</v>
-      </c>
-      <c r="AJ6" s="41">
-        <v>4.5</v>
-      </c>
-      <c r="AK6" s="41">
-        <v>5</v>
       </c>
       <c r="AL6" s="41">
         <v>4.5</v>
       </c>
       <c r="AM6" s="51">
         <f>AVERAGE(AH6:AL6)</f>
-        <v>4.7200000000000006</v>
+        <v>4.42</v>
       </c>
       <c r="AN6" s="51">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="41">
         <f>0.3*AN6+0.6*AM6+0.05*AG6+0.05*W6</f>
-        <v>4.6139047619047622</v>
-      </c>
-    </row>
-    <row r="7" spans="1:41" s="48" customFormat="1">
-      <c r="A7" s="37">
-        <v>1005832925</v>
-      </c>
-      <c r="B7" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="37">
-        <v>2</v>
-      </c>
-      <c r="F7" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="G7" s="37">
-        <v>1</v>
-      </c>
-      <c r="H7" s="37" t="str" cm="1">
+        <v>3.0740370370370367</v>
+      </c>
+      <c r="AP6" s="56">
+        <v>1.6087962962962964E-2</v>
+      </c>
+      <c r="AQ6" s="5">
+        <f t="shared" si="0"/>
+        <v>0.94557823129251639</v>
+      </c>
+    </row>
+    <row r="7" spans="1:43" s="48" customFormat="1">
+      <c r="A7" s="3">
+        <v>1062329024</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" s="3">
+        <v>4</v>
+      </c>
+      <c r="H7" s="3" t="str" cm="1">
         <f t="array" ref="H7">_xlfn.IFS(G7=1, "2:00 PM", G7=2, "2:30 PM", G7=3, "3:00 PM", G7=4, "3:30 PM")</f>
-        <v>2:00 PM</v>
-      </c>
-      <c r="I7" s="40">
-        <v>11</v>
-      </c>
-      <c r="J7" s="37">
-        <v>11</v>
-      </c>
-      <c r="K7" s="41">
+        <v>3:30 PM</v>
+      </c>
+      <c r="I7" s="14">
+        <v>5</v>
+      </c>
+      <c r="J7" s="3">
+        <v>5</v>
+      </c>
+      <c r="K7" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="L7" s="5">
+        <f>(J7/I7)*K7</f>
+        <v>4.5</v>
+      </c>
+      <c r="M7" s="12">
+        <v>3.59</v>
+      </c>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="P7" s="5">
+        <f>0.7*L7+0.2*M7+0.1*O7+N7</f>
+        <v>4.3179999999999996</v>
+      </c>
+      <c r="Q7" s="31">
+        <v>0</v>
+      </c>
+      <c r="R7" s="32">
+        <f>Q7/$R$2</f>
+        <v>0</v>
+      </c>
+      <c r="S7" s="33">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="T7" s="32">
+        <f>S7/$T$2</f>
+        <v>1</v>
+      </c>
+      <c r="U7" s="32">
+        <v>1</v>
+      </c>
+      <c r="V7" s="34">
+        <v>1</v>
+      </c>
+      <c r="W7" s="12">
+        <f>AVERAGE(R7,T7,V7)*5</f>
+        <v>3.333333333333333</v>
+      </c>
+      <c r="X7" s="35"/>
+      <c r="Y7" s="35">
+        <v>5</v>
+      </c>
+      <c r="Z7" s="35">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="35"/>
+      <c r="AB7" s="35"/>
+      <c r="AC7" s="35">
+        <f>AVERAGE(X7:AB7)</f>
+        <v>2.5</v>
+      </c>
+      <c r="AD7" s="5">
+        <v>3</v>
+      </c>
+      <c r="AE7" s="5">
+        <v>4</v>
+      </c>
+      <c r="AF7" s="5">
+        <v>3.8461538461538463</v>
+      </c>
+      <c r="AG7" s="5">
+        <f>0.2*AF7+0.8*AVERAGE(AC7:AE7)</f>
+        <v>3.3025641025641024</v>
+      </c>
+      <c r="AH7" s="5">
+        <v>4.3</v>
+      </c>
+      <c r="AI7" s="5">
+        <v>4</v>
+      </c>
+      <c r="AJ7" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="AK7" s="5">
         <v>4.8</v>
       </c>
-      <c r="L7" s="41">
-        <f>(J7/I7)*K7</f>
-        <v>4.8</v>
-      </c>
-      <c r="M7" s="42">
-        <v>3.55</v>
-      </c>
-      <c r="N7" s="42">
-        <f>5/20</f>
-        <v>0.25</v>
-      </c>
-      <c r="O7" s="42">
-        <v>4.7</v>
-      </c>
-      <c r="P7" s="41">
-        <f>0.7*L7+0.2*M7+0.1*O7+N7</f>
-        <v>4.79</v>
-      </c>
-      <c r="Q7" s="43">
-        <v>1.5972222222222221E-2</v>
-      </c>
-      <c r="R7" s="44">
-        <f>Q7/$R$2</f>
-        <v>0.76666666666666661</v>
-      </c>
-      <c r="S7" s="45">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="T7" s="44">
-        <f>S7/$T$2</f>
-        <v>1</v>
-      </c>
-      <c r="U7" s="44">
-        <v>1</v>
-      </c>
-      <c r="V7" s="46">
-        <v>1</v>
-      </c>
-      <c r="W7" s="52">
-        <f>AVERAGE(R7,T7,V7)*5</f>
-        <v>4.6111111111111107</v>
-      </c>
-      <c r="X7" s="47"/>
-      <c r="Y7" s="47">
-        <v>5</v>
-      </c>
-      <c r="Z7" s="47"/>
-      <c r="AA7" s="47">
-        <v>2</v>
-      </c>
-      <c r="AB7" s="47">
+      <c r="AL7" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="AM7" s="5">
+        <f>AVERAGE(AH7:AL7)</f>
+        <v>4.42</v>
+      </c>
+      <c r="AN7" s="5">
+        <v>4</v>
+      </c>
+      <c r="AO7" s="5">
+        <f>0.3*AN7+0.6*AM7+0.05*AG7+0.05*W7</f>
+        <v>4.1837948717948716</v>
+      </c>
+      <c r="AQ7" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:43">
+      <c r="A8" s="3">
+        <v>1110364376</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="AC7" s="47">
-        <f>AVERAGE(X7:AB7)</f>
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="AD7" s="41">
-        <v>5</v>
-      </c>
-      <c r="AE7" s="41">
-        <v>5</v>
-      </c>
-      <c r="AF7" s="41">
-        <v>5</v>
-      </c>
-      <c r="AG7" s="51">
-        <f>0.2*AF7+0.8*AVERAGE(AC7:AE7)</f>
-        <v>4.5555555555555554</v>
-      </c>
-      <c r="AH7" s="41">
-        <v>4.8</v>
-      </c>
-      <c r="AI7" s="41">
-        <v>4.8</v>
-      </c>
-      <c r="AJ7" s="41">
-        <v>4.5</v>
-      </c>
-      <c r="AK7" s="41">
-        <v>5</v>
-      </c>
-      <c r="AL7" s="41">
-        <v>4.5</v>
-      </c>
-      <c r="AM7" s="51">
-        <f>AVERAGE(AH7:AL7)</f>
-        <v>4.7200000000000006</v>
-      </c>
-      <c r="AN7" s="51">
-        <v>4.5</v>
-      </c>
-      <c r="AO7" s="41">
-        <f>0.3*AN7+0.6*AM7+0.05*AG7+0.05*W7</f>
-        <v>4.6403333333333334</v>
-      </c>
-    </row>
-    <row r="8" spans="1:41">
-      <c r="A8" s="3">
-        <v>1109662163</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>18</v>
-      </c>
       <c r="E8" s="3">
-        <v>2</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>69</v>
+        <v>1</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="G8" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H8" s="3" t="str" cm="1">
         <f t="array" ref="H8">_xlfn.IFS(G8=1, "2:00 PM", G8=2, "2:30 PM", G8=3, "3:00 PM", G8=4, "3:30 PM")</f>
-        <v>2:00 PM</v>
+        <v>3:30 PM</v>
       </c>
       <c r="I8" s="14">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J8" s="3">
-        <v>7</v>
-      </c>
-      <c r="K8" s="5">
+        <v>3</v>
+      </c>
+      <c r="K8" s="3">
         <v>4.8</v>
       </c>
       <c r="L8" s="5">
@@ -2075,127 +2104,133 @@
         <v>4.8</v>
       </c>
       <c r="M8" s="12">
-        <v>3.55</v>
+        <v>3.59</v>
       </c>
       <c r="N8" s="12">
-        <f>1/20</f>
-        <v>0.05</v>
+        <f>1/16</f>
+        <v>6.25E-2</v>
       </c>
       <c r="O8" s="12">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="P8" s="5">
         <f>0.7*L8+0.2*M8+0.1*O8+N8</f>
-        <v>4.59</v>
+        <v>4.5904999999999996</v>
       </c>
       <c r="Q8" s="31">
-        <v>1.4652777777777778E-2</v>
+        <v>1.412037037037037E-2</v>
       </c>
       <c r="R8" s="32">
         <f>Q8/$R$2</f>
-        <v>0.70333333333333337</v>
-      </c>
-      <c r="S8" s="45">
-        <v>2.0833333333333332E-2</v>
+        <v>0.67777777777777781</v>
+      </c>
+      <c r="S8" s="33">
+        <v>0</v>
       </c>
       <c r="T8" s="32">
         <f>S8/$T$2</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U8" s="32">
         <v>1</v>
       </c>
       <c r="V8" s="34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W8" s="12">
-        <f>AVERAGE(R8,T8,V8)*5</f>
-        <v>4.5055555555555555</v>
-      </c>
-      <c r="X8" s="35">
         <v>3</v>
       </c>
-      <c r="Y8" s="35"/>
+      <c r="X8" s="35"/>
+      <c r="Y8" s="35">
+        <v>2</v>
+      </c>
       <c r="Z8" s="35">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AA8" s="35"/>
       <c r="AB8" s="35"/>
       <c r="AC8" s="35">
         <f>AVERAGE(X8:AB8)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AD8" s="5">
         <v>4.5</v>
       </c>
       <c r="AE8" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF8" s="5">
-        <v>5</v>
+        <v>4.9230769230769234</v>
       </c>
       <c r="AG8" s="5">
         <f>0.2*AF8+0.8*AVERAGE(AC8:AE8)</f>
-        <v>4.5999999999999996</v>
+        <v>3.7846153846153849</v>
       </c>
       <c r="AH8" s="5">
+        <v>4.3</v>
+      </c>
+      <c r="AI8" s="5">
+        <v>4</v>
+      </c>
+      <c r="AJ8" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="AK8" s="5">
         <v>4.8</v>
-      </c>
-      <c r="AI8" s="5">
-        <v>4.8</v>
-      </c>
-      <c r="AJ8" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="AK8" s="5">
-        <v>5</v>
       </c>
       <c r="AL8" s="5">
         <v>4.5</v>
       </c>
       <c r="AM8" s="5">
         <f>AVERAGE(AH8:AL8)</f>
-        <v>4.7200000000000006</v>
+        <v>4.42</v>
       </c>
       <c r="AN8" s="5">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="AO8" s="5">
         <f>0.3*AN8+0.6*AM8+0.05*AG8+0.05*W8</f>
-        <v>4.6372777777777783</v>
-      </c>
-    </row>
-    <row r="9" spans="1:41" s="48" customFormat="1">
+        <v>4.1912307692307689</v>
+      </c>
+      <c r="AP8" s="56">
+        <v>1.7013888888888887E-2</v>
+      </c>
+      <c r="AQ8" s="5">
+        <f t="shared" si="0"/>
+        <v>0.99999999999999922</v>
+      </c>
+    </row>
+    <row r="9" spans="1:43" s="48" customFormat="1">
       <c r="A9" s="3">
-        <v>1081728000</v>
+        <v>1005783739</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E9" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G9" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H9" s="3" t="str" cm="1">
         <f t="array" ref="H9">_xlfn.IFS(G9=1, "2:00 PM", G9=2, "2:30 PM", G9=3, "3:00 PM", G9=4, "3:30 PM")</f>
-        <v>2:30 PM</v>
+        <v>2:00 PM</v>
       </c>
       <c r="I9" s="14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J9" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K9" s="5">
         <v>4.8</v>
@@ -2205,22 +2240,25 @@
         <v>4.8</v>
       </c>
       <c r="M9" s="12">
-        <v>2.76</v>
-      </c>
-      <c r="N9" s="12"/>
+        <v>3.55</v>
+      </c>
+      <c r="N9" s="12">
+        <f>3/20</f>
+        <v>0.15</v>
+      </c>
       <c r="O9" s="12">
-        <v>3</v>
+        <v>4.7</v>
       </c>
       <c r="P9" s="5">
         <f>0.7*L9+0.2*M9+0.1*O9+N9</f>
-        <v>4.2119999999999997</v>
+        <v>4.6900000000000004</v>
       </c>
       <c r="Q9" s="31">
-        <v>9.9305555555555553E-3</v>
+        <v>1.4976851851851852E-2</v>
       </c>
       <c r="R9" s="32">
         <f>Q9/$R$2</f>
-        <v>0.47666666666666668</v>
+        <v>0.71888888888888891</v>
       </c>
       <c r="S9" s="33">
         <v>2.0833333333333332E-2</v>
@@ -2237,117 +2275,127 @@
       </c>
       <c r="W9" s="12">
         <f>AVERAGE(R9,T9,V9)*5</f>
-        <v>4.1277777777777773</v>
+        <v>4.5314814814814817</v>
       </c>
       <c r="X9" s="35">
         <v>2</v>
       </c>
       <c r="Y9" s="35"/>
-      <c r="Z9" s="35"/>
-      <c r="AA9" s="35">
-        <v>1</v>
-      </c>
+      <c r="Z9" s="35">
+        <v>4</v>
+      </c>
+      <c r="AA9" s="35"/>
       <c r="AB9" s="35"/>
       <c r="AC9" s="35">
         <f>AVERAGE(X9:AB9)</f>
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AD9" s="5">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="AE9" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF9" s="5">
-        <v>4.615384615384615</v>
+        <v>4.9285714285714288</v>
       </c>
       <c r="AG9" s="5">
         <f>0.2*AF9+0.8*AVERAGE(AC9:AE9)</f>
-        <v>3.4564102564102561</v>
+        <v>4.3190476190476197</v>
       </c>
       <c r="AH9" s="5">
-        <v>4</v>
+        <v>4.8</v>
       </c>
       <c r="AI9" s="5">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="AJ9" s="5">
         <v>4.5</v>
       </c>
       <c r="AK9" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AL9" s="5">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="AM9" s="5">
         <f>AVERAGE(AH9:AL9)</f>
-        <v>4.3</v>
+        <v>4.7200000000000006</v>
       </c>
       <c r="AN9" s="5">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="AO9" s="5">
         <f>0.3*AN9+0.6*AM9+0.05*AG9+0.05*W9</f>
-        <v>2.9592094017094013</v>
-      </c>
-    </row>
-    <row r="10" spans="1:41">
+        <v>4.624526455026456</v>
+      </c>
+      <c r="AP9" s="56">
+        <v>2.2997685185185184E-2</v>
+      </c>
+      <c r="AQ9" s="5">
+        <f>AP9/0.0230324074074074</f>
+        <v>0.99849246231155797</v>
+      </c>
+    </row>
+    <row r="10" spans="1:43">
       <c r="A10" s="37">
-        <v>1062274189</v>
+        <v>1113698193</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="D10" s="39" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E10" s="37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10" s="38" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="G10" s="37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H10" s="37" t="str" cm="1">
         <f t="array" ref="H10">_xlfn.IFS(G10=1, "2:00 PM", G10=2, "2:30 PM", G10=3, "3:00 PM", G10=4, "3:30 PM")</f>
-        <v>2:30 PM</v>
+        <v>2:00 PM</v>
       </c>
       <c r="I10" s="40">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J10" s="37">
         <v>3</v>
       </c>
       <c r="K10" s="41">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="L10" s="41">
         <f>(J10/I10)*K10</f>
-        <v>2.6999999999999997</v>
+        <v>4.8</v>
       </c>
       <c r="M10" s="42">
-        <v>2.76</v>
-      </c>
-      <c r="N10" s="42"/>
+        <v>3.55</v>
+      </c>
+      <c r="N10" s="42">
+        <f>2/20</f>
+        <v>0.1</v>
+      </c>
       <c r="O10" s="42">
-        <v>3</v>
+        <v>4.7</v>
       </c>
       <c r="P10" s="41">
         <f>0.7*L10+0.2*M10+0.1*O10+N10</f>
-        <v>2.742</v>
+        <v>4.6399999999999997</v>
       </c>
       <c r="Q10" s="43">
-        <v>1.8506944444444444E-2</v>
+        <v>1.5833333333333335E-2</v>
       </c>
       <c r="R10" s="44">
         <f>Q10/$R$2</f>
-        <v>0.88833333333333331</v>
+        <v>0.76000000000000012</v>
       </c>
       <c r="S10" s="45">
         <v>2.0833333333333332E-2</v>
@@ -2360,352 +2408,375 @@
         <v>1</v>
       </c>
       <c r="V10" s="46">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="W10" s="52">
         <f>AVERAGE(R10,T10,V10)*5</f>
-        <v>4.4805555555555561</v>
+        <v>3.9333333333333336</v>
       </c>
       <c r="X10" s="47">
-        <v>2</v>
-      </c>
-      <c r="Y10" s="47">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Y10" s="47"/>
       <c r="Z10" s="47"/>
       <c r="AA10" s="47">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB10" s="47"/>
       <c r="AC10" s="47">
         <f>AVERAGE(X10:AB10)</f>
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="AD10" s="41">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="AE10" s="41">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF10" s="41">
-        <v>4.7692307692307692</v>
+        <v>4.8571428571428568</v>
       </c>
       <c r="AG10" s="51">
         <f>0.2*AF10+0.8*AVERAGE(AC10:AE10)</f>
-        <v>3.620512820512821</v>
+        <v>4.7047619047619049</v>
       </c>
       <c r="AH10" s="41">
-        <v>4</v>
+        <v>4.8</v>
       </c>
       <c r="AI10" s="41">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="AJ10" s="41">
         <v>4.5</v>
       </c>
       <c r="AK10" s="41">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AL10" s="41">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="AM10" s="51">
         <f>AVERAGE(AH10:AL10)</f>
-        <v>4.3</v>
+        <v>4.7200000000000006</v>
       </c>
       <c r="AN10" s="51">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="AO10" s="41">
         <f>0.3*AN10+0.6*AM10+0.05*AG10+0.05*W10</f>
-        <v>2.9850534188034183</v>
-      </c>
-    </row>
-    <row r="11" spans="1:41" s="48" customFormat="1" ht="15.75">
-      <c r="A11" s="37">
-        <v>1007603017</v>
-      </c>
-      <c r="B11" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="37">
-        <v>3</v>
-      </c>
-      <c r="F11" s="49" t="s">
-        <v>79</v>
-      </c>
-      <c r="G11" s="37">
+        <v>4.6139047619047622</v>
+      </c>
+      <c r="AP10" s="56">
+        <v>1.6631944444444446E-2</v>
+      </c>
+      <c r="AQ10" s="5">
+        <f t="shared" ref="AQ10:AQ13" si="1">AP10/0.0230324074074074</f>
+        <v>0.72211055276381941</v>
+      </c>
+    </row>
+    <row r="11" spans="1:43" s="48" customFormat="1">
+      <c r="A11" s="3">
+        <v>1109662163</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="3">
         <v>2</v>
       </c>
-      <c r="H11" s="37" t="str" cm="1">
+      <c r="F11" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1</v>
+      </c>
+      <c r="H11" s="3" t="str" cm="1">
         <f t="array" ref="H11">_xlfn.IFS(G11=1, "2:00 PM", G11=2, "2:30 PM", G11=3, "3:00 PM", G11=4, "3:30 PM")</f>
-        <v>2:30 PM</v>
-      </c>
-      <c r="I11" s="40">
-        <v>5</v>
-      </c>
-      <c r="J11" s="37">
-        <v>5</v>
-      </c>
-      <c r="K11" s="41">
+        <v>2:00 PM</v>
+      </c>
+      <c r="I11" s="14">
+        <v>7</v>
+      </c>
+      <c r="J11" s="3">
+        <v>7</v>
+      </c>
+      <c r="K11" s="5">
         <v>4.8</v>
       </c>
-      <c r="L11" s="41">
+      <c r="L11" s="5">
         <f>(J11/I11)*K11</f>
         <v>4.8</v>
       </c>
-      <c r="M11" s="42">
-        <v>2.76</v>
-      </c>
-      <c r="N11" s="42"/>
-      <c r="O11" s="42">
-        <v>3</v>
-      </c>
-      <c r="P11" s="41">
+      <c r="M11" s="12">
+        <v>3.55</v>
+      </c>
+      <c r="N11" s="12">
+        <f>1/20</f>
+        <v>0.05</v>
+      </c>
+      <c r="O11" s="12">
+        <v>4.7</v>
+      </c>
+      <c r="P11" s="5">
         <f>0.7*L11+0.2*M11+0.1*O11+N11</f>
-        <v>4.2119999999999997</v>
-      </c>
-      <c r="Q11" s="43">
-        <v>1.8159722222222223E-2</v>
-      </c>
-      <c r="R11" s="44">
+        <v>4.59</v>
+      </c>
+      <c r="Q11" s="31">
+        <v>1.4652777777777778E-2</v>
+      </c>
+      <c r="R11" s="32">
         <f>Q11/$R$2</f>
-        <v>0.8716666666666667</v>
+        <v>0.70333333333333337</v>
       </c>
       <c r="S11" s="45">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="T11" s="44">
+      <c r="T11" s="32">
         <f>S11/$T$2</f>
         <v>1</v>
       </c>
-      <c r="U11" s="44">
-        <v>1</v>
-      </c>
-      <c r="V11" s="46">
-        <v>1</v>
-      </c>
-      <c r="W11" s="52">
+      <c r="U11" s="32">
+        <v>1</v>
+      </c>
+      <c r="V11" s="34">
+        <v>1</v>
+      </c>
+      <c r="W11" s="12">
         <f>AVERAGE(R11,T11,V11)*5</f>
-        <v>4.7861111111111114</v>
-      </c>
-      <c r="X11" s="47">
-        <v>4</v>
-      </c>
-      <c r="Y11" s="47"/>
-      <c r="Z11" s="47"/>
-      <c r="AA11" s="47">
+        <v>4.5055555555555555</v>
+      </c>
+      <c r="X11" s="35">
+        <v>3</v>
+      </c>
+      <c r="Y11" s="35"/>
+      <c r="Z11" s="35">
         <v>5</v>
       </c>
-      <c r="AB11" s="47"/>
-      <c r="AC11" s="47">
+      <c r="AA11" s="35"/>
+      <c r="AB11" s="35"/>
+      <c r="AC11" s="35">
         <f>AVERAGE(X11:AB11)</f>
-        <v>4.5</v>
-      </c>
-      <c r="AD11" s="41">
-        <v>4</v>
-      </c>
-      <c r="AE11" s="41">
-        <v>4</v>
-      </c>
-      <c r="AF11" s="41">
-        <v>4.615384615384615</v>
-      </c>
-      <c r="AG11" s="51">
+        <v>4</v>
+      </c>
+      <c r="AD11" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="AE11" s="5">
+        <v>5</v>
+      </c>
+      <c r="AF11" s="5">
+        <v>5</v>
+      </c>
+      <c r="AG11" s="5">
         <f>0.2*AF11+0.8*AVERAGE(AC11:AE11)</f>
-        <v>4.2564102564102573</v>
-      </c>
-      <c r="AH11" s="41">
-        <v>4</v>
-      </c>
-      <c r="AI11" s="41">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AH11" s="5">
+        <v>4.8</v>
+      </c>
+      <c r="AI11" s="5">
+        <v>4.8</v>
+      </c>
+      <c r="AJ11" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="AK11" s="5">
+        <v>5</v>
+      </c>
+      <c r="AL11" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="AM11" s="5">
+        <f>AVERAGE(AH11:AL11)</f>
+        <v>4.7200000000000006</v>
+      </c>
+      <c r="AN11" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="AO11" s="5">
+        <f>0.3*AN11+0.6*AM11+0.05*AG11+0.05*W11</f>
+        <v>4.6372777777777783</v>
+      </c>
+      <c r="AP11" s="56">
+        <v>2.2974537037037036E-2</v>
+      </c>
+      <c r="AQ11" s="5">
+        <f t="shared" si="1"/>
+        <v>0.99748743718592991</v>
+      </c>
+    </row>
+    <row r="12" spans="1:43">
+      <c r="A12" s="37">
+        <v>1005785832</v>
+      </c>
+      <c r="B12" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="37">
+        <v>2</v>
+      </c>
+      <c r="F12" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" s="37">
+        <v>1</v>
+      </c>
+      <c r="H12" s="37" t="str" cm="1">
+        <f t="array" ref="H12">_xlfn.IFS(G12=1, "2:00 PM", G12=2, "2:30 PM", G12=3, "3:00 PM", G12=4, "3:30 PM")</f>
+        <v>2:00 PM</v>
+      </c>
+      <c r="I12" s="40">
+        <v>7</v>
+      </c>
+      <c r="J12" s="37">
+        <v>7</v>
+      </c>
+      <c r="K12" s="41">
+        <v>4.8</v>
+      </c>
+      <c r="L12" s="41">
+        <f>(J12/I12)*K12</f>
+        <v>4.8</v>
+      </c>
+      <c r="M12" s="42">
+        <v>3.55</v>
+      </c>
+      <c r="N12" s="42">
+        <f>1/20</f>
+        <v>0.05</v>
+      </c>
+      <c r="O12" s="42">
         <v>4.7</v>
       </c>
-      <c r="AJ11" s="41">
-        <v>4.5</v>
-      </c>
-      <c r="AK11" s="41">
-        <v>4</v>
-      </c>
-      <c r="AL11" s="41">
-        <v>4.3</v>
-      </c>
-      <c r="AM11" s="51">
-        <f>AVERAGE(AH11:AL11)</f>
-        <v>4.3</v>
-      </c>
-      <c r="AN11" s="51">
-        <v>0</v>
-      </c>
-      <c r="AO11" s="41">
-        <f>0.3*AN11+0.6*AM11+0.05*AG11+0.05*W11</f>
-        <v>3.0321260683760682</v>
-      </c>
-    </row>
-    <row r="12" spans="1:41">
-      <c r="A12" s="3">
-        <v>1219713263</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="3">
+      <c r="P12" s="41">
+        <f>0.7*L12+0.2*M12+0.1*O12+N12</f>
+        <v>4.59</v>
+      </c>
+      <c r="Q12" s="43">
+        <v>1.5520833333333333E-2</v>
+      </c>
+      <c r="R12" s="44">
+        <f>Q12/$R$2</f>
+        <v>0.745</v>
+      </c>
+      <c r="S12" s="45">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="T12" s="44">
+        <f>S12/$T$2</f>
+        <v>1</v>
+      </c>
+      <c r="U12" s="44">
+        <v>1</v>
+      </c>
+      <c r="V12" s="46">
+        <v>0.8</v>
+      </c>
+      <c r="W12" s="52">
+        <f>AVERAGE(R12,T12,V12)*5</f>
+        <v>4.2416666666666663</v>
+      </c>
+      <c r="X12" s="47">
         <v>3</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G12" s="3">
+      <c r="Y12" s="47"/>
+      <c r="Z12" s="47"/>
+      <c r="AA12" s="47">
+        <v>4</v>
+      </c>
+      <c r="AB12" s="47"/>
+      <c r="AC12" s="47">
+        <f>AVERAGE(X12:AB12)</f>
+        <v>3.5</v>
+      </c>
+      <c r="AD12" s="41">
+        <v>4.5</v>
+      </c>
+      <c r="AE12" s="41"/>
+      <c r="AF12" s="41">
+        <v>4.9285714285714288</v>
+      </c>
+      <c r="AG12" s="51">
+        <f>0.2*AF12+0.8*AVERAGE(AC12:AE12)</f>
+        <v>4.1857142857142859</v>
+      </c>
+      <c r="AH12" s="41">
+        <v>4.8</v>
+      </c>
+      <c r="AI12" s="41">
+        <v>4.8</v>
+      </c>
+      <c r="AJ12" s="41">
+        <v>4.5</v>
+      </c>
+      <c r="AK12" s="41">
+        <v>5</v>
+      </c>
+      <c r="AL12" s="41">
+        <v>4.5</v>
+      </c>
+      <c r="AM12" s="51">
+        <f>AVERAGE(AH12:AL12)</f>
+        <v>4.7200000000000006</v>
+      </c>
+      <c r="AN12" s="51">
+        <v>4.5</v>
+      </c>
+      <c r="AO12" s="41">
+        <f>0.3*AN12+0.6*AM12+0.05*AG12+0.05*W12</f>
+        <v>4.6033690476190481</v>
+      </c>
+      <c r="AP12" s="56">
+        <v>2.3009259259259261E-2</v>
+      </c>
+      <c r="AQ12" s="5">
+        <f t="shared" si="1"/>
+        <v>0.99899497487437217</v>
+      </c>
+    </row>
+    <row r="13" spans="1:43" s="48" customFormat="1">
+      <c r="A13" s="37">
+        <v>1005832925</v>
+      </c>
+      <c r="B13" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="37">
         <v>2</v>
       </c>
-      <c r="H12" s="3" t="str" cm="1">
-        <f t="array" ref="H12">_xlfn.IFS(G12=1, "2:00 PM", G12=2, "2:30 PM", G12=3, "3:00 PM", G12=4, "3:30 PM")</f>
-        <v>2:30 PM</v>
-      </c>
-      <c r="I12" s="14">
-        <v>6</v>
-      </c>
-      <c r="J12" s="3">
-        <v>6</v>
-      </c>
-      <c r="K12" s="5">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="L12" s="5">
-        <f>(J12/I12)*K12</f>
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="M12" s="12">
-        <v>2.76</v>
-      </c>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12">
-        <v>3</v>
-      </c>
-      <c r="P12" s="5">
-        <f>0.7*L12+0.2*M12+0.1*O12+N12</f>
-        <v>4.282</v>
-      </c>
-      <c r="Q12" s="31">
-        <v>0</v>
-      </c>
-      <c r="R12" s="32">
-        <f>Q12/$R$2</f>
-        <v>0</v>
-      </c>
-      <c r="S12" s="33">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="T12" s="32">
-        <f>S12/$T$2</f>
-        <v>1</v>
-      </c>
-      <c r="U12" s="32">
-        <v>1</v>
-      </c>
-      <c r="V12" s="34">
-        <v>0</v>
-      </c>
-      <c r="W12" s="12">
-        <v>3</v>
-      </c>
-      <c r="X12" s="35">
-        <v>2</v>
-      </c>
-      <c r="Y12" s="35">
-        <v>1</v>
-      </c>
-      <c r="Z12" s="35"/>
-      <c r="AA12" s="35">
-        <v>3</v>
-      </c>
-      <c r="AB12" s="35"/>
-      <c r="AC12" s="35">
-        <f>AVERAGE(X12:AB12)</f>
-        <v>2</v>
-      </c>
-      <c r="AD12" s="5">
-        <v>4</v>
-      </c>
-      <c r="AE12" s="5">
-        <v>4</v>
-      </c>
-      <c r="AF12" s="5">
-        <v>4.5384615384615383</v>
-      </c>
-      <c r="AG12" s="5">
-        <f>0.2*AF12+0.8*AVERAGE(AC12:AE12)</f>
-        <v>3.5743589743589745</v>
-      </c>
-      <c r="AH12" s="5">
-        <v>4</v>
-      </c>
-      <c r="AI12" s="5">
-        <v>4.7</v>
-      </c>
-      <c r="AJ12" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="AK12" s="5">
-        <v>4</v>
-      </c>
-      <c r="AL12" s="5">
-        <v>4.3</v>
-      </c>
-      <c r="AM12" s="5">
-        <f>AVERAGE(AH12:AL12)</f>
-        <v>4.3</v>
-      </c>
-      <c r="AN12" s="5">
-        <v>0</v>
-      </c>
-      <c r="AO12" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:41" s="48" customFormat="1">
-      <c r="A13" s="37">
-        <v>1110363454</v>
-      </c>
-      <c r="B13" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="37">
-        <v>3</v>
-      </c>
       <c r="F13" s="38" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G13" s="37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H13" s="37" t="str" cm="1">
         <f t="array" ref="H13">_xlfn.IFS(G13=1, "2:00 PM", G13=2, "2:30 PM", G13=3, "3:00 PM", G13=4, "3:30 PM")</f>
-        <v>2:30 PM</v>
+        <v>2:00 PM</v>
       </c>
       <c r="I13" s="40">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="J13" s="37">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="K13" s="41">
         <v>4.8</v>
@@ -2715,25 +2786,25 @@
         <v>4.8</v>
       </c>
       <c r="M13" s="42">
-        <v>2.76</v>
+        <v>3.55</v>
       </c>
       <c r="N13" s="42">
-        <f>1/13</f>
-        <v>7.6923076923076927E-2</v>
+        <f>5/20</f>
+        <v>0.25</v>
       </c>
       <c r="O13" s="42">
-        <v>3</v>
+        <v>4.7</v>
       </c>
       <c r="P13" s="41">
         <f>0.7*L13+0.2*M13+0.1*O13+N13</f>
-        <v>4.2889230769230764</v>
+        <v>4.79</v>
       </c>
       <c r="Q13" s="43">
-        <v>1.1863425925925927E-2</v>
+        <v>1.5972222222222221E-2</v>
       </c>
       <c r="R13" s="44">
         <f>Q13/$R$2</f>
-        <v>0.56944444444444453</v>
+        <v>0.76666666666666661</v>
       </c>
       <c r="S13" s="45">
         <v>2.0833333333333332E-2</v>
@@ -2750,119 +2821,126 @@
       </c>
       <c r="W13" s="52">
         <f>AVERAGE(R13,T13,V13)*5</f>
-        <v>4.2824074074074074</v>
-      </c>
-      <c r="X13" s="47">
+        <v>4.6111111111111107</v>
+      </c>
+      <c r="X13" s="47"/>
+      <c r="Y13" s="47">
         <v>5</v>
-      </c>
-      <c r="Y13" s="47">
-        <v>3</v>
       </c>
       <c r="Z13" s="47"/>
       <c r="AA13" s="47">
-        <v>5</v>
-      </c>
-      <c r="AB13" s="47"/>
+        <v>2</v>
+      </c>
+      <c r="AB13" s="47">
+        <v>3</v>
+      </c>
       <c r="AC13" s="47">
         <f>AVERAGE(X13:AB13)</f>
-        <v>4.333333333333333</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="AD13" s="41">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE13" s="41">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF13" s="41">
-        <v>4.6923076923076925</v>
+        <v>5</v>
       </c>
       <c r="AG13" s="51">
         <f>0.2*AF13+0.8*AVERAGE(AC13:AE13)</f>
-        <v>4.2273504273504274</v>
+        <v>4.5555555555555554</v>
       </c>
       <c r="AH13" s="41">
-        <v>4</v>
+        <v>4.8</v>
       </c>
       <c r="AI13" s="41">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="AJ13" s="41">
         <v>4.5</v>
       </c>
       <c r="AK13" s="41">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AL13" s="41">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="AM13" s="51">
         <f>AVERAGE(AH13:AL13)</f>
-        <v>4.3</v>
+        <v>4.7200000000000006</v>
       </c>
       <c r="AN13" s="51">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="AO13" s="41">
         <f>0.3*AN13+0.6*AM13+0.05*AG13+0.05*W13</f>
-        <v>3.0054878917378911</v>
-      </c>
-    </row>
-    <row r="14" spans="1:41">
+        <v>4.6403333333333334</v>
+      </c>
+      <c r="AP13" s="56">
+        <v>2.3032407407407408E-2</v>
+      </c>
+      <c r="AQ13" s="5">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:43">
       <c r="A14" s="37">
-        <v>1005894053</v>
+        <v>1062274189</v>
       </c>
       <c r="B14" s="38" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C14" s="38" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D14" s="39" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E14" s="37">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F14" s="38" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="G14" s="37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H14" s="37" t="str" cm="1">
         <f t="array" ref="H14">_xlfn.IFS(G14=1, "2:00 PM", G14=2, "2:30 PM", G14=3, "3:00 PM", G14=4, "3:30 PM")</f>
-        <v>3:00 PM</v>
+        <v>2:30 PM</v>
       </c>
       <c r="I14" s="40">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J14" s="37">
         <v>3</v>
       </c>
       <c r="K14" s="41">
-        <v>4.5999999999999996</v>
+        <v>4.5</v>
       </c>
       <c r="L14" s="41">
         <f>(J14/I14)*K14</f>
-        <v>4.5999999999999996</v>
+        <v>2.6999999999999997</v>
       </c>
       <c r="M14" s="42">
-        <v>2.96</v>
+        <v>2.76</v>
       </c>
       <c r="N14" s="42"/>
       <c r="O14" s="42">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P14" s="41">
         <f>0.7*L14+0.2*M14+0.1*O14+N14</f>
-        <v>4.1619999999999999</v>
+        <v>2.742</v>
       </c>
       <c r="Q14" s="43">
-        <v>2.1342592592592594E-2</v>
+        <v>1.8506944444444444E-2</v>
       </c>
       <c r="R14" s="44">
         <f>Q14/$R$2</f>
-        <v>1.0244444444444445</v>
+        <v>0.88833333333333331</v>
       </c>
       <c r="S14" s="45">
         <v>2.0833333333333332E-2</v>
@@ -2875,254 +2953,276 @@
         <v>1</v>
       </c>
       <c r="V14" s="46">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="W14" s="52">
-        <v>5</v>
+        <f>AVERAGE(R14,T14,V14)*5</f>
+        <v>4.4805555555555561</v>
       </c>
       <c r="X14" s="47">
-        <v>5</v>
-      </c>
-      <c r="Y14" s="47"/>
+        <v>2</v>
+      </c>
+      <c r="Y14" s="47">
+        <v>1</v>
+      </c>
       <c r="Z14" s="47"/>
-      <c r="AA14" s="47"/>
+      <c r="AA14" s="47">
+        <v>3</v>
+      </c>
       <c r="AB14" s="47"/>
       <c r="AC14" s="47">
         <f>AVERAGE(X14:AB14)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AD14" s="41">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="AE14" s="41">
         <v>4</v>
       </c>
       <c r="AF14" s="41">
-        <v>4.666666666666667</v>
+        <v>4.7692307692307692</v>
       </c>
       <c r="AG14" s="51">
         <f>0.2*AF14+0.8*AVERAGE(AC14:AE14)</f>
-        <v>4.5333333333333332</v>
+        <v>3.620512820512821</v>
       </c>
       <c r="AH14" s="41">
-        <v>4.8</v>
+        <v>4</v>
       </c>
       <c r="AI14" s="41">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="AJ14" s="41">
         <v>4.5</v>
       </c>
       <c r="AK14" s="41">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="AL14" s="41">
-        <v>3</v>
+        <v>4.3</v>
       </c>
       <c r="AM14" s="51">
         <f>AVERAGE(AH14:AL14)</f>
-        <v>4.0600000000000005</v>
+        <v>4.3</v>
       </c>
       <c r="AN14" s="51">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="41">
         <f>0.3*AN14+0.6*AM14+0.05*AG14+0.05*W14</f>
-        <v>4.1126666666666667</v>
-      </c>
-    </row>
-    <row r="15" spans="1:41" s="48" customFormat="1">
-      <c r="A15" s="3">
-        <v>1193073115</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="3">
-        <v>4</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G15" s="3">
+        <v>2.9850534188034183</v>
+      </c>
+      <c r="AP14" s="56">
+        <v>2.2187499999999999E-2</v>
+      </c>
+      <c r="AQ14" s="41">
+        <f>AP14/0.0221875</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:43" s="48" customFormat="1">
+      <c r="A15" s="37">
+        <v>1110363454</v>
+      </c>
+      <c r="B15" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="37">
         <v>3</v>
       </c>
-      <c r="H15" s="3" t="str" cm="1">
+      <c r="F15" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="G15" s="37">
+        <v>2</v>
+      </c>
+      <c r="H15" s="37" t="str" cm="1">
         <f t="array" ref="H15">_xlfn.IFS(G15=1, "2:00 PM", G15=2, "2:30 PM", G15=3, "3:00 PM", G15=4, "3:30 PM")</f>
-        <v>3:00 PM</v>
-      </c>
-      <c r="I15" s="14">
-        <v>4</v>
-      </c>
-      <c r="J15" s="3">
-        <v>4</v>
-      </c>
-      <c r="K15" s="5">
+        <v>2:30 PM</v>
+      </c>
+      <c r="I15" s="40">
+        <v>6</v>
+      </c>
+      <c r="J15" s="37">
+        <v>6</v>
+      </c>
+      <c r="K15" s="41">
         <v>4.8</v>
       </c>
-      <c r="L15" s="5">
+      <c r="L15" s="41">
         <f>(J15/I15)*K15</f>
         <v>4.8</v>
       </c>
-      <c r="M15" s="12">
-        <v>2.96</v>
-      </c>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12">
-        <v>3.5</v>
-      </c>
-      <c r="P15" s="5">
+      <c r="M15" s="42">
+        <v>2.76</v>
+      </c>
+      <c r="N15" s="42">
+        <f>1/13</f>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="O15" s="42">
+        <v>3</v>
+      </c>
+      <c r="P15" s="41">
         <f>0.7*L15+0.2*M15+0.1*O15+N15</f>
-        <v>4.3019999999999996</v>
-      </c>
-      <c r="Q15" s="31">
-        <v>2.0532407407407409E-2</v>
-      </c>
-      <c r="R15" s="32">
+        <v>4.2889230769230764</v>
+      </c>
+      <c r="Q15" s="43">
+        <v>1.1863425925925927E-2</v>
+      </c>
+      <c r="R15" s="44">
         <f>Q15/$R$2</f>
-        <v>0.98555555555555563</v>
-      </c>
-      <c r="S15" s="33">
+        <v>0.56944444444444453</v>
+      </c>
+      <c r="S15" s="45">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="T15" s="32">
+      <c r="T15" s="44">
         <f>S15/$T$2</f>
         <v>1</v>
       </c>
-      <c r="U15" s="32">
-        <v>1</v>
-      </c>
-      <c r="V15" s="34">
-        <v>1</v>
-      </c>
-      <c r="W15" s="12">
+      <c r="U15" s="44">
+        <v>1</v>
+      </c>
+      <c r="V15" s="46">
+        <v>1</v>
+      </c>
+      <c r="W15" s="52">
         <f>AVERAGE(R15,T15,V15)*5</f>
-        <v>4.9759259259259263</v>
-      </c>
-      <c r="X15" s="35">
+        <v>4.2824074074074074</v>
+      </c>
+      <c r="X15" s="47">
         <v>5</v>
       </c>
-      <c r="Y15" s="35">
+      <c r="Y15" s="47">
+        <v>3</v>
+      </c>
+      <c r="Z15" s="47"/>
+      <c r="AA15" s="47">
         <v>5</v>
       </c>
-      <c r="Z15" s="35">
-        <v>5</v>
-      </c>
-      <c r="AA15" s="35"/>
-      <c r="AB15" s="35"/>
-      <c r="AC15" s="35">
+      <c r="AB15" s="47"/>
+      <c r="AC15" s="47">
         <f>AVERAGE(X15:AB15)</f>
-        <v>5</v>
-      </c>
-      <c r="AD15" s="5">
-        <v>5</v>
-      </c>
-      <c r="AE15" s="5">
-        <v>4</v>
-      </c>
-      <c r="AF15" s="5">
-        <v>4.833333333333333</v>
-      </c>
-      <c r="AG15" s="5">
+        <v>4.333333333333333</v>
+      </c>
+      <c r="AD15" s="41">
+        <v>4</v>
+      </c>
+      <c r="AE15" s="41">
+        <v>4</v>
+      </c>
+      <c r="AF15" s="41">
+        <v>4.6923076923076925</v>
+      </c>
+      <c r="AG15" s="51">
         <f>0.2*AF15+0.8*AVERAGE(AC15:AE15)</f>
+        <v>4.2273504273504274</v>
+      </c>
+      <c r="AH15" s="41">
+        <v>4</v>
+      </c>
+      <c r="AI15" s="41">
         <v>4.7</v>
       </c>
-      <c r="AH15" s="5">
-        <v>4.8</v>
-      </c>
-      <c r="AI15" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="AJ15" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="AK15" s="5">
-        <v>3.5</v>
-      </c>
-      <c r="AL15" s="5">
+      <c r="AJ15" s="41">
+        <v>4.5</v>
+      </c>
+      <c r="AK15" s="41">
+        <v>4</v>
+      </c>
+      <c r="AL15" s="41">
+        <v>4.3</v>
+      </c>
+      <c r="AM15" s="51">
+        <f>AVERAGE(AH15:AL15)</f>
+        <v>4.3</v>
+      </c>
+      <c r="AN15" s="51">
+        <v>0</v>
+      </c>
+      <c r="AO15" s="41">
+        <f>0.3*AN15+0.6*AM15+0.05*AG15+0.05*W15</f>
+        <v>3.0054878917378911</v>
+      </c>
+      <c r="AP15" s="56">
+        <v>1.7175925925925924E-2</v>
+      </c>
+      <c r="AQ15" s="41">
+        <f t="shared" ref="AQ15:AQ18" si="2">AP15/0.0221875</f>
+        <v>0.77412623891497123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:43" ht="15.75">
+      <c r="A16" s="37">
+        <v>1007603017</v>
+      </c>
+      <c r="B16" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="37">
         <v>3</v>
       </c>
-      <c r="AM15" s="5">
-        <f>AVERAGE(AH15:AL15)</f>
-        <v>4.0600000000000005</v>
-      </c>
-      <c r="AN15" s="5">
-        <v>4</v>
-      </c>
-      <c r="AO15" s="5">
-        <f>0.3*AN15+0.6*AM15+0.05*AG15+0.05*W15</f>
-        <v>4.119796296296296</v>
-      </c>
-    </row>
-    <row r="16" spans="1:41">
-      <c r="A16" s="37">
-        <v>1193578885</v>
-      </c>
-      <c r="B16" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="37">
-        <v>4</v>
-      </c>
-      <c r="F16" s="38" t="s">
-        <v>64</v>
+      <c r="F16" s="49" t="s">
+        <v>79</v>
       </c>
       <c r="G16" s="37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H16" s="37" t="str" cm="1">
         <f t="array" ref="H16">_xlfn.IFS(G16=1, "2:00 PM", G16=2, "2:30 PM", G16=3, "3:00 PM", G16=4, "3:30 PM")</f>
-        <v>3:00 PM</v>
+        <v>2:30 PM</v>
       </c>
       <c r="I16" s="40">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J16" s="37">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K16" s="41">
-        <v>4.5999999999999996</v>
+        <v>4.8</v>
       </c>
       <c r="L16" s="41">
         <f>(J16/I16)*K16</f>
-        <v>4.5999999999999996</v>
+        <v>4.8</v>
       </c>
       <c r="M16" s="42">
-        <v>2.96</v>
+        <v>2.76</v>
       </c>
       <c r="N16" s="42"/>
       <c r="O16" s="42">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P16" s="41">
         <f>0.7*L16+0.2*M16+0.1*O16+N16</f>
-        <v>4.1619999999999999</v>
+        <v>4.2119999999999997</v>
       </c>
       <c r="Q16" s="43">
-        <v>1.951388888888889E-2</v>
+        <v>1.8159722222222223E-2</v>
       </c>
       <c r="R16" s="44">
         <f>Q16/$R$2</f>
-        <v>0.93666666666666676</v>
+        <v>0.8716666666666667</v>
       </c>
       <c r="S16" s="45">
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="T16" s="44">
         <f>S16/$T$2</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U16" s="44">
         <v>1</v>
@@ -3132,77 +3232,93 @@
       </c>
       <c r="W16" s="52">
         <f>AVERAGE(R16,T16,V16)*5</f>
-        <v>3.2277777777777779</v>
-      </c>
-      <c r="X16" s="47"/>
+        <v>4.7861111111111114</v>
+      </c>
+      <c r="X16" s="47">
+        <v>4</v>
+      </c>
       <c r="Y16" s="47"/>
       <c r="Z16" s="47"/>
-      <c r="AA16" s="47"/>
+      <c r="AA16" s="47">
+        <v>5</v>
+      </c>
       <c r="AB16" s="47"/>
       <c r="AC16" s="47">
-        <v>0</v>
-      </c>
-      <c r="AD16" s="41"/>
-      <c r="AE16" s="41"/>
+        <f>AVERAGE(X16:AB16)</f>
+        <v>4.5</v>
+      </c>
+      <c r="AD16" s="41">
+        <v>4</v>
+      </c>
+      <c r="AE16" s="41">
+        <v>4</v>
+      </c>
       <c r="AF16" s="41">
-        <v>2.3333333333333335</v>
+        <v>4.615384615384615</v>
       </c>
       <c r="AG16" s="51">
         <f>0.2*AF16+0.8*AVERAGE(AC16:AE16)</f>
-        <v>0.46666666666666673</v>
+        <v>4.2564102564102573</v>
       </c>
       <c r="AH16" s="41">
-        <v>4.8</v>
+        <v>4</v>
       </c>
       <c r="AI16" s="41">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="AJ16" s="41">
         <v>4.5</v>
       </c>
       <c r="AK16" s="41">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="AL16" s="41">
-        <v>3</v>
+        <v>4.3</v>
       </c>
       <c r="AM16" s="51">
         <f>AVERAGE(AH16:AL16)</f>
-        <v>4.0600000000000005</v>
+        <v>4.3</v>
       </c>
       <c r="AN16" s="51">
-        <v>4</v>
-      </c>
-      <c r="AO16" s="36">
-        <f>0.3*AN16+0.7*AM16</f>
-        <v>4.0419999999999998</v>
-      </c>
-    </row>
-    <row r="17" spans="1:41" s="48" customFormat="1">
+        <v>0</v>
+      </c>
+      <c r="AO16" s="41">
+        <f>0.3*AN16+0.6*AM16+0.05*AG16+0.05*W16</f>
+        <v>3.0321260683760682</v>
+      </c>
+      <c r="AP16" s="56">
+        <v>2.1921296296296296E-2</v>
+      </c>
+      <c r="AQ16" s="41">
+        <f t="shared" si="2"/>
+        <v>0.98800208659363598</v>
+      </c>
+    </row>
+    <row r="17" spans="1:43" s="48" customFormat="1">
       <c r="A17" s="3">
-        <v>1025642375</v>
+        <v>1081728000</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E17" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="G17" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H17" s="3" t="str" cm="1">
         <f t="array" ref="H17">_xlfn.IFS(G17=1, "2:00 PM", G17=2, "2:30 PM", G17=3, "3:00 PM", G17=4, "3:30 PM")</f>
-        <v>3:00 PM</v>
+        <v>2:30 PM</v>
       </c>
       <c r="I17" s="14">
         <v>5</v>
@@ -3210,30 +3326,30 @@
       <c r="J17" s="3">
         <v>5</v>
       </c>
-      <c r="K17" s="3">
-        <v>4.7</v>
+      <c r="K17" s="5">
+        <v>4.8</v>
       </c>
       <c r="L17" s="5">
         <f>(J17/I17)*K17</f>
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="M17" s="12">
-        <v>2.96</v>
+        <v>2.76</v>
       </c>
       <c r="N17" s="12"/>
       <c r="O17" s="12">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P17" s="5">
         <f>0.7*L17+0.2*M17+0.1*O17+N17</f>
-        <v>4.2320000000000002</v>
+        <v>4.2119999999999997</v>
       </c>
       <c r="Q17" s="31">
-        <v>2.0243055555555556E-2</v>
+        <v>9.9305555555555553E-3</v>
       </c>
       <c r="R17" s="32">
         <f>Q17/$R$2</f>
-        <v>0.97166666666666668</v>
+        <v>0.47666666666666668</v>
       </c>
       <c r="S17" s="33">
         <v>2.0833333333333332E-2</v>
@@ -3250,108 +3366,124 @@
       </c>
       <c r="W17" s="12">
         <f>AVERAGE(R17,T17,V17)*5</f>
-        <v>4.9527777777777775</v>
-      </c>
-      <c r="X17" s="35"/>
+        <v>4.1277777777777773</v>
+      </c>
+      <c r="X17" s="35">
+        <v>2</v>
+      </c>
       <c r="Y17" s="35"/>
       <c r="Z17" s="35"/>
-      <c r="AA17" s="35"/>
+      <c r="AA17" s="35">
+        <v>1</v>
+      </c>
       <c r="AB17" s="35"/>
       <c r="AC17" s="35">
-        <v>0</v>
-      </c>
-      <c r="AD17" s="5"/>
-      <c r="AE17" s="5"/>
+        <f>AVERAGE(X17:AB17)</f>
+        <v>1.5</v>
+      </c>
+      <c r="AD17" s="5">
+        <v>4</v>
+      </c>
+      <c r="AE17" s="5">
+        <v>4</v>
+      </c>
       <c r="AF17" s="5">
-        <v>2.3333333333333335</v>
+        <v>4.615384615384615</v>
       </c>
       <c r="AG17" s="5">
         <f>0.2*AF17+0.8*AVERAGE(AC17:AE17)</f>
-        <v>0.46666666666666673</v>
+        <v>3.4564102564102561</v>
       </c>
       <c r="AH17" s="5">
-        <v>4.8</v>
+        <v>4</v>
       </c>
       <c r="AI17" s="5">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="AJ17" s="5">
         <v>4.5</v>
       </c>
       <c r="AK17" s="5">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="AL17" s="5">
-        <v>3</v>
+        <v>4.3</v>
       </c>
       <c r="AM17" s="5">
         <f>AVERAGE(AH17:AL17)</f>
-        <v>4.0600000000000005</v>
+        <v>4.3</v>
       </c>
       <c r="AN17" s="5">
-        <v>4</v>
-      </c>
-      <c r="AO17" s="36">
-        <f>0.3*AN17+0.7*AM17</f>
-        <v>4.0419999999999998</v>
-      </c>
-    </row>
-    <row r="18" spans="1:41">
+        <v>0</v>
+      </c>
+      <c r="AO17" s="5">
+        <f>0.3*AN17+0.6*AM17+0.05*AG17+0.05*W17</f>
+        <v>2.9592094017094013</v>
+      </c>
+      <c r="AP17" s="56">
+        <v>1.9305555555555555E-2</v>
+      </c>
+      <c r="AQ17" s="41">
+        <f t="shared" si="2"/>
+        <v>0.87010954616588421</v>
+      </c>
+    </row>
+    <row r="18" spans="1:43">
       <c r="A18" s="3">
-        <v>1107836732</v>
+        <v>1219713263</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E18" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G18" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H18" s="3" t="str" cm="1">
         <f t="array" ref="H18">_xlfn.IFS(G18=1, "2:00 PM", G18=2, "2:30 PM", G18=3, "3:00 PM", G18=4, "3:30 PM")</f>
-        <v>3:30 PM</v>
+        <v>2:30 PM</v>
       </c>
       <c r="I18" s="14">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J18" s="3">
-        <v>3</v>
-      </c>
-      <c r="K18" s="3">
-        <v>4.5</v>
+        <v>6</v>
+      </c>
+      <c r="K18" s="5">
+        <v>4.9000000000000004</v>
       </c>
       <c r="L18" s="5">
         <f>(J18/I18)*K18</f>
-        <v>4.5</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="M18" s="12">
-        <v>3.59</v>
+        <v>2.76</v>
       </c>
       <c r="N18" s="12"/>
       <c r="O18" s="12">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="P18" s="5">
         <f>0.7*L18+0.2*M18+0.1*O18+N18</f>
-        <v>4.3179999999999996</v>
+        <v>4.282</v>
       </c>
       <c r="Q18" s="31">
-        <v>1.474537037037037E-2</v>
+        <v>0</v>
       </c>
       <c r="R18" s="32">
         <f>Q18/$R$2</f>
-        <v>0.70777777777777784</v>
+        <v>0</v>
       </c>
       <c r="S18" s="33">
         <v>2.0833333333333332E-2</v>
@@ -3364,248 +3496,253 @@
         <v>1</v>
       </c>
       <c r="V18" s="34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W18" s="12">
-        <f>AVERAGE(R18,T18,V18)*5</f>
-        <v>4.5129629629629626</v>
-      </c>
-      <c r="X18" s="35"/>
-      <c r="Y18" s="35"/>
+        <v>3</v>
+      </c>
+      <c r="X18" s="35">
+        <v>2</v>
+      </c>
+      <c r="Y18" s="35">
+        <v>1</v>
+      </c>
       <c r="Z18" s="35"/>
       <c r="AA18" s="35">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AB18" s="35"/>
       <c r="AC18" s="35">
         <f>AVERAGE(X18:AB18)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AD18" s="5">
         <v>4</v>
       </c>
       <c r="AE18" s="5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AF18" s="5">
-        <v>4.0769230769230766</v>
+        <v>4.5384615384615383</v>
       </c>
       <c r="AG18" s="5">
-        <f>0.3*AF18+0.7*AVERAGE(AC18:AE18)</f>
-        <v>3.0897435897435894</v>
+        <f>0.2*AF18+0.8*AVERAGE(AC18:AE18)</f>
+        <v>3.5743589743589745</v>
       </c>
       <c r="AH18" s="5">
+        <v>4</v>
+      </c>
+      <c r="AI18" s="5">
+        <v>4.7</v>
+      </c>
+      <c r="AJ18" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="AK18" s="5">
+        <v>4</v>
+      </c>
+      <c r="AL18" s="5">
         <v>4.3</v>
-      </c>
-      <c r="AI18" s="5">
-        <v>4</v>
-      </c>
-      <c r="AJ18" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="AK18" s="5">
-        <v>4.8</v>
-      </c>
-      <c r="AL18" s="5">
-        <v>4.5</v>
       </c>
       <c r="AM18" s="5">
         <f>AVERAGE(AH18:AL18)</f>
-        <v>4.42</v>
+        <v>4.3</v>
       </c>
       <c r="AN18" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="5">
-        <f>0.3*AN18+0.6*AM18+0.05*AG18+0.05*W18</f>
-        <v>4.2321353276353273</v>
-      </c>
-    </row>
-    <row r="19" spans="1:41" s="48" customFormat="1">
+        <v>3</v>
+      </c>
+      <c r="AP18" s="56">
+        <v>2.2037037037037036E-2</v>
+      </c>
+      <c r="AQ18" s="41">
+        <f t="shared" si="2"/>
+        <v>0.99321857068335939</v>
+      </c>
+    </row>
+    <row r="19" spans="1:43" s="48" customFormat="1">
       <c r="A19" s="3">
-        <v>1110364376</v>
+        <v>1025642375</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="D19" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="3">
+        <v>4</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G19" s="3">
         <v>3</v>
-      </c>
-      <c r="E19" s="3">
-        <v>1</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G19" s="3">
-        <v>4</v>
       </c>
       <c r="H19" s="3" t="str" cm="1">
         <f t="array" ref="H19">_xlfn.IFS(G19=1, "2:00 PM", G19=2, "2:30 PM", G19=3, "3:00 PM", G19=4, "3:30 PM")</f>
-        <v>3:30 PM</v>
+        <v>3:00 PM</v>
       </c>
       <c r="I19" s="14">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J19" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K19" s="3">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="L19" s="5">
         <f>(J19/I19)*K19</f>
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="M19" s="12">
-        <v>3.59</v>
-      </c>
-      <c r="N19" s="12">
-        <f>1/16</f>
-        <v>6.25E-2</v>
-      </c>
+        <v>2.96</v>
+      </c>
+      <c r="N19" s="12"/>
       <c r="O19" s="12">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P19" s="5">
         <f>0.7*L19+0.2*M19+0.1*O19+N19</f>
-        <v>4.5904999999999996</v>
+        <v>4.2320000000000002</v>
       </c>
       <c r="Q19" s="31">
-        <v>1.412037037037037E-2</v>
+        <v>2.0243055555555556E-2</v>
       </c>
       <c r="R19" s="32">
         <f>Q19/$R$2</f>
-        <v>0.67777777777777781</v>
+        <v>0.97166666666666668</v>
       </c>
       <c r="S19" s="33">
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="T19" s="32">
         <f>S19/$T$2</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U19" s="32">
         <v>1</v>
       </c>
       <c r="V19" s="34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W19" s="12">
-        <v>3</v>
+        <f>AVERAGE(R19,T19,V19)*5</f>
+        <v>4.9527777777777775</v>
       </c>
       <c r="X19" s="35"/>
-      <c r="Y19" s="35">
-        <v>2</v>
-      </c>
-      <c r="Z19" s="35">
-        <v>2</v>
-      </c>
+      <c r="Y19" s="35"/>
+      <c r="Z19" s="35"/>
       <c r="AA19" s="35"/>
       <c r="AB19" s="35"/>
       <c r="AC19" s="35">
-        <f>AVERAGE(X19:AB19)</f>
-        <v>2</v>
-      </c>
-      <c r="AD19" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="AE19" s="5">
-        <v>4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AD19" s="5"/>
+      <c r="AE19" s="5"/>
       <c r="AF19" s="5">
-        <v>4.9230769230769234</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="AG19" s="5">
         <f>0.2*AF19+0.8*AVERAGE(AC19:AE19)</f>
-        <v>3.7846153846153849</v>
+        <v>0.46666666666666673</v>
       </c>
       <c r="AH19" s="5">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
       <c r="AI19" s="5">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="AJ19" s="5">
         <v>4.5</v>
       </c>
       <c r="AK19" s="5">
-        <v>4.8</v>
+        <v>3.5</v>
       </c>
       <c r="AL19" s="5">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="AM19" s="5">
         <f>AVERAGE(AH19:AL19)</f>
-        <v>4.42</v>
+        <v>4.0600000000000005</v>
       </c>
       <c r="AN19" s="5">
         <v>4</v>
       </c>
-      <c r="AO19" s="5">
-        <f>0.3*AN19+0.6*AM19+0.05*AG19+0.05*W19</f>
-        <v>4.1912307692307689</v>
-      </c>
-    </row>
-    <row r="20" spans="1:41">
+      <c r="AO19" s="36">
+        <f>0.3*AN19+0.7*AM19</f>
+        <v>4.0419999999999998</v>
+      </c>
+      <c r="AP19" s="56">
+        <v>2.255787037037037E-2</v>
+      </c>
+      <c r="AQ19" s="5">
+        <f>AP19/0.0252083333333333</f>
+        <v>0.89485766758494145</v>
+      </c>
+    </row>
+    <row r="20" spans="1:43">
       <c r="A20" s="3">
-        <v>1062329024</v>
+        <v>1193073115</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E20" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G20" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H20" s="3" t="str" cm="1">
         <f t="array" ref="H20">_xlfn.IFS(G20=1, "2:00 PM", G20=2, "2:30 PM", G20=3, "3:00 PM", G20=4, "3:30 PM")</f>
-        <v>3:30 PM</v>
+        <v>3:00 PM</v>
       </c>
       <c r="I20" s="14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J20" s="3">
-        <v>5</v>
-      </c>
-      <c r="K20" s="3">
-        <v>4.5</v>
+        <v>4</v>
+      </c>
+      <c r="K20" s="5">
+        <v>4.8</v>
       </c>
       <c r="L20" s="5">
         <f>(J20/I20)*K20</f>
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="M20" s="12">
-        <v>3.59</v>
+        <v>2.96</v>
       </c>
       <c r="N20" s="12"/>
       <c r="O20" s="12">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P20" s="5">
         <f>0.7*L20+0.2*M20+0.1*O20+N20</f>
-        <v>4.3179999999999996</v>
+        <v>4.3019999999999996</v>
       </c>
       <c r="Q20" s="31">
-        <v>0</v>
+        <v>2.0532407407407409E-2</v>
       </c>
       <c r="R20" s="32">
         <f>Q20/$R$2</f>
-        <v>0</v>
+        <v>0.98555555555555563</v>
       </c>
       <c r="S20" s="33">
         <v>2.0833333333333332E-2</v>
@@ -3622,213 +3759,226 @@
       </c>
       <c r="W20" s="12">
         <f>AVERAGE(R20,T20,V20)*5</f>
-        <v>3.333333333333333</v>
-      </c>
-      <c r="X20" s="35"/>
+        <v>4.9759259259259263</v>
+      </c>
+      <c r="X20" s="35">
+        <v>5</v>
+      </c>
       <c r="Y20" s="35">
         <v>5</v>
       </c>
       <c r="Z20" s="35">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AA20" s="35"/>
       <c r="AB20" s="35"/>
       <c r="AC20" s="35">
         <f>AVERAGE(X20:AB20)</f>
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="AD20" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE20" s="5">
         <v>4</v>
       </c>
       <c r="AF20" s="5">
-        <v>3.8461538461538463</v>
+        <v>4.833333333333333</v>
       </c>
       <c r="AG20" s="5">
         <f>0.2*AF20+0.8*AVERAGE(AC20:AE20)</f>
-        <v>3.3025641025641024</v>
+        <v>4.7</v>
       </c>
       <c r="AH20" s="5">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
       <c r="AI20" s="5">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="AJ20" s="5">
         <v>4.5</v>
       </c>
       <c r="AK20" s="5">
-        <v>4.8</v>
+        <v>3.5</v>
       </c>
       <c r="AL20" s="5">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="AM20" s="5">
         <f>AVERAGE(AH20:AL20)</f>
-        <v>4.42</v>
+        <v>4.0600000000000005</v>
       </c>
       <c r="AN20" s="5">
         <v>4</v>
       </c>
       <c r="AO20" s="5">
         <f>0.3*AN20+0.6*AM20+0.05*AG20+0.05*W20</f>
-        <v>4.1837948717948716</v>
-      </c>
-    </row>
-    <row r="21" spans="1:41" s="48" customFormat="1">
-      <c r="A21" s="3">
-        <v>1005967544</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="3">
-        <v>1</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G21" s="3">
-        <v>4</v>
-      </c>
-      <c r="H21" s="3" t="str" cm="1">
+        <v>4.119796296296296</v>
+      </c>
+      <c r="AP20" s="56">
+        <v>2.5208333333333333E-2</v>
+      </c>
+      <c r="AQ20" s="5">
+        <f t="shared" ref="AQ20:AQ22" si="3">AP20/0.0252083333333333</f>
+        <v>1.0000000000000013</v>
+      </c>
+    </row>
+    <row r="21" spans="1:43" s="48" customFormat="1">
+      <c r="A21" s="37">
+        <v>1005894053</v>
+      </c>
+      <c r="B21" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="37">
+        <v>4</v>
+      </c>
+      <c r="F21" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="G21" s="37">
+        <v>3</v>
+      </c>
+      <c r="H21" s="37" t="str" cm="1">
         <f t="array" ref="H21">_xlfn.IFS(G21=1, "2:00 PM", G21=2, "2:30 PM", G21=3, "3:00 PM", G21=4, "3:30 PM")</f>
-        <v>3:30 PM</v>
-      </c>
-      <c r="I21" s="14">
-        <v>1</v>
-      </c>
-      <c r="J21" s="3">
-        <v>1</v>
-      </c>
-      <c r="K21" s="3">
+        <v>3:00 PM</v>
+      </c>
+      <c r="I21" s="40">
+        <v>3</v>
+      </c>
+      <c r="J21" s="37">
+        <v>3</v>
+      </c>
+      <c r="K21" s="41">
         <v>4.5999999999999996</v>
       </c>
-      <c r="L21" s="5">
+      <c r="L21" s="41">
         <f>(J21/I21)*K21</f>
         <v>4.5999999999999996</v>
       </c>
-      <c r="M21" s="12">
-        <v>3.59</v>
-      </c>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12">
-        <v>4.5</v>
-      </c>
-      <c r="P21" s="5">
+      <c r="M21" s="42">
+        <v>2.96</v>
+      </c>
+      <c r="N21" s="42"/>
+      <c r="O21" s="42">
+        <v>3.5</v>
+      </c>
+      <c r="P21" s="41">
         <f>0.7*L21+0.2*M21+0.1*O21+N21</f>
-        <v>4.3879999999999999</v>
-      </c>
-      <c r="Q21" s="31">
-        <v>1.3935185185185186E-2</v>
-      </c>
-      <c r="R21" s="32">
+        <v>4.1619999999999999</v>
+      </c>
+      <c r="Q21" s="43">
+        <v>2.1342592592592594E-2</v>
+      </c>
+      <c r="R21" s="44">
         <f>Q21/$R$2</f>
-        <v>0.66888888888888898</v>
-      </c>
-      <c r="S21" s="33">
+        <v>1.0244444444444445</v>
+      </c>
+      <c r="S21" s="45">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="T21" s="32">
+      <c r="T21" s="44">
         <f>S21/$T$2</f>
         <v>1</v>
       </c>
-      <c r="U21" s="32">
-        <v>1</v>
-      </c>
-      <c r="V21" s="34">
-        <v>1</v>
-      </c>
-      <c r="W21" s="12">
-        <f>AVERAGE(R21,T21,V21)*5</f>
-        <v>4.4481481481481486</v>
-      </c>
-      <c r="X21" s="35"/>
-      <c r="Y21" s="35">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="35"/>
-      <c r="AA21" s="35">
-        <v>0</v>
-      </c>
-      <c r="AB21" s="35"/>
-      <c r="AC21" s="35">
+      <c r="U21" s="44">
+        <v>1</v>
+      </c>
+      <c r="V21" s="46">
+        <v>1</v>
+      </c>
+      <c r="W21" s="52">
+        <v>5</v>
+      </c>
+      <c r="X21" s="47">
+        <v>5</v>
+      </c>
+      <c r="Y21" s="47"/>
+      <c r="Z21" s="47"/>
+      <c r="AA21" s="47"/>
+      <c r="AB21" s="47"/>
+      <c r="AC21" s="47">
         <f>AVERAGE(X21:AB21)</f>
-        <v>0</v>
-      </c>
-      <c r="AD21" s="5">
-        <v>4</v>
-      </c>
-      <c r="AE21" s="5">
-        <v>4</v>
-      </c>
-      <c r="AF21" s="5">
-        <v>4.916666666666667</v>
-      </c>
-      <c r="AG21" s="5">
+        <v>5</v>
+      </c>
+      <c r="AD21" s="41">
+        <v>4.5</v>
+      </c>
+      <c r="AE21" s="41">
+        <v>4</v>
+      </c>
+      <c r="AF21" s="41">
+        <v>4.666666666666667</v>
+      </c>
+      <c r="AG21" s="51">
         <f>0.2*AF21+0.8*AVERAGE(AC21:AE21)</f>
-        <v>3.1166666666666667</v>
-      </c>
-      <c r="AH21" s="5">
-        <v>4.3</v>
-      </c>
-      <c r="AI21" s="5">
-        <v>4</v>
-      </c>
-      <c r="AJ21" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="AK21" s="5">
+        <v>4.5333333333333332</v>
+      </c>
+      <c r="AH21" s="41">
         <v>4.8</v>
       </c>
-      <c r="AL21" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="AM21" s="5">
+      <c r="AI21" s="41">
+        <v>4.5</v>
+      </c>
+      <c r="AJ21" s="41">
+        <v>4.5</v>
+      </c>
+      <c r="AK21" s="41">
+        <v>3.5</v>
+      </c>
+      <c r="AL21" s="41">
+        <v>3</v>
+      </c>
+      <c r="AM21" s="51">
         <f>AVERAGE(AH21:AL21)</f>
-        <v>4.42</v>
-      </c>
-      <c r="AN21" s="5">
-        <v>4</v>
-      </c>
-      <c r="AO21" s="5">
+        <v>4.0600000000000005</v>
+      </c>
+      <c r="AN21" s="51">
+        <v>4</v>
+      </c>
+      <c r="AO21" s="41">
         <f>0.3*AN21+0.6*AM21+0.05*AG21+0.05*W21</f>
-        <v>4.230240740740741</v>
-      </c>
-    </row>
-    <row r="22" spans="1:41">
+        <v>4.1126666666666667</v>
+      </c>
+      <c r="AP21" s="56">
+        <v>1.7777777777777778E-2</v>
+      </c>
+      <c r="AQ21" s="5">
+        <f t="shared" si="3"/>
+        <v>0.70523415977961523</v>
+      </c>
+    </row>
+    <row r="22" spans="1:43">
       <c r="A22" s="37">
-        <v>1126644560</v>
+        <v>1193578885</v>
       </c>
       <c r="B22" s="38" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D22" s="39" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E22" s="37">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F22" s="38" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G22" s="37">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H22" s="37" t="str" cm="1">
         <f t="array" ref="H22">_xlfn.IFS(G22=1, "2:00 PM", G22=2, "2:30 PM", G22=3, "3:00 PM", G22=4, "3:30 PM")</f>
-        <v>3:30 PM</v>
+        <v>3:00 PM</v>
       </c>
       <c r="I22" s="40">
         <v>4</v>
@@ -3836,37 +3986,37 @@
       <c r="J22" s="37">
         <v>4</v>
       </c>
-      <c r="K22" s="37">
-        <v>4.8</v>
+      <c r="K22" s="41">
+        <v>4.5999999999999996</v>
       </c>
       <c r="L22" s="41">
         <f>(J22/I22)*K22</f>
-        <v>4.8</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="M22" s="42">
-        <v>3.59</v>
+        <v>2.96</v>
       </c>
       <c r="N22" s="42"/>
       <c r="O22" s="42">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P22" s="41">
         <f>0.7*L22+0.2*M22+0.1*O22+N22</f>
-        <v>4.5279999999999996</v>
+        <v>4.1619999999999999</v>
       </c>
       <c r="Q22" s="43">
-        <v>1.6342592592592593E-2</v>
+        <v>1.951388888888889E-2</v>
       </c>
       <c r="R22" s="44">
         <f>Q22/$R$2</f>
-        <v>0.7844444444444445</v>
+        <v>0.93666666666666676</v>
       </c>
       <c r="S22" s="45">
-        <v>2.0833333333333332E-2</v>
+        <v>0</v>
       </c>
       <c r="T22" s="44">
         <f>S22/$T$2</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U22" s="44">
         <v>1</v>
@@ -3876,62 +4026,60 @@
       </c>
       <c r="W22" s="52">
         <f>AVERAGE(R22,T22,V22)*5</f>
-        <v>4.6407407407407408</v>
+        <v>3.2277777777777779</v>
       </c>
       <c r="X22" s="47"/>
-      <c r="Y22" s="47">
-        <v>4</v>
-      </c>
-      <c r="Z22" s="47">
-        <v>0</v>
-      </c>
+      <c r="Y22" s="47"/>
+      <c r="Z22" s="47"/>
       <c r="AA22" s="47"/>
       <c r="AB22" s="47"/>
       <c r="AC22" s="47">
-        <f>AVERAGE(X22:AB22)</f>
-        <v>2</v>
-      </c>
-      <c r="AD22" s="41">
-        <v>4.5</v>
-      </c>
-      <c r="AE22" s="41">
-        <v>4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AD22" s="41"/>
+      <c r="AE22" s="41"/>
       <c r="AF22" s="41">
-        <v>5</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="AG22" s="51">
         <f>0.2*AF22+0.8*AVERAGE(AC22:AE22)</f>
-        <v>3.8000000000000003</v>
+        <v>0.46666666666666673</v>
       </c>
       <c r="AH22" s="41">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
       <c r="AI22" s="41">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="AJ22" s="41">
         <v>4.5</v>
       </c>
       <c r="AK22" s="41">
-        <v>4.8</v>
+        <v>3.5</v>
       </c>
       <c r="AL22" s="41">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="AM22" s="51">
         <f>AVERAGE(AH22:AL22)</f>
-        <v>4.42</v>
+        <v>4.0600000000000005</v>
       </c>
       <c r="AN22" s="51">
-        <v>0</v>
-      </c>
-      <c r="AO22" s="41">
-        <f>0.3*AN22+0.6*AM22+0.05*AG22+0.05*W22</f>
-        <v>3.0740370370370367</v>
-      </c>
-    </row>
-    <row r="23" spans="1:41" s="48" customFormat="1">
+        <v>4</v>
+      </c>
+      <c r="AO22" s="36">
+        <f>0.3*AN22+0.7*AM22</f>
+        <v>4.0419999999999998</v>
+      </c>
+      <c r="AP22" s="56">
+        <v>2.3252314814814816E-2</v>
+      </c>
+      <c r="AQ22" s="5">
+        <f t="shared" si="3"/>
+        <v>0.92240587695133269</v>
+      </c>
+    </row>
+    <row r="23" spans="1:43" s="48" customFormat="1">
       <c r="A23" s="37">
         <v>1004189893</v>
       </c>
@@ -4016,12 +4164,14 @@
       <c r="AO23" s="41">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:41">
+      <c r="AP23" s="41"/>
+      <c r="AQ23" s="41"/>
+    </row>
+    <row r="24" spans="1:43">
       <c r="G24" s="30"/>
       <c r="AO24" s="13"/>
     </row>
-    <row r="25" spans="1:41">
+    <row r="25" spans="1:43">
       <c r="G25" s="3"/>
       <c r="Q25" s="54" t="s">
         <v>147</v>
@@ -4030,16 +4180,16 @@
       <c r="S25" s="53"/>
       <c r="T25" s="53"/>
     </row>
-    <row r="26" spans="1:41">
+    <row r="26" spans="1:43">
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:41">
+    <row r="27" spans="1:43">
       <c r="G27" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:AO3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:AO23">
-      <sortCondition ref="G3"/>
+  <autoFilter ref="A3:AQ3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:AQ23">
+      <sortCondition ref="E3"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="P4:P23">
@@ -4067,7 +4217,7 @@
       <selection activeCell="A2" sqref="A2:B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="34.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
@@ -4169,7 +4319,7 @@
         <v>3.8461538461538463</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" ht="30">
       <c r="A13" s="25" t="s">
         <v>118</v>
       </c>
@@ -4251,7 +4401,7 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="66.28515625" bestFit="1" customWidth="1"/>
@@ -4345,7 +4495,7 @@
       <selection activeCell="A2" sqref="A2:C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="58.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="58.5703125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>

--- a/academics/DB2/2025-2/DB2 2025-2.xlsx
+++ b/academics/DB2/2025-2/DB2 2025-2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\UAO\oicampo-uao.github.io\academics\DB2\2025-2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\oicampo\Documents\GitHub\oicampo-uao.github.io\academics\DB2\2025-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2068B46-F52A-406F-8CCF-DF17B1A39C78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{675D8A19-4038-43B0-A5A9-3A6412D7C327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1304,49 +1304,49 @@
   <dimension ref="A1:AQ27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AR7" sqref="AR7"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="35.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="35.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.140625" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" customWidth="1"/>
     <col min="4" max="4" width="29.140625" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="6.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="6.140625" style="1" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="7.85546875" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="4.42578125" style="15" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="3.140625" style="1" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="4" style="1" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="3.5703125" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="4.5703125" style="13" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="6.42578125" style="13" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="5.42578125" style="13" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="6.7109375" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="12.5703125" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="11.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="12.5703125" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="11.5703125" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="12.5703125" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="11.5703125" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="14.7109375" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="12.7109375" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="12.42578125" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="13.28515625" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="12.42578125" hidden="1" customWidth="1"/>
-    <col min="28" max="29" width="8" hidden="1" customWidth="1"/>
-    <col min="30" max="31" width="5.28515625" hidden="1" customWidth="1"/>
-    <col min="32" max="33" width="12" style="1" hidden="1" customWidth="1"/>
-    <col min="34" max="34" width="11.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="35" max="35" width="12.140625" style="1" hidden="1" customWidth="1"/>
-    <col min="36" max="36" width="19.140625" style="1" hidden="1" customWidth="1"/>
-    <col min="37" max="37" width="9.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="38" max="38" width="11.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="39" max="39" width="14.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="40" max="40" width="22.28515625" style="1" hidden="1" customWidth="1"/>
-    <col min="41" max="41" width="13.28515625" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="7" max="7" width="6.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.85546875" customWidth="1"/>
+    <col min="9" max="9" width="4.42578125" style="15" customWidth="1"/>
+    <col min="10" max="10" width="3.140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="4" style="1" customWidth="1"/>
+    <col min="12" max="12" width="3.5703125" customWidth="1"/>
+    <col min="13" max="13" width="4.5703125" style="13" customWidth="1"/>
+    <col min="14" max="14" width="6.42578125" style="13" customWidth="1"/>
+    <col min="15" max="15" width="5.42578125" style="13" customWidth="1"/>
+    <col min="16" max="16" width="6.7109375" customWidth="1"/>
+    <col min="17" max="17" width="12.5703125" customWidth="1"/>
+    <col min="18" max="18" width="11.5703125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="12.5703125" customWidth="1"/>
+    <col min="20" max="20" width="11.5703125" customWidth="1"/>
+    <col min="21" max="21" width="12.5703125" customWidth="1"/>
+    <col min="22" max="22" width="11.5703125" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" customWidth="1"/>
+    <col min="24" max="24" width="12.7109375" customWidth="1"/>
+    <col min="25" max="25" width="12.42578125" customWidth="1"/>
+    <col min="26" max="26" width="13.28515625" customWidth="1"/>
+    <col min="27" max="27" width="12.42578125" customWidth="1"/>
+    <col min="28" max="29" width="8" customWidth="1"/>
+    <col min="30" max="31" width="5.28515625" customWidth="1"/>
+    <col min="32" max="33" width="12" style="1" customWidth="1"/>
+    <col min="34" max="34" width="11.5703125" style="1" customWidth="1"/>
+    <col min="35" max="35" width="12.140625" style="1" customWidth="1"/>
+    <col min="36" max="36" width="19.140625" style="1" customWidth="1"/>
+    <col min="37" max="37" width="9.5703125" style="1" customWidth="1"/>
+    <col min="38" max="38" width="11.42578125" style="1" customWidth="1"/>
+    <col min="39" max="39" width="14.42578125" style="1" customWidth="1"/>
+    <col min="40" max="40" width="22.28515625" style="1" customWidth="1"/>
+    <col min="41" max="41" width="13.28515625" style="1" customWidth="1"/>
     <col min="42" max="42" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -1556,11 +1556,11 @@
         <v>71</v>
       </c>
       <c r="G4" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H4" s="3" t="str" cm="1">
         <f t="array" ref="H4">_xlfn.IFS(G4=1, "2:00 PM", G4=2, "2:30 PM", G4=3, "3:00 PM", G4=4, "3:30 PM")</f>
-        <v>3:30 PM</v>
+        <v>3:00 PM</v>
       </c>
       <c r="I4" s="14">
         <v>1</v>
@@ -1572,7 +1572,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="L4" s="5">
-        <f>(J4/I4)*K4</f>
+        <f t="shared" ref="L4:L22" si="0">(J4/I4)*K4</f>
         <v>4.5999999999999996</v>
       </c>
       <c r="M4" s="12">
@@ -1583,21 +1583,21 @@
         <v>4.5</v>
       </c>
       <c r="P4" s="5">
-        <f>0.7*L4+0.2*M4+0.1*O4+N4</f>
+        <f t="shared" ref="P4:P22" si="1">0.7*L4+0.2*M4+0.1*O4+N4</f>
         <v>4.3879999999999999</v>
       </c>
       <c r="Q4" s="31">
         <v>1.3935185185185186E-2</v>
       </c>
       <c r="R4" s="32">
-        <f>Q4/$R$2</f>
+        <f t="shared" ref="R4:R22" si="2">Q4/$R$2</f>
         <v>0.66888888888888898</v>
       </c>
       <c r="S4" s="33">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="T4" s="32">
-        <f>S4/$T$2</f>
+        <f t="shared" ref="T4:T22" si="3">S4/$T$2</f>
         <v>1</v>
       </c>
       <c r="U4" s="32">
@@ -1620,7 +1620,7 @@
       </c>
       <c r="AB4" s="35"/>
       <c r="AC4" s="35">
-        <f>AVERAGE(X4:AB4)</f>
+        <f t="shared" ref="AC4:AC18" si="4">AVERAGE(X4:AB4)</f>
         <v>0</v>
       </c>
       <c r="AD4" s="5">
@@ -1652,14 +1652,14 @@
         <v>4.5</v>
       </c>
       <c r="AM4" s="5">
-        <f>AVERAGE(AH4:AL4)</f>
+        <f t="shared" ref="AM4:AM22" si="5">AVERAGE(AH4:AL4)</f>
         <v>4.42</v>
       </c>
       <c r="AN4" s="5">
         <v>4</v>
       </c>
       <c r="AO4" s="5">
-        <f>0.3*AN4+0.6*AM4+0.05*AG4+0.05*W4</f>
+        <f t="shared" ref="AO4:AO17" si="6">0.3*AN4+0.6*AM4+0.05*AG4+0.05*W4</f>
         <v>4.230240740740741</v>
       </c>
       <c r="AP4" s="56">
@@ -1690,11 +1690,11 @@
         <v>75</v>
       </c>
       <c r="G5" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H5" s="3" t="str" cm="1">
         <f t="array" ref="H5">_xlfn.IFS(G5=1, "2:00 PM", G5=2, "2:30 PM", G5=3, "3:00 PM", G5=4, "3:30 PM")</f>
-        <v>3:30 PM</v>
+        <v>3:00 PM</v>
       </c>
       <c r="I5" s="14">
         <v>3</v>
@@ -1706,7 +1706,7 @@
         <v>4.5</v>
       </c>
       <c r="L5" s="5">
-        <f>(J5/I5)*K5</f>
+        <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
       <c r="M5" s="12">
@@ -1717,21 +1717,21 @@
         <v>4.5</v>
       </c>
       <c r="P5" s="5">
-        <f>0.7*L5+0.2*M5+0.1*O5+N5</f>
+        <f t="shared" si="1"/>
         <v>4.3179999999999996</v>
       </c>
       <c r="Q5" s="31">
         <v>1.474537037037037E-2</v>
       </c>
       <c r="R5" s="32">
-        <f>Q5/$R$2</f>
+        <f t="shared" si="2"/>
         <v>0.70777777777777784</v>
       </c>
       <c r="S5" s="33">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="T5" s="32">
-        <f>S5/$T$2</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="U5" s="32">
@@ -1752,7 +1752,7 @@
       </c>
       <c r="AB5" s="35"/>
       <c r="AC5" s="35">
-        <f>AVERAGE(X5:AB5)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="AD5" s="5">
@@ -1784,18 +1784,18 @@
         <v>4.5</v>
       </c>
       <c r="AM5" s="5">
-        <f>AVERAGE(AH5:AL5)</f>
+        <f t="shared" si="5"/>
         <v>4.42</v>
       </c>
       <c r="AN5" s="5">
         <v>4</v>
       </c>
       <c r="AO5" s="5">
-        <f>0.3*AN5+0.6*AM5+0.05*AG5+0.05*W5</f>
+        <f t="shared" si="6"/>
         <v>4.2321353276353273</v>
       </c>
       <c r="AQ5" s="5">
-        <f t="shared" ref="AQ5:AQ8" si="0">AP5/0.0170138888888889</f>
+        <f t="shared" ref="AQ5:AQ8" si="7">AP5/0.0170138888888889</f>
         <v>0</v>
       </c>
     </row>
@@ -1819,11 +1819,11 @@
         <v>65</v>
       </c>
       <c r="G6" s="37">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H6" s="37" t="str" cm="1">
         <f t="array" ref="H6">_xlfn.IFS(G6=1, "2:00 PM", G6=2, "2:30 PM", G6=3, "3:00 PM", G6=4, "3:30 PM")</f>
-        <v>3:30 PM</v>
+        <v>3:00 PM</v>
       </c>
       <c r="I6" s="40">
         <v>4</v>
@@ -1835,7 +1835,7 @@
         <v>4.8</v>
       </c>
       <c r="L6" s="41">
-        <f>(J6/I6)*K6</f>
+        <f t="shared" si="0"/>
         <v>4.8</v>
       </c>
       <c r="M6" s="42">
@@ -1846,21 +1846,21 @@
         <v>4.5</v>
       </c>
       <c r="P6" s="41">
-        <f>0.7*L6+0.2*M6+0.1*O6+N6</f>
+        <f t="shared" si="1"/>
         <v>4.5279999999999996</v>
       </c>
       <c r="Q6" s="43">
         <v>1.6342592592592593E-2</v>
       </c>
       <c r="R6" s="44">
-        <f>Q6/$R$2</f>
+        <f t="shared" si="2"/>
         <v>0.7844444444444445</v>
       </c>
       <c r="S6" s="45">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="T6" s="44">
-        <f>S6/$T$2</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="U6" s="44">
@@ -1883,7 +1883,7 @@
       <c r="AA6" s="47"/>
       <c r="AB6" s="47"/>
       <c r="AC6" s="47">
-        <f>AVERAGE(X6:AB6)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AD6" s="41">
@@ -1896,7 +1896,7 @@
         <v>5</v>
       </c>
       <c r="AG6" s="51">
-        <f>0.2*AF6+0.8*AVERAGE(AC6:AE6)</f>
+        <f t="shared" ref="AG6:AG23" si="8">0.2*AF6+0.8*AVERAGE(AC6:AE6)</f>
         <v>3.8000000000000003</v>
       </c>
       <c r="AH6" s="41">
@@ -1915,21 +1915,21 @@
         <v>4.5</v>
       </c>
       <c r="AM6" s="51">
-        <f>AVERAGE(AH6:AL6)</f>
+        <f t="shared" si="5"/>
         <v>4.42</v>
       </c>
       <c r="AN6" s="51">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AO6" s="41">
-        <f>0.3*AN6+0.6*AM6+0.05*AG6+0.05*W6</f>
-        <v>3.0740370370370367</v>
+        <f t="shared" si="6"/>
+        <v>4.2740370370370364</v>
       </c>
       <c r="AP6" s="56">
         <v>1.6087962962962964E-2</v>
       </c>
       <c r="AQ6" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0.94557823129251639</v>
       </c>
     </row>
@@ -1953,11 +1953,11 @@
         <v>70</v>
       </c>
       <c r="G7" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H7" s="3" t="str" cm="1">
         <f t="array" ref="H7">_xlfn.IFS(G7=1, "2:00 PM", G7=2, "2:30 PM", G7=3, "3:00 PM", G7=4, "3:30 PM")</f>
-        <v>3:30 PM</v>
+        <v>3:00 PM</v>
       </c>
       <c r="I7" s="14">
         <v>5</v>
@@ -1969,7 +1969,7 @@
         <v>4.5</v>
       </c>
       <c r="L7" s="5">
-        <f>(J7/I7)*K7</f>
+        <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
       <c r="M7" s="12">
@@ -1980,21 +1980,21 @@
         <v>4.5</v>
       </c>
       <c r="P7" s="5">
-        <f>0.7*L7+0.2*M7+0.1*O7+N7</f>
+        <f t="shared" si="1"/>
         <v>4.3179999999999996</v>
       </c>
       <c r="Q7" s="31">
         <v>0</v>
       </c>
       <c r="R7" s="32">
-        <f>Q7/$R$2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S7" s="33">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="T7" s="32">
-        <f>S7/$T$2</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="U7" s="32">
@@ -2017,7 +2017,7 @@
       <c r="AA7" s="35"/>
       <c r="AB7" s="35"/>
       <c r="AC7" s="35">
-        <f>AVERAGE(X7:AB7)</f>
+        <f t="shared" si="4"/>
         <v>2.5</v>
       </c>
       <c r="AD7" s="5">
@@ -2030,7 +2030,7 @@
         <v>3.8461538461538463</v>
       </c>
       <c r="AG7" s="5">
-        <f>0.2*AF7+0.8*AVERAGE(AC7:AE7)</f>
+        <f t="shared" si="8"/>
         <v>3.3025641025641024</v>
       </c>
       <c r="AH7" s="5">
@@ -2049,18 +2049,18 @@
         <v>4.5</v>
       </c>
       <c r="AM7" s="5">
-        <f>AVERAGE(AH7:AL7)</f>
+        <f t="shared" si="5"/>
         <v>4.42</v>
       </c>
       <c r="AN7" s="5">
         <v>4</v>
       </c>
       <c r="AO7" s="5">
-        <f>0.3*AN7+0.6*AM7+0.05*AG7+0.05*W7</f>
+        <f t="shared" si="6"/>
         <v>4.1837948717948716</v>
       </c>
       <c r="AQ7" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2084,11 +2084,11 @@
         <v>68</v>
       </c>
       <c r="G8" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H8" s="3" t="str" cm="1">
         <f t="array" ref="H8">_xlfn.IFS(G8=1, "2:00 PM", G8=2, "2:30 PM", G8=3, "3:00 PM", G8=4, "3:30 PM")</f>
-        <v>3:30 PM</v>
+        <v>3:00 PM</v>
       </c>
       <c r="I8" s="14">
         <v>3</v>
@@ -2100,7 +2100,7 @@
         <v>4.8</v>
       </c>
       <c r="L8" s="5">
-        <f>(J8/I8)*K8</f>
+        <f t="shared" si="0"/>
         <v>4.8</v>
       </c>
       <c r="M8" s="12">
@@ -2114,21 +2114,21 @@
         <v>4.5</v>
       </c>
       <c r="P8" s="5">
-        <f>0.7*L8+0.2*M8+0.1*O8+N8</f>
+        <f t="shared" si="1"/>
         <v>4.5904999999999996</v>
       </c>
       <c r="Q8" s="31">
         <v>1.412037037037037E-2</v>
       </c>
       <c r="R8" s="32">
-        <f>Q8/$R$2</f>
+        <f t="shared" si="2"/>
         <v>0.67777777777777781</v>
       </c>
       <c r="S8" s="33">
         <v>0</v>
       </c>
       <c r="T8" s="32">
-        <f>S8/$T$2</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U8" s="32">
@@ -2150,7 +2150,7 @@
       <c r="AA8" s="35"/>
       <c r="AB8" s="35"/>
       <c r="AC8" s="35">
-        <f>AVERAGE(X8:AB8)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AD8" s="5">
@@ -2163,7 +2163,7 @@
         <v>4.9230769230769234</v>
       </c>
       <c r="AG8" s="5">
-        <f>0.2*AF8+0.8*AVERAGE(AC8:AE8)</f>
+        <f t="shared" si="8"/>
         <v>3.7846153846153849</v>
       </c>
       <c r="AH8" s="5">
@@ -2182,21 +2182,21 @@
         <v>4.5</v>
       </c>
       <c r="AM8" s="5">
-        <f>AVERAGE(AH8:AL8)</f>
+        <f t="shared" si="5"/>
         <v>4.42</v>
       </c>
       <c r="AN8" s="5">
         <v>4</v>
       </c>
       <c r="AO8" s="5">
-        <f>0.3*AN8+0.6*AM8+0.05*AG8+0.05*W8</f>
+        <f t="shared" si="6"/>
         <v>4.1912307692307689</v>
       </c>
       <c r="AP8" s="56">
         <v>1.7013888888888887E-2</v>
       </c>
       <c r="AQ8" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0.99999999999999922</v>
       </c>
     </row>
@@ -2220,11 +2220,11 @@
         <v>78</v>
       </c>
       <c r="G9" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H9" s="3" t="str" cm="1">
         <f t="array" ref="H9">_xlfn.IFS(G9=1, "2:00 PM", G9=2, "2:30 PM", G9=3, "3:00 PM", G9=4, "3:30 PM")</f>
-        <v>2:00 PM</v>
+        <v>3:30 PM</v>
       </c>
       <c r="I9" s="14">
         <v>4</v>
@@ -2236,7 +2236,7 @@
         <v>4.8</v>
       </c>
       <c r="L9" s="5">
-        <f>(J9/I9)*K9</f>
+        <f t="shared" si="0"/>
         <v>4.8</v>
       </c>
       <c r="M9" s="12">
@@ -2250,21 +2250,21 @@
         <v>4.7</v>
       </c>
       <c r="P9" s="5">
-        <f>0.7*L9+0.2*M9+0.1*O9+N9</f>
+        <f t="shared" si="1"/>
         <v>4.6900000000000004</v>
       </c>
       <c r="Q9" s="31">
         <v>1.4976851851851852E-2</v>
       </c>
       <c r="R9" s="32">
-        <f>Q9/$R$2</f>
+        <f t="shared" si="2"/>
         <v>0.71888888888888891</v>
       </c>
       <c r="S9" s="33">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="T9" s="32">
-        <f>S9/$T$2</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="U9" s="32">
@@ -2274,7 +2274,7 @@
         <v>1</v>
       </c>
       <c r="W9" s="12">
-        <f>AVERAGE(R9,T9,V9)*5</f>
+        <f t="shared" ref="W9:W17" si="9">AVERAGE(R9,T9,V9)*5</f>
         <v>4.5314814814814817</v>
       </c>
       <c r="X9" s="35">
@@ -2287,7 +2287,7 @@
       <c r="AA9" s="35"/>
       <c r="AB9" s="35"/>
       <c r="AC9" s="35">
-        <f>AVERAGE(X9:AB9)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AD9" s="5">
@@ -2300,7 +2300,7 @@
         <v>4.9285714285714288</v>
       </c>
       <c r="AG9" s="5">
-        <f>0.2*AF9+0.8*AVERAGE(AC9:AE9)</f>
+        <f t="shared" si="8"/>
         <v>4.3190476190476197</v>
       </c>
       <c r="AH9" s="5">
@@ -2319,14 +2319,14 @@
         <v>4.5</v>
       </c>
       <c r="AM9" s="5">
-        <f>AVERAGE(AH9:AL9)</f>
+        <f t="shared" si="5"/>
         <v>4.7200000000000006</v>
       </c>
       <c r="AN9" s="5">
         <v>4.5</v>
       </c>
       <c r="AO9" s="5">
-        <f>0.3*AN9+0.6*AM9+0.05*AG9+0.05*W9</f>
+        <f t="shared" si="6"/>
         <v>4.624526455026456</v>
       </c>
       <c r="AP9" s="56">
@@ -2357,11 +2357,11 @@
         <v>93</v>
       </c>
       <c r="G10" s="37">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H10" s="37" t="str" cm="1">
         <f t="array" ref="H10">_xlfn.IFS(G10=1, "2:00 PM", G10=2, "2:30 PM", G10=3, "3:00 PM", G10=4, "3:30 PM")</f>
-        <v>2:00 PM</v>
+        <v>3:30 PM</v>
       </c>
       <c r="I10" s="40">
         <v>3</v>
@@ -2373,7 +2373,7 @@
         <v>4.8</v>
       </c>
       <c r="L10" s="41">
-        <f>(J10/I10)*K10</f>
+        <f t="shared" si="0"/>
         <v>4.8</v>
       </c>
       <c r="M10" s="42">
@@ -2387,21 +2387,21 @@
         <v>4.7</v>
       </c>
       <c r="P10" s="41">
-        <f>0.7*L10+0.2*M10+0.1*O10+N10</f>
+        <f t="shared" si="1"/>
         <v>4.6399999999999997</v>
       </c>
       <c r="Q10" s="43">
         <v>1.5833333333333335E-2</v>
       </c>
       <c r="R10" s="44">
-        <f>Q10/$R$2</f>
+        <f t="shared" si="2"/>
         <v>0.76000000000000012</v>
       </c>
       <c r="S10" s="45">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="T10" s="44">
-        <f>S10/$T$2</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="U10" s="44">
@@ -2411,7 +2411,7 @@
         <v>0.6</v>
       </c>
       <c r="W10" s="52">
-        <f>AVERAGE(R10,T10,V10)*5</f>
+        <f t="shared" si="9"/>
         <v>3.9333333333333336</v>
       </c>
       <c r="X10" s="47">
@@ -2424,7 +2424,7 @@
       </c>
       <c r="AB10" s="47"/>
       <c r="AC10" s="47">
-        <f>AVERAGE(X10:AB10)</f>
+        <f t="shared" si="4"/>
         <v>4.5</v>
       </c>
       <c r="AD10" s="41">
@@ -2437,7 +2437,7 @@
         <v>4.8571428571428568</v>
       </c>
       <c r="AG10" s="51">
-        <f>0.2*AF10+0.8*AVERAGE(AC10:AE10)</f>
+        <f t="shared" si="8"/>
         <v>4.7047619047619049</v>
       </c>
       <c r="AH10" s="41">
@@ -2456,21 +2456,21 @@
         <v>4.5</v>
       </c>
       <c r="AM10" s="51">
-        <f>AVERAGE(AH10:AL10)</f>
+        <f t="shared" si="5"/>
         <v>4.7200000000000006</v>
       </c>
       <c r="AN10" s="51">
         <v>4.5</v>
       </c>
       <c r="AO10" s="41">
-        <f>0.3*AN10+0.6*AM10+0.05*AG10+0.05*W10</f>
+        <f t="shared" si="6"/>
         <v>4.6139047619047622</v>
       </c>
       <c r="AP10" s="56">
         <v>1.6631944444444446E-2</v>
       </c>
       <c r="AQ10" s="5">
-        <f t="shared" ref="AQ10:AQ13" si="1">AP10/0.0230324074074074</f>
+        <f t="shared" ref="AQ10:AQ13" si="10">AP10/0.0230324074074074</f>
         <v>0.72211055276381941</v>
       </c>
     </row>
@@ -2494,11 +2494,11 @@
         <v>69</v>
       </c>
       <c r="G11" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H11" s="3" t="str" cm="1">
         <f t="array" ref="H11">_xlfn.IFS(G11=1, "2:00 PM", G11=2, "2:30 PM", G11=3, "3:00 PM", G11=4, "3:30 PM")</f>
-        <v>2:00 PM</v>
+        <v>3:30 PM</v>
       </c>
       <c r="I11" s="14">
         <v>7</v>
@@ -2510,7 +2510,7 @@
         <v>4.8</v>
       </c>
       <c r="L11" s="5">
-        <f>(J11/I11)*K11</f>
+        <f t="shared" si="0"/>
         <v>4.8</v>
       </c>
       <c r="M11" s="12">
@@ -2524,21 +2524,21 @@
         <v>4.7</v>
       </c>
       <c r="P11" s="5">
-        <f>0.7*L11+0.2*M11+0.1*O11+N11</f>
+        <f t="shared" si="1"/>
         <v>4.59</v>
       </c>
       <c r="Q11" s="31">
         <v>1.4652777777777778E-2</v>
       </c>
       <c r="R11" s="32">
-        <f>Q11/$R$2</f>
+        <f t="shared" si="2"/>
         <v>0.70333333333333337</v>
       </c>
       <c r="S11" s="45">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="T11" s="32">
-        <f>S11/$T$2</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="U11" s="32">
@@ -2548,7 +2548,7 @@
         <v>1</v>
       </c>
       <c r="W11" s="12">
-        <f>AVERAGE(R11,T11,V11)*5</f>
+        <f t="shared" si="9"/>
         <v>4.5055555555555555</v>
       </c>
       <c r="X11" s="35">
@@ -2561,7 +2561,7 @@
       <c r="AA11" s="35"/>
       <c r="AB11" s="35"/>
       <c r="AC11" s="35">
-        <f>AVERAGE(X11:AB11)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="AD11" s="5">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="AG11" s="5">
-        <f>0.2*AF11+0.8*AVERAGE(AC11:AE11)</f>
+        <f t="shared" si="8"/>
         <v>4.5999999999999996</v>
       </c>
       <c r="AH11" s="5">
@@ -2593,21 +2593,21 @@
         <v>4.5</v>
       </c>
       <c r="AM11" s="5">
-        <f>AVERAGE(AH11:AL11)</f>
+        <f t="shared" si="5"/>
         <v>4.7200000000000006</v>
       </c>
       <c r="AN11" s="5">
         <v>4.5</v>
       </c>
       <c r="AO11" s="5">
-        <f>0.3*AN11+0.6*AM11+0.05*AG11+0.05*W11</f>
+        <f t="shared" si="6"/>
         <v>4.6372777777777783</v>
       </c>
       <c r="AP11" s="56">
         <v>2.2974537037037036E-2</v>
       </c>
       <c r="AQ11" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>0.99748743718592991</v>
       </c>
     </row>
@@ -2631,11 +2631,11 @@
         <v>61</v>
       </c>
       <c r="G12" s="37">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H12" s="37" t="str" cm="1">
         <f t="array" ref="H12">_xlfn.IFS(G12=1, "2:00 PM", G12=2, "2:30 PM", G12=3, "3:00 PM", G12=4, "3:30 PM")</f>
-        <v>2:00 PM</v>
+        <v>3:30 PM</v>
       </c>
       <c r="I12" s="40">
         <v>7</v>
@@ -2647,7 +2647,7 @@
         <v>4.8</v>
       </c>
       <c r="L12" s="41">
-        <f>(J12/I12)*K12</f>
+        <f t="shared" si="0"/>
         <v>4.8</v>
       </c>
       <c r="M12" s="42">
@@ -2661,21 +2661,21 @@
         <v>4.7</v>
       </c>
       <c r="P12" s="41">
-        <f>0.7*L12+0.2*M12+0.1*O12+N12</f>
+        <f t="shared" si="1"/>
         <v>4.59</v>
       </c>
       <c r="Q12" s="43">
         <v>1.5520833333333333E-2</v>
       </c>
       <c r="R12" s="44">
-        <f>Q12/$R$2</f>
+        <f t="shared" si="2"/>
         <v>0.745</v>
       </c>
       <c r="S12" s="45">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="T12" s="44">
-        <f>S12/$T$2</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="U12" s="44">
@@ -2685,7 +2685,7 @@
         <v>0.8</v>
       </c>
       <c r="W12" s="52">
-        <f>AVERAGE(R12,T12,V12)*5</f>
+        <f t="shared" si="9"/>
         <v>4.2416666666666663</v>
       </c>
       <c r="X12" s="47">
@@ -2698,7 +2698,7 @@
       </c>
       <c r="AB12" s="47"/>
       <c r="AC12" s="47">
-        <f>AVERAGE(X12:AB12)</f>
+        <f t="shared" si="4"/>
         <v>3.5</v>
       </c>
       <c r="AD12" s="41">
@@ -2709,7 +2709,7 @@
         <v>4.9285714285714288</v>
       </c>
       <c r="AG12" s="51">
-        <f>0.2*AF12+0.8*AVERAGE(AC12:AE12)</f>
+        <f t="shared" si="8"/>
         <v>4.1857142857142859</v>
       </c>
       <c r="AH12" s="41">
@@ -2728,21 +2728,21 @@
         <v>4.5</v>
       </c>
       <c r="AM12" s="51">
-        <f>AVERAGE(AH12:AL12)</f>
+        <f t="shared" si="5"/>
         <v>4.7200000000000006</v>
       </c>
       <c r="AN12" s="51">
         <v>4.5</v>
       </c>
       <c r="AO12" s="41">
-        <f>0.3*AN12+0.6*AM12+0.05*AG12+0.05*W12</f>
+        <f t="shared" si="6"/>
         <v>4.6033690476190481</v>
       </c>
       <c r="AP12" s="56">
         <v>2.3009259259259261E-2</v>
       </c>
       <c r="AQ12" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>0.99899497487437217</v>
       </c>
     </row>
@@ -2766,11 +2766,11 @@
         <v>66</v>
       </c>
       <c r="G13" s="37">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H13" s="37" t="str" cm="1">
         <f t="array" ref="H13">_xlfn.IFS(G13=1, "2:00 PM", G13=2, "2:30 PM", G13=3, "3:00 PM", G13=4, "3:30 PM")</f>
-        <v>2:00 PM</v>
+        <v>3:30 PM</v>
       </c>
       <c r="I13" s="40">
         <v>11</v>
@@ -2782,7 +2782,7 @@
         <v>4.8</v>
       </c>
       <c r="L13" s="41">
-        <f>(J13/I13)*K13</f>
+        <f t="shared" si="0"/>
         <v>4.8</v>
       </c>
       <c r="M13" s="42">
@@ -2796,21 +2796,21 @@
         <v>4.7</v>
       </c>
       <c r="P13" s="41">
-        <f>0.7*L13+0.2*M13+0.1*O13+N13</f>
+        <f t="shared" si="1"/>
         <v>4.79</v>
       </c>
       <c r="Q13" s="43">
         <v>1.5972222222222221E-2</v>
       </c>
       <c r="R13" s="44">
-        <f>Q13/$R$2</f>
+        <f t="shared" si="2"/>
         <v>0.76666666666666661</v>
       </c>
       <c r="S13" s="45">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="T13" s="44">
-        <f>S13/$T$2</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="U13" s="44">
@@ -2820,7 +2820,7 @@
         <v>1</v>
       </c>
       <c r="W13" s="52">
-        <f>AVERAGE(R13,T13,V13)*5</f>
+        <f t="shared" si="9"/>
         <v>4.6111111111111107</v>
       </c>
       <c r="X13" s="47"/>
@@ -2835,7 +2835,7 @@
         <v>3</v>
       </c>
       <c r="AC13" s="47">
-        <f>AVERAGE(X13:AB13)</f>
+        <f t="shared" si="4"/>
         <v>3.3333333333333335</v>
       </c>
       <c r="AD13" s="41">
@@ -2848,7 +2848,7 @@
         <v>5</v>
       </c>
       <c r="AG13" s="51">
-        <f>0.2*AF13+0.8*AVERAGE(AC13:AE13)</f>
+        <f t="shared" si="8"/>
         <v>4.5555555555555554</v>
       </c>
       <c r="AH13" s="41">
@@ -2867,21 +2867,21 @@
         <v>4.5</v>
       </c>
       <c r="AM13" s="51">
-        <f>AVERAGE(AH13:AL13)</f>
+        <f t="shared" si="5"/>
         <v>4.7200000000000006</v>
       </c>
       <c r="AN13" s="51">
         <v>4.5</v>
       </c>
       <c r="AO13" s="41">
-        <f>0.3*AN13+0.6*AM13+0.05*AG13+0.05*W13</f>
+        <f t="shared" si="6"/>
         <v>4.6403333333333334</v>
       </c>
       <c r="AP13" s="56">
         <v>2.3032407407407408E-2</v>
       </c>
       <c r="AQ13" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>1.0000000000000002</v>
       </c>
     </row>
@@ -2905,11 +2905,11 @@
         <v>67</v>
       </c>
       <c r="G14" s="37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H14" s="37" t="str" cm="1">
         <f t="array" ref="H14">_xlfn.IFS(G14=1, "2:00 PM", G14=2, "2:30 PM", G14=3, "3:00 PM", G14=4, "3:30 PM")</f>
-        <v>2:30 PM</v>
+        <v>2:00 PM</v>
       </c>
       <c r="I14" s="40">
         <v>5</v>
@@ -2921,7 +2921,7 @@
         <v>4.5</v>
       </c>
       <c r="L14" s="41">
-        <f>(J14/I14)*K14</f>
+        <f t="shared" si="0"/>
         <v>2.6999999999999997</v>
       </c>
       <c r="M14" s="42">
@@ -2932,21 +2932,21 @@
         <v>3</v>
       </c>
       <c r="P14" s="41">
-        <f>0.7*L14+0.2*M14+0.1*O14+N14</f>
+        <f t="shared" si="1"/>
         <v>2.742</v>
       </c>
       <c r="Q14" s="43">
         <v>1.8506944444444444E-2</v>
       </c>
       <c r="R14" s="44">
-        <f>Q14/$R$2</f>
+        <f t="shared" si="2"/>
         <v>0.88833333333333331</v>
       </c>
       <c r="S14" s="45">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="T14" s="44">
-        <f>S14/$T$2</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="U14" s="44">
@@ -2956,7 +2956,7 @@
         <v>0.8</v>
       </c>
       <c r="W14" s="52">
-        <f>AVERAGE(R14,T14,V14)*5</f>
+        <f t="shared" si="9"/>
         <v>4.4805555555555561</v>
       </c>
       <c r="X14" s="47">
@@ -2971,7 +2971,7 @@
       </c>
       <c r="AB14" s="47"/>
       <c r="AC14" s="47">
-        <f>AVERAGE(X14:AB14)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AD14" s="41">
@@ -2984,7 +2984,7 @@
         <v>4.7692307692307692</v>
       </c>
       <c r="AG14" s="51">
-        <f>0.2*AF14+0.8*AVERAGE(AC14:AE14)</f>
+        <f t="shared" si="8"/>
         <v>3.620512820512821</v>
       </c>
       <c r="AH14" s="41">
@@ -3003,14 +3003,14 @@
         <v>4.3</v>
       </c>
       <c r="AM14" s="51">
-        <f>AVERAGE(AH14:AL14)</f>
+        <f t="shared" si="5"/>
         <v>4.3</v>
       </c>
       <c r="AN14" s="51">
         <v>0</v>
       </c>
       <c r="AO14" s="41">
-        <f>0.3*AN14+0.6*AM14+0.05*AG14+0.05*W14</f>
+        <f t="shared" si="6"/>
         <v>2.9850534188034183</v>
       </c>
       <c r="AP14" s="56">
@@ -3041,11 +3041,11 @@
         <v>72</v>
       </c>
       <c r="G15" s="37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H15" s="37" t="str" cm="1">
         <f t="array" ref="H15">_xlfn.IFS(G15=1, "2:00 PM", G15=2, "2:30 PM", G15=3, "3:00 PM", G15=4, "3:30 PM")</f>
-        <v>2:30 PM</v>
+        <v>2:00 PM</v>
       </c>
       <c r="I15" s="40">
         <v>6</v>
@@ -3057,7 +3057,7 @@
         <v>4.8</v>
       </c>
       <c r="L15" s="41">
-        <f>(J15/I15)*K15</f>
+        <f t="shared" si="0"/>
         <v>4.8</v>
       </c>
       <c r="M15" s="42">
@@ -3071,21 +3071,21 @@
         <v>3</v>
       </c>
       <c r="P15" s="41">
-        <f>0.7*L15+0.2*M15+0.1*O15+N15</f>
+        <f t="shared" si="1"/>
         <v>4.2889230769230764</v>
       </c>
       <c r="Q15" s="43">
         <v>1.1863425925925927E-2</v>
       </c>
       <c r="R15" s="44">
-        <f>Q15/$R$2</f>
+        <f t="shared" si="2"/>
         <v>0.56944444444444453</v>
       </c>
       <c r="S15" s="45">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="T15" s="44">
-        <f>S15/$T$2</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="U15" s="44">
@@ -3095,7 +3095,7 @@
         <v>1</v>
       </c>
       <c r="W15" s="52">
-        <f>AVERAGE(R15,T15,V15)*5</f>
+        <f t="shared" si="9"/>
         <v>4.2824074074074074</v>
       </c>
       <c r="X15" s="47">
@@ -3110,7 +3110,7 @@
       </c>
       <c r="AB15" s="47"/>
       <c r="AC15" s="47">
-        <f>AVERAGE(X15:AB15)</f>
+        <f t="shared" si="4"/>
         <v>4.333333333333333</v>
       </c>
       <c r="AD15" s="41">
@@ -3123,7 +3123,7 @@
         <v>4.6923076923076925</v>
       </c>
       <c r="AG15" s="51">
-        <f>0.2*AF15+0.8*AVERAGE(AC15:AE15)</f>
+        <f t="shared" si="8"/>
         <v>4.2273504273504274</v>
       </c>
       <c r="AH15" s="41">
@@ -3142,21 +3142,21 @@
         <v>4.3</v>
       </c>
       <c r="AM15" s="51">
-        <f>AVERAGE(AH15:AL15)</f>
+        <f t="shared" si="5"/>
         <v>4.3</v>
       </c>
       <c r="AN15" s="51">
         <v>0</v>
       </c>
       <c r="AO15" s="41">
-        <f>0.3*AN15+0.6*AM15+0.05*AG15+0.05*W15</f>
+        <f t="shared" si="6"/>
         <v>3.0054878917378911</v>
       </c>
       <c r="AP15" s="56">
         <v>1.7175925925925924E-2</v>
       </c>
       <c r="AQ15" s="41">
-        <f t="shared" ref="AQ15:AQ18" si="2">AP15/0.0221875</f>
+        <f t="shared" ref="AQ15:AQ18" si="11">AP15/0.0221875</f>
         <v>0.77412623891497123</v>
       </c>
     </row>
@@ -3180,11 +3180,11 @@
         <v>79</v>
       </c>
       <c r="G16" s="37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H16" s="37" t="str" cm="1">
         <f t="array" ref="H16">_xlfn.IFS(G16=1, "2:00 PM", G16=2, "2:30 PM", G16=3, "3:00 PM", G16=4, "3:30 PM")</f>
-        <v>2:30 PM</v>
+        <v>2:00 PM</v>
       </c>
       <c r="I16" s="40">
         <v>5</v>
@@ -3196,7 +3196,7 @@
         <v>4.8</v>
       </c>
       <c r="L16" s="41">
-        <f>(J16/I16)*K16</f>
+        <f t="shared" si="0"/>
         <v>4.8</v>
       </c>
       <c r="M16" s="42">
@@ -3207,21 +3207,21 @@
         <v>3</v>
       </c>
       <c r="P16" s="41">
-        <f>0.7*L16+0.2*M16+0.1*O16+N16</f>
+        <f t="shared" si="1"/>
         <v>4.2119999999999997</v>
       </c>
       <c r="Q16" s="43">
         <v>1.8159722222222223E-2</v>
       </c>
       <c r="R16" s="44">
-        <f>Q16/$R$2</f>
+        <f t="shared" si="2"/>
         <v>0.8716666666666667</v>
       </c>
       <c r="S16" s="45">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="T16" s="44">
-        <f>S16/$T$2</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="U16" s="44">
@@ -3231,7 +3231,7 @@
         <v>1</v>
       </c>
       <c r="W16" s="52">
-        <f>AVERAGE(R16,T16,V16)*5</f>
+        <f t="shared" si="9"/>
         <v>4.7861111111111114</v>
       </c>
       <c r="X16" s="47">
@@ -3244,7 +3244,7 @@
       </c>
       <c r="AB16" s="47"/>
       <c r="AC16" s="47">
-        <f>AVERAGE(X16:AB16)</f>
+        <f t="shared" si="4"/>
         <v>4.5</v>
       </c>
       <c r="AD16" s="41">
@@ -3257,7 +3257,7 @@
         <v>4.615384615384615</v>
       </c>
       <c r="AG16" s="51">
-        <f>0.2*AF16+0.8*AVERAGE(AC16:AE16)</f>
+        <f t="shared" si="8"/>
         <v>4.2564102564102573</v>
       </c>
       <c r="AH16" s="41">
@@ -3276,21 +3276,21 @@
         <v>4.3</v>
       </c>
       <c r="AM16" s="51">
-        <f>AVERAGE(AH16:AL16)</f>
+        <f t="shared" si="5"/>
         <v>4.3</v>
       </c>
       <c r="AN16" s="51">
         <v>0</v>
       </c>
       <c r="AO16" s="41">
-        <f>0.3*AN16+0.6*AM16+0.05*AG16+0.05*W16</f>
+        <f t="shared" si="6"/>
         <v>3.0321260683760682</v>
       </c>
       <c r="AP16" s="56">
         <v>2.1921296296296296E-2</v>
       </c>
       <c r="AQ16" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0.98800208659363598</v>
       </c>
     </row>
@@ -3314,11 +3314,11 @@
         <v>73</v>
       </c>
       <c r="G17" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H17" s="3" t="str" cm="1">
         <f t="array" ref="H17">_xlfn.IFS(G17=1, "2:00 PM", G17=2, "2:30 PM", G17=3, "3:00 PM", G17=4, "3:30 PM")</f>
-        <v>2:30 PM</v>
+        <v>2:00 PM</v>
       </c>
       <c r="I17" s="14">
         <v>5</v>
@@ -3330,7 +3330,7 @@
         <v>4.8</v>
       </c>
       <c r="L17" s="5">
-        <f>(J17/I17)*K17</f>
+        <f t="shared" si="0"/>
         <v>4.8</v>
       </c>
       <c r="M17" s="12">
@@ -3341,21 +3341,21 @@
         <v>3</v>
       </c>
       <c r="P17" s="5">
-        <f>0.7*L17+0.2*M17+0.1*O17+N17</f>
+        <f t="shared" si="1"/>
         <v>4.2119999999999997</v>
       </c>
       <c r="Q17" s="31">
         <v>9.9305555555555553E-3</v>
       </c>
       <c r="R17" s="32">
-        <f>Q17/$R$2</f>
+        <f t="shared" si="2"/>
         <v>0.47666666666666668</v>
       </c>
       <c r="S17" s="33">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="T17" s="32">
-        <f>S17/$T$2</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="U17" s="32">
@@ -3365,7 +3365,7 @@
         <v>1</v>
       </c>
       <c r="W17" s="12">
-        <f>AVERAGE(R17,T17,V17)*5</f>
+        <f t="shared" si="9"/>
         <v>4.1277777777777773</v>
       </c>
       <c r="X17" s="35">
@@ -3378,7 +3378,7 @@
       </c>
       <c r="AB17" s="35"/>
       <c r="AC17" s="35">
-        <f>AVERAGE(X17:AB17)</f>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="AD17" s="5">
@@ -3391,7 +3391,7 @@
         <v>4.615384615384615</v>
       </c>
       <c r="AG17" s="5">
-        <f>0.2*AF17+0.8*AVERAGE(AC17:AE17)</f>
+        <f t="shared" si="8"/>
         <v>3.4564102564102561</v>
       </c>
       <c r="AH17" s="5">
@@ -3410,21 +3410,21 @@
         <v>4.3</v>
       </c>
       <c r="AM17" s="5">
-        <f>AVERAGE(AH17:AL17)</f>
+        <f t="shared" si="5"/>
         <v>4.3</v>
       </c>
       <c r="AN17" s="5">
         <v>0</v>
       </c>
       <c r="AO17" s="5">
-        <f>0.3*AN17+0.6*AM17+0.05*AG17+0.05*W17</f>
+        <f t="shared" si="6"/>
         <v>2.9592094017094013</v>
       </c>
       <c r="AP17" s="56">
         <v>1.9305555555555555E-2</v>
       </c>
       <c r="AQ17" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0.87010954616588421</v>
       </c>
     </row>
@@ -3448,11 +3448,11 @@
         <v>74</v>
       </c>
       <c r="G18" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H18" s="3" t="str" cm="1">
         <f t="array" ref="H18">_xlfn.IFS(G18=1, "2:00 PM", G18=2, "2:30 PM", G18=3, "3:00 PM", G18=4, "3:30 PM")</f>
-        <v>2:30 PM</v>
+        <v>2:00 PM</v>
       </c>
       <c r="I18" s="14">
         <v>6</v>
@@ -3464,7 +3464,7 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="L18" s="5">
-        <f>(J18/I18)*K18</f>
+        <f t="shared" si="0"/>
         <v>4.9000000000000004</v>
       </c>
       <c r="M18" s="12">
@@ -3475,21 +3475,21 @@
         <v>3</v>
       </c>
       <c r="P18" s="5">
-        <f>0.7*L18+0.2*M18+0.1*O18+N18</f>
+        <f t="shared" si="1"/>
         <v>4.282</v>
       </c>
       <c r="Q18" s="31">
         <v>0</v>
       </c>
       <c r="R18" s="32">
-        <f>Q18/$R$2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S18" s="33">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="T18" s="32">
-        <f>S18/$T$2</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="U18" s="32">
@@ -3513,7 +3513,7 @@
       </c>
       <c r="AB18" s="35"/>
       <c r="AC18" s="35">
-        <f>AVERAGE(X18:AB18)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AD18" s="5">
@@ -3526,7 +3526,7 @@
         <v>4.5384615384615383</v>
       </c>
       <c r="AG18" s="5">
-        <f>0.2*AF18+0.8*AVERAGE(AC18:AE18)</f>
+        <f t="shared" si="8"/>
         <v>3.5743589743589745</v>
       </c>
       <c r="AH18" s="5">
@@ -3545,7 +3545,7 @@
         <v>4.3</v>
       </c>
       <c r="AM18" s="5">
-        <f>AVERAGE(AH18:AL18)</f>
+        <f t="shared" si="5"/>
         <v>4.3</v>
       </c>
       <c r="AN18" s="5">
@@ -3558,7 +3558,7 @@
         <v>2.2037037037037036E-2</v>
       </c>
       <c r="AQ18" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0.99321857068335939</v>
       </c>
     </row>
@@ -3582,11 +3582,11 @@
         <v>62</v>
       </c>
       <c r="G19" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H19" s="3" t="str" cm="1">
         <f t="array" ref="H19">_xlfn.IFS(G19=1, "2:00 PM", G19=2, "2:30 PM", G19=3, "3:00 PM", G19=4, "3:30 PM")</f>
-        <v>3:00 PM</v>
+        <v>2:30 PM</v>
       </c>
       <c r="I19" s="14">
         <v>5</v>
@@ -3598,7 +3598,7 @@
         <v>4.7</v>
       </c>
       <c r="L19" s="5">
-        <f>(J19/I19)*K19</f>
+        <f t="shared" si="0"/>
         <v>4.7</v>
       </c>
       <c r="M19" s="12">
@@ -3609,21 +3609,21 @@
         <v>3.5</v>
       </c>
       <c r="P19" s="5">
-        <f>0.7*L19+0.2*M19+0.1*O19+N19</f>
+        <f t="shared" si="1"/>
         <v>4.2320000000000002</v>
       </c>
       <c r="Q19" s="31">
         <v>2.0243055555555556E-2</v>
       </c>
       <c r="R19" s="32">
-        <f>Q19/$R$2</f>
+        <f t="shared" si="2"/>
         <v>0.97166666666666668</v>
       </c>
       <c r="S19" s="33">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="T19" s="32">
-        <f>S19/$T$2</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="U19" s="32">
@@ -3650,7 +3650,7 @@
         <v>2.3333333333333335</v>
       </c>
       <c r="AG19" s="5">
-        <f>0.2*AF19+0.8*AVERAGE(AC19:AE19)</f>
+        <f t="shared" si="8"/>
         <v>0.46666666666666673</v>
       </c>
       <c r="AH19" s="5">
@@ -3669,7 +3669,7 @@
         <v>3</v>
       </c>
       <c r="AM19" s="5">
-        <f>AVERAGE(AH19:AL19)</f>
+        <f t="shared" si="5"/>
         <v>4.0600000000000005</v>
       </c>
       <c r="AN19" s="5">
@@ -3707,11 +3707,11 @@
         <v>63</v>
       </c>
       <c r="G20" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H20" s="3" t="str" cm="1">
         <f t="array" ref="H20">_xlfn.IFS(G20=1, "2:00 PM", G20=2, "2:30 PM", G20=3, "3:00 PM", G20=4, "3:30 PM")</f>
-        <v>3:00 PM</v>
+        <v>2:30 PM</v>
       </c>
       <c r="I20" s="14">
         <v>4</v>
@@ -3723,7 +3723,7 @@
         <v>4.8</v>
       </c>
       <c r="L20" s="5">
-        <f>(J20/I20)*K20</f>
+        <f t="shared" si="0"/>
         <v>4.8</v>
       </c>
       <c r="M20" s="12">
@@ -3734,21 +3734,21 @@
         <v>3.5</v>
       </c>
       <c r="P20" s="5">
-        <f>0.7*L20+0.2*M20+0.1*O20+N20</f>
+        <f t="shared" si="1"/>
         <v>4.3019999999999996</v>
       </c>
       <c r="Q20" s="31">
         <v>2.0532407407407409E-2</v>
       </c>
       <c r="R20" s="32">
-        <f>Q20/$R$2</f>
+        <f t="shared" si="2"/>
         <v>0.98555555555555563</v>
       </c>
       <c r="S20" s="33">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="T20" s="32">
-        <f>S20/$T$2</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="U20" s="32">
@@ -3786,7 +3786,7 @@
         <v>4.833333333333333</v>
       </c>
       <c r="AG20" s="5">
-        <f>0.2*AF20+0.8*AVERAGE(AC20:AE20)</f>
+        <f t="shared" si="8"/>
         <v>4.7</v>
       </c>
       <c r="AH20" s="5">
@@ -3805,7 +3805,7 @@
         <v>3</v>
       </c>
       <c r="AM20" s="5">
-        <f>AVERAGE(AH20:AL20)</f>
+        <f t="shared" si="5"/>
         <v>4.0600000000000005</v>
       </c>
       <c r="AN20" s="5">
@@ -3819,7 +3819,7 @@
         <v>2.5208333333333333E-2</v>
       </c>
       <c r="AQ20" s="5">
-        <f t="shared" ref="AQ20:AQ22" si="3">AP20/0.0252083333333333</f>
+        <f t="shared" ref="AQ20:AQ22" si="12">AP20/0.0252083333333333</f>
         <v>1.0000000000000013</v>
       </c>
     </row>
@@ -3843,11 +3843,11 @@
         <v>94</v>
       </c>
       <c r="G21" s="37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H21" s="37" t="str" cm="1">
         <f t="array" ref="H21">_xlfn.IFS(G21=1, "2:00 PM", G21=2, "2:30 PM", G21=3, "3:00 PM", G21=4, "3:30 PM")</f>
-        <v>3:00 PM</v>
+        <v>2:30 PM</v>
       </c>
       <c r="I21" s="40">
         <v>3</v>
@@ -3859,7 +3859,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="L21" s="41">
-        <f>(J21/I21)*K21</f>
+        <f t="shared" si="0"/>
         <v>4.5999999999999996</v>
       </c>
       <c r="M21" s="42">
@@ -3870,21 +3870,21 @@
         <v>3.5</v>
       </c>
       <c r="P21" s="41">
-        <f>0.7*L21+0.2*M21+0.1*O21+N21</f>
+        <f t="shared" si="1"/>
         <v>4.1619999999999999</v>
       </c>
       <c r="Q21" s="43">
         <v>2.1342592592592594E-2</v>
       </c>
       <c r="R21" s="44">
-        <f>Q21/$R$2</f>
+        <f t="shared" si="2"/>
         <v>1.0244444444444445</v>
       </c>
       <c r="S21" s="45">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="T21" s="44">
-        <f>S21/$T$2</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="U21" s="44">
@@ -3917,7 +3917,7 @@
         <v>4.666666666666667</v>
       </c>
       <c r="AG21" s="51">
-        <f>0.2*AF21+0.8*AVERAGE(AC21:AE21)</f>
+        <f t="shared" si="8"/>
         <v>4.5333333333333332</v>
       </c>
       <c r="AH21" s="41">
@@ -3936,7 +3936,7 @@
         <v>3</v>
       </c>
       <c r="AM21" s="51">
-        <f>AVERAGE(AH21:AL21)</f>
+        <f t="shared" si="5"/>
         <v>4.0600000000000005</v>
       </c>
       <c r="AN21" s="51">
@@ -3950,7 +3950,7 @@
         <v>1.7777777777777778E-2</v>
       </c>
       <c r="AQ21" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0.70523415977961523</v>
       </c>
     </row>
@@ -3974,11 +3974,11 @@
         <v>64</v>
       </c>
       <c r="G22" s="37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H22" s="37" t="str" cm="1">
         <f t="array" ref="H22">_xlfn.IFS(G22=1, "2:00 PM", G22=2, "2:30 PM", G22=3, "3:00 PM", G22=4, "3:30 PM")</f>
-        <v>3:00 PM</v>
+        <v>2:30 PM</v>
       </c>
       <c r="I22" s="40">
         <v>4</v>
@@ -3990,7 +3990,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="L22" s="41">
-        <f>(J22/I22)*K22</f>
+        <f t="shared" si="0"/>
         <v>4.5999999999999996</v>
       </c>
       <c r="M22" s="42">
@@ -4001,21 +4001,21 @@
         <v>3.5</v>
       </c>
       <c r="P22" s="41">
-        <f>0.7*L22+0.2*M22+0.1*O22+N22</f>
+        <f t="shared" si="1"/>
         <v>4.1619999999999999</v>
       </c>
       <c r="Q22" s="43">
         <v>1.951388888888889E-2</v>
       </c>
       <c r="R22" s="44">
-        <f>Q22/$R$2</f>
+        <f t="shared" si="2"/>
         <v>0.93666666666666676</v>
       </c>
       <c r="S22" s="45">
         <v>0</v>
       </c>
       <c r="T22" s="44">
-        <f>S22/$T$2</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U22" s="44">
@@ -4042,7 +4042,7 @@
         <v>2.3333333333333335</v>
       </c>
       <c r="AG22" s="51">
-        <f>0.2*AF22+0.8*AVERAGE(AC22:AE22)</f>
+        <f t="shared" si="8"/>
         <v>0.46666666666666673</v>
       </c>
       <c r="AH22" s="41">
@@ -4061,7 +4061,7 @@
         <v>3</v>
       </c>
       <c r="AM22" s="51">
-        <f>AVERAGE(AH22:AL22)</f>
+        <f t="shared" si="5"/>
         <v>4.0600000000000005</v>
       </c>
       <c r="AN22" s="51">
@@ -4075,7 +4075,7 @@
         <v>2.3252314814814816E-2</v>
       </c>
       <c r="AQ22" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0.92240587695133269</v>
       </c>
     </row>
@@ -4137,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="AG23" s="51">
-        <f>0.2*AF23+0.8*AVERAGE(AC23:AE23)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AH23" s="41">
@@ -4217,7 +4217,7 @@
       <selection activeCell="A2" sqref="A2:B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="34.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
@@ -4319,7 +4319,7 @@
         <v>3.8461538461538463</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="30">
+    <row r="13" spans="1:2">
       <c r="A13" s="25" t="s">
         <v>118</v>
       </c>
@@ -4401,7 +4401,7 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="66.28515625" bestFit="1" customWidth="1"/>
@@ -4495,7 +4495,7 @@
       <selection activeCell="A2" sqref="A2:C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="58.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="58.5703125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>

--- a/academics/DB2/2025-2/DB2 2025-2.xlsx
+++ b/academics/DB2/2025-2/DB2 2025-2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\oicampo\Documents\GitHub\oicampo-uao.github.io\academics\DB2\2025-2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\UAO\oicampo-uao.github.io\academics\DB2\2025-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{675D8A19-4038-43B0-A5A9-3A6412D7C327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{383114E2-BD5F-455C-81AC-6405603D5144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Hoja1!$A$1:$B$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$AQ$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$AS$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="153">
   <si>
     <t>email</t>
   </si>
@@ -504,15 +504,31 @@
   </si>
   <si>
     <t>No se les tuvo en cuenta evaluación por pares</t>
+  </si>
+  <si>
+    <t>JUAN DIEGO CASTRILLNN SALAZAR</t>
+  </si>
+  <si>
+    <t>LAUREN NICOLE CALIXTO AVENDANO</t>
+  </si>
+  <si>
+    <t>Oscar Ivan Campo Salazar</t>
+  </si>
+  <si>
+    <t>SARAH LUCIA MORA SABOGAL</t>
+  </si>
+  <si>
+    <t>oriana Monzon</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="168" formatCode="0.000"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -779,7 +795,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -911,6 +927,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1301,13 +1325,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AQ27"/>
+  <dimension ref="A1:AU27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AT8" sqref="AT8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="35.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="35.5703125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.140625" customWidth="1"/>
@@ -1317,41 +1341,45 @@
     <col min="6" max="6" width="13.85546875" customWidth="1"/>
     <col min="7" max="7" width="6.140625" style="1" customWidth="1"/>
     <col min="8" max="8" width="7.85546875" customWidth="1"/>
-    <col min="9" max="9" width="4.42578125" style="15" customWidth="1"/>
-    <col min="10" max="10" width="3.140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="4" style="1" customWidth="1"/>
-    <col min="12" max="12" width="3.5703125" customWidth="1"/>
-    <col min="13" max="13" width="4.5703125" style="13" customWidth="1"/>
-    <col min="14" max="14" width="6.42578125" style="13" customWidth="1"/>
-    <col min="15" max="15" width="5.42578125" style="13" customWidth="1"/>
-    <col min="16" max="16" width="6.7109375" customWidth="1"/>
-    <col min="17" max="17" width="12.5703125" customWidth="1"/>
-    <col min="18" max="18" width="11.5703125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="12.5703125" customWidth="1"/>
-    <col min="20" max="20" width="11.5703125" customWidth="1"/>
-    <col min="21" max="21" width="12.5703125" customWidth="1"/>
-    <col min="22" max="22" width="11.5703125" customWidth="1"/>
-    <col min="23" max="23" width="14.7109375" customWidth="1"/>
-    <col min="24" max="24" width="12.7109375" customWidth="1"/>
-    <col min="25" max="25" width="12.42578125" customWidth="1"/>
-    <col min="26" max="26" width="13.28515625" customWidth="1"/>
-    <col min="27" max="27" width="12.42578125" customWidth="1"/>
-    <col min="28" max="29" width="8" customWidth="1"/>
-    <col min="30" max="31" width="5.28515625" customWidth="1"/>
-    <col min="32" max="33" width="12" style="1" customWidth="1"/>
-    <col min="34" max="34" width="11.5703125" style="1" customWidth="1"/>
-    <col min="35" max="35" width="12.140625" style="1" customWidth="1"/>
-    <col min="36" max="36" width="19.140625" style="1" customWidth="1"/>
-    <col min="37" max="37" width="9.5703125" style="1" customWidth="1"/>
-    <col min="38" max="38" width="11.42578125" style="1" customWidth="1"/>
-    <col min="39" max="39" width="14.42578125" style="1" customWidth="1"/>
-    <col min="40" max="40" width="22.28515625" style="1" customWidth="1"/>
-    <col min="41" max="41" width="13.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="4.42578125" style="15" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="3.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="4" style="1" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="3.5703125" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="4.5703125" style="13" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="6.42578125" style="13" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="5.42578125" style="13" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="6.7109375" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="12.5703125" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="11.5703125" style="1" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="12.5703125" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="11.5703125" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="12.5703125" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="11.5703125" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="12.7109375" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="12.42578125" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="13.28515625" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="12.42578125" hidden="1" customWidth="1"/>
+    <col min="28" max="29" width="8" hidden="1" customWidth="1"/>
+    <col min="30" max="31" width="5.28515625" hidden="1" customWidth="1"/>
+    <col min="32" max="33" width="12" style="1" hidden="1" customWidth="1"/>
+    <col min="34" max="34" width="11.5703125" style="1" hidden="1" customWidth="1"/>
+    <col min="35" max="35" width="12.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="36" max="36" width="19.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="37" max="37" width="9.5703125" style="1" hidden="1" customWidth="1"/>
+    <col min="38" max="38" width="11.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="39" max="39" width="14.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="40" max="40" width="22.28515625" style="1" hidden="1" customWidth="1"/>
+    <col min="41" max="41" width="13.28515625" style="1" hidden="1" customWidth="1"/>
     <col min="42" max="42" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="7.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43">
+    <row r="1" spans="1:47">
       <c r="Q1" t="s">
         <v>104</v>
       </c>
@@ -1377,8 +1405,14 @@
       <c r="AQ1" s="19">
         <v>45954</v>
       </c>
-    </row>
-    <row r="2" spans="1:43">
+      <c r="AR1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS1" s="19">
+        <v>45961</v>
+      </c>
+    </row>
+    <row r="2" spans="1:47">
       <c r="Q2" t="s">
         <v>105</v>
       </c>
@@ -1404,8 +1438,14 @@
       <c r="AQ2" s="56">
         <v>8.458333333333333E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:43" s="24" customFormat="1" ht="45">
+      <c r="AR2" t="s">
+        <v>105</v>
+      </c>
+      <c r="AS2" s="56">
+        <v>7.8993055555555552E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:47" s="24" customFormat="1" ht="45">
       <c r="A3" s="28" t="s">
         <v>99</v>
       </c>
@@ -1535,8 +1575,14 @@
       <c r="AQ3" s="22" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="4" spans="1:43">
+      <c r="AR3" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="AS3" s="22" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:47">
       <c r="A4" s="3">
         <v>1005967544</v>
       </c>
@@ -1572,7 +1618,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="L4" s="5">
-        <f t="shared" ref="L4:L22" si="0">(J4/I4)*K4</f>
+        <f>(J4/I4)*K4</f>
         <v>4.5999999999999996</v>
       </c>
       <c r="M4" s="12">
@@ -1583,21 +1629,21 @@
         <v>4.5</v>
       </c>
       <c r="P4" s="5">
-        <f t="shared" ref="P4:P22" si="1">0.7*L4+0.2*M4+0.1*O4+N4</f>
+        <f>0.7*L4+0.2*M4+0.1*O4+N4</f>
         <v>4.3879999999999999</v>
       </c>
       <c r="Q4" s="31">
         <v>1.3935185185185186E-2</v>
       </c>
       <c r="R4" s="32">
-        <f t="shared" ref="R4:R22" si="2">Q4/$R$2</f>
+        <f>Q4/$R$2</f>
         <v>0.66888888888888898</v>
       </c>
       <c r="S4" s="33">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="T4" s="32">
-        <f t="shared" ref="T4:T22" si="3">S4/$T$2</f>
+        <f>S4/$T$2</f>
         <v>1</v>
       </c>
       <c r="U4" s="32">
@@ -1620,7 +1666,7 @@
       </c>
       <c r="AB4" s="35"/>
       <c r="AC4" s="35">
-        <f t="shared" ref="AC4:AC18" si="4">AVERAGE(X4:AB4)</f>
+        <f>AVERAGE(X4:AB4)</f>
         <v>0</v>
       </c>
       <c r="AD4" s="5">
@@ -1652,25 +1698,33 @@
         <v>4.5</v>
       </c>
       <c r="AM4" s="5">
-        <f t="shared" ref="AM4:AM22" si="5">AVERAGE(AH4:AL4)</f>
+        <f>AVERAGE(AH4:AL4)</f>
         <v>4.42</v>
       </c>
       <c r="AN4" s="5">
         <v>4</v>
       </c>
       <c r="AO4" s="5">
-        <f t="shared" ref="AO4:AO17" si="6">0.3*AN4+0.6*AM4+0.05*AG4+0.05*W4</f>
+        <f>0.3*AN4+0.6*AM4+0.05*AG4+0.05*W4</f>
         <v>4.230240740740741</v>
       </c>
       <c r="AP4" s="56">
         <v>1.6909722222222222E-2</v>
       </c>
-      <c r="AQ4" s="5">
+      <c r="AQ4" s="59">
         <f>AP4/0.0170138888888889</f>
         <v>0.99387755102040742</v>
       </c>
-    </row>
-    <row r="5" spans="1:43" s="48" customFormat="1">
+      <c r="AR4" s="56">
+        <v>0</v>
+      </c>
+      <c r="AS4" s="59">
+        <f t="shared" ref="AS4:AS7" si="0">AR4/0.0163310185185185</f>
+        <v>0</v>
+      </c>
+      <c r="AU4" s="56"/>
+    </row>
+    <row r="5" spans="1:47" s="48" customFormat="1">
       <c r="A5" s="3">
         <v>1107836732</v>
       </c>
@@ -1706,7 +1760,7 @@
         <v>4.5</v>
       </c>
       <c r="L5" s="5">
-        <f t="shared" si="0"/>
+        <f>(J5/I5)*K5</f>
         <v>4.5</v>
       </c>
       <c r="M5" s="12">
@@ -1717,21 +1771,21 @@
         <v>4.5</v>
       </c>
       <c r="P5" s="5">
-        <f t="shared" si="1"/>
+        <f>0.7*L5+0.2*M5+0.1*O5+N5</f>
         <v>4.3179999999999996</v>
       </c>
       <c r="Q5" s="31">
         <v>1.474537037037037E-2</v>
       </c>
       <c r="R5" s="32">
-        <f t="shared" si="2"/>
+        <f>Q5/$R$2</f>
         <v>0.70777777777777784</v>
       </c>
       <c r="S5" s="33">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="T5" s="32">
-        <f t="shared" si="3"/>
+        <f>S5/$T$2</f>
         <v>1</v>
       </c>
       <c r="U5" s="32">
@@ -1752,7 +1806,7 @@
       </c>
       <c r="AB5" s="35"/>
       <c r="AC5" s="35">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(X5:AB5)</f>
         <v>4</v>
       </c>
       <c r="AD5" s="5">
@@ -1784,22 +1838,30 @@
         <v>4.5</v>
       </c>
       <c r="AM5" s="5">
-        <f t="shared" si="5"/>
+        <f>AVERAGE(AH5:AL5)</f>
         <v>4.42</v>
       </c>
       <c r="AN5" s="5">
         <v>4</v>
       </c>
       <c r="AO5" s="5">
-        <f t="shared" si="6"/>
+        <f>0.3*AN5+0.6*AM5+0.05*AG5+0.05*W5</f>
         <v>4.2321353276353273</v>
       </c>
-      <c r="AQ5" s="5">
-        <f t="shared" ref="AQ5:AQ8" si="7">AP5/0.0170138888888889</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:43">
+      <c r="AQ5" s="59">
+        <f>AP5/0.0170138888888889</f>
+        <v>0</v>
+      </c>
+      <c r="AR5" s="56">
+        <v>0</v>
+      </c>
+      <c r="AS5" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AU5" s="56"/>
+    </row>
+    <row r="6" spans="1:47">
       <c r="A6" s="37">
         <v>1126644560</v>
       </c>
@@ -1835,7 +1897,7 @@
         <v>4.8</v>
       </c>
       <c r="L6" s="41">
-        <f t="shared" si="0"/>
+        <f>(J6/I6)*K6</f>
         <v>4.8</v>
       </c>
       <c r="M6" s="42">
@@ -1846,21 +1908,21 @@
         <v>4.5</v>
       </c>
       <c r="P6" s="41">
-        <f t="shared" si="1"/>
+        <f>0.7*L6+0.2*M6+0.1*O6+N6</f>
         <v>4.5279999999999996</v>
       </c>
       <c r="Q6" s="43">
         <v>1.6342592592592593E-2</v>
       </c>
       <c r="R6" s="44">
-        <f t="shared" si="2"/>
+        <f>Q6/$R$2</f>
         <v>0.7844444444444445</v>
       </c>
       <c r="S6" s="45">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="T6" s="44">
-        <f t="shared" si="3"/>
+        <f>S6/$T$2</f>
         <v>1</v>
       </c>
       <c r="U6" s="44">
@@ -1883,7 +1945,7 @@
       <c r="AA6" s="47"/>
       <c r="AB6" s="47"/>
       <c r="AC6" s="47">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(X6:AB6)</f>
         <v>2</v>
       </c>
       <c r="AD6" s="41">
@@ -1896,7 +1958,7 @@
         <v>5</v>
       </c>
       <c r="AG6" s="51">
-        <f t="shared" ref="AG6:AG23" si="8">0.2*AF6+0.8*AVERAGE(AC6:AE6)</f>
+        <f>0.2*AF6+0.8*AVERAGE(AC6:AE6)</f>
         <v>3.8000000000000003</v>
       </c>
       <c r="AH6" s="41">
@@ -1915,25 +1977,33 @@
         <v>4.5</v>
       </c>
       <c r="AM6" s="51">
-        <f t="shared" si="5"/>
+        <f>AVERAGE(AH6:AL6)</f>
         <v>4.42</v>
       </c>
       <c r="AN6" s="51">
         <v>4</v>
       </c>
       <c r="AO6" s="41">
-        <f t="shared" si="6"/>
+        <f>0.3*AN6+0.6*AM6+0.05*AG6+0.05*W6</f>
         <v>4.2740370370370364</v>
       </c>
       <c r="AP6" s="56">
         <v>1.6087962962962964E-2</v>
       </c>
-      <c r="AQ6" s="5">
-        <f t="shared" si="7"/>
+      <c r="AQ6" s="59">
+        <f>AP6/0.0170138888888889</f>
         <v>0.94557823129251639</v>
       </c>
-    </row>
-    <row r="7" spans="1:43" s="48" customFormat="1">
+      <c r="AR6" s="56">
+        <v>1.3020833333333334E-2</v>
+      </c>
+      <c r="AS6" s="59">
+        <f t="shared" si="0"/>
+        <v>0.79730687455705263</v>
+      </c>
+      <c r="AU6" s="56"/>
+    </row>
+    <row r="7" spans="1:47" s="48" customFormat="1">
       <c r="A7" s="3">
         <v>1062329024</v>
       </c>
@@ -1969,7 +2039,7 @@
         <v>4.5</v>
       </c>
       <c r="L7" s="5">
-        <f t="shared" si="0"/>
+        <f>(J7/I7)*K7</f>
         <v>4.5</v>
       </c>
       <c r="M7" s="12">
@@ -1980,21 +2050,21 @@
         <v>4.5</v>
       </c>
       <c r="P7" s="5">
-        <f t="shared" si="1"/>
+        <f>0.7*L7+0.2*M7+0.1*O7+N7</f>
         <v>4.3179999999999996</v>
       </c>
       <c r="Q7" s="31">
         <v>0</v>
       </c>
       <c r="R7" s="32">
-        <f t="shared" si="2"/>
+        <f>Q7/$R$2</f>
         <v>0</v>
       </c>
       <c r="S7" s="33">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="T7" s="32">
-        <f t="shared" si="3"/>
+        <f>S7/$T$2</f>
         <v>1</v>
       </c>
       <c r="U7" s="32">
@@ -2017,7 +2087,7 @@
       <c r="AA7" s="35"/>
       <c r="AB7" s="35"/>
       <c r="AC7" s="35">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(X7:AB7)</f>
         <v>2.5</v>
       </c>
       <c r="AD7" s="5">
@@ -2030,7 +2100,7 @@
         <v>3.8461538461538463</v>
       </c>
       <c r="AG7" s="5">
-        <f t="shared" si="8"/>
+        <f>0.2*AF7+0.8*AVERAGE(AC7:AE7)</f>
         <v>3.3025641025641024</v>
       </c>
       <c r="AH7" s="5">
@@ -2049,22 +2119,31 @@
         <v>4.5</v>
       </c>
       <c r="AM7" s="5">
-        <f t="shared" si="5"/>
+        <f>AVERAGE(AH7:AL7)</f>
         <v>4.42</v>
       </c>
       <c r="AN7" s="5">
         <v>4</v>
       </c>
       <c r="AO7" s="5">
-        <f t="shared" si="6"/>
+        <f>0.3*AN7+0.6*AM7+0.05*AG7+0.05*W7</f>
         <v>4.1837948717948716</v>
       </c>
-      <c r="AQ7" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:43">
+      <c r="AQ7" s="59">
+        <f>AP7/0.0170138888888889</f>
+        <v>0</v>
+      </c>
+      <c r="AR7" s="56">
+        <v>0</v>
+      </c>
+      <c r="AS7" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AT7"/>
+      <c r="AU7" s="56"/>
+    </row>
+    <row r="8" spans="1:47">
       <c r="A8" s="3">
         <v>1110364376</v>
       </c>
@@ -2100,7 +2179,7 @@
         <v>4.8</v>
       </c>
       <c r="L8" s="5">
-        <f t="shared" si="0"/>
+        <f>(J8/I8)*K8</f>
         <v>4.8</v>
       </c>
       <c r="M8" s="12">
@@ -2114,21 +2193,21 @@
         <v>4.5</v>
       </c>
       <c r="P8" s="5">
-        <f t="shared" si="1"/>
+        <f>0.7*L8+0.2*M8+0.1*O8+N8</f>
         <v>4.5904999999999996</v>
       </c>
       <c r="Q8" s="31">
         <v>1.412037037037037E-2</v>
       </c>
       <c r="R8" s="32">
-        <f t="shared" si="2"/>
+        <f>Q8/$R$2</f>
         <v>0.67777777777777781</v>
       </c>
       <c r="S8" s="33">
         <v>0</v>
       </c>
       <c r="T8" s="32">
-        <f t="shared" si="3"/>
+        <f>S8/$T$2</f>
         <v>0</v>
       </c>
       <c r="U8" s="32">
@@ -2150,7 +2229,7 @@
       <c r="AA8" s="35"/>
       <c r="AB8" s="35"/>
       <c r="AC8" s="35">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(X8:AB8)</f>
         <v>2</v>
       </c>
       <c r="AD8" s="5">
@@ -2163,7 +2242,7 @@
         <v>4.9230769230769234</v>
       </c>
       <c r="AG8" s="5">
-        <f t="shared" si="8"/>
+        <f>0.2*AF8+0.8*AVERAGE(AC8:AE8)</f>
         <v>3.7846153846153849</v>
       </c>
       <c r="AH8" s="5">
@@ -2182,25 +2261,34 @@
         <v>4.5</v>
       </c>
       <c r="AM8" s="5">
-        <f t="shared" si="5"/>
+        <f>AVERAGE(AH8:AL8)</f>
         <v>4.42</v>
       </c>
       <c r="AN8" s="5">
         <v>4</v>
       </c>
       <c r="AO8" s="5">
-        <f t="shared" si="6"/>
+        <f>0.3*AN8+0.6*AM8+0.05*AG8+0.05*W8</f>
         <v>4.1912307692307689</v>
       </c>
       <c r="AP8" s="56">
         <v>1.7013888888888887E-2</v>
       </c>
-      <c r="AQ8" s="5">
-        <f t="shared" si="7"/>
+      <c r="AQ8" s="59">
+        <f>AP8/0.0170138888888889</f>
         <v>0.99999999999999922</v>
       </c>
-    </row>
-    <row r="9" spans="1:43" s="48" customFormat="1">
+      <c r="AR8" s="56">
+        <v>1.6331018518518519E-2</v>
+      </c>
+      <c r="AS8" s="59">
+        <f>AR8/0.0163310185185185</f>
+        <v>1.0000000000000011</v>
+      </c>
+      <c r="AT8" s="58"/>
+      <c r="AU8" s="56"/>
+    </row>
+    <row r="9" spans="1:47" s="48" customFormat="1">
       <c r="A9" s="3">
         <v>1005783739</v>
       </c>
@@ -2236,7 +2324,7 @@
         <v>4.8</v>
       </c>
       <c r="L9" s="5">
-        <f t="shared" si="0"/>
+        <f>(J9/I9)*K9</f>
         <v>4.8</v>
       </c>
       <c r="M9" s="12">
@@ -2250,21 +2338,21 @@
         <v>4.7</v>
       </c>
       <c r="P9" s="5">
-        <f t="shared" si="1"/>
+        <f>0.7*L9+0.2*M9+0.1*O9+N9</f>
         <v>4.6900000000000004</v>
       </c>
       <c r="Q9" s="31">
         <v>1.4976851851851852E-2</v>
       </c>
       <c r="R9" s="32">
-        <f t="shared" si="2"/>
+        <f>Q9/$R$2</f>
         <v>0.71888888888888891</v>
       </c>
       <c r="S9" s="33">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="T9" s="32">
-        <f t="shared" si="3"/>
+        <f>S9/$T$2</f>
         <v>1</v>
       </c>
       <c r="U9" s="32">
@@ -2274,7 +2362,7 @@
         <v>1</v>
       </c>
       <c r="W9" s="12">
-        <f t="shared" ref="W9:W17" si="9">AVERAGE(R9,T9,V9)*5</f>
+        <f>AVERAGE(R9,T9,V9)*5</f>
         <v>4.5314814814814817</v>
       </c>
       <c r="X9" s="35">
@@ -2287,7 +2375,7 @@
       <c r="AA9" s="35"/>
       <c r="AB9" s="35"/>
       <c r="AC9" s="35">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(X9:AB9)</f>
         <v>3</v>
       </c>
       <c r="AD9" s="5">
@@ -2300,7 +2388,7 @@
         <v>4.9285714285714288</v>
       </c>
       <c r="AG9" s="5">
-        <f t="shared" si="8"/>
+        <f>0.2*AF9+0.8*AVERAGE(AC9:AE9)</f>
         <v>4.3190476190476197</v>
       </c>
       <c r="AH9" s="5">
@@ -2319,25 +2407,34 @@
         <v>4.5</v>
       </c>
       <c r="AM9" s="5">
-        <f t="shared" si="5"/>
+        <f>AVERAGE(AH9:AL9)</f>
         <v>4.7200000000000006</v>
       </c>
       <c r="AN9" s="5">
         <v>4.5</v>
       </c>
       <c r="AO9" s="5">
-        <f t="shared" si="6"/>
+        <f>0.3*AN9+0.6*AM9+0.05*AG9+0.05*W9</f>
         <v>4.624526455026456</v>
       </c>
       <c r="AP9" s="56">
         <v>2.2997685185185184E-2</v>
       </c>
-      <c r="AQ9" s="5">
+      <c r="AQ9" s="59">
         <f>AP9/0.0230324074074074</f>
         <v>0.99849246231155797</v>
       </c>
-    </row>
-    <row r="10" spans="1:43">
+      <c r="AR9" s="56">
+        <v>2.0706018518518519E-2</v>
+      </c>
+      <c r="AS9" s="59">
+        <f>AR9/0.0230324074074074</f>
+        <v>0.89899497487437219</v>
+      </c>
+      <c r="AT9"/>
+      <c r="AU9" s="56"/>
+    </row>
+    <row r="10" spans="1:47">
       <c r="A10" s="37">
         <v>1113698193</v>
       </c>
@@ -2373,7 +2470,7 @@
         <v>4.8</v>
       </c>
       <c r="L10" s="41">
-        <f t="shared" si="0"/>
+        <f>(J10/I10)*K10</f>
         <v>4.8</v>
       </c>
       <c r="M10" s="42">
@@ -2387,21 +2484,21 @@
         <v>4.7</v>
       </c>
       <c r="P10" s="41">
-        <f t="shared" si="1"/>
+        <f>0.7*L10+0.2*M10+0.1*O10+N10</f>
         <v>4.6399999999999997</v>
       </c>
       <c r="Q10" s="43">
         <v>1.5833333333333335E-2</v>
       </c>
       <c r="R10" s="44">
-        <f t="shared" si="2"/>
+        <f>Q10/$R$2</f>
         <v>0.76000000000000012</v>
       </c>
       <c r="S10" s="45">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="T10" s="44">
-        <f t="shared" si="3"/>
+        <f>S10/$T$2</f>
         <v>1</v>
       </c>
       <c r="U10" s="44">
@@ -2411,7 +2508,7 @@
         <v>0.6</v>
       </c>
       <c r="W10" s="52">
-        <f t="shared" si="9"/>
+        <f>AVERAGE(R10,T10,V10)*5</f>
         <v>3.9333333333333336</v>
       </c>
       <c r="X10" s="47">
@@ -2424,7 +2521,7 @@
       </c>
       <c r="AB10" s="47"/>
       <c r="AC10" s="47">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(X10:AB10)</f>
         <v>4.5</v>
       </c>
       <c r="AD10" s="41">
@@ -2437,7 +2534,7 @@
         <v>4.8571428571428568</v>
       </c>
       <c r="AG10" s="51">
-        <f t="shared" si="8"/>
+        <f>0.2*AF10+0.8*AVERAGE(AC10:AE10)</f>
         <v>4.7047619047619049</v>
       </c>
       <c r="AH10" s="41">
@@ -2456,25 +2553,33 @@
         <v>4.5</v>
       </c>
       <c r="AM10" s="51">
-        <f t="shared" si="5"/>
+        <f>AVERAGE(AH10:AL10)</f>
         <v>4.7200000000000006</v>
       </c>
       <c r="AN10" s="51">
         <v>4.5</v>
       </c>
       <c r="AO10" s="41">
-        <f t="shared" si="6"/>
+        <f>0.3*AN10+0.6*AM10+0.05*AG10+0.05*W10</f>
         <v>4.6139047619047622</v>
       </c>
       <c r="AP10" s="56">
         <v>1.6631944444444446E-2</v>
       </c>
-      <c r="AQ10" s="5">
-        <f t="shared" ref="AQ10:AQ13" si="10">AP10/0.0230324074074074</f>
+      <c r="AQ10" s="59">
+        <f>AP10/0.0230324074074074</f>
         <v>0.72211055276381941</v>
       </c>
-    </row>
-    <row r="11" spans="1:43" s="48" customFormat="1">
+      <c r="AR10" s="56">
+        <v>2.0706018518518519E-2</v>
+      </c>
+      <c r="AS10" s="59">
+        <f t="shared" ref="AS10:AS13" si="1">AR10/0.0230324074074074</f>
+        <v>0.89899497487437219</v>
+      </c>
+      <c r="AU10" s="56"/>
+    </row>
+    <row r="11" spans="1:47" s="48" customFormat="1">
       <c r="A11" s="3">
         <v>1109662163</v>
       </c>
@@ -2510,7 +2615,7 @@
         <v>4.8</v>
       </c>
       <c r="L11" s="5">
-        <f t="shared" si="0"/>
+        <f>(J11/I11)*K11</f>
         <v>4.8</v>
       </c>
       <c r="M11" s="12">
@@ -2524,21 +2629,21 @@
         <v>4.7</v>
       </c>
       <c r="P11" s="5">
-        <f t="shared" si="1"/>
+        <f>0.7*L11+0.2*M11+0.1*O11+N11</f>
         <v>4.59</v>
       </c>
       <c r="Q11" s="31">
         <v>1.4652777777777778E-2</v>
       </c>
       <c r="R11" s="32">
-        <f t="shared" si="2"/>
+        <f>Q11/$R$2</f>
         <v>0.70333333333333337</v>
       </c>
       <c r="S11" s="45">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="T11" s="32">
-        <f t="shared" si="3"/>
+        <f>S11/$T$2</f>
         <v>1</v>
       </c>
       <c r="U11" s="32">
@@ -2548,7 +2653,7 @@
         <v>1</v>
       </c>
       <c r="W11" s="12">
-        <f t="shared" si="9"/>
+        <f>AVERAGE(R11,T11,V11)*5</f>
         <v>4.5055555555555555</v>
       </c>
       <c r="X11" s="35">
@@ -2561,7 +2666,7 @@
       <c r="AA11" s="35"/>
       <c r="AB11" s="35"/>
       <c r="AC11" s="35">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(X11:AB11)</f>
         <v>4</v>
       </c>
       <c r="AD11" s="5">
@@ -2574,7 +2679,7 @@
         <v>5</v>
       </c>
       <c r="AG11" s="5">
-        <f t="shared" si="8"/>
+        <f>0.2*AF11+0.8*AVERAGE(AC11:AE11)</f>
         <v>4.5999999999999996</v>
       </c>
       <c r="AH11" s="5">
@@ -2593,25 +2698,33 @@
         <v>4.5</v>
       </c>
       <c r="AM11" s="5">
-        <f t="shared" si="5"/>
+        <f>AVERAGE(AH11:AL11)</f>
         <v>4.7200000000000006</v>
       </c>
       <c r="AN11" s="5">
         <v>4.5</v>
       </c>
       <c r="AO11" s="5">
-        <f t="shared" si="6"/>
+        <f>0.3*AN11+0.6*AM11+0.05*AG11+0.05*W11</f>
         <v>4.6372777777777783</v>
       </c>
       <c r="AP11" s="56">
         <v>2.2974537037037036E-2</v>
       </c>
-      <c r="AQ11" s="5">
-        <f t="shared" si="10"/>
+      <c r="AQ11" s="59">
+        <f>AP11/0.0230324074074074</f>
         <v>0.99748743718592991</v>
       </c>
-    </row>
-    <row r="12" spans="1:43">
+      <c r="AR11" s="56">
+        <v>1.8726851851851852E-2</v>
+      </c>
+      <c r="AS11" s="59">
+        <f t="shared" si="1"/>
+        <v>0.81306532663316611</v>
+      </c>
+      <c r="AU11" s="56"/>
+    </row>
+    <row r="12" spans="1:47">
       <c r="A12" s="37">
         <v>1005785832</v>
       </c>
@@ -2647,7 +2760,7 @@
         <v>4.8</v>
       </c>
       <c r="L12" s="41">
-        <f t="shared" si="0"/>
+        <f>(J12/I12)*K12</f>
         <v>4.8</v>
       </c>
       <c r="M12" s="42">
@@ -2661,21 +2774,21 @@
         <v>4.7</v>
       </c>
       <c r="P12" s="41">
-        <f t="shared" si="1"/>
+        <f>0.7*L12+0.2*M12+0.1*O12+N12</f>
         <v>4.59</v>
       </c>
       <c r="Q12" s="43">
         <v>1.5520833333333333E-2</v>
       </c>
       <c r="R12" s="44">
-        <f t="shared" si="2"/>
+        <f>Q12/$R$2</f>
         <v>0.745</v>
       </c>
       <c r="S12" s="45">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="T12" s="44">
-        <f t="shared" si="3"/>
+        <f>S12/$T$2</f>
         <v>1</v>
       </c>
       <c r="U12" s="44">
@@ -2685,7 +2798,7 @@
         <v>0.8</v>
       </c>
       <c r="W12" s="52">
-        <f t="shared" si="9"/>
+        <f>AVERAGE(R12,T12,V12)*5</f>
         <v>4.2416666666666663</v>
       </c>
       <c r="X12" s="47">
@@ -2698,7 +2811,7 @@
       </c>
       <c r="AB12" s="47"/>
       <c r="AC12" s="47">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(X12:AB12)</f>
         <v>3.5</v>
       </c>
       <c r="AD12" s="41">
@@ -2709,7 +2822,7 @@
         <v>4.9285714285714288</v>
       </c>
       <c r="AG12" s="51">
-        <f t="shared" si="8"/>
+        <f>0.2*AF12+0.8*AVERAGE(AC12:AE12)</f>
         <v>4.1857142857142859</v>
       </c>
       <c r="AH12" s="41">
@@ -2728,25 +2841,33 @@
         <v>4.5</v>
       </c>
       <c r="AM12" s="51">
-        <f t="shared" si="5"/>
+        <f>AVERAGE(AH12:AL12)</f>
         <v>4.7200000000000006</v>
       </c>
       <c r="AN12" s="51">
         <v>4.5</v>
       </c>
       <c r="AO12" s="41">
-        <f t="shared" si="6"/>
+        <f>0.3*AN12+0.6*AM12+0.05*AG12+0.05*W12</f>
         <v>4.6033690476190481</v>
       </c>
       <c r="AP12" s="56">
         <v>2.3009259259259261E-2</v>
       </c>
-      <c r="AQ12" s="5">
-        <f t="shared" si="10"/>
+      <c r="AQ12" s="59">
+        <f>AP12/0.0230324074074074</f>
         <v>0.99899497487437217</v>
       </c>
-    </row>
-    <row r="13" spans="1:43" s="48" customFormat="1">
+      <c r="AR12" s="56">
+        <v>1.6770833333333332E-2</v>
+      </c>
+      <c r="AS12" s="59">
+        <f t="shared" si="1"/>
+        <v>0.72814070351758808</v>
+      </c>
+      <c r="AU12" s="56"/>
+    </row>
+    <row r="13" spans="1:47" s="48" customFormat="1">
       <c r="A13" s="37">
         <v>1005832925</v>
       </c>
@@ -2782,7 +2903,7 @@
         <v>4.8</v>
       </c>
       <c r="L13" s="41">
-        <f t="shared" si="0"/>
+        <f>(J13/I13)*K13</f>
         <v>4.8</v>
       </c>
       <c r="M13" s="42">
@@ -2796,21 +2917,21 @@
         <v>4.7</v>
       </c>
       <c r="P13" s="41">
-        <f t="shared" si="1"/>
+        <f>0.7*L13+0.2*M13+0.1*O13+N13</f>
         <v>4.79</v>
       </c>
       <c r="Q13" s="43">
         <v>1.5972222222222221E-2</v>
       </c>
       <c r="R13" s="44">
-        <f t="shared" si="2"/>
+        <f>Q13/$R$2</f>
         <v>0.76666666666666661</v>
       </c>
       <c r="S13" s="45">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="T13" s="44">
-        <f t="shared" si="3"/>
+        <f>S13/$T$2</f>
         <v>1</v>
       </c>
       <c r="U13" s="44">
@@ -2820,7 +2941,7 @@
         <v>1</v>
       </c>
       <c r="W13" s="52">
-        <f t="shared" si="9"/>
+        <f>AVERAGE(R13,T13,V13)*5</f>
         <v>4.6111111111111107</v>
       </c>
       <c r="X13" s="47"/>
@@ -2835,7 +2956,7 @@
         <v>3</v>
       </c>
       <c r="AC13" s="47">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(X13:AB13)</f>
         <v>3.3333333333333335</v>
       </c>
       <c r="AD13" s="41">
@@ -2848,7 +2969,7 @@
         <v>5</v>
       </c>
       <c r="AG13" s="51">
-        <f t="shared" si="8"/>
+        <f>0.2*AF13+0.8*AVERAGE(AC13:AE13)</f>
         <v>4.5555555555555554</v>
       </c>
       <c r="AH13" s="41">
@@ -2867,25 +2988,34 @@
         <v>4.5</v>
       </c>
       <c r="AM13" s="51">
-        <f t="shared" si="5"/>
+        <f>AVERAGE(AH13:AL13)</f>
         <v>4.7200000000000006</v>
       </c>
       <c r="AN13" s="51">
         <v>4.5</v>
       </c>
       <c r="AO13" s="41">
-        <f t="shared" si="6"/>
+        <f>0.3*AN13+0.6*AM13+0.05*AG13+0.05*W13</f>
         <v>4.6403333333333334</v>
       </c>
       <c r="AP13" s="56">
         <v>2.3032407407407408E-2</v>
       </c>
-      <c r="AQ13" s="5">
-        <f t="shared" si="10"/>
+      <c r="AQ13" s="59">
+        <f>AP13/0.0230324074074074</f>
         <v>1.0000000000000002</v>
       </c>
-    </row>
-    <row r="14" spans="1:43">
+      <c r="AR13" s="56">
+        <v>1.1574074074074073E-5</v>
+      </c>
+      <c r="AS13" s="59">
+        <f t="shared" si="1"/>
+        <v>5.0251256281407051E-4</v>
+      </c>
+      <c r="AT13"/>
+      <c r="AU13" s="56"/>
+    </row>
+    <row r="14" spans="1:47">
       <c r="A14" s="37">
         <v>1062274189</v>
       </c>
@@ -2921,7 +3051,7 @@
         <v>4.5</v>
       </c>
       <c r="L14" s="41">
-        <f t="shared" si="0"/>
+        <f>(J14/I14)*K14</f>
         <v>2.6999999999999997</v>
       </c>
       <c r="M14" s="42">
@@ -2932,21 +3062,21 @@
         <v>3</v>
       </c>
       <c r="P14" s="41">
-        <f t="shared" si="1"/>
+        <f>0.7*L14+0.2*M14+0.1*O14+N14</f>
         <v>2.742</v>
       </c>
       <c r="Q14" s="43">
         <v>1.8506944444444444E-2</v>
       </c>
       <c r="R14" s="44">
-        <f t="shared" si="2"/>
+        <f>Q14/$R$2</f>
         <v>0.88833333333333331</v>
       </c>
       <c r="S14" s="45">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="T14" s="44">
-        <f t="shared" si="3"/>
+        <f>S14/$T$2</f>
         <v>1</v>
       </c>
       <c r="U14" s="44">
@@ -2956,7 +3086,7 @@
         <v>0.8</v>
       </c>
       <c r="W14" s="52">
-        <f t="shared" si="9"/>
+        <f>AVERAGE(R14,T14,V14)*5</f>
         <v>4.4805555555555561</v>
       </c>
       <c r="X14" s="47">
@@ -2971,7 +3101,7 @@
       </c>
       <c r="AB14" s="47"/>
       <c r="AC14" s="47">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(X14:AB14)</f>
         <v>2</v>
       </c>
       <c r="AD14" s="41">
@@ -2984,7 +3114,7 @@
         <v>4.7692307692307692</v>
       </c>
       <c r="AG14" s="51">
-        <f t="shared" si="8"/>
+        <f>0.2*AF14+0.8*AVERAGE(AC14:AE14)</f>
         <v>3.620512820512821</v>
       </c>
       <c r="AH14" s="41">
@@ -3003,25 +3133,33 @@
         <v>4.3</v>
       </c>
       <c r="AM14" s="51">
-        <f t="shared" si="5"/>
+        <f>AVERAGE(AH14:AL14)</f>
         <v>4.3</v>
       </c>
       <c r="AN14" s="51">
         <v>0</v>
       </c>
       <c r="AO14" s="41">
-        <f t="shared" si="6"/>
+        <f>0.3*AN14+0.6*AM14+0.05*AG14+0.05*W14</f>
         <v>2.9850534188034183</v>
       </c>
       <c r="AP14" s="56">
         <v>2.2187499999999999E-2</v>
       </c>
-      <c r="AQ14" s="41">
+      <c r="AQ14" s="60">
         <f>AP14/0.0221875</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:43" s="48" customFormat="1">
+      <c r="AR14" s="56">
+        <v>1.8148148148148149E-2</v>
+      </c>
+      <c r="AS14" s="60">
+        <f>AR14/0.0181481481481481</f>
+        <v>1.0000000000000027</v>
+      </c>
+      <c r="AU14" s="56"/>
+    </row>
+    <row r="15" spans="1:47" s="48" customFormat="1">
       <c r="A15" s="37">
         <v>1110363454</v>
       </c>
@@ -3057,7 +3195,7 @@
         <v>4.8</v>
       </c>
       <c r="L15" s="41">
-        <f t="shared" si="0"/>
+        <f>(J15/I15)*K15</f>
         <v>4.8</v>
       </c>
       <c r="M15" s="42">
@@ -3071,21 +3209,21 @@
         <v>3</v>
       </c>
       <c r="P15" s="41">
-        <f t="shared" si="1"/>
+        <f>0.7*L15+0.2*M15+0.1*O15+N15</f>
         <v>4.2889230769230764</v>
       </c>
       <c r="Q15" s="43">
         <v>1.1863425925925927E-2</v>
       </c>
       <c r="R15" s="44">
-        <f t="shared" si="2"/>
+        <f>Q15/$R$2</f>
         <v>0.56944444444444453</v>
       </c>
       <c r="S15" s="45">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="T15" s="44">
-        <f t="shared" si="3"/>
+        <f>S15/$T$2</f>
         <v>1</v>
       </c>
       <c r="U15" s="44">
@@ -3095,7 +3233,7 @@
         <v>1</v>
       </c>
       <c r="W15" s="52">
-        <f t="shared" si="9"/>
+        <f>AVERAGE(R15,T15,V15)*5</f>
         <v>4.2824074074074074</v>
       </c>
       <c r="X15" s="47">
@@ -3110,7 +3248,7 @@
       </c>
       <c r="AB15" s="47"/>
       <c r="AC15" s="47">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(X15:AB15)</f>
         <v>4.333333333333333</v>
       </c>
       <c r="AD15" s="41">
@@ -3123,7 +3261,7 @@
         <v>4.6923076923076925</v>
       </c>
       <c r="AG15" s="51">
-        <f t="shared" si="8"/>
+        <f>0.2*AF15+0.8*AVERAGE(AC15:AE15)</f>
         <v>4.2273504273504274</v>
       </c>
       <c r="AH15" s="41">
@@ -3142,25 +3280,33 @@
         <v>4.3</v>
       </c>
       <c r="AM15" s="51">
-        <f t="shared" si="5"/>
+        <f>AVERAGE(AH15:AL15)</f>
         <v>4.3</v>
       </c>
       <c r="AN15" s="51">
         <v>0</v>
       </c>
       <c r="AO15" s="41">
-        <f t="shared" si="6"/>
+        <f>0.3*AN15+0.6*AM15+0.05*AG15+0.05*W15</f>
         <v>3.0054878917378911</v>
       </c>
       <c r="AP15" s="56">
         <v>1.7175925925925924E-2</v>
       </c>
-      <c r="AQ15" s="41">
-        <f t="shared" ref="AQ15:AQ18" si="11">AP15/0.0221875</f>
+      <c r="AQ15" s="60">
+        <f>AP15/0.0221875</f>
         <v>0.77412623891497123</v>
       </c>
-    </row>
-    <row r="16" spans="1:43" ht="15.75">
+      <c r="AR15" s="56">
+        <v>0</v>
+      </c>
+      <c r="AS15" s="60">
+        <f t="shared" ref="AS15:AS18" si="2">AR15/0.0181481481481481</f>
+        <v>0</v>
+      </c>
+      <c r="AU15" s="56"/>
+    </row>
+    <row r="16" spans="1:47" ht="15.75">
       <c r="A16" s="37">
         <v>1007603017</v>
       </c>
@@ -3196,7 +3342,7 @@
         <v>4.8</v>
       </c>
       <c r="L16" s="41">
-        <f t="shared" si="0"/>
+        <f>(J16/I16)*K16</f>
         <v>4.8</v>
       </c>
       <c r="M16" s="42">
@@ -3207,21 +3353,21 @@
         <v>3</v>
       </c>
       <c r="P16" s="41">
-        <f t="shared" si="1"/>
+        <f>0.7*L16+0.2*M16+0.1*O16+N16</f>
         <v>4.2119999999999997</v>
       </c>
       <c r="Q16" s="43">
         <v>1.8159722222222223E-2</v>
       </c>
       <c r="R16" s="44">
-        <f t="shared" si="2"/>
+        <f>Q16/$R$2</f>
         <v>0.8716666666666667</v>
       </c>
       <c r="S16" s="45">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="T16" s="44">
-        <f t="shared" si="3"/>
+        <f>S16/$T$2</f>
         <v>1</v>
       </c>
       <c r="U16" s="44">
@@ -3231,7 +3377,7 @@
         <v>1</v>
       </c>
       <c r="W16" s="52">
-        <f t="shared" si="9"/>
+        <f>AVERAGE(R16,T16,V16)*5</f>
         <v>4.7861111111111114</v>
       </c>
       <c r="X16" s="47">
@@ -3244,7 +3390,7 @@
       </c>
       <c r="AB16" s="47"/>
       <c r="AC16" s="47">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(X16:AB16)</f>
         <v>4.5</v>
       </c>
       <c r="AD16" s="41">
@@ -3257,7 +3403,7 @@
         <v>4.615384615384615</v>
       </c>
       <c r="AG16" s="51">
-        <f t="shared" si="8"/>
+        <f>0.2*AF16+0.8*AVERAGE(AC16:AE16)</f>
         <v>4.2564102564102573</v>
       </c>
       <c r="AH16" s="41">
@@ -3276,25 +3422,33 @@
         <v>4.3</v>
       </c>
       <c r="AM16" s="51">
-        <f t="shared" si="5"/>
+        <f>AVERAGE(AH16:AL16)</f>
         <v>4.3</v>
       </c>
       <c r="AN16" s="51">
         <v>0</v>
       </c>
       <c r="AO16" s="41">
-        <f t="shared" si="6"/>
+        <f>0.3*AN16+0.6*AM16+0.05*AG16+0.05*W16</f>
         <v>3.0321260683760682</v>
       </c>
       <c r="AP16" s="56">
         <v>2.1921296296296296E-2</v>
       </c>
-      <c r="AQ16" s="41">
-        <f t="shared" si="11"/>
+      <c r="AQ16" s="60">
+        <f>AP16/0.0221875</f>
         <v>0.98800208659363598</v>
       </c>
-    </row>
-    <row r="17" spans="1:43" s="48" customFormat="1">
+      <c r="AR16" s="56">
+        <v>1.7962962962962962E-2</v>
+      </c>
+      <c r="AS16" s="60">
+        <f t="shared" si="2"/>
+        <v>0.98979591836734948</v>
+      </c>
+      <c r="AU16" s="56"/>
+    </row>
+    <row r="17" spans="1:47" s="48" customFormat="1">
       <c r="A17" s="3">
         <v>1081728000</v>
       </c>
@@ -3330,7 +3484,7 @@
         <v>4.8</v>
       </c>
       <c r="L17" s="5">
-        <f t="shared" si="0"/>
+        <f>(J17/I17)*K17</f>
         <v>4.8</v>
       </c>
       <c r="M17" s="12">
@@ -3341,21 +3495,21 @@
         <v>3</v>
       </c>
       <c r="P17" s="5">
-        <f t="shared" si="1"/>
+        <f>0.7*L17+0.2*M17+0.1*O17+N17</f>
         <v>4.2119999999999997</v>
       </c>
       <c r="Q17" s="31">
         <v>9.9305555555555553E-3</v>
       </c>
       <c r="R17" s="32">
-        <f t="shared" si="2"/>
+        <f>Q17/$R$2</f>
         <v>0.47666666666666668</v>
       </c>
       <c r="S17" s="33">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="T17" s="32">
-        <f t="shared" si="3"/>
+        <f>S17/$T$2</f>
         <v>1</v>
       </c>
       <c r="U17" s="32">
@@ -3365,7 +3519,7 @@
         <v>1</v>
       </c>
       <c r="W17" s="12">
-        <f t="shared" si="9"/>
+        <f>AVERAGE(R17,T17,V17)*5</f>
         <v>4.1277777777777773</v>
       </c>
       <c r="X17" s="35">
@@ -3378,7 +3532,7 @@
       </c>
       <c r="AB17" s="35"/>
       <c r="AC17" s="35">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(X17:AB17)</f>
         <v>1.5</v>
       </c>
       <c r="AD17" s="5">
@@ -3391,7 +3545,7 @@
         <v>4.615384615384615</v>
       </c>
       <c r="AG17" s="5">
-        <f t="shared" si="8"/>
+        <f>0.2*AF17+0.8*AVERAGE(AC17:AE17)</f>
         <v>3.4564102564102561</v>
       </c>
       <c r="AH17" s="5">
@@ -3410,25 +3564,34 @@
         <v>4.3</v>
       </c>
       <c r="AM17" s="5">
-        <f t="shared" si="5"/>
+        <f>AVERAGE(AH17:AL17)</f>
         <v>4.3</v>
       </c>
       <c r="AN17" s="5">
         <v>0</v>
       </c>
       <c r="AO17" s="5">
-        <f t="shared" si="6"/>
+        <f>0.3*AN17+0.6*AM17+0.05*AG17+0.05*W17</f>
         <v>2.9592094017094013</v>
       </c>
       <c r="AP17" s="56">
         <v>1.9305555555555555E-2</v>
       </c>
-      <c r="AQ17" s="41">
-        <f t="shared" si="11"/>
+      <c r="AQ17" s="60">
+        <f>AP17/0.0221875</f>
         <v>0.87010954616588421</v>
       </c>
-    </row>
-    <row r="18" spans="1:43">
+      <c r="AR17" s="56">
+        <v>1.3553240740740741E-2</v>
+      </c>
+      <c r="AS17" s="60">
+        <f t="shared" si="2"/>
+        <v>0.74681122448979786</v>
+      </c>
+      <c r="AT17"/>
+      <c r="AU17" s="56"/>
+    </row>
+    <row r="18" spans="1:47">
       <c r="A18" s="3">
         <v>1219713263</v>
       </c>
@@ -3464,7 +3627,7 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="L18" s="5">
-        <f t="shared" si="0"/>
+        <f>(J18/I18)*K18</f>
         <v>4.9000000000000004</v>
       </c>
       <c r="M18" s="12">
@@ -3475,21 +3638,21 @@
         <v>3</v>
       </c>
       <c r="P18" s="5">
-        <f t="shared" si="1"/>
+        <f>0.7*L18+0.2*M18+0.1*O18+N18</f>
         <v>4.282</v>
       </c>
       <c r="Q18" s="31">
         <v>0</v>
       </c>
       <c r="R18" s="32">
-        <f t="shared" si="2"/>
+        <f>Q18/$R$2</f>
         <v>0</v>
       </c>
       <c r="S18" s="33">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="T18" s="32">
-        <f t="shared" si="3"/>
+        <f>S18/$T$2</f>
         <v>1</v>
       </c>
       <c r="U18" s="32">
@@ -3513,7 +3676,7 @@
       </c>
       <c r="AB18" s="35"/>
       <c r="AC18" s="35">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(X18:AB18)</f>
         <v>2</v>
       </c>
       <c r="AD18" s="5">
@@ -3526,7 +3689,7 @@
         <v>4.5384615384615383</v>
       </c>
       <c r="AG18" s="5">
-        <f t="shared" si="8"/>
+        <f>0.2*AF18+0.8*AVERAGE(AC18:AE18)</f>
         <v>3.5743589743589745</v>
       </c>
       <c r="AH18" s="5">
@@ -3545,7 +3708,7 @@
         <v>4.3</v>
       </c>
       <c r="AM18" s="5">
-        <f t="shared" si="5"/>
+        <f>AVERAGE(AH18:AL18)</f>
         <v>4.3</v>
       </c>
       <c r="AN18" s="5">
@@ -3554,15 +3717,23 @@
       <c r="AO18" s="5">
         <v>3</v>
       </c>
-      <c r="AP18" s="56">
+      <c r="AP18" s="57">
         <v>2.2037037037037036E-2</v>
       </c>
-      <c r="AQ18" s="41">
-        <f t="shared" si="11"/>
+      <c r="AQ18" s="60">
+        <f>AP18/0.0221875</f>
         <v>0.99321857068335939</v>
       </c>
-    </row>
-    <row r="19" spans="1:43" s="48" customFormat="1">
+      <c r="AR18" s="56">
+        <v>1.8113425925925925E-2</v>
+      </c>
+      <c r="AS18" s="60">
+        <f t="shared" si="2"/>
+        <v>0.9980867346938801</v>
+      </c>
+      <c r="AU18" s="56"/>
+    </row>
+    <row r="19" spans="1:47" s="48" customFormat="1">
       <c r="A19" s="3">
         <v>1025642375</v>
       </c>
@@ -3598,7 +3769,7 @@
         <v>4.7</v>
       </c>
       <c r="L19" s="5">
-        <f t="shared" si="0"/>
+        <f>(J19/I19)*K19</f>
         <v>4.7</v>
       </c>
       <c r="M19" s="12">
@@ -3609,21 +3780,21 @@
         <v>3.5</v>
       </c>
       <c r="P19" s="5">
-        <f t="shared" si="1"/>
+        <f>0.7*L19+0.2*M19+0.1*O19+N19</f>
         <v>4.2320000000000002</v>
       </c>
       <c r="Q19" s="31">
         <v>2.0243055555555556E-2</v>
       </c>
       <c r="R19" s="32">
-        <f t="shared" si="2"/>
+        <f>Q19/$R$2</f>
         <v>0.97166666666666668</v>
       </c>
       <c r="S19" s="33">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="T19" s="32">
-        <f t="shared" si="3"/>
+        <f>S19/$T$2</f>
         <v>1</v>
       </c>
       <c r="U19" s="32">
@@ -3650,7 +3821,7 @@
         <v>2.3333333333333335</v>
       </c>
       <c r="AG19" s="5">
-        <f t="shared" si="8"/>
+        <f>0.2*AF19+0.8*AVERAGE(AC19:AE19)</f>
         <v>0.46666666666666673</v>
       </c>
       <c r="AH19" s="5">
@@ -3669,7 +3840,7 @@
         <v>3</v>
       </c>
       <c r="AM19" s="5">
-        <f t="shared" si="5"/>
+        <f>AVERAGE(AH19:AL19)</f>
         <v>4.0600000000000005</v>
       </c>
       <c r="AN19" s="5">
@@ -3682,12 +3853,21 @@
       <c r="AP19" s="56">
         <v>2.255787037037037E-2</v>
       </c>
-      <c r="AQ19" s="5">
+      <c r="AQ19" s="59">
         <f>AP19/0.0252083333333333</f>
         <v>0.89485766758494145</v>
       </c>
-    </row>
-    <row r="20" spans="1:43">
+      <c r="AR19" s="56">
+        <v>2.3622685185185184E-2</v>
+      </c>
+      <c r="AS19" s="59">
+        <f>AR19/0.0236226851851852</f>
+        <v>0.99999999999999922</v>
+      </c>
+      <c r="AT19"/>
+      <c r="AU19" s="56"/>
+    </row>
+    <row r="20" spans="1:47">
       <c r="A20" s="3">
         <v>1193073115</v>
       </c>
@@ -3723,7 +3903,7 @@
         <v>4.8</v>
       </c>
       <c r="L20" s="5">
-        <f t="shared" si="0"/>
+        <f>(J20/I20)*K20</f>
         <v>4.8</v>
       </c>
       <c r="M20" s="12">
@@ -3734,21 +3914,21 @@
         <v>3.5</v>
       </c>
       <c r="P20" s="5">
-        <f t="shared" si="1"/>
+        <f>0.7*L20+0.2*M20+0.1*O20+N20</f>
         <v>4.3019999999999996</v>
       </c>
       <c r="Q20" s="31">
         <v>2.0532407407407409E-2</v>
       </c>
       <c r="R20" s="32">
-        <f t="shared" si="2"/>
+        <f>Q20/$R$2</f>
         <v>0.98555555555555563</v>
       </c>
       <c r="S20" s="33">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="T20" s="32">
-        <f t="shared" si="3"/>
+        <f>S20/$T$2</f>
         <v>1</v>
       </c>
       <c r="U20" s="32">
@@ -3786,7 +3966,7 @@
         <v>4.833333333333333</v>
       </c>
       <c r="AG20" s="5">
-        <f t="shared" si="8"/>
+        <f>0.2*AF20+0.8*AVERAGE(AC20:AE20)</f>
         <v>4.7</v>
       </c>
       <c r="AH20" s="5">
@@ -3805,7 +3985,7 @@
         <v>3</v>
       </c>
       <c r="AM20" s="5">
-        <f t="shared" si="5"/>
+        <f>AVERAGE(AH20:AL20)</f>
         <v>4.0600000000000005</v>
       </c>
       <c r="AN20" s="5">
@@ -3818,12 +3998,20 @@
       <c r="AP20" s="56">
         <v>2.5208333333333333E-2</v>
       </c>
-      <c r="AQ20" s="5">
-        <f t="shared" ref="AQ20:AQ22" si="12">AP20/0.0252083333333333</f>
+      <c r="AQ20" s="59">
+        <f>AP20/0.0252083333333333</f>
         <v>1.0000000000000013</v>
       </c>
-    </row>
-    <row r="21" spans="1:43" s="48" customFormat="1">
+      <c r="AR20" s="56">
+        <v>2.2731481481481481E-2</v>
+      </c>
+      <c r="AS20" s="59">
+        <f t="shared" ref="AS20:AS22" si="3">AR20/0.0236226851851852</f>
+        <v>0.96227339539441381</v>
+      </c>
+      <c r="AU20" s="56"/>
+    </row>
+    <row r="21" spans="1:47" s="48" customFormat="1">
       <c r="A21" s="37">
         <v>1005894053</v>
       </c>
@@ -3859,7 +4047,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="L21" s="41">
-        <f t="shared" si="0"/>
+        <f>(J21/I21)*K21</f>
         <v>4.5999999999999996</v>
       </c>
       <c r="M21" s="42">
@@ -3870,21 +4058,21 @@
         <v>3.5</v>
       </c>
       <c r="P21" s="41">
-        <f t="shared" si="1"/>
+        <f>0.7*L21+0.2*M21+0.1*O21+N21</f>
         <v>4.1619999999999999</v>
       </c>
       <c r="Q21" s="43">
         <v>2.1342592592592594E-2</v>
       </c>
       <c r="R21" s="44">
-        <f t="shared" si="2"/>
+        <f>Q21/$R$2</f>
         <v>1.0244444444444445</v>
       </c>
       <c r="S21" s="45">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="T21" s="44">
-        <f t="shared" si="3"/>
+        <f>S21/$T$2</f>
         <v>1</v>
       </c>
       <c r="U21" s="44">
@@ -3917,7 +4105,7 @@
         <v>4.666666666666667</v>
       </c>
       <c r="AG21" s="51">
-        <f t="shared" si="8"/>
+        <f>0.2*AF21+0.8*AVERAGE(AC21:AE21)</f>
         <v>4.5333333333333332</v>
       </c>
       <c r="AH21" s="41">
@@ -3936,7 +4124,7 @@
         <v>3</v>
       </c>
       <c r="AM21" s="51">
-        <f t="shared" si="5"/>
+        <f>AVERAGE(AH21:AL21)</f>
         <v>4.0600000000000005</v>
       </c>
       <c r="AN21" s="51">
@@ -3949,12 +4137,21 @@
       <c r="AP21" s="56">
         <v>1.7777777777777778E-2</v>
       </c>
-      <c r="AQ21" s="5">
-        <f t="shared" si="12"/>
+      <c r="AQ21" s="59">
+        <f>AP21/0.0252083333333333</f>
         <v>0.70523415977961523</v>
       </c>
-    </row>
-    <row r="22" spans="1:43">
+      <c r="AR21" s="56">
+        <v>2.1342592592592594E-2</v>
+      </c>
+      <c r="AS21" s="59">
+        <f t="shared" si="3"/>
+        <v>0.90347868691817679</v>
+      </c>
+      <c r="AT21"/>
+      <c r="AU21" s="56"/>
+    </row>
+    <row r="22" spans="1:47">
       <c r="A22" s="37">
         <v>1193578885</v>
       </c>
@@ -3990,7 +4187,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="L22" s="41">
-        <f t="shared" si="0"/>
+        <f>(J22/I22)*K22</f>
         <v>4.5999999999999996</v>
       </c>
       <c r="M22" s="42">
@@ -4001,21 +4198,21 @@
         <v>3.5</v>
       </c>
       <c r="P22" s="41">
-        <f t="shared" si="1"/>
+        <f>0.7*L22+0.2*M22+0.1*O22+N22</f>
         <v>4.1619999999999999</v>
       </c>
       <c r="Q22" s="43">
         <v>1.951388888888889E-2</v>
       </c>
       <c r="R22" s="44">
-        <f t="shared" si="2"/>
+        <f>Q22/$R$2</f>
         <v>0.93666666666666676</v>
       </c>
       <c r="S22" s="45">
         <v>0</v>
       </c>
       <c r="T22" s="44">
-        <f t="shared" si="3"/>
+        <f>S22/$T$2</f>
         <v>0</v>
       </c>
       <c r="U22" s="44">
@@ -4042,7 +4239,7 @@
         <v>2.3333333333333335</v>
       </c>
       <c r="AG22" s="51">
-        <f t="shared" si="8"/>
+        <f>0.2*AF22+0.8*AVERAGE(AC22:AE22)</f>
         <v>0.46666666666666673</v>
       </c>
       <c r="AH22" s="41">
@@ -4061,7 +4258,7 @@
         <v>3</v>
       </c>
       <c r="AM22" s="51">
-        <f t="shared" si="5"/>
+        <f>AVERAGE(AH22:AL22)</f>
         <v>4.0600000000000005</v>
       </c>
       <c r="AN22" s="51">
@@ -4074,12 +4271,20 @@
       <c r="AP22" s="56">
         <v>2.3252314814814816E-2</v>
       </c>
-      <c r="AQ22" s="5">
-        <f t="shared" si="12"/>
+      <c r="AQ22" s="59">
+        <f>AP22/0.0252083333333333</f>
         <v>0.92240587695133269</v>
       </c>
-    </row>
-    <row r="23" spans="1:43" s="48" customFormat="1">
+      <c r="AR22" s="56">
+        <v>2.101851851851852E-2</v>
+      </c>
+      <c r="AS22" s="59">
+        <f t="shared" si="3"/>
+        <v>0.88975992160705475</v>
+      </c>
+      <c r="AU22" s="56"/>
+    </row>
+    <row r="23" spans="1:47" s="48" customFormat="1">
       <c r="A23" s="37">
         <v>1004189893</v>
       </c>
@@ -4137,7 +4342,7 @@
         <v>0</v>
       </c>
       <c r="AG23" s="51">
-        <f t="shared" si="8"/>
+        <f>0.2*AF23+0.8*AVERAGE(AC23:AE23)</f>
         <v>0</v>
       </c>
       <c r="AH23" s="41">
@@ -4166,12 +4371,16 @@
       </c>
       <c r="AP23" s="41"/>
       <c r="AQ23" s="41"/>
-    </row>
-    <row r="24" spans="1:43">
+      <c r="AR23" s="56"/>
+      <c r="AS23" s="41"/>
+      <c r="AT23"/>
+      <c r="AU23" s="56"/>
+    </row>
+    <row r="24" spans="1:47">
       <c r="G24" s="30"/>
       <c r="AO24" s="13"/>
     </row>
-    <row r="25" spans="1:43">
+    <row r="25" spans="1:47">
       <c r="G25" s="3"/>
       <c r="Q25" s="54" t="s">
         <v>147</v>
@@ -4180,15 +4389,16 @@
       <c r="S25" s="53"/>
       <c r="T25" s="53"/>
     </row>
-    <row r="26" spans="1:43">
+    <row r="26" spans="1:47">
       <c r="G26" s="3"/>
-    </row>
-    <row r="27" spans="1:43">
+      <c r="AU26" s="56"/>
+    </row>
+    <row r="27" spans="1:47">
       <c r="G27" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:AQ3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:AQ23">
+  <autoFilter ref="A3:AS3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:AS23">
       <sortCondition ref="E3"/>
     </sortState>
   </autoFilter>
@@ -4217,7 +4427,7 @@
       <selection activeCell="A2" sqref="A2:B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="34.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
@@ -4319,7 +4529,7 @@
         <v>3.8461538461538463</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" ht="30">
       <c r="A13" s="25" t="s">
         <v>118</v>
       </c>
@@ -4397,11 +4607,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBF4E5FE-8C1E-42BD-9F29-DCD3824FC0F7}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="66.28515625" bestFit="1" customWidth="1"/>
@@ -4489,20 +4699,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A445EDF0-1065-44CF-B64B-B0D7D9C19102}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C19"/>
+      <selection activeCell="E8" sqref="E8:F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="58.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="58.5703125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>43</v>
       </c>
@@ -4513,7 +4725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
@@ -4524,7 +4736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>56</v>
       </c>
@@ -4535,7 +4747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
         <v>39</v>
       </c>
@@ -4546,7 +4758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
         <v>25</v>
       </c>
@@ -4557,7 +4769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
         <v>35</v>
       </c>
@@ -4568,7 +4780,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
         <v>41</v>
       </c>
@@ -4579,7 +4791,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
         <v>54</v>
       </c>
@@ -4589,8 +4801,14 @@
       <c r="C8" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="E8" t="s">
+        <v>130</v>
+      </c>
+      <c r="F8" s="56">
+        <v>2.3622685185185184E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
@@ -4600,8 +4818,14 @@
       <c r="C9" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="E9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F9" s="56">
+        <v>2.0706018518518519E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
         <v>45</v>
       </c>
@@ -4611,8 +4835,14 @@
       <c r="C10" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="E10" t="s">
+        <v>121</v>
+      </c>
+      <c r="F10" s="56">
+        <v>2.0706018518518519E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
         <v>31</v>
       </c>
@@ -4622,8 +4852,14 @@
       <c r="C11" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="E11" t="s">
+        <v>122</v>
+      </c>
+      <c r="F11" s="56">
+        <v>1.8726851851851852E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
         <v>21</v>
       </c>
@@ -4633,8 +4869,14 @@
       <c r="C12" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="E12" t="s">
+        <v>131</v>
+      </c>
+      <c r="F12" s="56">
+        <v>2.2731481481481481E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="2" t="s">
         <v>37</v>
       </c>
@@ -4644,8 +4886,14 @@
       <c r="C13" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="E13" t="s">
+        <v>125</v>
+      </c>
+      <c r="F13" s="56">
+        <v>1.8148148148148149E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
         <v>29</v>
       </c>
@@ -4655,8 +4903,14 @@
       <c r="C14" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="E14" t="s">
+        <v>148</v>
+      </c>
+      <c r="F14" s="56">
+        <v>2.1342592592592594E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="2" t="s">
         <v>47</v>
       </c>
@@ -4666,8 +4920,14 @@
       <c r="C15" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="E15" t="s">
+        <v>116</v>
+      </c>
+      <c r="F15" s="56">
+        <v>1.3020833333333334E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="2" t="s">
         <v>51</v>
       </c>
@@ -4677,8 +4937,14 @@
       <c r="C16" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="E16" t="s">
+        <v>149</v>
+      </c>
+      <c r="F16" s="56">
+        <v>1.6331018518518519E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="2" t="s">
         <v>33</v>
       </c>
@@ -4688,8 +4954,14 @@
       <c r="C17" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="E17" t="s">
+        <v>127</v>
+      </c>
+      <c r="F17" s="56">
+        <v>1.7962962962962962E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="2" t="s">
         <v>27</v>
       </c>
@@ -4699,8 +4971,14 @@
       <c r="C18" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="E18" t="s">
+        <v>133</v>
+      </c>
+      <c r="F18" s="56">
+        <v>2.101851851851852E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="2" t="s">
         <v>49</v>
       </c>
@@ -4710,14 +4988,48 @@
       <c r="C19" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="E19" t="s">
+        <v>128</v>
+      </c>
+      <c r="F19" s="56">
+        <v>1.3553240740740741E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="16"/>
       <c r="B20" s="21"/>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="E20" t="s">
+        <v>123</v>
+      </c>
+      <c r="F20" s="56">
+        <v>1.6770833333333332E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="17"/>
       <c r="B21" s="21"/>
+      <c r="E21" t="s">
+        <v>150</v>
+      </c>
+      <c r="F21" s="56">
+        <v>7.8993055555555552E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="E22" t="s">
+        <v>151</v>
+      </c>
+      <c r="F22" s="56">
+        <v>1.8113425925925925E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="E23" t="s">
+        <v>152</v>
+      </c>
+      <c r="F23" s="56">
+        <v>1.1574074074074073E-5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/academics/DB2/2025-2/DB2 2025-2.xlsx
+++ b/academics/DB2/2025-2/DB2 2025-2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\UAO\oicampo-uao.github.io\academics\DB2\2025-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{383114E2-BD5F-455C-81AC-6405603D5144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D32B1231-C0CC-46AB-B341-3F5B0AB4F227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -528,7 +528,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -795,7 +795,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -927,12 +927,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1327,8 +1326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AU27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AT8" sqref="AT8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AT3" sqref="AT3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.5703125" defaultRowHeight="15"/>
@@ -1338,8 +1337,8 @@
     <col min="3" max="3" width="18.5703125" customWidth="1"/>
     <col min="4" max="4" width="29.140625" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="6.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" customWidth="1"/>
-    <col min="7" max="7" width="6.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="6.140625" style="1" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="7.85546875" customWidth="1"/>
     <col min="9" max="9" width="4.42578125" style="15" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="3.140625" style="1" hidden="1" customWidth="1"/>
@@ -1584,60 +1583,63 @@
     </row>
     <row r="4" spans="1:47">
       <c r="A4" s="3">
-        <v>1005967544</v>
+        <v>1005783739</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E4" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="G4" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H4" s="3" t="str" cm="1">
         <f t="array" ref="H4">_xlfn.IFS(G4=1, "2:00 PM", G4=2, "2:30 PM", G4=3, "3:00 PM", G4=4, "3:30 PM")</f>
-        <v>3:00 PM</v>
+        <v>2:00 PM</v>
       </c>
       <c r="I4" s="14">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J4" s="3">
-        <v>1</v>
-      </c>
-      <c r="K4" s="3">
-        <v>4.5999999999999996</v>
+        <v>4</v>
+      </c>
+      <c r="K4" s="5">
+        <v>4.8</v>
       </c>
       <c r="L4" s="5">
         <f>(J4/I4)*K4</f>
-        <v>4.5999999999999996</v>
+        <v>4.8</v>
       </c>
       <c r="M4" s="12">
-        <v>3.59</v>
-      </c>
-      <c r="N4" s="12"/>
+        <v>3.55</v>
+      </c>
+      <c r="N4" s="12">
+        <f>3/20</f>
+        <v>0.15</v>
+      </c>
       <c r="O4" s="12">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="P4" s="5">
         <f>0.7*L4+0.2*M4+0.1*O4+N4</f>
-        <v>4.3879999999999999</v>
+        <v>4.6900000000000004</v>
       </c>
       <c r="Q4" s="31">
-        <v>1.3935185185185186E-2</v>
+        <v>1.4976851851851852E-2</v>
       </c>
       <c r="R4" s="32">
         <f>Q4/$R$2</f>
-        <v>0.66888888888888898</v>
+        <v>0.71888888888888891</v>
       </c>
       <c r="S4" s="33">
         <v>2.0833333333333332E-2</v>
@@ -1654,817 +1656,834 @@
       </c>
       <c r="W4" s="12">
         <f>AVERAGE(R4,T4,V4)*5</f>
-        <v>4.4481481481481486</v>
-      </c>
-      <c r="X4" s="35"/>
-      <c r="Y4" s="35">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="35"/>
-      <c r="AA4" s="35">
-        <v>0</v>
-      </c>
+        <v>4.5314814814814817</v>
+      </c>
+      <c r="X4" s="35">
+        <v>2</v>
+      </c>
+      <c r="Y4" s="35"/>
+      <c r="Z4" s="35">
+        <v>4</v>
+      </c>
+      <c r="AA4" s="35"/>
       <c r="AB4" s="35"/>
       <c r="AC4" s="35">
         <f>AVERAGE(X4:AB4)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AD4" s="5">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="AE4" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF4" s="5">
-        <v>4.916666666666667</v>
+        <v>4.9285714285714288</v>
       </c>
       <c r="AG4" s="5">
         <f>0.2*AF4+0.8*AVERAGE(AC4:AE4)</f>
-        <v>3.1166666666666667</v>
+        <v>4.3190476190476197</v>
       </c>
       <c r="AH4" s="5">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
       <c r="AI4" s="5">
-        <v>4</v>
+        <v>4.8</v>
       </c>
       <c r="AJ4" s="5">
         <v>4.5</v>
       </c>
       <c r="AK4" s="5">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="AL4" s="5">
         <v>4.5</v>
       </c>
       <c r="AM4" s="5">
         <f>AVERAGE(AH4:AL4)</f>
-        <v>4.42</v>
+        <v>4.7200000000000006</v>
       </c>
       <c r="AN4" s="5">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="AO4" s="5">
         <f>0.3*AN4+0.6*AM4+0.05*AG4+0.05*W4</f>
-        <v>4.230240740740741</v>
+        <v>4.624526455026456</v>
       </c>
       <c r="AP4" s="56">
-        <v>1.6909722222222222E-2</v>
-      </c>
-      <c r="AQ4" s="59">
-        <f>AP4/0.0170138888888889</f>
-        <v>0.99387755102040742</v>
+        <v>2.2997685185185184E-2</v>
+      </c>
+      <c r="AQ4" s="58">
+        <f>AP4/0.0230324074074074</f>
+        <v>0.99849246231155797</v>
       </c>
       <c r="AR4" s="56">
-        <v>0</v>
-      </c>
-      <c r="AS4" s="59">
-        <f t="shared" ref="AS4:AS7" si="0">AR4/0.0163310185185185</f>
-        <v>0</v>
+        <v>2.0706018518518519E-2</v>
+      </c>
+      <c r="AS4" s="58">
+        <f>AR4/0.0230324074074074</f>
+        <v>0.89899497487437219</v>
       </c>
       <c r="AU4" s="56"/>
     </row>
     <row r="5" spans="1:47" s="48" customFormat="1">
-      <c r="A5" s="3">
-        <v>1107836732</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="3">
-        <v>1</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G5" s="3">
+      <c r="A5" s="37">
+        <v>1113698193</v>
+      </c>
+      <c r="B5" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="37">
+        <v>2</v>
+      </c>
+      <c r="F5" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="G5" s="37">
+        <v>1</v>
+      </c>
+      <c r="H5" s="37" t="str" cm="1">
+        <f t="array" ref="H5">_xlfn.IFS(G5=1, "2:00 PM", G5=2, "2:30 PM", G5=3, "3:00 PM", G5=4, "3:30 PM")</f>
+        <v>2:00 PM</v>
+      </c>
+      <c r="I5" s="40">
         <v>3</v>
       </c>
-      <c r="H5" s="3" t="str" cm="1">
-        <f t="array" ref="H5">_xlfn.IFS(G5=1, "2:00 PM", G5=2, "2:30 PM", G5=3, "3:00 PM", G5=4, "3:30 PM")</f>
-        <v>3:00 PM</v>
-      </c>
-      <c r="I5" s="14">
+      <c r="J5" s="37">
         <v>3</v>
       </c>
-      <c r="J5" s="3">
-        <v>3</v>
-      </c>
-      <c r="K5" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="L5" s="5">
+      <c r="K5" s="41">
+        <v>4.8</v>
+      </c>
+      <c r="L5" s="41">
         <f>(J5/I5)*K5</f>
-        <v>4.5</v>
-      </c>
-      <c r="M5" s="12">
-        <v>3.59</v>
-      </c>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12">
-        <v>4.5</v>
-      </c>
-      <c r="P5" s="5">
+        <v>4.8</v>
+      </c>
+      <c r="M5" s="42">
+        <v>3.55</v>
+      </c>
+      <c r="N5" s="42">
+        <f>2/20</f>
+        <v>0.1</v>
+      </c>
+      <c r="O5" s="42">
+        <v>4.7</v>
+      </c>
+      <c r="P5" s="41">
         <f>0.7*L5+0.2*M5+0.1*O5+N5</f>
-        <v>4.3179999999999996</v>
-      </c>
-      <c r="Q5" s="31">
-        <v>1.474537037037037E-2</v>
-      </c>
-      <c r="R5" s="32">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="Q5" s="43">
+        <v>1.5833333333333335E-2</v>
+      </c>
+      <c r="R5" s="44">
         <f>Q5/$R$2</f>
-        <v>0.70777777777777784</v>
-      </c>
-      <c r="S5" s="33">
+        <v>0.76000000000000012</v>
+      </c>
+      <c r="S5" s="45">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="T5" s="32">
+      <c r="T5" s="44">
         <f>S5/$T$2</f>
         <v>1</v>
       </c>
-      <c r="U5" s="32">
-        <v>1</v>
-      </c>
-      <c r="V5" s="34">
-        <v>1</v>
-      </c>
-      <c r="W5" s="12">
+      <c r="U5" s="44">
+        <v>1</v>
+      </c>
+      <c r="V5" s="46">
+        <v>0.6</v>
+      </c>
+      <c r="W5" s="52">
         <f>AVERAGE(R5,T5,V5)*5</f>
-        <v>4.5129629629629626</v>
-      </c>
-      <c r="X5" s="35"/>
-      <c r="Y5" s="35"/>
-      <c r="Z5" s="35"/>
-      <c r="AA5" s="35">
-        <v>4</v>
-      </c>
-      <c r="AB5" s="35"/>
-      <c r="AC5" s="35">
+        <v>3.9333333333333336</v>
+      </c>
+      <c r="X5" s="47">
+        <v>5</v>
+      </c>
+      <c r="Y5" s="47"/>
+      <c r="Z5" s="47"/>
+      <c r="AA5" s="47">
+        <v>4</v>
+      </c>
+      <c r="AB5" s="47"/>
+      <c r="AC5" s="47">
         <f>AVERAGE(X5:AB5)</f>
-        <v>4</v>
-      </c>
-      <c r="AD5" s="5">
-        <v>4</v>
-      </c>
-      <c r="AE5" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="5">
-        <v>4.0769230769230766</v>
-      </c>
-      <c r="AG5" s="5">
-        <f>0.3*AF5+0.7*AVERAGE(AC5:AE5)</f>
-        <v>3.0897435897435894</v>
-      </c>
-      <c r="AH5" s="5">
-        <v>4.3</v>
-      </c>
-      <c r="AI5" s="5">
-        <v>4</v>
-      </c>
-      <c r="AJ5" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="AK5" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="AD5" s="41">
+        <v>4.5</v>
+      </c>
+      <c r="AE5" s="41">
+        <v>5</v>
+      </c>
+      <c r="AF5" s="41">
+        <v>4.8571428571428568</v>
+      </c>
+      <c r="AG5" s="51">
+        <f>0.2*AF5+0.8*AVERAGE(AC5:AE5)</f>
+        <v>4.7047619047619049</v>
+      </c>
+      <c r="AH5" s="41">
         <v>4.8</v>
       </c>
-      <c r="AL5" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="AM5" s="5">
+      <c r="AI5" s="41">
+        <v>4.8</v>
+      </c>
+      <c r="AJ5" s="41">
+        <v>4.5</v>
+      </c>
+      <c r="AK5" s="41">
+        <v>5</v>
+      </c>
+      <c r="AL5" s="41">
+        <v>4.5</v>
+      </c>
+      <c r="AM5" s="51">
         <f>AVERAGE(AH5:AL5)</f>
-        <v>4.42</v>
-      </c>
-      <c r="AN5" s="5">
-        <v>4</v>
-      </c>
-      <c r="AO5" s="5">
+        <v>4.7200000000000006</v>
+      </c>
+      <c r="AN5" s="51">
+        <v>4.5</v>
+      </c>
+      <c r="AO5" s="41">
         <f>0.3*AN5+0.6*AM5+0.05*AG5+0.05*W5</f>
-        <v>4.2321353276353273</v>
-      </c>
-      <c r="AQ5" s="59">
-        <f>AP5/0.0170138888888889</f>
-        <v>0</v>
+        <v>4.6139047619047622</v>
+      </c>
+      <c r="AP5" s="56">
+        <v>1.6631944444444446E-2</v>
+      </c>
+      <c r="AQ5" s="58">
+        <f>AP5/0.0230324074074074</f>
+        <v>0.72211055276381941</v>
       </c>
       <c r="AR5" s="56">
-        <v>0</v>
-      </c>
-      <c r="AS5" s="59">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0706018518518519E-2</v>
+      </c>
+      <c r="AS5" s="58">
+        <f>AR5/0.0230324074074074</f>
+        <v>0.89899497487437219</v>
       </c>
       <c r="AU5" s="56"/>
     </row>
     <row r="6" spans="1:47">
-      <c r="A6" s="37">
-        <v>1126644560</v>
-      </c>
-      <c r="B6" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="37">
-        <v>1</v>
-      </c>
-      <c r="F6" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="G6" s="37">
-        <v>3</v>
-      </c>
-      <c r="H6" s="37" t="str" cm="1">
+      <c r="A6" s="3">
+        <v>1109662163</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="3">
+        <v>2</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1</v>
+      </c>
+      <c r="H6" s="3" t="str" cm="1">
         <f t="array" ref="H6">_xlfn.IFS(G6=1, "2:00 PM", G6=2, "2:30 PM", G6=3, "3:00 PM", G6=4, "3:30 PM")</f>
-        <v>3:00 PM</v>
-      </c>
-      <c r="I6" s="40">
-        <v>4</v>
-      </c>
-      <c r="J6" s="37">
-        <v>4</v>
-      </c>
-      <c r="K6" s="37">
+        <v>2:00 PM</v>
+      </c>
+      <c r="I6" s="14">
+        <v>7</v>
+      </c>
+      <c r="J6" s="3">
+        <v>7</v>
+      </c>
+      <c r="K6" s="5">
         <v>4.8</v>
       </c>
-      <c r="L6" s="41">
+      <c r="L6" s="5">
         <f>(J6/I6)*K6</f>
         <v>4.8</v>
       </c>
-      <c r="M6" s="42">
-        <v>3.59</v>
-      </c>
-      <c r="N6" s="42"/>
-      <c r="O6" s="42">
-        <v>4.5</v>
-      </c>
-      <c r="P6" s="41">
+      <c r="M6" s="12">
+        <v>3.55</v>
+      </c>
+      <c r="N6" s="12">
+        <f>1/20</f>
+        <v>0.05</v>
+      </c>
+      <c r="O6" s="12">
+        <v>4.7</v>
+      </c>
+      <c r="P6" s="5">
         <f>0.7*L6+0.2*M6+0.1*O6+N6</f>
-        <v>4.5279999999999996</v>
-      </c>
-      <c r="Q6" s="43">
-        <v>1.6342592592592593E-2</v>
-      </c>
-      <c r="R6" s="44">
+        <v>4.59</v>
+      </c>
+      <c r="Q6" s="31">
+        <v>1.4652777777777778E-2</v>
+      </c>
+      <c r="R6" s="32">
         <f>Q6/$R$2</f>
-        <v>0.7844444444444445</v>
+        <v>0.70333333333333337</v>
       </c>
       <c r="S6" s="45">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="T6" s="44">
+      <c r="T6" s="32">
         <f>S6/$T$2</f>
         <v>1</v>
       </c>
-      <c r="U6" s="44">
-        <v>1</v>
-      </c>
-      <c r="V6" s="46">
-        <v>1</v>
-      </c>
-      <c r="W6" s="52">
+      <c r="U6" s="32">
+        <v>1</v>
+      </c>
+      <c r="V6" s="34">
+        <v>1</v>
+      </c>
+      <c r="W6" s="12">
         <f>AVERAGE(R6,T6,V6)*5</f>
-        <v>4.6407407407407408</v>
-      </c>
-      <c r="X6" s="47"/>
-      <c r="Y6" s="47">
-        <v>4</v>
-      </c>
-      <c r="Z6" s="47">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="47"/>
-      <c r="AB6" s="47"/>
-      <c r="AC6" s="47">
+        <v>4.5055555555555555</v>
+      </c>
+      <c r="X6" s="35">
+        <v>3</v>
+      </c>
+      <c r="Y6" s="35"/>
+      <c r="Z6" s="35">
+        <v>5</v>
+      </c>
+      <c r="AA6" s="35"/>
+      <c r="AB6" s="35"/>
+      <c r="AC6" s="35">
         <f>AVERAGE(X6:AB6)</f>
+        <v>4</v>
+      </c>
+      <c r="AD6" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="AE6" s="5">
+        <v>5</v>
+      </c>
+      <c r="AF6" s="5">
+        <v>5</v>
+      </c>
+      <c r="AG6" s="5">
+        <f>0.2*AF6+0.8*AVERAGE(AC6:AE6)</f>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AH6" s="5">
+        <v>4.8</v>
+      </c>
+      <c r="AI6" s="5">
+        <v>4.8</v>
+      </c>
+      <c r="AJ6" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="AK6" s="5">
+        <v>5</v>
+      </c>
+      <c r="AL6" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="AM6" s="5">
+        <f>AVERAGE(AH6:AL6)</f>
+        <v>4.7200000000000006</v>
+      </c>
+      <c r="AN6" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="AO6" s="5">
+        <f>0.3*AN6+0.6*AM6+0.05*AG6+0.05*W6</f>
+        <v>4.6372777777777783</v>
+      </c>
+      <c r="AP6" s="56">
+        <v>2.2974537037037036E-2</v>
+      </c>
+      <c r="AQ6" s="58">
+        <f>AP6/0.0230324074074074</f>
+        <v>0.99748743718592991</v>
+      </c>
+      <c r="AR6" s="56">
+        <v>1.8726851851851852E-2</v>
+      </c>
+      <c r="AS6" s="58">
+        <f>AR6/0.0230324074074074</f>
+        <v>0.81306532663316611</v>
+      </c>
+      <c r="AU6" s="56"/>
+    </row>
+    <row r="7" spans="1:47" s="48" customFormat="1">
+      <c r="A7" s="37">
+        <v>1005785832</v>
+      </c>
+      <c r="B7" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="AD6" s="41">
-        <v>4.5</v>
-      </c>
-      <c r="AE6" s="41">
-        <v>4</v>
-      </c>
-      <c r="AF6" s="41">
+      <c r="E7" s="37">
+        <v>2</v>
+      </c>
+      <c r="F7" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="G7" s="37">
+        <v>1</v>
+      </c>
+      <c r="H7" s="37" t="str" cm="1">
+        <f t="array" ref="H7">_xlfn.IFS(G7=1, "2:00 PM", G7=2, "2:30 PM", G7=3, "3:00 PM", G7=4, "3:30 PM")</f>
+        <v>2:00 PM</v>
+      </c>
+      <c r="I7" s="40">
+        <v>7</v>
+      </c>
+      <c r="J7" s="37">
+        <v>7</v>
+      </c>
+      <c r="K7" s="41">
+        <v>4.8</v>
+      </c>
+      <c r="L7" s="41">
+        <f>(J7/I7)*K7</f>
+        <v>4.8</v>
+      </c>
+      <c r="M7" s="42">
+        <v>3.55</v>
+      </c>
+      <c r="N7" s="42">
+        <f>1/20</f>
+        <v>0.05</v>
+      </c>
+      <c r="O7" s="42">
+        <v>4.7</v>
+      </c>
+      <c r="P7" s="41">
+        <f>0.7*L7+0.2*M7+0.1*O7+N7</f>
+        <v>4.59</v>
+      </c>
+      <c r="Q7" s="43">
+        <v>1.5520833333333333E-2</v>
+      </c>
+      <c r="R7" s="44">
+        <f>Q7/$R$2</f>
+        <v>0.745</v>
+      </c>
+      <c r="S7" s="45">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="T7" s="44">
+        <f>S7/$T$2</f>
+        <v>1</v>
+      </c>
+      <c r="U7" s="44">
+        <v>1</v>
+      </c>
+      <c r="V7" s="46">
+        <v>0.8</v>
+      </c>
+      <c r="W7" s="52">
+        <f>AVERAGE(R7,T7,V7)*5</f>
+        <v>4.2416666666666663</v>
+      </c>
+      <c r="X7" s="47">
+        <v>3</v>
+      </c>
+      <c r="Y7" s="47"/>
+      <c r="Z7" s="47"/>
+      <c r="AA7" s="47">
+        <v>4</v>
+      </c>
+      <c r="AB7" s="47"/>
+      <c r="AC7" s="47">
+        <f>AVERAGE(X7:AB7)</f>
+        <v>3.5</v>
+      </c>
+      <c r="AD7" s="41">
+        <v>4.5</v>
+      </c>
+      <c r="AE7" s="41"/>
+      <c r="AF7" s="41">
+        <v>4.9285714285714288</v>
+      </c>
+      <c r="AG7" s="51">
+        <f>0.2*AF7+0.8*AVERAGE(AC7:AE7)</f>
+        <v>4.1857142857142859</v>
+      </c>
+      <c r="AH7" s="41">
+        <v>4.8</v>
+      </c>
+      <c r="AI7" s="41">
+        <v>4.8</v>
+      </c>
+      <c r="AJ7" s="41">
+        <v>4.5</v>
+      </c>
+      <c r="AK7" s="41">
         <v>5</v>
       </c>
-      <c r="AG6" s="51">
-        <f>0.2*AF6+0.8*AVERAGE(AC6:AE6)</f>
-        <v>3.8000000000000003</v>
-      </c>
-      <c r="AH6" s="41">
-        <v>4.3</v>
-      </c>
-      <c r="AI6" s="41">
-        <v>4</v>
-      </c>
-      <c r="AJ6" s="41">
-        <v>4.5</v>
-      </c>
-      <c r="AK6" s="41">
-        <v>4.8</v>
-      </c>
-      <c r="AL6" s="41">
-        <v>4.5</v>
-      </c>
-      <c r="AM6" s="51">
-        <f>AVERAGE(AH6:AL6)</f>
-        <v>4.42</v>
-      </c>
-      <c r="AN6" s="51">
-        <v>4</v>
-      </c>
-      <c r="AO6" s="41">
-        <f>0.3*AN6+0.6*AM6+0.05*AG6+0.05*W6</f>
-        <v>4.2740370370370364</v>
-      </c>
-      <c r="AP6" s="56">
-        <v>1.6087962962962964E-2</v>
-      </c>
-      <c r="AQ6" s="59">
-        <f>AP6/0.0170138888888889</f>
-        <v>0.94557823129251639</v>
-      </c>
-      <c r="AR6" s="56">
-        <v>1.3020833333333334E-2</v>
-      </c>
-      <c r="AS6" s="59">
-        <f t="shared" si="0"/>
-        <v>0.79730687455705263</v>
-      </c>
-      <c r="AU6" s="56"/>
-    </row>
-    <row r="7" spans="1:47" s="48" customFormat="1">
-      <c r="A7" s="3">
-        <v>1062329024</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="3">
-        <v>1</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G7" s="3">
-        <v>3</v>
-      </c>
-      <c r="H7" s="3" t="str" cm="1">
-        <f t="array" ref="H7">_xlfn.IFS(G7=1, "2:00 PM", G7=2, "2:30 PM", G7=3, "3:00 PM", G7=4, "3:30 PM")</f>
-        <v>3:00 PM</v>
-      </c>
-      <c r="I7" s="14">
-        <v>5</v>
-      </c>
-      <c r="J7" s="3">
-        <v>5</v>
-      </c>
-      <c r="K7" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="L7" s="5">
-        <f>(J7/I7)*K7</f>
-        <v>4.5</v>
-      </c>
-      <c r="M7" s="12">
-        <v>3.59</v>
-      </c>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12">
-        <v>4.5</v>
-      </c>
-      <c r="P7" s="5">
-        <f>0.7*L7+0.2*M7+0.1*O7+N7</f>
-        <v>4.3179999999999996</v>
-      </c>
-      <c r="Q7" s="31">
-        <v>0</v>
-      </c>
-      <c r="R7" s="32">
-        <f>Q7/$R$2</f>
-        <v>0</v>
-      </c>
-      <c r="S7" s="33">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="T7" s="32">
-        <f>S7/$T$2</f>
-        <v>1</v>
-      </c>
-      <c r="U7" s="32">
-        <v>1</v>
-      </c>
-      <c r="V7" s="34">
-        <v>1</v>
-      </c>
-      <c r="W7" s="12">
-        <f>AVERAGE(R7,T7,V7)*5</f>
-        <v>3.333333333333333</v>
-      </c>
-      <c r="X7" s="35"/>
-      <c r="Y7" s="35">
-        <v>5</v>
-      </c>
-      <c r="Z7" s="35">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="35"/>
-      <c r="AB7" s="35"/>
-      <c r="AC7" s="35">
-        <f>AVERAGE(X7:AB7)</f>
-        <v>2.5</v>
-      </c>
-      <c r="AD7" s="5">
-        <v>3</v>
-      </c>
-      <c r="AE7" s="5">
-        <v>4</v>
-      </c>
-      <c r="AF7" s="5">
-        <v>3.8461538461538463</v>
-      </c>
-      <c r="AG7" s="5">
-        <f>0.2*AF7+0.8*AVERAGE(AC7:AE7)</f>
-        <v>3.3025641025641024</v>
-      </c>
-      <c r="AH7" s="5">
-        <v>4.3</v>
-      </c>
-      <c r="AI7" s="5">
-        <v>4</v>
-      </c>
-      <c r="AJ7" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="AK7" s="5">
-        <v>4.8</v>
-      </c>
-      <c r="AL7" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="AM7" s="5">
+      <c r="AL7" s="41">
+        <v>4.5</v>
+      </c>
+      <c r="AM7" s="51">
         <f>AVERAGE(AH7:AL7)</f>
-        <v>4.42</v>
-      </c>
-      <c r="AN7" s="5">
-        <v>4</v>
-      </c>
-      <c r="AO7" s="5">
+        <v>4.7200000000000006</v>
+      </c>
+      <c r="AN7" s="51">
+        <v>4.5</v>
+      </c>
+      <c r="AO7" s="41">
         <f>0.3*AN7+0.6*AM7+0.05*AG7+0.05*W7</f>
-        <v>4.1837948717948716</v>
-      </c>
-      <c r="AQ7" s="59">
-        <f>AP7/0.0170138888888889</f>
-        <v>0</v>
+        <v>4.6033690476190481</v>
+      </c>
+      <c r="AP7" s="56">
+        <v>2.3009259259259261E-2</v>
+      </c>
+      <c r="AQ7" s="58">
+        <f>AP7/0.0230324074074074</f>
+        <v>0.99899497487437217</v>
       </c>
       <c r="AR7" s="56">
-        <v>0</v>
-      </c>
-      <c r="AS7" s="59">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.6770833333333332E-2</v>
+      </c>
+      <c r="AS7" s="58">
+        <f>AR7/0.0230324074074074</f>
+        <v>0.72814070351758808</v>
       </c>
       <c r="AT7"/>
       <c r="AU7" s="56"/>
     </row>
     <row r="8" spans="1:47">
-      <c r="A8" s="3">
-        <v>1110364376</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G8" s="3">
-        <v>3</v>
-      </c>
-      <c r="H8" s="3" t="str" cm="1">
+      <c r="A8" s="37">
+        <v>1005832925</v>
+      </c>
+      <c r="B8" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="37">
+        <v>2</v>
+      </c>
+      <c r="F8" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="G8" s="37">
+        <v>1</v>
+      </c>
+      <c r="H8" s="37" t="str" cm="1">
         <f t="array" ref="H8">_xlfn.IFS(G8=1, "2:00 PM", G8=2, "2:30 PM", G8=3, "3:00 PM", G8=4, "3:30 PM")</f>
-        <v>3:00 PM</v>
-      </c>
-      <c r="I8" s="14">
-        <v>3</v>
-      </c>
-      <c r="J8" s="3">
-        <v>3</v>
-      </c>
-      <c r="K8" s="3">
+        <v>2:00 PM</v>
+      </c>
+      <c r="I8" s="40">
+        <v>11</v>
+      </c>
+      <c r="J8" s="37">
+        <v>11</v>
+      </c>
+      <c r="K8" s="41">
         <v>4.8</v>
       </c>
-      <c r="L8" s="5">
+      <c r="L8" s="41">
         <f>(J8/I8)*K8</f>
         <v>4.8</v>
       </c>
-      <c r="M8" s="12">
-        <v>3.59</v>
-      </c>
-      <c r="N8" s="12">
-        <f>1/16</f>
-        <v>6.25E-2</v>
-      </c>
-      <c r="O8" s="12">
-        <v>4.5</v>
-      </c>
-      <c r="P8" s="5">
+      <c r="M8" s="42">
+        <v>3.55</v>
+      </c>
+      <c r="N8" s="42">
+        <f>5/20</f>
+        <v>0.25</v>
+      </c>
+      <c r="O8" s="42">
+        <v>4.7</v>
+      </c>
+      <c r="P8" s="41">
         <f>0.7*L8+0.2*M8+0.1*O8+N8</f>
-        <v>4.5904999999999996</v>
-      </c>
-      <c r="Q8" s="31">
-        <v>1.412037037037037E-2</v>
-      </c>
-      <c r="R8" s="32">
+        <v>4.79</v>
+      </c>
+      <c r="Q8" s="43">
+        <v>1.5972222222222221E-2</v>
+      </c>
+      <c r="R8" s="44">
         <f>Q8/$R$2</f>
-        <v>0.67777777777777781</v>
-      </c>
-      <c r="S8" s="33">
-        <v>0</v>
-      </c>
-      <c r="T8" s="32">
+        <v>0.76666666666666661</v>
+      </c>
+      <c r="S8" s="45">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="T8" s="44">
         <f>S8/$T$2</f>
-        <v>0</v>
-      </c>
-      <c r="U8" s="32">
-        <v>1</v>
-      </c>
-      <c r="V8" s="34">
-        <v>0</v>
-      </c>
-      <c r="W8" s="12">
+        <v>1</v>
+      </c>
+      <c r="U8" s="44">
+        <v>1</v>
+      </c>
+      <c r="V8" s="46">
+        <v>1</v>
+      </c>
+      <c r="W8" s="52">
+        <f>AVERAGE(R8,T8,V8)*5</f>
+        <v>4.6111111111111107</v>
+      </c>
+      <c r="X8" s="47"/>
+      <c r="Y8" s="47">
+        <v>5</v>
+      </c>
+      <c r="Z8" s="47"/>
+      <c r="AA8" s="47">
+        <v>2</v>
+      </c>
+      <c r="AB8" s="47">
         <v>3</v>
       </c>
-      <c r="X8" s="35"/>
-      <c r="Y8" s="35">
+      <c r="AC8" s="47">
+        <f>AVERAGE(X8:AB8)</f>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="AD8" s="41">
+        <v>5</v>
+      </c>
+      <c r="AE8" s="41">
+        <v>5</v>
+      </c>
+      <c r="AF8" s="41">
+        <v>5</v>
+      </c>
+      <c r="AG8" s="51">
+        <f>0.2*AF8+0.8*AVERAGE(AC8:AE8)</f>
+        <v>4.5555555555555554</v>
+      </c>
+      <c r="AH8" s="41">
+        <v>4.8</v>
+      </c>
+      <c r="AI8" s="41">
+        <v>4.8</v>
+      </c>
+      <c r="AJ8" s="41">
+        <v>4.5</v>
+      </c>
+      <c r="AK8" s="41">
+        <v>5</v>
+      </c>
+      <c r="AL8" s="41">
+        <v>4.5</v>
+      </c>
+      <c r="AM8" s="51">
+        <f>AVERAGE(AH8:AL8)</f>
+        <v>4.7200000000000006</v>
+      </c>
+      <c r="AN8" s="51">
+        <v>4.5</v>
+      </c>
+      <c r="AO8" s="41">
+        <f>0.3*AN8+0.6*AM8+0.05*AG8+0.05*W8</f>
+        <v>4.6403333333333334</v>
+      </c>
+      <c r="AP8" s="56">
+        <v>2.3032407407407408E-2</v>
+      </c>
+      <c r="AQ8" s="58">
+        <f>AP8/0.0230324074074074</f>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="AR8" s="56">
+        <v>1.1574074074074073E-5</v>
+      </c>
+      <c r="AS8" s="58">
+        <f>AR8/0.0230324074074074</f>
+        <v>5.0251256281407051E-4</v>
+      </c>
+      <c r="AT8" s="57"/>
+      <c r="AU8" s="56"/>
+    </row>
+    <row r="9" spans="1:47" s="48" customFormat="1">
+      <c r="A9" s="37">
+        <v>1062274189</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="37">
+        <v>3</v>
+      </c>
+      <c r="F9" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" s="37">
         <v>2</v>
       </c>
-      <c r="Z8" s="35">
+      <c r="H9" s="37" t="str" cm="1">
+        <f t="array" ref="H9">_xlfn.IFS(G9=1, "2:00 PM", G9=2, "2:30 PM", G9=3, "3:00 PM", G9=4, "3:30 PM")</f>
+        <v>2:30 PM</v>
+      </c>
+      <c r="I9" s="40">
+        <v>5</v>
+      </c>
+      <c r="J9" s="37">
+        <v>3</v>
+      </c>
+      <c r="K9" s="41">
+        <v>4.5</v>
+      </c>
+      <c r="L9" s="41">
+        <f>(J9/I9)*K9</f>
+        <v>2.6999999999999997</v>
+      </c>
+      <c r="M9" s="42">
+        <v>2.76</v>
+      </c>
+      <c r="N9" s="42"/>
+      <c r="O9" s="42">
+        <v>3</v>
+      </c>
+      <c r="P9" s="41">
+        <f>0.7*L9+0.2*M9+0.1*O9+N9</f>
+        <v>2.742</v>
+      </c>
+      <c r="Q9" s="43">
+        <v>1.8506944444444444E-2</v>
+      </c>
+      <c r="R9" s="44">
+        <f>Q9/$R$2</f>
+        <v>0.88833333333333331</v>
+      </c>
+      <c r="S9" s="45">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="T9" s="44">
+        <f>S9/$T$2</f>
+        <v>1</v>
+      </c>
+      <c r="U9" s="44">
+        <v>1</v>
+      </c>
+      <c r="V9" s="46">
+        <v>0.8</v>
+      </c>
+      <c r="W9" s="52">
+        <f>AVERAGE(R9,T9,V9)*5</f>
+        <v>4.4805555555555561</v>
+      </c>
+      <c r="X9" s="47">
         <v>2</v>
       </c>
-      <c r="AA8" s="35"/>
-      <c r="AB8" s="35"/>
-      <c r="AC8" s="35">
-        <f>AVERAGE(X8:AB8)</f>
+      <c r="Y9" s="47">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="47"/>
+      <c r="AA9" s="47">
+        <v>3</v>
+      </c>
+      <c r="AB9" s="47"/>
+      <c r="AC9" s="47">
+        <f>AVERAGE(X9:AB9)</f>
         <v>2</v>
       </c>
-      <c r="AD8" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="AE8" s="5">
-        <v>4</v>
-      </c>
-      <c r="AF8" s="5">
-        <v>4.9230769230769234</v>
-      </c>
-      <c r="AG8" s="5">
-        <f>0.2*AF8+0.8*AVERAGE(AC8:AE8)</f>
-        <v>3.7846153846153849</v>
-      </c>
-      <c r="AH8" s="5">
+      <c r="AD9" s="41">
+        <v>4</v>
+      </c>
+      <c r="AE9" s="41">
+        <v>4</v>
+      </c>
+      <c r="AF9" s="41">
+        <v>4.7692307692307692</v>
+      </c>
+      <c r="AG9" s="51">
+        <f>0.2*AF9+0.8*AVERAGE(AC9:AE9)</f>
+        <v>3.620512820512821</v>
+      </c>
+      <c r="AH9" s="41">
+        <v>4</v>
+      </c>
+      <c r="AI9" s="41">
+        <v>4.7</v>
+      </c>
+      <c r="AJ9" s="41">
+        <v>4.5</v>
+      </c>
+      <c r="AK9" s="41">
+        <v>4</v>
+      </c>
+      <c r="AL9" s="41">
         <v>4.3</v>
       </c>
-      <c r="AI8" s="5">
-        <v>4</v>
-      </c>
-      <c r="AJ8" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="AK8" s="5">
-        <v>4.8</v>
-      </c>
-      <c r="AL8" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="AM8" s="5">
-        <f>AVERAGE(AH8:AL8)</f>
-        <v>4.42</v>
-      </c>
-      <c r="AN8" s="5">
-        <v>4</v>
-      </c>
-      <c r="AO8" s="5">
-        <f>0.3*AN8+0.6*AM8+0.05*AG8+0.05*W8</f>
-        <v>4.1912307692307689</v>
-      </c>
-      <c r="AP8" s="56">
-        <v>1.7013888888888887E-2</v>
-      </c>
-      <c r="AQ8" s="59">
-        <f>AP8/0.0170138888888889</f>
-        <v>0.99999999999999922</v>
-      </c>
-      <c r="AR8" s="56">
-        <v>1.6331018518518519E-2</v>
-      </c>
-      <c r="AS8" s="59">
-        <f>AR8/0.0163310185185185</f>
-        <v>1.0000000000000011</v>
-      </c>
-      <c r="AT8" s="58"/>
-      <c r="AU8" s="56"/>
-    </row>
-    <row r="9" spans="1:47" s="48" customFormat="1">
-      <c r="A9" s="3">
-        <v>1005783739</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="3">
-        <v>2</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G9" s="3">
-        <v>4</v>
-      </c>
-      <c r="H9" s="3" t="str" cm="1">
-        <f t="array" ref="H9">_xlfn.IFS(G9=1, "2:00 PM", G9=2, "2:30 PM", G9=3, "3:00 PM", G9=4, "3:30 PM")</f>
-        <v>3:30 PM</v>
-      </c>
-      <c r="I9" s="14">
-        <v>4</v>
-      </c>
-      <c r="J9" s="3">
-        <v>4</v>
-      </c>
-      <c r="K9" s="5">
-        <v>4.8</v>
-      </c>
-      <c r="L9" s="5">
-        <f>(J9/I9)*K9</f>
-        <v>4.8</v>
-      </c>
-      <c r="M9" s="12">
-        <v>3.55</v>
-      </c>
-      <c r="N9" s="12">
-        <f>3/20</f>
-        <v>0.15</v>
-      </c>
-      <c r="O9" s="12">
-        <v>4.7</v>
-      </c>
-      <c r="P9" s="5">
-        <f>0.7*L9+0.2*M9+0.1*O9+N9</f>
-        <v>4.6900000000000004</v>
-      </c>
-      <c r="Q9" s="31">
-        <v>1.4976851851851852E-2</v>
-      </c>
-      <c r="R9" s="32">
-        <f>Q9/$R$2</f>
-        <v>0.71888888888888891</v>
-      </c>
-      <c r="S9" s="33">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="T9" s="32">
-        <f>S9/$T$2</f>
-        <v>1</v>
-      </c>
-      <c r="U9" s="32">
-        <v>1</v>
-      </c>
-      <c r="V9" s="34">
-        <v>1</v>
-      </c>
-      <c r="W9" s="12">
-        <f>AVERAGE(R9,T9,V9)*5</f>
-        <v>4.5314814814814817</v>
-      </c>
-      <c r="X9" s="35">
-        <v>2</v>
-      </c>
-      <c r="Y9" s="35"/>
-      <c r="Z9" s="35">
-        <v>4</v>
-      </c>
-      <c r="AA9" s="35"/>
-      <c r="AB9" s="35"/>
-      <c r="AC9" s="35">
-        <f>AVERAGE(X9:AB9)</f>
-        <v>3</v>
-      </c>
-      <c r="AD9" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="AE9" s="5">
-        <v>5</v>
-      </c>
-      <c r="AF9" s="5">
-        <v>4.9285714285714288</v>
-      </c>
-      <c r="AG9" s="5">
-        <f>0.2*AF9+0.8*AVERAGE(AC9:AE9)</f>
-        <v>4.3190476190476197</v>
-      </c>
-      <c r="AH9" s="5">
-        <v>4.8</v>
-      </c>
-      <c r="AI9" s="5">
-        <v>4.8</v>
-      </c>
-      <c r="AJ9" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="AK9" s="5">
-        <v>5</v>
-      </c>
-      <c r="AL9" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="AM9" s="5">
+      <c r="AM9" s="51">
         <f>AVERAGE(AH9:AL9)</f>
-        <v>4.7200000000000006</v>
-      </c>
-      <c r="AN9" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="AO9" s="5">
+        <v>4.3</v>
+      </c>
+      <c r="AN9" s="51">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="41">
         <f>0.3*AN9+0.6*AM9+0.05*AG9+0.05*W9</f>
-        <v>4.624526455026456</v>
+        <v>2.9850534188034183</v>
       </c>
       <c r="AP9" s="56">
-        <v>2.2997685185185184E-2</v>
+        <v>2.2187499999999999E-2</v>
       </c>
       <c r="AQ9" s="59">
-        <f>AP9/0.0230324074074074</f>
-        <v>0.99849246231155797</v>
+        <f>AP9/0.0221875</f>
+        <v>1</v>
       </c>
       <c r="AR9" s="56">
-        <v>2.0706018518518519E-2</v>
+        <v>1.8148148148148149E-2</v>
       </c>
       <c r="AS9" s="59">
-        <f>AR9/0.0230324074074074</f>
-        <v>0.89899497487437219</v>
+        <f>AR9/0.0181481481481481</f>
+        <v>1.0000000000000027</v>
       </c>
       <c r="AT9"/>
       <c r="AU9" s="56"/>
     </row>
     <row r="10" spans="1:47">
       <c r="A10" s="37">
-        <v>1113698193</v>
+        <v>1110363454</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="D10" s="39" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E10" s="37">
+        <v>3</v>
+      </c>
+      <c r="F10" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="G10" s="37">
         <v>2</v>
-      </c>
-      <c r="F10" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="G10" s="37">
-        <v>4</v>
       </c>
       <c r="H10" s="37" t="str" cm="1">
         <f t="array" ref="H10">_xlfn.IFS(G10=1, "2:00 PM", G10=2, "2:30 PM", G10=3, "3:00 PM", G10=4, "3:30 PM")</f>
-        <v>3:30 PM</v>
+        <v>2:30 PM</v>
       </c>
       <c r="I10" s="40">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J10" s="37">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K10" s="41">
         <v>4.8</v>
@@ -2474,25 +2493,25 @@
         <v>4.8</v>
       </c>
       <c r="M10" s="42">
-        <v>3.55</v>
+        <v>2.76</v>
       </c>
       <c r="N10" s="42">
-        <f>2/20</f>
-        <v>0.1</v>
+        <f>1/13</f>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="O10" s="42">
-        <v>4.7</v>
+        <v>3</v>
       </c>
       <c r="P10" s="41">
         <f>0.7*L10+0.2*M10+0.1*O10+N10</f>
-        <v>4.6399999999999997</v>
+        <v>4.2889230769230764</v>
       </c>
       <c r="Q10" s="43">
-        <v>1.5833333333333335E-2</v>
+        <v>1.1863425925925927E-2</v>
       </c>
       <c r="R10" s="44">
         <f>Q10/$R$2</f>
-        <v>0.76000000000000012</v>
+        <v>0.56944444444444453</v>
       </c>
       <c r="S10" s="45">
         <v>2.0833333333333332E-2</v>
@@ -2505,863 +2524,842 @@
         <v>1</v>
       </c>
       <c r="V10" s="46">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="W10" s="52">
         <f>AVERAGE(R10,T10,V10)*5</f>
-        <v>3.9333333333333336</v>
+        <v>4.2824074074074074</v>
       </c>
       <c r="X10" s="47">
         <v>5</v>
       </c>
-      <c r="Y10" s="47"/>
+      <c r="Y10" s="47">
+        <v>3</v>
+      </c>
       <c r="Z10" s="47"/>
       <c r="AA10" s="47">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AB10" s="47"/>
       <c r="AC10" s="47">
         <f>AVERAGE(X10:AB10)</f>
-        <v>4.5</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="AD10" s="41">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="AE10" s="41">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF10" s="41">
-        <v>4.8571428571428568</v>
+        <v>4.6923076923076925</v>
       </c>
       <c r="AG10" s="51">
         <f>0.2*AF10+0.8*AVERAGE(AC10:AE10)</f>
-        <v>4.7047619047619049</v>
+        <v>4.2273504273504274</v>
       </c>
       <c r="AH10" s="41">
-        <v>4.8</v>
+        <v>4</v>
       </c>
       <c r="AI10" s="41">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="AJ10" s="41">
         <v>4.5</v>
       </c>
       <c r="AK10" s="41">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AL10" s="41">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="AM10" s="51">
         <f>AVERAGE(AH10:AL10)</f>
-        <v>4.7200000000000006</v>
+        <v>4.3</v>
       </c>
       <c r="AN10" s="51">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="41">
         <f>0.3*AN10+0.6*AM10+0.05*AG10+0.05*W10</f>
-        <v>4.6139047619047622</v>
+        <v>3.0054878917378911</v>
       </c>
       <c r="AP10" s="56">
-        <v>1.6631944444444446E-2</v>
+        <v>1.7175925925925924E-2</v>
       </c>
       <c r="AQ10" s="59">
-        <f>AP10/0.0230324074074074</f>
-        <v>0.72211055276381941</v>
+        <f>AP10/0.0221875</f>
+        <v>0.77412623891497123</v>
       </c>
       <c r="AR10" s="56">
-        <v>2.0706018518518519E-2</v>
+        <v>0</v>
       </c>
       <c r="AS10" s="59">
-        <f t="shared" ref="AS10:AS13" si="1">AR10/0.0230324074074074</f>
-        <v>0.89899497487437219</v>
+        <f>AR10/0.0181481481481481</f>
+        <v>0</v>
       </c>
       <c r="AU10" s="56"/>
     </row>
-    <row r="11" spans="1:47" s="48" customFormat="1">
-      <c r="A11" s="3">
-        <v>1109662163</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="3">
+    <row r="11" spans="1:47" s="48" customFormat="1" ht="15.75">
+      <c r="A11" s="37">
+        <v>1007603017</v>
+      </c>
+      <c r="B11" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="37">
+        <v>3</v>
+      </c>
+      <c r="F11" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="G11" s="37">
         <v>2</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G11" s="3">
-        <v>4</v>
-      </c>
-      <c r="H11" s="3" t="str" cm="1">
+      <c r="H11" s="37" t="str" cm="1">
         <f t="array" ref="H11">_xlfn.IFS(G11=1, "2:00 PM", G11=2, "2:30 PM", G11=3, "3:00 PM", G11=4, "3:30 PM")</f>
-        <v>3:30 PM</v>
-      </c>
-      <c r="I11" s="14">
-        <v>7</v>
-      </c>
-      <c r="J11" s="3">
-        <v>7</v>
-      </c>
-      <c r="K11" s="5">
+        <v>2:30 PM</v>
+      </c>
+      <c r="I11" s="40">
+        <v>5</v>
+      </c>
+      <c r="J11" s="37">
+        <v>5</v>
+      </c>
+      <c r="K11" s="41">
         <v>4.8</v>
       </c>
-      <c r="L11" s="5">
+      <c r="L11" s="41">
         <f>(J11/I11)*K11</f>
         <v>4.8</v>
       </c>
-      <c r="M11" s="12">
-        <v>3.55</v>
-      </c>
-      <c r="N11" s="12">
-        <f>1/20</f>
-        <v>0.05</v>
-      </c>
-      <c r="O11" s="12">
-        <v>4.7</v>
-      </c>
-      <c r="P11" s="5">
+      <c r="M11" s="42">
+        <v>2.76</v>
+      </c>
+      <c r="N11" s="42"/>
+      <c r="O11" s="42">
+        <v>3</v>
+      </c>
+      <c r="P11" s="41">
         <f>0.7*L11+0.2*M11+0.1*O11+N11</f>
-        <v>4.59</v>
-      </c>
-      <c r="Q11" s="31">
-        <v>1.4652777777777778E-2</v>
-      </c>
-      <c r="R11" s="32">
+        <v>4.2119999999999997</v>
+      </c>
+      <c r="Q11" s="43">
+        <v>1.8159722222222223E-2</v>
+      </c>
+      <c r="R11" s="44">
         <f>Q11/$R$2</f>
-        <v>0.70333333333333337</v>
+        <v>0.8716666666666667</v>
       </c>
       <c r="S11" s="45">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="T11" s="32">
+      <c r="T11" s="44">
         <f>S11/$T$2</f>
         <v>1</v>
       </c>
-      <c r="U11" s="32">
-        <v>1</v>
-      </c>
-      <c r="V11" s="34">
-        <v>1</v>
-      </c>
-      <c r="W11" s="12">
+      <c r="U11" s="44">
+        <v>1</v>
+      </c>
+      <c r="V11" s="46">
+        <v>1</v>
+      </c>
+      <c r="W11" s="52">
         <f>AVERAGE(R11,T11,V11)*5</f>
-        <v>4.5055555555555555</v>
-      </c>
-      <c r="X11" s="35">
+        <v>4.7861111111111114</v>
+      </c>
+      <c r="X11" s="47">
+        <v>4</v>
+      </c>
+      <c r="Y11" s="47"/>
+      <c r="Z11" s="47"/>
+      <c r="AA11" s="47">
+        <v>5</v>
+      </c>
+      <c r="AB11" s="47"/>
+      <c r="AC11" s="47">
+        <f>AVERAGE(X11:AB11)</f>
+        <v>4.5</v>
+      </c>
+      <c r="AD11" s="41">
+        <v>4</v>
+      </c>
+      <c r="AE11" s="41">
+        <v>4</v>
+      </c>
+      <c r="AF11" s="41">
+        <v>4.615384615384615</v>
+      </c>
+      <c r="AG11" s="51">
+        <f>0.2*AF11+0.8*AVERAGE(AC11:AE11)</f>
+        <v>4.2564102564102573</v>
+      </c>
+      <c r="AH11" s="41">
+        <v>4</v>
+      </c>
+      <c r="AI11" s="41">
+        <v>4.7</v>
+      </c>
+      <c r="AJ11" s="41">
+        <v>4.5</v>
+      </c>
+      <c r="AK11" s="41">
+        <v>4</v>
+      </c>
+      <c r="AL11" s="41">
+        <v>4.3</v>
+      </c>
+      <c r="AM11" s="51">
+        <f>AVERAGE(AH11:AL11)</f>
+        <v>4.3</v>
+      </c>
+      <c r="AN11" s="51">
+        <v>0</v>
+      </c>
+      <c r="AO11" s="41">
+        <f>0.3*AN11+0.6*AM11+0.05*AG11+0.05*W11</f>
+        <v>3.0321260683760682</v>
+      </c>
+      <c r="AP11" s="56">
+        <v>2.1921296296296296E-2</v>
+      </c>
+      <c r="AQ11" s="59">
+        <f>AP11/0.0221875</f>
+        <v>0.98800208659363598</v>
+      </c>
+      <c r="AR11" s="56">
+        <v>1.7962962962962962E-2</v>
+      </c>
+      <c r="AS11" s="59">
+        <f>AR11/0.0181481481481481</f>
+        <v>0.98979591836734948</v>
+      </c>
+      <c r="AU11" s="56"/>
+    </row>
+    <row r="12" spans="1:47">
+      <c r="A12" s="3">
+        <v>1081728000</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="3">
         <v>3</v>
       </c>
-      <c r="Y11" s="35"/>
-      <c r="Z11" s="35">
+      <c r="F12" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" s="3">
+        <v>2</v>
+      </c>
+      <c r="H12" s="3" t="str" cm="1">
+        <f t="array" ref="H12">_xlfn.IFS(G12=1, "2:00 PM", G12=2, "2:30 PM", G12=3, "3:00 PM", G12=4, "3:30 PM")</f>
+        <v>2:30 PM</v>
+      </c>
+      <c r="I12" s="14">
         <v>5</v>
       </c>
-      <c r="AA11" s="35"/>
-      <c r="AB11" s="35"/>
-      <c r="AC11" s="35">
-        <f>AVERAGE(X11:AB11)</f>
-        <v>4</v>
-      </c>
-      <c r="AD11" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="AE11" s="5">
+      <c r="J12" s="3">
         <v>5</v>
       </c>
-      <c r="AF11" s="5">
-        <v>5</v>
-      </c>
-      <c r="AG11" s="5">
-        <f>0.2*AF11+0.8*AVERAGE(AC11:AE11)</f>
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="AH11" s="5">
+      <c r="K12" s="5">
         <v>4.8</v>
       </c>
-      <c r="AI11" s="5">
-        <v>4.8</v>
-      </c>
-      <c r="AJ11" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="AK11" s="5">
-        <v>5</v>
-      </c>
-      <c r="AL11" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="AM11" s="5">
-        <f>AVERAGE(AH11:AL11)</f>
-        <v>4.7200000000000006</v>
-      </c>
-      <c r="AN11" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="AO11" s="5">
-        <f>0.3*AN11+0.6*AM11+0.05*AG11+0.05*W11</f>
-        <v>4.6372777777777783</v>
-      </c>
-      <c r="AP11" s="56">
-        <v>2.2974537037037036E-2</v>
-      </c>
-      <c r="AQ11" s="59">
-        <f>AP11/0.0230324074074074</f>
-        <v>0.99748743718592991</v>
-      </c>
-      <c r="AR11" s="56">
-        <v>1.8726851851851852E-2</v>
-      </c>
-      <c r="AS11" s="59">
-        <f t="shared" si="1"/>
-        <v>0.81306532663316611</v>
-      </c>
-      <c r="AU11" s="56"/>
-    </row>
-    <row r="12" spans="1:47">
-      <c r="A12" s="37">
-        <v>1005785832</v>
-      </c>
-      <c r="B12" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="E12" s="37">
-        <v>2</v>
-      </c>
-      <c r="F12" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="G12" s="37">
-        <v>4</v>
-      </c>
-      <c r="H12" s="37" t="str" cm="1">
-        <f t="array" ref="H12">_xlfn.IFS(G12=1, "2:00 PM", G12=2, "2:30 PM", G12=3, "3:00 PM", G12=4, "3:30 PM")</f>
-        <v>3:30 PM</v>
-      </c>
-      <c r="I12" s="40">
-        <v>7</v>
-      </c>
-      <c r="J12" s="37">
-        <v>7</v>
-      </c>
-      <c r="K12" s="41">
-        <v>4.8</v>
-      </c>
-      <c r="L12" s="41">
+      <c r="L12" s="5">
         <f>(J12/I12)*K12</f>
         <v>4.8</v>
       </c>
-      <c r="M12" s="42">
-        <v>3.55</v>
-      </c>
-      <c r="N12" s="42">
-        <f>1/20</f>
-        <v>0.05</v>
-      </c>
-      <c r="O12" s="42">
+      <c r="M12" s="12">
+        <v>2.76</v>
+      </c>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12">
+        <v>3</v>
+      </c>
+      <c r="P12" s="5">
+        <f>0.7*L12+0.2*M12+0.1*O12+N12</f>
+        <v>4.2119999999999997</v>
+      </c>
+      <c r="Q12" s="31">
+        <v>9.9305555555555553E-3</v>
+      </c>
+      <c r="R12" s="32">
+        <f>Q12/$R$2</f>
+        <v>0.47666666666666668</v>
+      </c>
+      <c r="S12" s="33">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="T12" s="32">
+        <f>S12/$T$2</f>
+        <v>1</v>
+      </c>
+      <c r="U12" s="32">
+        <v>1</v>
+      </c>
+      <c r="V12" s="34">
+        <v>1</v>
+      </c>
+      <c r="W12" s="12">
+        <f>AVERAGE(R12,T12,V12)*5</f>
+        <v>4.1277777777777773</v>
+      </c>
+      <c r="X12" s="35">
+        <v>2</v>
+      </c>
+      <c r="Y12" s="35"/>
+      <c r="Z12" s="35"/>
+      <c r="AA12" s="35">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="35"/>
+      <c r="AC12" s="35">
+        <f>AVERAGE(X12:AB12)</f>
+        <v>1.5</v>
+      </c>
+      <c r="AD12" s="5">
+        <v>4</v>
+      </c>
+      <c r="AE12" s="5">
+        <v>4</v>
+      </c>
+      <c r="AF12" s="5">
+        <v>4.615384615384615</v>
+      </c>
+      <c r="AG12" s="5">
+        <f>0.2*AF12+0.8*AVERAGE(AC12:AE12)</f>
+        <v>3.4564102564102561</v>
+      </c>
+      <c r="AH12" s="5">
+        <v>4</v>
+      </c>
+      <c r="AI12" s="5">
         <v>4.7</v>
       </c>
-      <c r="P12" s="41">
-        <f>0.7*L12+0.2*M12+0.1*O12+N12</f>
-        <v>4.59</v>
-      </c>
-      <c r="Q12" s="43">
-        <v>1.5520833333333333E-2</v>
-      </c>
-      <c r="R12" s="44">
-        <f>Q12/$R$2</f>
-        <v>0.745</v>
-      </c>
-      <c r="S12" s="45">
+      <c r="AJ12" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="AK12" s="5">
+        <v>4</v>
+      </c>
+      <c r="AL12" s="5">
+        <v>4.3</v>
+      </c>
+      <c r="AM12" s="5">
+        <f>AVERAGE(AH12:AL12)</f>
+        <v>4.3</v>
+      </c>
+      <c r="AN12" s="5">
+        <v>0</v>
+      </c>
+      <c r="AO12" s="5">
+        <f>0.3*AN12+0.6*AM12+0.05*AG12+0.05*W12</f>
+        <v>2.9592094017094013</v>
+      </c>
+      <c r="AP12" s="56">
+        <v>1.9305555555555555E-2</v>
+      </c>
+      <c r="AQ12" s="59">
+        <f>AP12/0.0221875</f>
+        <v>0.87010954616588421</v>
+      </c>
+      <c r="AR12" s="56">
+        <v>1.3553240740740741E-2</v>
+      </c>
+      <c r="AS12" s="59">
+        <f>AR12/0.0181481481481481</f>
+        <v>0.74681122448979786</v>
+      </c>
+      <c r="AU12" s="56"/>
+    </row>
+    <row r="13" spans="1:47" s="48" customFormat="1">
+      <c r="A13" s="3">
+        <v>1219713263</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="3">
+        <v>3</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G13" s="3">
+        <v>2</v>
+      </c>
+      <c r="H13" s="3" t="str" cm="1">
+        <f t="array" ref="H13">_xlfn.IFS(G13=1, "2:00 PM", G13=2, "2:30 PM", G13=3, "3:00 PM", G13=4, "3:30 PM")</f>
+        <v>2:30 PM</v>
+      </c>
+      <c r="I13" s="14">
+        <v>6</v>
+      </c>
+      <c r="J13" s="3">
+        <v>6</v>
+      </c>
+      <c r="K13" s="5">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="L13" s="5">
+        <f>(J13/I13)*K13</f>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="M13" s="12">
+        <v>2.76</v>
+      </c>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12">
+        <v>3</v>
+      </c>
+      <c r="P13" s="5">
+        <f>0.7*L13+0.2*M13+0.1*O13+N13</f>
+        <v>4.282</v>
+      </c>
+      <c r="Q13" s="31">
+        <v>0</v>
+      </c>
+      <c r="R13" s="32">
+        <f>Q13/$R$2</f>
+        <v>0</v>
+      </c>
+      <c r="S13" s="33">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="T12" s="44">
-        <f>S12/$T$2</f>
-        <v>1</v>
-      </c>
-      <c r="U12" s="44">
-        <v>1</v>
-      </c>
-      <c r="V12" s="46">
-        <v>0.8</v>
-      </c>
-      <c r="W12" s="52">
-        <f>AVERAGE(R12,T12,V12)*5</f>
-        <v>4.2416666666666663</v>
-      </c>
-      <c r="X12" s="47">
+      <c r="T13" s="32">
+        <f>S13/$T$2</f>
+        <v>1</v>
+      </c>
+      <c r="U13" s="32">
+        <v>1</v>
+      </c>
+      <c r="V13" s="34">
+        <v>0</v>
+      </c>
+      <c r="W13" s="12">
         <v>3</v>
       </c>
-      <c r="Y12" s="47"/>
-      <c r="Z12" s="47"/>
-      <c r="AA12" s="47">
-        <v>4</v>
-      </c>
-      <c r="AB12" s="47"/>
-      <c r="AC12" s="47">
-        <f>AVERAGE(X12:AB12)</f>
-        <v>3.5</v>
-      </c>
-      <c r="AD12" s="41">
-        <v>4.5</v>
-      </c>
-      <c r="AE12" s="41"/>
-      <c r="AF12" s="41">
-        <v>4.9285714285714288</v>
-      </c>
-      <c r="AG12" s="51">
-        <f>0.2*AF12+0.8*AVERAGE(AC12:AE12)</f>
-        <v>4.1857142857142859</v>
-      </c>
-      <c r="AH12" s="41">
-        <v>4.8</v>
-      </c>
-      <c r="AI12" s="41">
-        <v>4.8</v>
-      </c>
-      <c r="AJ12" s="41">
-        <v>4.5</v>
-      </c>
-      <c r="AK12" s="41">
-        <v>5</v>
-      </c>
-      <c r="AL12" s="41">
-        <v>4.5</v>
-      </c>
-      <c r="AM12" s="51">
-        <f>AVERAGE(AH12:AL12)</f>
-        <v>4.7200000000000006</v>
-      </c>
-      <c r="AN12" s="51">
-        <v>4.5</v>
-      </c>
-      <c r="AO12" s="41">
-        <f>0.3*AN12+0.6*AM12+0.05*AG12+0.05*W12</f>
-        <v>4.6033690476190481</v>
-      </c>
-      <c r="AP12" s="56">
-        <v>2.3009259259259261E-2</v>
-      </c>
-      <c r="AQ12" s="59">
-        <f>AP12/0.0230324074074074</f>
-        <v>0.99899497487437217</v>
-      </c>
-      <c r="AR12" s="56">
-        <v>1.6770833333333332E-2</v>
-      </c>
-      <c r="AS12" s="59">
-        <f t="shared" si="1"/>
-        <v>0.72814070351758808</v>
-      </c>
-      <c r="AU12" s="56"/>
-    </row>
-    <row r="13" spans="1:47" s="48" customFormat="1">
-      <c r="A13" s="37">
-        <v>1005832925</v>
-      </c>
-      <c r="B13" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="37">
+      <c r="X13" s="35">
         <v>2</v>
       </c>
-      <c r="F13" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="G13" s="37">
-        <v>4</v>
-      </c>
-      <c r="H13" s="37" t="str" cm="1">
-        <f t="array" ref="H13">_xlfn.IFS(G13=1, "2:00 PM", G13=2, "2:30 PM", G13=3, "3:00 PM", G13=4, "3:30 PM")</f>
-        <v>3:30 PM</v>
-      </c>
-      <c r="I13" s="40">
-        <v>11</v>
-      </c>
-      <c r="J13" s="37">
-        <v>11</v>
-      </c>
-      <c r="K13" s="41">
-        <v>4.8</v>
-      </c>
-      <c r="L13" s="41">
-        <f>(J13/I13)*K13</f>
-        <v>4.8</v>
-      </c>
-      <c r="M13" s="42">
-        <v>3.55</v>
-      </c>
-      <c r="N13" s="42">
-        <f>5/20</f>
-        <v>0.25</v>
-      </c>
-      <c r="O13" s="42">
+      <c r="Y13" s="35">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="35"/>
+      <c r="AA13" s="35">
+        <v>3</v>
+      </c>
+      <c r="AB13" s="35"/>
+      <c r="AC13" s="35">
+        <f>AVERAGE(X13:AB13)</f>
+        <v>2</v>
+      </c>
+      <c r="AD13" s="5">
+        <v>4</v>
+      </c>
+      <c r="AE13" s="5">
+        <v>4</v>
+      </c>
+      <c r="AF13" s="5">
+        <v>4.5384615384615383</v>
+      </c>
+      <c r="AG13" s="5">
+        <f>0.2*AF13+0.8*AVERAGE(AC13:AE13)</f>
+        <v>3.5743589743589745</v>
+      </c>
+      <c r="AH13" s="5">
+        <v>4</v>
+      </c>
+      <c r="AI13" s="5">
         <v>4.7</v>
       </c>
-      <c r="P13" s="41">
-        <f>0.7*L13+0.2*M13+0.1*O13+N13</f>
-        <v>4.79</v>
-      </c>
-      <c r="Q13" s="43">
-        <v>1.5972222222222221E-2</v>
-      </c>
-      <c r="R13" s="44">
-        <f>Q13/$R$2</f>
-        <v>0.76666666666666661</v>
-      </c>
-      <c r="S13" s="45">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="T13" s="44">
-        <f>S13/$T$2</f>
-        <v>1</v>
-      </c>
-      <c r="U13" s="44">
-        <v>1</v>
-      </c>
-      <c r="V13" s="46">
-        <v>1</v>
-      </c>
-      <c r="W13" s="52">
-        <f>AVERAGE(R13,T13,V13)*5</f>
-        <v>4.6111111111111107</v>
-      </c>
-      <c r="X13" s="47"/>
-      <c r="Y13" s="47">
-        <v>5</v>
-      </c>
-      <c r="Z13" s="47"/>
-      <c r="AA13" s="47">
-        <v>2</v>
-      </c>
-      <c r="AB13" s="47">
+      <c r="AJ13" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="AK13" s="5">
+        <v>4</v>
+      </c>
+      <c r="AL13" s="5">
+        <v>4.3</v>
+      </c>
+      <c r="AM13" s="5">
+        <f>AVERAGE(AH13:AL13)</f>
+        <v>4.3</v>
+      </c>
+      <c r="AN13" s="5">
+        <v>0</v>
+      </c>
+      <c r="AO13" s="5">
         <v>3</v>
       </c>
-      <c r="AC13" s="47">
-        <f>AVERAGE(X13:AB13)</f>
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="AD13" s="41">
-        <v>5</v>
-      </c>
-      <c r="AE13" s="41">
-        <v>5</v>
-      </c>
-      <c r="AF13" s="41">
-        <v>5</v>
-      </c>
-      <c r="AG13" s="51">
-        <f>0.2*AF13+0.8*AVERAGE(AC13:AE13)</f>
-        <v>4.5555555555555554</v>
-      </c>
-      <c r="AH13" s="41">
-        <v>4.8</v>
-      </c>
-      <c r="AI13" s="41">
-        <v>4.8</v>
-      </c>
-      <c r="AJ13" s="41">
-        <v>4.5</v>
-      </c>
-      <c r="AK13" s="41">
-        <v>5</v>
-      </c>
-      <c r="AL13" s="41">
-        <v>4.5</v>
-      </c>
-      <c r="AM13" s="51">
-        <f>AVERAGE(AH13:AL13)</f>
-        <v>4.7200000000000006</v>
-      </c>
-      <c r="AN13" s="51">
-        <v>4.5</v>
-      </c>
-      <c r="AO13" s="41">
-        <f>0.3*AN13+0.6*AM13+0.05*AG13+0.05*W13</f>
-        <v>4.6403333333333334</v>
-      </c>
       <c r="AP13" s="56">
-        <v>2.3032407407407408E-2</v>
+        <v>2.2037037037037036E-2</v>
       </c>
       <c r="AQ13" s="59">
-        <f>AP13/0.0230324074074074</f>
-        <v>1.0000000000000002</v>
+        <f>AP13/0.0221875</f>
+        <v>0.99321857068335939</v>
       </c>
       <c r="AR13" s="56">
-        <v>1.1574074074074073E-5</v>
+        <v>1.8113425925925925E-2</v>
       </c>
       <c r="AS13" s="59">
-        <f t="shared" si="1"/>
-        <v>5.0251256281407051E-4</v>
+        <f>AR13/0.0181481481481481</f>
+        <v>0.9980867346938801</v>
       </c>
       <c r="AT13"/>
       <c r="AU13" s="56"/>
     </row>
     <row r="14" spans="1:47">
-      <c r="A14" s="37">
-        <v>1062274189</v>
-      </c>
-      <c r="B14" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="37">
+      <c r="A14" s="3">
+        <v>1025642375</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="3">
+        <v>4</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" s="3">
         <v>3</v>
       </c>
-      <c r="F14" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="G14" s="37">
-        <v>1</v>
-      </c>
-      <c r="H14" s="37" t="str" cm="1">
+      <c r="H14" s="3" t="str" cm="1">
         <f t="array" ref="H14">_xlfn.IFS(G14=1, "2:00 PM", G14=2, "2:30 PM", G14=3, "3:00 PM", G14=4, "3:30 PM")</f>
-        <v>2:00 PM</v>
-      </c>
-      <c r="I14" s="40">
+        <v>3:00 PM</v>
+      </c>
+      <c r="I14" s="14">
         <v>5</v>
       </c>
-      <c r="J14" s="37">
+      <c r="J14" s="3">
+        <v>5</v>
+      </c>
+      <c r="K14" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="L14" s="5">
+        <f>(J14/I14)*K14</f>
+        <v>4.7</v>
+      </c>
+      <c r="M14" s="12">
+        <v>2.96</v>
+      </c>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12">
+        <v>3.5</v>
+      </c>
+      <c r="P14" s="5">
+        <f>0.7*L14+0.2*M14+0.1*O14+N14</f>
+        <v>4.2320000000000002</v>
+      </c>
+      <c r="Q14" s="31">
+        <v>2.0243055555555556E-2</v>
+      </c>
+      <c r="R14" s="32">
+        <f>Q14/$R$2</f>
+        <v>0.97166666666666668</v>
+      </c>
+      <c r="S14" s="33">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="T14" s="32">
+        <f>S14/$T$2</f>
+        <v>1</v>
+      </c>
+      <c r="U14" s="32">
+        <v>1</v>
+      </c>
+      <c r="V14" s="34">
+        <v>1</v>
+      </c>
+      <c r="W14" s="12">
+        <f>AVERAGE(R14,T14,V14)*5</f>
+        <v>4.9527777777777775</v>
+      </c>
+      <c r="X14" s="35"/>
+      <c r="Y14" s="35"/>
+      <c r="Z14" s="35"/>
+      <c r="AA14" s="35"/>
+      <c r="AB14" s="35"/>
+      <c r="AC14" s="35">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="5"/>
+      <c r="AE14" s="5"/>
+      <c r="AF14" s="5">
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="AG14" s="5">
+        <f>0.2*AF14+0.8*AVERAGE(AC14:AE14)</f>
+        <v>0.46666666666666673</v>
+      </c>
+      <c r="AH14" s="5">
+        <v>4.8</v>
+      </c>
+      <c r="AI14" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="AJ14" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="AK14" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="AL14" s="5">
         <v>3</v>
       </c>
-      <c r="K14" s="41">
-        <v>4.5</v>
-      </c>
-      <c r="L14" s="41">
-        <f>(J14/I14)*K14</f>
-        <v>2.6999999999999997</v>
-      </c>
-      <c r="M14" s="42">
-        <v>2.76</v>
-      </c>
-      <c r="N14" s="42"/>
-      <c r="O14" s="42">
+      <c r="AM14" s="5">
+        <f>AVERAGE(AH14:AL14)</f>
+        <v>4.0600000000000005</v>
+      </c>
+      <c r="AN14" s="5">
+        <v>4</v>
+      </c>
+      <c r="AO14" s="36">
+        <f>0.3*AN14+0.7*AM14</f>
+        <v>4.0419999999999998</v>
+      </c>
+      <c r="AP14" s="56">
+        <v>2.255787037037037E-2</v>
+      </c>
+      <c r="AQ14" s="58">
+        <f>AP14/0.0252083333333333</f>
+        <v>0.89485766758494145</v>
+      </c>
+      <c r="AR14" s="56">
+        <v>2.3622685185185184E-2</v>
+      </c>
+      <c r="AS14" s="58">
+        <f>AR14/0.0236226851851852</f>
+        <v>0.99999999999999922</v>
+      </c>
+      <c r="AU14" s="56"/>
+    </row>
+    <row r="15" spans="1:47" s="48" customFormat="1">
+      <c r="A15" s="3">
+        <v>1193073115</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="3">
+        <v>4</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G15" s="3">
         <v>3</v>
       </c>
-      <c r="P14" s="41">
-        <f>0.7*L14+0.2*M14+0.1*O14+N14</f>
-        <v>2.742</v>
-      </c>
-      <c r="Q14" s="43">
-        <v>1.8506944444444444E-2</v>
-      </c>
-      <c r="R14" s="44">
-        <f>Q14/$R$2</f>
-        <v>0.88833333333333331</v>
-      </c>
-      <c r="S14" s="45">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="T14" s="44">
-        <f>S14/$T$2</f>
-        <v>1</v>
-      </c>
-      <c r="U14" s="44">
-        <v>1</v>
-      </c>
-      <c r="V14" s="46">
-        <v>0.8</v>
-      </c>
-      <c r="W14" s="52">
-        <f>AVERAGE(R14,T14,V14)*5</f>
-        <v>4.4805555555555561</v>
-      </c>
-      <c r="X14" s="47">
-        <v>2</v>
-      </c>
-      <c r="Y14" s="47">
-        <v>1</v>
-      </c>
-      <c r="Z14" s="47"/>
-      <c r="AA14" s="47">
-        <v>3</v>
-      </c>
-      <c r="AB14" s="47"/>
-      <c r="AC14" s="47">
-        <f>AVERAGE(X14:AB14)</f>
-        <v>2</v>
-      </c>
-      <c r="AD14" s="41">
-        <v>4</v>
-      </c>
-      <c r="AE14" s="41">
-        <v>4</v>
-      </c>
-      <c r="AF14" s="41">
-        <v>4.7692307692307692</v>
-      </c>
-      <c r="AG14" s="51">
-        <f>0.2*AF14+0.8*AVERAGE(AC14:AE14)</f>
-        <v>3.620512820512821</v>
-      </c>
-      <c r="AH14" s="41">
-        <v>4</v>
-      </c>
-      <c r="AI14" s="41">
-        <v>4.7</v>
-      </c>
-      <c r="AJ14" s="41">
-        <v>4.5</v>
-      </c>
-      <c r="AK14" s="41">
-        <v>4</v>
-      </c>
-      <c r="AL14" s="41">
-        <v>4.3</v>
-      </c>
-      <c r="AM14" s="51">
-        <f>AVERAGE(AH14:AL14)</f>
-        <v>4.3</v>
-      </c>
-      <c r="AN14" s="51">
-        <v>0</v>
-      </c>
-      <c r="AO14" s="41">
-        <f>0.3*AN14+0.6*AM14+0.05*AG14+0.05*W14</f>
-        <v>2.9850534188034183</v>
-      </c>
-      <c r="AP14" s="56">
-        <v>2.2187499999999999E-2</v>
-      </c>
-      <c r="AQ14" s="60">
-        <f>AP14/0.0221875</f>
-        <v>1</v>
-      </c>
-      <c r="AR14" s="56">
-        <v>1.8148148148148149E-2</v>
-      </c>
-      <c r="AS14" s="60">
-        <f>AR14/0.0181481481481481</f>
-        <v>1.0000000000000027</v>
-      </c>
-      <c r="AU14" s="56"/>
-    </row>
-    <row r="15" spans="1:47" s="48" customFormat="1">
-      <c r="A15" s="37">
-        <v>1110363454</v>
-      </c>
-      <c r="B15" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="37">
-        <v>3</v>
-      </c>
-      <c r="F15" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="G15" s="37">
-        <v>1</v>
-      </c>
-      <c r="H15" s="37" t="str" cm="1">
+      <c r="H15" s="3" t="str" cm="1">
         <f t="array" ref="H15">_xlfn.IFS(G15=1, "2:00 PM", G15=2, "2:30 PM", G15=3, "3:00 PM", G15=4, "3:30 PM")</f>
-        <v>2:00 PM</v>
-      </c>
-      <c r="I15" s="40">
-        <v>6</v>
-      </c>
-      <c r="J15" s="37">
-        <v>6</v>
-      </c>
-      <c r="K15" s="41">
+        <v>3:00 PM</v>
+      </c>
+      <c r="I15" s="14">
+        <v>4</v>
+      </c>
+      <c r="J15" s="3">
+        <v>4</v>
+      </c>
+      <c r="K15" s="5">
         <v>4.8</v>
       </c>
-      <c r="L15" s="41">
+      <c r="L15" s="5">
         <f>(J15/I15)*K15</f>
         <v>4.8</v>
       </c>
-      <c r="M15" s="42">
-        <v>2.76</v>
-      </c>
-      <c r="N15" s="42">
-        <f>1/13</f>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="O15" s="42">
+      <c r="M15" s="12">
+        <v>2.96</v>
+      </c>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12">
+        <v>3.5</v>
+      </c>
+      <c r="P15" s="5">
+        <f>0.7*L15+0.2*M15+0.1*O15+N15</f>
+        <v>4.3019999999999996</v>
+      </c>
+      <c r="Q15" s="31">
+        <v>2.0532407407407409E-2</v>
+      </c>
+      <c r="R15" s="32">
+        <f>Q15/$R$2</f>
+        <v>0.98555555555555563</v>
+      </c>
+      <c r="S15" s="33">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="T15" s="32">
+        <f>S15/$T$2</f>
+        <v>1</v>
+      </c>
+      <c r="U15" s="32">
+        <v>1</v>
+      </c>
+      <c r="V15" s="34">
+        <v>1</v>
+      </c>
+      <c r="W15" s="12">
+        <f>AVERAGE(R15,T15,V15)*5</f>
+        <v>4.9759259259259263</v>
+      </c>
+      <c r="X15" s="35">
+        <v>5</v>
+      </c>
+      <c r="Y15" s="35">
+        <v>5</v>
+      </c>
+      <c r="Z15" s="35">
+        <v>5</v>
+      </c>
+      <c r="AA15" s="35"/>
+      <c r="AB15" s="35"/>
+      <c r="AC15" s="35">
+        <f>AVERAGE(X15:AB15)</f>
+        <v>5</v>
+      </c>
+      <c r="AD15" s="5">
+        <v>5</v>
+      </c>
+      <c r="AE15" s="5">
+        <v>4</v>
+      </c>
+      <c r="AF15" s="5">
+        <v>4.833333333333333</v>
+      </c>
+      <c r="AG15" s="5">
+        <f>0.2*AF15+0.8*AVERAGE(AC15:AE15)</f>
+        <v>4.7</v>
+      </c>
+      <c r="AH15" s="5">
+        <v>4.8</v>
+      </c>
+      <c r="AI15" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="AJ15" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="AK15" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="AL15" s="5">
         <v>3</v>
       </c>
-      <c r="P15" s="41">
-        <f>0.7*L15+0.2*M15+0.1*O15+N15</f>
-        <v>4.2889230769230764</v>
-      </c>
-      <c r="Q15" s="43">
-        <v>1.1863425925925927E-2</v>
-      </c>
-      <c r="R15" s="44">
-        <f>Q15/$R$2</f>
-        <v>0.56944444444444453</v>
-      </c>
-      <c r="S15" s="45">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="T15" s="44">
-        <f>S15/$T$2</f>
-        <v>1</v>
-      </c>
-      <c r="U15" s="44">
-        <v>1</v>
-      </c>
-      <c r="V15" s="46">
-        <v>1</v>
-      </c>
-      <c r="W15" s="52">
-        <f>AVERAGE(R15,T15,V15)*5</f>
-        <v>4.2824074074074074</v>
-      </c>
-      <c r="X15" s="47">
-        <v>5</v>
-      </c>
-      <c r="Y15" s="47">
+      <c r="AM15" s="5">
+        <f>AVERAGE(AH15:AL15)</f>
+        <v>4.0600000000000005</v>
+      </c>
+      <c r="AN15" s="5">
+        <v>4</v>
+      </c>
+      <c r="AO15" s="5">
+        <f>0.3*AN15+0.6*AM15+0.05*AG15+0.05*W15</f>
+        <v>4.119796296296296</v>
+      </c>
+      <c r="AP15" s="56">
+        <v>2.5208333333333333E-2</v>
+      </c>
+      <c r="AQ15" s="58">
+        <f>AP15/0.0252083333333333</f>
+        <v>1.0000000000000013</v>
+      </c>
+      <c r="AR15" s="56">
+        <v>2.2731481481481481E-2</v>
+      </c>
+      <c r="AS15" s="58">
+        <f>AR15/0.0236226851851852</f>
+        <v>0.96227339539441381</v>
+      </c>
+      <c r="AU15" s="56"/>
+    </row>
+    <row r="16" spans="1:47">
+      <c r="A16" s="37">
+        <v>1005894053</v>
+      </c>
+      <c r="B16" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="37">
+        <v>4</v>
+      </c>
+      <c r="F16" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="G16" s="37">
         <v>3</v>
-      </c>
-      <c r="Z15" s="47"/>
-      <c r="AA15" s="47">
-        <v>5</v>
-      </c>
-      <c r="AB15" s="47"/>
-      <c r="AC15" s="47">
-        <f>AVERAGE(X15:AB15)</f>
-        <v>4.333333333333333</v>
-      </c>
-      <c r="AD15" s="41">
-        <v>4</v>
-      </c>
-      <c r="AE15" s="41">
-        <v>4</v>
-      </c>
-      <c r="AF15" s="41">
-        <v>4.6923076923076925</v>
-      </c>
-      <c r="AG15" s="51">
-        <f>0.2*AF15+0.8*AVERAGE(AC15:AE15)</f>
-        <v>4.2273504273504274</v>
-      </c>
-      <c r="AH15" s="41">
-        <v>4</v>
-      </c>
-      <c r="AI15" s="41">
-        <v>4.7</v>
-      </c>
-      <c r="AJ15" s="41">
-        <v>4.5</v>
-      </c>
-      <c r="AK15" s="41">
-        <v>4</v>
-      </c>
-      <c r="AL15" s="41">
-        <v>4.3</v>
-      </c>
-      <c r="AM15" s="51">
-        <f>AVERAGE(AH15:AL15)</f>
-        <v>4.3</v>
-      </c>
-      <c r="AN15" s="51">
-        <v>0</v>
-      </c>
-      <c r="AO15" s="41">
-        <f>0.3*AN15+0.6*AM15+0.05*AG15+0.05*W15</f>
-        <v>3.0054878917378911</v>
-      </c>
-      <c r="AP15" s="56">
-        <v>1.7175925925925924E-2</v>
-      </c>
-      <c r="AQ15" s="60">
-        <f>AP15/0.0221875</f>
-        <v>0.77412623891497123</v>
-      </c>
-      <c r="AR15" s="56">
-        <v>0</v>
-      </c>
-      <c r="AS15" s="60">
-        <f t="shared" ref="AS15:AS18" si="2">AR15/0.0181481481481481</f>
-        <v>0</v>
-      </c>
-      <c r="AU15" s="56"/>
-    </row>
-    <row r="16" spans="1:47" ht="15.75">
-      <c r="A16" s="37">
-        <v>1007603017</v>
-      </c>
-      <c r="B16" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="37">
-        <v>3</v>
-      </c>
-      <c r="F16" s="49" t="s">
-        <v>79</v>
-      </c>
-      <c r="G16" s="37">
-        <v>1</v>
       </c>
       <c r="H16" s="37" t="str" cm="1">
         <f t="array" ref="H16">_xlfn.IFS(G16=1, "2:00 PM", G16=2, "2:30 PM", G16=3, "3:00 PM", G16=4, "3:30 PM")</f>
-        <v>2:00 PM</v>
+        <v>3:00 PM</v>
       </c>
       <c r="I16" s="40">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J16" s="37">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K16" s="41">
-        <v>4.8</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="L16" s="41">
         <f>(J16/I16)*K16</f>
-        <v>4.8</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="M16" s="42">
-        <v>2.76</v>
+        <v>2.96</v>
       </c>
       <c r="N16" s="42"/>
       <c r="O16" s="42">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P16" s="41">
         <f>0.7*L16+0.2*M16+0.1*O16+N16</f>
-        <v>4.2119999999999997</v>
+        <v>4.1619999999999999</v>
       </c>
       <c r="Q16" s="43">
-        <v>1.8159722222222223E-2</v>
+        <v>2.1342592592592594E-2</v>
       </c>
       <c r="R16" s="44">
         <f>Q16/$R$2</f>
-        <v>0.8716666666666667</v>
+        <v>1.0244444444444445</v>
       </c>
       <c r="S16" s="45">
         <v>2.0833333333333332E-2</v>
@@ -3377,276 +3375,264 @@
         <v>1</v>
       </c>
       <c r="W16" s="52">
-        <f>AVERAGE(R16,T16,V16)*5</f>
-        <v>4.7861111111111114</v>
+        <v>5</v>
       </c>
       <c r="X16" s="47">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Y16" s="47"/>
       <c r="Z16" s="47"/>
-      <c r="AA16" s="47">
-        <v>5</v>
-      </c>
+      <c r="AA16" s="47"/>
       <c r="AB16" s="47"/>
       <c r="AC16" s="47">
         <f>AVERAGE(X16:AB16)</f>
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AD16" s="41">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="AE16" s="41">
         <v>4</v>
       </c>
       <c r="AF16" s="41">
-        <v>4.615384615384615</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="AG16" s="51">
         <f>0.2*AF16+0.8*AVERAGE(AC16:AE16)</f>
-        <v>4.2564102564102573</v>
+        <v>4.5333333333333332</v>
       </c>
       <c r="AH16" s="41">
-        <v>4</v>
+        <v>4.8</v>
       </c>
       <c r="AI16" s="41">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="AJ16" s="41">
         <v>4.5</v>
       </c>
       <c r="AK16" s="41">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="AL16" s="41">
-        <v>4.3</v>
+        <v>3</v>
       </c>
       <c r="AM16" s="51">
         <f>AVERAGE(AH16:AL16)</f>
-        <v>4.3</v>
+        <v>4.0600000000000005</v>
       </c>
       <c r="AN16" s="51">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AO16" s="41">
         <f>0.3*AN16+0.6*AM16+0.05*AG16+0.05*W16</f>
-        <v>3.0321260683760682</v>
+        <v>4.1126666666666667</v>
       </c>
       <c r="AP16" s="56">
-        <v>2.1921296296296296E-2</v>
-      </c>
-      <c r="AQ16" s="60">
-        <f>AP16/0.0221875</f>
-        <v>0.98800208659363598</v>
+        <v>1.7777777777777778E-2</v>
+      </c>
+      <c r="AQ16" s="58">
+        <f>AP16/0.0252083333333333</f>
+        <v>0.70523415977961523</v>
       </c>
       <c r="AR16" s="56">
-        <v>1.7962962962962962E-2</v>
-      </c>
-      <c r="AS16" s="60">
-        <f t="shared" si="2"/>
-        <v>0.98979591836734948</v>
+        <v>2.1342592592592594E-2</v>
+      </c>
+      <c r="AS16" s="58">
+        <f>AR16/0.0236226851851852</f>
+        <v>0.90347868691817679</v>
       </c>
       <c r="AU16" s="56"/>
     </row>
     <row r="17" spans="1:47" s="48" customFormat="1">
-      <c r="A17" s="3">
-        <v>1081728000</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="3">
+      <c r="A17" s="37">
+        <v>1193578885</v>
+      </c>
+      <c r="B17" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="37">
+        <v>4</v>
+      </c>
+      <c r="F17" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="G17" s="37">
         <v>3</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G17" s="3">
-        <v>1</v>
-      </c>
-      <c r="H17" s="3" t="str" cm="1">
+      <c r="H17" s="37" t="str" cm="1">
         <f t="array" ref="H17">_xlfn.IFS(G17=1, "2:00 PM", G17=2, "2:30 PM", G17=3, "3:00 PM", G17=4, "3:30 PM")</f>
-        <v>2:00 PM</v>
-      </c>
-      <c r="I17" s="14">
-        <v>5</v>
-      </c>
-      <c r="J17" s="3">
-        <v>5</v>
-      </c>
-      <c r="K17" s="5">
+        <v>3:00 PM</v>
+      </c>
+      <c r="I17" s="40">
+        <v>4</v>
+      </c>
+      <c r="J17" s="37">
+        <v>4</v>
+      </c>
+      <c r="K17" s="41">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="L17" s="41">
+        <f>(J17/I17)*K17</f>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="M17" s="42">
+        <v>2.96</v>
+      </c>
+      <c r="N17" s="42"/>
+      <c r="O17" s="42">
+        <v>3.5</v>
+      </c>
+      <c r="P17" s="41">
+        <f>0.7*L17+0.2*M17+0.1*O17+N17</f>
+        <v>4.1619999999999999</v>
+      </c>
+      <c r="Q17" s="43">
+        <v>1.951388888888889E-2</v>
+      </c>
+      <c r="R17" s="44">
+        <f>Q17/$R$2</f>
+        <v>0.93666666666666676</v>
+      </c>
+      <c r="S17" s="45">
+        <v>0</v>
+      </c>
+      <c r="T17" s="44">
+        <f>S17/$T$2</f>
+        <v>0</v>
+      </c>
+      <c r="U17" s="44">
+        <v>1</v>
+      </c>
+      <c r="V17" s="46">
+        <v>1</v>
+      </c>
+      <c r="W17" s="52">
+        <f>AVERAGE(R17,T17,V17)*5</f>
+        <v>3.2277777777777779</v>
+      </c>
+      <c r="X17" s="47"/>
+      <c r="Y17" s="47"/>
+      <c r="Z17" s="47"/>
+      <c r="AA17" s="47"/>
+      <c r="AB17" s="47"/>
+      <c r="AC17" s="47">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="41"/>
+      <c r="AE17" s="41"/>
+      <c r="AF17" s="41">
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="AG17" s="51">
+        <f>0.2*AF17+0.8*AVERAGE(AC17:AE17)</f>
+        <v>0.46666666666666673</v>
+      </c>
+      <c r="AH17" s="41">
         <v>4.8</v>
       </c>
-      <c r="L17" s="5">
-        <f>(J17/I17)*K17</f>
-        <v>4.8</v>
-      </c>
-      <c r="M17" s="12">
-        <v>2.76</v>
-      </c>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12">
+      <c r="AI17" s="41">
+        <v>4.5</v>
+      </c>
+      <c r="AJ17" s="41">
+        <v>4.5</v>
+      </c>
+      <c r="AK17" s="41">
+        <v>3.5</v>
+      </c>
+      <c r="AL17" s="41">
         <v>3</v>
       </c>
-      <c r="P17" s="5">
-        <f>0.7*L17+0.2*M17+0.1*O17+N17</f>
-        <v>4.2119999999999997</v>
-      </c>
-      <c r="Q17" s="31">
-        <v>9.9305555555555553E-3</v>
-      </c>
-      <c r="R17" s="32">
-        <f>Q17/$R$2</f>
-        <v>0.47666666666666668</v>
-      </c>
-      <c r="S17" s="33">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="T17" s="32">
-        <f>S17/$T$2</f>
-        <v>1</v>
-      </c>
-      <c r="U17" s="32">
-        <v>1</v>
-      </c>
-      <c r="V17" s="34">
-        <v>1</v>
-      </c>
-      <c r="W17" s="12">
-        <f>AVERAGE(R17,T17,V17)*5</f>
-        <v>4.1277777777777773</v>
-      </c>
-      <c r="X17" s="35">
-        <v>2</v>
-      </c>
-      <c r="Y17" s="35"/>
-      <c r="Z17" s="35"/>
-      <c r="AA17" s="35">
-        <v>1</v>
-      </c>
-      <c r="AB17" s="35"/>
-      <c r="AC17" s="35">
-        <f>AVERAGE(X17:AB17)</f>
-        <v>1.5</v>
-      </c>
-      <c r="AD17" s="5">
-        <v>4</v>
-      </c>
-      <c r="AE17" s="5">
-        <v>4</v>
-      </c>
-      <c r="AF17" s="5">
-        <v>4.615384615384615</v>
-      </c>
-      <c r="AG17" s="5">
-        <f>0.2*AF17+0.8*AVERAGE(AC17:AE17)</f>
-        <v>3.4564102564102561</v>
-      </c>
-      <c r="AH17" s="5">
-        <v>4</v>
-      </c>
-      <c r="AI17" s="5">
-        <v>4.7</v>
-      </c>
-      <c r="AJ17" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="AK17" s="5">
-        <v>4</v>
-      </c>
-      <c r="AL17" s="5">
-        <v>4.3</v>
-      </c>
-      <c r="AM17" s="5">
+      <c r="AM17" s="51">
         <f>AVERAGE(AH17:AL17)</f>
-        <v>4.3</v>
-      </c>
-      <c r="AN17" s="5">
-        <v>0</v>
-      </c>
-      <c r="AO17" s="5">
-        <f>0.3*AN17+0.6*AM17+0.05*AG17+0.05*W17</f>
-        <v>2.9592094017094013</v>
+        <v>4.0600000000000005</v>
+      </c>
+      <c r="AN17" s="51">
+        <v>4</v>
+      </c>
+      <c r="AO17" s="36">
+        <f>0.3*AN17+0.7*AM17</f>
+        <v>4.0419999999999998</v>
       </c>
       <c r="AP17" s="56">
-        <v>1.9305555555555555E-2</v>
-      </c>
-      <c r="AQ17" s="60">
-        <f>AP17/0.0221875</f>
-        <v>0.87010954616588421</v>
+        <v>2.3252314814814816E-2</v>
+      </c>
+      <c r="AQ17" s="58">
+        <f>AP17/0.0252083333333333</f>
+        <v>0.92240587695133269</v>
       </c>
       <c r="AR17" s="56">
-        <v>1.3553240740740741E-2</v>
-      </c>
-      <c r="AS17" s="60">
-        <f t="shared" si="2"/>
-        <v>0.74681122448979786</v>
+        <v>2.101851851851852E-2</v>
+      </c>
+      <c r="AS17" s="58">
+        <f>AR17/0.0236226851851852</f>
+        <v>0.88975992160705475</v>
       </c>
       <c r="AT17"/>
       <c r="AU17" s="56"/>
     </row>
     <row r="18" spans="1:47">
       <c r="A18" s="3">
-        <v>1219713263</v>
+        <v>1005967544</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E18" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G18" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H18" s="3" t="str" cm="1">
         <f t="array" ref="H18">_xlfn.IFS(G18=1, "2:00 PM", G18=2, "2:30 PM", G18=3, "3:00 PM", G18=4, "3:30 PM")</f>
-        <v>2:00 PM</v>
+        <v>3:30 PM</v>
       </c>
       <c r="I18" s="14">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J18" s="3">
-        <v>6</v>
-      </c>
-      <c r="K18" s="5">
-        <v>4.9000000000000004</v>
+        <v>1</v>
+      </c>
+      <c r="K18" s="3">
+        <v>4.5999999999999996</v>
       </c>
       <c r="L18" s="5">
         <f>(J18/I18)*K18</f>
-        <v>4.9000000000000004</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="M18" s="12">
-        <v>2.76</v>
+        <v>3.59</v>
       </c>
       <c r="N18" s="12"/>
       <c r="O18" s="12">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="P18" s="5">
         <f>0.7*L18+0.2*M18+0.1*O18+N18</f>
-        <v>4.282</v>
+        <v>4.3879999999999999</v>
       </c>
       <c r="Q18" s="31">
-        <v>0</v>
+        <v>1.3935185185185186E-2</v>
       </c>
       <c r="R18" s="32">
         <f>Q18/$R$2</f>
-        <v>0</v>
+        <v>0.66888888888888898</v>
       </c>
       <c r="S18" s="33">
         <v>2.0833333333333332E-2</v>
@@ -3659,25 +3645,24 @@
         <v>1</v>
       </c>
       <c r="V18" s="34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W18" s="12">
-        <v>3</v>
-      </c>
-      <c r="X18" s="35">
-        <v>2</v>
-      </c>
+        <f>AVERAGE(R18,T18,V18)*5</f>
+        <v>4.4481481481481486</v>
+      </c>
+      <c r="X18" s="35"/>
       <c r="Y18" s="35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="35"/>
       <c r="AA18" s="35">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AB18" s="35"/>
       <c r="AC18" s="35">
         <f>AVERAGE(X18:AB18)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD18" s="5">
         <v>4</v>
@@ -3686,109 +3671,110 @@
         <v>4</v>
       </c>
       <c r="AF18" s="5">
-        <v>4.5384615384615383</v>
+        <v>4.916666666666667</v>
       </c>
       <c r="AG18" s="5">
         <f>0.2*AF18+0.8*AVERAGE(AC18:AE18)</f>
-        <v>3.5743589743589745</v>
+        <v>3.1166666666666667</v>
       </c>
       <c r="AH18" s="5">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="AI18" s="5">
-        <v>4.7</v>
+        <v>4</v>
       </c>
       <c r="AJ18" s="5">
         <v>4.5</v>
       </c>
       <c r="AK18" s="5">
-        <v>4</v>
+        <v>4.8</v>
       </c>
       <c r="AL18" s="5">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="AM18" s="5">
         <f>AVERAGE(AH18:AL18)</f>
-        <v>4.3</v>
+        <v>4.42</v>
       </c>
       <c r="AN18" s="5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AO18" s="5">
-        <v>3</v>
-      </c>
-      <c r="AP18" s="57">
-        <v>2.2037037037037036E-2</v>
-      </c>
-      <c r="AQ18" s="60">
-        <f>AP18/0.0221875</f>
-        <v>0.99321857068335939</v>
+        <f>0.3*AN18+0.6*AM18+0.05*AG18+0.05*W18</f>
+        <v>4.230240740740741</v>
+      </c>
+      <c r="AP18" s="56">
+        <v>1.6909722222222222E-2</v>
+      </c>
+      <c r="AQ18" s="58">
+        <f>AP18/0.0170138888888889</f>
+        <v>0.99387755102040742</v>
       </c>
       <c r="AR18" s="56">
-        <v>1.8113425925925925E-2</v>
-      </c>
-      <c r="AS18" s="60">
-        <f t="shared" si="2"/>
-        <v>0.9980867346938801</v>
+        <v>0</v>
+      </c>
+      <c r="AS18" s="58">
+        <f>AR18/0.0163310185185185</f>
+        <v>0</v>
       </c>
       <c r="AU18" s="56"/>
     </row>
     <row r="19" spans="1:47" s="48" customFormat="1">
       <c r="A19" s="3">
-        <v>1025642375</v>
+        <v>1107836732</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E19" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="G19" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H19" s="3" t="str" cm="1">
         <f t="array" ref="H19">_xlfn.IFS(G19=1, "2:00 PM", G19=2, "2:30 PM", G19=3, "3:00 PM", G19=4, "3:30 PM")</f>
-        <v>2:30 PM</v>
+        <v>3:30 PM</v>
       </c>
       <c r="I19" s="14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J19" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K19" s="3">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="L19" s="5">
         <f>(J19/I19)*K19</f>
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="M19" s="12">
-        <v>2.96</v>
+        <v>3.59</v>
       </c>
       <c r="N19" s="12"/>
       <c r="O19" s="12">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P19" s="5">
         <f>0.7*L19+0.2*M19+0.1*O19+N19</f>
-        <v>4.2320000000000002</v>
+        <v>4.3179999999999996</v>
       </c>
       <c r="Q19" s="31">
-        <v>2.0243055555555556E-2</v>
+        <v>1.474537037037037E-2</v>
       </c>
       <c r="R19" s="32">
         <f>Q19/$R$2</f>
-        <v>0.97166666666666668</v>
+        <v>0.70777777777777784</v>
       </c>
       <c r="S19" s="33">
         <v>2.0833333333333332E-2</v>
@@ -3805,482 +3791,495 @@
       </c>
       <c r="W19" s="12">
         <f>AVERAGE(R19,T19,V19)*5</f>
-        <v>4.9527777777777775</v>
+        <v>4.5129629629629626</v>
       </c>
       <c r="X19" s="35"/>
       <c r="Y19" s="35"/>
       <c r="Z19" s="35"/>
-      <c r="AA19" s="35"/>
+      <c r="AA19" s="35">
+        <v>4</v>
+      </c>
       <c r="AB19" s="35"/>
       <c r="AC19" s="35">
-        <v>0</v>
-      </c>
-      <c r="AD19" s="5"/>
-      <c r="AE19" s="5"/>
+        <f>AVERAGE(X19:AB19)</f>
+        <v>4</v>
+      </c>
+      <c r="AD19" s="5">
+        <v>4</v>
+      </c>
+      <c r="AE19" s="5">
+        <v>0</v>
+      </c>
       <c r="AF19" s="5">
-        <v>2.3333333333333335</v>
+        <v>4.0769230769230766</v>
       </c>
       <c r="AG19" s="5">
-        <f>0.2*AF19+0.8*AVERAGE(AC19:AE19)</f>
-        <v>0.46666666666666673</v>
+        <f>0.3*AF19+0.7*AVERAGE(AC19:AE19)</f>
+        <v>3.0897435897435894</v>
       </c>
       <c r="AH19" s="5">
+        <v>4.3</v>
+      </c>
+      <c r="AI19" s="5">
+        <v>4</v>
+      </c>
+      <c r="AJ19" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="AK19" s="5">
         <v>4.8</v>
       </c>
-      <c r="AI19" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="AJ19" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="AK19" s="5">
-        <v>3.5</v>
-      </c>
       <c r="AL19" s="5">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="AM19" s="5">
         <f>AVERAGE(AH19:AL19)</f>
-        <v>4.0600000000000005</v>
+        <v>4.42</v>
       </c>
       <c r="AN19" s="5">
         <v>4</v>
       </c>
-      <c r="AO19" s="36">
-        <f>0.3*AN19+0.7*AM19</f>
-        <v>4.0419999999999998</v>
-      </c>
-      <c r="AP19" s="56">
-        <v>2.255787037037037E-2</v>
-      </c>
-      <c r="AQ19" s="59">
-        <f>AP19/0.0252083333333333</f>
-        <v>0.89485766758494145</v>
+      <c r="AO19" s="5">
+        <f>0.3*AN19+0.6*AM19+0.05*AG19+0.05*W19</f>
+        <v>4.2321353276353273</v>
+      </c>
+      <c r="AQ19" s="58">
+        <f>AP19/0.0170138888888889</f>
+        <v>0</v>
       </c>
       <c r="AR19" s="56">
-        <v>2.3622685185185184E-2</v>
-      </c>
-      <c r="AS19" s="59">
-        <f>AR19/0.0236226851851852</f>
-        <v>0.99999999999999922</v>
+        <v>0</v>
+      </c>
+      <c r="AS19" s="58">
+        <f>AR19/0.0163310185185185</f>
+        <v>0</v>
       </c>
       <c r="AT19"/>
       <c r="AU19" s="56"/>
     </row>
     <row r="20" spans="1:47">
-      <c r="A20" s="3">
-        <v>1193073115</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="3">
-        <v>4</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G20" s="3">
-        <v>2</v>
-      </c>
-      <c r="H20" s="3" t="str" cm="1">
+      <c r="A20" s="37">
+        <v>1126644560</v>
+      </c>
+      <c r="B20" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="37">
+        <v>1</v>
+      </c>
+      <c r="F20" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="G20" s="37">
+        <v>4</v>
+      </c>
+      <c r="H20" s="37" t="str" cm="1">
         <f t="array" ref="H20">_xlfn.IFS(G20=1, "2:00 PM", G20=2, "2:30 PM", G20=3, "3:00 PM", G20=4, "3:30 PM")</f>
-        <v>2:30 PM</v>
-      </c>
-      <c r="I20" s="14">
-        <v>4</v>
-      </c>
-      <c r="J20" s="3">
-        <v>4</v>
-      </c>
-      <c r="K20" s="5">
+        <v>3:30 PM</v>
+      </c>
+      <c r="I20" s="40">
+        <v>4</v>
+      </c>
+      <c r="J20" s="37">
+        <v>4</v>
+      </c>
+      <c r="K20" s="37">
         <v>4.8</v>
       </c>
-      <c r="L20" s="5">
+      <c r="L20" s="41">
         <f>(J20/I20)*K20</f>
         <v>4.8</v>
       </c>
-      <c r="M20" s="12">
-        <v>2.96</v>
-      </c>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12">
-        <v>3.5</v>
-      </c>
-      <c r="P20" s="5">
+      <c r="M20" s="42">
+        <v>3.59</v>
+      </c>
+      <c r="N20" s="42"/>
+      <c r="O20" s="42">
+        <v>4.5</v>
+      </c>
+      <c r="P20" s="41">
         <f>0.7*L20+0.2*M20+0.1*O20+N20</f>
-        <v>4.3019999999999996</v>
-      </c>
-      <c r="Q20" s="31">
-        <v>2.0532407407407409E-2</v>
-      </c>
-      <c r="R20" s="32">
+        <v>4.5279999999999996</v>
+      </c>
+      <c r="Q20" s="43">
+        <v>1.6342592592592593E-2</v>
+      </c>
+      <c r="R20" s="44">
         <f>Q20/$R$2</f>
-        <v>0.98555555555555563</v>
-      </c>
-      <c r="S20" s="33">
+        <v>0.7844444444444445</v>
+      </c>
+      <c r="S20" s="45">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="T20" s="32">
+      <c r="T20" s="44">
         <f>S20/$T$2</f>
         <v>1</v>
       </c>
-      <c r="U20" s="32">
-        <v>1</v>
-      </c>
-      <c r="V20" s="34">
-        <v>1</v>
-      </c>
-      <c r="W20" s="12">
+      <c r="U20" s="44">
+        <v>1</v>
+      </c>
+      <c r="V20" s="46">
+        <v>1</v>
+      </c>
+      <c r="W20" s="52">
         <f>AVERAGE(R20,T20,V20)*5</f>
-        <v>4.9759259259259263</v>
-      </c>
-      <c r="X20" s="35">
+        <v>4.6407407407407408</v>
+      </c>
+      <c r="X20" s="47"/>
+      <c r="Y20" s="47">
+        <v>4</v>
+      </c>
+      <c r="Z20" s="47">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="47"/>
+      <c r="AB20" s="47"/>
+      <c r="AC20" s="47">
+        <f>AVERAGE(X20:AB20)</f>
+        <v>2</v>
+      </c>
+      <c r="AD20" s="41">
+        <v>4.5</v>
+      </c>
+      <c r="AE20" s="41">
+        <v>4</v>
+      </c>
+      <c r="AF20" s="41">
         <v>5</v>
       </c>
-      <c r="Y20" s="35">
+      <c r="AG20" s="51">
+        <f>0.2*AF20+0.8*AVERAGE(AC20:AE20)</f>
+        <v>3.8000000000000003</v>
+      </c>
+      <c r="AH20" s="41">
+        <v>4.3</v>
+      </c>
+      <c r="AI20" s="41">
+        <v>4</v>
+      </c>
+      <c r="AJ20" s="41">
+        <v>4.5</v>
+      </c>
+      <c r="AK20" s="41">
+        <v>4.8</v>
+      </c>
+      <c r="AL20" s="41">
+        <v>4.5</v>
+      </c>
+      <c r="AM20" s="51">
+        <f>AVERAGE(AH20:AL20)</f>
+        <v>4.42</v>
+      </c>
+      <c r="AN20" s="51">
+        <v>4</v>
+      </c>
+      <c r="AO20" s="41">
+        <f>0.3*AN20+0.6*AM20+0.05*AG20+0.05*W20</f>
+        <v>4.2740370370370364</v>
+      </c>
+      <c r="AP20" s="56">
+        <v>1.6087962962962964E-2</v>
+      </c>
+      <c r="AQ20" s="58">
+        <f>AP20/0.0170138888888889</f>
+        <v>0.94557823129251639</v>
+      </c>
+      <c r="AR20" s="56">
+        <v>1.3020833333333334E-2</v>
+      </c>
+      <c r="AS20" s="58">
+        <f>AR20/0.0163310185185185</f>
+        <v>0.79730687455705263</v>
+      </c>
+      <c r="AU20" s="56"/>
+    </row>
+    <row r="21" spans="1:47" s="48" customFormat="1">
+      <c r="A21" s="3">
+        <v>1062329024</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G21" s="3">
+        <v>4</v>
+      </c>
+      <c r="H21" s="3" t="str" cm="1">
+        <f t="array" ref="H21">_xlfn.IFS(G21=1, "2:00 PM", G21=2, "2:30 PM", G21=3, "3:00 PM", G21=4, "3:30 PM")</f>
+        <v>3:30 PM</v>
+      </c>
+      <c r="I21" s="14">
         <v>5</v>
       </c>
-      <c r="Z20" s="35">
+      <c r="J21" s="3">
         <v>5</v>
       </c>
-      <c r="AA20" s="35"/>
-      <c r="AB20" s="35"/>
-      <c r="AC20" s="35">
-        <f>AVERAGE(X20:AB20)</f>
+      <c r="K21" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="L21" s="5">
+        <f>(J21/I21)*K21</f>
+        <v>4.5</v>
+      </c>
+      <c r="M21" s="12">
+        <v>3.59</v>
+      </c>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="P21" s="5">
+        <f>0.7*L21+0.2*M21+0.1*O21+N21</f>
+        <v>4.3179999999999996</v>
+      </c>
+      <c r="Q21" s="31">
+        <v>0</v>
+      </c>
+      <c r="R21" s="32">
+        <f>Q21/$R$2</f>
+        <v>0</v>
+      </c>
+      <c r="S21" s="33">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="T21" s="32">
+        <f>S21/$T$2</f>
+        <v>1</v>
+      </c>
+      <c r="U21" s="32">
+        <v>1</v>
+      </c>
+      <c r="V21" s="34">
+        <v>1</v>
+      </c>
+      <c r="W21" s="12">
+        <f>AVERAGE(R21,T21,V21)*5</f>
+        <v>3.333333333333333</v>
+      </c>
+      <c r="X21" s="35"/>
+      <c r="Y21" s="35">
         <v>5</v>
       </c>
-      <c r="AD20" s="5">
-        <v>5</v>
-      </c>
-      <c r="AE20" s="5">
-        <v>4</v>
-      </c>
-      <c r="AF20" s="5">
-        <v>4.833333333333333</v>
-      </c>
-      <c r="AG20" s="5">
-        <f>0.2*AF20+0.8*AVERAGE(AC20:AE20)</f>
-        <v>4.7</v>
-      </c>
-      <c r="AH20" s="5">
+      <c r="Z21" s="35">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="35"/>
+      <c r="AB21" s="35"/>
+      <c r="AC21" s="35">
+        <f>AVERAGE(X21:AB21)</f>
+        <v>2.5</v>
+      </c>
+      <c r="AD21" s="5">
+        <v>3</v>
+      </c>
+      <c r="AE21" s="5">
+        <v>4</v>
+      </c>
+      <c r="AF21" s="5">
+        <v>3.8461538461538463</v>
+      </c>
+      <c r="AG21" s="5">
+        <f>0.2*AF21+0.8*AVERAGE(AC21:AE21)</f>
+        <v>3.3025641025641024</v>
+      </c>
+      <c r="AH21" s="5">
+        <v>4.3</v>
+      </c>
+      <c r="AI21" s="5">
+        <v>4</v>
+      </c>
+      <c r="AJ21" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="AK21" s="5">
         <v>4.8</v>
       </c>
-      <c r="AI20" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="AJ20" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="AK20" s="5">
-        <v>3.5</v>
-      </c>
-      <c r="AL20" s="5">
-        <v>3</v>
-      </c>
-      <c r="AM20" s="5">
-        <f>AVERAGE(AH20:AL20)</f>
-        <v>4.0600000000000005</v>
-      </c>
-      <c r="AN20" s="5">
-        <v>4</v>
-      </c>
-      <c r="AO20" s="5">
-        <f>0.3*AN20+0.6*AM20+0.05*AG20+0.05*W20</f>
-        <v>4.119796296296296</v>
-      </c>
-      <c r="AP20" s="56">
-        <v>2.5208333333333333E-2</v>
-      </c>
-      <c r="AQ20" s="59">
-        <f>AP20/0.0252083333333333</f>
-        <v>1.0000000000000013</v>
-      </c>
-      <c r="AR20" s="56">
-        <v>2.2731481481481481E-2</v>
-      </c>
-      <c r="AS20" s="59">
-        <f t="shared" ref="AS20:AS22" si="3">AR20/0.0236226851851852</f>
-        <v>0.96227339539441381</v>
-      </c>
-      <c r="AU20" s="56"/>
-    </row>
-    <row r="21" spans="1:47" s="48" customFormat="1">
-      <c r="A21" s="37">
-        <v>1005894053</v>
-      </c>
-      <c r="B21" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="E21" s="37">
-        <v>4</v>
-      </c>
-      <c r="F21" s="38" t="s">
-        <v>94</v>
-      </c>
-      <c r="G21" s="37">
-        <v>2</v>
-      </c>
-      <c r="H21" s="37" t="str" cm="1">
-        <f t="array" ref="H21">_xlfn.IFS(G21=1, "2:00 PM", G21=2, "2:30 PM", G21=3, "3:00 PM", G21=4, "3:30 PM")</f>
-        <v>2:30 PM</v>
-      </c>
-      <c r="I21" s="40">
-        <v>3</v>
-      </c>
-      <c r="J21" s="37">
-        <v>3</v>
-      </c>
-      <c r="K21" s="41">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="L21" s="41">
-        <f>(J21/I21)*K21</f>
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="M21" s="42">
-        <v>2.96</v>
-      </c>
-      <c r="N21" s="42"/>
-      <c r="O21" s="42">
-        <v>3.5</v>
-      </c>
-      <c r="P21" s="41">
-        <f>0.7*L21+0.2*M21+0.1*O21+N21</f>
-        <v>4.1619999999999999</v>
-      </c>
-      <c r="Q21" s="43">
-        <v>2.1342592592592594E-2</v>
-      </c>
-      <c r="R21" s="44">
-        <f>Q21/$R$2</f>
-        <v>1.0244444444444445</v>
-      </c>
-      <c r="S21" s="45">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="T21" s="44">
-        <f>S21/$T$2</f>
-        <v>1</v>
-      </c>
-      <c r="U21" s="44">
-        <v>1</v>
-      </c>
-      <c r="V21" s="46">
-        <v>1</v>
-      </c>
-      <c r="W21" s="52">
-        <v>5</v>
-      </c>
-      <c r="X21" s="47">
-        <v>5</v>
-      </c>
-      <c r="Y21" s="47"/>
-      <c r="Z21" s="47"/>
-      <c r="AA21" s="47"/>
-      <c r="AB21" s="47"/>
-      <c r="AC21" s="47">
-        <f>AVERAGE(X21:AB21)</f>
-        <v>5</v>
-      </c>
-      <c r="AD21" s="41">
-        <v>4.5</v>
-      </c>
-      <c r="AE21" s="41">
-        <v>4</v>
-      </c>
-      <c r="AF21" s="41">
-        <v>4.666666666666667</v>
-      </c>
-      <c r="AG21" s="51">
-        <f>0.2*AF21+0.8*AVERAGE(AC21:AE21)</f>
-        <v>4.5333333333333332</v>
-      </c>
-      <c r="AH21" s="41">
-        <v>4.8</v>
-      </c>
-      <c r="AI21" s="41">
-        <v>4.5</v>
-      </c>
-      <c r="AJ21" s="41">
-        <v>4.5</v>
-      </c>
-      <c r="AK21" s="41">
-        <v>3.5</v>
-      </c>
-      <c r="AL21" s="41">
-        <v>3</v>
-      </c>
-      <c r="AM21" s="51">
+      <c r="AL21" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="AM21" s="5">
         <f>AVERAGE(AH21:AL21)</f>
-        <v>4.0600000000000005</v>
-      </c>
-      <c r="AN21" s="51">
-        <v>4</v>
-      </c>
-      <c r="AO21" s="41">
+        <v>4.42</v>
+      </c>
+      <c r="AN21" s="5">
+        <v>4</v>
+      </c>
+      <c r="AO21" s="5">
         <f>0.3*AN21+0.6*AM21+0.05*AG21+0.05*W21</f>
-        <v>4.1126666666666667</v>
-      </c>
-      <c r="AP21" s="56">
-        <v>1.7777777777777778E-2</v>
-      </c>
-      <c r="AQ21" s="59">
-        <f>AP21/0.0252083333333333</f>
-        <v>0.70523415977961523</v>
+        <v>4.1837948717948716</v>
+      </c>
+      <c r="AQ21" s="58">
+        <f>AP21/0.0170138888888889</f>
+        <v>0</v>
       </c>
       <c r="AR21" s="56">
-        <v>2.1342592592592594E-2</v>
-      </c>
-      <c r="AS21" s="59">
-        <f t="shared" si="3"/>
-        <v>0.90347868691817679</v>
+        <v>0</v>
+      </c>
+      <c r="AS21" s="58">
+        <f>AR21/0.0163310185185185</f>
+        <v>0</v>
       </c>
       <c r="AT21"/>
       <c r="AU21" s="56"/>
     </row>
     <row r="22" spans="1:47">
-      <c r="A22" s="37">
-        <v>1193578885</v>
-      </c>
-      <c r="B22" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="D22" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="E22" s="37">
-        <v>4</v>
-      </c>
-      <c r="F22" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="G22" s="37">
+      <c r="A22" s="3">
+        <v>1110364376</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G22" s="3">
+        <v>4</v>
+      </c>
+      <c r="H22" s="3" t="str" cm="1">
+        <f t="array" ref="H22">_xlfn.IFS(G22=1, "2:00 PM", G22=2, "2:30 PM", G22=3, "3:00 PM", G22=4, "3:30 PM")</f>
+        <v>3:30 PM</v>
+      </c>
+      <c r="I22" s="14">
+        <v>3</v>
+      </c>
+      <c r="J22" s="3">
+        <v>3</v>
+      </c>
+      <c r="K22" s="3">
+        <v>4.8</v>
+      </c>
+      <c r="L22" s="5">
+        <f>(J22/I22)*K22</f>
+        <v>4.8</v>
+      </c>
+      <c r="M22" s="12">
+        <v>3.59</v>
+      </c>
+      <c r="N22" s="12">
+        <f>1/16</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="O22" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="P22" s="5">
+        <f>0.7*L22+0.2*M22+0.1*O22+N22</f>
+        <v>4.5904999999999996</v>
+      </c>
+      <c r="Q22" s="31">
+        <v>1.412037037037037E-2</v>
+      </c>
+      <c r="R22" s="32">
+        <f>Q22/$R$2</f>
+        <v>0.67777777777777781</v>
+      </c>
+      <c r="S22" s="33">
+        <v>0</v>
+      </c>
+      <c r="T22" s="32">
+        <f>S22/$T$2</f>
+        <v>0</v>
+      </c>
+      <c r="U22" s="32">
+        <v>1</v>
+      </c>
+      <c r="V22" s="34">
+        <v>0</v>
+      </c>
+      <c r="W22" s="12">
+        <v>3</v>
+      </c>
+      <c r="X22" s="35"/>
+      <c r="Y22" s="35">
         <v>2</v>
       </c>
-      <c r="H22" s="37" t="str" cm="1">
-        <f t="array" ref="H22">_xlfn.IFS(G22=1, "2:00 PM", G22=2, "2:30 PM", G22=3, "3:00 PM", G22=4, "3:30 PM")</f>
-        <v>2:30 PM</v>
-      </c>
-      <c r="I22" s="40">
-        <v>4</v>
-      </c>
-      <c r="J22" s="37">
-        <v>4</v>
-      </c>
-      <c r="K22" s="41">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="L22" s="41">
-        <f>(J22/I22)*K22</f>
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="M22" s="42">
-        <v>2.96</v>
-      </c>
-      <c r="N22" s="42"/>
-      <c r="O22" s="42">
-        <v>3.5</v>
-      </c>
-      <c r="P22" s="41">
-        <f>0.7*L22+0.2*M22+0.1*O22+N22</f>
-        <v>4.1619999999999999</v>
-      </c>
-      <c r="Q22" s="43">
-        <v>1.951388888888889E-2</v>
-      </c>
-      <c r="R22" s="44">
-        <f>Q22/$R$2</f>
-        <v>0.93666666666666676</v>
-      </c>
-      <c r="S22" s="45">
-        <v>0</v>
-      </c>
-      <c r="T22" s="44">
-        <f>S22/$T$2</f>
-        <v>0</v>
-      </c>
-      <c r="U22" s="44">
-        <v>1</v>
-      </c>
-      <c r="V22" s="46">
-        <v>1</v>
-      </c>
-      <c r="W22" s="52">
-        <f>AVERAGE(R22,T22,V22)*5</f>
-        <v>3.2277777777777779</v>
-      </c>
-      <c r="X22" s="47"/>
-      <c r="Y22" s="47"/>
-      <c r="Z22" s="47"/>
-      <c r="AA22" s="47"/>
-      <c r="AB22" s="47"/>
-      <c r="AC22" s="47">
-        <v>0</v>
-      </c>
-      <c r="AD22" s="41"/>
-      <c r="AE22" s="41"/>
-      <c r="AF22" s="41">
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="AG22" s="51">
+      <c r="Z22" s="35">
+        <v>2</v>
+      </c>
+      <c r="AA22" s="35"/>
+      <c r="AB22" s="35"/>
+      <c r="AC22" s="35">
+        <f>AVERAGE(X22:AB22)</f>
+        <v>2</v>
+      </c>
+      <c r="AD22" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="AE22" s="5">
+        <v>4</v>
+      </c>
+      <c r="AF22" s="5">
+        <v>4.9230769230769234</v>
+      </c>
+      <c r="AG22" s="5">
         <f>0.2*AF22+0.8*AVERAGE(AC22:AE22)</f>
-        <v>0.46666666666666673</v>
-      </c>
-      <c r="AH22" s="41">
+        <v>3.7846153846153849</v>
+      </c>
+      <c r="AH22" s="5">
+        <v>4.3</v>
+      </c>
+      <c r="AI22" s="5">
+        <v>4</v>
+      </c>
+      <c r="AJ22" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="AK22" s="5">
         <v>4.8</v>
       </c>
-      <c r="AI22" s="41">
-        <v>4.5</v>
-      </c>
-      <c r="AJ22" s="41">
-        <v>4.5</v>
-      </c>
-      <c r="AK22" s="41">
-        <v>3.5</v>
-      </c>
-      <c r="AL22" s="41">
-        <v>3</v>
-      </c>
-      <c r="AM22" s="51">
+      <c r="AL22" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="AM22" s="5">
         <f>AVERAGE(AH22:AL22)</f>
-        <v>4.0600000000000005</v>
-      </c>
-      <c r="AN22" s="51">
-        <v>4</v>
-      </c>
-      <c r="AO22" s="36">
-        <f>0.3*AN22+0.7*AM22</f>
-        <v>4.0419999999999998</v>
+        <v>4.42</v>
+      </c>
+      <c r="AN22" s="5">
+        <v>4</v>
+      </c>
+      <c r="AO22" s="5">
+        <f>0.3*AN22+0.6*AM22+0.05*AG22+0.05*W22</f>
+        <v>4.1912307692307689</v>
       </c>
       <c r="AP22" s="56">
-        <v>2.3252314814814816E-2</v>
-      </c>
-      <c r="AQ22" s="59">
-        <f>AP22/0.0252083333333333</f>
-        <v>0.92240587695133269</v>
+        <v>1.7013888888888887E-2</v>
+      </c>
+      <c r="AQ22" s="58">
+        <f>AP22/0.0170138888888889</f>
+        <v>0.99999999999999922</v>
       </c>
       <c r="AR22" s="56">
-        <v>2.101851851851852E-2</v>
-      </c>
-      <c r="AS22" s="59">
-        <f t="shared" si="3"/>
-        <v>0.88975992160705475</v>
+        <v>1.6331018518518519E-2</v>
+      </c>
+      <c r="AS22" s="58">
+        <f>AR22/0.0163310185185185</f>
+        <v>1.0000000000000011</v>
       </c>
       <c r="AU22" s="56"/>
     </row>
@@ -4399,7 +4398,7 @@
   </sheetData>
   <autoFilter ref="A3:AS3" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:AS23">
-      <sortCondition ref="E3"/>
+      <sortCondition ref="G3"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="P4:P23">

--- a/academics/DB2/2025-2/DB2 2025-2.xlsx
+++ b/academics/DB2/2025-2/DB2 2025-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\UAO\oicampo-uao.github.io\academics\DB2\2025-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D32B1231-C0CC-46AB-B341-3F5B0AB4F227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B1C24AA-41D2-4BE1-9406-A89A65BBC99A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1327,7 +1327,7 @@
   <dimension ref="A1:AU27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AT3" sqref="AT3"/>
+      <selection activeCell="D4" sqref="D4:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.5703125" defaultRowHeight="15"/>
@@ -1335,7 +1335,7 @@
     <col min="1" max="1" width="16.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.140625" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" customWidth="1"/>
-    <col min="4" max="4" width="29.140625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="29.140625" customWidth="1"/>
     <col min="5" max="5" width="6.42578125" style="1" customWidth="1"/>
     <col min="6" max="6" width="13.85546875" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="6.140625" style="1" hidden="1" customWidth="1"/>
@@ -1617,7 +1617,7 @@
         <v>4.8</v>
       </c>
       <c r="L4" s="5">
-        <f>(J4/I4)*K4</f>
+        <f t="shared" ref="L4:L22" si="0">(J4/I4)*K4</f>
         <v>4.8</v>
       </c>
       <c r="M4" s="12">
@@ -1631,21 +1631,21 @@
         <v>4.7</v>
       </c>
       <c r="P4" s="5">
-        <f>0.7*L4+0.2*M4+0.1*O4+N4</f>
+        <f t="shared" ref="P4:P22" si="1">0.7*L4+0.2*M4+0.1*O4+N4</f>
         <v>4.6900000000000004</v>
       </c>
       <c r="Q4" s="31">
         <v>1.4976851851851852E-2</v>
       </c>
       <c r="R4" s="32">
-        <f>Q4/$R$2</f>
+        <f t="shared" ref="R4:R22" si="2">Q4/$R$2</f>
         <v>0.71888888888888891</v>
       </c>
       <c r="S4" s="33">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="T4" s="32">
-        <f>S4/$T$2</f>
+        <f t="shared" ref="T4:T22" si="3">S4/$T$2</f>
         <v>1</v>
       </c>
       <c r="U4" s="32">
@@ -1655,7 +1655,7 @@
         <v>1</v>
       </c>
       <c r="W4" s="12">
-        <f>AVERAGE(R4,T4,V4)*5</f>
+        <f t="shared" ref="W4:W12" si="4">AVERAGE(R4,T4,V4)*5</f>
         <v>4.5314814814814817</v>
       </c>
       <c r="X4" s="35">
@@ -1668,7 +1668,7 @@
       <c r="AA4" s="35"/>
       <c r="AB4" s="35"/>
       <c r="AC4" s="35">
-        <f>AVERAGE(X4:AB4)</f>
+        <f t="shared" ref="AC4:AC13" si="5">AVERAGE(X4:AB4)</f>
         <v>3</v>
       </c>
       <c r="AD4" s="5">
@@ -1681,7 +1681,7 @@
         <v>4.9285714285714288</v>
       </c>
       <c r="AG4" s="5">
-        <f>0.2*AF4+0.8*AVERAGE(AC4:AE4)</f>
+        <f t="shared" ref="AG4:AG18" si="6">0.2*AF4+0.8*AVERAGE(AC4:AE4)</f>
         <v>4.3190476190476197</v>
       </c>
       <c r="AH4" s="5">
@@ -1700,14 +1700,14 @@
         <v>4.5</v>
       </c>
       <c r="AM4" s="5">
-        <f>AVERAGE(AH4:AL4)</f>
+        <f t="shared" ref="AM4:AM22" si="7">AVERAGE(AH4:AL4)</f>
         <v>4.7200000000000006</v>
       </c>
       <c r="AN4" s="5">
         <v>4.5</v>
       </c>
       <c r="AO4" s="5">
-        <f>0.3*AN4+0.6*AM4+0.05*AG4+0.05*W4</f>
+        <f t="shared" ref="AO4:AO12" si="8">0.3*AN4+0.6*AM4+0.05*AG4+0.05*W4</f>
         <v>4.624526455026456</v>
       </c>
       <c r="AP4" s="56">
@@ -1762,7 +1762,7 @@
         <v>4.8</v>
       </c>
       <c r="L5" s="41">
-        <f>(J5/I5)*K5</f>
+        <f t="shared" si="0"/>
         <v>4.8</v>
       </c>
       <c r="M5" s="42">
@@ -1776,21 +1776,21 @@
         <v>4.7</v>
       </c>
       <c r="P5" s="41">
-        <f>0.7*L5+0.2*M5+0.1*O5+N5</f>
+        <f t="shared" si="1"/>
         <v>4.6399999999999997</v>
       </c>
       <c r="Q5" s="43">
         <v>1.5833333333333335E-2</v>
       </c>
       <c r="R5" s="44">
-        <f>Q5/$R$2</f>
+        <f t="shared" si="2"/>
         <v>0.76000000000000012</v>
       </c>
       <c r="S5" s="45">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="T5" s="44">
-        <f>S5/$T$2</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="U5" s="44">
@@ -1800,7 +1800,7 @@
         <v>0.6</v>
       </c>
       <c r="W5" s="52">
-        <f>AVERAGE(R5,T5,V5)*5</f>
+        <f t="shared" si="4"/>
         <v>3.9333333333333336</v>
       </c>
       <c r="X5" s="47">
@@ -1813,7 +1813,7 @@
       </c>
       <c r="AB5" s="47"/>
       <c r="AC5" s="47">
-        <f>AVERAGE(X5:AB5)</f>
+        <f t="shared" si="5"/>
         <v>4.5</v>
       </c>
       <c r="AD5" s="41">
@@ -1826,7 +1826,7 @@
         <v>4.8571428571428568</v>
       </c>
       <c r="AG5" s="51">
-        <f>0.2*AF5+0.8*AVERAGE(AC5:AE5)</f>
+        <f t="shared" si="6"/>
         <v>4.7047619047619049</v>
       </c>
       <c r="AH5" s="41">
@@ -1845,14 +1845,14 @@
         <v>4.5</v>
       </c>
       <c r="AM5" s="51">
-        <f>AVERAGE(AH5:AL5)</f>
+        <f t="shared" si="7"/>
         <v>4.7200000000000006</v>
       </c>
       <c r="AN5" s="51">
         <v>4.5</v>
       </c>
       <c r="AO5" s="41">
-        <f>0.3*AN5+0.6*AM5+0.05*AG5+0.05*W5</f>
+        <f t="shared" si="8"/>
         <v>4.6139047619047622</v>
       </c>
       <c r="AP5" s="56">
@@ -1907,7 +1907,7 @@
         <v>4.8</v>
       </c>
       <c r="L6" s="5">
-        <f>(J6/I6)*K6</f>
+        <f t="shared" si="0"/>
         <v>4.8</v>
       </c>
       <c r="M6" s="12">
@@ -1921,21 +1921,21 @@
         <v>4.7</v>
       </c>
       <c r="P6" s="5">
-        <f>0.7*L6+0.2*M6+0.1*O6+N6</f>
+        <f t="shared" si="1"/>
         <v>4.59</v>
       </c>
       <c r="Q6" s="31">
         <v>1.4652777777777778E-2</v>
       </c>
       <c r="R6" s="32">
-        <f>Q6/$R$2</f>
+        <f t="shared" si="2"/>
         <v>0.70333333333333337</v>
       </c>
       <c r="S6" s="45">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="T6" s="32">
-        <f>S6/$T$2</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="U6" s="32">
@@ -1945,7 +1945,7 @@
         <v>1</v>
       </c>
       <c r="W6" s="12">
-        <f>AVERAGE(R6,T6,V6)*5</f>
+        <f t="shared" si="4"/>
         <v>4.5055555555555555</v>
       </c>
       <c r="X6" s="35">
@@ -1958,7 +1958,7 @@
       <c r="AA6" s="35"/>
       <c r="AB6" s="35"/>
       <c r="AC6" s="35">
-        <f>AVERAGE(X6:AB6)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="AD6" s="5">
@@ -1971,7 +1971,7 @@
         <v>5</v>
       </c>
       <c r="AG6" s="5">
-        <f>0.2*AF6+0.8*AVERAGE(AC6:AE6)</f>
+        <f t="shared" si="6"/>
         <v>4.5999999999999996</v>
       </c>
       <c r="AH6" s="5">
@@ -1990,14 +1990,14 @@
         <v>4.5</v>
       </c>
       <c r="AM6" s="5">
-        <f>AVERAGE(AH6:AL6)</f>
+        <f t="shared" si="7"/>
         <v>4.7200000000000006</v>
       </c>
       <c r="AN6" s="5">
         <v>4.5</v>
       </c>
       <c r="AO6" s="5">
-        <f>0.3*AN6+0.6*AM6+0.05*AG6+0.05*W6</f>
+        <f t="shared" si="8"/>
         <v>4.6372777777777783</v>
       </c>
       <c r="AP6" s="56">
@@ -2052,7 +2052,7 @@
         <v>4.8</v>
       </c>
       <c r="L7" s="41">
-        <f>(J7/I7)*K7</f>
+        <f t="shared" si="0"/>
         <v>4.8</v>
       </c>
       <c r="M7" s="42">
@@ -2066,21 +2066,21 @@
         <v>4.7</v>
       </c>
       <c r="P7" s="41">
-        <f>0.7*L7+0.2*M7+0.1*O7+N7</f>
+        <f t="shared" si="1"/>
         <v>4.59</v>
       </c>
       <c r="Q7" s="43">
         <v>1.5520833333333333E-2</v>
       </c>
       <c r="R7" s="44">
-        <f>Q7/$R$2</f>
+        <f t="shared" si="2"/>
         <v>0.745</v>
       </c>
       <c r="S7" s="45">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="T7" s="44">
-        <f>S7/$T$2</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="U7" s="44">
@@ -2090,7 +2090,7 @@
         <v>0.8</v>
       </c>
       <c r="W7" s="52">
-        <f>AVERAGE(R7,T7,V7)*5</f>
+        <f t="shared" si="4"/>
         <v>4.2416666666666663</v>
       </c>
       <c r="X7" s="47">
@@ -2103,7 +2103,7 @@
       </c>
       <c r="AB7" s="47"/>
       <c r="AC7" s="47">
-        <f>AVERAGE(X7:AB7)</f>
+        <f t="shared" si="5"/>
         <v>3.5</v>
       </c>
       <c r="AD7" s="41">
@@ -2114,7 +2114,7 @@
         <v>4.9285714285714288</v>
       </c>
       <c r="AG7" s="51">
-        <f>0.2*AF7+0.8*AVERAGE(AC7:AE7)</f>
+        <f t="shared" si="6"/>
         <v>4.1857142857142859</v>
       </c>
       <c r="AH7" s="41">
@@ -2133,14 +2133,14 @@
         <v>4.5</v>
       </c>
       <c r="AM7" s="51">
-        <f>AVERAGE(AH7:AL7)</f>
+        <f t="shared" si="7"/>
         <v>4.7200000000000006</v>
       </c>
       <c r="AN7" s="51">
         <v>4.5</v>
       </c>
       <c r="AO7" s="41">
-        <f>0.3*AN7+0.6*AM7+0.05*AG7+0.05*W7</f>
+        <f t="shared" si="8"/>
         <v>4.6033690476190481</v>
       </c>
       <c r="AP7" s="56">
@@ -2196,7 +2196,7 @@
         <v>4.8</v>
       </c>
       <c r="L8" s="41">
-        <f>(J8/I8)*K8</f>
+        <f t="shared" si="0"/>
         <v>4.8</v>
       </c>
       <c r="M8" s="42">
@@ -2210,21 +2210,21 @@
         <v>4.7</v>
       </c>
       <c r="P8" s="41">
-        <f>0.7*L8+0.2*M8+0.1*O8+N8</f>
+        <f t="shared" si="1"/>
         <v>4.79</v>
       </c>
       <c r="Q8" s="43">
         <v>1.5972222222222221E-2</v>
       </c>
       <c r="R8" s="44">
-        <f>Q8/$R$2</f>
+        <f t="shared" si="2"/>
         <v>0.76666666666666661</v>
       </c>
       <c r="S8" s="45">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="T8" s="44">
-        <f>S8/$T$2</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="U8" s="44">
@@ -2234,7 +2234,7 @@
         <v>1</v>
       </c>
       <c r="W8" s="52">
-        <f>AVERAGE(R8,T8,V8)*5</f>
+        <f t="shared" si="4"/>
         <v>4.6111111111111107</v>
       </c>
       <c r="X8" s="47"/>
@@ -2249,7 +2249,7 @@
         <v>3</v>
       </c>
       <c r="AC8" s="47">
-        <f>AVERAGE(X8:AB8)</f>
+        <f t="shared" si="5"/>
         <v>3.3333333333333335</v>
       </c>
       <c r="AD8" s="41">
@@ -2262,7 +2262,7 @@
         <v>5</v>
       </c>
       <c r="AG8" s="51">
-        <f>0.2*AF8+0.8*AVERAGE(AC8:AE8)</f>
+        <f t="shared" si="6"/>
         <v>4.5555555555555554</v>
       </c>
       <c r="AH8" s="41">
@@ -2281,14 +2281,14 @@
         <v>4.5</v>
       </c>
       <c r="AM8" s="51">
-        <f>AVERAGE(AH8:AL8)</f>
+        <f t="shared" si="7"/>
         <v>4.7200000000000006</v>
       </c>
       <c r="AN8" s="51">
         <v>4.5</v>
       </c>
       <c r="AO8" s="41">
-        <f>0.3*AN8+0.6*AM8+0.05*AG8+0.05*W8</f>
+        <f t="shared" si="8"/>
         <v>4.6403333333333334</v>
       </c>
       <c r="AP8" s="56">
@@ -2344,7 +2344,7 @@
         <v>4.5</v>
       </c>
       <c r="L9" s="41">
-        <f>(J9/I9)*K9</f>
+        <f t="shared" si="0"/>
         <v>2.6999999999999997</v>
       </c>
       <c r="M9" s="42">
@@ -2355,21 +2355,21 @@
         <v>3</v>
       </c>
       <c r="P9" s="41">
-        <f>0.7*L9+0.2*M9+0.1*O9+N9</f>
+        <f t="shared" si="1"/>
         <v>2.742</v>
       </c>
       <c r="Q9" s="43">
         <v>1.8506944444444444E-2</v>
       </c>
       <c r="R9" s="44">
-        <f>Q9/$R$2</f>
+        <f t="shared" si="2"/>
         <v>0.88833333333333331</v>
       </c>
       <c r="S9" s="45">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="T9" s="44">
-        <f>S9/$T$2</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="U9" s="44">
@@ -2379,7 +2379,7 @@
         <v>0.8</v>
       </c>
       <c r="W9" s="52">
-        <f>AVERAGE(R9,T9,V9)*5</f>
+        <f t="shared" si="4"/>
         <v>4.4805555555555561</v>
       </c>
       <c r="X9" s="47">
@@ -2394,7 +2394,7 @@
       </c>
       <c r="AB9" s="47"/>
       <c r="AC9" s="47">
-        <f>AVERAGE(X9:AB9)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AD9" s="41">
@@ -2407,7 +2407,7 @@
         <v>4.7692307692307692</v>
       </c>
       <c r="AG9" s="51">
-        <f>0.2*AF9+0.8*AVERAGE(AC9:AE9)</f>
+        <f t="shared" si="6"/>
         <v>3.620512820512821</v>
       </c>
       <c r="AH9" s="41">
@@ -2426,14 +2426,14 @@
         <v>4.3</v>
       </c>
       <c r="AM9" s="51">
-        <f>AVERAGE(AH9:AL9)</f>
+        <f t="shared" si="7"/>
         <v>4.3</v>
       </c>
       <c r="AN9" s="51">
         <v>0</v>
       </c>
       <c r="AO9" s="41">
-        <f>0.3*AN9+0.6*AM9+0.05*AG9+0.05*W9</f>
+        <f t="shared" si="8"/>
         <v>2.9850534188034183</v>
       </c>
       <c r="AP9" s="56">
@@ -2489,7 +2489,7 @@
         <v>4.8</v>
       </c>
       <c r="L10" s="41">
-        <f>(J10/I10)*K10</f>
+        <f t="shared" si="0"/>
         <v>4.8</v>
       </c>
       <c r="M10" s="42">
@@ -2503,21 +2503,21 @@
         <v>3</v>
       </c>
       <c r="P10" s="41">
-        <f>0.7*L10+0.2*M10+0.1*O10+N10</f>
+        <f t="shared" si="1"/>
         <v>4.2889230769230764</v>
       </c>
       <c r="Q10" s="43">
         <v>1.1863425925925927E-2</v>
       </c>
       <c r="R10" s="44">
-        <f>Q10/$R$2</f>
+        <f t="shared" si="2"/>
         <v>0.56944444444444453</v>
       </c>
       <c r="S10" s="45">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="T10" s="44">
-        <f>S10/$T$2</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="U10" s="44">
@@ -2527,7 +2527,7 @@
         <v>1</v>
       </c>
       <c r="W10" s="52">
-        <f>AVERAGE(R10,T10,V10)*5</f>
+        <f t="shared" si="4"/>
         <v>4.2824074074074074</v>
       </c>
       <c r="X10" s="47">
@@ -2542,7 +2542,7 @@
       </c>
       <c r="AB10" s="47"/>
       <c r="AC10" s="47">
-        <f>AVERAGE(X10:AB10)</f>
+        <f t="shared" si="5"/>
         <v>4.333333333333333</v>
       </c>
       <c r="AD10" s="41">
@@ -2555,7 +2555,7 @@
         <v>4.6923076923076925</v>
       </c>
       <c r="AG10" s="51">
-        <f>0.2*AF10+0.8*AVERAGE(AC10:AE10)</f>
+        <f t="shared" si="6"/>
         <v>4.2273504273504274</v>
       </c>
       <c r="AH10" s="41">
@@ -2574,14 +2574,14 @@
         <v>4.3</v>
       </c>
       <c r="AM10" s="51">
-        <f>AVERAGE(AH10:AL10)</f>
+        <f t="shared" si="7"/>
         <v>4.3</v>
       </c>
       <c r="AN10" s="51">
         <v>0</v>
       </c>
       <c r="AO10" s="41">
-        <f>0.3*AN10+0.6*AM10+0.05*AG10+0.05*W10</f>
+        <f t="shared" si="8"/>
         <v>3.0054878917378911</v>
       </c>
       <c r="AP10" s="56">
@@ -2636,7 +2636,7 @@
         <v>4.8</v>
       </c>
       <c r="L11" s="41">
-        <f>(J11/I11)*K11</f>
+        <f t="shared" si="0"/>
         <v>4.8</v>
       </c>
       <c r="M11" s="42">
@@ -2647,21 +2647,21 @@
         <v>3</v>
       </c>
       <c r="P11" s="41">
-        <f>0.7*L11+0.2*M11+0.1*O11+N11</f>
+        <f t="shared" si="1"/>
         <v>4.2119999999999997</v>
       </c>
       <c r="Q11" s="43">
         <v>1.8159722222222223E-2</v>
       </c>
       <c r="R11" s="44">
-        <f>Q11/$R$2</f>
+        <f t="shared" si="2"/>
         <v>0.8716666666666667</v>
       </c>
       <c r="S11" s="45">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="T11" s="44">
-        <f>S11/$T$2</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="U11" s="44">
@@ -2671,7 +2671,7 @@
         <v>1</v>
       </c>
       <c r="W11" s="52">
-        <f>AVERAGE(R11,T11,V11)*5</f>
+        <f t="shared" si="4"/>
         <v>4.7861111111111114</v>
       </c>
       <c r="X11" s="47">
@@ -2684,7 +2684,7 @@
       </c>
       <c r="AB11" s="47"/>
       <c r="AC11" s="47">
-        <f>AVERAGE(X11:AB11)</f>
+        <f t="shared" si="5"/>
         <v>4.5</v>
       </c>
       <c r="AD11" s="41">
@@ -2697,7 +2697,7 @@
         <v>4.615384615384615</v>
       </c>
       <c r="AG11" s="51">
-        <f>0.2*AF11+0.8*AVERAGE(AC11:AE11)</f>
+        <f t="shared" si="6"/>
         <v>4.2564102564102573</v>
       </c>
       <c r="AH11" s="41">
@@ -2716,14 +2716,14 @@
         <v>4.3</v>
       </c>
       <c r="AM11" s="51">
-        <f>AVERAGE(AH11:AL11)</f>
+        <f t="shared" si="7"/>
         <v>4.3</v>
       </c>
       <c r="AN11" s="51">
         <v>0</v>
       </c>
       <c r="AO11" s="41">
-        <f>0.3*AN11+0.6*AM11+0.05*AG11+0.05*W11</f>
+        <f t="shared" si="8"/>
         <v>3.0321260683760682</v>
       </c>
       <c r="AP11" s="56">
@@ -2778,7 +2778,7 @@
         <v>4.8</v>
       </c>
       <c r="L12" s="5">
-        <f>(J12/I12)*K12</f>
+        <f t="shared" si="0"/>
         <v>4.8</v>
       </c>
       <c r="M12" s="12">
@@ -2789,21 +2789,21 @@
         <v>3</v>
       </c>
       <c r="P12" s="5">
-        <f>0.7*L12+0.2*M12+0.1*O12+N12</f>
+        <f t="shared" si="1"/>
         <v>4.2119999999999997</v>
       </c>
       <c r="Q12" s="31">
         <v>9.9305555555555553E-3</v>
       </c>
       <c r="R12" s="32">
-        <f>Q12/$R$2</f>
+        <f t="shared" si="2"/>
         <v>0.47666666666666668</v>
       </c>
       <c r="S12" s="33">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="T12" s="32">
-        <f>S12/$T$2</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="U12" s="32">
@@ -2813,7 +2813,7 @@
         <v>1</v>
       </c>
       <c r="W12" s="12">
-        <f>AVERAGE(R12,T12,V12)*5</f>
+        <f t="shared" si="4"/>
         <v>4.1277777777777773</v>
       </c>
       <c r="X12" s="35">
@@ -2826,7 +2826,7 @@
       </c>
       <c r="AB12" s="35"/>
       <c r="AC12" s="35">
-        <f>AVERAGE(X12:AB12)</f>
+        <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
       <c r="AD12" s="5">
@@ -2839,7 +2839,7 @@
         <v>4.615384615384615</v>
       </c>
       <c r="AG12" s="5">
-        <f>0.2*AF12+0.8*AVERAGE(AC12:AE12)</f>
+        <f t="shared" si="6"/>
         <v>3.4564102564102561</v>
       </c>
       <c r="AH12" s="5">
@@ -2858,14 +2858,14 @@
         <v>4.3</v>
       </c>
       <c r="AM12" s="5">
-        <f>AVERAGE(AH12:AL12)</f>
+        <f t="shared" si="7"/>
         <v>4.3</v>
       </c>
       <c r="AN12" s="5">
         <v>0</v>
       </c>
       <c r="AO12" s="5">
-        <f>0.3*AN12+0.6*AM12+0.05*AG12+0.05*W12</f>
+        <f t="shared" si="8"/>
         <v>2.9592094017094013</v>
       </c>
       <c r="AP12" s="56">
@@ -2920,7 +2920,7 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="L13" s="5">
-        <f>(J13/I13)*K13</f>
+        <f t="shared" si="0"/>
         <v>4.9000000000000004</v>
       </c>
       <c r="M13" s="12">
@@ -2931,21 +2931,21 @@
         <v>3</v>
       </c>
       <c r="P13" s="5">
-        <f>0.7*L13+0.2*M13+0.1*O13+N13</f>
+        <f t="shared" si="1"/>
         <v>4.282</v>
       </c>
       <c r="Q13" s="31">
         <v>0</v>
       </c>
       <c r="R13" s="32">
-        <f>Q13/$R$2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S13" s="33">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="T13" s="32">
-        <f>S13/$T$2</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="U13" s="32">
@@ -2969,7 +2969,7 @@
       </c>
       <c r="AB13" s="35"/>
       <c r="AC13" s="35">
-        <f>AVERAGE(X13:AB13)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AD13" s="5">
@@ -2982,7 +2982,7 @@
         <v>4.5384615384615383</v>
       </c>
       <c r="AG13" s="5">
-        <f>0.2*AF13+0.8*AVERAGE(AC13:AE13)</f>
+        <f t="shared" si="6"/>
         <v>3.5743589743589745</v>
       </c>
       <c r="AH13" s="5">
@@ -3001,7 +3001,7 @@
         <v>4.3</v>
       </c>
       <c r="AM13" s="5">
-        <f>AVERAGE(AH13:AL13)</f>
+        <f t="shared" si="7"/>
         <v>4.3</v>
       </c>
       <c r="AN13" s="5">
@@ -3063,7 +3063,7 @@
         <v>4.7</v>
       </c>
       <c r="L14" s="5">
-        <f>(J14/I14)*K14</f>
+        <f t="shared" si="0"/>
         <v>4.7</v>
       </c>
       <c r="M14" s="12">
@@ -3074,21 +3074,21 @@
         <v>3.5</v>
       </c>
       <c r="P14" s="5">
-        <f>0.7*L14+0.2*M14+0.1*O14+N14</f>
+        <f t="shared" si="1"/>
         <v>4.2320000000000002</v>
       </c>
       <c r="Q14" s="31">
         <v>2.0243055555555556E-2</v>
       </c>
       <c r="R14" s="32">
-        <f>Q14/$R$2</f>
+        <f t="shared" si="2"/>
         <v>0.97166666666666668</v>
       </c>
       <c r="S14" s="33">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="T14" s="32">
-        <f>S14/$T$2</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="U14" s="32">
@@ -3115,7 +3115,7 @@
         <v>2.3333333333333335</v>
       </c>
       <c r="AG14" s="5">
-        <f>0.2*AF14+0.8*AVERAGE(AC14:AE14)</f>
+        <f t="shared" si="6"/>
         <v>0.46666666666666673</v>
       </c>
       <c r="AH14" s="5">
@@ -3134,7 +3134,7 @@
         <v>3</v>
       </c>
       <c r="AM14" s="5">
-        <f>AVERAGE(AH14:AL14)</f>
+        <f t="shared" si="7"/>
         <v>4.0600000000000005</v>
       </c>
       <c r="AN14" s="5">
@@ -3196,7 +3196,7 @@
         <v>4.8</v>
       </c>
       <c r="L15" s="5">
-        <f>(J15/I15)*K15</f>
+        <f t="shared" si="0"/>
         <v>4.8</v>
       </c>
       <c r="M15" s="12">
@@ -3207,21 +3207,21 @@
         <v>3.5</v>
       </c>
       <c r="P15" s="5">
-        <f>0.7*L15+0.2*M15+0.1*O15+N15</f>
+        <f t="shared" si="1"/>
         <v>4.3019999999999996</v>
       </c>
       <c r="Q15" s="31">
         <v>2.0532407407407409E-2</v>
       </c>
       <c r="R15" s="32">
-        <f>Q15/$R$2</f>
+        <f t="shared" si="2"/>
         <v>0.98555555555555563</v>
       </c>
       <c r="S15" s="33">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="T15" s="32">
-        <f>S15/$T$2</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="U15" s="32">
@@ -3259,7 +3259,7 @@
         <v>4.833333333333333</v>
       </c>
       <c r="AG15" s="5">
-        <f>0.2*AF15+0.8*AVERAGE(AC15:AE15)</f>
+        <f t="shared" si="6"/>
         <v>4.7</v>
       </c>
       <c r="AH15" s="5">
@@ -3278,7 +3278,7 @@
         <v>3</v>
       </c>
       <c r="AM15" s="5">
-        <f>AVERAGE(AH15:AL15)</f>
+        <f t="shared" si="7"/>
         <v>4.0600000000000005</v>
       </c>
       <c r="AN15" s="5">
@@ -3340,7 +3340,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="L16" s="41">
-        <f>(J16/I16)*K16</f>
+        <f t="shared" si="0"/>
         <v>4.5999999999999996</v>
       </c>
       <c r="M16" s="42">
@@ -3351,21 +3351,21 @@
         <v>3.5</v>
       </c>
       <c r="P16" s="41">
-        <f>0.7*L16+0.2*M16+0.1*O16+N16</f>
+        <f t="shared" si="1"/>
         <v>4.1619999999999999</v>
       </c>
       <c r="Q16" s="43">
         <v>2.1342592592592594E-2</v>
       </c>
       <c r="R16" s="44">
-        <f>Q16/$R$2</f>
+        <f t="shared" si="2"/>
         <v>1.0244444444444445</v>
       </c>
       <c r="S16" s="45">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="T16" s="44">
-        <f>S16/$T$2</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="U16" s="44">
@@ -3398,7 +3398,7 @@
         <v>4.666666666666667</v>
       </c>
       <c r="AG16" s="51">
-        <f>0.2*AF16+0.8*AVERAGE(AC16:AE16)</f>
+        <f t="shared" si="6"/>
         <v>4.5333333333333332</v>
       </c>
       <c r="AH16" s="41">
@@ -3417,7 +3417,7 @@
         <v>3</v>
       </c>
       <c r="AM16" s="51">
-        <f>AVERAGE(AH16:AL16)</f>
+        <f t="shared" si="7"/>
         <v>4.0600000000000005</v>
       </c>
       <c r="AN16" s="51">
@@ -3479,7 +3479,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="L17" s="41">
-        <f>(J17/I17)*K17</f>
+        <f t="shared" si="0"/>
         <v>4.5999999999999996</v>
       </c>
       <c r="M17" s="42">
@@ -3490,21 +3490,21 @@
         <v>3.5</v>
       </c>
       <c r="P17" s="41">
-        <f>0.7*L17+0.2*M17+0.1*O17+N17</f>
+        <f t="shared" si="1"/>
         <v>4.1619999999999999</v>
       </c>
       <c r="Q17" s="43">
         <v>1.951388888888889E-2</v>
       </c>
       <c r="R17" s="44">
-        <f>Q17/$R$2</f>
+        <f t="shared" si="2"/>
         <v>0.93666666666666676</v>
       </c>
       <c r="S17" s="45">
         <v>0</v>
       </c>
       <c r="T17" s="44">
-        <f>S17/$T$2</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U17" s="44">
@@ -3531,7 +3531,7 @@
         <v>2.3333333333333335</v>
       </c>
       <c r="AG17" s="51">
-        <f>0.2*AF17+0.8*AVERAGE(AC17:AE17)</f>
+        <f t="shared" si="6"/>
         <v>0.46666666666666673</v>
       </c>
       <c r="AH17" s="41">
@@ -3550,7 +3550,7 @@
         <v>3</v>
       </c>
       <c r="AM17" s="51">
-        <f>AVERAGE(AH17:AL17)</f>
+        <f t="shared" si="7"/>
         <v>4.0600000000000005</v>
       </c>
       <c r="AN17" s="51">
@@ -3613,7 +3613,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="L18" s="5">
-        <f>(J18/I18)*K18</f>
+        <f t="shared" si="0"/>
         <v>4.5999999999999996</v>
       </c>
       <c r="M18" s="12">
@@ -3624,21 +3624,21 @@
         <v>4.5</v>
       </c>
       <c r="P18" s="5">
-        <f>0.7*L18+0.2*M18+0.1*O18+N18</f>
+        <f t="shared" si="1"/>
         <v>4.3879999999999999</v>
       </c>
       <c r="Q18" s="31">
         <v>1.3935185185185186E-2</v>
       </c>
       <c r="R18" s="32">
-        <f>Q18/$R$2</f>
+        <f t="shared" si="2"/>
         <v>0.66888888888888898</v>
       </c>
       <c r="S18" s="33">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="T18" s="32">
-        <f>S18/$T$2</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="U18" s="32">
@@ -3674,7 +3674,7 @@
         <v>4.916666666666667</v>
       </c>
       <c r="AG18" s="5">
-        <f>0.2*AF18+0.8*AVERAGE(AC18:AE18)</f>
+        <f t="shared" si="6"/>
         <v>3.1166666666666667</v>
       </c>
       <c r="AH18" s="5">
@@ -3693,7 +3693,7 @@
         <v>4.5</v>
       </c>
       <c r="AM18" s="5">
-        <f>AVERAGE(AH18:AL18)</f>
+        <f t="shared" si="7"/>
         <v>4.42</v>
       </c>
       <c r="AN18" s="5">
@@ -3755,7 +3755,7 @@
         <v>4.5</v>
       </c>
       <c r="L19" s="5">
-        <f>(J19/I19)*K19</f>
+        <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
       <c r="M19" s="12">
@@ -3766,21 +3766,21 @@
         <v>4.5</v>
       </c>
       <c r="P19" s="5">
-        <f>0.7*L19+0.2*M19+0.1*O19+N19</f>
+        <f t="shared" si="1"/>
         <v>4.3179999999999996</v>
       </c>
       <c r="Q19" s="31">
         <v>1.474537037037037E-2</v>
       </c>
       <c r="R19" s="32">
-        <f>Q19/$R$2</f>
+        <f t="shared" si="2"/>
         <v>0.70777777777777784</v>
       </c>
       <c r="S19" s="33">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="T19" s="32">
-        <f>S19/$T$2</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="U19" s="32">
@@ -3833,7 +3833,7 @@
         <v>4.5</v>
       </c>
       <c r="AM19" s="5">
-        <f>AVERAGE(AH19:AL19)</f>
+        <f t="shared" si="7"/>
         <v>4.42</v>
       </c>
       <c r="AN19" s="5">
@@ -3893,7 +3893,7 @@
         <v>4.8</v>
       </c>
       <c r="L20" s="41">
-        <f>(J20/I20)*K20</f>
+        <f t="shared" si="0"/>
         <v>4.8</v>
       </c>
       <c r="M20" s="42">
@@ -3904,21 +3904,21 @@
         <v>4.5</v>
       </c>
       <c r="P20" s="41">
-        <f>0.7*L20+0.2*M20+0.1*O20+N20</f>
+        <f t="shared" si="1"/>
         <v>4.5279999999999996</v>
       </c>
       <c r="Q20" s="43">
         <v>1.6342592592592593E-2</v>
       </c>
       <c r="R20" s="44">
-        <f>Q20/$R$2</f>
+        <f t="shared" si="2"/>
         <v>0.7844444444444445</v>
       </c>
       <c r="S20" s="45">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="T20" s="44">
-        <f>S20/$T$2</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="U20" s="44">
@@ -3973,7 +3973,7 @@
         <v>4.5</v>
       </c>
       <c r="AM20" s="51">
-        <f>AVERAGE(AH20:AL20)</f>
+        <f t="shared" si="7"/>
         <v>4.42</v>
       </c>
       <c r="AN20" s="51">
@@ -4035,7 +4035,7 @@
         <v>4.5</v>
       </c>
       <c r="L21" s="5">
-        <f>(J21/I21)*K21</f>
+        <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
       <c r="M21" s="12">
@@ -4046,21 +4046,21 @@
         <v>4.5</v>
       </c>
       <c r="P21" s="5">
-        <f>0.7*L21+0.2*M21+0.1*O21+N21</f>
+        <f t="shared" si="1"/>
         <v>4.3179999999999996</v>
       </c>
       <c r="Q21" s="31">
         <v>0</v>
       </c>
       <c r="R21" s="32">
-        <f>Q21/$R$2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S21" s="33">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="T21" s="32">
-        <f>S21/$T$2</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="U21" s="32">
@@ -4115,7 +4115,7 @@
         <v>4.5</v>
       </c>
       <c r="AM21" s="5">
-        <f>AVERAGE(AH21:AL21)</f>
+        <f t="shared" si="7"/>
         <v>4.42</v>
       </c>
       <c r="AN21" s="5">
@@ -4175,7 +4175,7 @@
         <v>4.8</v>
       </c>
       <c r="L22" s="5">
-        <f>(J22/I22)*K22</f>
+        <f t="shared" si="0"/>
         <v>4.8</v>
       </c>
       <c r="M22" s="12">
@@ -4189,21 +4189,21 @@
         <v>4.5</v>
       </c>
       <c r="P22" s="5">
-        <f>0.7*L22+0.2*M22+0.1*O22+N22</f>
+        <f t="shared" si="1"/>
         <v>4.5904999999999996</v>
       </c>
       <c r="Q22" s="31">
         <v>1.412037037037037E-2</v>
       </c>
       <c r="R22" s="32">
-        <f>Q22/$R$2</f>
+        <f t="shared" si="2"/>
         <v>0.67777777777777781</v>
       </c>
       <c r="S22" s="33">
         <v>0</v>
       </c>
       <c r="T22" s="32">
-        <f>S22/$T$2</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U22" s="32">
@@ -4257,7 +4257,7 @@
         <v>4.5</v>
       </c>
       <c r="AM22" s="5">
-        <f>AVERAGE(AH22:AL22)</f>
+        <f t="shared" si="7"/>
         <v>4.42</v>
       </c>
       <c r="AN22" s="5">

--- a/academics/DB2/2025-2/DB2 2025-2.xlsx
+++ b/academics/DB2/2025-2/DB2 2025-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\UAO\oicampo-uao.github.io\academics\DB2\2025-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B1C24AA-41D2-4BE1-9406-A89A65BBC99A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CFA1E79-18DB-408F-976C-C65F0A472C44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Hoja1!$A$1:$B$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$AS$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$AY$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="153">
   <si>
     <t>email</t>
   </si>
@@ -795,7 +795,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -934,6 +934,7 @@
     <xf numFmtId="166" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1324,10 +1325,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AU27"/>
+  <dimension ref="A1:AY27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:D22"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AT23" sqref="AT23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.5703125" defaultRowHeight="15"/>
@@ -1335,11 +1336,11 @@
     <col min="1" max="1" width="16.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.140625" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" customWidth="1"/>
-    <col min="4" max="4" width="29.140625" customWidth="1"/>
+    <col min="4" max="4" width="29.140625" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="6.42578125" style="1" customWidth="1"/>
     <col min="6" max="6" width="13.85546875" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="6.140625" style="1" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="7.85546875" customWidth="1"/>
+    <col min="8" max="8" width="7.85546875" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="4.42578125" style="15" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="3.140625" style="1" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="4" style="1" hidden="1" customWidth="1"/>
@@ -1370,15 +1371,16 @@
     <col min="39" max="39" width="14.42578125" style="1" hidden="1" customWidth="1"/>
     <col min="40" max="40" width="22.28515625" style="1" hidden="1" customWidth="1"/>
     <col min="41" max="41" width="13.28515625" style="1" hidden="1" customWidth="1"/>
-    <col min="42" max="42" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="13.28515625" hidden="1" customWidth="1"/>
+    <col min="43" max="43" width="11.5703125" hidden="1" customWidth="1"/>
+    <col min="44" max="44" width="13.28515625" hidden="1" customWidth="1"/>
+    <col min="45" max="45" width="11.5703125" hidden="1" customWidth="1"/>
+    <col min="46" max="46" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47">
+    <row r="1" spans="1:51">
       <c r="Q1" t="s">
         <v>104</v>
       </c>
@@ -1410,8 +1412,14 @@
       <c r="AS1" s="19">
         <v>45961</v>
       </c>
-    </row>
-    <row r="2" spans="1:47">
+      <c r="AT1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AU1" s="19">
+        <v>45968</v>
+      </c>
+    </row>
+    <row r="2" spans="1:51">
       <c r="Q2" t="s">
         <v>105</v>
       </c>
@@ -1443,8 +1451,14 @@
       <c r="AS2" s="56">
         <v>7.8993055555555552E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:47" s="24" customFormat="1" ht="45">
+      <c r="AT2" t="s">
+        <v>105</v>
+      </c>
+      <c r="AU2" s="56">
+        <v>9.5914351851851848E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:51" s="24" customFormat="1" ht="45">
       <c r="A3" s="28" t="s">
         <v>99</v>
       </c>
@@ -1580,1792 +1594,1906 @@
       <c r="AS3" s="22" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="4" spans="1:47">
+      <c r="AT3" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="AU3" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="AV3"/>
+      <c r="AW3"/>
+    </row>
+    <row r="4" spans="1:51">
       <c r="A4" s="3">
-        <v>1005783739</v>
+        <v>1005967544</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E4" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="G4" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H4" s="3" t="str" cm="1">
         <f t="array" ref="H4">_xlfn.IFS(G4=1, "2:00 PM", G4=2, "2:30 PM", G4=3, "3:00 PM", G4=4, "3:30 PM")</f>
+        <v>3:30 PM</v>
+      </c>
+      <c r="I4" s="14">
+        <v>1</v>
+      </c>
+      <c r="J4" s="3">
+        <v>1</v>
+      </c>
+      <c r="K4" s="3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="L4" s="5">
+        <f>(J4/I4)*K4</f>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="M4" s="12">
+        <v>3.59</v>
+      </c>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="P4" s="5">
+        <f>0.7*L4+0.2*M4+0.1*O4+N4</f>
+        <v>4.3879999999999999</v>
+      </c>
+      <c r="Q4" s="31">
+        <v>1.3935185185185186E-2</v>
+      </c>
+      <c r="R4" s="32">
+        <f>Q4/$R$2</f>
+        <v>0.66888888888888898</v>
+      </c>
+      <c r="S4" s="33">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="T4" s="32">
+        <f>S4/$T$2</f>
+        <v>1</v>
+      </c>
+      <c r="U4" s="32">
+        <v>1</v>
+      </c>
+      <c r="V4" s="34">
+        <v>1</v>
+      </c>
+      <c r="W4" s="12">
+        <f>AVERAGE(R4,T4,V4)*5</f>
+        <v>4.4481481481481486</v>
+      </c>
+      <c r="X4" s="35"/>
+      <c r="Y4" s="35">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="35"/>
+      <c r="AA4" s="35">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="35"/>
+      <c r="AC4" s="35">
+        <f>AVERAGE(X4:AB4)</f>
+        <v>0</v>
+      </c>
+      <c r="AD4" s="5">
+        <v>4</v>
+      </c>
+      <c r="AE4" s="5">
+        <v>4</v>
+      </c>
+      <c r="AF4" s="5">
+        <v>4.916666666666667</v>
+      </c>
+      <c r="AG4" s="5">
+        <f>0.2*AF4+0.8*AVERAGE(AC4:AE4)</f>
+        <v>3.1166666666666667</v>
+      </c>
+      <c r="AH4" s="5">
+        <v>4.3</v>
+      </c>
+      <c r="AI4" s="5">
+        <v>4</v>
+      </c>
+      <c r="AJ4" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="AK4" s="5">
+        <v>4.8</v>
+      </c>
+      <c r="AL4" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="AM4" s="5">
+        <f>AVERAGE(AH4:AL4)</f>
+        <v>4.42</v>
+      </c>
+      <c r="AN4" s="5">
+        <v>4</v>
+      </c>
+      <c r="AO4" s="5">
+        <f>0.3*AN4+0.6*AM4+0.05*AG4+0.05*W4</f>
+        <v>4.230240740740741</v>
+      </c>
+      <c r="AP4" s="56">
+        <v>1.6909722222222222E-2</v>
+      </c>
+      <c r="AQ4" s="58">
+        <f>AP4/0.0170138888888889</f>
+        <v>0.99387755102040742</v>
+      </c>
+      <c r="AR4" s="56">
+        <v>0</v>
+      </c>
+      <c r="AS4" s="58">
+        <f>AR4/0.0163310185185185</f>
+        <v>0</v>
+      </c>
+      <c r="AT4" s="56">
+        <v>3.2361111111111111E-2</v>
+      </c>
+      <c r="AU4" s="58">
+        <f>AT4/0.0328240740740741</f>
+        <v>0.98589562764456895</v>
+      </c>
+      <c r="AW4" s="56"/>
+      <c r="AX4" s="48"/>
+      <c r="AY4" s="48"/>
+    </row>
+    <row r="5" spans="1:51" s="48" customFormat="1">
+      <c r="A5" s="3">
+        <v>1107836732</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" s="3">
+        <v>4</v>
+      </c>
+      <c r="H5" s="3" t="str" cm="1">
+        <f t="array" ref="H5">_xlfn.IFS(G5=1, "2:00 PM", G5=2, "2:30 PM", G5=3, "3:00 PM", G5=4, "3:30 PM")</f>
+        <v>3:30 PM</v>
+      </c>
+      <c r="I5" s="14">
+        <v>3</v>
+      </c>
+      <c r="J5" s="3">
+        <v>3</v>
+      </c>
+      <c r="K5" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="L5" s="5">
+        <f>(J5/I5)*K5</f>
+        <v>4.5</v>
+      </c>
+      <c r="M5" s="12">
+        <v>3.59</v>
+      </c>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="P5" s="5">
+        <f>0.7*L5+0.2*M5+0.1*O5+N5</f>
+        <v>4.3179999999999996</v>
+      </c>
+      <c r="Q5" s="31">
+        <v>1.474537037037037E-2</v>
+      </c>
+      <c r="R5" s="32">
+        <f>Q5/$R$2</f>
+        <v>0.70777777777777784</v>
+      </c>
+      <c r="S5" s="33">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="T5" s="32">
+        <f>S5/$T$2</f>
+        <v>1</v>
+      </c>
+      <c r="U5" s="32">
+        <v>1</v>
+      </c>
+      <c r="V5" s="34">
+        <v>1</v>
+      </c>
+      <c r="W5" s="12">
+        <f>AVERAGE(R5,T5,V5)*5</f>
+        <v>4.5129629629629626</v>
+      </c>
+      <c r="X5" s="35"/>
+      <c r="Y5" s="35"/>
+      <c r="Z5" s="35"/>
+      <c r="AA5" s="35">
+        <v>4</v>
+      </c>
+      <c r="AB5" s="35"/>
+      <c r="AC5" s="35">
+        <f>AVERAGE(X5:AB5)</f>
+        <v>4</v>
+      </c>
+      <c r="AD5" s="5">
+        <v>4</v>
+      </c>
+      <c r="AE5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="5">
+        <v>4.0769230769230766</v>
+      </c>
+      <c r="AG5" s="5">
+        <f>0.3*AF5+0.7*AVERAGE(AC5:AE5)</f>
+        <v>3.0897435897435894</v>
+      </c>
+      <c r="AH5" s="5">
+        <v>4.3</v>
+      </c>
+      <c r="AI5" s="5">
+        <v>4</v>
+      </c>
+      <c r="AJ5" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="AK5" s="5">
+        <v>4.8</v>
+      </c>
+      <c r="AL5" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="AM5" s="5">
+        <f>AVERAGE(AH5:AL5)</f>
+        <v>4.42</v>
+      </c>
+      <c r="AN5" s="5">
+        <v>4</v>
+      </c>
+      <c r="AO5" s="5">
+        <f>0.3*AN5+0.6*AM5+0.05*AG5+0.05*W5</f>
+        <v>4.2321353276353273</v>
+      </c>
+      <c r="AQ5" s="58">
+        <f>AP5/0.0170138888888889</f>
+        <v>0</v>
+      </c>
+      <c r="AR5" s="56">
+        <v>0</v>
+      </c>
+      <c r="AS5" s="58">
+        <f>AR5/0.0163310185185185</f>
+        <v>0</v>
+      </c>
+      <c r="AT5" s="56">
+        <v>0</v>
+      </c>
+      <c r="AU5" s="58">
+        <f t="shared" ref="AU5:AU8" si="0">AT5/0.0328240740740741</f>
+        <v>0</v>
+      </c>
+      <c r="AV5"/>
+      <c r="AW5" s="56"/>
+      <c r="AX5"/>
+      <c r="AY5"/>
+    </row>
+    <row r="6" spans="1:51">
+      <c r="A6" s="37">
+        <v>1126644560</v>
+      </c>
+      <c r="B6" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="37">
+        <v>1</v>
+      </c>
+      <c r="F6" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" s="37">
+        <v>4</v>
+      </c>
+      <c r="H6" s="37" t="str" cm="1">
+        <f t="array" ref="H6">_xlfn.IFS(G6=1, "2:00 PM", G6=2, "2:30 PM", G6=3, "3:00 PM", G6=4, "3:30 PM")</f>
+        <v>3:30 PM</v>
+      </c>
+      <c r="I6" s="40">
+        <v>4</v>
+      </c>
+      <c r="J6" s="37">
+        <v>4</v>
+      </c>
+      <c r="K6" s="37">
+        <v>4.8</v>
+      </c>
+      <c r="L6" s="41">
+        <f>(J6/I6)*K6</f>
+        <v>4.8</v>
+      </c>
+      <c r="M6" s="42">
+        <v>3.59</v>
+      </c>
+      <c r="N6" s="42"/>
+      <c r="O6" s="42">
+        <v>4.5</v>
+      </c>
+      <c r="P6" s="41">
+        <f>0.7*L6+0.2*M6+0.1*O6+N6</f>
+        <v>4.5279999999999996</v>
+      </c>
+      <c r="Q6" s="43">
+        <v>1.6342592592592593E-2</v>
+      </c>
+      <c r="R6" s="44">
+        <f>Q6/$R$2</f>
+        <v>0.7844444444444445</v>
+      </c>
+      <c r="S6" s="45">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="T6" s="44">
+        <f>S6/$T$2</f>
+        <v>1</v>
+      </c>
+      <c r="U6" s="44">
+        <v>1</v>
+      </c>
+      <c r="V6" s="46">
+        <v>1</v>
+      </c>
+      <c r="W6" s="52">
+        <f>AVERAGE(R6,T6,V6)*5</f>
+        <v>4.6407407407407408</v>
+      </c>
+      <c r="X6" s="47"/>
+      <c r="Y6" s="47">
+        <v>4</v>
+      </c>
+      <c r="Z6" s="47">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="47"/>
+      <c r="AB6" s="47"/>
+      <c r="AC6" s="47">
+        <f>AVERAGE(X6:AB6)</f>
+        <v>2</v>
+      </c>
+      <c r="AD6" s="41">
+        <v>4.5</v>
+      </c>
+      <c r="AE6" s="41">
+        <v>4</v>
+      </c>
+      <c r="AF6" s="41">
+        <v>5</v>
+      </c>
+      <c r="AG6" s="51">
+        <f>0.2*AF6+0.8*AVERAGE(AC6:AE6)</f>
+        <v>3.8000000000000003</v>
+      </c>
+      <c r="AH6" s="41">
+        <v>4.3</v>
+      </c>
+      <c r="AI6" s="41">
+        <v>4</v>
+      </c>
+      <c r="AJ6" s="41">
+        <v>4.5</v>
+      </c>
+      <c r="AK6" s="41">
+        <v>4.8</v>
+      </c>
+      <c r="AL6" s="41">
+        <v>4.5</v>
+      </c>
+      <c r="AM6" s="51">
+        <f>AVERAGE(AH6:AL6)</f>
+        <v>4.42</v>
+      </c>
+      <c r="AN6" s="51">
+        <v>4</v>
+      </c>
+      <c r="AO6" s="41">
+        <f>0.3*AN6+0.6*AM6+0.05*AG6+0.05*W6</f>
+        <v>4.2740370370370364</v>
+      </c>
+      <c r="AP6" s="56">
+        <v>1.6087962962962964E-2</v>
+      </c>
+      <c r="AQ6" s="58">
+        <f>AP6/0.0170138888888889</f>
+        <v>0.94557823129251639</v>
+      </c>
+      <c r="AR6" s="56">
+        <v>1.3020833333333334E-2</v>
+      </c>
+      <c r="AS6" s="58">
+        <f>AR6/0.0163310185185185</f>
+        <v>0.79730687455705263</v>
+      </c>
+      <c r="AT6" s="56">
+        <v>3.2824074074074075E-2</v>
+      </c>
+      <c r="AU6" s="58">
+        <f t="shared" si="0"/>
+        <v>0.99999999999999911</v>
+      </c>
+      <c r="AW6" s="56"/>
+      <c r="AX6" s="57"/>
+    </row>
+    <row r="7" spans="1:51" s="48" customFormat="1">
+      <c r="A7" s="3">
+        <v>1062329024</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" s="3">
+        <v>4</v>
+      </c>
+      <c r="H7" s="3" t="str" cm="1">
+        <f t="array" ref="H7">_xlfn.IFS(G7=1, "2:00 PM", G7=2, "2:30 PM", G7=3, "3:00 PM", G7=4, "3:30 PM")</f>
+        <v>3:30 PM</v>
+      </c>
+      <c r="I7" s="14">
+        <v>5</v>
+      </c>
+      <c r="J7" s="3">
+        <v>5</v>
+      </c>
+      <c r="K7" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="L7" s="5">
+        <f>(J7/I7)*K7</f>
+        <v>4.5</v>
+      </c>
+      <c r="M7" s="12">
+        <v>3.59</v>
+      </c>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="P7" s="5">
+        <f>0.7*L7+0.2*M7+0.1*O7+N7</f>
+        <v>4.3179999999999996</v>
+      </c>
+      <c r="Q7" s="31">
+        <v>0</v>
+      </c>
+      <c r="R7" s="32">
+        <f>Q7/$R$2</f>
+        <v>0</v>
+      </c>
+      <c r="S7" s="33">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="T7" s="32">
+        <f>S7/$T$2</f>
+        <v>1</v>
+      </c>
+      <c r="U7" s="32">
+        <v>1</v>
+      </c>
+      <c r="V7" s="34">
+        <v>1</v>
+      </c>
+      <c r="W7" s="12">
+        <f>AVERAGE(R7,T7,V7)*5</f>
+        <v>3.333333333333333</v>
+      </c>
+      <c r="X7" s="35"/>
+      <c r="Y7" s="35">
+        <v>5</v>
+      </c>
+      <c r="Z7" s="35">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="35"/>
+      <c r="AB7" s="35"/>
+      <c r="AC7" s="35">
+        <f>AVERAGE(X7:AB7)</f>
+        <v>2.5</v>
+      </c>
+      <c r="AD7" s="5">
+        <v>3</v>
+      </c>
+      <c r="AE7" s="5">
+        <v>4</v>
+      </c>
+      <c r="AF7" s="5">
+        <v>3.8461538461538463</v>
+      </c>
+      <c r="AG7" s="5">
+        <f>0.2*AF7+0.8*AVERAGE(AC7:AE7)</f>
+        <v>3.3025641025641024</v>
+      </c>
+      <c r="AH7" s="5">
+        <v>4.3</v>
+      </c>
+      <c r="AI7" s="5">
+        <v>4</v>
+      </c>
+      <c r="AJ7" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="AK7" s="5">
+        <v>4.8</v>
+      </c>
+      <c r="AL7" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="AM7" s="5">
+        <f>AVERAGE(AH7:AL7)</f>
+        <v>4.42</v>
+      </c>
+      <c r="AN7" s="5">
+        <v>4</v>
+      </c>
+      <c r="AO7" s="5">
+        <f>0.3*AN7+0.6*AM7+0.05*AG7+0.05*W7</f>
+        <v>4.1837948717948716</v>
+      </c>
+      <c r="AQ7" s="58">
+        <f>AP7/0.0170138888888889</f>
+        <v>0</v>
+      </c>
+      <c r="AR7" s="56">
+        <v>0</v>
+      </c>
+      <c r="AS7" s="58">
+        <f>AR7/0.0163310185185185</f>
+        <v>0</v>
+      </c>
+      <c r="AT7" s="56">
+        <v>6.099537037037037E-3</v>
+      </c>
+      <c r="AU7" s="58">
+        <f t="shared" si="0"/>
+        <v>0.18582510578279252</v>
+      </c>
+      <c r="AV7"/>
+      <c r="AW7" s="56"/>
+    </row>
+    <row r="8" spans="1:51">
+      <c r="A8" s="3">
+        <v>1110364376</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8" s="3">
+        <v>4</v>
+      </c>
+      <c r="H8" s="3" t="str" cm="1">
+        <f t="array" ref="H8">_xlfn.IFS(G8=1, "2:00 PM", G8=2, "2:30 PM", G8=3, "3:00 PM", G8=4, "3:30 PM")</f>
+        <v>3:30 PM</v>
+      </c>
+      <c r="I8" s="14">
+        <v>3</v>
+      </c>
+      <c r="J8" s="3">
+        <v>3</v>
+      </c>
+      <c r="K8" s="3">
+        <v>4.8</v>
+      </c>
+      <c r="L8" s="5">
+        <f>(J8/I8)*K8</f>
+        <v>4.8</v>
+      </c>
+      <c r="M8" s="12">
+        <v>3.59</v>
+      </c>
+      <c r="N8" s="12">
+        <f>1/16</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="O8" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="P8" s="5">
+        <f>0.7*L8+0.2*M8+0.1*O8+N8</f>
+        <v>4.5904999999999996</v>
+      </c>
+      <c r="Q8" s="31">
+        <v>1.412037037037037E-2</v>
+      </c>
+      <c r="R8" s="32">
+        <f>Q8/$R$2</f>
+        <v>0.67777777777777781</v>
+      </c>
+      <c r="S8" s="33">
+        <v>0</v>
+      </c>
+      <c r="T8" s="32">
+        <f>S8/$T$2</f>
+        <v>0</v>
+      </c>
+      <c r="U8" s="32">
+        <v>1</v>
+      </c>
+      <c r="V8" s="34">
+        <v>0</v>
+      </c>
+      <c r="W8" s="12">
+        <v>3</v>
+      </c>
+      <c r="X8" s="35"/>
+      <c r="Y8" s="35">
+        <v>2</v>
+      </c>
+      <c r="Z8" s="35">
+        <v>2</v>
+      </c>
+      <c r="AA8" s="35"/>
+      <c r="AB8" s="35"/>
+      <c r="AC8" s="35">
+        <f>AVERAGE(X8:AB8)</f>
+        <v>2</v>
+      </c>
+      <c r="AD8" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="AE8" s="5">
+        <v>4</v>
+      </c>
+      <c r="AF8" s="5">
+        <v>4.9230769230769234</v>
+      </c>
+      <c r="AG8" s="5">
+        <f>0.2*AF8+0.8*AVERAGE(AC8:AE8)</f>
+        <v>3.7846153846153849</v>
+      </c>
+      <c r="AH8" s="5">
+        <v>4.3</v>
+      </c>
+      <c r="AI8" s="5">
+        <v>4</v>
+      </c>
+      <c r="AJ8" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="AK8" s="5">
+        <v>4.8</v>
+      </c>
+      <c r="AL8" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="AM8" s="5">
+        <f>AVERAGE(AH8:AL8)</f>
+        <v>4.42</v>
+      </c>
+      <c r="AN8" s="5">
+        <v>4</v>
+      </c>
+      <c r="AO8" s="5">
+        <f>0.3*AN8+0.6*AM8+0.05*AG8+0.05*W8</f>
+        <v>4.1912307692307689</v>
+      </c>
+      <c r="AP8" s="56">
+        <v>1.7013888888888887E-2</v>
+      </c>
+      <c r="AQ8" s="58">
+        <f>AP8/0.0170138888888889</f>
+        <v>0.99999999999999922</v>
+      </c>
+      <c r="AR8" s="56">
+        <v>1.6331018518518519E-2</v>
+      </c>
+      <c r="AS8" s="58">
+        <f>AR8/0.0163310185185185</f>
+        <v>1.0000000000000011</v>
+      </c>
+      <c r="AT8" s="56">
+        <v>0</v>
+      </c>
+      <c r="AU8" s="58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AV8" s="48"/>
+      <c r="AW8" s="56"/>
+      <c r="AX8" s="48"/>
+      <c r="AY8" s="48"/>
+    </row>
+    <row r="9" spans="1:51" s="48" customFormat="1">
+      <c r="A9" s="3">
+        <v>1005783739</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1</v>
+      </c>
+      <c r="H9" s="3" t="str" cm="1">
+        <f t="array" ref="H9">_xlfn.IFS(G9=1, "2:00 PM", G9=2, "2:30 PM", G9=3, "3:00 PM", G9=4, "3:30 PM")</f>
         <v>2:00 PM</v>
       </c>
-      <c r="I4" s="14">
-        <v>4</v>
-      </c>
-      <c r="J4" s="3">
-        <v>4</v>
-      </c>
-      <c r="K4" s="5">
+      <c r="I9" s="14">
+        <v>4</v>
+      </c>
+      <c r="J9" s="3">
+        <v>4</v>
+      </c>
+      <c r="K9" s="5">
         <v>4.8</v>
       </c>
-      <c r="L4" s="5">
-        <f t="shared" ref="L4:L22" si="0">(J4/I4)*K4</f>
+      <c r="L9" s="5">
+        <f>(J9/I9)*K9</f>
         <v>4.8</v>
       </c>
-      <c r="M4" s="12">
+      <c r="M9" s="12">
         <v>3.55</v>
       </c>
-      <c r="N4" s="12">
+      <c r="N9" s="12">
         <f>3/20</f>
         <v>0.15</v>
       </c>
-      <c r="O4" s="12">
+      <c r="O9" s="12">
         <v>4.7</v>
       </c>
-      <c r="P4" s="5">
-        <f t="shared" ref="P4:P22" si="1">0.7*L4+0.2*M4+0.1*O4+N4</f>
+      <c r="P9" s="5">
+        <f>0.7*L9+0.2*M9+0.1*O9+N9</f>
         <v>4.6900000000000004</v>
       </c>
-      <c r="Q4" s="31">
+      <c r="Q9" s="31">
         <v>1.4976851851851852E-2</v>
       </c>
-      <c r="R4" s="32">
-        <f t="shared" ref="R4:R22" si="2">Q4/$R$2</f>
+      <c r="R9" s="32">
+        <f>Q9/$R$2</f>
         <v>0.71888888888888891</v>
       </c>
-      <c r="S4" s="33">
+      <c r="S9" s="33">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="T4" s="32">
-        <f t="shared" ref="T4:T22" si="3">S4/$T$2</f>
-        <v>1</v>
-      </c>
-      <c r="U4" s="32">
-        <v>1</v>
-      </c>
-      <c r="V4" s="34">
-        <v>1</v>
-      </c>
-      <c r="W4" s="12">
-        <f t="shared" ref="W4:W12" si="4">AVERAGE(R4,T4,V4)*5</f>
+      <c r="T9" s="32">
+        <f>S9/$T$2</f>
+        <v>1</v>
+      </c>
+      <c r="U9" s="32">
+        <v>1</v>
+      </c>
+      <c r="V9" s="34">
+        <v>1</v>
+      </c>
+      <c r="W9" s="12">
+        <f>AVERAGE(R9,T9,V9)*5</f>
         <v>4.5314814814814817</v>
       </c>
-      <c r="X4" s="35">
+      <c r="X9" s="35">
         <v>2</v>
       </c>
-      <c r="Y4" s="35"/>
-      <c r="Z4" s="35">
-        <v>4</v>
-      </c>
-      <c r="AA4" s="35"/>
-      <c r="AB4" s="35"/>
-      <c r="AC4" s="35">
-        <f t="shared" ref="AC4:AC13" si="5">AVERAGE(X4:AB4)</f>
+      <c r="Y9" s="35"/>
+      <c r="Z9" s="35">
+        <v>4</v>
+      </c>
+      <c r="AA9" s="35"/>
+      <c r="AB9" s="35"/>
+      <c r="AC9" s="35">
+        <f>AVERAGE(X9:AB9)</f>
         <v>3</v>
       </c>
-      <c r="AD4" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="AE4" s="5">
+      <c r="AD9" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="AE9" s="5">
         <v>5</v>
       </c>
-      <c r="AF4" s="5">
+      <c r="AF9" s="5">
         <v>4.9285714285714288</v>
       </c>
-      <c r="AG4" s="5">
-        <f t="shared" ref="AG4:AG18" si="6">0.2*AF4+0.8*AVERAGE(AC4:AE4)</f>
+      <c r="AG9" s="5">
+        <f>0.2*AF9+0.8*AVERAGE(AC9:AE9)</f>
         <v>4.3190476190476197</v>
       </c>
-      <c r="AH4" s="5">
+      <c r="AH9" s="5">
         <v>4.8</v>
       </c>
-      <c r="AI4" s="5">
+      <c r="AI9" s="5">
         <v>4.8</v>
       </c>
-      <c r="AJ4" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="AK4" s="5">
+      <c r="AJ9" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="AK9" s="5">
         <v>5</v>
       </c>
-      <c r="AL4" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="AM4" s="5">
-        <f t="shared" ref="AM4:AM22" si="7">AVERAGE(AH4:AL4)</f>
+      <c r="AL9" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="AM9" s="5">
+        <f>AVERAGE(AH9:AL9)</f>
         <v>4.7200000000000006</v>
       </c>
-      <c r="AN4" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="AO4" s="5">
-        <f t="shared" ref="AO4:AO12" si="8">0.3*AN4+0.6*AM4+0.05*AG4+0.05*W4</f>
+      <c r="AN9" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="AO9" s="5">
+        <f>0.3*AN9+0.6*AM9+0.05*AG9+0.05*W9</f>
         <v>4.624526455026456</v>
       </c>
-      <c r="AP4" s="56">
+      <c r="AP9" s="56">
         <v>2.2997685185185184E-2</v>
       </c>
-      <c r="AQ4" s="58">
-        <f>AP4/0.0230324074074074</f>
+      <c r="AQ9" s="58">
+        <f>AP9/0.0230324074074074</f>
         <v>0.99849246231155797</v>
       </c>
-      <c r="AR4" s="56">
+      <c r="AR9" s="56">
         <v>2.0706018518518519E-2</v>
       </c>
-      <c r="AS4" s="58">
-        <f>AR4/0.0230324074074074</f>
+      <c r="AS9" s="58">
+        <f>AR9/0.0230324074074074</f>
         <v>0.89899497487437219</v>
       </c>
-      <c r="AU4" s="56"/>
-    </row>
-    <row r="5" spans="1:47" s="48" customFormat="1">
-      <c r="A5" s="37">
+      <c r="AT9" s="56">
+        <v>1.6261574074074074E-2</v>
+      </c>
+      <c r="AU9" s="58">
+        <f>AT9/0.0162615740740741</f>
+        <v>0.99999999999999856</v>
+      </c>
+      <c r="AV9"/>
+      <c r="AW9" s="56"/>
+      <c r="AX9"/>
+      <c r="AY9"/>
+    </row>
+    <row r="10" spans="1:51">
+      <c r="A10" s="37">
         <v>1113698193</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B10" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="C10" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="39" t="s">
+      <c r="D10" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="37">
+      <c r="E10" s="37">
         <v>2</v>
       </c>
-      <c r="F5" s="38" t="s">
+      <c r="F10" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="G5" s="37">
-        <v>1</v>
-      </c>
-      <c r="H5" s="37" t="str" cm="1">
-        <f t="array" ref="H5">_xlfn.IFS(G5=1, "2:00 PM", G5=2, "2:30 PM", G5=3, "3:00 PM", G5=4, "3:30 PM")</f>
+      <c r="G10" s="37">
+        <v>1</v>
+      </c>
+      <c r="H10" s="37" t="str" cm="1">
+        <f t="array" ref="H10">_xlfn.IFS(G10=1, "2:00 PM", G10=2, "2:30 PM", G10=3, "3:00 PM", G10=4, "3:30 PM")</f>
         <v>2:00 PM</v>
       </c>
-      <c r="I5" s="40">
+      <c r="I10" s="40">
         <v>3</v>
       </c>
-      <c r="J5" s="37">
+      <c r="J10" s="37">
         <v>3</v>
       </c>
-      <c r="K5" s="41">
+      <c r="K10" s="41">
         <v>4.8</v>
       </c>
-      <c r="L5" s="41">
-        <f t="shared" si="0"/>
+      <c r="L10" s="41">
+        <f>(J10/I10)*K10</f>
         <v>4.8</v>
       </c>
-      <c r="M5" s="42">
+      <c r="M10" s="42">
         <v>3.55</v>
       </c>
-      <c r="N5" s="42">
+      <c r="N10" s="42">
         <f>2/20</f>
         <v>0.1</v>
       </c>
-      <c r="O5" s="42">
+      <c r="O10" s="42">
         <v>4.7</v>
       </c>
-      <c r="P5" s="41">
-        <f t="shared" si="1"/>
+      <c r="P10" s="41">
+        <f>0.7*L10+0.2*M10+0.1*O10+N10</f>
         <v>4.6399999999999997</v>
       </c>
-      <c r="Q5" s="43">
+      <c r="Q10" s="43">
         <v>1.5833333333333335E-2</v>
       </c>
-      <c r="R5" s="44">
-        <f t="shared" si="2"/>
+      <c r="R10" s="44">
+        <f>Q10/$R$2</f>
         <v>0.76000000000000012</v>
       </c>
-      <c r="S5" s="45">
+      <c r="S10" s="45">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="T5" s="44">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="U5" s="44">
-        <v>1</v>
-      </c>
-      <c r="V5" s="46">
+      <c r="T10" s="44">
+        <f>S10/$T$2</f>
+        <v>1</v>
+      </c>
+      <c r="U10" s="44">
+        <v>1</v>
+      </c>
+      <c r="V10" s="46">
         <v>0.6</v>
       </c>
-      <c r="W5" s="52">
-        <f t="shared" si="4"/>
+      <c r="W10" s="52">
+        <f>AVERAGE(R10,T10,V10)*5</f>
         <v>3.9333333333333336</v>
       </c>
-      <c r="X5" s="47">
+      <c r="X10" s="47">
         <v>5</v>
       </c>
-      <c r="Y5" s="47"/>
-      <c r="Z5" s="47"/>
-      <c r="AA5" s="47">
-        <v>4</v>
-      </c>
-      <c r="AB5" s="47"/>
-      <c r="AC5" s="47">
-        <f t="shared" si="5"/>
-        <v>4.5</v>
-      </c>
-      <c r="AD5" s="41">
-        <v>4.5</v>
-      </c>
-      <c r="AE5" s="41">
+      <c r="Y10" s="47"/>
+      <c r="Z10" s="47"/>
+      <c r="AA10" s="47">
+        <v>4</v>
+      </c>
+      <c r="AB10" s="47"/>
+      <c r="AC10" s="47">
+        <f>AVERAGE(X10:AB10)</f>
+        <v>4.5</v>
+      </c>
+      <c r="AD10" s="41">
+        <v>4.5</v>
+      </c>
+      <c r="AE10" s="41">
         <v>5</v>
       </c>
-      <c r="AF5" s="41">
+      <c r="AF10" s="41">
         <v>4.8571428571428568</v>
       </c>
-      <c r="AG5" s="51">
-        <f t="shared" si="6"/>
+      <c r="AG10" s="51">
+        <f>0.2*AF10+0.8*AVERAGE(AC10:AE10)</f>
         <v>4.7047619047619049</v>
       </c>
-      <c r="AH5" s="41">
+      <c r="AH10" s="41">
         <v>4.8</v>
       </c>
-      <c r="AI5" s="41">
+      <c r="AI10" s="41">
         <v>4.8</v>
       </c>
-      <c r="AJ5" s="41">
-        <v>4.5</v>
-      </c>
-      <c r="AK5" s="41">
+      <c r="AJ10" s="41">
+        <v>4.5</v>
+      </c>
+      <c r="AK10" s="41">
         <v>5</v>
       </c>
-      <c r="AL5" s="41">
-        <v>4.5</v>
-      </c>
-      <c r="AM5" s="51">
-        <f t="shared" si="7"/>
+      <c r="AL10" s="41">
+        <v>4.5</v>
+      </c>
+      <c r="AM10" s="51">
+        <f>AVERAGE(AH10:AL10)</f>
         <v>4.7200000000000006</v>
       </c>
-      <c r="AN5" s="51">
-        <v>4.5</v>
-      </c>
-      <c r="AO5" s="41">
-        <f t="shared" si="8"/>
+      <c r="AN10" s="51">
+        <v>4.5</v>
+      </c>
+      <c r="AO10" s="41">
+        <f>0.3*AN10+0.6*AM10+0.05*AG10+0.05*W10</f>
         <v>4.6139047619047622</v>
       </c>
-      <c r="AP5" s="56">
+      <c r="AP10" s="56">
         <v>1.6631944444444446E-2</v>
       </c>
-      <c r="AQ5" s="58">
-        <f>AP5/0.0230324074074074</f>
+      <c r="AQ10" s="58">
+        <f>AP10/0.0230324074074074</f>
         <v>0.72211055276381941</v>
       </c>
-      <c r="AR5" s="56">
+      <c r="AR10" s="56">
         <v>2.0706018518518519E-2</v>
       </c>
-      <c r="AS5" s="58">
-        <f>AR5/0.0230324074074074</f>
+      <c r="AS10" s="58">
+        <f>AR10/0.0230324074074074</f>
         <v>0.89899497487437219</v>
       </c>
-      <c r="AU5" s="56"/>
-    </row>
-    <row r="6" spans="1:47">
-      <c r="A6" s="3">
+      <c r="AT10" s="56">
+        <v>0</v>
+      </c>
+      <c r="AU10" s="58">
+        <f t="shared" ref="AU10:AU13" si="1">AT10/0.0162615740740741</f>
+        <v>0</v>
+      </c>
+      <c r="AV10" s="48"/>
+      <c r="AW10" s="56"/>
+      <c r="AX10" s="48"/>
+      <c r="AY10" s="48"/>
+    </row>
+    <row r="11" spans="1:51" s="48" customFormat="1">
+      <c r="A11" s="3">
         <v>1109662163</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D11" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E11" s="3">
         <v>2</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F11" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="G6" s="3">
-        <v>1</v>
-      </c>
-      <c r="H6" s="3" t="str" cm="1">
-        <f t="array" ref="H6">_xlfn.IFS(G6=1, "2:00 PM", G6=2, "2:30 PM", G6=3, "3:00 PM", G6=4, "3:30 PM")</f>
+      <c r="G11" s="3">
+        <v>1</v>
+      </c>
+      <c r="H11" s="3" t="str" cm="1">
+        <f t="array" ref="H11">_xlfn.IFS(G11=1, "2:00 PM", G11=2, "2:30 PM", G11=3, "3:00 PM", G11=4, "3:30 PM")</f>
         <v>2:00 PM</v>
       </c>
-      <c r="I6" s="14">
+      <c r="I11" s="14">
         <v>7</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J11" s="3">
         <v>7</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K11" s="5">
         <v>4.8</v>
       </c>
-      <c r="L6" s="5">
-        <f t="shared" si="0"/>
+      <c r="L11" s="5">
+        <f>(J11/I11)*K11</f>
         <v>4.8</v>
       </c>
-      <c r="M6" s="12">
+      <c r="M11" s="12">
         <v>3.55</v>
       </c>
-      <c r="N6" s="12">
+      <c r="N11" s="12">
         <f>1/20</f>
         <v>0.05</v>
       </c>
-      <c r="O6" s="12">
+      <c r="O11" s="12">
         <v>4.7</v>
       </c>
-      <c r="P6" s="5">
+      <c r="P11" s="5">
+        <f>0.7*L11+0.2*M11+0.1*O11+N11</f>
+        <v>4.59</v>
+      </c>
+      <c r="Q11" s="31">
+        <v>1.4652777777777778E-2</v>
+      </c>
+      <c r="R11" s="32">
+        <f>Q11/$R$2</f>
+        <v>0.70333333333333337</v>
+      </c>
+      <c r="S11" s="45">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="T11" s="32">
+        <f>S11/$T$2</f>
+        <v>1</v>
+      </c>
+      <c r="U11" s="32">
+        <v>1</v>
+      </c>
+      <c r="V11" s="34">
+        <v>1</v>
+      </c>
+      <c r="W11" s="12">
+        <f>AVERAGE(R11,T11,V11)*5</f>
+        <v>4.5055555555555555</v>
+      </c>
+      <c r="X11" s="35">
+        <v>3</v>
+      </c>
+      <c r="Y11" s="35"/>
+      <c r="Z11" s="35">
+        <v>5</v>
+      </c>
+      <c r="AA11" s="35"/>
+      <c r="AB11" s="35"/>
+      <c r="AC11" s="35">
+        <f>AVERAGE(X11:AB11)</f>
+        <v>4</v>
+      </c>
+      <c r="AD11" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="AE11" s="5">
+        <v>5</v>
+      </c>
+      <c r="AF11" s="5">
+        <v>5</v>
+      </c>
+      <c r="AG11" s="5">
+        <f>0.2*AF11+0.8*AVERAGE(AC11:AE11)</f>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AH11" s="5">
+        <v>4.8</v>
+      </c>
+      <c r="AI11" s="5">
+        <v>4.8</v>
+      </c>
+      <c r="AJ11" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="AK11" s="5">
+        <v>5</v>
+      </c>
+      <c r="AL11" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="AM11" s="5">
+        <f>AVERAGE(AH11:AL11)</f>
+        <v>4.7200000000000006</v>
+      </c>
+      <c r="AN11" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="AO11" s="5">
+        <f>0.3*AN11+0.6*AM11+0.05*AG11+0.05*W11</f>
+        <v>4.6372777777777783</v>
+      </c>
+      <c r="AP11" s="56">
+        <v>2.2974537037037036E-2</v>
+      </c>
+      <c r="AQ11" s="58">
+        <f>AP11/0.0230324074074074</f>
+        <v>0.99748743718592991</v>
+      </c>
+      <c r="AR11" s="56">
+        <v>1.8726851851851852E-2</v>
+      </c>
+      <c r="AS11" s="58">
+        <f>AR11/0.0230324074074074</f>
+        <v>0.81306532663316611</v>
+      </c>
+      <c r="AT11" s="56">
+        <v>1.6168981481481482E-2</v>
+      </c>
+      <c r="AU11" s="58">
         <f t="shared" si="1"/>
-        <v>4.59</v>
-      </c>
-      <c r="Q6" s="31">
-        <v>1.4652777777777778E-2</v>
-      </c>
-      <c r="R6" s="32">
-        <f t="shared" si="2"/>
-        <v>0.70333333333333337</v>
-      </c>
-      <c r="S6" s="45">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="T6" s="32">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="U6" s="32">
-        <v>1</v>
-      </c>
-      <c r="V6" s="34">
-        <v>1</v>
-      </c>
-      <c r="W6" s="12">
-        <f t="shared" si="4"/>
-        <v>4.5055555555555555</v>
-      </c>
-      <c r="X6" s="35">
-        <v>3</v>
-      </c>
-      <c r="Y6" s="35"/>
-      <c r="Z6" s="35">
-        <v>5</v>
-      </c>
-      <c r="AA6" s="35"/>
-      <c r="AB6" s="35"/>
-      <c r="AC6" s="35">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="AD6" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="AE6" s="5">
-        <v>5</v>
-      </c>
-      <c r="AF6" s="5">
-        <v>5</v>
-      </c>
-      <c r="AG6" s="5">
-        <f t="shared" si="6"/>
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="AH6" s="5">
+        <v>0.99430604982206261</v>
+      </c>
+      <c r="AV11"/>
+      <c r="AW11" s="56"/>
+      <c r="AX11"/>
+      <c r="AY11"/>
+    </row>
+    <row r="12" spans="1:51">
+      <c r="A12" s="37">
+        <v>1005785832</v>
+      </c>
+      <c r="B12" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="37">
+        <v>2</v>
+      </c>
+      <c r="F12" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" s="37">
+        <v>1</v>
+      </c>
+      <c r="H12" s="37" t="str" cm="1">
+        <f t="array" ref="H12">_xlfn.IFS(G12=1, "2:00 PM", G12=2, "2:30 PM", G12=3, "3:00 PM", G12=4, "3:30 PM")</f>
+        <v>2:00 PM</v>
+      </c>
+      <c r="I12" s="40">
+        <v>7</v>
+      </c>
+      <c r="J12" s="37">
+        <v>7</v>
+      </c>
+      <c r="K12" s="41">
         <v>4.8</v>
       </c>
-      <c r="AI6" s="5">
+      <c r="L12" s="41">
+        <f>(J12/I12)*K12</f>
         <v>4.8</v>
       </c>
-      <c r="AJ6" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="AK6" s="5">
-        <v>5</v>
-      </c>
-      <c r="AL6" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="AM6" s="5">
-        <f t="shared" si="7"/>
-        <v>4.7200000000000006</v>
-      </c>
-      <c r="AN6" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="AO6" s="5">
-        <f t="shared" si="8"/>
-        <v>4.6372777777777783</v>
-      </c>
-      <c r="AP6" s="56">
-        <v>2.2974537037037036E-2</v>
-      </c>
-      <c r="AQ6" s="58">
-        <f>AP6/0.0230324074074074</f>
-        <v>0.99748743718592991</v>
-      </c>
-      <c r="AR6" s="56">
-        <v>1.8726851851851852E-2</v>
-      </c>
-      <c r="AS6" s="58">
-        <f>AR6/0.0230324074074074</f>
-        <v>0.81306532663316611</v>
-      </c>
-      <c r="AU6" s="56"/>
-    </row>
-    <row r="7" spans="1:47" s="48" customFormat="1">
-      <c r="A7" s="37">
-        <v>1005785832</v>
-      </c>
-      <c r="B7" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="37">
-        <v>2</v>
-      </c>
-      <c r="F7" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="G7" s="37">
-        <v>1</v>
-      </c>
-      <c r="H7" s="37" t="str" cm="1">
-        <f t="array" ref="H7">_xlfn.IFS(G7=1, "2:00 PM", G7=2, "2:30 PM", G7=3, "3:00 PM", G7=4, "3:30 PM")</f>
-        <v>2:00 PM</v>
-      </c>
-      <c r="I7" s="40">
-        <v>7</v>
-      </c>
-      <c r="J7" s="37">
-        <v>7</v>
-      </c>
-      <c r="K7" s="41">
-        <v>4.8</v>
-      </c>
-      <c r="L7" s="41">
-        <f t="shared" si="0"/>
-        <v>4.8</v>
-      </c>
-      <c r="M7" s="42">
+      <c r="M12" s="42">
         <v>3.55</v>
       </c>
-      <c r="N7" s="42">
+      <c r="N12" s="42">
         <f>1/20</f>
         <v>0.05</v>
       </c>
-      <c r="O7" s="42">
+      <c r="O12" s="42">
         <v>4.7</v>
       </c>
-      <c r="P7" s="41">
+      <c r="P12" s="41">
+        <f>0.7*L12+0.2*M12+0.1*O12+N12</f>
+        <v>4.59</v>
+      </c>
+      <c r="Q12" s="43">
+        <v>1.5520833333333333E-2</v>
+      </c>
+      <c r="R12" s="44">
+        <f>Q12/$R$2</f>
+        <v>0.745</v>
+      </c>
+      <c r="S12" s="45">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="T12" s="44">
+        <f>S12/$T$2</f>
+        <v>1</v>
+      </c>
+      <c r="U12" s="44">
+        <v>1</v>
+      </c>
+      <c r="V12" s="46">
+        <v>0.8</v>
+      </c>
+      <c r="W12" s="52">
+        <f>AVERAGE(R12,T12,V12)*5</f>
+        <v>4.2416666666666663</v>
+      </c>
+      <c r="X12" s="47">
+        <v>3</v>
+      </c>
+      <c r="Y12" s="47"/>
+      <c r="Z12" s="47"/>
+      <c r="AA12" s="47">
+        <v>4</v>
+      </c>
+      <c r="AB12" s="47"/>
+      <c r="AC12" s="47">
+        <f>AVERAGE(X12:AB12)</f>
+        <v>3.5</v>
+      </c>
+      <c r="AD12" s="41">
+        <v>4.5</v>
+      </c>
+      <c r="AE12" s="41"/>
+      <c r="AF12" s="41">
+        <v>4.9285714285714288</v>
+      </c>
+      <c r="AG12" s="51">
+        <f>0.2*AF12+0.8*AVERAGE(AC12:AE12)</f>
+        <v>4.1857142857142859</v>
+      </c>
+      <c r="AH12" s="41">
+        <v>4.8</v>
+      </c>
+      <c r="AI12" s="41">
+        <v>4.8</v>
+      </c>
+      <c r="AJ12" s="41">
+        <v>4.5</v>
+      </c>
+      <c r="AK12" s="41">
+        <v>5</v>
+      </c>
+      <c r="AL12" s="41">
+        <v>4.5</v>
+      </c>
+      <c r="AM12" s="51">
+        <f>AVERAGE(AH12:AL12)</f>
+        <v>4.7200000000000006</v>
+      </c>
+      <c r="AN12" s="51">
+        <v>4.5</v>
+      </c>
+      <c r="AO12" s="41">
+        <f>0.3*AN12+0.6*AM12+0.05*AG12+0.05*W12</f>
+        <v>4.6033690476190481</v>
+      </c>
+      <c r="AP12" s="56">
+        <v>2.3009259259259261E-2</v>
+      </c>
+      <c r="AQ12" s="58">
+        <f>AP12/0.0230324074074074</f>
+        <v>0.99899497487437217</v>
+      </c>
+      <c r="AR12" s="56">
+        <v>1.6770833333333332E-2</v>
+      </c>
+      <c r="AS12" s="58">
+        <f>AR12/0.0230324074074074</f>
+        <v>0.72814070351758808</v>
+      </c>
+      <c r="AT12" s="56">
+        <v>1.6238425925925927E-2</v>
+      </c>
+      <c r="AU12" s="58">
         <f t="shared" si="1"/>
-        <v>4.59</v>
-      </c>
-      <c r="Q7" s="43">
-        <v>1.5520833333333333E-2</v>
-      </c>
-      <c r="R7" s="44">
-        <f t="shared" si="2"/>
-        <v>0.745</v>
-      </c>
-      <c r="S7" s="45">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="T7" s="44">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="U7" s="44">
-        <v>1</v>
-      </c>
-      <c r="V7" s="46">
-        <v>0.8</v>
-      </c>
-      <c r="W7" s="52">
-        <f t="shared" si="4"/>
-        <v>4.2416666666666663</v>
-      </c>
-      <c r="X7" s="47">
-        <v>3</v>
-      </c>
-      <c r="Y7" s="47"/>
-      <c r="Z7" s="47"/>
-      <c r="AA7" s="47">
-        <v>4</v>
-      </c>
-      <c r="AB7" s="47"/>
-      <c r="AC7" s="47">
-        <f t="shared" si="5"/>
-        <v>3.5</v>
-      </c>
-      <c r="AD7" s="41">
-        <v>4.5</v>
-      </c>
-      <c r="AE7" s="41"/>
-      <c r="AF7" s="41">
-        <v>4.9285714285714288</v>
-      </c>
-      <c r="AG7" s="51">
-        <f t="shared" si="6"/>
-        <v>4.1857142857142859</v>
-      </c>
-      <c r="AH7" s="41">
+        <v>0.9985765124555146</v>
+      </c>
+      <c r="AW12" s="56"/>
+      <c r="AX12" s="48"/>
+      <c r="AY12" s="48"/>
+    </row>
+    <row r="13" spans="1:51" s="48" customFormat="1">
+      <c r="A13" s="37">
+        <v>1005832925</v>
+      </c>
+      <c r="B13" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="37">
+        <v>2</v>
+      </c>
+      <c r="F13" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="37">
+        <v>1</v>
+      </c>
+      <c r="H13" s="37" t="str" cm="1">
+        <f t="array" ref="H13">_xlfn.IFS(G13=1, "2:00 PM", G13=2, "2:30 PM", G13=3, "3:00 PM", G13=4, "3:30 PM")</f>
+        <v>2:00 PM</v>
+      </c>
+      <c r="I13" s="40">
+        <v>11</v>
+      </c>
+      <c r="J13" s="37">
+        <v>11</v>
+      </c>
+      <c r="K13" s="41">
         <v>4.8</v>
       </c>
-      <c r="AI7" s="41">
+      <c r="L13" s="41">
+        <f>(J13/I13)*K13</f>
         <v>4.8</v>
       </c>
-      <c r="AJ7" s="41">
-        <v>4.5</v>
-      </c>
-      <c r="AK7" s="41">
-        <v>5</v>
-      </c>
-      <c r="AL7" s="41">
-        <v>4.5</v>
-      </c>
-      <c r="AM7" s="51">
-        <f t="shared" si="7"/>
-        <v>4.7200000000000006</v>
-      </c>
-      <c r="AN7" s="51">
-        <v>4.5</v>
-      </c>
-      <c r="AO7" s="41">
-        <f t="shared" si="8"/>
-        <v>4.6033690476190481</v>
-      </c>
-      <c r="AP7" s="56">
-        <v>2.3009259259259261E-2</v>
-      </c>
-      <c r="AQ7" s="58">
-        <f>AP7/0.0230324074074074</f>
-        <v>0.99899497487437217</v>
-      </c>
-      <c r="AR7" s="56">
-        <v>1.6770833333333332E-2</v>
-      </c>
-      <c r="AS7" s="58">
-        <f>AR7/0.0230324074074074</f>
-        <v>0.72814070351758808</v>
-      </c>
-      <c r="AT7"/>
-      <c r="AU7" s="56"/>
-    </row>
-    <row r="8" spans="1:47">
-      <c r="A8" s="37">
-        <v>1005832925</v>
-      </c>
-      <c r="B8" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="37">
-        <v>2</v>
-      </c>
-      <c r="F8" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="G8" s="37">
-        <v>1</v>
-      </c>
-      <c r="H8" s="37" t="str" cm="1">
-        <f t="array" ref="H8">_xlfn.IFS(G8=1, "2:00 PM", G8=2, "2:30 PM", G8=3, "3:00 PM", G8=4, "3:30 PM")</f>
-        <v>2:00 PM</v>
-      </c>
-      <c r="I8" s="40">
-        <v>11</v>
-      </c>
-      <c r="J8" s="37">
-        <v>11</v>
-      </c>
-      <c r="K8" s="41">
-        <v>4.8</v>
-      </c>
-      <c r="L8" s="41">
-        <f t="shared" si="0"/>
-        <v>4.8</v>
-      </c>
-      <c r="M8" s="42">
+      <c r="M13" s="42">
         <v>3.55</v>
       </c>
-      <c r="N8" s="42">
+      <c r="N13" s="42">
         <f>5/20</f>
         <v>0.25</v>
       </c>
-      <c r="O8" s="42">
+      <c r="O13" s="42">
         <v>4.7</v>
       </c>
-      <c r="P8" s="41">
+      <c r="P13" s="41">
+        <f>0.7*L13+0.2*M13+0.1*O13+N13</f>
+        <v>4.79</v>
+      </c>
+      <c r="Q13" s="43">
+        <v>1.5972222222222221E-2</v>
+      </c>
+      <c r="R13" s="44">
+        <f>Q13/$R$2</f>
+        <v>0.76666666666666661</v>
+      </c>
+      <c r="S13" s="45">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="T13" s="44">
+        <f>S13/$T$2</f>
+        <v>1</v>
+      </c>
+      <c r="U13" s="44">
+        <v>1</v>
+      </c>
+      <c r="V13" s="46">
+        <v>1</v>
+      </c>
+      <c r="W13" s="52">
+        <f>AVERAGE(R13,T13,V13)*5</f>
+        <v>4.6111111111111107</v>
+      </c>
+      <c r="X13" s="47"/>
+      <c r="Y13" s="47">
+        <v>5</v>
+      </c>
+      <c r="Z13" s="47"/>
+      <c r="AA13" s="47">
+        <v>2</v>
+      </c>
+      <c r="AB13" s="47">
+        <v>3</v>
+      </c>
+      <c r="AC13" s="47">
+        <f>AVERAGE(X13:AB13)</f>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="AD13" s="41">
+        <v>5</v>
+      </c>
+      <c r="AE13" s="41">
+        <v>5</v>
+      </c>
+      <c r="AF13" s="41">
+        <v>5</v>
+      </c>
+      <c r="AG13" s="51">
+        <f>0.2*AF13+0.8*AVERAGE(AC13:AE13)</f>
+        <v>4.5555555555555554</v>
+      </c>
+      <c r="AH13" s="41">
+        <v>4.8</v>
+      </c>
+      <c r="AI13" s="41">
+        <v>4.8</v>
+      </c>
+      <c r="AJ13" s="41">
+        <v>4.5</v>
+      </c>
+      <c r="AK13" s="41">
+        <v>5</v>
+      </c>
+      <c r="AL13" s="41">
+        <v>4.5</v>
+      </c>
+      <c r="AM13" s="51">
+        <f>AVERAGE(AH13:AL13)</f>
+        <v>4.7200000000000006</v>
+      </c>
+      <c r="AN13" s="51">
+        <v>4.5</v>
+      </c>
+      <c r="AO13" s="41">
+        <f>0.3*AN13+0.6*AM13+0.05*AG13+0.05*W13</f>
+        <v>4.6403333333333334</v>
+      </c>
+      <c r="AP13" s="56">
+        <v>2.3032407407407408E-2</v>
+      </c>
+      <c r="AQ13" s="58">
+        <f>AP13/0.0230324074074074</f>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="AR13" s="56">
+        <v>1.1574074074074073E-5</v>
+      </c>
+      <c r="AS13" s="58">
+        <f>AR13/0.0230324074074074</f>
+        <v>5.0251256281407051E-4</v>
+      </c>
+      <c r="AT13" s="56">
+        <v>1.5300925925925926E-2</v>
+      </c>
+      <c r="AU13" s="58">
         <f t="shared" si="1"/>
-        <v>4.79</v>
-      </c>
-      <c r="Q8" s="43">
-        <v>1.5972222222222221E-2</v>
-      </c>
-      <c r="R8" s="44">
-        <f t="shared" si="2"/>
-        <v>0.76666666666666661</v>
-      </c>
-      <c r="S8" s="45">
+        <v>0.9409252669039132</v>
+      </c>
+      <c r="AV13"/>
+      <c r="AW13" s="56"/>
+      <c r="AX13"/>
+      <c r="AY13"/>
+    </row>
+    <row r="14" spans="1:51">
+      <c r="A14" s="37">
+        <v>1062274189</v>
+      </c>
+      <c r="B14" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="37">
+        <v>3</v>
+      </c>
+      <c r="F14" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14" s="37">
+        <v>2</v>
+      </c>
+      <c r="H14" s="37" t="str" cm="1">
+        <f t="array" ref="H14">_xlfn.IFS(G14=1, "2:00 PM", G14=2, "2:30 PM", G14=3, "3:00 PM", G14=4, "3:30 PM")</f>
+        <v>2:30 PM</v>
+      </c>
+      <c r="I14" s="40">
+        <v>5</v>
+      </c>
+      <c r="J14" s="37">
+        <v>3</v>
+      </c>
+      <c r="K14" s="41">
+        <v>4.5</v>
+      </c>
+      <c r="L14" s="41">
+        <f>(J14/I14)*K14</f>
+        <v>2.6999999999999997</v>
+      </c>
+      <c r="M14" s="42">
+        <v>2.76</v>
+      </c>
+      <c r="N14" s="42"/>
+      <c r="O14" s="42">
+        <v>3</v>
+      </c>
+      <c r="P14" s="41">
+        <f>0.7*L14+0.2*M14+0.1*O14+N14</f>
+        <v>2.742</v>
+      </c>
+      <c r="Q14" s="43">
+        <v>1.8506944444444444E-2</v>
+      </c>
+      <c r="R14" s="44">
+        <f>Q14/$R$2</f>
+        <v>0.88833333333333331</v>
+      </c>
+      <c r="S14" s="45">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="T8" s="44">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="U8" s="44">
-        <v>1</v>
-      </c>
-      <c r="V8" s="46">
-        <v>1</v>
-      </c>
-      <c r="W8" s="52">
-        <f t="shared" si="4"/>
-        <v>4.6111111111111107</v>
-      </c>
-      <c r="X8" s="47"/>
-      <c r="Y8" s="47">
-        <v>5</v>
-      </c>
-      <c r="Z8" s="47"/>
-      <c r="AA8" s="47">
+      <c r="T14" s="44">
+        <f>S14/$T$2</f>
+        <v>1</v>
+      </c>
+      <c r="U14" s="44">
+        <v>1</v>
+      </c>
+      <c r="V14" s="46">
+        <v>0.8</v>
+      </c>
+      <c r="W14" s="52">
+        <f>AVERAGE(R14,T14,V14)*5</f>
+        <v>4.4805555555555561</v>
+      </c>
+      <c r="X14" s="47">
         <v>2</v>
       </c>
-      <c r="AB8" s="47">
+      <c r="Y14" s="47">
+        <v>1</v>
+      </c>
+      <c r="Z14" s="47"/>
+      <c r="AA14" s="47">
         <v>3</v>
       </c>
-      <c r="AC8" s="47">
-        <f t="shared" si="5"/>
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="AD8" s="41">
-        <v>5</v>
-      </c>
-      <c r="AE8" s="41">
-        <v>5</v>
-      </c>
-      <c r="AF8" s="41">
-        <v>5</v>
-      </c>
-      <c r="AG8" s="51">
-        <f t="shared" si="6"/>
-        <v>4.5555555555555554</v>
-      </c>
-      <c r="AH8" s="41">
+      <c r="AB14" s="47"/>
+      <c r="AC14" s="47">
+        <f>AVERAGE(X14:AB14)</f>
+        <v>2</v>
+      </c>
+      <c r="AD14" s="41">
+        <v>4</v>
+      </c>
+      <c r="AE14" s="41">
+        <v>4</v>
+      </c>
+      <c r="AF14" s="41">
+        <v>4.7692307692307692</v>
+      </c>
+      <c r="AG14" s="51">
+        <f>0.2*AF14+0.8*AVERAGE(AC14:AE14)</f>
+        <v>3.620512820512821</v>
+      </c>
+      <c r="AH14" s="41">
+        <v>4</v>
+      </c>
+      <c r="AI14" s="41">
+        <v>4.7</v>
+      </c>
+      <c r="AJ14" s="41">
+        <v>4.5</v>
+      </c>
+      <c r="AK14" s="41">
+        <v>4</v>
+      </c>
+      <c r="AL14" s="41">
+        <v>4.3</v>
+      </c>
+      <c r="AM14" s="51">
+        <f>AVERAGE(AH14:AL14)</f>
+        <v>4.3</v>
+      </c>
+      <c r="AN14" s="51">
+        <v>0</v>
+      </c>
+      <c r="AO14" s="41">
+        <f>0.3*AN14+0.6*AM14+0.05*AG14+0.05*W14</f>
+        <v>2.9850534188034183</v>
+      </c>
+      <c r="AP14" s="56">
+        <v>2.2187499999999999E-2</v>
+      </c>
+      <c r="AQ14" s="59">
+        <f>AP14/0.0221875</f>
+        <v>1</v>
+      </c>
+      <c r="AR14" s="56">
+        <v>1.8148148148148149E-2</v>
+      </c>
+      <c r="AS14" s="59">
+        <f>AR14/0.0181481481481481</f>
+        <v>1.0000000000000027</v>
+      </c>
+      <c r="AT14" s="56">
+        <v>2.6921296296296297E-2</v>
+      </c>
+      <c r="AU14" s="59">
+        <f>AT14/0.0282407407407407</f>
+        <v>0.95327868852459152</v>
+      </c>
+      <c r="AW14" s="56"/>
+    </row>
+    <row r="15" spans="1:51" s="48" customFormat="1">
+      <c r="A15" s="37">
+        <v>1110363454</v>
+      </c>
+      <c r="B15" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="37">
+        <v>3</v>
+      </c>
+      <c r="F15" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="G15" s="37">
+        <v>2</v>
+      </c>
+      <c r="H15" s="37" t="str" cm="1">
+        <f t="array" ref="H15">_xlfn.IFS(G15=1, "2:00 PM", G15=2, "2:30 PM", G15=3, "3:00 PM", G15=4, "3:30 PM")</f>
+        <v>2:30 PM</v>
+      </c>
+      <c r="I15" s="40">
+        <v>6</v>
+      </c>
+      <c r="J15" s="37">
+        <v>6</v>
+      </c>
+      <c r="K15" s="41">
         <v>4.8</v>
       </c>
-      <c r="AI8" s="41">
+      <c r="L15" s="41">
+        <f>(J15/I15)*K15</f>
         <v>4.8</v>
       </c>
-      <c r="AJ8" s="41">
-        <v>4.5</v>
-      </c>
-      <c r="AK8" s="41">
-        <v>5</v>
-      </c>
-      <c r="AL8" s="41">
-        <v>4.5</v>
-      </c>
-      <c r="AM8" s="51">
-        <f t="shared" si="7"/>
-        <v>4.7200000000000006</v>
-      </c>
-      <c r="AN8" s="51">
-        <v>4.5</v>
-      </c>
-      <c r="AO8" s="41">
-        <f t="shared" si="8"/>
-        <v>4.6403333333333334</v>
-      </c>
-      <c r="AP8" s="56">
-        <v>2.3032407407407408E-2</v>
-      </c>
-      <c r="AQ8" s="58">
-        <f>AP8/0.0230324074074074</f>
-        <v>1.0000000000000002</v>
-      </c>
-      <c r="AR8" s="56">
-        <v>1.1574074074074073E-5</v>
-      </c>
-      <c r="AS8" s="58">
-        <f>AR8/0.0230324074074074</f>
-        <v>5.0251256281407051E-4</v>
-      </c>
-      <c r="AT8" s="57"/>
-      <c r="AU8" s="56"/>
-    </row>
-    <row r="9" spans="1:47" s="48" customFormat="1">
-      <c r="A9" s="37">
-        <v>1062274189</v>
-      </c>
-      <c r="B9" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="37">
-        <v>3</v>
-      </c>
-      <c r="F9" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="G9" s="37">
-        <v>2</v>
-      </c>
-      <c r="H9" s="37" t="str" cm="1">
-        <f t="array" ref="H9">_xlfn.IFS(G9=1, "2:00 PM", G9=2, "2:30 PM", G9=3, "3:00 PM", G9=4, "3:30 PM")</f>
-        <v>2:30 PM</v>
-      </c>
-      <c r="I9" s="40">
-        <v>5</v>
-      </c>
-      <c r="J9" s="37">
-        <v>3</v>
-      </c>
-      <c r="K9" s="41">
-        <v>4.5</v>
-      </c>
-      <c r="L9" s="41">
-        <f t="shared" si="0"/>
-        <v>2.6999999999999997</v>
-      </c>
-      <c r="M9" s="42">
+      <c r="M15" s="42">
         <v>2.76</v>
       </c>
-      <c r="N9" s="42"/>
-      <c r="O9" s="42">
-        <v>3</v>
-      </c>
-      <c r="P9" s="41">
-        <f t="shared" si="1"/>
-        <v>2.742</v>
-      </c>
-      <c r="Q9" s="43">
-        <v>1.8506944444444444E-2</v>
-      </c>
-      <c r="R9" s="44">
-        <f t="shared" si="2"/>
-        <v>0.88833333333333331</v>
-      </c>
-      <c r="S9" s="45">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="T9" s="44">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="U9" s="44">
-        <v>1</v>
-      </c>
-      <c r="V9" s="46">
-        <v>0.8</v>
-      </c>
-      <c r="W9" s="52">
-        <f t="shared" si="4"/>
-        <v>4.4805555555555561</v>
-      </c>
-      <c r="X9" s="47">
-        <v>2</v>
-      </c>
-      <c r="Y9" s="47">
-        <v>1</v>
-      </c>
-      <c r="Z9" s="47"/>
-      <c r="AA9" s="47">
-        <v>3</v>
-      </c>
-      <c r="AB9" s="47"/>
-      <c r="AC9" s="47">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="AD9" s="41">
-        <v>4</v>
-      </c>
-      <c r="AE9" s="41">
-        <v>4</v>
-      </c>
-      <c r="AF9" s="41">
-        <v>4.7692307692307692</v>
-      </c>
-      <c r="AG9" s="51">
-        <f t="shared" si="6"/>
-        <v>3.620512820512821</v>
-      </c>
-      <c r="AH9" s="41">
-        <v>4</v>
-      </c>
-      <c r="AI9" s="41">
-        <v>4.7</v>
-      </c>
-      <c r="AJ9" s="41">
-        <v>4.5</v>
-      </c>
-      <c r="AK9" s="41">
-        <v>4</v>
-      </c>
-      <c r="AL9" s="41">
-        <v>4.3</v>
-      </c>
-      <c r="AM9" s="51">
-        <f t="shared" si="7"/>
-        <v>4.3</v>
-      </c>
-      <c r="AN9" s="51">
-        <v>0</v>
-      </c>
-      <c r="AO9" s="41">
-        <f t="shared" si="8"/>
-        <v>2.9850534188034183</v>
-      </c>
-      <c r="AP9" s="56">
-        <v>2.2187499999999999E-2</v>
-      </c>
-      <c r="AQ9" s="59">
-        <f>AP9/0.0221875</f>
-        <v>1</v>
-      </c>
-      <c r="AR9" s="56">
-        <v>1.8148148148148149E-2</v>
-      </c>
-      <c r="AS9" s="59">
-        <f>AR9/0.0181481481481481</f>
-        <v>1.0000000000000027</v>
-      </c>
-      <c r="AT9"/>
-      <c r="AU9" s="56"/>
-    </row>
-    <row r="10" spans="1:47">
-      <c r="A10" s="37">
-        <v>1110363454</v>
-      </c>
-      <c r="B10" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="37">
-        <v>3</v>
-      </c>
-      <c r="F10" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="G10" s="37">
-        <v>2</v>
-      </c>
-      <c r="H10" s="37" t="str" cm="1">
-        <f t="array" ref="H10">_xlfn.IFS(G10=1, "2:00 PM", G10=2, "2:30 PM", G10=3, "3:00 PM", G10=4, "3:30 PM")</f>
-        <v>2:30 PM</v>
-      </c>
-      <c r="I10" s="40">
-        <v>6</v>
-      </c>
-      <c r="J10" s="37">
-        <v>6</v>
-      </c>
-      <c r="K10" s="41">
-        <v>4.8</v>
-      </c>
-      <c r="L10" s="41">
-        <f t="shared" si="0"/>
-        <v>4.8</v>
-      </c>
-      <c r="M10" s="42">
-        <v>2.76</v>
-      </c>
-      <c r="N10" s="42">
+      <c r="N15" s="42">
         <f>1/13</f>
         <v>7.6923076923076927E-2</v>
       </c>
-      <c r="O10" s="42">
+      <c r="O15" s="42">
         <v>3</v>
       </c>
-      <c r="P10" s="41">
-        <f t="shared" si="1"/>
+      <c r="P15" s="41">
+        <f>0.7*L15+0.2*M15+0.1*O15+N15</f>
         <v>4.2889230769230764</v>
       </c>
-      <c r="Q10" s="43">
+      <c r="Q15" s="43">
         <v>1.1863425925925927E-2</v>
       </c>
-      <c r="R10" s="44">
-        <f t="shared" si="2"/>
+      <c r="R15" s="44">
+        <f>Q15/$R$2</f>
         <v>0.56944444444444453</v>
       </c>
-      <c r="S10" s="45">
+      <c r="S15" s="45">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="T10" s="44">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="U10" s="44">
-        <v>1</v>
-      </c>
-      <c r="V10" s="46">
-        <v>1</v>
-      </c>
-      <c r="W10" s="52">
-        <f t="shared" si="4"/>
+      <c r="T15" s="44">
+        <f>S15/$T$2</f>
+        <v>1</v>
+      </c>
+      <c r="U15" s="44">
+        <v>1</v>
+      </c>
+      <c r="V15" s="46">
+        <v>1</v>
+      </c>
+      <c r="W15" s="52">
+        <f>AVERAGE(R15,T15,V15)*5</f>
         <v>4.2824074074074074</v>
       </c>
-      <c r="X10" s="47">
+      <c r="X15" s="47">
         <v>5</v>
       </c>
-      <c r="Y10" s="47">
+      <c r="Y15" s="47">
         <v>3</v>
       </c>
-      <c r="Z10" s="47"/>
-      <c r="AA10" s="47">
+      <c r="Z15" s="47"/>
+      <c r="AA15" s="47">
         <v>5</v>
       </c>
-      <c r="AB10" s="47"/>
-      <c r="AC10" s="47">
-        <f t="shared" si="5"/>
+      <c r="AB15" s="47"/>
+      <c r="AC15" s="47">
+        <f>AVERAGE(X15:AB15)</f>
         <v>4.333333333333333</v>
       </c>
-      <c r="AD10" s="41">
-        <v>4</v>
-      </c>
-      <c r="AE10" s="41">
-        <v>4</v>
-      </c>
-      <c r="AF10" s="41">
+      <c r="AD15" s="41">
+        <v>4</v>
+      </c>
+      <c r="AE15" s="41">
+        <v>4</v>
+      </c>
+      <c r="AF15" s="41">
         <v>4.6923076923076925</v>
       </c>
-      <c r="AG10" s="51">
-        <f t="shared" si="6"/>
+      <c r="AG15" s="51">
+        <f>0.2*AF15+0.8*AVERAGE(AC15:AE15)</f>
         <v>4.2273504273504274</v>
       </c>
-      <c r="AH10" s="41">
-        <v>4</v>
-      </c>
-      <c r="AI10" s="41">
+      <c r="AH15" s="41">
+        <v>4</v>
+      </c>
+      <c r="AI15" s="41">
         <v>4.7</v>
       </c>
-      <c r="AJ10" s="41">
-        <v>4.5</v>
-      </c>
-      <c r="AK10" s="41">
-        <v>4</v>
-      </c>
-      <c r="AL10" s="41">
+      <c r="AJ15" s="41">
+        <v>4.5</v>
+      </c>
+      <c r="AK15" s="41">
+        <v>4</v>
+      </c>
+      <c r="AL15" s="41">
         <v>4.3</v>
       </c>
-      <c r="AM10" s="51">
-        <f t="shared" si="7"/>
+      <c r="AM15" s="51">
+        <f>AVERAGE(AH15:AL15)</f>
         <v>4.3</v>
       </c>
-      <c r="AN10" s="51">
-        <v>0</v>
-      </c>
-      <c r="AO10" s="41">
-        <f t="shared" si="8"/>
+      <c r="AN15" s="51">
+        <v>0</v>
+      </c>
+      <c r="AO15" s="41">
+        <f>0.3*AN15+0.6*AM15+0.05*AG15+0.05*W15</f>
         <v>3.0054878917378911</v>
       </c>
-      <c r="AP10" s="56">
+      <c r="AP15" s="56">
         <v>1.7175925925925924E-2</v>
       </c>
-      <c r="AQ10" s="59">
-        <f>AP10/0.0221875</f>
+      <c r="AQ15" s="59">
+        <f>AP15/0.0221875</f>
         <v>0.77412623891497123</v>
       </c>
-      <c r="AR10" s="56">
-        <v>0</v>
-      </c>
-      <c r="AS10" s="59">
-        <f>AR10/0.0181481481481481</f>
-        <v>0</v>
-      </c>
-      <c r="AU10" s="56"/>
-    </row>
-    <row r="11" spans="1:47" s="48" customFormat="1" ht="15.75">
-      <c r="A11" s="37">
+      <c r="AR15" s="56">
+        <v>0</v>
+      </c>
+      <c r="AS15" s="59">
+        <f>AR15/0.0181481481481481</f>
+        <v>0</v>
+      </c>
+      <c r="AT15" s="56">
+        <v>4.3287037037037035E-3</v>
+      </c>
+      <c r="AU15" s="59">
+        <f t="shared" ref="AU15:AU18" si="2">AT15/0.0282407407407407</f>
+        <v>0.15327868852459037</v>
+      </c>
+      <c r="AV15"/>
+      <c r="AW15" s="56"/>
+    </row>
+    <row r="16" spans="1:51" ht="15.75">
+      <c r="A16" s="37">
         <v>1007603017</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="B16" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="38" t="s">
+      <c r="C16" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="39" t="s">
+      <c r="D16" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="37">
+      <c r="E16" s="37">
         <v>3</v>
       </c>
-      <c r="F11" s="49" t="s">
+      <c r="F16" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="G11" s="37">
+      <c r="G16" s="37">
         <v>2</v>
-      </c>
-      <c r="H11" s="37" t="str" cm="1">
-        <f t="array" ref="H11">_xlfn.IFS(G11=1, "2:00 PM", G11=2, "2:30 PM", G11=3, "3:00 PM", G11=4, "3:30 PM")</f>
-        <v>2:30 PM</v>
-      </c>
-      <c r="I11" s="40">
-        <v>5</v>
-      </c>
-      <c r="J11" s="37">
-        <v>5</v>
-      </c>
-      <c r="K11" s="41">
-        <v>4.8</v>
-      </c>
-      <c r="L11" s="41">
-        <f t="shared" si="0"/>
-        <v>4.8</v>
-      </c>
-      <c r="M11" s="42">
-        <v>2.76</v>
-      </c>
-      <c r="N11" s="42"/>
-      <c r="O11" s="42">
-        <v>3</v>
-      </c>
-      <c r="P11" s="41">
-        <f t="shared" si="1"/>
-        <v>4.2119999999999997</v>
-      </c>
-      <c r="Q11" s="43">
-        <v>1.8159722222222223E-2</v>
-      </c>
-      <c r="R11" s="44">
-        <f t="shared" si="2"/>
-        <v>0.8716666666666667</v>
-      </c>
-      <c r="S11" s="45">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="T11" s="44">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="U11" s="44">
-        <v>1</v>
-      </c>
-      <c r="V11" s="46">
-        <v>1</v>
-      </c>
-      <c r="W11" s="52">
-        <f t="shared" si="4"/>
-        <v>4.7861111111111114</v>
-      </c>
-      <c r="X11" s="47">
-        <v>4</v>
-      </c>
-      <c r="Y11" s="47"/>
-      <c r="Z11" s="47"/>
-      <c r="AA11" s="47">
-        <v>5</v>
-      </c>
-      <c r="AB11" s="47"/>
-      <c r="AC11" s="47">
-        <f t="shared" si="5"/>
-        <v>4.5</v>
-      </c>
-      <c r="AD11" s="41">
-        <v>4</v>
-      </c>
-      <c r="AE11" s="41">
-        <v>4</v>
-      </c>
-      <c r="AF11" s="41">
-        <v>4.615384615384615</v>
-      </c>
-      <c r="AG11" s="51">
-        <f t="shared" si="6"/>
-        <v>4.2564102564102573</v>
-      </c>
-      <c r="AH11" s="41">
-        <v>4</v>
-      </c>
-      <c r="AI11" s="41">
-        <v>4.7</v>
-      </c>
-      <c r="AJ11" s="41">
-        <v>4.5</v>
-      </c>
-      <c r="AK11" s="41">
-        <v>4</v>
-      </c>
-      <c r="AL11" s="41">
-        <v>4.3</v>
-      </c>
-      <c r="AM11" s="51">
-        <f t="shared" si="7"/>
-        <v>4.3</v>
-      </c>
-      <c r="AN11" s="51">
-        <v>0</v>
-      </c>
-      <c r="AO11" s="41">
-        <f t="shared" si="8"/>
-        <v>3.0321260683760682</v>
-      </c>
-      <c r="AP11" s="56">
-        <v>2.1921296296296296E-2</v>
-      </c>
-      <c r="AQ11" s="59">
-        <f>AP11/0.0221875</f>
-        <v>0.98800208659363598</v>
-      </c>
-      <c r="AR11" s="56">
-        <v>1.7962962962962962E-2</v>
-      </c>
-      <c r="AS11" s="59">
-        <f>AR11/0.0181481481481481</f>
-        <v>0.98979591836734948</v>
-      </c>
-      <c r="AU11" s="56"/>
-    </row>
-    <row r="12" spans="1:47">
-      <c r="A12" s="3">
-        <v>1081728000</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" s="3">
-        <v>3</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G12" s="3">
-        <v>2</v>
-      </c>
-      <c r="H12" s="3" t="str" cm="1">
-        <f t="array" ref="H12">_xlfn.IFS(G12=1, "2:00 PM", G12=2, "2:30 PM", G12=3, "3:00 PM", G12=4, "3:30 PM")</f>
-        <v>2:30 PM</v>
-      </c>
-      <c r="I12" s="14">
-        <v>5</v>
-      </c>
-      <c r="J12" s="3">
-        <v>5</v>
-      </c>
-      <c r="K12" s="5">
-        <v>4.8</v>
-      </c>
-      <c r="L12" s="5">
-        <f t="shared" si="0"/>
-        <v>4.8</v>
-      </c>
-      <c r="M12" s="12">
-        <v>2.76</v>
-      </c>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12">
-        <v>3</v>
-      </c>
-      <c r="P12" s="5">
-        <f t="shared" si="1"/>
-        <v>4.2119999999999997</v>
-      </c>
-      <c r="Q12" s="31">
-        <v>9.9305555555555553E-3</v>
-      </c>
-      <c r="R12" s="32">
-        <f t="shared" si="2"/>
-        <v>0.47666666666666668</v>
-      </c>
-      <c r="S12" s="33">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="T12" s="32">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="U12" s="32">
-        <v>1</v>
-      </c>
-      <c r="V12" s="34">
-        <v>1</v>
-      </c>
-      <c r="W12" s="12">
-        <f t="shared" si="4"/>
-        <v>4.1277777777777773</v>
-      </c>
-      <c r="X12" s="35">
-        <v>2</v>
-      </c>
-      <c r="Y12" s="35"/>
-      <c r="Z12" s="35"/>
-      <c r="AA12" s="35">
-        <v>1</v>
-      </c>
-      <c r="AB12" s="35"/>
-      <c r="AC12" s="35">
-        <f t="shared" si="5"/>
-        <v>1.5</v>
-      </c>
-      <c r="AD12" s="5">
-        <v>4</v>
-      </c>
-      <c r="AE12" s="5">
-        <v>4</v>
-      </c>
-      <c r="AF12" s="5">
-        <v>4.615384615384615</v>
-      </c>
-      <c r="AG12" s="5">
-        <f t="shared" si="6"/>
-        <v>3.4564102564102561</v>
-      </c>
-      <c r="AH12" s="5">
-        <v>4</v>
-      </c>
-      <c r="AI12" s="5">
-        <v>4.7</v>
-      </c>
-      <c r="AJ12" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="AK12" s="5">
-        <v>4</v>
-      </c>
-      <c r="AL12" s="5">
-        <v>4.3</v>
-      </c>
-      <c r="AM12" s="5">
-        <f t="shared" si="7"/>
-        <v>4.3</v>
-      </c>
-      <c r="AN12" s="5">
-        <v>0</v>
-      </c>
-      <c r="AO12" s="5">
-        <f t="shared" si="8"/>
-        <v>2.9592094017094013</v>
-      </c>
-      <c r="AP12" s="56">
-        <v>1.9305555555555555E-2</v>
-      </c>
-      <c r="AQ12" s="59">
-        <f>AP12/0.0221875</f>
-        <v>0.87010954616588421</v>
-      </c>
-      <c r="AR12" s="56">
-        <v>1.3553240740740741E-2</v>
-      </c>
-      <c r="AS12" s="59">
-        <f>AR12/0.0181481481481481</f>
-        <v>0.74681122448979786</v>
-      </c>
-      <c r="AU12" s="56"/>
-    </row>
-    <row r="13" spans="1:47" s="48" customFormat="1">
-      <c r="A13" s="3">
-        <v>1219713263</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="3">
-        <v>3</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G13" s="3">
-        <v>2</v>
-      </c>
-      <c r="H13" s="3" t="str" cm="1">
-        <f t="array" ref="H13">_xlfn.IFS(G13=1, "2:00 PM", G13=2, "2:30 PM", G13=3, "3:00 PM", G13=4, "3:30 PM")</f>
-        <v>2:30 PM</v>
-      </c>
-      <c r="I13" s="14">
-        <v>6</v>
-      </c>
-      <c r="J13" s="3">
-        <v>6</v>
-      </c>
-      <c r="K13" s="5">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="L13" s="5">
-        <f t="shared" si="0"/>
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="M13" s="12">
-        <v>2.76</v>
-      </c>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12">
-        <v>3</v>
-      </c>
-      <c r="P13" s="5">
-        <f t="shared" si="1"/>
-        <v>4.282</v>
-      </c>
-      <c r="Q13" s="31">
-        <v>0</v>
-      </c>
-      <c r="R13" s="32">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S13" s="33">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="T13" s="32">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="U13" s="32">
-        <v>1</v>
-      </c>
-      <c r="V13" s="34">
-        <v>0</v>
-      </c>
-      <c r="W13" s="12">
-        <v>3</v>
-      </c>
-      <c r="X13" s="35">
-        <v>2</v>
-      </c>
-      <c r="Y13" s="35">
-        <v>1</v>
-      </c>
-      <c r="Z13" s="35"/>
-      <c r="AA13" s="35">
-        <v>3</v>
-      </c>
-      <c r="AB13" s="35"/>
-      <c r="AC13" s="35">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="AD13" s="5">
-        <v>4</v>
-      </c>
-      <c r="AE13" s="5">
-        <v>4</v>
-      </c>
-      <c r="AF13" s="5">
-        <v>4.5384615384615383</v>
-      </c>
-      <c r="AG13" s="5">
-        <f t="shared" si="6"/>
-        <v>3.5743589743589745</v>
-      </c>
-      <c r="AH13" s="5">
-        <v>4</v>
-      </c>
-      <c r="AI13" s="5">
-        <v>4.7</v>
-      </c>
-      <c r="AJ13" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="AK13" s="5">
-        <v>4</v>
-      </c>
-      <c r="AL13" s="5">
-        <v>4.3</v>
-      </c>
-      <c r="AM13" s="5">
-        <f t="shared" si="7"/>
-        <v>4.3</v>
-      </c>
-      <c r="AN13" s="5">
-        <v>0</v>
-      </c>
-      <c r="AO13" s="5">
-        <v>3</v>
-      </c>
-      <c r="AP13" s="56">
-        <v>2.2037037037037036E-2</v>
-      </c>
-      <c r="AQ13" s="59">
-        <f>AP13/0.0221875</f>
-        <v>0.99321857068335939</v>
-      </c>
-      <c r="AR13" s="56">
-        <v>1.8113425925925925E-2</v>
-      </c>
-      <c r="AS13" s="59">
-        <f>AR13/0.0181481481481481</f>
-        <v>0.9980867346938801</v>
-      </c>
-      <c r="AT13"/>
-      <c r="AU13" s="56"/>
-    </row>
-    <row r="14" spans="1:47">
-      <c r="A14" s="3">
-        <v>1025642375</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="3">
-        <v>4</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G14" s="3">
-        <v>3</v>
-      </c>
-      <c r="H14" s="3" t="str" cm="1">
-        <f t="array" ref="H14">_xlfn.IFS(G14=1, "2:00 PM", G14=2, "2:30 PM", G14=3, "3:00 PM", G14=4, "3:30 PM")</f>
-        <v>3:00 PM</v>
-      </c>
-      <c r="I14" s="14">
-        <v>5</v>
-      </c>
-      <c r="J14" s="3">
-        <v>5</v>
-      </c>
-      <c r="K14" s="3">
-        <v>4.7</v>
-      </c>
-      <c r="L14" s="5">
-        <f t="shared" si="0"/>
-        <v>4.7</v>
-      </c>
-      <c r="M14" s="12">
-        <v>2.96</v>
-      </c>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12">
-        <v>3.5</v>
-      </c>
-      <c r="P14" s="5">
-        <f t="shared" si="1"/>
-        <v>4.2320000000000002</v>
-      </c>
-      <c r="Q14" s="31">
-        <v>2.0243055555555556E-2</v>
-      </c>
-      <c r="R14" s="32">
-        <f t="shared" si="2"/>
-        <v>0.97166666666666668</v>
-      </c>
-      <c r="S14" s="33">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="T14" s="32">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="U14" s="32">
-        <v>1</v>
-      </c>
-      <c r="V14" s="34">
-        <v>1</v>
-      </c>
-      <c r="W14" s="12">
-        <f>AVERAGE(R14,T14,V14)*5</f>
-        <v>4.9527777777777775</v>
-      </c>
-      <c r="X14" s="35"/>
-      <c r="Y14" s="35"/>
-      <c r="Z14" s="35"/>
-      <c r="AA14" s="35"/>
-      <c r="AB14" s="35"/>
-      <c r="AC14" s="35">
-        <v>0</v>
-      </c>
-      <c r="AD14" s="5"/>
-      <c r="AE14" s="5"/>
-      <c r="AF14" s="5">
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="AG14" s="5">
-        <f t="shared" si="6"/>
-        <v>0.46666666666666673</v>
-      </c>
-      <c r="AH14" s="5">
-        <v>4.8</v>
-      </c>
-      <c r="AI14" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="AJ14" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="AK14" s="5">
-        <v>3.5</v>
-      </c>
-      <c r="AL14" s="5">
-        <v>3</v>
-      </c>
-      <c r="AM14" s="5">
-        <f t="shared" si="7"/>
-        <v>4.0600000000000005</v>
-      </c>
-      <c r="AN14" s="5">
-        <v>4</v>
-      </c>
-      <c r="AO14" s="36">
-        <f>0.3*AN14+0.7*AM14</f>
-        <v>4.0419999999999998</v>
-      </c>
-      <c r="AP14" s="56">
-        <v>2.255787037037037E-2</v>
-      </c>
-      <c r="AQ14" s="58">
-        <f>AP14/0.0252083333333333</f>
-        <v>0.89485766758494145</v>
-      </c>
-      <c r="AR14" s="56">
-        <v>2.3622685185185184E-2</v>
-      </c>
-      <c r="AS14" s="58">
-        <f>AR14/0.0236226851851852</f>
-        <v>0.99999999999999922</v>
-      </c>
-      <c r="AU14" s="56"/>
-    </row>
-    <row r="15" spans="1:47" s="48" customFormat="1">
-      <c r="A15" s="3">
-        <v>1193073115</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="3">
-        <v>4</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G15" s="3">
-        <v>3</v>
-      </c>
-      <c r="H15" s="3" t="str" cm="1">
-        <f t="array" ref="H15">_xlfn.IFS(G15=1, "2:00 PM", G15=2, "2:30 PM", G15=3, "3:00 PM", G15=4, "3:30 PM")</f>
-        <v>3:00 PM</v>
-      </c>
-      <c r="I15" s="14">
-        <v>4</v>
-      </c>
-      <c r="J15" s="3">
-        <v>4</v>
-      </c>
-      <c r="K15" s="5">
-        <v>4.8</v>
-      </c>
-      <c r="L15" s="5">
-        <f t="shared" si="0"/>
-        <v>4.8</v>
-      </c>
-      <c r="M15" s="12">
-        <v>2.96</v>
-      </c>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12">
-        <v>3.5</v>
-      </c>
-      <c r="P15" s="5">
-        <f t="shared" si="1"/>
-        <v>4.3019999999999996</v>
-      </c>
-      <c r="Q15" s="31">
-        <v>2.0532407407407409E-2</v>
-      </c>
-      <c r="R15" s="32">
-        <f t="shared" si="2"/>
-        <v>0.98555555555555563</v>
-      </c>
-      <c r="S15" s="33">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="T15" s="32">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="U15" s="32">
-        <v>1</v>
-      </c>
-      <c r="V15" s="34">
-        <v>1</v>
-      </c>
-      <c r="W15" s="12">
-        <f>AVERAGE(R15,T15,V15)*5</f>
-        <v>4.9759259259259263</v>
-      </c>
-      <c r="X15" s="35">
-        <v>5</v>
-      </c>
-      <c r="Y15" s="35">
-        <v>5</v>
-      </c>
-      <c r="Z15" s="35">
-        <v>5</v>
-      </c>
-      <c r="AA15" s="35"/>
-      <c r="AB15" s="35"/>
-      <c r="AC15" s="35">
-        <f>AVERAGE(X15:AB15)</f>
-        <v>5</v>
-      </c>
-      <c r="AD15" s="5">
-        <v>5</v>
-      </c>
-      <c r="AE15" s="5">
-        <v>4</v>
-      </c>
-      <c r="AF15" s="5">
-        <v>4.833333333333333</v>
-      </c>
-      <c r="AG15" s="5">
-        <f t="shared" si="6"/>
-        <v>4.7</v>
-      </c>
-      <c r="AH15" s="5">
-        <v>4.8</v>
-      </c>
-      <c r="AI15" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="AJ15" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="AK15" s="5">
-        <v>3.5</v>
-      </c>
-      <c r="AL15" s="5">
-        <v>3</v>
-      </c>
-      <c r="AM15" s="5">
-        <f t="shared" si="7"/>
-        <v>4.0600000000000005</v>
-      </c>
-      <c r="AN15" s="5">
-        <v>4</v>
-      </c>
-      <c r="AO15" s="5">
-        <f>0.3*AN15+0.6*AM15+0.05*AG15+0.05*W15</f>
-        <v>4.119796296296296</v>
-      </c>
-      <c r="AP15" s="56">
-        <v>2.5208333333333333E-2</v>
-      </c>
-      <c r="AQ15" s="58">
-        <f>AP15/0.0252083333333333</f>
-        <v>1.0000000000000013</v>
-      </c>
-      <c r="AR15" s="56">
-        <v>2.2731481481481481E-2</v>
-      </c>
-      <c r="AS15" s="58">
-        <f>AR15/0.0236226851851852</f>
-        <v>0.96227339539441381</v>
-      </c>
-      <c r="AU15" s="56"/>
-    </row>
-    <row r="16" spans="1:47">
-      <c r="A16" s="37">
-        <v>1005894053</v>
-      </c>
-      <c r="B16" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="E16" s="37">
-        <v>4</v>
-      </c>
-      <c r="F16" s="38" t="s">
-        <v>94</v>
-      </c>
-      <c r="G16" s="37">
-        <v>3</v>
       </c>
       <c r="H16" s="37" t="str" cm="1">
         <f t="array" ref="H16">_xlfn.IFS(G16=1, "2:00 PM", G16=2, "2:30 PM", G16=3, "3:00 PM", G16=4, "3:30 PM")</f>
-        <v>3:00 PM</v>
+        <v>2:30 PM</v>
       </c>
       <c r="I16" s="40">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J16" s="37">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K16" s="41">
-        <v>4.5999999999999996</v>
+        <v>4.8</v>
       </c>
       <c r="L16" s="41">
-        <f t="shared" si="0"/>
-        <v>4.5999999999999996</v>
+        <f>(J16/I16)*K16</f>
+        <v>4.8</v>
       </c>
       <c r="M16" s="42">
-        <v>2.96</v>
+        <v>2.76</v>
       </c>
       <c r="N16" s="42"/>
       <c r="O16" s="42">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P16" s="41">
-        <f t="shared" si="1"/>
-        <v>4.1619999999999999</v>
+        <f>0.7*L16+0.2*M16+0.1*O16+N16</f>
+        <v>4.2119999999999997</v>
       </c>
       <c r="Q16" s="43">
-        <v>2.1342592592592594E-2</v>
+        <v>1.8159722222222223E-2</v>
       </c>
       <c r="R16" s="44">
-        <f t="shared" si="2"/>
-        <v>1.0244444444444445</v>
+        <f>Q16/$R$2</f>
+        <v>0.8716666666666667</v>
       </c>
       <c r="S16" s="45">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="T16" s="44">
-        <f t="shared" si="3"/>
+        <f>S16/$T$2</f>
         <v>1</v>
       </c>
       <c r="U16" s="44">
@@ -3375,294 +3503,323 @@
         <v>1</v>
       </c>
       <c r="W16" s="52">
-        <v>5</v>
+        <f>AVERAGE(R16,T16,V16)*5</f>
+        <v>4.7861111111111114</v>
       </c>
       <c r="X16" s="47">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Y16" s="47"/>
       <c r="Z16" s="47"/>
-      <c r="AA16" s="47"/>
+      <c r="AA16" s="47">
+        <v>5</v>
+      </c>
       <c r="AB16" s="47"/>
       <c r="AC16" s="47">
         <f>AVERAGE(X16:AB16)</f>
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AD16" s="41">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="AE16" s="41">
         <v>4</v>
       </c>
       <c r="AF16" s="41">
-        <v>4.666666666666667</v>
+        <v>4.615384615384615</v>
       </c>
       <c r="AG16" s="51">
-        <f t="shared" si="6"/>
-        <v>4.5333333333333332</v>
+        <f>0.2*AF16+0.8*AVERAGE(AC16:AE16)</f>
+        <v>4.2564102564102573</v>
       </c>
       <c r="AH16" s="41">
-        <v>4.8</v>
+        <v>4</v>
       </c>
       <c r="AI16" s="41">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="AJ16" s="41">
         <v>4.5</v>
       </c>
       <c r="AK16" s="41">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="AL16" s="41">
-        <v>3</v>
+        <v>4.3</v>
       </c>
       <c r="AM16" s="51">
-        <f t="shared" si="7"/>
-        <v>4.0600000000000005</v>
+        <f>AVERAGE(AH16:AL16)</f>
+        <v>4.3</v>
       </c>
       <c r="AN16" s="51">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="41">
         <f>0.3*AN16+0.6*AM16+0.05*AG16+0.05*W16</f>
-        <v>4.1126666666666667</v>
+        <v>3.0321260683760682</v>
       </c>
       <c r="AP16" s="56">
-        <v>1.7777777777777778E-2</v>
-      </c>
-      <c r="AQ16" s="58">
-        <f>AP16/0.0252083333333333</f>
-        <v>0.70523415977961523</v>
+        <v>2.1921296296296296E-2</v>
+      </c>
+      <c r="AQ16" s="59">
+        <f>AP16/0.0221875</f>
+        <v>0.98800208659363598</v>
       </c>
       <c r="AR16" s="56">
-        <v>2.1342592592592594E-2</v>
-      </c>
-      <c r="AS16" s="58">
-        <f>AR16/0.0236226851851852</f>
-        <v>0.90347868691817679</v>
-      </c>
-      <c r="AU16" s="56"/>
-    </row>
-    <row r="17" spans="1:47" s="48" customFormat="1">
-      <c r="A17" s="37">
-        <v>1193578885</v>
-      </c>
-      <c r="B17" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="37">
-        <v>4</v>
-      </c>
-      <c r="F17" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="G17" s="37">
+        <v>1.7962962962962962E-2</v>
+      </c>
+      <c r="AS16" s="59">
+        <f>AR16/0.0181481481481481</f>
+        <v>0.98979591836734948</v>
+      </c>
+      <c r="AT16" s="56">
+        <v>2.1087962962962965E-2</v>
+      </c>
+      <c r="AU16" s="59">
+        <f t="shared" si="2"/>
+        <v>0.74672131147541088</v>
+      </c>
+      <c r="AW16" s="56"/>
+    </row>
+    <row r="17" spans="1:51" s="48" customFormat="1">
+      <c r="A17" s="3">
+        <v>1081728000</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="3">
         <v>3</v>
       </c>
-      <c r="H17" s="37" t="str" cm="1">
+      <c r="F17" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G17" s="3">
+        <v>2</v>
+      </c>
+      <c r="H17" s="3" t="str" cm="1">
         <f t="array" ref="H17">_xlfn.IFS(G17=1, "2:00 PM", G17=2, "2:30 PM", G17=3, "3:00 PM", G17=4, "3:30 PM")</f>
-        <v>3:00 PM</v>
-      </c>
-      <c r="I17" s="40">
-        <v>4</v>
-      </c>
-      <c r="J17" s="37">
-        <v>4</v>
-      </c>
-      <c r="K17" s="41">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="L17" s="41">
-        <f t="shared" si="0"/>
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="M17" s="42">
-        <v>2.96</v>
-      </c>
-      <c r="N17" s="42"/>
-      <c r="O17" s="42">
-        <v>3.5</v>
-      </c>
-      <c r="P17" s="41">
-        <f t="shared" si="1"/>
-        <v>4.1619999999999999</v>
-      </c>
-      <c r="Q17" s="43">
-        <v>1.951388888888889E-2</v>
-      </c>
-      <c r="R17" s="44">
+        <v>2:30 PM</v>
+      </c>
+      <c r="I17" s="14">
+        <v>5</v>
+      </c>
+      <c r="J17" s="3">
+        <v>5</v>
+      </c>
+      <c r="K17" s="5">
+        <v>4.8</v>
+      </c>
+      <c r="L17" s="5">
+        <f>(J17/I17)*K17</f>
+        <v>4.8</v>
+      </c>
+      <c r="M17" s="12">
+        <v>2.76</v>
+      </c>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12">
+        <v>3</v>
+      </c>
+      <c r="P17" s="5">
+        <f>0.7*L17+0.2*M17+0.1*O17+N17</f>
+        <v>4.2119999999999997</v>
+      </c>
+      <c r="Q17" s="31">
+        <v>9.9305555555555553E-3</v>
+      </c>
+      <c r="R17" s="32">
+        <f>Q17/$R$2</f>
+        <v>0.47666666666666668</v>
+      </c>
+      <c r="S17" s="33">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="T17" s="32">
+        <f>S17/$T$2</f>
+        <v>1</v>
+      </c>
+      <c r="U17" s="32">
+        <v>1</v>
+      </c>
+      <c r="V17" s="34">
+        <v>1</v>
+      </c>
+      <c r="W17" s="12">
+        <f>AVERAGE(R17,T17,V17)*5</f>
+        <v>4.1277777777777773</v>
+      </c>
+      <c r="X17" s="35">
+        <v>2</v>
+      </c>
+      <c r="Y17" s="35"/>
+      <c r="Z17" s="35"/>
+      <c r="AA17" s="35">
+        <v>1</v>
+      </c>
+      <c r="AB17" s="35"/>
+      <c r="AC17" s="35">
+        <f>AVERAGE(X17:AB17)</f>
+        <v>1.5</v>
+      </c>
+      <c r="AD17" s="5">
+        <v>4</v>
+      </c>
+      <c r="AE17" s="5">
+        <v>4</v>
+      </c>
+      <c r="AF17" s="5">
+        <v>4.615384615384615</v>
+      </c>
+      <c r="AG17" s="5">
+        <f>0.2*AF17+0.8*AVERAGE(AC17:AE17)</f>
+        <v>3.4564102564102561</v>
+      </c>
+      <c r="AH17" s="5">
+        <v>4</v>
+      </c>
+      <c r="AI17" s="5">
+        <v>4.7</v>
+      </c>
+      <c r="AJ17" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="AK17" s="5">
+        <v>4</v>
+      </c>
+      <c r="AL17" s="5">
+        <v>4.3</v>
+      </c>
+      <c r="AM17" s="5">
+        <f>AVERAGE(AH17:AL17)</f>
+        <v>4.3</v>
+      </c>
+      <c r="AN17" s="5">
+        <v>0</v>
+      </c>
+      <c r="AO17" s="5">
+        <f>0.3*AN17+0.6*AM17+0.05*AG17+0.05*W17</f>
+        <v>2.9592094017094013</v>
+      </c>
+      <c r="AP17" s="56">
+        <v>1.9305555555555555E-2</v>
+      </c>
+      <c r="AQ17" s="59">
+        <f>AP17/0.0221875</f>
+        <v>0.87010954616588421</v>
+      </c>
+      <c r="AR17" s="56">
+        <v>1.3553240740740741E-2</v>
+      </c>
+      <c r="AS17" s="59">
+        <f>AR17/0.0181481481481481</f>
+        <v>0.74681122448979786</v>
+      </c>
+      <c r="AT17" s="56">
+        <v>2.5300925925925925E-2</v>
+      </c>
+      <c r="AU17" s="59">
         <f t="shared" si="2"/>
-        <v>0.93666666666666676</v>
-      </c>
-      <c r="S17" s="45">
-        <v>0</v>
-      </c>
-      <c r="T17" s="44">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U17" s="44">
-        <v>1</v>
-      </c>
-      <c r="V17" s="46">
-        <v>1</v>
-      </c>
-      <c r="W17" s="52">
-        <f>AVERAGE(R17,T17,V17)*5</f>
-        <v>3.2277777777777779</v>
-      </c>
-      <c r="X17" s="47"/>
-      <c r="Y17" s="47"/>
-      <c r="Z17" s="47"/>
-      <c r="AA17" s="47"/>
-      <c r="AB17" s="47"/>
-      <c r="AC17" s="47">
-        <v>0</v>
-      </c>
-      <c r="AD17" s="41"/>
-      <c r="AE17" s="41"/>
-      <c r="AF17" s="41">
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="AG17" s="51">
-        <f t="shared" si="6"/>
-        <v>0.46666666666666673</v>
-      </c>
-      <c r="AH17" s="41">
-        <v>4.8</v>
-      </c>
-      <c r="AI17" s="41">
-        <v>4.5</v>
-      </c>
-      <c r="AJ17" s="41">
-        <v>4.5</v>
-      </c>
-      <c r="AK17" s="41">
-        <v>3.5</v>
-      </c>
-      <c r="AL17" s="41">
+        <v>0.89590163934426348</v>
+      </c>
+      <c r="AV17"/>
+      <c r="AW17" s="56"/>
+      <c r="AX17"/>
+      <c r="AY17"/>
+    </row>
+    <row r="18" spans="1:51">
+      <c r="A18" s="3">
+        <v>1219713263</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="3">
         <v>3</v>
       </c>
-      <c r="AM17" s="51">
-        <f t="shared" si="7"/>
-        <v>4.0600000000000005</v>
-      </c>
-      <c r="AN17" s="51">
-        <v>4</v>
-      </c>
-      <c r="AO17" s="36">
-        <f>0.3*AN17+0.7*AM17</f>
-        <v>4.0419999999999998</v>
-      </c>
-      <c r="AP17" s="56">
-        <v>2.3252314814814816E-2</v>
-      </c>
-      <c r="AQ17" s="58">
-        <f>AP17/0.0252083333333333</f>
-        <v>0.92240587695133269</v>
-      </c>
-      <c r="AR17" s="56">
-        <v>2.101851851851852E-2</v>
-      </c>
-      <c r="AS17" s="58">
-        <f>AR17/0.0236226851851852</f>
-        <v>0.88975992160705475</v>
-      </c>
-      <c r="AT17"/>
-      <c r="AU17" s="56"/>
-    </row>
-    <row r="18" spans="1:47">
-      <c r="A18" s="3">
-        <v>1005967544</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="3">
-        <v>1</v>
-      </c>
       <c r="F18" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G18" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H18" s="3" t="str" cm="1">
         <f t="array" ref="H18">_xlfn.IFS(G18=1, "2:00 PM", G18=2, "2:30 PM", G18=3, "3:00 PM", G18=4, "3:30 PM")</f>
-        <v>3:30 PM</v>
+        <v>2:30 PM</v>
       </c>
       <c r="I18" s="14">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J18" s="3">
-        <v>1</v>
-      </c>
-      <c r="K18" s="3">
-        <v>4.5999999999999996</v>
+        <v>6</v>
+      </c>
+      <c r="K18" s="5">
+        <v>4.9000000000000004</v>
       </c>
       <c r="L18" s="5">
-        <f t="shared" si="0"/>
-        <v>4.5999999999999996</v>
+        <f>(J18/I18)*K18</f>
+        <v>4.9000000000000004</v>
       </c>
       <c r="M18" s="12">
-        <v>3.59</v>
+        <v>2.76</v>
       </c>
       <c r="N18" s="12"/>
       <c r="O18" s="12">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="P18" s="5">
-        <f t="shared" si="1"/>
-        <v>4.3879999999999999</v>
+        <f>0.7*L18+0.2*M18+0.1*O18+N18</f>
+        <v>4.282</v>
       </c>
       <c r="Q18" s="31">
-        <v>1.3935185185185186E-2</v>
+        <v>0</v>
       </c>
       <c r="R18" s="32">
-        <f t="shared" si="2"/>
-        <v>0.66888888888888898</v>
+        <f>Q18/$R$2</f>
+        <v>0</v>
       </c>
       <c r="S18" s="33">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="T18" s="32">
-        <f t="shared" si="3"/>
+        <f>S18/$T$2</f>
         <v>1</v>
       </c>
       <c r="U18" s="32">
         <v>1</v>
       </c>
       <c r="V18" s="34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W18" s="12">
-        <f>AVERAGE(R18,T18,V18)*5</f>
-        <v>4.4481481481481486</v>
-      </c>
-      <c r="X18" s="35"/>
+        <v>3</v>
+      </c>
+      <c r="X18" s="35">
+        <v>2</v>
+      </c>
       <c r="Y18" s="35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z18" s="35"/>
       <c r="AA18" s="35">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB18" s="35"/>
       <c r="AC18" s="35">
         <f>AVERAGE(X18:AB18)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD18" s="5">
         <v>4</v>
@@ -3671,116 +3828,124 @@
         <v>4</v>
       </c>
       <c r="AF18" s="5">
-        <v>4.916666666666667</v>
+        <v>4.5384615384615383</v>
       </c>
       <c r="AG18" s="5">
-        <f t="shared" si="6"/>
-        <v>3.1166666666666667</v>
+        <f>0.2*AF18+0.8*AVERAGE(AC18:AE18)</f>
+        <v>3.5743589743589745</v>
       </c>
       <c r="AH18" s="5">
+        <v>4</v>
+      </c>
+      <c r="AI18" s="5">
+        <v>4.7</v>
+      </c>
+      <c r="AJ18" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="AK18" s="5">
+        <v>4</v>
+      </c>
+      <c r="AL18" s="5">
         <v>4.3</v>
       </c>
-      <c r="AI18" s="5">
-        <v>4</v>
-      </c>
-      <c r="AJ18" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="AK18" s="5">
-        <v>4.8</v>
-      </c>
-      <c r="AL18" s="5">
-        <v>4.5</v>
-      </c>
       <c r="AM18" s="5">
-        <f t="shared" si="7"/>
-        <v>4.42</v>
+        <f>AVERAGE(AH18:AL18)</f>
+        <v>4.3</v>
       </c>
       <c r="AN18" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="5">
-        <f>0.3*AN18+0.6*AM18+0.05*AG18+0.05*W18</f>
-        <v>4.230240740740741</v>
-      </c>
-      <c r="AP18" s="56">
-        <v>1.6909722222222222E-2</v>
-      </c>
-      <c r="AQ18" s="58">
-        <f>AP18/0.0170138888888889</f>
-        <v>0.99387755102040742</v>
+        <v>3</v>
+      </c>
+      <c r="AP18" s="60">
+        <v>2.2037037037037036E-2</v>
+      </c>
+      <c r="AQ18" s="59">
+        <f>AP18/0.0221875</f>
+        <v>0.99321857068335939</v>
       </c>
       <c r="AR18" s="56">
-        <v>0</v>
-      </c>
-      <c r="AS18" s="58">
-        <f>AR18/0.0163310185185185</f>
-        <v>0</v>
-      </c>
-      <c r="AU18" s="56"/>
-    </row>
-    <row r="19" spans="1:47" s="48" customFormat="1">
+        <v>1.8113425925925925E-2</v>
+      </c>
+      <c r="AS18" s="59">
+        <f>AR18/0.0181481481481481</f>
+        <v>0.9980867346938801</v>
+      </c>
+      <c r="AT18" s="56">
+        <v>2.824074074074074E-2</v>
+      </c>
+      <c r="AU18" s="59">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000013</v>
+      </c>
+      <c r="AW18" s="56"/>
+      <c r="AX18" s="48"/>
+      <c r="AY18" s="48"/>
+    </row>
+    <row r="19" spans="1:51" s="48" customFormat="1">
       <c r="A19" s="3">
-        <v>1107836732</v>
+        <v>1025642375</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E19" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="G19" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H19" s="3" t="str" cm="1">
         <f t="array" ref="H19">_xlfn.IFS(G19=1, "2:00 PM", G19=2, "2:30 PM", G19=3, "3:00 PM", G19=4, "3:30 PM")</f>
-        <v>3:30 PM</v>
+        <v>3:00 PM</v>
       </c>
       <c r="I19" s="14">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J19" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K19" s="3">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="L19" s="5">
-        <f t="shared" si="0"/>
-        <v>4.5</v>
+        <f>(J19/I19)*K19</f>
+        <v>4.7</v>
       </c>
       <c r="M19" s="12">
-        <v>3.59</v>
+        <v>2.96</v>
       </c>
       <c r="N19" s="12"/>
       <c r="O19" s="12">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P19" s="5">
-        <f t="shared" si="1"/>
-        <v>4.3179999999999996</v>
+        <f>0.7*L19+0.2*M19+0.1*O19+N19</f>
+        <v>4.2320000000000002</v>
       </c>
       <c r="Q19" s="31">
-        <v>1.474537037037037E-2</v>
+        <v>2.0243055555555556E-2</v>
       </c>
       <c r="R19" s="32">
-        <f t="shared" si="2"/>
-        <v>0.70777777777777784</v>
+        <f>Q19/$R$2</f>
+        <v>0.97166666666666668</v>
       </c>
       <c r="S19" s="33">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="T19" s="32">
-        <f t="shared" si="3"/>
+        <f>S19/$T$2</f>
         <v>1</v>
       </c>
       <c r="U19" s="32">
@@ -3791,499 +3956,521 @@
       </c>
       <c r="W19" s="12">
         <f>AVERAGE(R19,T19,V19)*5</f>
-        <v>4.5129629629629626</v>
+        <v>4.9527777777777775</v>
       </c>
       <c r="X19" s="35"/>
       <c r="Y19" s="35"/>
       <c r="Z19" s="35"/>
-      <c r="AA19" s="35">
-        <v>4</v>
-      </c>
+      <c r="AA19" s="35"/>
       <c r="AB19" s="35"/>
       <c r="AC19" s="35">
-        <f>AVERAGE(X19:AB19)</f>
-        <v>4</v>
-      </c>
-      <c r="AD19" s="5">
-        <v>4</v>
-      </c>
-      <c r="AE19" s="5">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AD19" s="5"/>
+      <c r="AE19" s="5"/>
       <c r="AF19" s="5">
-        <v>4.0769230769230766</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="AG19" s="5">
-        <f>0.3*AF19+0.7*AVERAGE(AC19:AE19)</f>
-        <v>3.0897435897435894</v>
+        <f>0.2*AF19+0.8*AVERAGE(AC19:AE19)</f>
+        <v>0.46666666666666673</v>
       </c>
       <c r="AH19" s="5">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
       <c r="AI19" s="5">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="AJ19" s="5">
         <v>4.5</v>
       </c>
       <c r="AK19" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="AL19" s="5">
+        <v>3</v>
+      </c>
+      <c r="AM19" s="5">
+        <f>AVERAGE(AH19:AL19)</f>
+        <v>4.0600000000000005</v>
+      </c>
+      <c r="AN19" s="5">
+        <v>4</v>
+      </c>
+      <c r="AO19" s="36">
+        <f>0.3*AN19+0.7*AM19</f>
+        <v>4.0419999999999998</v>
+      </c>
+      <c r="AP19" s="56">
+        <v>2.255787037037037E-2</v>
+      </c>
+      <c r="AQ19" s="58">
+        <f>AP19/0.0252083333333333</f>
+        <v>0.89485766758494145</v>
+      </c>
+      <c r="AR19" s="56">
+        <v>2.3622685185185184E-2</v>
+      </c>
+      <c r="AS19" s="58">
+        <f>AR19/0.0236226851851852</f>
+        <v>0.99999999999999922</v>
+      </c>
+      <c r="AT19" s="56">
+        <v>2.7731481481481482E-2</v>
+      </c>
+      <c r="AU19" s="58">
+        <f>AT19/0.0277314814814815</f>
+        <v>0.99999999999999933</v>
+      </c>
+      <c r="AV19"/>
+      <c r="AW19" s="56"/>
+      <c r="AX19"/>
+      <c r="AY19"/>
+    </row>
+    <row r="20" spans="1:51">
+      <c r="A20" s="3">
+        <v>1193073115</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="3">
+        <v>4</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G20" s="3">
+        <v>3</v>
+      </c>
+      <c r="H20" s="3" t="str" cm="1">
+        <f t="array" ref="H20">_xlfn.IFS(G20=1, "2:00 PM", G20=2, "2:30 PM", G20=3, "3:00 PM", G20=4, "3:30 PM")</f>
+        <v>3:00 PM</v>
+      </c>
+      <c r="I20" s="14">
+        <v>4</v>
+      </c>
+      <c r="J20" s="3">
+        <v>4</v>
+      </c>
+      <c r="K20" s="5">
         <v>4.8</v>
       </c>
-      <c r="AL19" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="AM19" s="5">
-        <f t="shared" si="7"/>
-        <v>4.42</v>
-      </c>
-      <c r="AN19" s="5">
-        <v>4</v>
-      </c>
-      <c r="AO19" s="5">
-        <f>0.3*AN19+0.6*AM19+0.05*AG19+0.05*W19</f>
-        <v>4.2321353276353273</v>
-      </c>
-      <c r="AQ19" s="58">
-        <f>AP19/0.0170138888888889</f>
-        <v>0</v>
-      </c>
-      <c r="AR19" s="56">
-        <v>0</v>
-      </c>
-      <c r="AS19" s="58">
-        <f>AR19/0.0163310185185185</f>
-        <v>0</v>
-      </c>
-      <c r="AT19"/>
-      <c r="AU19" s="56"/>
-    </row>
-    <row r="20" spans="1:47">
-      <c r="A20" s="37">
-        <v>1126644560</v>
-      </c>
-      <c r="B20" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20" s="37">
-        <v>1</v>
-      </c>
-      <c r="F20" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="G20" s="37">
-        <v>4</v>
-      </c>
-      <c r="H20" s="37" t="str" cm="1">
-        <f t="array" ref="H20">_xlfn.IFS(G20=1, "2:00 PM", G20=2, "2:30 PM", G20=3, "3:00 PM", G20=4, "3:30 PM")</f>
-        <v>3:30 PM</v>
-      </c>
-      <c r="I20" s="40">
-        <v>4</v>
-      </c>
-      <c r="J20" s="37">
-        <v>4</v>
-      </c>
-      <c r="K20" s="37">
+      <c r="L20" s="5">
+        <f>(J20/I20)*K20</f>
         <v>4.8</v>
       </c>
-      <c r="L20" s="41">
-        <f t="shared" si="0"/>
+      <c r="M20" s="12">
+        <v>2.96</v>
+      </c>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12">
+        <v>3.5</v>
+      </c>
+      <c r="P20" s="5">
+        <f>0.7*L20+0.2*M20+0.1*O20+N20</f>
+        <v>4.3019999999999996</v>
+      </c>
+      <c r="Q20" s="31">
+        <v>2.0532407407407409E-2</v>
+      </c>
+      <c r="R20" s="32">
+        <f>Q20/$R$2</f>
+        <v>0.98555555555555563</v>
+      </c>
+      <c r="S20" s="33">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="T20" s="32">
+        <f>S20/$T$2</f>
+        <v>1</v>
+      </c>
+      <c r="U20" s="32">
+        <v>1</v>
+      </c>
+      <c r="V20" s="34">
+        <v>1</v>
+      </c>
+      <c r="W20" s="12">
+        <f>AVERAGE(R20,T20,V20)*5</f>
+        <v>4.9759259259259263</v>
+      </c>
+      <c r="X20" s="35">
+        <v>5</v>
+      </c>
+      <c r="Y20" s="35">
+        <v>5</v>
+      </c>
+      <c r="Z20" s="35">
+        <v>5</v>
+      </c>
+      <c r="AA20" s="35"/>
+      <c r="AB20" s="35"/>
+      <c r="AC20" s="35">
+        <f>AVERAGE(X20:AB20)</f>
+        <v>5</v>
+      </c>
+      <c r="AD20" s="5">
+        <v>5</v>
+      </c>
+      <c r="AE20" s="5">
+        <v>4</v>
+      </c>
+      <c r="AF20" s="5">
+        <v>4.833333333333333</v>
+      </c>
+      <c r="AG20" s="5">
+        <f>0.2*AF20+0.8*AVERAGE(AC20:AE20)</f>
+        <v>4.7</v>
+      </c>
+      <c r="AH20" s="5">
         <v>4.8</v>
       </c>
-      <c r="M20" s="42">
-        <v>3.59</v>
-      </c>
-      <c r="N20" s="42"/>
-      <c r="O20" s="42">
-        <v>4.5</v>
-      </c>
-      <c r="P20" s="41">
-        <f t="shared" si="1"/>
-        <v>4.5279999999999996</v>
-      </c>
-      <c r="Q20" s="43">
-        <v>1.6342592592592593E-2</v>
-      </c>
-      <c r="R20" s="44">
-        <f t="shared" si="2"/>
-        <v>0.7844444444444445</v>
-      </c>
-      <c r="S20" s="45">
+      <c r="AI20" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="AJ20" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="AK20" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="AL20" s="5">
+        <v>3</v>
+      </c>
+      <c r="AM20" s="5">
+        <f>AVERAGE(AH20:AL20)</f>
+        <v>4.0600000000000005</v>
+      </c>
+      <c r="AN20" s="5">
+        <v>4</v>
+      </c>
+      <c r="AO20" s="5">
+        <f>0.3*AN20+0.6*AM20+0.05*AG20+0.05*W20</f>
+        <v>4.119796296296296</v>
+      </c>
+      <c r="AP20" s="56">
+        <v>2.5208333333333333E-2</v>
+      </c>
+      <c r="AQ20" s="58">
+        <f>AP20/0.0252083333333333</f>
+        <v>1.0000000000000013</v>
+      </c>
+      <c r="AR20" s="56">
+        <v>2.2731481481481481E-2</v>
+      </c>
+      <c r="AS20" s="58">
+        <f>AR20/0.0236226851851852</f>
+        <v>0.96227339539441381</v>
+      </c>
+      <c r="AT20" s="56">
+        <v>0</v>
+      </c>
+      <c r="AU20" s="58">
+        <f t="shared" ref="AU20:AU22" si="3">AT20/0.0277314814814815</f>
+        <v>0</v>
+      </c>
+      <c r="AV20" s="48"/>
+      <c r="AW20" s="56"/>
+      <c r="AX20" s="48"/>
+      <c r="AY20" s="48"/>
+    </row>
+    <row r="21" spans="1:51" s="48" customFormat="1">
+      <c r="A21" s="37">
+        <v>1005894053</v>
+      </c>
+      <c r="B21" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="37">
+        <v>4</v>
+      </c>
+      <c r="F21" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="G21" s="37">
+        <v>3</v>
+      </c>
+      <c r="H21" s="37" t="str" cm="1">
+        <f t="array" ref="H21">_xlfn.IFS(G21=1, "2:00 PM", G21=2, "2:30 PM", G21=3, "3:00 PM", G21=4, "3:30 PM")</f>
+        <v>3:00 PM</v>
+      </c>
+      <c r="I21" s="40">
+        <v>3</v>
+      </c>
+      <c r="J21" s="37">
+        <v>3</v>
+      </c>
+      <c r="K21" s="41">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="L21" s="41">
+        <f>(J21/I21)*K21</f>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="M21" s="42">
+        <v>2.96</v>
+      </c>
+      <c r="N21" s="42"/>
+      <c r="O21" s="42">
+        <v>3.5</v>
+      </c>
+      <c r="P21" s="41">
+        <f>0.7*L21+0.2*M21+0.1*O21+N21</f>
+        <v>4.1619999999999999</v>
+      </c>
+      <c r="Q21" s="43">
+        <v>2.1342592592592594E-2</v>
+      </c>
+      <c r="R21" s="44">
+        <f>Q21/$R$2</f>
+        <v>1.0244444444444445</v>
+      </c>
+      <c r="S21" s="45">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="T20" s="44">
+      <c r="T21" s="44">
+        <f>S21/$T$2</f>
+        <v>1</v>
+      </c>
+      <c r="U21" s="44">
+        <v>1</v>
+      </c>
+      <c r="V21" s="46">
+        <v>1</v>
+      </c>
+      <c r="W21" s="52">
+        <v>5</v>
+      </c>
+      <c r="X21" s="47">
+        <v>5</v>
+      </c>
+      <c r="Y21" s="47"/>
+      <c r="Z21" s="47"/>
+      <c r="AA21" s="47"/>
+      <c r="AB21" s="47"/>
+      <c r="AC21" s="47">
+        <f>AVERAGE(X21:AB21)</f>
+        <v>5</v>
+      </c>
+      <c r="AD21" s="41">
+        <v>4.5</v>
+      </c>
+      <c r="AE21" s="41">
+        <v>4</v>
+      </c>
+      <c r="AF21" s="41">
+        <v>4.666666666666667</v>
+      </c>
+      <c r="AG21" s="51">
+        <f>0.2*AF21+0.8*AVERAGE(AC21:AE21)</f>
+        <v>4.5333333333333332</v>
+      </c>
+      <c r="AH21" s="41">
+        <v>4.8</v>
+      </c>
+      <c r="AI21" s="41">
+        <v>4.5</v>
+      </c>
+      <c r="AJ21" s="41">
+        <v>4.5</v>
+      </c>
+      <c r="AK21" s="41">
+        <v>3.5</v>
+      </c>
+      <c r="AL21" s="41">
+        <v>3</v>
+      </c>
+      <c r="AM21" s="51">
+        <f>AVERAGE(AH21:AL21)</f>
+        <v>4.0600000000000005</v>
+      </c>
+      <c r="AN21" s="51">
+        <v>4</v>
+      </c>
+      <c r="AO21" s="41">
+        <f>0.3*AN21+0.6*AM21+0.05*AG21+0.05*W21</f>
+        <v>4.1126666666666667</v>
+      </c>
+      <c r="AP21" s="56">
+        <v>1.7777777777777778E-2</v>
+      </c>
+      <c r="AQ21" s="58">
+        <f>AP21/0.0252083333333333</f>
+        <v>0.70523415977961523</v>
+      </c>
+      <c r="AR21" s="56">
+        <v>2.1342592592592594E-2</v>
+      </c>
+      <c r="AS21" s="58">
+        <f>AR21/0.0236226851851852</f>
+        <v>0.90347868691817679</v>
+      </c>
+      <c r="AT21" s="56">
+        <v>2.5532407407407406E-2</v>
+      </c>
+      <c r="AU21" s="58">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="U20" s="44">
-        <v>1</v>
-      </c>
-      <c r="V20" s="46">
-        <v>1</v>
-      </c>
-      <c r="W20" s="52">
-        <f>AVERAGE(R20,T20,V20)*5</f>
-        <v>4.6407407407407408</v>
-      </c>
-      <c r="X20" s="47"/>
-      <c r="Y20" s="47">
-        <v>4</v>
-      </c>
-      <c r="Z20" s="47">
-        <v>0</v>
-      </c>
-      <c r="AA20" s="47"/>
-      <c r="AB20" s="47"/>
-      <c r="AC20" s="47">
-        <f>AVERAGE(X20:AB20)</f>
-        <v>2</v>
-      </c>
-      <c r="AD20" s="41">
-        <v>4.5</v>
-      </c>
-      <c r="AE20" s="41">
-        <v>4</v>
-      </c>
-      <c r="AF20" s="41">
-        <v>5</v>
-      </c>
-      <c r="AG20" s="51">
-        <f>0.2*AF20+0.8*AVERAGE(AC20:AE20)</f>
-        <v>3.8000000000000003</v>
-      </c>
-      <c r="AH20" s="41">
-        <v>4.3</v>
-      </c>
-      <c r="AI20" s="41">
-        <v>4</v>
-      </c>
-      <c r="AJ20" s="41">
-        <v>4.5</v>
-      </c>
-      <c r="AK20" s="41">
+        <v>0.92070116861435669</v>
+      </c>
+      <c r="AV21"/>
+      <c r="AW21" s="56"/>
+    </row>
+    <row r="22" spans="1:51">
+      <c r="A22" s="37">
+        <v>1193578885</v>
+      </c>
+      <c r="B22" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="37">
+        <v>4</v>
+      </c>
+      <c r="F22" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="G22" s="37">
+        <v>3</v>
+      </c>
+      <c r="H22" s="37" t="str" cm="1">
+        <f t="array" ref="H22">_xlfn.IFS(G22=1, "2:00 PM", G22=2, "2:30 PM", G22=3, "3:00 PM", G22=4, "3:30 PM")</f>
+        <v>3:00 PM</v>
+      </c>
+      <c r="I22" s="40">
+        <v>4</v>
+      </c>
+      <c r="J22" s="37">
+        <v>4</v>
+      </c>
+      <c r="K22" s="41">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="L22" s="41">
+        <f>(J22/I22)*K22</f>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="M22" s="42">
+        <v>2.96</v>
+      </c>
+      <c r="N22" s="42"/>
+      <c r="O22" s="42">
+        <v>3.5</v>
+      </c>
+      <c r="P22" s="41">
+        <f>0.7*L22+0.2*M22+0.1*O22+N22</f>
+        <v>4.1619999999999999</v>
+      </c>
+      <c r="Q22" s="43">
+        <v>1.951388888888889E-2</v>
+      </c>
+      <c r="R22" s="44">
+        <f>Q22/$R$2</f>
+        <v>0.93666666666666676</v>
+      </c>
+      <c r="S22" s="45">
+        <v>0</v>
+      </c>
+      <c r="T22" s="44">
+        <f>S22/$T$2</f>
+        <v>0</v>
+      </c>
+      <c r="U22" s="44">
+        <v>1</v>
+      </c>
+      <c r="V22" s="46">
+        <v>1</v>
+      </c>
+      <c r="W22" s="52">
+        <f>AVERAGE(R22,T22,V22)*5</f>
+        <v>3.2277777777777779</v>
+      </c>
+      <c r="X22" s="47"/>
+      <c r="Y22" s="47"/>
+      <c r="Z22" s="47"/>
+      <c r="AA22" s="47"/>
+      <c r="AB22" s="47"/>
+      <c r="AC22" s="47">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="41"/>
+      <c r="AE22" s="41"/>
+      <c r="AF22" s="41">
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="AG22" s="51">
+        <f>0.2*AF22+0.8*AVERAGE(AC22:AE22)</f>
+        <v>0.46666666666666673</v>
+      </c>
+      <c r="AH22" s="41">
         <v>4.8</v>
       </c>
-      <c r="AL20" s="41">
-        <v>4.5</v>
-      </c>
-      <c r="AM20" s="51">
-        <f t="shared" si="7"/>
-        <v>4.42</v>
-      </c>
-      <c r="AN20" s="51">
-        <v>4</v>
-      </c>
-      <c r="AO20" s="41">
-        <f>0.3*AN20+0.6*AM20+0.05*AG20+0.05*W20</f>
-        <v>4.2740370370370364</v>
-      </c>
-      <c r="AP20" s="56">
-        <v>1.6087962962962964E-2</v>
-      </c>
-      <c r="AQ20" s="58">
-        <f>AP20/0.0170138888888889</f>
-        <v>0.94557823129251639</v>
-      </c>
-      <c r="AR20" s="56">
-        <v>1.3020833333333334E-2</v>
-      </c>
-      <c r="AS20" s="58">
-        <f>AR20/0.0163310185185185</f>
-        <v>0.79730687455705263</v>
-      </c>
-      <c r="AU20" s="56"/>
-    </row>
-    <row r="21" spans="1:47" s="48" customFormat="1">
-      <c r="A21" s="3">
-        <v>1062329024</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="3">
-        <v>1</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G21" s="3">
-        <v>4</v>
-      </c>
-      <c r="H21" s="3" t="str" cm="1">
-        <f t="array" ref="H21">_xlfn.IFS(G21=1, "2:00 PM", G21=2, "2:30 PM", G21=3, "3:00 PM", G21=4, "3:30 PM")</f>
-        <v>3:30 PM</v>
-      </c>
-      <c r="I21" s="14">
-        <v>5</v>
-      </c>
-      <c r="J21" s="3">
-        <v>5</v>
-      </c>
-      <c r="K21" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="L21" s="5">
-        <f t="shared" si="0"/>
-        <v>4.5</v>
-      </c>
-      <c r="M21" s="12">
-        <v>3.59</v>
-      </c>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12">
-        <v>4.5</v>
-      </c>
-      <c r="P21" s="5">
-        <f t="shared" si="1"/>
-        <v>4.3179999999999996</v>
-      </c>
-      <c r="Q21" s="31">
-        <v>0</v>
-      </c>
-      <c r="R21" s="32">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S21" s="33">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="T21" s="32">
+      <c r="AI22" s="41">
+        <v>4.5</v>
+      </c>
+      <c r="AJ22" s="41">
+        <v>4.5</v>
+      </c>
+      <c r="AK22" s="41">
+        <v>3.5</v>
+      </c>
+      <c r="AL22" s="41">
+        <v>3</v>
+      </c>
+      <c r="AM22" s="51">
+        <f>AVERAGE(AH22:AL22)</f>
+        <v>4.0600000000000005</v>
+      </c>
+      <c r="AN22" s="51">
+        <v>4</v>
+      </c>
+      <c r="AO22" s="36">
+        <f>0.3*AN22+0.7*AM22</f>
+        <v>4.0419999999999998</v>
+      </c>
+      <c r="AP22" s="56">
+        <v>2.3252314814814816E-2</v>
+      </c>
+      <c r="AQ22" s="58">
+        <f>AP22/0.0252083333333333</f>
+        <v>0.92240587695133269</v>
+      </c>
+      <c r="AR22" s="56">
+        <v>2.101851851851852E-2</v>
+      </c>
+      <c r="AS22" s="58">
+        <f>AR22/0.0236226851851852</f>
+        <v>0.88975992160705475</v>
+      </c>
+      <c r="AT22" s="56">
+        <v>8.2060185185185187E-3</v>
+      </c>
+      <c r="AU22" s="58">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="U21" s="32">
-        <v>1</v>
-      </c>
-      <c r="V21" s="34">
-        <v>1</v>
-      </c>
-      <c r="W21" s="12">
-        <f>AVERAGE(R21,T21,V21)*5</f>
-        <v>3.333333333333333</v>
-      </c>
-      <c r="X21" s="35"/>
-      <c r="Y21" s="35">
-        <v>5</v>
-      </c>
-      <c r="Z21" s="35">
-        <v>0</v>
-      </c>
-      <c r="AA21" s="35"/>
-      <c r="AB21" s="35"/>
-      <c r="AC21" s="35">
-        <f>AVERAGE(X21:AB21)</f>
-        <v>2.5</v>
-      </c>
-      <c r="AD21" s="5">
-        <v>3</v>
-      </c>
-      <c r="AE21" s="5">
-        <v>4</v>
-      </c>
-      <c r="AF21" s="5">
-        <v>3.8461538461538463</v>
-      </c>
-      <c r="AG21" s="5">
-        <f>0.2*AF21+0.8*AVERAGE(AC21:AE21)</f>
-        <v>3.3025641025641024</v>
-      </c>
-      <c r="AH21" s="5">
-        <v>4.3</v>
-      </c>
-      <c r="AI21" s="5">
-        <v>4</v>
-      </c>
-      <c r="AJ21" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="AK21" s="5">
-        <v>4.8</v>
-      </c>
-      <c r="AL21" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="AM21" s="5">
-        <f t="shared" si="7"/>
-        <v>4.42</v>
-      </c>
-      <c r="AN21" s="5">
-        <v>4</v>
-      </c>
-      <c r="AO21" s="5">
-        <f>0.3*AN21+0.6*AM21+0.05*AG21+0.05*W21</f>
-        <v>4.1837948717948716</v>
-      </c>
-      <c r="AQ21" s="58">
-        <f>AP21/0.0170138888888889</f>
-        <v>0</v>
-      </c>
-      <c r="AR21" s="56">
-        <v>0</v>
-      </c>
-      <c r="AS21" s="58">
-        <f>AR21/0.0163310185185185</f>
-        <v>0</v>
-      </c>
-      <c r="AT21"/>
-      <c r="AU21" s="56"/>
-    </row>
-    <row r="22" spans="1:47">
-      <c r="A22" s="3">
-        <v>1110364376</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" s="3">
-        <v>1</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G22" s="3">
-        <v>4</v>
-      </c>
-      <c r="H22" s="3" t="str" cm="1">
-        <f t="array" ref="H22">_xlfn.IFS(G22=1, "2:00 PM", G22=2, "2:30 PM", G22=3, "3:00 PM", G22=4, "3:30 PM")</f>
-        <v>3:30 PM</v>
-      </c>
-      <c r="I22" s="14">
-        <v>3</v>
-      </c>
-      <c r="J22" s="3">
-        <v>3</v>
-      </c>
-      <c r="K22" s="3">
-        <v>4.8</v>
-      </c>
-      <c r="L22" s="5">
-        <f t="shared" si="0"/>
-        <v>4.8</v>
-      </c>
-      <c r="M22" s="12">
-        <v>3.59</v>
-      </c>
-      <c r="N22" s="12">
-        <f>1/16</f>
-        <v>6.25E-2</v>
-      </c>
-      <c r="O22" s="12">
-        <v>4.5</v>
-      </c>
-      <c r="P22" s="5">
-        <f t="shared" si="1"/>
-        <v>4.5904999999999996</v>
-      </c>
-      <c r="Q22" s="31">
-        <v>1.412037037037037E-2</v>
-      </c>
-      <c r="R22" s="32">
-        <f t="shared" si="2"/>
-        <v>0.67777777777777781</v>
-      </c>
-      <c r="S22" s="33">
-        <v>0</v>
-      </c>
-      <c r="T22" s="32">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U22" s="32">
-        <v>1</v>
-      </c>
-      <c r="V22" s="34">
-        <v>0</v>
-      </c>
-      <c r="W22" s="12">
-        <v>3</v>
-      </c>
-      <c r="X22" s="35"/>
-      <c r="Y22" s="35">
-        <v>2</v>
-      </c>
-      <c r="Z22" s="35">
-        <v>2</v>
-      </c>
-      <c r="AA22" s="35"/>
-      <c r="AB22" s="35"/>
-      <c r="AC22" s="35">
-        <f>AVERAGE(X22:AB22)</f>
-        <v>2</v>
-      </c>
-      <c r="AD22" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="AE22" s="5">
-        <v>4</v>
-      </c>
-      <c r="AF22" s="5">
-        <v>4.9230769230769234</v>
-      </c>
-      <c r="AG22" s="5">
-        <f>0.2*AF22+0.8*AVERAGE(AC22:AE22)</f>
-        <v>3.7846153846153849</v>
-      </c>
-      <c r="AH22" s="5">
-        <v>4.3</v>
-      </c>
-      <c r="AI22" s="5">
-        <v>4</v>
-      </c>
-      <c r="AJ22" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="AK22" s="5">
-        <v>4.8</v>
-      </c>
-      <c r="AL22" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="AM22" s="5">
-        <f t="shared" si="7"/>
-        <v>4.42</v>
-      </c>
-      <c r="AN22" s="5">
-        <v>4</v>
-      </c>
-      <c r="AO22" s="5">
-        <f>0.3*AN22+0.6*AM22+0.05*AG22+0.05*W22</f>
-        <v>4.1912307692307689</v>
-      </c>
-      <c r="AP22" s="56">
-        <v>1.7013888888888887E-2</v>
-      </c>
-      <c r="AQ22" s="58">
-        <f>AP22/0.0170138888888889</f>
-        <v>0.99999999999999922</v>
-      </c>
-      <c r="AR22" s="56">
-        <v>1.6331018518518519E-2</v>
-      </c>
-      <c r="AS22" s="58">
-        <f>AR22/0.0163310185185185</f>
-        <v>1.0000000000000011</v>
-      </c>
-      <c r="AU22" s="56"/>
-    </row>
-    <row r="23" spans="1:47" s="48" customFormat="1">
+        <v>0.29590984974958245</v>
+      </c>
+      <c r="AW22" s="56"/>
+      <c r="AX22" s="48"/>
+      <c r="AY22" s="48"/>
+    </row>
+    <row r="23" spans="1:51" s="48" customFormat="1">
       <c r="A23" s="37">
         <v>1004189893</v>
       </c>
@@ -4372,14 +4559,18 @@
       <c r="AQ23" s="41"/>
       <c r="AR23" s="56"/>
       <c r="AS23" s="41"/>
-      <c r="AT23"/>
-      <c r="AU23" s="56"/>
-    </row>
-    <row r="24" spans="1:47">
+      <c r="AT23" s="56"/>
+      <c r="AU23" s="58"/>
+      <c r="AV23"/>
+      <c r="AW23" s="56"/>
+      <c r="AX23"/>
+      <c r="AY23"/>
+    </row>
+    <row r="24" spans="1:51">
       <c r="G24" s="30"/>
       <c r="AO24" s="13"/>
     </row>
-    <row r="25" spans="1:47">
+    <row r="25" spans="1:51">
       <c r="G25" s="3"/>
       <c r="Q25" s="54" t="s">
         <v>147</v>
@@ -4387,18 +4578,18 @@
       <c r="R25" s="55"/>
       <c r="S25" s="53"/>
       <c r="T25" s="53"/>
-    </row>
-    <row r="26" spans="1:47">
+      <c r="AY25" s="56"/>
+    </row>
+    <row r="26" spans="1:51">
       <c r="G26" s="3"/>
-      <c r="AU26" s="56"/>
-    </row>
-    <row r="27" spans="1:47">
+    </row>
+    <row r="27" spans="1:51">
       <c r="G27" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:AS3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:AS23">
-      <sortCondition ref="G3"/>
+  <autoFilter ref="A3:AY3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:AY23">
+      <sortCondition ref="E3"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="P4:P23">
@@ -4701,7 +4892,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8:F23"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="58.5703125" defaultRowHeight="15"/>

--- a/academics/DB2/2025-2/DB2 2025-2.xlsx
+++ b/academics/DB2/2025-2/DB2 2025-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\UAO\oicampo-uao.github.io\academics\DB2\2025-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CFA1E79-18DB-408F-976C-C65F0A472C44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F17DB153-E3D3-48BE-9E33-3EBD588E233D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -795,7 +795,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -934,7 +934,6 @@
     <xf numFmtId="166" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1328,7 +1327,7 @@
   <dimension ref="A1:AY27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AT23" sqref="AT23"/>
+      <selection activeCell="AU9" sqref="AU9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.5703125" defaultRowHeight="15"/>
@@ -1639,7 +1638,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="L4" s="5">
-        <f>(J4/I4)*K4</f>
+        <f t="shared" ref="L4:L22" si="0">(J4/I4)*K4</f>
         <v>4.5999999999999996</v>
       </c>
       <c r="M4" s="12">
@@ -1650,21 +1649,21 @@
         <v>4.5</v>
       </c>
       <c r="P4" s="5">
-        <f>0.7*L4+0.2*M4+0.1*O4+N4</f>
+        <f t="shared" ref="P4:P22" si="1">0.7*L4+0.2*M4+0.1*O4+N4</f>
         <v>4.3879999999999999</v>
       </c>
       <c r="Q4" s="31">
         <v>1.3935185185185186E-2</v>
       </c>
       <c r="R4" s="32">
-        <f>Q4/$R$2</f>
+        <f t="shared" ref="R4:R22" si="2">Q4/$R$2</f>
         <v>0.66888888888888898</v>
       </c>
       <c r="S4" s="33">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="T4" s="32">
-        <f>S4/$T$2</f>
+        <f t="shared" ref="T4:T22" si="3">S4/$T$2</f>
         <v>1</v>
       </c>
       <c r="U4" s="32">
@@ -1687,7 +1686,7 @@
       </c>
       <c r="AB4" s="35"/>
       <c r="AC4" s="35">
-        <f>AVERAGE(X4:AB4)</f>
+        <f t="shared" ref="AC4:AC18" si="4">AVERAGE(X4:AB4)</f>
         <v>0</v>
       </c>
       <c r="AD4" s="5">
@@ -1719,14 +1718,14 @@
         <v>4.5</v>
       </c>
       <c r="AM4" s="5">
-        <f>AVERAGE(AH4:AL4)</f>
+        <f t="shared" ref="AM4:AM22" si="5">AVERAGE(AH4:AL4)</f>
         <v>4.42</v>
       </c>
       <c r="AN4" s="5">
         <v>4</v>
       </c>
       <c r="AO4" s="5">
-        <f>0.3*AN4+0.6*AM4+0.05*AG4+0.05*W4</f>
+        <f t="shared" ref="AO4:AO17" si="6">0.3*AN4+0.6*AM4+0.05*AG4+0.05*W4</f>
         <v>4.230240740740741</v>
       </c>
       <c r="AP4" s="56">
@@ -1790,7 +1789,7 @@
         <v>4.5</v>
       </c>
       <c r="L5" s="5">
-        <f>(J5/I5)*K5</f>
+        <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
       <c r="M5" s="12">
@@ -1801,21 +1800,21 @@
         <v>4.5</v>
       </c>
       <c r="P5" s="5">
-        <f>0.7*L5+0.2*M5+0.1*O5+N5</f>
+        <f t="shared" si="1"/>
         <v>4.3179999999999996</v>
       </c>
       <c r="Q5" s="31">
         <v>1.474537037037037E-2</v>
       </c>
       <c r="R5" s="32">
-        <f>Q5/$R$2</f>
+        <f t="shared" si="2"/>
         <v>0.70777777777777784</v>
       </c>
       <c r="S5" s="33">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="T5" s="32">
-        <f>S5/$T$2</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="U5" s="32">
@@ -1836,7 +1835,7 @@
       </c>
       <c r="AB5" s="35"/>
       <c r="AC5" s="35">
-        <f>AVERAGE(X5:AB5)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="AD5" s="5">
@@ -1868,14 +1867,14 @@
         <v>4.5</v>
       </c>
       <c r="AM5" s="5">
-        <f>AVERAGE(AH5:AL5)</f>
+        <f t="shared" si="5"/>
         <v>4.42</v>
       </c>
       <c r="AN5" s="5">
         <v>4</v>
       </c>
       <c r="AO5" s="5">
-        <f>0.3*AN5+0.6*AM5+0.05*AG5+0.05*W5</f>
+        <f t="shared" si="6"/>
         <v>4.2321353276353273</v>
       </c>
       <c r="AQ5" s="58">
@@ -1893,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="AU5" s="58">
-        <f t="shared" ref="AU5:AU8" si="0">AT5/0.0328240740740741</f>
+        <f t="shared" ref="AU5:AU8" si="7">AT5/0.0328240740740741</f>
         <v>0</v>
       </c>
       <c r="AV5"/>
@@ -1937,7 +1936,7 @@
         <v>4.8</v>
       </c>
       <c r="L6" s="41">
-        <f>(J6/I6)*K6</f>
+        <f t="shared" si="0"/>
         <v>4.8</v>
       </c>
       <c r="M6" s="42">
@@ -1948,21 +1947,21 @@
         <v>4.5</v>
       </c>
       <c r="P6" s="41">
-        <f>0.7*L6+0.2*M6+0.1*O6+N6</f>
+        <f t="shared" si="1"/>
         <v>4.5279999999999996</v>
       </c>
       <c r="Q6" s="43">
         <v>1.6342592592592593E-2</v>
       </c>
       <c r="R6" s="44">
-        <f>Q6/$R$2</f>
+        <f t="shared" si="2"/>
         <v>0.7844444444444445</v>
       </c>
       <c r="S6" s="45">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="T6" s="44">
-        <f>S6/$T$2</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="U6" s="44">
@@ -1985,7 +1984,7 @@
       <c r="AA6" s="47"/>
       <c r="AB6" s="47"/>
       <c r="AC6" s="47">
-        <f>AVERAGE(X6:AB6)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AD6" s="41">
@@ -1998,7 +1997,7 @@
         <v>5</v>
       </c>
       <c r="AG6" s="51">
-        <f>0.2*AF6+0.8*AVERAGE(AC6:AE6)</f>
+        <f t="shared" ref="AG6:AG23" si="8">0.2*AF6+0.8*AVERAGE(AC6:AE6)</f>
         <v>3.8000000000000003</v>
       </c>
       <c r="AH6" s="41">
@@ -2017,14 +2016,14 @@
         <v>4.5</v>
       </c>
       <c r="AM6" s="51">
-        <f>AVERAGE(AH6:AL6)</f>
+        <f t="shared" si="5"/>
         <v>4.42</v>
       </c>
       <c r="AN6" s="51">
         <v>4</v>
       </c>
       <c r="AO6" s="41">
-        <f>0.3*AN6+0.6*AM6+0.05*AG6+0.05*W6</f>
+        <f t="shared" si="6"/>
         <v>4.2740370370370364</v>
       </c>
       <c r="AP6" s="56">
@@ -2045,7 +2044,7 @@
         <v>3.2824074074074075E-2</v>
       </c>
       <c r="AU6" s="58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0.99999999999999911</v>
       </c>
       <c r="AW6" s="56"/>
@@ -2087,7 +2086,7 @@
         <v>4.5</v>
       </c>
       <c r="L7" s="5">
-        <f>(J7/I7)*K7</f>
+        <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
       <c r="M7" s="12">
@@ -2098,21 +2097,21 @@
         <v>4.5</v>
       </c>
       <c r="P7" s="5">
-        <f>0.7*L7+0.2*M7+0.1*O7+N7</f>
+        <f t="shared" si="1"/>
         <v>4.3179999999999996</v>
       </c>
       <c r="Q7" s="31">
         <v>0</v>
       </c>
       <c r="R7" s="32">
-        <f>Q7/$R$2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S7" s="33">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="T7" s="32">
-        <f>S7/$T$2</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="U7" s="32">
@@ -2135,7 +2134,7 @@
       <c r="AA7" s="35"/>
       <c r="AB7" s="35"/>
       <c r="AC7" s="35">
-        <f>AVERAGE(X7:AB7)</f>
+        <f t="shared" si="4"/>
         <v>2.5</v>
       </c>
       <c r="AD7" s="5">
@@ -2148,7 +2147,7 @@
         <v>3.8461538461538463</v>
       </c>
       <c r="AG7" s="5">
-        <f>0.2*AF7+0.8*AVERAGE(AC7:AE7)</f>
+        <f t="shared" si="8"/>
         <v>3.3025641025641024</v>
       </c>
       <c r="AH7" s="5">
@@ -2167,14 +2166,14 @@
         <v>4.5</v>
       </c>
       <c r="AM7" s="5">
-        <f>AVERAGE(AH7:AL7)</f>
+        <f t="shared" si="5"/>
         <v>4.42</v>
       </c>
       <c r="AN7" s="5">
         <v>4</v>
       </c>
       <c r="AO7" s="5">
-        <f>0.3*AN7+0.6*AM7+0.05*AG7+0.05*W7</f>
+        <f t="shared" si="6"/>
         <v>4.1837948717948716</v>
       </c>
       <c r="AQ7" s="58">
@@ -2192,7 +2191,7 @@
         <v>6.099537037037037E-3</v>
       </c>
       <c r="AU7" s="58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0.18582510578279252</v>
       </c>
       <c r="AV7"/>
@@ -2234,7 +2233,7 @@
         <v>4.8</v>
       </c>
       <c r="L8" s="5">
-        <f>(J8/I8)*K8</f>
+        <f t="shared" si="0"/>
         <v>4.8</v>
       </c>
       <c r="M8" s="12">
@@ -2248,21 +2247,21 @@
         <v>4.5</v>
       </c>
       <c r="P8" s="5">
-        <f>0.7*L8+0.2*M8+0.1*O8+N8</f>
+        <f t="shared" si="1"/>
         <v>4.5904999999999996</v>
       </c>
       <c r="Q8" s="31">
         <v>1.412037037037037E-2</v>
       </c>
       <c r="R8" s="32">
-        <f>Q8/$R$2</f>
+        <f t="shared" si="2"/>
         <v>0.67777777777777781</v>
       </c>
       <c r="S8" s="33">
         <v>0</v>
       </c>
       <c r="T8" s="32">
-        <f>S8/$T$2</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U8" s="32">
@@ -2284,7 +2283,7 @@
       <c r="AA8" s="35"/>
       <c r="AB8" s="35"/>
       <c r="AC8" s="35">
-        <f>AVERAGE(X8:AB8)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AD8" s="5">
@@ -2297,7 +2296,7 @@
         <v>4.9230769230769234</v>
       </c>
       <c r="AG8" s="5">
-        <f>0.2*AF8+0.8*AVERAGE(AC8:AE8)</f>
+        <f t="shared" si="8"/>
         <v>3.7846153846153849</v>
       </c>
       <c r="AH8" s="5">
@@ -2316,14 +2315,14 @@
         <v>4.5</v>
       </c>
       <c r="AM8" s="5">
-        <f>AVERAGE(AH8:AL8)</f>
+        <f t="shared" si="5"/>
         <v>4.42</v>
       </c>
       <c r="AN8" s="5">
         <v>4</v>
       </c>
       <c r="AO8" s="5">
-        <f>0.3*AN8+0.6*AM8+0.05*AG8+0.05*W8</f>
+        <f t="shared" si="6"/>
         <v>4.1912307692307689</v>
       </c>
       <c r="AP8" s="56">
@@ -2344,8 +2343,7 @@
         <v>0</v>
       </c>
       <c r="AU8" s="58">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AV8" s="48"/>
       <c r="AW8" s="56"/>
@@ -2388,7 +2386,7 @@
         <v>4.8</v>
       </c>
       <c r="L9" s="5">
-        <f>(J9/I9)*K9</f>
+        <f t="shared" si="0"/>
         <v>4.8</v>
       </c>
       <c r="M9" s="12">
@@ -2402,21 +2400,21 @@
         <v>4.7</v>
       </c>
       <c r="P9" s="5">
-        <f>0.7*L9+0.2*M9+0.1*O9+N9</f>
+        <f t="shared" si="1"/>
         <v>4.6900000000000004</v>
       </c>
       <c r="Q9" s="31">
         <v>1.4976851851851852E-2</v>
       </c>
       <c r="R9" s="32">
-        <f>Q9/$R$2</f>
+        <f t="shared" si="2"/>
         <v>0.71888888888888891</v>
       </c>
       <c r="S9" s="33">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="T9" s="32">
-        <f>S9/$T$2</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="U9" s="32">
@@ -2426,7 +2424,7 @@
         <v>1</v>
       </c>
       <c r="W9" s="12">
-        <f>AVERAGE(R9,T9,V9)*5</f>
+        <f t="shared" ref="W9:W17" si="9">AVERAGE(R9,T9,V9)*5</f>
         <v>4.5314814814814817</v>
       </c>
       <c r="X9" s="35">
@@ -2439,7 +2437,7 @@
       <c r="AA9" s="35"/>
       <c r="AB9" s="35"/>
       <c r="AC9" s="35">
-        <f>AVERAGE(X9:AB9)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AD9" s="5">
@@ -2452,7 +2450,7 @@
         <v>4.9285714285714288</v>
       </c>
       <c r="AG9" s="5">
-        <f>0.2*AF9+0.8*AVERAGE(AC9:AE9)</f>
+        <f t="shared" si="8"/>
         <v>4.3190476190476197</v>
       </c>
       <c r="AH9" s="5">
@@ -2471,14 +2469,14 @@
         <v>4.5</v>
       </c>
       <c r="AM9" s="5">
-        <f>AVERAGE(AH9:AL9)</f>
+        <f t="shared" si="5"/>
         <v>4.7200000000000006</v>
       </c>
       <c r="AN9" s="5">
         <v>4.5</v>
       </c>
       <c r="AO9" s="5">
-        <f>0.3*AN9+0.6*AM9+0.05*AG9+0.05*W9</f>
+        <f t="shared" si="6"/>
         <v>4.624526455026456</v>
       </c>
       <c r="AP9" s="56">
@@ -2543,7 +2541,7 @@
         <v>4.8</v>
       </c>
       <c r="L10" s="41">
-        <f>(J10/I10)*K10</f>
+        <f t="shared" si="0"/>
         <v>4.8</v>
       </c>
       <c r="M10" s="42">
@@ -2557,21 +2555,21 @@
         <v>4.7</v>
       </c>
       <c r="P10" s="41">
-        <f>0.7*L10+0.2*M10+0.1*O10+N10</f>
+        <f t="shared" si="1"/>
         <v>4.6399999999999997</v>
       </c>
       <c r="Q10" s="43">
         <v>1.5833333333333335E-2</v>
       </c>
       <c r="R10" s="44">
-        <f>Q10/$R$2</f>
+        <f t="shared" si="2"/>
         <v>0.76000000000000012</v>
       </c>
       <c r="S10" s="45">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="T10" s="44">
-        <f>S10/$T$2</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="U10" s="44">
@@ -2581,7 +2579,7 @@
         <v>0.6</v>
       </c>
       <c r="W10" s="52">
-        <f>AVERAGE(R10,T10,V10)*5</f>
+        <f t="shared" si="9"/>
         <v>3.9333333333333336</v>
       </c>
       <c r="X10" s="47">
@@ -2594,7 +2592,7 @@
       </c>
       <c r="AB10" s="47"/>
       <c r="AC10" s="47">
-        <f>AVERAGE(X10:AB10)</f>
+        <f t="shared" si="4"/>
         <v>4.5</v>
       </c>
       <c r="AD10" s="41">
@@ -2607,7 +2605,7 @@
         <v>4.8571428571428568</v>
       </c>
       <c r="AG10" s="51">
-        <f>0.2*AF10+0.8*AVERAGE(AC10:AE10)</f>
+        <f t="shared" si="8"/>
         <v>4.7047619047619049</v>
       </c>
       <c r="AH10" s="41">
@@ -2626,14 +2624,14 @@
         <v>4.5</v>
       </c>
       <c r="AM10" s="51">
-        <f>AVERAGE(AH10:AL10)</f>
+        <f t="shared" si="5"/>
         <v>4.7200000000000006</v>
       </c>
       <c r="AN10" s="51">
         <v>4.5</v>
       </c>
       <c r="AO10" s="41">
-        <f>0.3*AN10+0.6*AM10+0.05*AG10+0.05*W10</f>
+        <f t="shared" si="6"/>
         <v>4.6139047619047622</v>
       </c>
       <c r="AP10" s="56">
@@ -2654,7 +2652,7 @@
         <v>0</v>
       </c>
       <c r="AU10" s="58">
-        <f t="shared" ref="AU10:AU13" si="1">AT10/0.0162615740740741</f>
+        <f t="shared" ref="AU10:AU13" si="10">AT10/0.0162615740740741</f>
         <v>0</v>
       </c>
       <c r="AV10" s="48"/>
@@ -2698,7 +2696,7 @@
         <v>4.8</v>
       </c>
       <c r="L11" s="5">
-        <f>(J11/I11)*K11</f>
+        <f t="shared" si="0"/>
         <v>4.8</v>
       </c>
       <c r="M11" s="12">
@@ -2712,21 +2710,21 @@
         <v>4.7</v>
       </c>
       <c r="P11" s="5">
-        <f>0.7*L11+0.2*M11+0.1*O11+N11</f>
+        <f t="shared" si="1"/>
         <v>4.59</v>
       </c>
       <c r="Q11" s="31">
         <v>1.4652777777777778E-2</v>
       </c>
       <c r="R11" s="32">
-        <f>Q11/$R$2</f>
+        <f t="shared" si="2"/>
         <v>0.70333333333333337</v>
       </c>
       <c r="S11" s="45">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="T11" s="32">
-        <f>S11/$T$2</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="U11" s="32">
@@ -2736,7 +2734,7 @@
         <v>1</v>
       </c>
       <c r="W11" s="12">
-        <f>AVERAGE(R11,T11,V11)*5</f>
+        <f t="shared" si="9"/>
         <v>4.5055555555555555</v>
       </c>
       <c r="X11" s="35">
@@ -2749,7 +2747,7 @@
       <c r="AA11" s="35"/>
       <c r="AB11" s="35"/>
       <c r="AC11" s="35">
-        <f>AVERAGE(X11:AB11)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="AD11" s="5">
@@ -2762,7 +2760,7 @@
         <v>5</v>
       </c>
       <c r="AG11" s="5">
-        <f>0.2*AF11+0.8*AVERAGE(AC11:AE11)</f>
+        <f t="shared" si="8"/>
         <v>4.5999999999999996</v>
       </c>
       <c r="AH11" s="5">
@@ -2781,14 +2779,14 @@
         <v>4.5</v>
       </c>
       <c r="AM11" s="5">
-        <f>AVERAGE(AH11:AL11)</f>
+        <f t="shared" si="5"/>
         <v>4.7200000000000006</v>
       </c>
       <c r="AN11" s="5">
         <v>4.5</v>
       </c>
       <c r="AO11" s="5">
-        <f>0.3*AN11+0.6*AM11+0.05*AG11+0.05*W11</f>
+        <f t="shared" si="6"/>
         <v>4.6372777777777783</v>
       </c>
       <c r="AP11" s="56">
@@ -2809,7 +2807,7 @@
         <v>1.6168981481481482E-2</v>
       </c>
       <c r="AU11" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>0.99430604982206261</v>
       </c>
       <c r="AV11"/>
@@ -2853,7 +2851,7 @@
         <v>4.8</v>
       </c>
       <c r="L12" s="41">
-        <f>(J12/I12)*K12</f>
+        <f t="shared" si="0"/>
         <v>4.8</v>
       </c>
       <c r="M12" s="42">
@@ -2867,21 +2865,21 @@
         <v>4.7</v>
       </c>
       <c r="P12" s="41">
-        <f>0.7*L12+0.2*M12+0.1*O12+N12</f>
+        <f t="shared" si="1"/>
         <v>4.59</v>
       </c>
       <c r="Q12" s="43">
         <v>1.5520833333333333E-2</v>
       </c>
       <c r="R12" s="44">
-        <f>Q12/$R$2</f>
+        <f t="shared" si="2"/>
         <v>0.745</v>
       </c>
       <c r="S12" s="45">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="T12" s="44">
-        <f>S12/$T$2</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="U12" s="44">
@@ -2891,7 +2889,7 @@
         <v>0.8</v>
       </c>
       <c r="W12" s="52">
-        <f>AVERAGE(R12,T12,V12)*5</f>
+        <f t="shared" si="9"/>
         <v>4.2416666666666663</v>
       </c>
       <c r="X12" s="47">
@@ -2904,7 +2902,7 @@
       </c>
       <c r="AB12" s="47"/>
       <c r="AC12" s="47">
-        <f>AVERAGE(X12:AB12)</f>
+        <f t="shared" si="4"/>
         <v>3.5</v>
       </c>
       <c r="AD12" s="41">
@@ -2915,7 +2913,7 @@
         <v>4.9285714285714288</v>
       </c>
       <c r="AG12" s="51">
-        <f>0.2*AF12+0.8*AVERAGE(AC12:AE12)</f>
+        <f t="shared" si="8"/>
         <v>4.1857142857142859</v>
       </c>
       <c r="AH12" s="41">
@@ -2934,14 +2932,14 @@
         <v>4.5</v>
       </c>
       <c r="AM12" s="51">
-        <f>AVERAGE(AH12:AL12)</f>
+        <f t="shared" si="5"/>
         <v>4.7200000000000006</v>
       </c>
       <c r="AN12" s="51">
         <v>4.5</v>
       </c>
       <c r="AO12" s="41">
-        <f>0.3*AN12+0.6*AM12+0.05*AG12+0.05*W12</f>
+        <f t="shared" si="6"/>
         <v>4.6033690476190481</v>
       </c>
       <c r="AP12" s="56">
@@ -2962,7 +2960,7 @@
         <v>1.6238425925925927E-2</v>
       </c>
       <c r="AU12" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>0.9985765124555146</v>
       </c>
       <c r="AW12" s="56"/>
@@ -3005,7 +3003,7 @@
         <v>4.8</v>
       </c>
       <c r="L13" s="41">
-        <f>(J13/I13)*K13</f>
+        <f t="shared" si="0"/>
         <v>4.8</v>
       </c>
       <c r="M13" s="42">
@@ -3019,21 +3017,21 @@
         <v>4.7</v>
       </c>
       <c r="P13" s="41">
-        <f>0.7*L13+0.2*M13+0.1*O13+N13</f>
+        <f t="shared" si="1"/>
         <v>4.79</v>
       </c>
       <c r="Q13" s="43">
         <v>1.5972222222222221E-2</v>
       </c>
       <c r="R13" s="44">
-        <f>Q13/$R$2</f>
+        <f t="shared" si="2"/>
         <v>0.76666666666666661</v>
       </c>
       <c r="S13" s="45">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="T13" s="44">
-        <f>S13/$T$2</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="U13" s="44">
@@ -3043,7 +3041,7 @@
         <v>1</v>
       </c>
       <c r="W13" s="52">
-        <f>AVERAGE(R13,T13,V13)*5</f>
+        <f t="shared" si="9"/>
         <v>4.6111111111111107</v>
       </c>
       <c r="X13" s="47"/>
@@ -3058,7 +3056,7 @@
         <v>3</v>
       </c>
       <c r="AC13" s="47">
-        <f>AVERAGE(X13:AB13)</f>
+        <f t="shared" si="4"/>
         <v>3.3333333333333335</v>
       </c>
       <c r="AD13" s="41">
@@ -3071,7 +3069,7 @@
         <v>5</v>
       </c>
       <c r="AG13" s="51">
-        <f>0.2*AF13+0.8*AVERAGE(AC13:AE13)</f>
+        <f t="shared" si="8"/>
         <v>4.5555555555555554</v>
       </c>
       <c r="AH13" s="41">
@@ -3090,14 +3088,14 @@
         <v>4.5</v>
       </c>
       <c r="AM13" s="51">
-        <f>AVERAGE(AH13:AL13)</f>
+        <f t="shared" si="5"/>
         <v>4.7200000000000006</v>
       </c>
       <c r="AN13" s="51">
         <v>4.5</v>
       </c>
       <c r="AO13" s="41">
-        <f>0.3*AN13+0.6*AM13+0.05*AG13+0.05*W13</f>
+        <f t="shared" si="6"/>
         <v>4.6403333333333334</v>
       </c>
       <c r="AP13" s="56">
@@ -3118,7 +3116,7 @@
         <v>1.5300925925925926E-2</v>
       </c>
       <c r="AU13" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>0.9409252669039132</v>
       </c>
       <c r="AV13"/>
@@ -3162,7 +3160,7 @@
         <v>4.5</v>
       </c>
       <c r="L14" s="41">
-        <f>(J14/I14)*K14</f>
+        <f t="shared" si="0"/>
         <v>2.6999999999999997</v>
       </c>
       <c r="M14" s="42">
@@ -3173,21 +3171,21 @@
         <v>3</v>
       </c>
       <c r="P14" s="41">
-        <f>0.7*L14+0.2*M14+0.1*O14+N14</f>
+        <f t="shared" si="1"/>
         <v>2.742</v>
       </c>
       <c r="Q14" s="43">
         <v>1.8506944444444444E-2</v>
       </c>
       <c r="R14" s="44">
-        <f>Q14/$R$2</f>
+        <f t="shared" si="2"/>
         <v>0.88833333333333331</v>
       </c>
       <c r="S14" s="45">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="T14" s="44">
-        <f>S14/$T$2</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="U14" s="44">
@@ -3197,7 +3195,7 @@
         <v>0.8</v>
       </c>
       <c r="W14" s="52">
-        <f>AVERAGE(R14,T14,V14)*5</f>
+        <f t="shared" si="9"/>
         <v>4.4805555555555561</v>
       </c>
       <c r="X14" s="47">
@@ -3212,7 +3210,7 @@
       </c>
       <c r="AB14" s="47"/>
       <c r="AC14" s="47">
-        <f>AVERAGE(X14:AB14)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AD14" s="41">
@@ -3225,7 +3223,7 @@
         <v>4.7692307692307692</v>
       </c>
       <c r="AG14" s="51">
-        <f>0.2*AF14+0.8*AVERAGE(AC14:AE14)</f>
+        <f t="shared" si="8"/>
         <v>3.620512820512821</v>
       </c>
       <c r="AH14" s="41">
@@ -3244,14 +3242,14 @@
         <v>4.3</v>
       </c>
       <c r="AM14" s="51">
-        <f>AVERAGE(AH14:AL14)</f>
+        <f t="shared" si="5"/>
         <v>4.3</v>
       </c>
       <c r="AN14" s="51">
         <v>0</v>
       </c>
       <c r="AO14" s="41">
-        <f>0.3*AN14+0.6*AM14+0.05*AG14+0.05*W14</f>
+        <f t="shared" si="6"/>
         <v>2.9850534188034183</v>
       </c>
       <c r="AP14" s="56">
@@ -3313,7 +3311,7 @@
         <v>4.8</v>
       </c>
       <c r="L15" s="41">
-        <f>(J15/I15)*K15</f>
+        <f t="shared" si="0"/>
         <v>4.8</v>
       </c>
       <c r="M15" s="42">
@@ -3327,21 +3325,21 @@
         <v>3</v>
       </c>
       <c r="P15" s="41">
-        <f>0.7*L15+0.2*M15+0.1*O15+N15</f>
+        <f t="shared" si="1"/>
         <v>4.2889230769230764</v>
       </c>
       <c r="Q15" s="43">
         <v>1.1863425925925927E-2</v>
       </c>
       <c r="R15" s="44">
-        <f>Q15/$R$2</f>
+        <f t="shared" si="2"/>
         <v>0.56944444444444453</v>
       </c>
       <c r="S15" s="45">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="T15" s="44">
-        <f>S15/$T$2</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="U15" s="44">
@@ -3351,7 +3349,7 @@
         <v>1</v>
       </c>
       <c r="W15" s="52">
-        <f>AVERAGE(R15,T15,V15)*5</f>
+        <f t="shared" si="9"/>
         <v>4.2824074074074074</v>
       </c>
       <c r="X15" s="47">
@@ -3366,7 +3364,7 @@
       </c>
       <c r="AB15" s="47"/>
       <c r="AC15" s="47">
-        <f>AVERAGE(X15:AB15)</f>
+        <f t="shared" si="4"/>
         <v>4.333333333333333</v>
       </c>
       <c r="AD15" s="41">
@@ -3379,7 +3377,7 @@
         <v>4.6923076923076925</v>
       </c>
       <c r="AG15" s="51">
-        <f>0.2*AF15+0.8*AVERAGE(AC15:AE15)</f>
+        <f t="shared" si="8"/>
         <v>4.2273504273504274</v>
       </c>
       <c r="AH15" s="41">
@@ -3398,14 +3396,14 @@
         <v>4.3</v>
       </c>
       <c r="AM15" s="51">
-        <f>AVERAGE(AH15:AL15)</f>
+        <f t="shared" si="5"/>
         <v>4.3</v>
       </c>
       <c r="AN15" s="51">
         <v>0</v>
       </c>
       <c r="AO15" s="41">
-        <f>0.3*AN15+0.6*AM15+0.05*AG15+0.05*W15</f>
+        <f t="shared" si="6"/>
         <v>3.0054878917378911</v>
       </c>
       <c r="AP15" s="56">
@@ -3426,7 +3424,7 @@
         <v>4.3287037037037035E-3</v>
       </c>
       <c r="AU15" s="59">
-        <f t="shared" ref="AU15:AU18" si="2">AT15/0.0282407407407407</f>
+        <f t="shared" ref="AU15:AU18" si="11">AT15/0.0282407407407407</f>
         <v>0.15327868852459037</v>
       </c>
       <c r="AV15"/>
@@ -3468,7 +3466,7 @@
         <v>4.8</v>
       </c>
       <c r="L16" s="41">
-        <f>(J16/I16)*K16</f>
+        <f t="shared" si="0"/>
         <v>4.8</v>
       </c>
       <c r="M16" s="42">
@@ -3479,21 +3477,21 @@
         <v>3</v>
       </c>
       <c r="P16" s="41">
-        <f>0.7*L16+0.2*M16+0.1*O16+N16</f>
+        <f t="shared" si="1"/>
         <v>4.2119999999999997</v>
       </c>
       <c r="Q16" s="43">
         <v>1.8159722222222223E-2</v>
       </c>
       <c r="R16" s="44">
-        <f>Q16/$R$2</f>
+        <f t="shared" si="2"/>
         <v>0.8716666666666667</v>
       </c>
       <c r="S16" s="45">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="T16" s="44">
-        <f>S16/$T$2</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="U16" s="44">
@@ -3503,7 +3501,7 @@
         <v>1</v>
       </c>
       <c r="W16" s="52">
-        <f>AVERAGE(R16,T16,V16)*5</f>
+        <f t="shared" si="9"/>
         <v>4.7861111111111114</v>
       </c>
       <c r="X16" s="47">
@@ -3516,7 +3514,7 @@
       </c>
       <c r="AB16" s="47"/>
       <c r="AC16" s="47">
-        <f>AVERAGE(X16:AB16)</f>
+        <f t="shared" si="4"/>
         <v>4.5</v>
       </c>
       <c r="AD16" s="41">
@@ -3529,7 +3527,7 @@
         <v>4.615384615384615</v>
       </c>
       <c r="AG16" s="51">
-        <f>0.2*AF16+0.8*AVERAGE(AC16:AE16)</f>
+        <f t="shared" si="8"/>
         <v>4.2564102564102573</v>
       </c>
       <c r="AH16" s="41">
@@ -3548,14 +3546,14 @@
         <v>4.3</v>
       </c>
       <c r="AM16" s="51">
-        <f>AVERAGE(AH16:AL16)</f>
+        <f t="shared" si="5"/>
         <v>4.3</v>
       </c>
       <c r="AN16" s="51">
         <v>0</v>
       </c>
       <c r="AO16" s="41">
-        <f>0.3*AN16+0.6*AM16+0.05*AG16+0.05*W16</f>
+        <f t="shared" si="6"/>
         <v>3.0321260683760682</v>
       </c>
       <c r="AP16" s="56">
@@ -3576,7 +3574,7 @@
         <v>2.1087962962962965E-2</v>
       </c>
       <c r="AU16" s="59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0.74672131147541088</v>
       </c>
       <c r="AW16" s="56"/>
@@ -3617,7 +3615,7 @@
         <v>4.8</v>
       </c>
       <c r="L17" s="5">
-        <f>(J17/I17)*K17</f>
+        <f t="shared" si="0"/>
         <v>4.8</v>
       </c>
       <c r="M17" s="12">
@@ -3628,21 +3626,21 @@
         <v>3</v>
       </c>
       <c r="P17" s="5">
-        <f>0.7*L17+0.2*M17+0.1*O17+N17</f>
+        <f t="shared" si="1"/>
         <v>4.2119999999999997</v>
       </c>
       <c r="Q17" s="31">
         <v>9.9305555555555553E-3</v>
       </c>
       <c r="R17" s="32">
-        <f>Q17/$R$2</f>
+        <f t="shared" si="2"/>
         <v>0.47666666666666668</v>
       </c>
       <c r="S17" s="33">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="T17" s="32">
-        <f>S17/$T$2</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="U17" s="32">
@@ -3652,7 +3650,7 @@
         <v>1</v>
       </c>
       <c r="W17" s="12">
-        <f>AVERAGE(R17,T17,V17)*5</f>
+        <f t="shared" si="9"/>
         <v>4.1277777777777773</v>
       </c>
       <c r="X17" s="35">
@@ -3665,7 +3663,7 @@
       </c>
       <c r="AB17" s="35"/>
       <c r="AC17" s="35">
-        <f>AVERAGE(X17:AB17)</f>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="AD17" s="5">
@@ -3678,7 +3676,7 @@
         <v>4.615384615384615</v>
       </c>
       <c r="AG17" s="5">
-        <f>0.2*AF17+0.8*AVERAGE(AC17:AE17)</f>
+        <f t="shared" si="8"/>
         <v>3.4564102564102561</v>
       </c>
       <c r="AH17" s="5">
@@ -3697,14 +3695,14 @@
         <v>4.3</v>
       </c>
       <c r="AM17" s="5">
-        <f>AVERAGE(AH17:AL17)</f>
+        <f t="shared" si="5"/>
         <v>4.3</v>
       </c>
       <c r="AN17" s="5">
         <v>0</v>
       </c>
       <c r="AO17" s="5">
-        <f>0.3*AN17+0.6*AM17+0.05*AG17+0.05*W17</f>
+        <f t="shared" si="6"/>
         <v>2.9592094017094013</v>
       </c>
       <c r="AP17" s="56">
@@ -3725,7 +3723,7 @@
         <v>2.5300925925925925E-2</v>
       </c>
       <c r="AU17" s="59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0.89590163934426348</v>
       </c>
       <c r="AV17"/>
@@ -3769,7 +3767,7 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="L18" s="5">
-        <f>(J18/I18)*K18</f>
+        <f t="shared" si="0"/>
         <v>4.9000000000000004</v>
       </c>
       <c r="M18" s="12">
@@ -3780,21 +3778,21 @@
         <v>3</v>
       </c>
       <c r="P18" s="5">
-        <f>0.7*L18+0.2*M18+0.1*O18+N18</f>
+        <f t="shared" si="1"/>
         <v>4.282</v>
       </c>
       <c r="Q18" s="31">
         <v>0</v>
       </c>
       <c r="R18" s="32">
-        <f>Q18/$R$2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S18" s="33">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="T18" s="32">
-        <f>S18/$T$2</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="U18" s="32">
@@ -3818,7 +3816,7 @@
       </c>
       <c r="AB18" s="35"/>
       <c r="AC18" s="35">
-        <f>AVERAGE(X18:AB18)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AD18" s="5">
@@ -3831,7 +3829,7 @@
         <v>4.5384615384615383</v>
       </c>
       <c r="AG18" s="5">
-        <f>0.2*AF18+0.8*AVERAGE(AC18:AE18)</f>
+        <f t="shared" si="8"/>
         <v>3.5743589743589745</v>
       </c>
       <c r="AH18" s="5">
@@ -3850,7 +3848,7 @@
         <v>4.3</v>
       </c>
       <c r="AM18" s="5">
-        <f>AVERAGE(AH18:AL18)</f>
+        <f t="shared" si="5"/>
         <v>4.3</v>
       </c>
       <c r="AN18" s="5">
@@ -3859,7 +3857,7 @@
       <c r="AO18" s="5">
         <v>3</v>
       </c>
-      <c r="AP18" s="60">
+      <c r="AP18" s="56">
         <v>2.2037037037037036E-2</v>
       </c>
       <c r="AQ18" s="59">
@@ -3877,7 +3875,7 @@
         <v>2.824074074074074E-2</v>
       </c>
       <c r="AU18" s="59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>1.0000000000000013</v>
       </c>
       <c r="AW18" s="56"/>
@@ -3920,7 +3918,7 @@
         <v>4.7</v>
       </c>
       <c r="L19" s="5">
-        <f>(J19/I19)*K19</f>
+        <f t="shared" si="0"/>
         <v>4.7</v>
       </c>
       <c r="M19" s="12">
@@ -3931,21 +3929,21 @@
         <v>3.5</v>
       </c>
       <c r="P19" s="5">
-        <f>0.7*L19+0.2*M19+0.1*O19+N19</f>
+        <f t="shared" si="1"/>
         <v>4.2320000000000002</v>
       </c>
       <c r="Q19" s="31">
         <v>2.0243055555555556E-2</v>
       </c>
       <c r="R19" s="32">
-        <f>Q19/$R$2</f>
+        <f t="shared" si="2"/>
         <v>0.97166666666666668</v>
       </c>
       <c r="S19" s="33">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="T19" s="32">
-        <f>S19/$T$2</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="U19" s="32">
@@ -3972,7 +3970,7 @@
         <v>2.3333333333333335</v>
       </c>
       <c r="AG19" s="5">
-        <f>0.2*AF19+0.8*AVERAGE(AC19:AE19)</f>
+        <f t="shared" si="8"/>
         <v>0.46666666666666673</v>
       </c>
       <c r="AH19" s="5">
@@ -3991,7 +3989,7 @@
         <v>3</v>
       </c>
       <c r="AM19" s="5">
-        <f>AVERAGE(AH19:AL19)</f>
+        <f t="shared" si="5"/>
         <v>4.0600000000000005</v>
       </c>
       <c r="AN19" s="5">
@@ -4063,7 +4061,7 @@
         <v>4.8</v>
       </c>
       <c r="L20" s="5">
-        <f>(J20/I20)*K20</f>
+        <f t="shared" si="0"/>
         <v>4.8</v>
       </c>
       <c r="M20" s="12">
@@ -4074,21 +4072,21 @@
         <v>3.5</v>
       </c>
       <c r="P20" s="5">
-        <f>0.7*L20+0.2*M20+0.1*O20+N20</f>
+        <f t="shared" si="1"/>
         <v>4.3019999999999996</v>
       </c>
       <c r="Q20" s="31">
         <v>2.0532407407407409E-2</v>
       </c>
       <c r="R20" s="32">
-        <f>Q20/$R$2</f>
+        <f t="shared" si="2"/>
         <v>0.98555555555555563</v>
       </c>
       <c r="S20" s="33">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="T20" s="32">
-        <f>S20/$T$2</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="U20" s="32">
@@ -4126,7 +4124,7 @@
         <v>4.833333333333333</v>
       </c>
       <c r="AG20" s="5">
-        <f>0.2*AF20+0.8*AVERAGE(AC20:AE20)</f>
+        <f t="shared" si="8"/>
         <v>4.7</v>
       </c>
       <c r="AH20" s="5">
@@ -4145,7 +4143,7 @@
         <v>3</v>
       </c>
       <c r="AM20" s="5">
-        <f>AVERAGE(AH20:AL20)</f>
+        <f t="shared" si="5"/>
         <v>4.0600000000000005</v>
       </c>
       <c r="AN20" s="5">
@@ -4173,7 +4171,7 @@
         <v>0</v>
       </c>
       <c r="AU20" s="58">
-        <f t="shared" ref="AU20:AU22" si="3">AT20/0.0277314814814815</f>
+        <f t="shared" ref="AU20:AU22" si="12">AT20/0.0277314814814815</f>
         <v>0</v>
       </c>
       <c r="AV20" s="48"/>
@@ -4217,7 +4215,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="L21" s="41">
-        <f>(J21/I21)*K21</f>
+        <f t="shared" si="0"/>
         <v>4.5999999999999996</v>
       </c>
       <c r="M21" s="42">
@@ -4228,21 +4226,21 @@
         <v>3.5</v>
       </c>
       <c r="P21" s="41">
-        <f>0.7*L21+0.2*M21+0.1*O21+N21</f>
+        <f t="shared" si="1"/>
         <v>4.1619999999999999</v>
       </c>
       <c r="Q21" s="43">
         <v>2.1342592592592594E-2</v>
       </c>
       <c r="R21" s="44">
-        <f>Q21/$R$2</f>
+        <f t="shared" si="2"/>
         <v>1.0244444444444445</v>
       </c>
       <c r="S21" s="45">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="T21" s="44">
-        <f>S21/$T$2</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="U21" s="44">
@@ -4275,7 +4273,7 @@
         <v>4.666666666666667</v>
       </c>
       <c r="AG21" s="51">
-        <f>0.2*AF21+0.8*AVERAGE(AC21:AE21)</f>
+        <f t="shared" si="8"/>
         <v>4.5333333333333332</v>
       </c>
       <c r="AH21" s="41">
@@ -4294,7 +4292,7 @@
         <v>3</v>
       </c>
       <c r="AM21" s="51">
-        <f>AVERAGE(AH21:AL21)</f>
+        <f t="shared" si="5"/>
         <v>4.0600000000000005</v>
       </c>
       <c r="AN21" s="51">
@@ -4322,7 +4320,7 @@
         <v>2.5532407407407406E-2</v>
       </c>
       <c r="AU21" s="58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0.92070116861435669</v>
       </c>
       <c r="AV21"/>
@@ -4364,7 +4362,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="L22" s="41">
-        <f>(J22/I22)*K22</f>
+        <f t="shared" si="0"/>
         <v>4.5999999999999996</v>
       </c>
       <c r="M22" s="42">
@@ -4375,21 +4373,21 @@
         <v>3.5</v>
       </c>
       <c r="P22" s="41">
-        <f>0.7*L22+0.2*M22+0.1*O22+N22</f>
+        <f t="shared" si="1"/>
         <v>4.1619999999999999</v>
       </c>
       <c r="Q22" s="43">
         <v>1.951388888888889E-2</v>
       </c>
       <c r="R22" s="44">
-        <f>Q22/$R$2</f>
+        <f t="shared" si="2"/>
         <v>0.93666666666666676</v>
       </c>
       <c r="S22" s="45">
         <v>0</v>
       </c>
       <c r="T22" s="44">
-        <f>S22/$T$2</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U22" s="44">
@@ -4416,7 +4414,7 @@
         <v>2.3333333333333335</v>
       </c>
       <c r="AG22" s="51">
-        <f>0.2*AF22+0.8*AVERAGE(AC22:AE22)</f>
+        <f t="shared" si="8"/>
         <v>0.46666666666666673</v>
       </c>
       <c r="AH22" s="41">
@@ -4435,7 +4433,7 @@
         <v>3</v>
       </c>
       <c r="AM22" s="51">
-        <f>AVERAGE(AH22:AL22)</f>
+        <f t="shared" si="5"/>
         <v>4.0600000000000005</v>
       </c>
       <c r="AN22" s="51">
@@ -4463,7 +4461,7 @@
         <v>8.2060185185185187E-3</v>
       </c>
       <c r="AU22" s="58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0.29590984974958245</v>
       </c>
       <c r="AW22" s="56"/>
@@ -4528,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="AG23" s="51">
-        <f>0.2*AF23+0.8*AVERAGE(AC23:AE23)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AH23" s="41">

--- a/academics/DB2/2025-2/DB2 2025-2.xlsx
+++ b/academics/DB2/2025-2/DB2 2025-2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\UAO\oicampo-uao.github.io\academics\DB2\2025-2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\oicampo\Documents\GitHub\oicampo-uao.github.io\academics\DB2\2025-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F17DB153-E3D3-48BE-9E33-3EBD588E233D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C38D7B53-3420-4AA2-94D9-FA0B91C853E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1326,54 +1326,54 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AY27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AU9" sqref="AU9"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="35.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="35.5703125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.140625" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" customWidth="1"/>
-    <col min="4" max="4" width="29.140625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="29.140625" customWidth="1"/>
     <col min="5" max="5" width="6.42578125" style="1" customWidth="1"/>
     <col min="6" max="6" width="13.85546875" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="6.140625" style="1" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="7.85546875" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="4.42578125" style="15" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="3.140625" style="1" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="4" style="1" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="3.5703125" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="4.5703125" style="13" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="6.42578125" style="13" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="5.42578125" style="13" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="6.7109375" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="12.5703125" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="11.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="12.5703125" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="11.5703125" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="12.5703125" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="11.5703125" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="14.7109375" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="12.7109375" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="12.42578125" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="13.28515625" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="12.42578125" hidden="1" customWidth="1"/>
-    <col min="28" max="29" width="8" hidden="1" customWidth="1"/>
-    <col min="30" max="31" width="5.28515625" hidden="1" customWidth="1"/>
-    <col min="32" max="33" width="12" style="1" hidden="1" customWidth="1"/>
-    <col min="34" max="34" width="11.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="35" max="35" width="12.140625" style="1" hidden="1" customWidth="1"/>
-    <col min="36" max="36" width="19.140625" style="1" hidden="1" customWidth="1"/>
-    <col min="37" max="37" width="9.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="38" max="38" width="11.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="39" max="39" width="14.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="40" max="40" width="22.28515625" style="1" hidden="1" customWidth="1"/>
-    <col min="41" max="41" width="13.28515625" style="1" hidden="1" customWidth="1"/>
-    <col min="42" max="42" width="13.28515625" hidden="1" customWidth="1"/>
-    <col min="43" max="43" width="11.5703125" hidden="1" customWidth="1"/>
-    <col min="44" max="44" width="13.28515625" hidden="1" customWidth="1"/>
-    <col min="45" max="45" width="11.5703125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="7.85546875" customWidth="1"/>
+    <col min="9" max="9" width="4.42578125" style="15" customWidth="1"/>
+    <col min="10" max="10" width="3.140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="4" style="1" customWidth="1"/>
+    <col min="12" max="12" width="3.5703125" customWidth="1"/>
+    <col min="13" max="13" width="4.5703125" style="13" customWidth="1"/>
+    <col min="14" max="14" width="6.42578125" style="13" customWidth="1"/>
+    <col min="15" max="15" width="5.42578125" style="13" customWidth="1"/>
+    <col min="16" max="16" width="6.7109375" customWidth="1"/>
+    <col min="17" max="17" width="12.5703125" customWidth="1"/>
+    <col min="18" max="18" width="11.5703125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="12.5703125" customWidth="1"/>
+    <col min="20" max="20" width="11.5703125" customWidth="1"/>
+    <col min="21" max="21" width="12.5703125" customWidth="1"/>
+    <col min="22" max="22" width="11.5703125" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" customWidth="1"/>
+    <col min="24" max="24" width="12.7109375" customWidth="1"/>
+    <col min="25" max="25" width="12.42578125" customWidth="1"/>
+    <col min="26" max="26" width="13.28515625" customWidth="1"/>
+    <col min="27" max="27" width="12.42578125" customWidth="1"/>
+    <col min="28" max="29" width="8" customWidth="1"/>
+    <col min="30" max="31" width="5.28515625" customWidth="1"/>
+    <col min="32" max="33" width="12" style="1" customWidth="1"/>
+    <col min="34" max="34" width="11.5703125" style="1" customWidth="1"/>
+    <col min="35" max="35" width="12.140625" style="1" customWidth="1"/>
+    <col min="36" max="36" width="19.140625" style="1" customWidth="1"/>
+    <col min="37" max="37" width="9.5703125" style="1" customWidth="1"/>
+    <col min="38" max="38" width="11.42578125" style="1" customWidth="1"/>
+    <col min="39" max="39" width="14.42578125" style="1" customWidth="1"/>
+    <col min="40" max="40" width="22.28515625" style="1" customWidth="1"/>
+    <col min="41" max="41" width="13.28515625" style="1" customWidth="1"/>
+    <col min="42" max="42" width="13.28515625" customWidth="1"/>
+    <col min="43" max="43" width="11.5703125" customWidth="1"/>
+    <col min="44" max="44" width="13.28515625" customWidth="1"/>
+    <col min="45" max="45" width="11.5703125" customWidth="1"/>
     <col min="46" max="46" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="49" max="49" width="11.28515625" bestFit="1" customWidth="1"/>
@@ -1622,11 +1622,11 @@
         <v>71</v>
       </c>
       <c r="G4" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H4" s="3" t="str" cm="1">
         <f t="array" ref="H4">_xlfn.IFS(G4=1, "2:00 PM", G4=2, "2:30 PM", G4=3, "3:00 PM", G4=4, "3:30 PM")</f>
-        <v>3:30 PM</v>
+        <v>2:00 PM</v>
       </c>
       <c r="I4" s="14">
         <v>1</v>
@@ -1773,11 +1773,11 @@
         <v>75</v>
       </c>
       <c r="G5" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H5" s="3" t="str" cm="1">
         <f t="array" ref="H5">_xlfn.IFS(G5=1, "2:00 PM", G5=2, "2:30 PM", G5=3, "3:00 PM", G5=4, "3:30 PM")</f>
-        <v>3:30 PM</v>
+        <v>2:00 PM</v>
       </c>
       <c r="I5" s="14">
         <v>3</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="AU5" s="58">
-        <f t="shared" ref="AU5:AU8" si="7">AT5/0.0328240740740741</f>
+        <f t="shared" ref="AU5:AU7" si="7">AT5/0.0328240740740741</f>
         <v>0</v>
       </c>
       <c r="AV5"/>
@@ -1920,11 +1920,11 @@
         <v>65</v>
       </c>
       <c r="G6" s="37">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H6" s="37" t="str" cm="1">
         <f t="array" ref="H6">_xlfn.IFS(G6=1, "2:00 PM", G6=2, "2:30 PM", G6=3, "3:00 PM", G6=4, "3:30 PM")</f>
-        <v>3:30 PM</v>
+        <v>2:00 PM</v>
       </c>
       <c r="I6" s="40">
         <v>4</v>
@@ -2070,11 +2070,11 @@
         <v>70</v>
       </c>
       <c r="G7" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H7" s="3" t="str" cm="1">
         <f t="array" ref="H7">_xlfn.IFS(G7=1, "2:00 PM", G7=2, "2:30 PM", G7=3, "3:00 PM", G7=4, "3:30 PM")</f>
-        <v>3:30 PM</v>
+        <v>2:00 PM</v>
       </c>
       <c r="I7" s="14">
         <v>5</v>
@@ -2217,11 +2217,11 @@
         <v>68</v>
       </c>
       <c r="G8" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H8" s="3" t="str" cm="1">
         <f t="array" ref="H8">_xlfn.IFS(G8=1, "2:00 PM", G8=2, "2:30 PM", G8=3, "3:00 PM", G8=4, "3:30 PM")</f>
-        <v>3:30 PM</v>
+        <v>2:00 PM</v>
       </c>
       <c r="I8" s="14">
         <v>3</v>
@@ -2370,11 +2370,11 @@
         <v>78</v>
       </c>
       <c r="G9" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H9" s="3" t="str" cm="1">
         <f t="array" ref="H9">_xlfn.IFS(G9=1, "2:00 PM", G9=2, "2:30 PM", G9=3, "3:00 PM", G9=4, "3:30 PM")</f>
-        <v>2:00 PM</v>
+        <v>2:30 PM</v>
       </c>
       <c r="I9" s="14">
         <v>4</v>
@@ -2525,11 +2525,11 @@
         <v>93</v>
       </c>
       <c r="G10" s="37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H10" s="37" t="str" cm="1">
         <f t="array" ref="H10">_xlfn.IFS(G10=1, "2:00 PM", G10=2, "2:30 PM", G10=3, "3:00 PM", G10=4, "3:30 PM")</f>
-        <v>2:00 PM</v>
+        <v>2:30 PM</v>
       </c>
       <c r="I10" s="40">
         <v>3</v>
@@ -2680,11 +2680,11 @@
         <v>69</v>
       </c>
       <c r="G11" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H11" s="3" t="str" cm="1">
         <f t="array" ref="H11">_xlfn.IFS(G11=1, "2:00 PM", G11=2, "2:30 PM", G11=3, "3:00 PM", G11=4, "3:30 PM")</f>
-        <v>2:00 PM</v>
+        <v>2:30 PM</v>
       </c>
       <c r="I11" s="14">
         <v>7</v>
@@ -2835,11 +2835,11 @@
         <v>61</v>
       </c>
       <c r="G12" s="37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H12" s="37" t="str" cm="1">
         <f t="array" ref="H12">_xlfn.IFS(G12=1, "2:00 PM", G12=2, "2:30 PM", G12=3, "3:00 PM", G12=4, "3:30 PM")</f>
-        <v>2:00 PM</v>
+        <v>2:30 PM</v>
       </c>
       <c r="I12" s="40">
         <v>7</v>
@@ -2987,11 +2987,11 @@
         <v>66</v>
       </c>
       <c r="G13" s="37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H13" s="37" t="str" cm="1">
         <f t="array" ref="H13">_xlfn.IFS(G13=1, "2:00 PM", G13=2, "2:30 PM", G13=3, "3:00 PM", G13=4, "3:30 PM")</f>
-        <v>2:00 PM</v>
+        <v>2:30 PM</v>
       </c>
       <c r="I13" s="40">
         <v>11</v>
@@ -3144,11 +3144,11 @@
         <v>67</v>
       </c>
       <c r="G14" s="37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H14" s="37" t="str" cm="1">
         <f t="array" ref="H14">_xlfn.IFS(G14=1, "2:00 PM", G14=2, "2:30 PM", G14=3, "3:00 PM", G14=4, "3:30 PM")</f>
-        <v>2:30 PM</v>
+        <v>3:00 PM</v>
       </c>
       <c r="I14" s="40">
         <v>5</v>
@@ -3295,11 +3295,11 @@
         <v>72</v>
       </c>
       <c r="G15" s="37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H15" s="37" t="str" cm="1">
         <f t="array" ref="H15">_xlfn.IFS(G15=1, "2:00 PM", G15=2, "2:30 PM", G15=3, "3:00 PM", G15=4, "3:30 PM")</f>
-        <v>2:30 PM</v>
+        <v>3:00 PM</v>
       </c>
       <c r="I15" s="40">
         <v>6</v>
@@ -3450,11 +3450,11 @@
         <v>79</v>
       </c>
       <c r="G16" s="37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H16" s="37" t="str" cm="1">
         <f t="array" ref="H16">_xlfn.IFS(G16=1, "2:00 PM", G16=2, "2:30 PM", G16=3, "3:00 PM", G16=4, "3:30 PM")</f>
-        <v>2:30 PM</v>
+        <v>3:00 PM</v>
       </c>
       <c r="I16" s="40">
         <v>5</v>
@@ -3599,11 +3599,11 @@
         <v>73</v>
       </c>
       <c r="G17" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H17" s="3" t="str" cm="1">
         <f t="array" ref="H17">_xlfn.IFS(G17=1, "2:00 PM", G17=2, "2:30 PM", G17=3, "3:00 PM", G17=4, "3:30 PM")</f>
-        <v>2:30 PM</v>
+        <v>3:00 PM</v>
       </c>
       <c r="I17" s="14">
         <v>5</v>
@@ -3751,11 +3751,11 @@
         <v>74</v>
       </c>
       <c r="G18" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H18" s="3" t="str" cm="1">
         <f t="array" ref="H18">_xlfn.IFS(G18=1, "2:00 PM", G18=2, "2:30 PM", G18=3, "3:00 PM", G18=4, "3:30 PM")</f>
-        <v>2:30 PM</v>
+        <v>3:00 PM</v>
       </c>
       <c r="I18" s="14">
         <v>6</v>
@@ -3902,11 +3902,11 @@
         <v>62</v>
       </c>
       <c r="G19" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H19" s="3" t="str" cm="1">
         <f t="array" ref="H19">_xlfn.IFS(G19=1, "2:00 PM", G19=2, "2:30 PM", G19=3, "3:00 PM", G19=4, "3:30 PM")</f>
-        <v>3:00 PM</v>
+        <v>3:30 PM</v>
       </c>
       <c r="I19" s="14">
         <v>5</v>
@@ -4045,11 +4045,11 @@
         <v>63</v>
       </c>
       <c r="G20" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H20" s="3" t="str" cm="1">
         <f t="array" ref="H20">_xlfn.IFS(G20=1, "2:00 PM", G20=2, "2:30 PM", G20=3, "3:00 PM", G20=4, "3:30 PM")</f>
-        <v>3:00 PM</v>
+        <v>3:30 PM</v>
       </c>
       <c r="I20" s="14">
         <v>4</v>
@@ -4199,11 +4199,11 @@
         <v>94</v>
       </c>
       <c r="G21" s="37">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H21" s="37" t="str" cm="1">
         <f t="array" ref="H21">_xlfn.IFS(G21=1, "2:00 PM", G21=2, "2:30 PM", G21=3, "3:00 PM", G21=4, "3:30 PM")</f>
-        <v>3:00 PM</v>
+        <v>3:30 PM</v>
       </c>
       <c r="I21" s="40">
         <v>3</v>
@@ -4346,11 +4346,11 @@
         <v>64</v>
       </c>
       <c r="G22" s="37">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H22" s="37" t="str" cm="1">
         <f t="array" ref="H22">_xlfn.IFS(G22=1, "2:00 PM", G22=2, "2:30 PM", G22=3, "3:00 PM", G22=4, "3:30 PM")</f>
-        <v>3:00 PM</v>
+        <v>3:30 PM</v>
       </c>
       <c r="I22" s="40">
         <v>4</v>
@@ -4615,7 +4615,7 @@
       <selection activeCell="A2" sqref="A2:B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="34.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
@@ -4717,7 +4717,7 @@
         <v>3.8461538461538463</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="30">
+    <row r="13" spans="1:2">
       <c r="A13" s="25" t="s">
         <v>118</v>
       </c>
@@ -4799,7 +4799,7 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="66.28515625" bestFit="1" customWidth="1"/>
@@ -4893,7 +4893,7 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="58.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="58.5703125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>

--- a/academics/DB2/2025-2/DB2 2025-2.xlsx
+++ b/academics/DB2/2025-2/DB2 2025-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\UAO\oicampo-uao.github.io\academics\DB2\2025-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F17DB153-E3D3-48BE-9E33-3EBD588E233D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E39BB7F9-11B0-4852-8B66-9DFBCA9120E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Hoja1!$A$1:$B$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$AY$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$AY$23</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="154">
   <si>
     <t>email</t>
   </si>
@@ -519,6 +519,9 @@
   </si>
   <si>
     <t>oriana Monzon</t>
+  </si>
+  <si>
+    <t>Asistencia 3er Corte</t>
   </si>
 </sst>
 </file>
@@ -795,7 +798,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -927,12 +930,29 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1324,10 +1344,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AY27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AU9" sqref="AU9"/>
+      <selection activeCell="D4" sqref="D4:D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.5703125" defaultRowHeight="15"/>
@@ -1335,7 +1356,7 @@
     <col min="1" max="1" width="16.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.140625" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" customWidth="1"/>
-    <col min="4" max="4" width="29.140625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="29.140625" customWidth="1"/>
     <col min="5" max="5" width="6.42578125" style="1" customWidth="1"/>
     <col min="6" max="6" width="13.85546875" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="6.140625" style="1" hidden="1" customWidth="1"/>
@@ -1371,12 +1392,14 @@
     <col min="40" max="40" width="22.28515625" style="1" hidden="1" customWidth="1"/>
     <col min="41" max="41" width="13.28515625" style="1" hidden="1" customWidth="1"/>
     <col min="42" max="42" width="13.28515625" hidden="1" customWidth="1"/>
-    <col min="43" max="43" width="11.5703125" hidden="1" customWidth="1"/>
+    <col min="43" max="43" width="11.5703125" customWidth="1"/>
     <col min="44" max="44" width="13.28515625" hidden="1" customWidth="1"/>
-    <col min="45" max="45" width="11.5703125" hidden="1" customWidth="1"/>
-    <col min="46" max="46" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="11.5703125" customWidth="1"/>
+    <col min="46" max="46" width="13.28515625" hidden="1" customWidth="1"/>
     <col min="47" max="47" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="16" style="1" hidden="1" customWidth="1"/>
+    <col min="49" max="49" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="10.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:51">
@@ -1399,23 +1422,29 @@
         <v>45933</v>
       </c>
       <c r="W1" s="19"/>
-      <c r="AP1" t="s">
+      <c r="AP1" s="62" t="s">
         <v>104</v>
       </c>
-      <c r="AQ1" s="19">
+      <c r="AQ1" s="63">
         <v>45954</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AR1" s="62" t="s">
         <v>104</v>
       </c>
-      <c r="AS1" s="19">
+      <c r="AS1" s="63">
         <v>45961</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AT1" s="62" t="s">
         <v>104</v>
       </c>
-      <c r="AU1" s="19">
+      <c r="AU1" s="63">
         <v>45968</v>
+      </c>
+      <c r="AV1" s="62" t="s">
+        <v>104</v>
+      </c>
+      <c r="AW1" s="63">
+        <v>45975</v>
       </c>
     </row>
     <row r="2" spans="1:51">
@@ -1438,23 +1467,29 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="W2" s="20"/>
-      <c r="AP2" t="s">
+      <c r="AP2" s="62" t="s">
         <v>105</v>
       </c>
-      <c r="AQ2" s="56">
+      <c r="AQ2" s="64">
         <v>8.458333333333333E-2</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AR2" s="62" t="s">
         <v>105</v>
       </c>
-      <c r="AS2" s="56">
+      <c r="AS2" s="64">
         <v>7.8993055555555552E-2</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="AT2" s="62" t="s">
         <v>105</v>
       </c>
-      <c r="AU2" s="56">
+      <c r="AU2" s="64">
         <v>9.5914351851851848E-2</v>
+      </c>
+      <c r="AV2" s="62" t="s">
+        <v>105</v>
+      </c>
+      <c r="AW2" s="64">
+        <v>7.3194444444444451E-2</v>
       </c>
     </row>
     <row r="3" spans="1:51" s="24" customFormat="1" ht="45">
@@ -1599,27 +1634,35 @@
       <c r="AU3" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="AV3"/>
-      <c r="AW3"/>
+      <c r="AV3" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="AW3" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="AX3" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="AY3"/>
     </row>
     <row r="4" spans="1:51">
       <c r="A4" s="3">
-        <v>1005967544</v>
+        <v>1107836732</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E4" s="3">
         <v>1</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G4" s="3">
         <v>4</v>
@@ -1629,17 +1672,17 @@
         <v>3:30 PM</v>
       </c>
       <c r="I4" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J4" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K4" s="3">
-        <v>4.5999999999999996</v>
+        <v>4.5</v>
       </c>
       <c r="L4" s="5">
-        <f t="shared" ref="L4:L22" si="0">(J4/I4)*K4</f>
-        <v>4.5999999999999996</v>
+        <f>(J4/I4)*K4</f>
+        <v>4.5</v>
       </c>
       <c r="M4" s="12">
         <v>3.59</v>
@@ -1649,21 +1692,21 @@
         <v>4.5</v>
       </c>
       <c r="P4" s="5">
-        <f t="shared" ref="P4:P22" si="1">0.7*L4+0.2*M4+0.1*O4+N4</f>
-        <v>4.3879999999999999</v>
+        <f>0.7*L4+0.2*M4+0.1*O4+N4</f>
+        <v>4.3179999999999996</v>
       </c>
       <c r="Q4" s="31">
-        <v>1.3935185185185186E-2</v>
+        <v>1.474537037037037E-2</v>
       </c>
       <c r="R4" s="32">
-        <f t="shared" ref="R4:R22" si="2">Q4/$R$2</f>
-        <v>0.66888888888888898</v>
+        <f>Q4/$R$2</f>
+        <v>0.70777777777777784</v>
       </c>
       <c r="S4" s="33">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="T4" s="32">
-        <f t="shared" ref="T4:T22" si="3">S4/$T$2</f>
+        <f>S4/$T$2</f>
         <v>1</v>
       </c>
       <c r="U4" s="32">
@@ -1674,33 +1717,31 @@
       </c>
       <c r="W4" s="12">
         <f>AVERAGE(R4,T4,V4)*5</f>
-        <v>4.4481481481481486</v>
+        <v>4.5129629629629626</v>
       </c>
       <c r="X4" s="35"/>
-      <c r="Y4" s="35">
-        <v>0</v>
-      </c>
+      <c r="Y4" s="35"/>
       <c r="Z4" s="35"/>
       <c r="AA4" s="35">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AB4" s="35"/>
       <c r="AC4" s="35">
-        <f t="shared" ref="AC4:AC18" si="4">AVERAGE(X4:AB4)</f>
-        <v>0</v>
+        <f>AVERAGE(X4:AB4)</f>
+        <v>4</v>
       </c>
       <c r="AD4" s="5">
         <v>4</v>
       </c>
       <c r="AE4" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AF4" s="5">
-        <v>4.916666666666667</v>
+        <v>4.0769230769230766</v>
       </c>
       <c r="AG4" s="5">
-        <f>0.2*AF4+0.8*AVERAGE(AC4:AE4)</f>
-        <v>3.1166666666666667</v>
+        <f>0.3*AF4+0.7*AVERAGE(AC4:AE4)</f>
+        <v>3.0897435897435894</v>
       </c>
       <c r="AH4" s="5">
         <v>4.3</v>
@@ -1718,2018 +1759,2077 @@
         <v>4.5</v>
       </c>
       <c r="AM4" s="5">
-        <f t="shared" ref="AM4:AM22" si="5">AVERAGE(AH4:AL4)</f>
+        <f>AVERAGE(AH4:AL4)</f>
         <v>4.42</v>
       </c>
       <c r="AN4" s="5">
         <v>4</v>
       </c>
       <c r="AO4" s="5">
-        <f t="shared" ref="AO4:AO17" si="6">0.3*AN4+0.6*AM4+0.05*AG4+0.05*W4</f>
-        <v>4.230240740740741</v>
-      </c>
-      <c r="AP4" s="56">
-        <v>1.6909722222222222E-2</v>
-      </c>
-      <c r="AQ4" s="58">
+        <f>0.3*AN4+0.6*AM4+0.05*AG4+0.05*W4</f>
+        <v>4.2321353276353273</v>
+      </c>
+      <c r="AP4" s="33">
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="57">
         <f>AP4/0.0170138888888889</f>
-        <v>0.99387755102040742</v>
-      </c>
-      <c r="AR4" s="56">
-        <v>0</v>
-      </c>
-      <c r="AS4" s="58">
+        <v>0</v>
+      </c>
+      <c r="AR4" s="33">
+        <v>0</v>
+      </c>
+      <c r="AS4" s="57">
         <f>AR4/0.0163310185185185</f>
         <v>0</v>
       </c>
-      <c r="AT4" s="56">
-        <v>3.2361111111111111E-2</v>
-      </c>
-      <c r="AU4" s="58">
+      <c r="AT4" s="33">
+        <v>0</v>
+      </c>
+      <c r="AU4" s="57">
         <f>AT4/0.0328240740740741</f>
-        <v>0.98589562764456895</v>
-      </c>
-      <c r="AW4" s="56"/>
-      <c r="AX4" s="48"/>
-      <c r="AY4" s="48"/>
+        <v>0</v>
+      </c>
+      <c r="AV4" s="33">
+        <v>2.0821759259259259E-2</v>
+      </c>
+      <c r="AW4" s="57">
+        <f>AV4/0.0208217592592593</f>
+        <v>0.999999999999998</v>
+      </c>
+      <c r="AX4" s="12">
+        <f>AVERAGE(AQ4,AS4,AU4,AW4)*5</f>
+        <v>1.2499999999999976</v>
+      </c>
+      <c r="AY4" s="56"/>
     </row>
     <row r="5" spans="1:51" s="48" customFormat="1">
-      <c r="A5" s="3">
-        <v>1107836732</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="3">
-        <v>1</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G5" s="3">
-        <v>4</v>
-      </c>
-      <c r="H5" s="3" t="str" cm="1">
+      <c r="A5" s="37">
+        <v>1005785832</v>
+      </c>
+      <c r="B5" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="37">
+        <v>2</v>
+      </c>
+      <c r="F5" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" s="37">
+        <v>1</v>
+      </c>
+      <c r="H5" s="37" t="str" cm="1">
         <f t="array" ref="H5">_xlfn.IFS(G5=1, "2:00 PM", G5=2, "2:30 PM", G5=3, "3:00 PM", G5=4, "3:30 PM")</f>
-        <v>3:30 PM</v>
-      </c>
-      <c r="I5" s="14">
+        <v>2:00 PM</v>
+      </c>
+      <c r="I5" s="40">
+        <v>7</v>
+      </c>
+      <c r="J5" s="37">
+        <v>7</v>
+      </c>
+      <c r="K5" s="41">
+        <v>4.8</v>
+      </c>
+      <c r="L5" s="41">
+        <f>(J5/I5)*K5</f>
+        <v>4.8</v>
+      </c>
+      <c r="M5" s="42">
+        <v>3.55</v>
+      </c>
+      <c r="N5" s="42">
+        <f>1/20</f>
+        <v>0.05</v>
+      </c>
+      <c r="O5" s="42">
+        <v>4.7</v>
+      </c>
+      <c r="P5" s="41">
+        <f>0.7*L5+0.2*M5+0.1*O5+N5</f>
+        <v>4.59</v>
+      </c>
+      <c r="Q5" s="43">
+        <v>1.5520833333333333E-2</v>
+      </c>
+      <c r="R5" s="44">
+        <f>Q5/$R$2</f>
+        <v>0.745</v>
+      </c>
+      <c r="S5" s="45">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="T5" s="44">
+        <f>S5/$T$2</f>
+        <v>1</v>
+      </c>
+      <c r="U5" s="44">
+        <v>1</v>
+      </c>
+      <c r="V5" s="46">
+        <v>0.8</v>
+      </c>
+      <c r="W5" s="52">
+        <f>AVERAGE(R5,T5,V5)*5</f>
+        <v>4.2416666666666663</v>
+      </c>
+      <c r="X5" s="47">
         <v>3</v>
       </c>
-      <c r="J5" s="3">
+      <c r="Y5" s="47"/>
+      <c r="Z5" s="47"/>
+      <c r="AA5" s="47">
+        <v>4</v>
+      </c>
+      <c r="AB5" s="47"/>
+      <c r="AC5" s="47">
+        <f>AVERAGE(X5:AB5)</f>
+        <v>3.5</v>
+      </c>
+      <c r="AD5" s="41">
+        <v>4.5</v>
+      </c>
+      <c r="AE5" s="41"/>
+      <c r="AF5" s="41">
+        <v>4.9285714285714288</v>
+      </c>
+      <c r="AG5" s="51">
+        <f>0.2*AF5+0.8*AVERAGE(AC5:AE5)</f>
+        <v>4.1857142857142859</v>
+      </c>
+      <c r="AH5" s="41">
+        <v>4.8</v>
+      </c>
+      <c r="AI5" s="41">
+        <v>4.8</v>
+      </c>
+      <c r="AJ5" s="41">
+        <v>4.5</v>
+      </c>
+      <c r="AK5" s="41">
+        <v>5</v>
+      </c>
+      <c r="AL5" s="41">
+        <v>4.5</v>
+      </c>
+      <c r="AM5" s="51">
+        <f>AVERAGE(AH5:AL5)</f>
+        <v>4.7200000000000006</v>
+      </c>
+      <c r="AN5" s="51">
+        <v>4.5</v>
+      </c>
+      <c r="AO5" s="41">
+        <f>0.3*AN5+0.6*AM5+0.05*AG5+0.05*W5</f>
+        <v>4.6033690476190481</v>
+      </c>
+      <c r="AP5" s="45">
+        <v>2.3009259259259261E-2</v>
+      </c>
+      <c r="AQ5" s="58">
+        <f>AP5/0.0230324074074074</f>
+        <v>0.99899497487437217</v>
+      </c>
+      <c r="AR5" s="45">
+        <v>1.6770833333333332E-2</v>
+      </c>
+      <c r="AS5" s="58">
+        <f>AR5/0.0230324074074074</f>
+        <v>0.72814070351758808</v>
+      </c>
+      <c r="AT5" s="45">
+        <v>1.6238425925925927E-2</v>
+      </c>
+      <c r="AU5" s="58">
+        <f>AT5/0.0162615740740741</f>
+        <v>0.9985765124555146</v>
+      </c>
+      <c r="AV5" s="45">
+        <v>8.2986111111111108E-3</v>
+      </c>
+      <c r="AW5" s="58">
+        <f>AV5/0.0102314814814815</f>
+        <v>0.81108597285067729</v>
+      </c>
+      <c r="AX5" s="42">
+        <f>AVERAGE(AQ5,AS5,AU5,AW5)*5</f>
+        <v>4.4209977046226898</v>
+      </c>
+      <c r="AY5" s="56"/>
+    </row>
+    <row r="6" spans="1:51">
+      <c r="A6" s="3">
+        <v>1110364376</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="K5" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="L5" s="5">
-        <f t="shared" si="0"/>
-        <v>4.5</v>
-      </c>
-      <c r="M5" s="12">
-        <v>3.59</v>
-      </c>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12">
-        <v>4.5</v>
-      </c>
-      <c r="P5" s="5">
-        <f t="shared" si="1"/>
-        <v>4.3179999999999996</v>
-      </c>
-      <c r="Q5" s="31">
-        <v>1.474537037037037E-2</v>
-      </c>
-      <c r="R5" s="32">
-        <f t="shared" si="2"/>
-        <v>0.70777777777777784</v>
-      </c>
-      <c r="S5" s="33">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="T5" s="32">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="U5" s="32">
-        <v>1</v>
-      </c>
-      <c r="V5" s="34">
-        <v>1</v>
-      </c>
-      <c r="W5" s="12">
-        <f>AVERAGE(R5,T5,V5)*5</f>
-        <v>4.5129629629629626</v>
-      </c>
-      <c r="X5" s="35"/>
-      <c r="Y5" s="35"/>
-      <c r="Z5" s="35"/>
-      <c r="AA5" s="35">
-        <v>4</v>
-      </c>
-      <c r="AB5" s="35"/>
-      <c r="AC5" s="35">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="AD5" s="5">
-        <v>4</v>
-      </c>
-      <c r="AE5" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="5">
-        <v>4.0769230769230766</v>
-      </c>
-      <c r="AG5" s="5">
-        <f>0.3*AF5+0.7*AVERAGE(AC5:AE5)</f>
-        <v>3.0897435897435894</v>
-      </c>
-      <c r="AH5" s="5">
-        <v>4.3</v>
-      </c>
-      <c r="AI5" s="5">
-        <v>4</v>
-      </c>
-      <c r="AJ5" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="AK5" s="5">
-        <v>4.8</v>
-      </c>
-      <c r="AL5" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="AM5" s="5">
-        <f t="shared" si="5"/>
-        <v>4.42</v>
-      </c>
-      <c r="AN5" s="5">
-        <v>4</v>
-      </c>
-      <c r="AO5" s="5">
-        <f t="shared" si="6"/>
-        <v>4.2321353276353273</v>
-      </c>
-      <c r="AQ5" s="58">
-        <f>AP5/0.0170138888888889</f>
-        <v>0</v>
-      </c>
-      <c r="AR5" s="56">
-        <v>0</v>
-      </c>
-      <c r="AS5" s="58">
-        <f>AR5/0.0163310185185185</f>
-        <v>0</v>
-      </c>
-      <c r="AT5" s="56">
-        <v>0</v>
-      </c>
-      <c r="AU5" s="58">
-        <f t="shared" ref="AU5:AU8" si="7">AT5/0.0328240740740741</f>
-        <v>0</v>
-      </c>
-      <c r="AV5"/>
-      <c r="AW5" s="56"/>
-      <c r="AX5"/>
-      <c r="AY5"/>
-    </row>
-    <row r="6" spans="1:51">
-      <c r="A6" s="37">
-        <v>1126644560</v>
-      </c>
-      <c r="B6" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="37">
-        <v>1</v>
-      </c>
-      <c r="F6" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="G6" s="37">
-        <v>4</v>
-      </c>
-      <c r="H6" s="37" t="str" cm="1">
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G6" s="3">
+        <v>4</v>
+      </c>
+      <c r="H6" s="3" t="str" cm="1">
         <f t="array" ref="H6">_xlfn.IFS(G6=1, "2:00 PM", G6=2, "2:30 PM", G6=3, "3:00 PM", G6=4, "3:30 PM")</f>
         <v>3:30 PM</v>
       </c>
-      <c r="I6" s="40">
-        <v>4</v>
-      </c>
-      <c r="J6" s="37">
-        <v>4</v>
-      </c>
-      <c r="K6" s="37">
+      <c r="I6" s="14">
+        <v>3</v>
+      </c>
+      <c r="J6" s="3">
+        <v>3</v>
+      </c>
+      <c r="K6" s="3">
         <v>4.8</v>
       </c>
-      <c r="L6" s="41">
-        <f t="shared" si="0"/>
+      <c r="L6" s="5">
+        <f>(J6/I6)*K6</f>
         <v>4.8</v>
       </c>
-      <c r="M6" s="42">
+      <c r="M6" s="12">
         <v>3.59</v>
       </c>
-      <c r="N6" s="42"/>
-      <c r="O6" s="42">
-        <v>4.5</v>
-      </c>
-      <c r="P6" s="41">
-        <f t="shared" si="1"/>
-        <v>4.5279999999999996</v>
-      </c>
-      <c r="Q6" s="43">
-        <v>1.6342592592592593E-2</v>
-      </c>
-      <c r="R6" s="44">
-        <f t="shared" si="2"/>
-        <v>0.7844444444444445</v>
-      </c>
-      <c r="S6" s="45">
+      <c r="N6" s="12">
+        <f>1/16</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="O6" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="P6" s="5">
+        <f>0.7*L6+0.2*M6+0.1*O6+N6</f>
+        <v>4.5904999999999996</v>
+      </c>
+      <c r="Q6" s="31">
+        <v>1.412037037037037E-2</v>
+      </c>
+      <c r="R6" s="32">
+        <f>Q6/$R$2</f>
+        <v>0.67777777777777781</v>
+      </c>
+      <c r="S6" s="33">
+        <v>0</v>
+      </c>
+      <c r="T6" s="32">
+        <f>S6/$T$2</f>
+        <v>0</v>
+      </c>
+      <c r="U6" s="32">
+        <v>1</v>
+      </c>
+      <c r="V6" s="34">
+        <v>0</v>
+      </c>
+      <c r="W6" s="12">
+        <v>3</v>
+      </c>
+      <c r="X6" s="35"/>
+      <c r="Y6" s="35">
+        <v>2</v>
+      </c>
+      <c r="Z6" s="35">
+        <v>2</v>
+      </c>
+      <c r="AA6" s="35"/>
+      <c r="AB6" s="35"/>
+      <c r="AC6" s="35">
+        <f>AVERAGE(X6:AB6)</f>
+        <v>2</v>
+      </c>
+      <c r="AD6" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="AE6" s="5">
+        <v>4</v>
+      </c>
+      <c r="AF6" s="5">
+        <v>4.9230769230769234</v>
+      </c>
+      <c r="AG6" s="5">
+        <f>0.2*AF6+0.8*AVERAGE(AC6:AE6)</f>
+        <v>3.7846153846153849</v>
+      </c>
+      <c r="AH6" s="5">
+        <v>4.3</v>
+      </c>
+      <c r="AI6" s="5">
+        <v>4</v>
+      </c>
+      <c r="AJ6" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="AK6" s="5">
+        <v>4.8</v>
+      </c>
+      <c r="AL6" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="AM6" s="5">
+        <f>AVERAGE(AH6:AL6)</f>
+        <v>4.42</v>
+      </c>
+      <c r="AN6" s="5">
+        <v>4</v>
+      </c>
+      <c r="AO6" s="5">
+        <f>0.3*AN6+0.6*AM6+0.05*AG6+0.05*W6</f>
+        <v>4.1912307692307689</v>
+      </c>
+      <c r="AP6" s="33">
+        <v>1.7013888888888887E-2</v>
+      </c>
+      <c r="AQ6" s="57">
+        <f>AP6/0.0170138888888889</f>
+        <v>0.99999999999999922</v>
+      </c>
+      <c r="AR6" s="33">
+        <v>1.6331018518518519E-2</v>
+      </c>
+      <c r="AS6" s="57">
+        <f>AR6/0.0163310185185185</f>
+        <v>1.0000000000000011</v>
+      </c>
+      <c r="AT6" s="33">
+        <v>0</v>
+      </c>
+      <c r="AU6" s="57">
+        <v>0.6</v>
+      </c>
+      <c r="AV6" s="33">
+        <v>0</v>
+      </c>
+      <c r="AW6" s="57">
+        <f>AV6/0.0208217592592593</f>
+        <v>0</v>
+      </c>
+      <c r="AX6" s="12">
+        <f>AVERAGE(AQ6,AS6,AU6,AW6)*5</f>
+        <v>3.2500000000000009</v>
+      </c>
+      <c r="AY6" s="48"/>
+    </row>
+    <row r="7" spans="1:51" s="48" customFormat="1">
+      <c r="A7" s="37">
+        <v>1005894053</v>
+      </c>
+      <c r="B7" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="37">
+        <v>4</v>
+      </c>
+      <c r="F7" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="G7" s="37">
+        <v>3</v>
+      </c>
+      <c r="H7" s="37" t="str" cm="1">
+        <f t="array" ref="H7">_xlfn.IFS(G7=1, "2:00 PM", G7=2, "2:30 PM", G7=3, "3:00 PM", G7=4, "3:30 PM")</f>
+        <v>3:00 PM</v>
+      </c>
+      <c r="I7" s="40">
+        <v>3</v>
+      </c>
+      <c r="J7" s="37">
+        <v>3</v>
+      </c>
+      <c r="K7" s="41">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="L7" s="41">
+        <f>(J7/I7)*K7</f>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="M7" s="42">
+        <v>2.96</v>
+      </c>
+      <c r="N7" s="42"/>
+      <c r="O7" s="42">
+        <v>3.5</v>
+      </c>
+      <c r="P7" s="41">
+        <f>0.7*L7+0.2*M7+0.1*O7+N7</f>
+        <v>4.1619999999999999</v>
+      </c>
+      <c r="Q7" s="43">
+        <v>2.1342592592592594E-2</v>
+      </c>
+      <c r="R7" s="44">
+        <f>Q7/$R$2</f>
+        <v>1.0244444444444445</v>
+      </c>
+      <c r="S7" s="45">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="T6" s="44">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="U6" s="44">
-        <v>1</v>
-      </c>
-      <c r="V6" s="46">
-        <v>1</v>
-      </c>
-      <c r="W6" s="52">
-        <f>AVERAGE(R6,T6,V6)*5</f>
-        <v>4.6407407407407408</v>
-      </c>
-      <c r="X6" s="47"/>
-      <c r="Y6" s="47">
-        <v>4</v>
-      </c>
-      <c r="Z6" s="47">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="47"/>
-      <c r="AB6" s="47"/>
-      <c r="AC6" s="47">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="AD6" s="41">
-        <v>4.5</v>
-      </c>
-      <c r="AE6" s="41">
-        <v>4</v>
-      </c>
-      <c r="AF6" s="41">
+      <c r="T7" s="44">
+        <f>S7/$T$2</f>
+        <v>1</v>
+      </c>
+      <c r="U7" s="44">
+        <v>1</v>
+      </c>
+      <c r="V7" s="46">
+        <v>1</v>
+      </c>
+      <c r="W7" s="52">
         <v>5</v>
       </c>
-      <c r="AG6" s="51">
-        <f t="shared" ref="AG6:AG23" si="8">0.2*AF6+0.8*AVERAGE(AC6:AE6)</f>
-        <v>3.8000000000000003</v>
-      </c>
-      <c r="AH6" s="41">
-        <v>4.3</v>
-      </c>
-      <c r="AI6" s="41">
-        <v>4</v>
-      </c>
-      <c r="AJ6" s="41">
-        <v>4.5</v>
-      </c>
-      <c r="AK6" s="41">
+      <c r="X7" s="47">
+        <v>5</v>
+      </c>
+      <c r="Y7" s="47"/>
+      <c r="Z7" s="47"/>
+      <c r="AA7" s="47"/>
+      <c r="AB7" s="47"/>
+      <c r="AC7" s="47">
+        <f>AVERAGE(X7:AB7)</f>
+        <v>5</v>
+      </c>
+      <c r="AD7" s="41">
+        <v>4.5</v>
+      </c>
+      <c r="AE7" s="41">
+        <v>4</v>
+      </c>
+      <c r="AF7" s="41">
+        <v>4.666666666666667</v>
+      </c>
+      <c r="AG7" s="51">
+        <f>0.2*AF7+0.8*AVERAGE(AC7:AE7)</f>
+        <v>4.5333333333333332</v>
+      </c>
+      <c r="AH7" s="41">
         <v>4.8</v>
       </c>
-      <c r="AL6" s="41">
-        <v>4.5</v>
-      </c>
-      <c r="AM6" s="51">
-        <f t="shared" si="5"/>
-        <v>4.42</v>
-      </c>
-      <c r="AN6" s="51">
-        <v>4</v>
-      </c>
-      <c r="AO6" s="41">
-        <f t="shared" si="6"/>
-        <v>4.2740370370370364</v>
-      </c>
-      <c r="AP6" s="56">
-        <v>1.6087962962962964E-2</v>
-      </c>
-      <c r="AQ6" s="58">
-        <f>AP6/0.0170138888888889</f>
-        <v>0.94557823129251639</v>
-      </c>
-      <c r="AR6" s="56">
-        <v>1.3020833333333334E-2</v>
-      </c>
-      <c r="AS6" s="58">
-        <f>AR6/0.0163310185185185</f>
-        <v>0.79730687455705263</v>
-      </c>
-      <c r="AT6" s="56">
-        <v>3.2824074074074075E-2</v>
-      </c>
-      <c r="AU6" s="58">
-        <f t="shared" si="7"/>
-        <v>0.99999999999999911</v>
-      </c>
-      <c r="AW6" s="56"/>
-      <c r="AX6" s="57"/>
-    </row>
-    <row r="7" spans="1:51" s="48" customFormat="1">
-      <c r="A7" s="3">
-        <v>1062329024</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="3">
-        <v>1</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G7" s="3">
-        <v>4</v>
-      </c>
-      <c r="H7" s="3" t="str" cm="1">
-        <f t="array" ref="H7">_xlfn.IFS(G7=1, "2:00 PM", G7=2, "2:30 PM", G7=3, "3:00 PM", G7=4, "3:30 PM")</f>
-        <v>3:30 PM</v>
-      </c>
-      <c r="I7" s="14">
-        <v>5</v>
-      </c>
-      <c r="J7" s="3">
-        <v>5</v>
-      </c>
-      <c r="K7" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="L7" s="5">
-        <f t="shared" si="0"/>
-        <v>4.5</v>
-      </c>
-      <c r="M7" s="12">
-        <v>3.59</v>
-      </c>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12">
-        <v>4.5</v>
-      </c>
-      <c r="P7" s="5">
-        <f t="shared" si="1"/>
-        <v>4.3179999999999996</v>
-      </c>
-      <c r="Q7" s="31">
-        <v>0</v>
-      </c>
-      <c r="R7" s="32">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S7" s="33">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="T7" s="32">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="U7" s="32">
-        <v>1</v>
-      </c>
-      <c r="V7" s="34">
-        <v>1</v>
-      </c>
-      <c r="W7" s="12">
-        <f>AVERAGE(R7,T7,V7)*5</f>
-        <v>3.333333333333333</v>
-      </c>
-      <c r="X7" s="35"/>
-      <c r="Y7" s="35">
-        <v>5</v>
-      </c>
-      <c r="Z7" s="35">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="35"/>
-      <c r="AB7" s="35"/>
-      <c r="AC7" s="35">
-        <f t="shared" si="4"/>
-        <v>2.5</v>
-      </c>
-      <c r="AD7" s="5">
+      <c r="AI7" s="41">
+        <v>4.5</v>
+      </c>
+      <c r="AJ7" s="41">
+        <v>4.5</v>
+      </c>
+      <c r="AK7" s="41">
+        <v>3.5</v>
+      </c>
+      <c r="AL7" s="41">
         <v>3</v>
       </c>
-      <c r="AE7" s="5">
-        <v>4</v>
-      </c>
-      <c r="AF7" s="5">
-        <v>3.8461538461538463</v>
-      </c>
-      <c r="AG7" s="5">
-        <f t="shared" si="8"/>
-        <v>3.3025641025641024</v>
-      </c>
-      <c r="AH7" s="5">
-        <v>4.3</v>
-      </c>
-      <c r="AI7" s="5">
-        <v>4</v>
-      </c>
-      <c r="AJ7" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="AK7" s="5">
-        <v>4.8</v>
-      </c>
-      <c r="AL7" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="AM7" s="5">
-        <f t="shared" si="5"/>
-        <v>4.42</v>
-      </c>
-      <c r="AN7" s="5">
-        <v>4</v>
-      </c>
-      <c r="AO7" s="5">
-        <f t="shared" si="6"/>
-        <v>4.1837948717948716</v>
+      <c r="AM7" s="51">
+        <f>AVERAGE(AH7:AL7)</f>
+        <v>4.0600000000000005</v>
+      </c>
+      <c r="AN7" s="51">
+        <v>4</v>
+      </c>
+      <c r="AO7" s="41">
+        <f>0.3*AN7+0.6*AM7+0.05*AG7+0.05*W7</f>
+        <v>4.1126666666666667</v>
+      </c>
+      <c r="AP7" s="45">
+        <v>1.7777777777777778E-2</v>
       </c>
       <c r="AQ7" s="58">
-        <f>AP7/0.0170138888888889</f>
-        <v>0</v>
-      </c>
-      <c r="AR7" s="56">
-        <v>0</v>
+        <f>AP7/0.0252083333333333</f>
+        <v>0.70523415977961523</v>
+      </c>
+      <c r="AR7" s="45">
+        <v>2.1342592592592594E-2</v>
       </c>
       <c r="AS7" s="58">
-        <f>AR7/0.0163310185185185</f>
-        <v>0</v>
-      </c>
-      <c r="AT7" s="56">
-        <v>6.099537037037037E-3</v>
+        <f>AR7/0.0236226851851852</f>
+        <v>0.90347868691817679</v>
+      </c>
+      <c r="AT7" s="45">
+        <v>2.5532407407407406E-2</v>
       </c>
       <c r="AU7" s="58">
-        <f t="shared" si="7"/>
-        <v>0.18582510578279252</v>
-      </c>
-      <c r="AV7"/>
-      <c r="AW7" s="56"/>
+        <f>AT7/0.0277314814814815</f>
+        <v>0.92070116861435669</v>
+      </c>
+      <c r="AV7" s="45">
+        <v>0</v>
+      </c>
+      <c r="AW7" s="58">
+        <f>AV7/0.0115277777777778</f>
+        <v>0</v>
+      </c>
+      <c r="AX7" s="42">
+        <f>AVERAGE(AQ7,AS7,AU7,AW7)*5</f>
+        <v>3.1617675191401862</v>
+      </c>
     </row>
     <row r="8" spans="1:51">
       <c r="A8" s="3">
-        <v>1110364376</v>
+        <v>1081728000</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D8" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="3">
         <v>3</v>
       </c>
-      <c r="E8" s="3">
-        <v>1</v>
-      </c>
       <c r="F8" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="G8" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H8" s="3" t="str" cm="1">
         <f t="array" ref="H8">_xlfn.IFS(G8=1, "2:00 PM", G8=2, "2:30 PM", G8=3, "3:00 PM", G8=4, "3:30 PM")</f>
-        <v>3:30 PM</v>
+        <v>2:30 PM</v>
       </c>
       <c r="I8" s="14">
+        <v>5</v>
+      </c>
+      <c r="J8" s="3">
+        <v>5</v>
+      </c>
+      <c r="K8" s="5">
+        <v>4.8</v>
+      </c>
+      <c r="L8" s="5">
+        <f>(J8/I8)*K8</f>
+        <v>4.8</v>
+      </c>
+      <c r="M8" s="12">
+        <v>2.76</v>
+      </c>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12">
         <v>3</v>
       </c>
-      <c r="J8" s="3">
-        <v>3</v>
-      </c>
-      <c r="K8" s="3">
-        <v>4.8</v>
-      </c>
-      <c r="L8" s="5">
-        <f t="shared" si="0"/>
-        <v>4.8</v>
-      </c>
-      <c r="M8" s="12">
-        <v>3.59</v>
-      </c>
-      <c r="N8" s="12">
-        <f>1/16</f>
-        <v>6.25E-2</v>
-      </c>
-      <c r="O8" s="12">
-        <v>4.5</v>
-      </c>
       <c r="P8" s="5">
-        <f t="shared" si="1"/>
-        <v>4.5904999999999996</v>
+        <f>0.7*L8+0.2*M8+0.1*O8+N8</f>
+        <v>4.2119999999999997</v>
       </c>
       <c r="Q8" s="31">
-        <v>1.412037037037037E-2</v>
+        <v>9.9305555555555553E-3</v>
       </c>
       <c r="R8" s="32">
-        <f t="shared" si="2"/>
-        <v>0.67777777777777781</v>
+        <f>Q8/$R$2</f>
+        <v>0.47666666666666668</v>
       </c>
       <c r="S8" s="33">
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="T8" s="32">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>S8/$T$2</f>
+        <v>1</v>
       </c>
       <c r="U8" s="32">
         <v>1</v>
       </c>
       <c r="V8" s="34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W8" s="12">
-        <v>3</v>
-      </c>
-      <c r="X8" s="35"/>
-      <c r="Y8" s="35">
+        <f>AVERAGE(R8,T8,V8)*5</f>
+        <v>4.1277777777777773</v>
+      </c>
+      <c r="X8" s="35">
         <v>2</v>
       </c>
-      <c r="Z8" s="35">
-        <v>2</v>
-      </c>
-      <c r="AA8" s="35"/>
+      <c r="Y8" s="35"/>
+      <c r="Z8" s="35"/>
+      <c r="AA8" s="35">
+        <v>1</v>
+      </c>
       <c r="AB8" s="35"/>
       <c r="AC8" s="35">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(X8:AB8)</f>
+        <v>1.5</v>
+      </c>
+      <c r="AD8" s="5">
+        <v>4</v>
+      </c>
+      <c r="AE8" s="5">
+        <v>4</v>
+      </c>
+      <c r="AF8" s="5">
+        <v>4.615384615384615</v>
+      </c>
+      <c r="AG8" s="5">
+        <f>0.2*AF8+0.8*AVERAGE(AC8:AE8)</f>
+        <v>3.4564102564102561</v>
+      </c>
+      <c r="AH8" s="5">
+        <v>4</v>
+      </c>
+      <c r="AI8" s="5">
+        <v>4.7</v>
+      </c>
+      <c r="AJ8" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="AK8" s="5">
+        <v>4</v>
+      </c>
+      <c r="AL8" s="5">
+        <v>4.3</v>
+      </c>
+      <c r="AM8" s="5">
+        <f>AVERAGE(AH8:AL8)</f>
+        <v>4.3</v>
+      </c>
+      <c r="AN8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AO8" s="5">
+        <f>0.3*AN8+0.6*AM8+0.05*AG8+0.05*W8</f>
+        <v>2.9592094017094013</v>
+      </c>
+      <c r="AP8" s="59">
+        <v>1.9305555555555555E-2</v>
+      </c>
+      <c r="AQ8" s="60">
+        <f>AP8/0.0221875</f>
+        <v>0.87010954616588421</v>
+      </c>
+      <c r="AR8" s="59">
+        <v>1.3553240740740741E-2</v>
+      </c>
+      <c r="AS8" s="60">
+        <f>AR8/0.0181481481481481</f>
+        <v>0.74681122448979786</v>
+      </c>
+      <c r="AT8" s="59">
+        <v>2.5300925925925925E-2</v>
+      </c>
+      <c r="AU8" s="60">
+        <f>AT8/0.0282407407407407</f>
+        <v>0.89590163934426348</v>
+      </c>
+      <c r="AV8" s="59">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AW8" s="60">
+        <f>AV8/0.0189351851851852</f>
+        <v>0.26405867970660124</v>
+      </c>
+      <c r="AX8" s="61">
+        <f>AVERAGE(AQ8,AS8,AU8,AW8)*5</f>
+        <v>3.471101362133183</v>
+      </c>
+      <c r="AY8" s="56"/>
+    </row>
+    <row r="9" spans="1:51" s="48" customFormat="1">
+      <c r="A9" s="37">
+        <v>1062274189</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="37">
+        <v>3</v>
+      </c>
+      <c r="F9" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" s="37">
         <v>2</v>
       </c>
-      <c r="AD8" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="AE8" s="5">
-        <v>4</v>
-      </c>
-      <c r="AF8" s="5">
-        <v>4.9230769230769234</v>
-      </c>
-      <c r="AG8" s="5">
-        <f t="shared" si="8"/>
-        <v>3.7846153846153849</v>
-      </c>
-      <c r="AH8" s="5">
+      <c r="H9" s="37" t="str" cm="1">
+        <f t="array" ref="H9">_xlfn.IFS(G9=1, "2:00 PM", G9=2, "2:30 PM", G9=3, "3:00 PM", G9=4, "3:30 PM")</f>
+        <v>2:30 PM</v>
+      </c>
+      <c r="I9" s="40">
+        <v>5</v>
+      </c>
+      <c r="J9" s="37">
+        <v>3</v>
+      </c>
+      <c r="K9" s="41">
+        <v>4.5</v>
+      </c>
+      <c r="L9" s="41">
+        <f>(J9/I9)*K9</f>
+        <v>2.6999999999999997</v>
+      </c>
+      <c r="M9" s="42">
+        <v>2.76</v>
+      </c>
+      <c r="N9" s="42"/>
+      <c r="O9" s="42">
+        <v>3</v>
+      </c>
+      <c r="P9" s="41">
+        <f>0.7*L9+0.2*M9+0.1*O9+N9</f>
+        <v>2.742</v>
+      </c>
+      <c r="Q9" s="43">
+        <v>1.8506944444444444E-2</v>
+      </c>
+      <c r="R9" s="44">
+        <f>Q9/$R$2</f>
+        <v>0.88833333333333331</v>
+      </c>
+      <c r="S9" s="45">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="T9" s="44">
+        <f>S9/$T$2</f>
+        <v>1</v>
+      </c>
+      <c r="U9" s="44">
+        <v>1</v>
+      </c>
+      <c r="V9" s="46">
+        <v>0.8</v>
+      </c>
+      <c r="W9" s="52">
+        <f>AVERAGE(R9,T9,V9)*5</f>
+        <v>4.4805555555555561</v>
+      </c>
+      <c r="X9" s="47">
+        <v>2</v>
+      </c>
+      <c r="Y9" s="47">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="47"/>
+      <c r="AA9" s="47">
+        <v>3</v>
+      </c>
+      <c r="AB9" s="47"/>
+      <c r="AC9" s="47">
+        <f>AVERAGE(X9:AB9)</f>
+        <v>2</v>
+      </c>
+      <c r="AD9" s="41">
+        <v>4</v>
+      </c>
+      <c r="AE9" s="41">
+        <v>4</v>
+      </c>
+      <c r="AF9" s="41">
+        <v>4.7692307692307692</v>
+      </c>
+      <c r="AG9" s="51">
+        <f>0.2*AF9+0.8*AVERAGE(AC9:AE9)</f>
+        <v>3.620512820512821</v>
+      </c>
+      <c r="AH9" s="41">
+        <v>4</v>
+      </c>
+      <c r="AI9" s="41">
+        <v>4.7</v>
+      </c>
+      <c r="AJ9" s="41">
+        <v>4.5</v>
+      </c>
+      <c r="AK9" s="41">
+        <v>4</v>
+      </c>
+      <c r="AL9" s="41">
         <v>4.3</v>
       </c>
-      <c r="AI8" s="5">
-        <v>4</v>
-      </c>
-      <c r="AJ8" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="AK8" s="5">
+      <c r="AM9" s="51">
+        <f>AVERAGE(AH9:AL9)</f>
+        <v>4.3</v>
+      </c>
+      <c r="AN9" s="51">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="41">
+        <f>0.3*AN9+0.6*AM9+0.05*AG9+0.05*W9</f>
+        <v>2.9850534188034183</v>
+      </c>
+      <c r="AP9" s="45">
+        <v>2.2187499999999999E-2</v>
+      </c>
+      <c r="AQ9" s="58">
+        <f>AP9/0.0221875</f>
+        <v>1</v>
+      </c>
+      <c r="AR9" s="45">
+        <v>1.8148148148148149E-2</v>
+      </c>
+      <c r="AS9" s="58">
+        <f>AR9/0.0181481481481481</f>
+        <v>1.0000000000000027</v>
+      </c>
+      <c r="AT9" s="45">
+        <v>2.6921296296296297E-2</v>
+      </c>
+      <c r="AU9" s="58">
+        <f>AT9/0.0282407407407407</f>
+        <v>0.95327868852459152</v>
+      </c>
+      <c r="AV9" s="45">
+        <v>1.8935185185185187E-2</v>
+      </c>
+      <c r="AW9" s="58">
+        <f>AV9/0.0189351851851852</f>
+        <v>0.99999999999999922</v>
+      </c>
+      <c r="AX9" s="42">
+        <f>AVERAGE(AQ9,AS9,AU9,AW9)*5</f>
+        <v>4.9415983606557417</v>
+      </c>
+      <c r="AY9" s="56"/>
+    </row>
+    <row r="10" spans="1:51">
+      <c r="A10" s="3">
+        <v>1193073115</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="3">
+        <v>4</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" s="3">
+        <v>3</v>
+      </c>
+      <c r="H10" s="3" t="str" cm="1">
+        <f t="array" ref="H10">_xlfn.IFS(G10=1, "2:00 PM", G10=2, "2:30 PM", G10=3, "3:00 PM", G10=4, "3:30 PM")</f>
+        <v>3:00 PM</v>
+      </c>
+      <c r="I10" s="14">
+        <v>4</v>
+      </c>
+      <c r="J10" s="3">
+        <v>4</v>
+      </c>
+      <c r="K10" s="5">
         <v>4.8</v>
       </c>
-      <c r="AL8" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="AM8" s="5">
-        <f t="shared" si="5"/>
-        <v>4.42</v>
-      </c>
-      <c r="AN8" s="5">
-        <v>4</v>
-      </c>
-      <c r="AO8" s="5">
-        <f t="shared" si="6"/>
-        <v>4.1912307692307689</v>
-      </c>
-      <c r="AP8" s="56">
-        <v>1.7013888888888887E-2</v>
-      </c>
-      <c r="AQ8" s="58">
-        <f>AP8/0.0170138888888889</f>
-        <v>0.99999999999999922</v>
-      </c>
-      <c r="AR8" s="56">
-        <v>1.6331018518518519E-2</v>
-      </c>
-      <c r="AS8" s="58">
-        <f>AR8/0.0163310185185185</f>
-        <v>1.0000000000000011</v>
-      </c>
-      <c r="AT8" s="56">
-        <v>0</v>
-      </c>
-      <c r="AU8" s="58">
-        <v>0.6</v>
-      </c>
-      <c r="AV8" s="48"/>
-      <c r="AW8" s="56"/>
-      <c r="AX8" s="48"/>
-      <c r="AY8" s="48"/>
-    </row>
-    <row r="9" spans="1:51" s="48" customFormat="1">
-      <c r="A9" s="3">
+      <c r="L10" s="5">
+        <f>(J10/I10)*K10</f>
+        <v>4.8</v>
+      </c>
+      <c r="M10" s="12">
+        <v>2.96</v>
+      </c>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12">
+        <v>3.5</v>
+      </c>
+      <c r="P10" s="5">
+        <f>0.7*L10+0.2*M10+0.1*O10+N10</f>
+        <v>4.3019999999999996</v>
+      </c>
+      <c r="Q10" s="31">
+        <v>2.0532407407407409E-2</v>
+      </c>
+      <c r="R10" s="32">
+        <f>Q10/$R$2</f>
+        <v>0.98555555555555563</v>
+      </c>
+      <c r="S10" s="33">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="T10" s="32">
+        <f>S10/$T$2</f>
+        <v>1</v>
+      </c>
+      <c r="U10" s="32">
+        <v>1</v>
+      </c>
+      <c r="V10" s="34">
+        <v>1</v>
+      </c>
+      <c r="W10" s="12">
+        <f>AVERAGE(R10,T10,V10)*5</f>
+        <v>4.9759259259259263</v>
+      </c>
+      <c r="X10" s="35">
+        <v>5</v>
+      </c>
+      <c r="Y10" s="35">
+        <v>5</v>
+      </c>
+      <c r="Z10" s="35">
+        <v>5</v>
+      </c>
+      <c r="AA10" s="35"/>
+      <c r="AB10" s="35"/>
+      <c r="AC10" s="35">
+        <f>AVERAGE(X10:AB10)</f>
+        <v>5</v>
+      </c>
+      <c r="AD10" s="5">
+        <v>5</v>
+      </c>
+      <c r="AE10" s="5">
+        <v>4</v>
+      </c>
+      <c r="AF10" s="5">
+        <v>4.833333333333333</v>
+      </c>
+      <c r="AG10" s="5">
+        <f>0.2*AF10+0.8*AVERAGE(AC10:AE10)</f>
+        <v>4.7</v>
+      </c>
+      <c r="AH10" s="5">
+        <v>4.8</v>
+      </c>
+      <c r="AI10" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="AJ10" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="AK10" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="AL10" s="5">
+        <v>3</v>
+      </c>
+      <c r="AM10" s="5">
+        <f>AVERAGE(AH10:AL10)</f>
+        <v>4.0600000000000005</v>
+      </c>
+      <c r="AN10" s="5">
+        <v>4</v>
+      </c>
+      <c r="AO10" s="5">
+        <f>0.3*AN10+0.6*AM10+0.05*AG10+0.05*W10</f>
+        <v>4.119796296296296</v>
+      </c>
+      <c r="AP10" s="33">
+        <v>2.5208333333333333E-2</v>
+      </c>
+      <c r="AQ10" s="57">
+        <f>AP10/0.0252083333333333</f>
+        <v>1.0000000000000013</v>
+      </c>
+      <c r="AR10" s="33">
+        <v>2.2731481481481481E-2</v>
+      </c>
+      <c r="AS10" s="57">
+        <f>AR10/0.0236226851851852</f>
+        <v>0.96227339539441381</v>
+      </c>
+      <c r="AT10" s="33">
+        <v>0</v>
+      </c>
+      <c r="AU10" s="57">
+        <f>AT10/0.0277314814814815</f>
+        <v>0</v>
+      </c>
+      <c r="AV10" s="33">
+        <v>1.1527777777777777E-2</v>
+      </c>
+      <c r="AW10" s="57">
+        <f>AV10/0.0115277777777778</f>
+        <v>0.999999999999998</v>
+      </c>
+      <c r="AX10" s="12">
+        <f>AVERAGE(AQ10,AS10,AU10,AW10)*5</f>
+        <v>3.7028417442430159</v>
+      </c>
+      <c r="AY10" s="56"/>
+    </row>
+    <row r="11" spans="1:51" s="48" customFormat="1" hidden="1">
+      <c r="A11" s="37">
+        <v>1004189893</v>
+      </c>
+      <c r="B11" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="D11" s="38"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="42"/>
+      <c r="O11" s="42"/>
+      <c r="P11" s="38"/>
+      <c r="Q11" s="43">
+        <v>0</v>
+      </c>
+      <c r="R11" s="44">
+        <v>0</v>
+      </c>
+      <c r="S11" s="45">
+        <v>0</v>
+      </c>
+      <c r="T11" s="44">
+        <v>0</v>
+      </c>
+      <c r="U11" s="45">
+        <v>0</v>
+      </c>
+      <c r="V11" s="46">
+        <v>0</v>
+      </c>
+      <c r="W11" s="52">
+        <v>0</v>
+      </c>
+      <c r="X11" s="47"/>
+      <c r="Y11" s="47"/>
+      <c r="Z11" s="47"/>
+      <c r="AA11" s="47"/>
+      <c r="AB11" s="47"/>
+      <c r="AC11" s="47">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="41"/>
+      <c r="AE11" s="41"/>
+      <c r="AF11" s="41">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="51">
+        <f>0.2*AF11+0.8*AVERAGE(AC11:AE11)</f>
+        <v>0</v>
+      </c>
+      <c r="AH11" s="41">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="41">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="41">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="41">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="41">
+        <v>0</v>
+      </c>
+      <c r="AM11" s="51">
+        <v>0</v>
+      </c>
+      <c r="AN11" s="51">
+        <v>0</v>
+      </c>
+      <c r="AO11" s="41">
+        <v>0</v>
+      </c>
+      <c r="AP11" s="41"/>
+      <c r="AQ11" s="41"/>
+      <c r="AR11" s="45"/>
+      <c r="AS11" s="41"/>
+      <c r="AT11" s="45"/>
+      <c r="AU11" s="58"/>
+      <c r="AV11" s="37"/>
+      <c r="AW11" s="58"/>
+      <c r="AX11" s="37"/>
+      <c r="AY11"/>
+    </row>
+    <row r="12" spans="1:51">
+      <c r="A12" s="3">
         <v>1005783739</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D12" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E12" s="3">
         <v>2</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="G9" s="3">
-        <v>1</v>
-      </c>
-      <c r="H9" s="3" t="str" cm="1">
-        <f t="array" ref="H9">_xlfn.IFS(G9=1, "2:00 PM", G9=2, "2:30 PM", G9=3, "3:00 PM", G9=4, "3:30 PM")</f>
+      <c r="G12" s="3">
+        <v>1</v>
+      </c>
+      <c r="H12" s="3" t="str" cm="1">
+        <f t="array" ref="H12">_xlfn.IFS(G12=1, "2:00 PM", G12=2, "2:30 PM", G12=3, "3:00 PM", G12=4, "3:30 PM")</f>
         <v>2:00 PM</v>
       </c>
-      <c r="I9" s="14">
-        <v>4</v>
-      </c>
-      <c r="J9" s="3">
-        <v>4</v>
-      </c>
-      <c r="K9" s="5">
+      <c r="I12" s="14">
+        <v>4</v>
+      </c>
+      <c r="J12" s="3">
+        <v>4</v>
+      </c>
+      <c r="K12" s="5">
         <v>4.8</v>
       </c>
-      <c r="L9" s="5">
-        <f t="shared" si="0"/>
+      <c r="L12" s="5">
+        <f>(J12/I12)*K12</f>
         <v>4.8</v>
       </c>
-      <c r="M9" s="12">
+      <c r="M12" s="12">
         <v>3.55</v>
       </c>
-      <c r="N9" s="12">
+      <c r="N12" s="12">
         <f>3/20</f>
         <v>0.15</v>
       </c>
-      <c r="O9" s="12">
+      <c r="O12" s="12">
         <v>4.7</v>
       </c>
-      <c r="P9" s="5">
-        <f t="shared" si="1"/>
+      <c r="P12" s="5">
+        <f>0.7*L12+0.2*M12+0.1*O12+N12</f>
         <v>4.6900000000000004</v>
       </c>
-      <c r="Q9" s="31">
+      <c r="Q12" s="31">
         <v>1.4976851851851852E-2</v>
       </c>
-      <c r="R9" s="32">
-        <f t="shared" si="2"/>
+      <c r="R12" s="32">
+        <f>Q12/$R$2</f>
         <v>0.71888888888888891</v>
       </c>
-      <c r="S9" s="33">
+      <c r="S12" s="33">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="T9" s="32">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="U9" s="32">
-        <v>1</v>
-      </c>
-      <c r="V9" s="34">
-        <v>1</v>
-      </c>
-      <c r="W9" s="12">
-        <f t="shared" ref="W9:W17" si="9">AVERAGE(R9,T9,V9)*5</f>
+      <c r="T12" s="32">
+        <f>S12/$T$2</f>
+        <v>1</v>
+      </c>
+      <c r="U12" s="32">
+        <v>1</v>
+      </c>
+      <c r="V12" s="34">
+        <v>1</v>
+      </c>
+      <c r="W12" s="12">
+        <f>AVERAGE(R12,T12,V12)*5</f>
         <v>4.5314814814814817</v>
       </c>
-      <c r="X9" s="35">
+      <c r="X12" s="35">
         <v>2</v>
       </c>
-      <c r="Y9" s="35"/>
-      <c r="Z9" s="35">
-        <v>4</v>
-      </c>
-      <c r="AA9" s="35"/>
-      <c r="AB9" s="35"/>
-      <c r="AC9" s="35">
-        <f t="shared" si="4"/>
+      <c r="Y12" s="35"/>
+      <c r="Z12" s="35">
+        <v>4</v>
+      </c>
+      <c r="AA12" s="35"/>
+      <c r="AB12" s="35"/>
+      <c r="AC12" s="35">
+        <f>AVERAGE(X12:AB12)</f>
         <v>3</v>
       </c>
-      <c r="AD9" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="AE9" s="5">
+      <c r="AD12" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="AE12" s="5">
         <v>5</v>
       </c>
-      <c r="AF9" s="5">
+      <c r="AF12" s="5">
         <v>4.9285714285714288</v>
       </c>
-      <c r="AG9" s="5">
-        <f t="shared" si="8"/>
+      <c r="AG12" s="5">
+        <f>0.2*AF12+0.8*AVERAGE(AC12:AE12)</f>
         <v>4.3190476190476197</v>
       </c>
-      <c r="AH9" s="5">
+      <c r="AH12" s="5">
         <v>4.8</v>
       </c>
-      <c r="AI9" s="5">
+      <c r="AI12" s="5">
         <v>4.8</v>
       </c>
-      <c r="AJ9" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="AK9" s="5">
+      <c r="AJ12" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="AK12" s="5">
         <v>5</v>
       </c>
-      <c r="AL9" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="AM9" s="5">
-        <f t="shared" si="5"/>
+      <c r="AL12" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="AM12" s="5">
+        <f>AVERAGE(AH12:AL12)</f>
         <v>4.7200000000000006</v>
       </c>
-      <c r="AN9" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="AO9" s="5">
-        <f t="shared" si="6"/>
+      <c r="AN12" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="AO12" s="5">
+        <f>0.3*AN12+0.6*AM12+0.05*AG12+0.05*W12</f>
         <v>4.624526455026456</v>
       </c>
-      <c r="AP9" s="56">
+      <c r="AP12" s="33">
         <v>2.2997685185185184E-2</v>
       </c>
-      <c r="AQ9" s="58">
-        <f>AP9/0.0230324074074074</f>
+      <c r="AQ12" s="57">
+        <f>AP12/0.0230324074074074</f>
         <v>0.99849246231155797</v>
       </c>
-      <c r="AR9" s="56">
+      <c r="AR12" s="33">
         <v>2.0706018518518519E-2</v>
       </c>
-      <c r="AS9" s="58">
-        <f>AR9/0.0230324074074074</f>
+      <c r="AS12" s="57">
+        <f>AR12/0.0230324074074074</f>
         <v>0.89899497487437219</v>
       </c>
-      <c r="AT9" s="56">
+      <c r="AT12" s="33">
         <v>1.6261574074074074E-2</v>
       </c>
-      <c r="AU9" s="58">
-        <f>AT9/0.0162615740740741</f>
+      <c r="AU12" s="57">
+        <f>AT12/0.0162615740740741</f>
         <v>0.99999999999999856</v>
       </c>
-      <c r="AV9"/>
-      <c r="AW9" s="56"/>
-      <c r="AX9"/>
-      <c r="AY9"/>
-    </row>
-    <row r="10" spans="1:51">
-      <c r="A10" s="37">
+      <c r="AV12" s="33">
+        <v>0</v>
+      </c>
+      <c r="AW12" s="57">
+        <f>AV12/0.0102314814814815</f>
+        <v>0</v>
+      </c>
+      <c r="AX12" s="12">
+        <f>AVERAGE(AQ12,AS12,AU12,AW12)*5</f>
+        <v>3.6218592964824108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:51" s="48" customFormat="1" ht="15.75">
+      <c r="A13" s="37">
+        <v>1007603017</v>
+      </c>
+      <c r="B13" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="37">
+        <v>3</v>
+      </c>
+      <c r="F13" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" s="37">
+        <v>2</v>
+      </c>
+      <c r="H13" s="37" t="str" cm="1">
+        <f t="array" ref="H13">_xlfn.IFS(G13=1, "2:00 PM", G13=2, "2:30 PM", G13=3, "3:00 PM", G13=4, "3:30 PM")</f>
+        <v>2:30 PM</v>
+      </c>
+      <c r="I13" s="40">
+        <v>5</v>
+      </c>
+      <c r="J13" s="37">
+        <v>5</v>
+      </c>
+      <c r="K13" s="41">
+        <v>4.8</v>
+      </c>
+      <c r="L13" s="41">
+        <f>(J13/I13)*K13</f>
+        <v>4.8</v>
+      </c>
+      <c r="M13" s="42">
+        <v>2.76</v>
+      </c>
+      <c r="N13" s="42"/>
+      <c r="O13" s="42">
+        <v>3</v>
+      </c>
+      <c r="P13" s="41">
+        <f>0.7*L13+0.2*M13+0.1*O13+N13</f>
+        <v>4.2119999999999997</v>
+      </c>
+      <c r="Q13" s="43">
+        <v>1.8159722222222223E-2</v>
+      </c>
+      <c r="R13" s="44">
+        <f>Q13/$R$2</f>
+        <v>0.8716666666666667</v>
+      </c>
+      <c r="S13" s="45">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="T13" s="44">
+        <f>S13/$T$2</f>
+        <v>1</v>
+      </c>
+      <c r="U13" s="44">
+        <v>1</v>
+      </c>
+      <c r="V13" s="46">
+        <v>1</v>
+      </c>
+      <c r="W13" s="52">
+        <f>AVERAGE(R13,T13,V13)*5</f>
+        <v>4.7861111111111114</v>
+      </c>
+      <c r="X13" s="47">
+        <v>4</v>
+      </c>
+      <c r="Y13" s="47"/>
+      <c r="Z13" s="47"/>
+      <c r="AA13" s="47">
+        <v>5</v>
+      </c>
+      <c r="AB13" s="47"/>
+      <c r="AC13" s="47">
+        <f>AVERAGE(X13:AB13)</f>
+        <v>4.5</v>
+      </c>
+      <c r="AD13" s="41">
+        <v>4</v>
+      </c>
+      <c r="AE13" s="41">
+        <v>4</v>
+      </c>
+      <c r="AF13" s="41">
+        <v>4.615384615384615</v>
+      </c>
+      <c r="AG13" s="51">
+        <f>0.2*AF13+0.8*AVERAGE(AC13:AE13)</f>
+        <v>4.2564102564102573</v>
+      </c>
+      <c r="AH13" s="41">
+        <v>4</v>
+      </c>
+      <c r="AI13" s="41">
+        <v>4.7</v>
+      </c>
+      <c r="AJ13" s="41">
+        <v>4.5</v>
+      </c>
+      <c r="AK13" s="41">
+        <v>4</v>
+      </c>
+      <c r="AL13" s="41">
+        <v>4.3</v>
+      </c>
+      <c r="AM13" s="51">
+        <f>AVERAGE(AH13:AL13)</f>
+        <v>4.3</v>
+      </c>
+      <c r="AN13" s="51">
+        <v>0</v>
+      </c>
+      <c r="AO13" s="41">
+        <f>0.3*AN13+0.6*AM13+0.05*AG13+0.05*W13</f>
+        <v>3.0321260683760682</v>
+      </c>
+      <c r="AP13" s="45">
+        <v>2.1921296296296296E-2</v>
+      </c>
+      <c r="AQ13" s="58">
+        <f>AP13/0.0221875</f>
+        <v>0.98800208659363598</v>
+      </c>
+      <c r="AR13" s="45">
+        <v>1.7962962962962962E-2</v>
+      </c>
+      <c r="AS13" s="58">
+        <f>AR13/0.0181481481481481</f>
+        <v>0.98979591836734948</v>
+      </c>
+      <c r="AT13" s="45">
+        <v>2.1087962962962965E-2</v>
+      </c>
+      <c r="AU13" s="58">
+        <f>AT13/0.0282407407407407</f>
+        <v>0.74672131147541088</v>
+      </c>
+      <c r="AV13" s="45">
+        <v>1.8159722222222223E-2</v>
+      </c>
+      <c r="AW13" s="58">
+        <f>AV13/0.0189351851851852</f>
+        <v>0.95904645476772543</v>
+      </c>
+      <c r="AX13" s="42">
+        <f>AVERAGE(AQ13,AS13,AU13,AW13)*5</f>
+        <v>4.6044572140051523</v>
+      </c>
+      <c r="AY13" s="56"/>
+    </row>
+    <row r="14" spans="1:51">
+      <c r="A14" s="3">
+        <v>1062329024</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" s="3">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3" t="str" cm="1">
+        <f t="array" ref="H14">_xlfn.IFS(G14=1, "2:00 PM", G14=2, "2:30 PM", G14=3, "3:00 PM", G14=4, "3:30 PM")</f>
+        <v>3:30 PM</v>
+      </c>
+      <c r="I14" s="14">
+        <v>5</v>
+      </c>
+      <c r="J14" s="3">
+        <v>5</v>
+      </c>
+      <c r="K14" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="L14" s="5">
+        <f>(J14/I14)*K14</f>
+        <v>4.5</v>
+      </c>
+      <c r="M14" s="12">
+        <v>3.59</v>
+      </c>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="P14" s="5">
+        <f>0.7*L14+0.2*M14+0.1*O14+N14</f>
+        <v>4.3179999999999996</v>
+      </c>
+      <c r="Q14" s="31">
+        <v>0</v>
+      </c>
+      <c r="R14" s="32">
+        <f>Q14/$R$2</f>
+        <v>0</v>
+      </c>
+      <c r="S14" s="33">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="T14" s="32">
+        <f>S14/$T$2</f>
+        <v>1</v>
+      </c>
+      <c r="U14" s="32">
+        <v>1</v>
+      </c>
+      <c r="V14" s="34">
+        <v>1</v>
+      </c>
+      <c r="W14" s="12">
+        <f>AVERAGE(R14,T14,V14)*5</f>
+        <v>3.333333333333333</v>
+      </c>
+      <c r="X14" s="35"/>
+      <c r="Y14" s="35">
+        <v>5</v>
+      </c>
+      <c r="Z14" s="35">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="35"/>
+      <c r="AB14" s="35"/>
+      <c r="AC14" s="35">
+        <f>AVERAGE(X14:AB14)</f>
+        <v>2.5</v>
+      </c>
+      <c r="AD14" s="5">
+        <v>3</v>
+      </c>
+      <c r="AE14" s="5">
+        <v>4</v>
+      </c>
+      <c r="AF14" s="5">
+        <v>3.8461538461538463</v>
+      </c>
+      <c r="AG14" s="5">
+        <f>0.2*AF14+0.8*AVERAGE(AC14:AE14)</f>
+        <v>3.3025641025641024</v>
+      </c>
+      <c r="AH14" s="5">
+        <v>4.3</v>
+      </c>
+      <c r="AI14" s="5">
+        <v>4</v>
+      </c>
+      <c r="AJ14" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="AK14" s="5">
+        <v>4.8</v>
+      </c>
+      <c r="AL14" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="AM14" s="5">
+        <f>AVERAGE(AH14:AL14)</f>
+        <v>4.42</v>
+      </c>
+      <c r="AN14" s="5">
+        <v>4</v>
+      </c>
+      <c r="AO14" s="5">
+        <f>0.3*AN14+0.6*AM14+0.05*AG14+0.05*W14</f>
+        <v>4.1837948717948716</v>
+      </c>
+      <c r="AP14" s="33">
+        <v>0</v>
+      </c>
+      <c r="AQ14" s="57">
+        <f>AP14/0.0170138888888889</f>
+        <v>0</v>
+      </c>
+      <c r="AR14" s="33">
+        <v>0</v>
+      </c>
+      <c r="AS14" s="57">
+        <f>AR14/0.0163310185185185</f>
+        <v>0</v>
+      </c>
+      <c r="AT14" s="33">
+        <v>6.099537037037037E-3</v>
+      </c>
+      <c r="AU14" s="57">
+        <f>AT14/0.0328240740740741</f>
+        <v>0.18582510578279252</v>
+      </c>
+      <c r="AV14" s="33">
+        <v>0</v>
+      </c>
+      <c r="AW14" s="57">
+        <f>AV14/0.0208217592592593</f>
+        <v>0</v>
+      </c>
+      <c r="AX14" s="12">
+        <f>AVERAGE(AQ14,AS14,AU14,AW14)*5</f>
+        <v>0.23228138222849065</v>
+      </c>
+      <c r="AY14" s="48"/>
+    </row>
+    <row r="15" spans="1:51" s="48" customFormat="1">
+      <c r="A15" s="37">
         <v>1113698193</v>
       </c>
-      <c r="B10" s="38" t="s">
+      <c r="B15" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="38" t="s">
+      <c r="C15" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="39" t="s">
+      <c r="D15" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="37">
+      <c r="E15" s="37">
         <v>2</v>
       </c>
-      <c r="F10" s="38" t="s">
+      <c r="F15" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="G10" s="37">
-        <v>1</v>
-      </c>
-      <c r="H10" s="37" t="str" cm="1">
-        <f t="array" ref="H10">_xlfn.IFS(G10=1, "2:00 PM", G10=2, "2:30 PM", G10=3, "3:00 PM", G10=4, "3:30 PM")</f>
+      <c r="G15" s="37">
+        <v>1</v>
+      </c>
+      <c r="H15" s="37" t="str" cm="1">
+        <f t="array" ref="H15">_xlfn.IFS(G15=1, "2:00 PM", G15=2, "2:30 PM", G15=3, "3:00 PM", G15=4, "3:30 PM")</f>
         <v>2:00 PM</v>
       </c>
-      <c r="I10" s="40">
+      <c r="I15" s="40">
         <v>3</v>
       </c>
-      <c r="J10" s="37">
+      <c r="J15" s="37">
         <v>3</v>
       </c>
-      <c r="K10" s="41">
+      <c r="K15" s="41">
         <v>4.8</v>
       </c>
-      <c r="L10" s="41">
-        <f t="shared" si="0"/>
+      <c r="L15" s="41">
+        <f>(J15/I15)*K15</f>
         <v>4.8</v>
       </c>
-      <c r="M10" s="42">
+      <c r="M15" s="42">
         <v>3.55</v>
       </c>
-      <c r="N10" s="42">
+      <c r="N15" s="42">
         <f>2/20</f>
         <v>0.1</v>
       </c>
-      <c r="O10" s="42">
+      <c r="O15" s="42">
         <v>4.7</v>
       </c>
-      <c r="P10" s="41">
-        <f t="shared" si="1"/>
+      <c r="P15" s="41">
+        <f>0.7*L15+0.2*M15+0.1*O15+N15</f>
         <v>4.6399999999999997</v>
       </c>
-      <c r="Q10" s="43">
+      <c r="Q15" s="43">
         <v>1.5833333333333335E-2</v>
       </c>
-      <c r="R10" s="44">
-        <f t="shared" si="2"/>
+      <c r="R15" s="44">
+        <f>Q15/$R$2</f>
         <v>0.76000000000000012</v>
       </c>
-      <c r="S10" s="45">
+      <c r="S15" s="45">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="T10" s="44">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="U10" s="44">
-        <v>1</v>
-      </c>
-      <c r="V10" s="46">
+      <c r="T15" s="44">
+        <f>S15/$T$2</f>
+        <v>1</v>
+      </c>
+      <c r="U15" s="44">
+        <v>1</v>
+      </c>
+      <c r="V15" s="46">
         <v>0.6</v>
       </c>
-      <c r="W10" s="52">
-        <f t="shared" si="9"/>
+      <c r="W15" s="52">
+        <f>AVERAGE(R15,T15,V15)*5</f>
         <v>3.9333333333333336</v>
       </c>
-      <c r="X10" s="47">
+      <c r="X15" s="47">
         <v>5</v>
       </c>
-      <c r="Y10" s="47"/>
-      <c r="Z10" s="47"/>
-      <c r="AA10" s="47">
-        <v>4</v>
-      </c>
-      <c r="AB10" s="47"/>
-      <c r="AC10" s="47">
-        <f t="shared" si="4"/>
-        <v>4.5</v>
-      </c>
-      <c r="AD10" s="41">
-        <v>4.5</v>
-      </c>
-      <c r="AE10" s="41">
+      <c r="Y15" s="47"/>
+      <c r="Z15" s="47"/>
+      <c r="AA15" s="47">
+        <v>4</v>
+      </c>
+      <c r="AB15" s="47"/>
+      <c r="AC15" s="47">
+        <f>AVERAGE(X15:AB15)</f>
+        <v>4.5</v>
+      </c>
+      <c r="AD15" s="41">
+        <v>4.5</v>
+      </c>
+      <c r="AE15" s="41">
         <v>5</v>
       </c>
-      <c r="AF10" s="41">
+      <c r="AF15" s="41">
         <v>4.8571428571428568</v>
       </c>
-      <c r="AG10" s="51">
-        <f t="shared" si="8"/>
+      <c r="AG15" s="51">
+        <f>0.2*AF15+0.8*AVERAGE(AC15:AE15)</f>
         <v>4.7047619047619049</v>
       </c>
-      <c r="AH10" s="41">
+      <c r="AH15" s="41">
         <v>4.8</v>
       </c>
-      <c r="AI10" s="41">
+      <c r="AI15" s="41">
         <v>4.8</v>
       </c>
-      <c r="AJ10" s="41">
-        <v>4.5</v>
-      </c>
-      <c r="AK10" s="41">
+      <c r="AJ15" s="41">
+        <v>4.5</v>
+      </c>
+      <c r="AK15" s="41">
         <v>5</v>
       </c>
-      <c r="AL10" s="41">
-        <v>4.5</v>
-      </c>
-      <c r="AM10" s="51">
-        <f t="shared" si="5"/>
+      <c r="AL15" s="41">
+        <v>4.5</v>
+      </c>
+      <c r="AM15" s="51">
+        <f>AVERAGE(AH15:AL15)</f>
         <v>4.7200000000000006</v>
       </c>
-      <c r="AN10" s="51">
-        <v>4.5</v>
-      </c>
-      <c r="AO10" s="41">
-        <f t="shared" si="6"/>
+      <c r="AN15" s="51">
+        <v>4.5</v>
+      </c>
+      <c r="AO15" s="41">
+        <f>0.3*AN15+0.6*AM15+0.05*AG15+0.05*W15</f>
         <v>4.6139047619047622</v>
       </c>
-      <c r="AP10" s="56">
+      <c r="AP15" s="45">
         <v>1.6631944444444446E-2</v>
       </c>
-      <c r="AQ10" s="58">
-        <f>AP10/0.0230324074074074</f>
+      <c r="AQ15" s="58">
+        <f>AP15/0.0230324074074074</f>
         <v>0.72211055276381941</v>
       </c>
-      <c r="AR10" s="56">
+      <c r="AR15" s="45">
         <v>2.0706018518518519E-2</v>
       </c>
-      <c r="AS10" s="58">
-        <f>AR10/0.0230324074074074</f>
+      <c r="AS15" s="58">
+        <f>AR15/0.0230324074074074</f>
         <v>0.89899497487437219</v>
       </c>
-      <c r="AT10" s="56">
-        <v>0</v>
-      </c>
-      <c r="AU10" s="58">
-        <f t="shared" ref="AU10:AU13" si="10">AT10/0.0162615740740741</f>
-        <v>0</v>
-      </c>
-      <c r="AV10" s="48"/>
-      <c r="AW10" s="56"/>
-      <c r="AX10" s="48"/>
-      <c r="AY10" s="48"/>
-    </row>
-    <row r="11" spans="1:51" s="48" customFormat="1">
-      <c r="A11" s="3">
-        <v>1109662163</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="3">
+      <c r="AT15" s="45">
+        <v>0</v>
+      </c>
+      <c r="AU15" s="58">
+        <f>AT15/0.0162615740740741</f>
+        <v>0</v>
+      </c>
+      <c r="AV15" s="45">
+        <v>2.9166666666666668E-3</v>
+      </c>
+      <c r="AW15" s="58">
+        <f>AV15/0.0102314814814815</f>
+        <v>0.28506787330316691</v>
+      </c>
+      <c r="AX15" s="42">
+        <f>AVERAGE(AQ15,AS15,AU15,AW15)*5</f>
+        <v>2.382716751176698</v>
+      </c>
+      <c r="AY15" s="56"/>
+    </row>
+    <row r="16" spans="1:51">
+      <c r="A16" s="3">
+        <v>1005967544</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G16" s="3">
+        <v>4</v>
+      </c>
+      <c r="H16" s="3" t="str" cm="1">
+        <f t="array" ref="H16">_xlfn.IFS(G16=1, "2:00 PM", G16=2, "2:30 PM", G16=3, "3:00 PM", G16=4, "3:30 PM")</f>
+        <v>3:30 PM</v>
+      </c>
+      <c r="I16" s="14">
+        <v>1</v>
+      </c>
+      <c r="J16" s="3">
+        <v>1</v>
+      </c>
+      <c r="K16" s="3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="L16" s="5">
+        <f>(J16/I16)*K16</f>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="M16" s="12">
+        <v>3.59</v>
+      </c>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="P16" s="5">
+        <f>0.7*L16+0.2*M16+0.1*O16+N16</f>
+        <v>4.3879999999999999</v>
+      </c>
+      <c r="Q16" s="31">
+        <v>1.3935185185185186E-2</v>
+      </c>
+      <c r="R16" s="32">
+        <f>Q16/$R$2</f>
+        <v>0.66888888888888898</v>
+      </c>
+      <c r="S16" s="33">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="T16" s="32">
+        <f>S16/$T$2</f>
+        <v>1</v>
+      </c>
+      <c r="U16" s="32">
+        <v>1</v>
+      </c>
+      <c r="V16" s="34">
+        <v>1</v>
+      </c>
+      <c r="W16" s="12">
+        <f>AVERAGE(R16,T16,V16)*5</f>
+        <v>4.4481481481481486</v>
+      </c>
+      <c r="X16" s="35"/>
+      <c r="Y16" s="35">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="35"/>
+      <c r="AA16" s="35">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="35"/>
+      <c r="AC16" s="35">
+        <f>AVERAGE(X16:AB16)</f>
+        <v>0</v>
+      </c>
+      <c r="AD16" s="5">
+        <v>4</v>
+      </c>
+      <c r="AE16" s="5">
+        <v>4</v>
+      </c>
+      <c r="AF16" s="5">
+        <v>4.916666666666667</v>
+      </c>
+      <c r="AG16" s="5">
+        <f>0.2*AF16+0.8*AVERAGE(AC16:AE16)</f>
+        <v>3.1166666666666667</v>
+      </c>
+      <c r="AH16" s="5">
+        <v>4.3</v>
+      </c>
+      <c r="AI16" s="5">
+        <v>4</v>
+      </c>
+      <c r="AJ16" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="AK16" s="5">
+        <v>4.8</v>
+      </c>
+      <c r="AL16" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="AM16" s="5">
+        <f>AVERAGE(AH16:AL16)</f>
+        <v>4.42</v>
+      </c>
+      <c r="AN16" s="5">
+        <v>4</v>
+      </c>
+      <c r="AO16" s="5">
+        <f>0.3*AN16+0.6*AM16+0.05*AG16+0.05*W16</f>
+        <v>4.230240740740741</v>
+      </c>
+      <c r="AP16" s="33">
+        <v>1.6909722222222222E-2</v>
+      </c>
+      <c r="AQ16" s="57">
+        <f>AP16/0.0170138888888889</f>
+        <v>0.99387755102040742</v>
+      </c>
+      <c r="AR16" s="33">
+        <v>0</v>
+      </c>
+      <c r="AS16" s="57">
+        <f>AR16/0.0163310185185185</f>
+        <v>0</v>
+      </c>
+      <c r="AT16" s="33">
+        <v>3.2361111111111111E-2</v>
+      </c>
+      <c r="AU16" s="57">
+        <f>AT16/0.0328240740740741</f>
+        <v>0.98589562764456895</v>
+      </c>
+      <c r="AV16" s="33">
+        <v>2.0787037037037038E-2</v>
+      </c>
+      <c r="AW16" s="57">
+        <f>AV16/0.0208217592592593</f>
+        <v>0.9983324068927163</v>
+      </c>
+      <c r="AX16" s="12">
+        <f>AVERAGE(AQ16,AS16,AU16,AW16)*5</f>
+        <v>3.7226319819471159</v>
+      </c>
+      <c r="AY16" s="56"/>
+    </row>
+    <row r="17" spans="1:51" s="48" customFormat="1">
+      <c r="A17" s="37">
+        <v>1005832925</v>
+      </c>
+      <c r="B17" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="37">
         <v>2</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G11" s="3">
-        <v>1</v>
-      </c>
-      <c r="H11" s="3" t="str" cm="1">
-        <f t="array" ref="H11">_xlfn.IFS(G11=1, "2:00 PM", G11=2, "2:30 PM", G11=3, "3:00 PM", G11=4, "3:30 PM")</f>
+      <c r="F17" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="G17" s="37">
+        <v>1</v>
+      </c>
+      <c r="H17" s="37" t="str" cm="1">
+        <f t="array" ref="H17">_xlfn.IFS(G17=1, "2:00 PM", G17=2, "2:30 PM", G17=3, "3:00 PM", G17=4, "3:30 PM")</f>
         <v>2:00 PM</v>
       </c>
-      <c r="I11" s="14">
-        <v>7</v>
-      </c>
-      <c r="J11" s="3">
-        <v>7</v>
-      </c>
-      <c r="K11" s="5">
+      <c r="I17" s="40">
+        <v>11</v>
+      </c>
+      <c r="J17" s="37">
+        <v>11</v>
+      </c>
+      <c r="K17" s="41">
         <v>4.8</v>
       </c>
-      <c r="L11" s="5">
-        <f t="shared" si="0"/>
+      <c r="L17" s="41">
+        <f>(J17/I17)*K17</f>
         <v>4.8</v>
       </c>
-      <c r="M11" s="12">
+      <c r="M17" s="42">
         <v>3.55</v>
       </c>
-      <c r="N11" s="12">
-        <f>1/20</f>
-        <v>0.05</v>
-      </c>
-      <c r="O11" s="12">
-        <v>4.7</v>
-      </c>
-      <c r="P11" s="5">
-        <f t="shared" si="1"/>
-        <v>4.59</v>
-      </c>
-      <c r="Q11" s="31">
-        <v>1.4652777777777778E-2</v>
-      </c>
-      <c r="R11" s="32">
-        <f t="shared" si="2"/>
-        <v>0.70333333333333337</v>
-      </c>
-      <c r="S11" s="45">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="T11" s="32">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="U11" s="32">
-        <v>1</v>
-      </c>
-      <c r="V11" s="34">
-        <v>1</v>
-      </c>
-      <c r="W11" s="12">
-        <f t="shared" si="9"/>
-        <v>4.5055555555555555</v>
-      </c>
-      <c r="X11" s="35">
-        <v>3</v>
-      </c>
-      <c r="Y11" s="35"/>
-      <c r="Z11" s="35">
-        <v>5</v>
-      </c>
-      <c r="AA11" s="35"/>
-      <c r="AB11" s="35"/>
-      <c r="AC11" s="35">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="AD11" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="AE11" s="5">
-        <v>5</v>
-      </c>
-      <c r="AF11" s="5">
-        <v>5</v>
-      </c>
-      <c r="AG11" s="5">
-        <f t="shared" si="8"/>
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="AH11" s="5">
-        <v>4.8</v>
-      </c>
-      <c r="AI11" s="5">
-        <v>4.8</v>
-      </c>
-      <c r="AJ11" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="AK11" s="5">
-        <v>5</v>
-      </c>
-      <c r="AL11" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="AM11" s="5">
-        <f t="shared" si="5"/>
-        <v>4.7200000000000006</v>
-      </c>
-      <c r="AN11" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="AO11" s="5">
-        <f t="shared" si="6"/>
-        <v>4.6372777777777783</v>
-      </c>
-      <c r="AP11" s="56">
-        <v>2.2974537037037036E-2</v>
-      </c>
-      <c r="AQ11" s="58">
-        <f>AP11/0.0230324074074074</f>
-        <v>0.99748743718592991</v>
-      </c>
-      <c r="AR11" s="56">
-        <v>1.8726851851851852E-2</v>
-      </c>
-      <c r="AS11" s="58">
-        <f>AR11/0.0230324074074074</f>
-        <v>0.81306532663316611</v>
-      </c>
-      <c r="AT11" s="56">
-        <v>1.6168981481481482E-2</v>
-      </c>
-      <c r="AU11" s="58">
-        <f t="shared" si="10"/>
-        <v>0.99430604982206261</v>
-      </c>
-      <c r="AV11"/>
-      <c r="AW11" s="56"/>
-      <c r="AX11"/>
-      <c r="AY11"/>
-    </row>
-    <row r="12" spans="1:51">
-      <c r="A12" s="37">
-        <v>1005785832</v>
-      </c>
-      <c r="B12" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="E12" s="37">
-        <v>2</v>
-      </c>
-      <c r="F12" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="G12" s="37">
-        <v>1</v>
-      </c>
-      <c r="H12" s="37" t="str" cm="1">
-        <f t="array" ref="H12">_xlfn.IFS(G12=1, "2:00 PM", G12=2, "2:30 PM", G12=3, "3:00 PM", G12=4, "3:30 PM")</f>
-        <v>2:00 PM</v>
-      </c>
-      <c r="I12" s="40">
-        <v>7</v>
-      </c>
-      <c r="J12" s="37">
-        <v>7</v>
-      </c>
-      <c r="K12" s="41">
-        <v>4.8</v>
-      </c>
-      <c r="L12" s="41">
-        <f t="shared" si="0"/>
-        <v>4.8</v>
-      </c>
-      <c r="M12" s="42">
-        <v>3.55</v>
-      </c>
-      <c r="N12" s="42">
-        <f>1/20</f>
-        <v>0.05</v>
-      </c>
-      <c r="O12" s="42">
-        <v>4.7</v>
-      </c>
-      <c r="P12" s="41">
-        <f t="shared" si="1"/>
-        <v>4.59</v>
-      </c>
-      <c r="Q12" s="43">
-        <v>1.5520833333333333E-2</v>
-      </c>
-      <c r="R12" s="44">
-        <f t="shared" si="2"/>
-        <v>0.745</v>
-      </c>
-      <c r="S12" s="45">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="T12" s="44">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="U12" s="44">
-        <v>1</v>
-      </c>
-      <c r="V12" s="46">
-        <v>0.8</v>
-      </c>
-      <c r="W12" s="52">
-        <f t="shared" si="9"/>
-        <v>4.2416666666666663</v>
-      </c>
-      <c r="X12" s="47">
-        <v>3</v>
-      </c>
-      <c r="Y12" s="47"/>
-      <c r="Z12" s="47"/>
-      <c r="AA12" s="47">
-        <v>4</v>
-      </c>
-      <c r="AB12" s="47"/>
-      <c r="AC12" s="47">
-        <f t="shared" si="4"/>
-        <v>3.5</v>
-      </c>
-      <c r="AD12" s="41">
-        <v>4.5</v>
-      </c>
-      <c r="AE12" s="41"/>
-      <c r="AF12" s="41">
-        <v>4.9285714285714288</v>
-      </c>
-      <c r="AG12" s="51">
-        <f t="shared" si="8"/>
-        <v>4.1857142857142859</v>
-      </c>
-      <c r="AH12" s="41">
-        <v>4.8</v>
-      </c>
-      <c r="AI12" s="41">
-        <v>4.8</v>
-      </c>
-      <c r="AJ12" s="41">
-        <v>4.5</v>
-      </c>
-      <c r="AK12" s="41">
-        <v>5</v>
-      </c>
-      <c r="AL12" s="41">
-        <v>4.5</v>
-      </c>
-      <c r="AM12" s="51">
-        <f t="shared" si="5"/>
-        <v>4.7200000000000006</v>
-      </c>
-      <c r="AN12" s="51">
-        <v>4.5</v>
-      </c>
-      <c r="AO12" s="41">
-        <f t="shared" si="6"/>
-        <v>4.6033690476190481</v>
-      </c>
-      <c r="AP12" s="56">
-        <v>2.3009259259259261E-2</v>
-      </c>
-      <c r="AQ12" s="58">
-        <f>AP12/0.0230324074074074</f>
-        <v>0.99899497487437217</v>
-      </c>
-      <c r="AR12" s="56">
-        <v>1.6770833333333332E-2</v>
-      </c>
-      <c r="AS12" s="58">
-        <f>AR12/0.0230324074074074</f>
-        <v>0.72814070351758808</v>
-      </c>
-      <c r="AT12" s="56">
-        <v>1.6238425925925927E-2</v>
-      </c>
-      <c r="AU12" s="58">
-        <f t="shared" si="10"/>
-        <v>0.9985765124555146</v>
-      </c>
-      <c r="AW12" s="56"/>
-      <c r="AX12" s="48"/>
-      <c r="AY12" s="48"/>
-    </row>
-    <row r="13" spans="1:51" s="48" customFormat="1">
-      <c r="A13" s="37">
-        <v>1005832925</v>
-      </c>
-      <c r="B13" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="37">
-        <v>2</v>
-      </c>
-      <c r="F13" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="G13" s="37">
-        <v>1</v>
-      </c>
-      <c r="H13" s="37" t="str" cm="1">
-        <f t="array" ref="H13">_xlfn.IFS(G13=1, "2:00 PM", G13=2, "2:30 PM", G13=3, "3:00 PM", G13=4, "3:30 PM")</f>
-        <v>2:00 PM</v>
-      </c>
-      <c r="I13" s="40">
-        <v>11</v>
-      </c>
-      <c r="J13" s="37">
-        <v>11</v>
-      </c>
-      <c r="K13" s="41">
-        <v>4.8</v>
-      </c>
-      <c r="L13" s="41">
-        <f t="shared" si="0"/>
-        <v>4.8</v>
-      </c>
-      <c r="M13" s="42">
-        <v>3.55</v>
-      </c>
-      <c r="N13" s="42">
+      <c r="N17" s="42">
         <f>5/20</f>
         <v>0.25</v>
       </c>
-      <c r="O13" s="42">
+      <c r="O17" s="42">
         <v>4.7</v>
       </c>
-      <c r="P13" s="41">
-        <f t="shared" si="1"/>
+      <c r="P17" s="41">
+        <f>0.7*L17+0.2*M17+0.1*O17+N17</f>
         <v>4.79</v>
       </c>
-      <c r="Q13" s="43">
+      <c r="Q17" s="43">
         <v>1.5972222222222221E-2</v>
       </c>
-      <c r="R13" s="44">
-        <f t="shared" si="2"/>
+      <c r="R17" s="44">
+        <f>Q17/$R$2</f>
         <v>0.76666666666666661</v>
       </c>
-      <c r="S13" s="45">
+      <c r="S17" s="45">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="T13" s="44">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="U13" s="44">
-        <v>1</v>
-      </c>
-      <c r="V13" s="46">
-        <v>1</v>
-      </c>
-      <c r="W13" s="52">
-        <f t="shared" si="9"/>
+      <c r="T17" s="44">
+        <f>S17/$T$2</f>
+        <v>1</v>
+      </c>
+      <c r="U17" s="44">
+        <v>1</v>
+      </c>
+      <c r="V17" s="46">
+        <v>1</v>
+      </c>
+      <c r="W17" s="52">
+        <f>AVERAGE(R17,T17,V17)*5</f>
         <v>4.6111111111111107</v>
       </c>
-      <c r="X13" s="47"/>
-      <c r="Y13" s="47">
+      <c r="X17" s="47"/>
+      <c r="Y17" s="47">
         <v>5</v>
       </c>
-      <c r="Z13" s="47"/>
-      <c r="AA13" s="47">
+      <c r="Z17" s="47"/>
+      <c r="AA17" s="47">
         <v>2</v>
       </c>
-      <c r="AB13" s="47">
+      <c r="AB17" s="47">
         <v>3</v>
       </c>
-      <c r="AC13" s="47">
-        <f t="shared" si="4"/>
+      <c r="AC17" s="47">
+        <f>AVERAGE(X17:AB17)</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="AD13" s="41">
+      <c r="AD17" s="41">
         <v>5</v>
       </c>
-      <c r="AE13" s="41">
+      <c r="AE17" s="41">
         <v>5</v>
       </c>
-      <c r="AF13" s="41">
+      <c r="AF17" s="41">
         <v>5</v>
       </c>
-      <c r="AG13" s="51">
-        <f t="shared" si="8"/>
+      <c r="AG17" s="51">
+        <f>0.2*AF17+0.8*AVERAGE(AC17:AE17)</f>
         <v>4.5555555555555554</v>
       </c>
-      <c r="AH13" s="41">
+      <c r="AH17" s="41">
         <v>4.8</v>
       </c>
-      <c r="AI13" s="41">
+      <c r="AI17" s="41">
         <v>4.8</v>
       </c>
-      <c r="AJ13" s="41">
-        <v>4.5</v>
-      </c>
-      <c r="AK13" s="41">
+      <c r="AJ17" s="41">
+        <v>4.5</v>
+      </c>
+      <c r="AK17" s="41">
         <v>5</v>
       </c>
-      <c r="AL13" s="41">
-        <v>4.5</v>
-      </c>
-      <c r="AM13" s="51">
-        <f t="shared" si="5"/>
+      <c r="AL17" s="41">
+        <v>4.5</v>
+      </c>
+      <c r="AM17" s="51">
+        <f>AVERAGE(AH17:AL17)</f>
         <v>4.7200000000000006</v>
       </c>
-      <c r="AN13" s="51">
-        <v>4.5</v>
-      </c>
-      <c r="AO13" s="41">
-        <f t="shared" si="6"/>
+      <c r="AN17" s="51">
+        <v>4.5</v>
+      </c>
+      <c r="AO17" s="41">
+        <f>0.3*AN17+0.6*AM17+0.05*AG17+0.05*W17</f>
         <v>4.6403333333333334</v>
       </c>
-      <c r="AP13" s="56">
+      <c r="AP17" s="45">
         <v>2.3032407407407408E-2</v>
       </c>
-      <c r="AQ13" s="58">
-        <f>AP13/0.0230324074074074</f>
+      <c r="AQ17" s="58">
+        <f>AP17/0.0230324074074074</f>
         <v>1.0000000000000002</v>
       </c>
-      <c r="AR13" s="56">
+      <c r="AR17" s="45">
         <v>1.1574074074074073E-5</v>
       </c>
-      <c r="AS13" s="58">
-        <f>AR13/0.0230324074074074</f>
+      <c r="AS17" s="58">
+        <f>AR17/0.0230324074074074</f>
         <v>5.0251256281407051E-4</v>
       </c>
-      <c r="AT13" s="56">
+      <c r="AT17" s="45">
         <v>1.5300925925925926E-2</v>
       </c>
-      <c r="AU13" s="58">
-        <f t="shared" si="10"/>
+      <c r="AU17" s="58">
+        <f>AT17/0.0162615740740741</f>
         <v>0.9409252669039132</v>
       </c>
-      <c r="AV13"/>
-      <c r="AW13" s="56"/>
-      <c r="AX13"/>
-      <c r="AY13"/>
-    </row>
-    <row r="14" spans="1:51">
-      <c r="A14" s="37">
-        <v>1062274189</v>
-      </c>
-      <c r="B14" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="37">
-        <v>3</v>
-      </c>
-      <c r="F14" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="G14" s="37">
-        <v>2</v>
-      </c>
-      <c r="H14" s="37" t="str" cm="1">
-        <f t="array" ref="H14">_xlfn.IFS(G14=1, "2:00 PM", G14=2, "2:30 PM", G14=3, "3:00 PM", G14=4, "3:30 PM")</f>
-        <v>2:30 PM</v>
-      </c>
-      <c r="I14" s="40">
-        <v>5</v>
-      </c>
-      <c r="J14" s="37">
-        <v>3</v>
-      </c>
-      <c r="K14" s="41">
-        <v>4.5</v>
-      </c>
-      <c r="L14" s="41">
-        <f t="shared" si="0"/>
-        <v>2.6999999999999997</v>
-      </c>
-      <c r="M14" s="42">
-        <v>2.76</v>
-      </c>
-      <c r="N14" s="42"/>
-      <c r="O14" s="42">
-        <v>3</v>
-      </c>
-      <c r="P14" s="41">
-        <f t="shared" si="1"/>
-        <v>2.742</v>
-      </c>
-      <c r="Q14" s="43">
-        <v>1.8506944444444444E-2</v>
-      </c>
-      <c r="R14" s="44">
-        <f t="shared" si="2"/>
-        <v>0.88833333333333331</v>
-      </c>
-      <c r="S14" s="45">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="T14" s="44">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="U14" s="44">
-        <v>1</v>
-      </c>
-      <c r="V14" s="46">
-        <v>0.8</v>
-      </c>
-      <c r="W14" s="52">
-        <f t="shared" si="9"/>
-        <v>4.4805555555555561</v>
-      </c>
-      <c r="X14" s="47">
-        <v>2</v>
-      </c>
-      <c r="Y14" s="47">
-        <v>1</v>
-      </c>
-      <c r="Z14" s="47"/>
-      <c r="AA14" s="47">
-        <v>3</v>
-      </c>
-      <c r="AB14" s="47"/>
-      <c r="AC14" s="47">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="AD14" s="41">
-        <v>4</v>
-      </c>
-      <c r="AE14" s="41">
-        <v>4</v>
-      </c>
-      <c r="AF14" s="41">
-        <v>4.7692307692307692</v>
-      </c>
-      <c r="AG14" s="51">
-        <f t="shared" si="8"/>
-        <v>3.620512820512821</v>
-      </c>
-      <c r="AH14" s="41">
-        <v>4</v>
-      </c>
-      <c r="AI14" s="41">
-        <v>4.7</v>
-      </c>
-      <c r="AJ14" s="41">
-        <v>4.5</v>
-      </c>
-      <c r="AK14" s="41">
-        <v>4</v>
-      </c>
-      <c r="AL14" s="41">
-        <v>4.3</v>
-      </c>
-      <c r="AM14" s="51">
-        <f t="shared" si="5"/>
-        <v>4.3</v>
-      </c>
-      <c r="AN14" s="51">
-        <v>0</v>
-      </c>
-      <c r="AO14" s="41">
-        <f t="shared" si="6"/>
-        <v>2.9850534188034183</v>
-      </c>
-      <c r="AP14" s="56">
-        <v>2.2187499999999999E-2</v>
-      </c>
-      <c r="AQ14" s="59">
-        <f>AP14/0.0221875</f>
-        <v>1</v>
-      </c>
-      <c r="AR14" s="56">
-        <v>1.8148148148148149E-2</v>
-      </c>
-      <c r="AS14" s="59">
-        <f>AR14/0.0181481481481481</f>
-        <v>1.0000000000000027</v>
-      </c>
-      <c r="AT14" s="56">
-        <v>2.6921296296296297E-2</v>
-      </c>
-      <c r="AU14" s="59">
-        <f>AT14/0.0282407407407407</f>
-        <v>0.95327868852459152</v>
-      </c>
-      <c r="AW14" s="56"/>
-    </row>
-    <row r="15" spans="1:51" s="48" customFormat="1">
-      <c r="A15" s="37">
-        <v>1110363454</v>
-      </c>
-      <c r="B15" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="37">
-        <v>3</v>
-      </c>
-      <c r="F15" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="G15" s="37">
-        <v>2</v>
-      </c>
-      <c r="H15" s="37" t="str" cm="1">
-        <f t="array" ref="H15">_xlfn.IFS(G15=1, "2:00 PM", G15=2, "2:30 PM", G15=3, "3:00 PM", G15=4, "3:30 PM")</f>
-        <v>2:30 PM</v>
-      </c>
-      <c r="I15" s="40">
-        <v>6</v>
-      </c>
-      <c r="J15" s="37">
-        <v>6</v>
-      </c>
-      <c r="K15" s="41">
-        <v>4.8</v>
-      </c>
-      <c r="L15" s="41">
-        <f t="shared" si="0"/>
-        <v>4.8</v>
-      </c>
-      <c r="M15" s="42">
-        <v>2.76</v>
-      </c>
-      <c r="N15" s="42">
-        <f>1/13</f>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="O15" s="42">
-        <v>3</v>
-      </c>
-      <c r="P15" s="41">
-        <f t="shared" si="1"/>
-        <v>4.2889230769230764</v>
-      </c>
-      <c r="Q15" s="43">
-        <v>1.1863425925925927E-2</v>
-      </c>
-      <c r="R15" s="44">
-        <f t="shared" si="2"/>
-        <v>0.56944444444444453</v>
-      </c>
-      <c r="S15" s="45">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="T15" s="44">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="U15" s="44">
-        <v>1</v>
-      </c>
-      <c r="V15" s="46">
-        <v>1</v>
-      </c>
-      <c r="W15" s="52">
-        <f t="shared" si="9"/>
-        <v>4.2824074074074074</v>
-      </c>
-      <c r="X15" s="47">
-        <v>5</v>
-      </c>
-      <c r="Y15" s="47">
-        <v>3</v>
-      </c>
-      <c r="Z15" s="47"/>
-      <c r="AA15" s="47">
-        <v>5</v>
-      </c>
-      <c r="AB15" s="47"/>
-      <c r="AC15" s="47">
-        <f t="shared" si="4"/>
-        <v>4.333333333333333</v>
-      </c>
-      <c r="AD15" s="41">
-        <v>4</v>
-      </c>
-      <c r="AE15" s="41">
-        <v>4</v>
-      </c>
-      <c r="AF15" s="41">
-        <v>4.6923076923076925</v>
-      </c>
-      <c r="AG15" s="51">
-        <f t="shared" si="8"/>
-        <v>4.2273504273504274</v>
-      </c>
-      <c r="AH15" s="41">
-        <v>4</v>
-      </c>
-      <c r="AI15" s="41">
-        <v>4.7</v>
-      </c>
-      <c r="AJ15" s="41">
-        <v>4.5</v>
-      </c>
-      <c r="AK15" s="41">
-        <v>4</v>
-      </c>
-      <c r="AL15" s="41">
-        <v>4.3</v>
-      </c>
-      <c r="AM15" s="51">
-        <f t="shared" si="5"/>
-        <v>4.3</v>
-      </c>
-      <c r="AN15" s="51">
-        <v>0</v>
-      </c>
-      <c r="AO15" s="41">
-        <f t="shared" si="6"/>
-        <v>3.0054878917378911</v>
-      </c>
-      <c r="AP15" s="56">
-        <v>1.7175925925925924E-2</v>
-      </c>
-      <c r="AQ15" s="59">
-        <f>AP15/0.0221875</f>
-        <v>0.77412623891497123</v>
-      </c>
-      <c r="AR15" s="56">
-        <v>0</v>
-      </c>
-      <c r="AS15" s="59">
-        <f>AR15/0.0181481481481481</f>
-        <v>0</v>
-      </c>
-      <c r="AT15" s="56">
-        <v>4.3287037037037035E-3</v>
-      </c>
-      <c r="AU15" s="59">
-        <f t="shared" ref="AU15:AU18" si="11">AT15/0.0282407407407407</f>
-        <v>0.15327868852459037</v>
-      </c>
-      <c r="AV15"/>
-      <c r="AW15" s="56"/>
-    </row>
-    <row r="16" spans="1:51" ht="15.75">
-      <c r="A16" s="37">
-        <v>1007603017</v>
-      </c>
-      <c r="B16" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="37">
-        <v>3</v>
-      </c>
-      <c r="F16" s="49" t="s">
-        <v>79</v>
-      </c>
-      <c r="G16" s="37">
-        <v>2</v>
-      </c>
-      <c r="H16" s="37" t="str" cm="1">
-        <f t="array" ref="H16">_xlfn.IFS(G16=1, "2:00 PM", G16=2, "2:30 PM", G16=3, "3:00 PM", G16=4, "3:30 PM")</f>
-        <v>2:30 PM</v>
-      </c>
-      <c r="I16" s="40">
-        <v>5</v>
-      </c>
-      <c r="J16" s="37">
-        <v>5</v>
-      </c>
-      <c r="K16" s="41">
-        <v>4.8</v>
-      </c>
-      <c r="L16" s="41">
-        <f t="shared" si="0"/>
-        <v>4.8</v>
-      </c>
-      <c r="M16" s="42">
-        <v>2.76</v>
-      </c>
-      <c r="N16" s="42"/>
-      <c r="O16" s="42">
-        <v>3</v>
-      </c>
-      <c r="P16" s="41">
-        <f t="shared" si="1"/>
-        <v>4.2119999999999997</v>
-      </c>
-      <c r="Q16" s="43">
-        <v>1.8159722222222223E-2</v>
-      </c>
-      <c r="R16" s="44">
-        <f t="shared" si="2"/>
-        <v>0.8716666666666667</v>
-      </c>
-      <c r="S16" s="45">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="T16" s="44">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="U16" s="44">
-        <v>1</v>
-      </c>
-      <c r="V16" s="46">
-        <v>1</v>
-      </c>
-      <c r="W16" s="52">
-        <f t="shared" si="9"/>
-        <v>4.7861111111111114</v>
-      </c>
-      <c r="X16" s="47">
-        <v>4</v>
-      </c>
-      <c r="Y16" s="47"/>
-      <c r="Z16" s="47"/>
-      <c r="AA16" s="47">
-        <v>5</v>
-      </c>
-      <c r="AB16" s="47"/>
-      <c r="AC16" s="47">
-        <f t="shared" si="4"/>
-        <v>4.5</v>
-      </c>
-      <c r="AD16" s="41">
-        <v>4</v>
-      </c>
-      <c r="AE16" s="41">
-        <v>4</v>
-      </c>
-      <c r="AF16" s="41">
-        <v>4.615384615384615</v>
-      </c>
-      <c r="AG16" s="51">
-        <f t="shared" si="8"/>
-        <v>4.2564102564102573</v>
-      </c>
-      <c r="AH16" s="41">
-        <v>4</v>
-      </c>
-      <c r="AI16" s="41">
-        <v>4.7</v>
-      </c>
-      <c r="AJ16" s="41">
-        <v>4.5</v>
-      </c>
-      <c r="AK16" s="41">
-        <v>4</v>
-      </c>
-      <c r="AL16" s="41">
-        <v>4.3</v>
-      </c>
-      <c r="AM16" s="51">
-        <f t="shared" si="5"/>
-        <v>4.3</v>
-      </c>
-      <c r="AN16" s="51">
-        <v>0</v>
-      </c>
-      <c r="AO16" s="41">
-        <f t="shared" si="6"/>
-        <v>3.0321260683760682</v>
-      </c>
-      <c r="AP16" s="56">
-        <v>2.1921296296296296E-2</v>
-      </c>
-      <c r="AQ16" s="59">
-        <f>AP16/0.0221875</f>
-        <v>0.98800208659363598</v>
-      </c>
-      <c r="AR16" s="56">
-        <v>1.7962962962962962E-2</v>
-      </c>
-      <c r="AS16" s="59">
-        <f>AR16/0.0181481481481481</f>
-        <v>0.98979591836734948</v>
-      </c>
-      <c r="AT16" s="56">
-        <v>2.1087962962962965E-2</v>
-      </c>
-      <c r="AU16" s="59">
-        <f t="shared" si="11"/>
-        <v>0.74672131147541088</v>
-      </c>
-      <c r="AW16" s="56"/>
-    </row>
-    <row r="17" spans="1:51" s="48" customFormat="1">
-      <c r="A17" s="3">
-        <v>1081728000</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="3">
-        <v>3</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G17" s="3">
-        <v>2</v>
-      </c>
-      <c r="H17" s="3" t="str" cm="1">
-        <f t="array" ref="H17">_xlfn.IFS(G17=1, "2:00 PM", G17=2, "2:30 PM", G17=3, "3:00 PM", G17=4, "3:30 PM")</f>
-        <v>2:30 PM</v>
-      </c>
-      <c r="I17" s="14">
-        <v>5</v>
-      </c>
-      <c r="J17" s="3">
-        <v>5</v>
-      </c>
-      <c r="K17" s="5">
-        <v>4.8</v>
-      </c>
-      <c r="L17" s="5">
-        <f t="shared" si="0"/>
-        <v>4.8</v>
-      </c>
-      <c r="M17" s="12">
-        <v>2.76</v>
-      </c>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12">
-        <v>3</v>
-      </c>
-      <c r="P17" s="5">
-        <f t="shared" si="1"/>
-        <v>4.2119999999999997</v>
-      </c>
-      <c r="Q17" s="31">
-        <v>9.9305555555555553E-3</v>
-      </c>
-      <c r="R17" s="32">
-        <f t="shared" si="2"/>
-        <v>0.47666666666666668</v>
-      </c>
-      <c r="S17" s="33">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="T17" s="32">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="U17" s="32">
-        <v>1</v>
-      </c>
-      <c r="V17" s="34">
-        <v>1</v>
-      </c>
-      <c r="W17" s="12">
-        <f t="shared" si="9"/>
-        <v>4.1277777777777773</v>
-      </c>
-      <c r="X17" s="35">
-        <v>2</v>
-      </c>
-      <c r="Y17" s="35"/>
-      <c r="Z17" s="35"/>
-      <c r="AA17" s="35">
-        <v>1</v>
-      </c>
-      <c r="AB17" s="35"/>
-      <c r="AC17" s="35">
-        <f t="shared" si="4"/>
-        <v>1.5</v>
-      </c>
-      <c r="AD17" s="5">
-        <v>4</v>
-      </c>
-      <c r="AE17" s="5">
-        <v>4</v>
-      </c>
-      <c r="AF17" s="5">
-        <v>4.615384615384615</v>
-      </c>
-      <c r="AG17" s="5">
-        <f t="shared" si="8"/>
-        <v>3.4564102564102561</v>
-      </c>
-      <c r="AH17" s="5">
-        <v>4</v>
-      </c>
-      <c r="AI17" s="5">
-        <v>4.7</v>
-      </c>
-      <c r="AJ17" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="AK17" s="5">
-        <v>4</v>
-      </c>
-      <c r="AL17" s="5">
-        <v>4.3</v>
-      </c>
-      <c r="AM17" s="5">
-        <f t="shared" si="5"/>
-        <v>4.3</v>
-      </c>
-      <c r="AN17" s="5">
-        <v>0</v>
-      </c>
-      <c r="AO17" s="5">
-        <f t="shared" si="6"/>
-        <v>2.9592094017094013</v>
-      </c>
-      <c r="AP17" s="56">
-        <v>1.9305555555555555E-2</v>
-      </c>
-      <c r="AQ17" s="59">
-        <f>AP17/0.0221875</f>
-        <v>0.87010954616588421</v>
-      </c>
-      <c r="AR17" s="56">
-        <v>1.3553240740740741E-2</v>
-      </c>
-      <c r="AS17" s="59">
-        <f>AR17/0.0181481481481481</f>
-        <v>0.74681122448979786</v>
-      </c>
-      <c r="AT17" s="56">
-        <v>2.5300925925925925E-2</v>
-      </c>
-      <c r="AU17" s="59">
-        <f t="shared" si="11"/>
-        <v>0.89590163934426348</v>
-      </c>
-      <c r="AV17"/>
-      <c r="AW17" s="56"/>
-      <c r="AX17"/>
-      <c r="AY17"/>
+      <c r="AV17" s="45">
+        <v>1.0231481481481482E-2</v>
+      </c>
+      <c r="AW17" s="58">
+        <f>AV17/0.0102314814814815</f>
+        <v>0.99999999999999833</v>
+      </c>
+      <c r="AX17" s="42">
+        <f>AVERAGE(AQ17,AS17,AU17,AW17)*5</f>
+        <v>3.6767847243334071</v>
+      </c>
+      <c r="AY17" s="56"/>
     </row>
     <row r="18" spans="1:51">
       <c r="A18" s="3">
@@ -3767,7 +3867,7 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="L18" s="5">
-        <f t="shared" si="0"/>
+        <f>(J18/I18)*K18</f>
         <v>4.9000000000000004</v>
       </c>
       <c r="M18" s="12">
@@ -3778,21 +3878,21 @@
         <v>3</v>
       </c>
       <c r="P18" s="5">
-        <f t="shared" si="1"/>
+        <f>0.7*L18+0.2*M18+0.1*O18+N18</f>
         <v>4.282</v>
       </c>
       <c r="Q18" s="31">
         <v>0</v>
       </c>
       <c r="R18" s="32">
-        <f t="shared" si="2"/>
+        <f>Q18/$R$2</f>
         <v>0</v>
       </c>
       <c r="S18" s="33">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="T18" s="32">
-        <f t="shared" si="3"/>
+        <f>S18/$T$2</f>
         <v>1</v>
       </c>
       <c r="U18" s="32">
@@ -3816,7 +3916,7 @@
       </c>
       <c r="AB18" s="35"/>
       <c r="AC18" s="35">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(X18:AB18)</f>
         <v>2</v>
       </c>
       <c r="AD18" s="5">
@@ -3829,7 +3929,7 @@
         <v>4.5384615384615383</v>
       </c>
       <c r="AG18" s="5">
-        <f t="shared" si="8"/>
+        <f>0.2*AF18+0.8*AVERAGE(AC18:AE18)</f>
         <v>3.5743589743589745</v>
       </c>
       <c r="AH18" s="5">
@@ -3848,7 +3948,7 @@
         <v>4.3</v>
       </c>
       <c r="AM18" s="5">
-        <f t="shared" si="5"/>
+        <f>AVERAGE(AH18:AL18)</f>
         <v>4.3</v>
       </c>
       <c r="AN18" s="5">
@@ -3857,192 +3957,209 @@
       <c r="AO18" s="5">
         <v>3</v>
       </c>
-      <c r="AP18" s="56">
+      <c r="AP18" s="59">
         <v>2.2037037037037036E-2</v>
       </c>
-      <c r="AQ18" s="59">
+      <c r="AQ18" s="60">
         <f>AP18/0.0221875</f>
         <v>0.99321857068335939</v>
       </c>
-      <c r="AR18" s="56">
+      <c r="AR18" s="59">
         <v>1.8113425925925925E-2</v>
       </c>
-      <c r="AS18" s="59">
+      <c r="AS18" s="60">
         <f>AR18/0.0181481481481481</f>
         <v>0.9980867346938801</v>
       </c>
-      <c r="AT18" s="56">
+      <c r="AT18" s="59">
         <v>2.824074074074074E-2</v>
       </c>
-      <c r="AU18" s="59">
-        <f t="shared" si="11"/>
+      <c r="AU18" s="60">
+        <f>AT18/0.0282407407407407</f>
         <v>1.0000000000000013</v>
       </c>
-      <c r="AW18" s="56"/>
-      <c r="AX18" s="48"/>
-      <c r="AY18" s="48"/>
+      <c r="AV18" s="59">
+        <v>1.6574074074074074E-2</v>
+      </c>
+      <c r="AW18" s="60">
+        <f>AV18/0.0189351851851852</f>
+        <v>0.8753056234718819</v>
+      </c>
+      <c r="AX18" s="61">
+        <f>AVERAGE(AQ18,AS18,AU18,AW18)*5</f>
+        <v>4.8332636610614035</v>
+      </c>
+      <c r="AY18" s="56"/>
     </row>
     <row r="19" spans="1:51" s="48" customFormat="1">
-      <c r="A19" s="3">
-        <v>1025642375</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" s="3">
-        <v>4</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G19" s="3">
+      <c r="A19" s="37">
+        <v>1193578885</v>
+      </c>
+      <c r="B19" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="37">
+        <v>4</v>
+      </c>
+      <c r="F19" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="G19" s="37">
         <v>3</v>
       </c>
-      <c r="H19" s="3" t="str" cm="1">
+      <c r="H19" s="37" t="str" cm="1">
         <f t="array" ref="H19">_xlfn.IFS(G19=1, "2:00 PM", G19=2, "2:30 PM", G19=3, "3:00 PM", G19=4, "3:30 PM")</f>
         <v>3:00 PM</v>
       </c>
-      <c r="I19" s="14">
-        <v>5</v>
-      </c>
-      <c r="J19" s="3">
-        <v>5</v>
-      </c>
-      <c r="K19" s="3">
-        <v>4.7</v>
-      </c>
-      <c r="L19" s="5">
-        <f t="shared" si="0"/>
-        <v>4.7</v>
-      </c>
-      <c r="M19" s="12">
+      <c r="I19" s="40">
+        <v>4</v>
+      </c>
+      <c r="J19" s="37">
+        <v>4</v>
+      </c>
+      <c r="K19" s="41">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="L19" s="41">
+        <f>(J19/I19)*K19</f>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="M19" s="42">
         <v>2.96</v>
       </c>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12">
+      <c r="N19" s="42"/>
+      <c r="O19" s="42">
         <v>3.5</v>
       </c>
-      <c r="P19" s="5">
-        <f t="shared" si="1"/>
-        <v>4.2320000000000002</v>
-      </c>
-      <c r="Q19" s="31">
-        <v>2.0243055555555556E-2</v>
-      </c>
-      <c r="R19" s="32">
-        <f t="shared" si="2"/>
-        <v>0.97166666666666668</v>
-      </c>
-      <c r="S19" s="33">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="T19" s="32">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="U19" s="32">
-        <v>1</v>
-      </c>
-      <c r="V19" s="34">
-        <v>1</v>
-      </c>
-      <c r="W19" s="12">
+      <c r="P19" s="41">
+        <f>0.7*L19+0.2*M19+0.1*O19+N19</f>
+        <v>4.1619999999999999</v>
+      </c>
+      <c r="Q19" s="43">
+        <v>1.951388888888889E-2</v>
+      </c>
+      <c r="R19" s="44">
+        <f>Q19/$R$2</f>
+        <v>0.93666666666666676</v>
+      </c>
+      <c r="S19" s="45">
+        <v>0</v>
+      </c>
+      <c r="T19" s="44">
+        <f>S19/$T$2</f>
+        <v>0</v>
+      </c>
+      <c r="U19" s="44">
+        <v>1</v>
+      </c>
+      <c r="V19" s="46">
+        <v>1</v>
+      </c>
+      <c r="W19" s="52">
         <f>AVERAGE(R19,T19,V19)*5</f>
-        <v>4.9527777777777775</v>
-      </c>
-      <c r="X19" s="35"/>
-      <c r="Y19" s="35"/>
-      <c r="Z19" s="35"/>
-      <c r="AA19" s="35"/>
-      <c r="AB19" s="35"/>
-      <c r="AC19" s="35">
-        <v>0</v>
-      </c>
-      <c r="AD19" s="5"/>
-      <c r="AE19" s="5"/>
-      <c r="AF19" s="5">
+        <v>3.2277777777777779</v>
+      </c>
+      <c r="X19" s="47"/>
+      <c r="Y19" s="47"/>
+      <c r="Z19" s="47"/>
+      <c r="AA19" s="47"/>
+      <c r="AB19" s="47"/>
+      <c r="AC19" s="47">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="41"/>
+      <c r="AE19" s="41"/>
+      <c r="AF19" s="41">
         <v>2.3333333333333335</v>
       </c>
-      <c r="AG19" s="5">
-        <f t="shared" si="8"/>
+      <c r="AG19" s="51">
+        <f>0.2*AF19+0.8*AVERAGE(AC19:AE19)</f>
         <v>0.46666666666666673</v>
       </c>
-      <c r="AH19" s="5">
+      <c r="AH19" s="41">
         <v>4.8</v>
       </c>
-      <c r="AI19" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="AJ19" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="AK19" s="5">
+      <c r="AI19" s="41">
+        <v>4.5</v>
+      </c>
+      <c r="AJ19" s="41">
+        <v>4.5</v>
+      </c>
+      <c r="AK19" s="41">
         <v>3.5</v>
       </c>
-      <c r="AL19" s="5">
+      <c r="AL19" s="41">
         <v>3</v>
       </c>
-      <c r="AM19" s="5">
-        <f t="shared" si="5"/>
+      <c r="AM19" s="51">
+        <f>AVERAGE(AH19:AL19)</f>
         <v>4.0600000000000005</v>
       </c>
-      <c r="AN19" s="5">
+      <c r="AN19" s="51">
         <v>4</v>
       </c>
       <c r="AO19" s="36">
         <f>0.3*AN19+0.7*AM19</f>
         <v>4.0419999999999998</v>
       </c>
-      <c r="AP19" s="56">
-        <v>2.255787037037037E-2</v>
+      <c r="AP19" s="45">
+        <v>2.3252314814814816E-2</v>
       </c>
       <c r="AQ19" s="58">
         <f>AP19/0.0252083333333333</f>
-        <v>0.89485766758494145</v>
-      </c>
-      <c r="AR19" s="56">
-        <v>2.3622685185185184E-2</v>
+        <v>0.92240587695133269</v>
+      </c>
+      <c r="AR19" s="45">
+        <v>2.101851851851852E-2</v>
       </c>
       <c r="AS19" s="58">
         <f>AR19/0.0236226851851852</f>
-        <v>0.99999999999999922</v>
-      </c>
-      <c r="AT19" s="56">
-        <v>2.7731481481481482E-2</v>
+        <v>0.88975992160705475</v>
+      </c>
+      <c r="AT19" s="45">
+        <v>8.2060185185185187E-3</v>
       </c>
       <c r="AU19" s="58">
         <f>AT19/0.0277314814814815</f>
-        <v>0.99999999999999933</v>
-      </c>
-      <c r="AV19"/>
-      <c r="AW19" s="56"/>
-      <c r="AX19"/>
-      <c r="AY19"/>
+        <v>0.29590984974958245</v>
+      </c>
+      <c r="AV19" s="45">
+        <v>8.1597222222222227E-3</v>
+      </c>
+      <c r="AW19" s="58">
+        <f>AV19/0.0115277777777778</f>
+        <v>0.70783132530120352</v>
+      </c>
+      <c r="AX19" s="42">
+        <f>AVERAGE(AQ19,AS19,AU19,AW19)*5</f>
+        <v>3.5198837170114667</v>
+      </c>
+      <c r="AY19" s="56"/>
     </row>
     <row r="20" spans="1:51">
       <c r="A20" s="3">
-        <v>1193073115</v>
+        <v>1025642375</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E20" s="3">
         <v>4</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G20" s="3">
         <v>3</v>
@@ -4052,17 +4169,17 @@
         <v>3:00 PM</v>
       </c>
       <c r="I20" s="14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J20" s="3">
-        <v>4</v>
-      </c>
-      <c r="K20" s="5">
-        <v>4.8</v>
+        <v>5</v>
+      </c>
+      <c r="K20" s="3">
+        <v>4.7</v>
       </c>
       <c r="L20" s="5">
-        <f t="shared" si="0"/>
-        <v>4.8</v>
+        <f>(J20/I20)*K20</f>
+        <v>4.7</v>
       </c>
       <c r="M20" s="12">
         <v>2.96</v>
@@ -4072,21 +4189,21 @@
         <v>3.5</v>
       </c>
       <c r="P20" s="5">
-        <f t="shared" si="1"/>
-        <v>4.3019999999999996</v>
+        <f>0.7*L20+0.2*M20+0.1*O20+N20</f>
+        <v>4.2320000000000002</v>
       </c>
       <c r="Q20" s="31">
-        <v>2.0532407407407409E-2</v>
+        <v>2.0243055555555556E-2</v>
       </c>
       <c r="R20" s="32">
-        <f t="shared" si="2"/>
-        <v>0.98555555555555563</v>
+        <f>Q20/$R$2</f>
+        <v>0.97166666666666668</v>
       </c>
       <c r="S20" s="33">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="T20" s="32">
-        <f t="shared" si="3"/>
+        <f>S20/$T$2</f>
         <v>1</v>
       </c>
       <c r="U20" s="32">
@@ -4097,35 +4214,24 @@
       </c>
       <c r="W20" s="12">
         <f>AVERAGE(R20,T20,V20)*5</f>
-        <v>4.9759259259259263</v>
-      </c>
-      <c r="X20" s="35">
-        <v>5</v>
-      </c>
-      <c r="Y20" s="35">
-        <v>5</v>
-      </c>
-      <c r="Z20" s="35">
-        <v>5</v>
-      </c>
+        <v>4.9527777777777775</v>
+      </c>
+      <c r="X20" s="35"/>
+      <c r="Y20" s="35"/>
+      <c r="Z20" s="35"/>
       <c r="AA20" s="35"/>
       <c r="AB20" s="35"/>
       <c r="AC20" s="35">
-        <f>AVERAGE(X20:AB20)</f>
-        <v>5</v>
-      </c>
-      <c r="AD20" s="5">
-        <v>5</v>
-      </c>
-      <c r="AE20" s="5">
-        <v>4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AD20" s="5"/>
+      <c r="AE20" s="5"/>
       <c r="AF20" s="5">
-        <v>4.833333333333333</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="AG20" s="5">
-        <f t="shared" si="8"/>
-        <v>4.7</v>
+        <f>0.2*AF20+0.8*AVERAGE(AC20:AE20)</f>
+        <v>0.46666666666666673</v>
       </c>
       <c r="AH20" s="5">
         <v>4.8</v>
@@ -4143,104 +4249,115 @@
         <v>3</v>
       </c>
       <c r="AM20" s="5">
-        <f t="shared" si="5"/>
+        <f>AVERAGE(AH20:AL20)</f>
         <v>4.0600000000000005</v>
       </c>
       <c r="AN20" s="5">
         <v>4</v>
       </c>
-      <c r="AO20" s="5">
-        <f>0.3*AN20+0.6*AM20+0.05*AG20+0.05*W20</f>
-        <v>4.119796296296296</v>
-      </c>
-      <c r="AP20" s="56">
-        <v>2.5208333333333333E-2</v>
-      </c>
-      <c r="AQ20" s="58">
+      <c r="AO20" s="36">
+        <f>0.3*AN20+0.7*AM20</f>
+        <v>4.0419999999999998</v>
+      </c>
+      <c r="AP20" s="33">
+        <v>2.255787037037037E-2</v>
+      </c>
+      <c r="AQ20" s="57">
         <f>AP20/0.0252083333333333</f>
-        <v>1.0000000000000013</v>
-      </c>
-      <c r="AR20" s="56">
-        <v>2.2731481481481481E-2</v>
-      </c>
-      <c r="AS20" s="58">
+        <v>0.89485766758494145</v>
+      </c>
+      <c r="AR20" s="33">
+        <v>2.3622685185185184E-2</v>
+      </c>
+      <c r="AS20" s="57">
         <f>AR20/0.0236226851851852</f>
-        <v>0.96227339539441381</v>
-      </c>
-      <c r="AT20" s="56">
-        <v>0</v>
-      </c>
-      <c r="AU20" s="58">
-        <f t="shared" ref="AU20:AU22" si="12">AT20/0.0277314814814815</f>
-        <v>0</v>
-      </c>
-      <c r="AV20" s="48"/>
-      <c r="AW20" s="56"/>
-      <c r="AX20" s="48"/>
-      <c r="AY20" s="48"/>
+        <v>0.99999999999999922</v>
+      </c>
+      <c r="AT20" s="33">
+        <v>2.7731481481481482E-2</v>
+      </c>
+      <c r="AU20" s="57">
+        <f>AT20/0.0277314814814815</f>
+        <v>0.99999999999999933</v>
+      </c>
+      <c r="AV20" s="33">
+        <v>1.0046296296296296E-2</v>
+      </c>
+      <c r="AW20" s="57">
+        <f>AV20/0.0115277777777778</f>
+        <v>0.87148594377509869</v>
+      </c>
+      <c r="AX20" s="12">
+        <f>AVERAGE(AQ20,AS20,AU20,AW20)*5</f>
+        <v>4.7079295142000488</v>
+      </c>
+      <c r="AY20" s="56"/>
     </row>
     <row r="21" spans="1:51" s="48" customFormat="1">
       <c r="A21" s="37">
-        <v>1005894053</v>
+        <v>1110363454</v>
       </c>
       <c r="B21" s="38" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D21" s="39" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="E21" s="37">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F21" s="38" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="G21" s="37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H21" s="37" t="str" cm="1">
         <f t="array" ref="H21">_xlfn.IFS(G21=1, "2:00 PM", G21=2, "2:30 PM", G21=3, "3:00 PM", G21=4, "3:30 PM")</f>
-        <v>3:00 PM</v>
+        <v>2:30 PM</v>
       </c>
       <c r="I21" s="40">
+        <v>6</v>
+      </c>
+      <c r="J21" s="37">
+        <v>6</v>
+      </c>
+      <c r="K21" s="41">
+        <v>4.8</v>
+      </c>
+      <c r="L21" s="41">
+        <f>(J21/I21)*K21</f>
+        <v>4.8</v>
+      </c>
+      <c r="M21" s="42">
+        <v>2.76</v>
+      </c>
+      <c r="N21" s="42">
+        <f>1/13</f>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="O21" s="42">
         <v>3</v>
       </c>
-      <c r="J21" s="37">
-        <v>3</v>
-      </c>
-      <c r="K21" s="41">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="L21" s="41">
-        <f t="shared" si="0"/>
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="M21" s="42">
-        <v>2.96</v>
-      </c>
-      <c r="N21" s="42"/>
-      <c r="O21" s="42">
-        <v>3.5</v>
-      </c>
       <c r="P21" s="41">
-        <f t="shared" si="1"/>
-        <v>4.1619999999999999</v>
+        <f>0.7*L21+0.2*M21+0.1*O21+N21</f>
+        <v>4.2889230769230764</v>
       </c>
       <c r="Q21" s="43">
-        <v>2.1342592592592594E-2</v>
+        <v>1.1863425925925927E-2</v>
       </c>
       <c r="R21" s="44">
-        <f t="shared" si="2"/>
-        <v>1.0244444444444445</v>
+        <f>Q21/$R$2</f>
+        <v>0.56944444444444453</v>
       </c>
       <c r="S21" s="45">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="T21" s="44">
-        <f t="shared" si="3"/>
+        <f>S21/$T$2</f>
         <v>1</v>
       </c>
       <c r="U21" s="44">
@@ -4250,318 +4367,417 @@
         <v>1</v>
       </c>
       <c r="W21" s="52">
-        <v>5</v>
+        <f>AVERAGE(R21,T21,V21)*5</f>
+        <v>4.2824074074074074</v>
       </c>
       <c r="X21" s="47">
         <v>5</v>
       </c>
-      <c r="Y21" s="47"/>
+      <c r="Y21" s="47">
+        <v>3</v>
+      </c>
       <c r="Z21" s="47"/>
-      <c r="AA21" s="47"/>
+      <c r="AA21" s="47">
+        <v>5</v>
+      </c>
       <c r="AB21" s="47"/>
       <c r="AC21" s="47">
         <f>AVERAGE(X21:AB21)</f>
-        <v>5</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="AD21" s="41">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="AE21" s="41">
         <v>4</v>
       </c>
       <c r="AF21" s="41">
-        <v>4.666666666666667</v>
+        <v>4.6923076923076925</v>
       </c>
       <c r="AG21" s="51">
-        <f t="shared" si="8"/>
-        <v>4.5333333333333332</v>
+        <f>0.2*AF21+0.8*AVERAGE(AC21:AE21)</f>
+        <v>4.2273504273504274</v>
       </c>
       <c r="AH21" s="41">
-        <v>4.8</v>
+        <v>4</v>
       </c>
       <c r="AI21" s="41">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="AJ21" s="41">
         <v>4.5</v>
       </c>
       <c r="AK21" s="41">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="AL21" s="41">
-        <v>3</v>
+        <v>4.3</v>
       </c>
       <c r="AM21" s="51">
-        <f t="shared" si="5"/>
-        <v>4.0600000000000005</v>
+        <f>AVERAGE(AH21:AL21)</f>
+        <v>4.3</v>
       </c>
       <c r="AN21" s="51">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="41">
         <f>0.3*AN21+0.6*AM21+0.05*AG21+0.05*W21</f>
-        <v>4.1126666666666667</v>
-      </c>
-      <c r="AP21" s="56">
-        <v>1.7777777777777778E-2</v>
+        <v>3.0054878917378911</v>
+      </c>
+      <c r="AP21" s="45">
+        <v>1.7175925925925924E-2</v>
       </c>
       <c r="AQ21" s="58">
-        <f>AP21/0.0252083333333333</f>
-        <v>0.70523415977961523</v>
-      </c>
-      <c r="AR21" s="56">
-        <v>2.1342592592592594E-2</v>
+        <f>AP21/0.0221875</f>
+        <v>0.77412623891497123</v>
+      </c>
+      <c r="AR21" s="45">
+        <v>0</v>
       </c>
       <c r="AS21" s="58">
-        <f>AR21/0.0236226851851852</f>
-        <v>0.90347868691817679</v>
-      </c>
-      <c r="AT21" s="56">
-        <v>2.5532407407407406E-2</v>
+        <f>AR21/0.0181481481481481</f>
+        <v>0</v>
+      </c>
+      <c r="AT21" s="45">
+        <v>4.3287037037037035E-3</v>
       </c>
       <c r="AU21" s="58">
-        <f t="shared" si="12"/>
-        <v>0.92070116861435669</v>
-      </c>
-      <c r="AV21"/>
-      <c r="AW21" s="56"/>
+        <f>AT21/0.0282407407407407</f>
+        <v>0.15327868852459037</v>
+      </c>
+      <c r="AV21" s="45">
+        <v>9.2592592592592588E-5</v>
+      </c>
+      <c r="AW21" s="58">
+        <f>AV21/0.0189351851851852</f>
+        <v>4.889975550122245E-3</v>
+      </c>
+      <c r="AX21" s="42">
+        <f>AVERAGE(AQ21,AS21,AU21,AW21)*5</f>
+        <v>1.1653686287371048</v>
+      </c>
+      <c r="AY21" s="56"/>
     </row>
     <row r="22" spans="1:51">
-      <c r="A22" s="37">
-        <v>1193578885</v>
-      </c>
-      <c r="B22" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="D22" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="E22" s="37">
-        <v>4</v>
-      </c>
-      <c r="F22" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="G22" s="37">
+      <c r="A22" s="3">
+        <v>1109662163</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="3">
+        <v>2</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G22" s="3">
+        <v>1</v>
+      </c>
+      <c r="H22" s="3" t="str" cm="1">
+        <f t="array" ref="H22">_xlfn.IFS(G22=1, "2:00 PM", G22=2, "2:30 PM", G22=3, "3:00 PM", G22=4, "3:30 PM")</f>
+        <v>2:00 PM</v>
+      </c>
+      <c r="I22" s="14">
+        <v>7</v>
+      </c>
+      <c r="J22" s="3">
+        <v>7</v>
+      </c>
+      <c r="K22" s="5">
+        <v>4.8</v>
+      </c>
+      <c r="L22" s="5">
+        <f>(J22/I22)*K22</f>
+        <v>4.8</v>
+      </c>
+      <c r="M22" s="12">
+        <v>3.55</v>
+      </c>
+      <c r="N22" s="12">
+        <f>1/20</f>
+        <v>0.05</v>
+      </c>
+      <c r="O22" s="12">
+        <v>4.7</v>
+      </c>
+      <c r="P22" s="5">
+        <f>0.7*L22+0.2*M22+0.1*O22+N22</f>
+        <v>4.59</v>
+      </c>
+      <c r="Q22" s="31">
+        <v>1.4652777777777778E-2</v>
+      </c>
+      <c r="R22" s="32">
+        <f>Q22/$R$2</f>
+        <v>0.70333333333333337</v>
+      </c>
+      <c r="S22" s="45">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="T22" s="32">
+        <f>S22/$T$2</f>
+        <v>1</v>
+      </c>
+      <c r="U22" s="32">
+        <v>1</v>
+      </c>
+      <c r="V22" s="34">
+        <v>1</v>
+      </c>
+      <c r="W22" s="12">
+        <f>AVERAGE(R22,T22,V22)*5</f>
+        <v>4.5055555555555555</v>
+      </c>
+      <c r="X22" s="35">
         <v>3</v>
       </c>
-      <c r="H22" s="37" t="str" cm="1">
-        <f t="array" ref="H22">_xlfn.IFS(G22=1, "2:00 PM", G22=2, "2:30 PM", G22=3, "3:00 PM", G22=4, "3:30 PM")</f>
-        <v>3:00 PM</v>
-      </c>
-      <c r="I22" s="40">
-        <v>4</v>
-      </c>
-      <c r="J22" s="37">
-        <v>4</v>
-      </c>
-      <c r="K22" s="41">
+      <c r="Y22" s="35"/>
+      <c r="Z22" s="35">
+        <v>5</v>
+      </c>
+      <c r="AA22" s="35"/>
+      <c r="AB22" s="35"/>
+      <c r="AC22" s="35">
+        <f>AVERAGE(X22:AB22)</f>
+        <v>4</v>
+      </c>
+      <c r="AD22" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="AE22" s="5">
+        <v>5</v>
+      </c>
+      <c r="AF22" s="5">
+        <v>5</v>
+      </c>
+      <c r="AG22" s="5">
+        <f>0.2*AF22+0.8*AVERAGE(AC22:AE22)</f>
         <v>4.5999999999999996</v>
       </c>
-      <c r="L22" s="41">
-        <f t="shared" si="0"/>
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="M22" s="42">
-        <v>2.96</v>
-      </c>
-      <c r="N22" s="42"/>
-      <c r="O22" s="42">
-        <v>3.5</v>
-      </c>
-      <c r="P22" s="41">
-        <f t="shared" si="1"/>
-        <v>4.1619999999999999</v>
-      </c>
-      <c r="Q22" s="43">
-        <v>1.951388888888889E-2</v>
-      </c>
-      <c r="R22" s="44">
-        <f t="shared" si="2"/>
-        <v>0.93666666666666676</v>
-      </c>
-      <c r="S22" s="45">
-        <v>0</v>
-      </c>
-      <c r="T22" s="44">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U22" s="44">
-        <v>1</v>
-      </c>
-      <c r="V22" s="46">
-        <v>1</v>
-      </c>
-      <c r="W22" s="52">
-        <f>AVERAGE(R22,T22,V22)*5</f>
-        <v>3.2277777777777779</v>
-      </c>
-      <c r="X22" s="47"/>
-      <c r="Y22" s="47"/>
-      <c r="Z22" s="47"/>
-      <c r="AA22" s="47"/>
-      <c r="AB22" s="47"/>
-      <c r="AC22" s="47">
-        <v>0</v>
-      </c>
-      <c r="AD22" s="41"/>
-      <c r="AE22" s="41"/>
-      <c r="AF22" s="41">
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="AG22" s="51">
-        <f t="shared" si="8"/>
-        <v>0.46666666666666673</v>
-      </c>
-      <c r="AH22" s="41">
+      <c r="AH22" s="5">
         <v>4.8</v>
       </c>
-      <c r="AI22" s="41">
-        <v>4.5</v>
-      </c>
-      <c r="AJ22" s="41">
-        <v>4.5</v>
-      </c>
-      <c r="AK22" s="41">
-        <v>3.5</v>
-      </c>
-      <c r="AL22" s="41">
-        <v>3</v>
-      </c>
-      <c r="AM22" s="51">
-        <f t="shared" si="5"/>
-        <v>4.0600000000000005</v>
-      </c>
-      <c r="AN22" s="51">
-        <v>4</v>
-      </c>
-      <c r="AO22" s="36">
-        <f>0.3*AN22+0.7*AM22</f>
-        <v>4.0419999999999998</v>
-      </c>
-      <c r="AP22" s="56">
-        <v>2.3252314814814816E-2</v>
-      </c>
-      <c r="AQ22" s="58">
-        <f>AP22/0.0252083333333333</f>
-        <v>0.92240587695133269</v>
-      </c>
-      <c r="AR22" s="56">
-        <v>2.101851851851852E-2</v>
-      </c>
-      <c r="AS22" s="58">
-        <f>AR22/0.0236226851851852</f>
-        <v>0.88975992160705475</v>
-      </c>
-      <c r="AT22" s="56">
-        <v>8.2060185185185187E-3</v>
-      </c>
-      <c r="AU22" s="58">
-        <f t="shared" si="12"/>
-        <v>0.29590984974958245</v>
-      </c>
-      <c r="AW22" s="56"/>
-      <c r="AX22" s="48"/>
-      <c r="AY22" s="48"/>
+      <c r="AI22" s="5">
+        <v>4.8</v>
+      </c>
+      <c r="AJ22" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="AK22" s="5">
+        <v>5</v>
+      </c>
+      <c r="AL22" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="AM22" s="5">
+        <f>AVERAGE(AH22:AL22)</f>
+        <v>4.7200000000000006</v>
+      </c>
+      <c r="AN22" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="AO22" s="5">
+        <f>0.3*AN22+0.6*AM22+0.05*AG22+0.05*W22</f>
+        <v>4.6372777777777783</v>
+      </c>
+      <c r="AP22" s="33">
+        <v>2.2974537037037036E-2</v>
+      </c>
+      <c r="AQ22" s="57">
+        <f>AP22/0.0230324074074074</f>
+        <v>0.99748743718592991</v>
+      </c>
+      <c r="AR22" s="33">
+        <v>1.8726851851851852E-2</v>
+      </c>
+      <c r="AS22" s="57">
+        <f>AR22/0.0230324074074074</f>
+        <v>0.81306532663316611</v>
+      </c>
+      <c r="AT22" s="33">
+        <v>1.6168981481481482E-2</v>
+      </c>
+      <c r="AU22" s="57">
+        <f>AT22/0.0162615740740741</f>
+        <v>0.99430604982206261</v>
+      </c>
+      <c r="AV22" s="33">
+        <v>9.9652777777777778E-3</v>
+      </c>
+      <c r="AW22" s="57">
+        <f>AV22/0.0102314814814815</f>
+        <v>0.973981900452487</v>
+      </c>
+      <c r="AX22" s="12">
+        <f>AVERAGE(AQ22,AS22,AU22,AW22)*5</f>
+        <v>4.7235508926170571</v>
+      </c>
+      <c r="AY22" s="56"/>
     </row>
     <row r="23" spans="1:51" s="48" customFormat="1">
       <c r="A23" s="37">
-        <v>1004189893</v>
+        <v>1126644560</v>
       </c>
       <c r="B23" s="38" t="s">
-        <v>101</v>
+        <v>55</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="D23" s="38"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="37"/>
-      <c r="K23" s="37"/>
-      <c r="L23" s="38"/>
-      <c r="M23" s="42"/>
+        <v>56</v>
+      </c>
+      <c r="D23" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="37">
+        <v>1</v>
+      </c>
+      <c r="F23" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="G23" s="37">
+        <v>4</v>
+      </c>
+      <c r="H23" s="37" t="str" cm="1">
+        <f t="array" ref="H23">_xlfn.IFS(G23=1, "2:00 PM", G23=2, "2:30 PM", G23=3, "3:00 PM", G23=4, "3:30 PM")</f>
+        <v>3:30 PM</v>
+      </c>
+      <c r="I23" s="40">
+        <v>4</v>
+      </c>
+      <c r="J23" s="37">
+        <v>4</v>
+      </c>
+      <c r="K23" s="37">
+        <v>4.8</v>
+      </c>
+      <c r="L23" s="41">
+        <f>(J23/I23)*K23</f>
+        <v>4.8</v>
+      </c>
+      <c r="M23" s="42">
+        <v>3.59</v>
+      </c>
       <c r="N23" s="42"/>
-      <c r="O23" s="42"/>
-      <c r="P23" s="38"/>
+      <c r="O23" s="42">
+        <v>4.5</v>
+      </c>
+      <c r="P23" s="41">
+        <f>0.7*L23+0.2*M23+0.1*O23+N23</f>
+        <v>4.5279999999999996</v>
+      </c>
       <c r="Q23" s="43">
-        <v>0</v>
+        <v>1.6342592592592593E-2</v>
       </c>
       <c r="R23" s="44">
-        <v>0</v>
+        <f>Q23/$R$2</f>
+        <v>0.7844444444444445</v>
       </c>
       <c r="S23" s="45">
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="T23" s="44">
-        <v>0</v>
-      </c>
-      <c r="U23" s="45">
-        <v>0</v>
+        <f>S23/$T$2</f>
+        <v>1</v>
+      </c>
+      <c r="U23" s="44">
+        <v>1</v>
       </c>
       <c r="V23" s="46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W23" s="52">
-        <v>0</v>
+        <f>AVERAGE(R23,T23,V23)*5</f>
+        <v>4.6407407407407408</v>
       </c>
       <c r="X23" s="47"/>
-      <c r="Y23" s="47"/>
-      <c r="Z23" s="47"/>
+      <c r="Y23" s="47">
+        <v>4</v>
+      </c>
+      <c r="Z23" s="47">
+        <v>0</v>
+      </c>
       <c r="AA23" s="47"/>
       <c r="AB23" s="47"/>
       <c r="AC23" s="47">
-        <v>0</v>
-      </c>
-      <c r="AD23" s="41"/>
-      <c r="AE23" s="41"/>
+        <f>AVERAGE(X23:AB23)</f>
+        <v>2</v>
+      </c>
+      <c r="AD23" s="41">
+        <v>4.5</v>
+      </c>
+      <c r="AE23" s="41">
+        <v>4</v>
+      </c>
       <c r="AF23" s="41">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AG23" s="51">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f>0.2*AF23+0.8*AVERAGE(AC23:AE23)</f>
+        <v>3.8000000000000003</v>
       </c>
       <c r="AH23" s="41">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="AI23" s="41">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AJ23" s="41">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="AK23" s="41">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="AL23" s="41">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="AM23" s="51">
-        <v>0</v>
+        <f>AVERAGE(AH23:AL23)</f>
+        <v>4.42</v>
       </c>
       <c r="AN23" s="51">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AO23" s="41">
-        <v>0</v>
-      </c>
-      <c r="AP23" s="41"/>
-      <c r="AQ23" s="41"/>
-      <c r="AR23" s="56"/>
-      <c r="AS23" s="41"/>
-      <c r="AT23" s="56"/>
-      <c r="AU23" s="58"/>
-      <c r="AV23"/>
-      <c r="AW23" s="56"/>
-      <c r="AX23"/>
+        <f>0.3*AN23+0.6*AM23+0.05*AG23+0.05*W23</f>
+        <v>4.2740370370370364</v>
+      </c>
+      <c r="AP23" s="45">
+        <v>1.6087962962962964E-2</v>
+      </c>
+      <c r="AQ23" s="58">
+        <f>AP23/0.0170138888888889</f>
+        <v>0.94557823129251639</v>
+      </c>
+      <c r="AR23" s="45">
+        <v>1.3020833333333334E-2</v>
+      </c>
+      <c r="AS23" s="58">
+        <f>AR23/0.0163310185185185</f>
+        <v>0.79730687455705263</v>
+      </c>
+      <c r="AT23" s="45">
+        <v>3.2824074074074075E-2</v>
+      </c>
+      <c r="AU23" s="58">
+        <f>AT23/0.0328240740740741</f>
+        <v>0.99999999999999911</v>
+      </c>
+      <c r="AV23" s="45">
+        <v>0</v>
+      </c>
+      <c r="AW23" s="58">
+        <v>0.6</v>
+      </c>
+      <c r="AX23" s="42">
+        <f>AVERAGE(AQ23,AS23,AU23,AW23)*5</f>
+        <v>4.1786063823119601</v>
+      </c>
       <c r="AY23"/>
     </row>
     <row r="24" spans="1:51">
@@ -4585,9 +4801,14 @@
       <c r="G27" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:AY3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <autoFilter ref="A3:AY23" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="3">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:AY23">
-      <sortCondition ref="E3"/>
+      <sortCondition ref="B3"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="P4:P23">
@@ -4604,6 +4825,9 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="AQ5:AW15" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
